--- a/Assets/island/DBCfg/DataCfg.xlsx
+++ b/Assets/island/DBCfg/DataCfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24880" windowHeight="15540" tabRatio="827" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="24220" windowHeight="15360" tabRatio="827" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="配置表cfg" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="多语言" sheetId="16" r:id="rId7"/>
     <sheet name="兵种表bak" sheetId="21" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140001" calcMode="manual" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -730,7 +730,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3686" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3689" uniqueCount="885">
   <si>
     <t>表名：</t>
   </si>
@@ -4020,6 +4020,18 @@
   </si>
   <si>
     <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackEffect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSound</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4572,7 +4584,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1302">
+  <cellStyleXfs count="1306">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -6883,6 +6895,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -7321,7 +7345,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1302">
+  <cellStyles count="1306">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 1 10" xfId="2"/>
     <cellStyle name="20% - 强调文字颜色 1 10 2" xfId="3"/>
@@ -8315,6 +8339,8 @@
     <cellStyle name="超链接" xfId="1296" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1298" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1304" builtinId="8" hidden="1"/>
     <cellStyle name="逗号 [0]" xfId="885" builtinId="6"/>
     <cellStyle name="访问过的超链接" xfId="1085" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1087" builtinId="9" hidden="1"/>
@@ -8425,6 +8451,8 @@
     <cellStyle name="访问过的超链接" xfId="1297" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1299" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1305" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="886" builtinId="26" customBuiltin="1"/>
     <cellStyle name="好 10" xfId="887"/>
     <cellStyle name="好 11" xfId="888"/>
@@ -18153,13 +18181,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表7" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AP22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="U7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18189,17 +18217,18 @@
     <col min="32" max="32" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="21.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="2.6640625" style="4"/>
+    <col min="35" max="35" width="4.83203125" style="4" customWidth="1"/>
+    <col min="36" max="36" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="2.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:42">
       <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
@@ -18212,7 +18241,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:42">
       <c r="A2" s="143" t="s">
         <v>1</v>
       </c>
@@ -18225,7 +18254,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:42">
       <c r="A3" s="18"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -18234,7 +18263,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:41" s="19" customFormat="1" ht="83" customHeight="1">
+    <row r="4" spans="1:42" s="19" customFormat="1" ht="83" customHeight="1">
       <c r="A4" s="23" t="s">
         <v>9</v>
       </c>
@@ -18338,28 +18367,31 @@
         <v>61</v>
       </c>
       <c r="AI4" s="136" t="s">
+        <v>883</v>
+      </c>
+      <c r="AJ4" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="AJ4" s="136" t="s">
+      <c r="AK4" s="136" t="s">
         <v>63</v>
       </c>
-      <c r="AK4" s="136" t="s">
+      <c r="AL4" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="AL4" s="138" t="s">
+      <c r="AM4" s="138" t="s">
         <v>316</v>
       </c>
-      <c r="AM4" s="136" t="s">
+      <c r="AN4" s="136" t="s">
         <v>317</v>
       </c>
-      <c r="AN4" s="136" t="s">
+      <c r="AO4" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="AO4" s="136" t="s">
+      <c r="AP4" s="136" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:41" s="19" customFormat="1" ht="26" customHeight="1">
+    <row r="5" spans="1:42" s="19" customFormat="1" ht="26" customHeight="1">
       <c r="A5" s="23"/>
       <c r="B5" s="56" t="s">
         <v>2</v>
@@ -18461,28 +18493,31 @@
         <v>96</v>
       </c>
       <c r="AI5" s="56" t="s">
-        <v>97</v>
+        <v>882</v>
       </c>
       <c r="AJ5" s="56" t="s">
+        <v>884</v>
+      </c>
+      <c r="AK5" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="AK5" s="56" t="s">
+      <c r="AL5" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="AL5" s="57" t="s">
+      <c r="AM5" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="AM5" s="56" t="s">
+      <c r="AN5" s="56" t="s">
         <v>330</v>
       </c>
-      <c r="AN5" s="56" t="s">
+      <c r="AO5" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="AO5" s="56" t="s">
+      <c r="AP5" s="56" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:41" s="19" customFormat="1" ht="23" customHeight="1">
+    <row r="6" spans="1:42" s="19" customFormat="1" ht="23" customHeight="1">
       <c r="A6" s="23"/>
       <c r="B6" s="133" t="s">
         <v>331</v>
@@ -18587,25 +18622,28 @@
         <v>332</v>
       </c>
       <c r="AJ6" s="133" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AK6" s="133" t="s">
         <v>333</v>
       </c>
-      <c r="AL6" s="134" t="s">
+      <c r="AL6" s="133" t="s">
+        <v>333</v>
+      </c>
+      <c r="AM6" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="AM6" s="133" t="s">
+      <c r="AN6" s="133" t="s">
         <v>333</v>
       </c>
-      <c r="AN6" s="133" t="s">
+      <c r="AO6" s="133" t="s">
         <v>331</v>
       </c>
-      <c r="AO6" s="133" t="s">
+      <c r="AP6" s="133" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:42">
       <c r="A7" s="129" t="s">
         <v>393</v>
       </c>
@@ -18687,23 +18725,24 @@
       <c r="AF7" s="40"/>
       <c r="AG7" s="40"/>
       <c r="AH7" s="40"/>
-      <c r="AI7" s="40" t="s">
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="40" t="s">
         <v>357</v>
       </c>
-      <c r="AJ7" s="40" t="s">
+      <c r="AK7" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="AK7" s="40" t="s">
+      <c r="AL7" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="AL7" s="40"/>
       <c r="AM7" s="40"/>
       <c r="AN7" s="40"/>
-      <c r="AO7" s="40" t="s">
+      <c r="AO7" s="40"/>
+      <c r="AP7" s="40" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:42">
       <c r="A8" s="129" t="s">
         <v>396</v>
       </c>
@@ -18785,23 +18824,24 @@
       <c r="AF8" s="40"/>
       <c r="AG8" s="40"/>
       <c r="AH8" s="40"/>
-      <c r="AI8" s="40" t="s">
+      <c r="AI8" s="40"/>
+      <c r="AJ8" s="40" t="s">
         <v>357</v>
       </c>
-      <c r="AJ8" s="40" t="s">
+      <c r="AK8" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="AK8" s="40" t="s">
+      <c r="AL8" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="AL8" s="40"/>
       <c r="AM8" s="40"/>
       <c r="AN8" s="40"/>
-      <c r="AO8" s="40" t="s">
+      <c r="AO8" s="40"/>
+      <c r="AP8" s="40" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:42">
       <c r="A9" s="130" t="s">
         <v>334</v>
       </c>
@@ -18885,23 +18925,24 @@
       <c r="AF9" s="40"/>
       <c r="AG9" s="40"/>
       <c r="AH9" s="40"/>
-      <c r="AI9" s="21" t="s">
+      <c r="AI9" s="40"/>
+      <c r="AJ9" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="AJ9" s="40" t="s">
+      <c r="AK9" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="AK9" s="40" t="s">
+      <c r="AL9" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="AL9" s="40"/>
       <c r="AM9" s="40"/>
       <c r="AN9" s="40"/>
-      <c r="AO9" s="40" t="s">
+      <c r="AO9" s="40"/>
+      <c r="AP9" s="40" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:42">
       <c r="A10" s="130" t="s">
         <v>340</v>
       </c>
@@ -18976,20 +19017,21 @@
       <c r="AG10" s="40"/>
       <c r="AH10" s="40"/>
       <c r="AI10" s="40"/>
-      <c r="AJ10" s="40" t="s">
-        <v>135</v>
-      </c>
+      <c r="AJ10" s="40"/>
       <c r="AK10" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="AL10" s="40"/>
+      <c r="AL10" s="40" t="s">
+        <v>135</v>
+      </c>
       <c r="AM10" s="40"/>
       <c r="AN10" s="40"/>
-      <c r="AO10" s="40" t="s">
+      <c r="AO10" s="40"/>
+      <c r="AP10" s="40" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:42">
       <c r="A11" s="130" t="s">
         <v>346</v>
       </c>
@@ -19069,25 +19111,26 @@
       <c r="AF11" s="40"/>
       <c r="AG11" s="40"/>
       <c r="AH11" s="40"/>
-      <c r="AI11" s="43" t="s">
+      <c r="AI11" s="40"/>
+      <c r="AJ11" s="43" t="s">
         <v>181</v>
-      </c>
-      <c r="AJ11" s="40" t="s">
-        <v>109</v>
       </c>
       <c r="AK11" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="AL11" s="40">
+      <c r="AL11" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM11" s="40">
         <v>1</v>
       </c>
-      <c r="AM11" s="40"/>
       <c r="AN11" s="40"/>
-      <c r="AO11" s="40" t="s">
+      <c r="AO11" s="40"/>
+      <c r="AP11" s="40" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:42">
       <c r="A12" s="130" t="s">
         <v>353</v>
       </c>
@@ -19177,25 +19220,26 @@
         <v>116</v>
       </c>
       <c r="AH12" s="40"/>
-      <c r="AI12" s="40" t="s">
+      <c r="AI12" s="40"/>
+      <c r="AJ12" s="40" t="s">
         <v>357</v>
-      </c>
-      <c r="AJ12" s="40" t="s">
-        <v>109</v>
       </c>
       <c r="AK12" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="AL12" s="40">
+      <c r="AL12" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM12" s="40">
         <v>1</v>
       </c>
-      <c r="AM12" s="40"/>
       <c r="AN12" s="40"/>
-      <c r="AO12" s="40" t="s">
+      <c r="AO12" s="40"/>
+      <c r="AP12" s="40" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:42">
       <c r="A13" s="130" t="s">
         <v>363</v>
       </c>
@@ -19279,25 +19323,26 @@
         <v>108</v>
       </c>
       <c r="AH13" s="40"/>
-      <c r="AI13" s="43" t="s">
+      <c r="AI13" s="40"/>
+      <c r="AJ13" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="AJ13" s="40" t="s">
+      <c r="AK13" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="AK13" s="40" t="s">
+      <c r="AL13" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="AL13" s="40">
+      <c r="AM13" s="40">
         <v>2</v>
       </c>
-      <c r="AM13" s="40"/>
       <c r="AN13" s="40"/>
-      <c r="AO13" s="40" t="s">
+      <c r="AO13" s="40"/>
+      <c r="AP13" s="40" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:42">
       <c r="A14" s="130" t="s">
         <v>372</v>
       </c>
@@ -19389,23 +19434,24 @@
       <c r="AH14" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="AI14" s="21" t="s">
+      <c r="AI14" s="40"/>
+      <c r="AJ14" s="21" t="s">
         <v>376</v>
-      </c>
-      <c r="AJ14" s="40" t="s">
-        <v>109</v>
       </c>
       <c r="AK14" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="AL14" s="40"/>
+      <c r="AL14" s="40" t="s">
+        <v>109</v>
+      </c>
       <c r="AM14" s="40"/>
       <c r="AN14" s="40"/>
-      <c r="AO14" s="40" t="s">
+      <c r="AO14" s="40"/>
+      <c r="AP14" s="40" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:42">
       <c r="A15" s="130" t="s">
         <v>378</v>
       </c>
@@ -19498,25 +19544,26 @@
       <c r="AH15" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="AI15" s="21" t="s">
+      <c r="AI15" s="40"/>
+      <c r="AJ15" s="21" t="s">
         <v>376</v>
-      </c>
-      <c r="AJ15" s="40" t="s">
-        <v>109</v>
       </c>
       <c r="AK15" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="AL15" s="40">
+      <c r="AL15" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM15" s="40">
         <v>3</v>
       </c>
-      <c r="AM15" s="40"/>
       <c r="AN15" s="40"/>
-      <c r="AO15" s="40" t="s">
+      <c r="AO15" s="40"/>
+      <c r="AP15" s="40" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:42">
       <c r="A16" s="130" t="s">
         <v>383</v>
       </c>
@@ -19598,25 +19645,26 @@
       <c r="AH16" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="AI16" s="44" t="s">
+      <c r="AI16" s="40"/>
+      <c r="AJ16" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="AJ16" s="40" t="s">
+      <c r="AK16" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="AK16" s="40" t="s">
+      <c r="AL16" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="AL16" s="40">
+      <c r="AM16" s="40">
         <v>8</v>
       </c>
-      <c r="AM16" s="40"/>
       <c r="AN16" s="40"/>
-      <c r="AO16" s="40" t="s">
+      <c r="AO16" s="40"/>
+      <c r="AP16" s="40" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:42">
       <c r="A17" s="131" t="s">
         <v>398</v>
       </c>
@@ -19684,23 +19732,24 @@
       <c r="AF17" s="45"/>
       <c r="AG17" s="45"/>
       <c r="AH17" s="45"/>
-      <c r="AI17" s="45" t="s">
+      <c r="AI17" s="45"/>
+      <c r="AJ17" s="45" t="s">
         <v>403</v>
       </c>
-      <c r="AJ17" s="45" t="s">
+      <c r="AK17" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="AK17" s="45" t="s">
+      <c r="AL17" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="AL17" s="45"/>
       <c r="AM17" s="45"/>
       <c r="AN17" s="45"/>
-      <c r="AO17" s="45" t="s">
+      <c r="AO17" s="45"/>
+      <c r="AP17" s="45" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:42">
       <c r="A18" s="131" t="s">
         <v>405</v>
       </c>
@@ -19768,23 +19817,24 @@
       <c r="AF18" s="45"/>
       <c r="AG18" s="45"/>
       <c r="AH18" s="45"/>
-      <c r="AI18" s="45" t="s">
+      <c r="AI18" s="45"/>
+      <c r="AJ18" s="45" t="s">
         <v>408</v>
-      </c>
-      <c r="AJ18" s="45" t="s">
-        <v>109</v>
       </c>
       <c r="AK18" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="AL18" s="45"/>
+      <c r="AL18" s="45" t="s">
+        <v>109</v>
+      </c>
       <c r="AM18" s="45"/>
       <c r="AN18" s="45"/>
-      <c r="AO18" s="45" t="s">
+      <c r="AO18" s="45"/>
+      <c r="AP18" s="45" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:42">
       <c r="A19" s="131" t="s">
         <v>410</v>
       </c>
@@ -19858,25 +19908,26 @@
         <v>108</v>
       </c>
       <c r="AH19" s="45"/>
-      <c r="AI19" s="45" t="s">
+      <c r="AI19" s="45"/>
+      <c r="AJ19" s="45" t="s">
         <v>413</v>
-      </c>
-      <c r="AJ19" s="45" t="s">
-        <v>109</v>
       </c>
       <c r="AK19" s="45" t="s">
         <v>109</v>
       </c>
       <c r="AL19" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM19" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="AM19" s="45"/>
       <c r="AN19" s="45"/>
-      <c r="AO19" s="45" t="s">
+      <c r="AO19" s="45"/>
+      <c r="AP19" s="45" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:42">
       <c r="A20" s="131" t="s">
         <v>415</v>
       </c>
@@ -19948,25 +19999,26 @@
       <c r="AH20" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="AI20" s="45" t="s">
+      <c r="AI20" s="45"/>
+      <c r="AJ20" s="45" t="s">
         <v>421</v>
-      </c>
-      <c r="AJ20" s="45" t="s">
-        <v>109</v>
       </c>
       <c r="AK20" s="45" t="s">
         <v>109</v>
       </c>
       <c r="AL20" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM20" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="AM20" s="45"/>
       <c r="AN20" s="45"/>
-      <c r="AO20" s="45" t="s">
+      <c r="AO20" s="45"/>
+      <c r="AP20" s="45" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:42">
       <c r="A21" s="131" t="s">
         <v>423</v>
       </c>
@@ -20038,25 +20090,26 @@
       <c r="AH21" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="AI21" s="45" t="s">
+      <c r="AI21" s="45"/>
+      <c r="AJ21" s="45" t="s">
         <v>421</v>
-      </c>
-      <c r="AJ21" s="45" t="s">
-        <v>109</v>
       </c>
       <c r="AK21" s="45" t="s">
         <v>109</v>
       </c>
       <c r="AL21" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM21" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="AM21" s="45"/>
       <c r="AN21" s="45"/>
-      <c r="AO21" s="45" t="s">
+      <c r="AO21" s="45"/>
+      <c r="AP21" s="45" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:42">
       <c r="A22" s="132" t="s">
         <v>428</v>
       </c>
@@ -20130,21 +20183,22 @@
         <v>2</v>
       </c>
       <c r="AH22" s="45"/>
-      <c r="AI22" s="45" t="s">
+      <c r="AI22" s="45"/>
+      <c r="AJ22" s="45" t="s">
         <v>403</v>
-      </c>
-      <c r="AJ22" s="45" t="s">
-        <v>109</v>
       </c>
       <c r="AK22" s="45" t="s">
         <v>109</v>
       </c>
       <c r="AL22" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM22" s="45" t="s">
         <v>435</v>
       </c>
-      <c r="AM22" s="45"/>
       <c r="AN22" s="45"/>
-      <c r="AO22" s="48" t="s">
+      <c r="AO22" s="45"/>
+      <c r="AP22" s="48" t="s">
         <v>436</v>
       </c>
     </row>

--- a/Assets/island/DBCfg/DataCfg.xlsx
+++ b/Assets/island/DBCfg/DataCfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="0" windowWidth="24220" windowHeight="15360" tabRatio="827" activeTab="2"/>
+    <workbookView xWindow="200" yWindow="0" windowWidth="24220" windowHeight="15360" tabRatio="827" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="配置表cfg" sheetId="1" r:id="rId1"/>
@@ -653,6 +653,258 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>ZhongYuBing</author>
+    <author>Administrator</author>
+    <author>chenbin</author>
+  </authors>
+  <commentList>
+    <comment ref="K4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="7"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ZhongYuBing:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="7"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="7"/>
+            <charset val="134"/>
+          </rPr>
+          <t>为</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="7"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="7"/>
+            <charset val="134"/>
+          </rPr>
+          <t>的时候攻击指定地图点的目标，如果目标移动还是攻击地图的指定点</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="7"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ZhongYuBing:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="7"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="7"/>
+            <charset val="134"/>
+          </rPr>
+          <t>带抛物线的子弹才有数值，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="7"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="7"/>
+            <charset val="134"/>
+          </rPr>
+          <t>的时候为直线</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="7"/>
+            <charset val="134"/>
+          </rPr>
+          <t>chenbin:
+因为只能传整数，此处所填的值X10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="7"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ZhongYuBing:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="7"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="7"/>
+            <charset val="134"/>
+          </rPr>
+          <t>按</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="7"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="7"/>
+            <charset val="134"/>
+          </rPr>
+          <t>算秒</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="7"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ZhongYuBing:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="7"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="7"/>
+            <charset val="134"/>
+          </rPr>
+          <t>攻击的攻击波及范围数值</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="7"/>
+            <charset val="134"/>
+          </rPr>
+          <t>*10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S4" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="7"/>
+            <charset val="134"/>
+          </rPr>
+          <t>chenbin:
+用来指定当子弹击中后的特殊处理</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
@@ -691,7 +943,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2607" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="924">
   <si>
     <t>表名：</t>
   </si>
@@ -4120,6 +4372,106 @@
     <t>DontNeedFloor</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>射程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间(秒*10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波及半径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机因子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否跟踪弹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否穿心弹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中效果处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际上是个特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxStayTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpreadRadius</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomFactor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsFollow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsMulHit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitHandle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitEffect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsOnlyAEffect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -4128,7 +4480,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -4242,8 +4594,14 @@
       <family val="7"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="48">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4523,6 +4881,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7186,7 +7550,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -7654,6 +8018,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1366">
@@ -9816,7 +10189,7 @@
   </sheetPr>
   <dimension ref="A1:BL45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -20740,11 +21113,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -20762,7 +21135,7 @@
     <col min="11" max="11" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:21">
       <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
@@ -20778,7 +21151,7 @@
       <c r="I1" s="135"/>
       <c r="J1" s="135"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:21">
       <c r="A2" s="153" t="s">
         <v>1</v>
       </c>
@@ -20794,7 +21167,7 @@
       <c r="I2" s="135"/>
       <c r="J2" s="135"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:21">
       <c r="A3" s="146"/>
       <c r="B3" s="135"/>
       <c r="C3" s="135"/>
@@ -20806,7 +21179,7 @@
       <c r="I3" s="135"/>
       <c r="J3" s="135"/>
     </row>
-    <row r="4" spans="1:10" s="141" customFormat="1" ht="84">
+    <row r="4" spans="1:21" s="141" customFormat="1" ht="160">
       <c r="A4" s="147"/>
       <c r="B4" s="142" t="s">
         <v>2</v>
@@ -20832,8 +21205,41 @@
       <c r="I4" s="142" t="s">
         <v>805</v>
       </c>
+      <c r="K4" s="156" t="s">
+        <v>899</v>
+      </c>
+      <c r="L4" s="156" t="s">
+        <v>900</v>
+      </c>
+      <c r="M4" s="156" t="s">
+        <v>901</v>
+      </c>
+      <c r="N4" s="156" t="s">
+        <v>902</v>
+      </c>
+      <c r="O4" s="156" t="s">
+        <v>903</v>
+      </c>
+      <c r="P4" s="156" t="s">
+        <v>904</v>
+      </c>
+      <c r="Q4" s="156" t="s">
+        <v>905</v>
+      </c>
+      <c r="R4" s="156" t="s">
+        <v>906</v>
+      </c>
+      <c r="S4" s="156" t="s">
+        <v>907</v>
+      </c>
+      <c r="T4" s="156" t="s">
+        <v>908</v>
+      </c>
+      <c r="U4" s="156" t="s">
+        <v>909</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" s="141" customFormat="1" ht="46" customHeight="1">
+    <row r="5" spans="1:21" s="141" customFormat="1" ht="46" customHeight="1">
       <c r="A5" s="147"/>
       <c r="B5" s="143" t="s">
         <v>2</v>
@@ -20859,8 +21265,41 @@
       <c r="I5" s="144" t="s">
         <v>810</v>
       </c>
+      <c r="K5" s="157" t="s">
+        <v>910</v>
+      </c>
+      <c r="L5" s="157" t="s">
+        <v>911</v>
+      </c>
+      <c r="M5" s="157" t="s">
+        <v>912</v>
+      </c>
+      <c r="N5" s="157" t="s">
+        <v>913</v>
+      </c>
+      <c r="O5" s="157" t="s">
+        <v>914</v>
+      </c>
+      <c r="P5" s="157" t="s">
+        <v>915</v>
+      </c>
+      <c r="Q5" s="157" t="s">
+        <v>916</v>
+      </c>
+      <c r="R5" s="157" t="s">
+        <v>917</v>
+      </c>
+      <c r="S5" s="157" t="s">
+        <v>918</v>
+      </c>
+      <c r="T5" s="157" t="s">
+        <v>919</v>
+      </c>
+      <c r="U5" s="157" t="s">
+        <v>920</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" s="141" customFormat="1" ht="21" customHeight="1">
+    <row r="6" spans="1:21" s="141" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="147"/>
       <c r="B6" s="145" t="s">
         <v>279</v>
@@ -20886,8 +21325,41 @@
       <c r="I6" s="145" t="s">
         <v>94</v>
       </c>
+      <c r="K6" s="158" t="s">
+        <v>725</v>
+      </c>
+      <c r="L6" s="158" t="s">
+        <v>725</v>
+      </c>
+      <c r="M6" s="158" t="s">
+        <v>725</v>
+      </c>
+      <c r="N6" s="158" t="s">
+        <v>725</v>
+      </c>
+      <c r="O6" s="158" t="s">
+        <v>725</v>
+      </c>
+      <c r="P6" s="158" t="s">
+        <v>725</v>
+      </c>
+      <c r="Q6" s="158" t="s">
+        <v>921</v>
+      </c>
+      <c r="R6" s="158" t="s">
+        <v>921</v>
+      </c>
+      <c r="S6" s="158" t="s">
+        <v>725</v>
+      </c>
+      <c r="T6" s="158" t="s">
+        <v>922</v>
+      </c>
+      <c r="U6" s="158" t="s">
+        <v>923</v>
+      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:21">
       <c r="A7" s="148" t="s">
         <v>811</v>
       </c>
@@ -20919,7 +21391,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:21">
       <c r="A8" s="148" t="s">
         <v>817</v>
       </c>
@@ -20951,7 +21423,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:21">
       <c r="A9" s="148" t="s">
         <v>822</v>
       </c>
@@ -20983,7 +21455,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:21">
       <c r="A10" s="148" t="s">
         <v>827</v>
       </c>
@@ -21015,7 +21487,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:21">
       <c r="A11" s="148" t="s">
         <v>832</v>
       </c>
@@ -21047,7 +21519,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:21">
       <c r="A12" s="148" t="s">
         <v>835</v>
       </c>
@@ -21071,7 +21543,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:21">
       <c r="A13" s="148" t="s">
         <v>837</v>
       </c>
@@ -21101,7 +21573,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:21">
       <c r="A14" s="148" t="s">
         <v>840</v>
       </c>
@@ -21133,7 +21605,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:21">
       <c r="A15" s="148" t="s">
         <v>843</v>
       </c>
@@ -21151,7 +21623,7 @@
       <c r="I15" s="137"/>
       <c r="J15" s="140"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:21">
       <c r="A16" s="149" t="s">
         <v>347</v>
       </c>
@@ -21251,6 +21723,7 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Assets/island/DBCfg/DataCfg.xlsx
+++ b/Assets/island/DBCfg/DataCfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="0" windowWidth="24220" windowHeight="15360" tabRatio="827" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24460" windowHeight="15540" tabRatio="827" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="配置表cfg" sheetId="1" r:id="rId1"/>
@@ -654,11 +654,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ZhongYuBing</author>
-    <author>Administrator</author>
     <author>chenbin</author>
   </authors>
   <commentList>
-    <comment ref="K4" authorId="0">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -713,77 +712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="宋体"/>
-            <family val="7"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ZhongYuBing:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="宋体"/>
-            <family val="7"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="宋体"/>
-            <family val="7"/>
-            <charset val="134"/>
-          </rPr>
-          <t>带抛物线的子弹才有数值，</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="宋体"/>
-            <family val="7"/>
-            <charset val="134"/>
-          </rPr>
-          <t>0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="宋体"/>
-            <family val="7"/>
-            <charset val="134"/>
-          </rPr>
-          <t>的时候为直线</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M4" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="宋体"/>
-            <family val="7"/>
-            <charset val="134"/>
-          </rPr>
-          <t>chenbin:
-因为只能传整数，此处所填的值X10</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N4" authorId="0">
+    <comment ref="H4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -838,7 +767,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="0">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -883,7 +812,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S4" authorId="2">
+    <comment ref="M4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -943,7 +872,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="916">
   <si>
     <t>表名：</t>
   </si>
@@ -3969,9 +3898,6 @@
     <t>旋转</t>
   </si>
   <si>
-    <t>是否锁定目标</t>
-  </si>
-  <si>
     <t>命中音效</t>
   </si>
   <si>
@@ -3982,9 +3908,6 @@
   </si>
   <si>
     <t>Rotate</t>
-  </si>
-  <si>
-    <t>LockTarget</t>
   </si>
   <si>
     <t>普通炮弹</t>
@@ -4377,14 +4300,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>高度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>持续时间(秒*10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4409,10 +4324,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>击中特效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>实际上是个特效</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4421,14 +4332,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>High</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MaxStayTime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4453,10 +4356,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>HitEffect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>IsOnlyAEffect</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4465,11 +4364,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5046,7 +4945,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1366">
+  <cellStyleXfs count="1382">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -7549,8 +7448,56 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -8004,6 +7951,15 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8019,17 +7975,11 @@
     <xf numFmtId="49" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1366">
+  <cellStyles count="1382">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 1 10" xfId="2"/>
     <cellStyle name="20% - 强调文字颜色 1 10 2" xfId="3"/>
@@ -9055,6 +9005,14 @@
     <cellStyle name="超链接" xfId="1360" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1362" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1364" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1366" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1368" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1370" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1372" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1374" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1376" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1378" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1380" builtinId="8" hidden="1"/>
     <cellStyle name="逗号 [0]" xfId="885" builtinId="6"/>
     <cellStyle name="访问过的超链接" xfId="1085" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1087" builtinId="9" hidden="1"/>
@@ -9197,6 +9155,14 @@
     <cellStyle name="访问过的超链接" xfId="1361" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1363" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1381" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="886" builtinId="26" customBuiltin="1"/>
     <cellStyle name="好 10" xfId="887"/>
     <cellStyle name="好 11" xfId="888"/>
@@ -9883,11 +9849,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
@@ -9906,11 +9872,11 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
@@ -10254,11 +10220,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
       <c r="D1" s="27" t="s">
         <v>34</v>
       </c>
@@ -10267,11 +10233,11 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:64">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
       <c r="D2" s="27" t="s">
         <v>35</v>
       </c>
@@ -10314,7 +10280,7 @@
         <v>42</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="J4" s="28" t="s">
         <v>736</v>
@@ -10464,7 +10430,7 @@
         <v>59</v>
       </c>
       <c r="BG4" s="30" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="BH4" s="30" t="s">
         <v>60</v>
@@ -10505,7 +10471,7 @@
         <v>71</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="J5" s="28" t="s">
         <v>738</v>
@@ -10631,7 +10597,7 @@
         <v>78</v>
       </c>
       <c r="AY5" s="28" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="AZ5" s="109" t="s">
         <v>73</v>
@@ -10643,19 +10609,19 @@
         <v>86</v>
       </c>
       <c r="BC5" s="28" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="BD5" s="28" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="BE5" s="28" t="s">
         <v>79</v>
       </c>
       <c r="BF5" s="28" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="BG5" s="28" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="BH5" s="28" t="s">
         <v>88</v>
@@ -11113,7 +11079,7 @@
       <c r="BA8" s="35"/>
       <c r="BB8" s="35"/>
       <c r="BC8" s="31" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="BD8" s="31"/>
       <c r="BE8" s="35"/>
@@ -11238,7 +11204,7 @@
       <c r="BA9" s="35"/>
       <c r="BB9" s="35"/>
       <c r="BC9" s="36" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="BD9" s="36"/>
       <c r="BE9" s="35"/>
@@ -11375,7 +11341,7 @@
       <c r="BA10" s="35"/>
       <c r="BB10" s="35"/>
       <c r="BC10" s="36" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="BD10" s="36"/>
       <c r="BE10" s="35"/>
@@ -11631,10 +11597,10 @@
       <c r="BA12" s="35"/>
       <c r="BB12" s="35"/>
       <c r="BC12" s="36" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="BD12" s="37" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="BE12" s="35"/>
       <c r="BF12" s="35"/>
@@ -11756,7 +11722,7 @@
       <c r="BA13" s="35"/>
       <c r="BB13" s="35"/>
       <c r="BC13" s="31" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="BD13" s="33"/>
       <c r="BE13" s="35"/>
@@ -11881,10 +11847,10 @@
       <c r="BA14" s="35"/>
       <c r="BB14" s="35"/>
       <c r="BC14" s="36" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="BD14" s="37" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="BE14" s="35"/>
       <c r="BF14" s="35"/>
@@ -12006,7 +11972,7 @@
       <c r="BA15" s="35"/>
       <c r="BB15" s="35"/>
       <c r="BC15" s="31" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="BD15" s="33"/>
       <c r="BE15" s="35"/>
@@ -12131,10 +12097,10 @@
       <c r="BA16" s="35"/>
       <c r="BB16" s="35"/>
       <c r="BC16" s="31" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="BD16" s="33" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="BE16" s="35"/>
       <c r="BF16" s="35"/>
@@ -12256,7 +12222,7 @@
       <c r="BA17" s="35"/>
       <c r="BB17" s="35"/>
       <c r="BC17" s="31" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="BD17" s="33"/>
       <c r="BE17" s="35"/>
@@ -12398,12 +12364,12 @@
       <c r="BA18" s="34"/>
       <c r="BB18" s="34"/>
       <c r="BC18" s="34" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="BD18" s="34"/>
       <c r="BE18" s="34"/>
       <c r="BF18" s="34" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="BG18" s="34"/>
       <c r="BH18" s="34" t="s">
@@ -12546,12 +12512,12 @@
       <c r="BA19" s="32"/>
       <c r="BB19" s="32"/>
       <c r="BC19" s="36" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="BD19" s="36"/>
       <c r="BE19" s="32"/>
       <c r="BF19" s="36" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="BG19" s="36"/>
       <c r="BH19" s="35" t="s">
@@ -12698,12 +12664,12 @@
       <c r="BA20" s="34"/>
       <c r="BB20" s="34"/>
       <c r="BC20" s="34" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="BD20" s="34"/>
       <c r="BE20" s="34"/>
       <c r="BF20" s="34" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="BG20" s="34"/>
       <c r="BH20" s="34" t="s">
@@ -12846,12 +12812,12 @@
       <c r="BA21" s="32"/>
       <c r="BB21" s="32"/>
       <c r="BC21" s="36" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="BD21" s="36"/>
       <c r="BE21" s="32"/>
       <c r="BF21" s="36" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="BG21" s="36"/>
       <c r="BH21" s="32" t="s">
@@ -12998,12 +12964,12 @@
       <c r="BA22" s="34"/>
       <c r="BB22" s="34"/>
       <c r="BC22" s="34" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="BD22" s="34"/>
       <c r="BE22" s="34"/>
       <c r="BF22" s="36" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="BG22" s="36"/>
       <c r="BH22" s="34" t="s">
@@ -13146,12 +13112,12 @@
       <c r="BA23" s="32"/>
       <c r="BB23" s="32"/>
       <c r="BC23" s="36" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="BD23" s="36"/>
       <c r="BE23" s="32"/>
       <c r="BF23" s="32" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="BG23" s="32"/>
       <c r="BH23" s="32" t="s">
@@ -13297,12 +13263,12 @@
       <c r="BA24" s="36"/>
       <c r="BB24" s="36"/>
       <c r="BC24" s="31" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="BD24" s="36"/>
       <c r="BE24" s="36"/>
       <c r="BF24" s="36" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="BG24" s="36"/>
       <c r="BH24" s="32" t="s">
@@ -13447,12 +13413,12 @@
       <c r="BA25" s="38"/>
       <c r="BB25" s="38"/>
       <c r="BC25" s="31" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="BD25" s="36"/>
       <c r="BE25" s="36"/>
       <c r="BF25" s="36" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="BG25" s="36"/>
       <c r="BH25" s="38" t="s">
@@ -13597,12 +13563,12 @@
       <c r="BA26" s="36"/>
       <c r="BB26" s="36"/>
       <c r="BC26" s="31" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="BD26" s="36"/>
       <c r="BE26" s="36"/>
       <c r="BF26" s="36" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="BG26" s="36"/>
       <c r="BH26" s="32" t="s">
@@ -13747,7 +13713,7 @@
       <c r="BA27" s="36"/>
       <c r="BB27" s="36"/>
       <c r="BC27" s="31" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="BD27" s="36"/>
       <c r="BE27" s="36"/>
@@ -13899,7 +13865,7 @@
       <c r="BA28" s="36"/>
       <c r="BB28" s="36"/>
       <c r="BC28" s="31" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="BD28" s="36"/>
       <c r="BE28" s="36"/>
@@ -14051,7 +14017,7 @@
       <c r="BA29" s="36"/>
       <c r="BB29" s="36"/>
       <c r="BC29" s="31" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="BD29" s="36"/>
       <c r="BE29" s="36"/>
@@ -14193,7 +14159,7 @@
       <c r="BA30" s="36"/>
       <c r="BB30" s="36"/>
       <c r="BC30" s="31" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="BD30" s="36"/>
       <c r="BE30" s="36"/>
@@ -14345,7 +14311,7 @@
       <c r="BA31" s="36"/>
       <c r="BB31" s="36"/>
       <c r="BC31" s="31" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="BD31" s="36"/>
       <c r="BE31" s="36"/>
@@ -14448,7 +14414,7 @@
       <c r="BA32" s="36"/>
       <c r="BB32" s="36"/>
       <c r="BC32" s="36" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="BD32" s="36"/>
       <c r="BE32" s="36"/>
@@ -14547,7 +14513,7 @@
       <c r="BA33" s="36"/>
       <c r="BB33" s="36"/>
       <c r="BC33" s="36" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="BD33" s="36"/>
       <c r="BE33" s="36"/>
@@ -14646,7 +14612,7 @@
       <c r="BA34" s="36"/>
       <c r="BB34" s="36"/>
       <c r="BC34" s="36" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="BD34" s="36"/>
       <c r="BE34" s="36"/>
@@ -14745,7 +14711,7 @@
       <c r="BA35" s="36"/>
       <c r="BB35" s="36"/>
       <c r="BC35" s="36" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="BD35" s="36"/>
       <c r="BE35" s="36"/>
@@ -14844,7 +14810,7 @@
       <c r="BA36" s="36"/>
       <c r="BB36" s="36"/>
       <c r="BC36" s="36" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="BD36" s="36"/>
       <c r="BE36" s="36"/>
@@ -14953,7 +14919,7 @@
       <c r="BA37" s="36"/>
       <c r="BB37" s="36"/>
       <c r="BC37" s="36" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="BD37" s="36"/>
       <c r="BE37" s="36"/>
@@ -15046,7 +15012,7 @@
       <c r="BA38" s="36"/>
       <c r="BB38" s="36"/>
       <c r="BC38" s="36" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="BD38" s="36"/>
       <c r="BE38" s="36"/>
@@ -15137,7 +15103,7 @@
       <c r="BA39" s="36"/>
       <c r="BB39" s="36"/>
       <c r="BC39" s="36" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="BD39" s="36"/>
       <c r="BE39" s="36"/>
@@ -15230,7 +15196,7 @@
       <c r="BA40" s="36"/>
       <c r="BB40" s="36"/>
       <c r="BC40" s="36" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="BD40" s="36"/>
       <c r="BE40" s="36"/>
@@ -15323,7 +15289,7 @@
       <c r="BA41" s="36"/>
       <c r="BB41" s="36"/>
       <c r="BC41" s="36" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="BD41" s="36"/>
       <c r="BE41" s="36"/>
@@ -15416,7 +15382,7 @@
       <c r="BA42" s="36"/>
       <c r="BB42" s="36"/>
       <c r="BC42" s="36" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="BD42" s="36"/>
       <c r="BE42" s="36"/>
@@ -15852,11 +15818,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="4" customFormat="1">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
       <c r="D1" s="27" t="s">
         <v>365</v>
       </c>
@@ -15896,11 +15862,11 @@
       <c r="AM1" s="64"/>
     </row>
     <row r="2" spans="1:40" s="4" customFormat="1">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
       <c r="D2" s="55" t="s">
         <v>355</v>
       </c>
@@ -18740,11 +18706,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
       <c r="D1" s="27" t="s">
         <v>378</v>
       </c>
@@ -18754,11 +18720,11 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
       <c r="D2" s="55" t="s">
         <v>379</v>
       </c>
@@ -19101,11 +19067,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
       <c r="D1" s="131" t="s">
         <v>769</v>
       </c>
@@ -19114,11 +19080,11 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:42">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
       <c r="D2" s="131" t="s">
         <v>770</v>
       </c>
@@ -19341,7 +19307,7 @@
         <v>276</v>
       </c>
       <c r="AA5" s="49" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AB5" s="49" t="s">
         <v>277</v>
@@ -19801,7 +19767,7 @@
       <c r="AH9" s="40"/>
       <c r="AI9" s="40"/>
       <c r="AJ9" s="21" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AK9" s="40" t="s">
         <v>124</v>
@@ -19991,7 +19957,7 @@
       <c r="AH11" s="40"/>
       <c r="AI11" s="40"/>
       <c r="AJ11" s="43" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AK11" s="40" t="s">
         <v>99</v>
@@ -20102,7 +20068,7 @@
       <c r="AH12" s="40"/>
       <c r="AI12" s="40"/>
       <c r="AJ12" s="40" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="AK12" s="40" t="s">
         <v>99</v>
@@ -20207,7 +20173,7 @@
       <c r="AH13" s="40"/>
       <c r="AI13" s="40"/>
       <c r="AJ13" s="43" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="AK13" s="40" t="s">
         <v>124</v>
@@ -20320,7 +20286,7 @@
       </c>
       <c r="AI14" s="40"/>
       <c r="AJ14" s="21" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="AK14" s="40" t="s">
         <v>99</v>
@@ -20432,7 +20398,7 @@
       </c>
       <c r="AI15" s="40"/>
       <c r="AJ15" s="21" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="AK15" s="40" t="s">
         <v>99</v>
@@ -20535,7 +20501,7 @@
       </c>
       <c r="AI16" s="40"/>
       <c r="AJ16" s="44" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="AK16" s="40" t="s">
         <v>124</v>
@@ -20622,7 +20588,7 @@
       <c r="AH17" s="45"/>
       <c r="AI17" s="45"/>
       <c r="AJ17" s="45" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="AK17" s="45" t="s">
         <v>124</v>
@@ -20707,7 +20673,7 @@
       <c r="AH18" s="45"/>
       <c r="AI18" s="45"/>
       <c r="AJ18" s="45" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="AK18" s="45" t="s">
         <v>99</v>
@@ -20798,7 +20764,7 @@
       <c r="AH19" s="45"/>
       <c r="AI19" s="45"/>
       <c r="AJ19" s="45" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="AK19" s="45" t="s">
         <v>99</v>
@@ -20889,7 +20855,7 @@
       </c>
       <c r="AI20" s="45"/>
       <c r="AJ20" s="45" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="AK20" s="45" t="s">
         <v>99</v>
@@ -20980,7 +20946,7 @@
       </c>
       <c r="AI21" s="45"/>
       <c r="AJ21" s="45" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="AK21" s="45" t="s">
         <v>99</v>
@@ -21073,7 +21039,7 @@
       <c r="AH22" s="45"/>
       <c r="AI22" s="45"/>
       <c r="AJ22" s="45" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="AK22" s="45" t="s">
         <v>99</v>
@@ -21114,10 +21080,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -21125,49 +21091,47 @@
     <col min="1" max="1" width="10.83203125" style="150"/>
     <col min="2" max="2" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="48.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="152" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="154" t="s">
-        <v>853</v>
-      </c>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="157" t="s">
+        <v>851</v>
+      </c>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
       <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="153" t="s">
+    <row r="2" spans="1:17">
+      <c r="A2" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="154" t="s">
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="157" t="s">
         <v>800</v>
       </c>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
       <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:17">
       <c r="A3" s="146"/>
       <c r="B3" s="135"/>
       <c r="C3" s="135"/>
@@ -21175,131 +21139,104 @@
       <c r="E3" s="135"/>
       <c r="F3" s="135"/>
       <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
     </row>
-    <row r="4" spans="1:21" s="141" customFormat="1" ht="160">
+    <row r="4" spans="1:17" s="141" customFormat="1" ht="120" customHeight="1">
       <c r="A4" s="147"/>
       <c r="B4" s="142" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="142" t="s">
-        <v>851</v>
-      </c>
-      <c r="D4" s="142" t="s">
+        <v>849</v>
+      </c>
+      <c r="D4" s="151" t="s">
+        <v>897</v>
+      </c>
+      <c r="E4" s="142" t="s">
         <v>801</v>
       </c>
-      <c r="E4" s="142" t="s">
+      <c r="F4" s="142" t="s">
         <v>802</v>
       </c>
-      <c r="F4" s="142" t="s">
+      <c r="G4" s="142" t="s">
+        <v>804</v>
+      </c>
+      <c r="H4" s="151" t="s">
+        <v>898</v>
+      </c>
+      <c r="I4" s="151" t="s">
+        <v>899</v>
+      </c>
+      <c r="J4" s="151" t="s">
+        <v>900</v>
+      </c>
+      <c r="K4" s="151" t="s">
+        <v>901</v>
+      </c>
+      <c r="L4" s="151" t="s">
+        <v>902</v>
+      </c>
+      <c r="M4" s="151" t="s">
+        <v>903</v>
+      </c>
+      <c r="N4" s="151" t="s">
+        <v>904</v>
+      </c>
+      <c r="O4" s="142" t="s">
         <v>803</v>
       </c>
-      <c r="G4" s="142" t="s">
-        <v>806</v>
-      </c>
-      <c r="H4" s="142" t="s">
-        <v>804</v>
-      </c>
-      <c r="I4" s="142" t="s">
+      <c r="P4" s="142" t="s">
         <v>805</v>
       </c>
-      <c r="K4" s="156" t="s">
-        <v>899</v>
-      </c>
-      <c r="L4" s="156" t="s">
-        <v>900</v>
-      </c>
-      <c r="M4" s="156" t="s">
-        <v>901</v>
-      </c>
-      <c r="N4" s="156" t="s">
-        <v>902</v>
-      </c>
-      <c r="O4" s="156" t="s">
-        <v>903</v>
-      </c>
-      <c r="P4" s="156" t="s">
-        <v>904</v>
-      </c>
-      <c r="Q4" s="156" t="s">
-        <v>905</v>
-      </c>
-      <c r="R4" s="156" t="s">
-        <v>906</v>
-      </c>
-      <c r="S4" s="156" t="s">
-        <v>907</v>
-      </c>
-      <c r="T4" s="156" t="s">
-        <v>908</v>
-      </c>
-      <c r="U4" s="156" t="s">
-        <v>909</v>
-      </c>
     </row>
-    <row r="5" spans="1:21" s="141" customFormat="1" ht="46" customHeight="1">
+    <row r="5" spans="1:17" s="141" customFormat="1" ht="46" customHeight="1">
       <c r="A5" s="147"/>
       <c r="B5" s="143" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="144" t="s">
-        <v>856</v>
-      </c>
-      <c r="D5" s="144" t="s">
+        <v>854</v>
+      </c>
+      <c r="D5" s="152" t="s">
+        <v>905</v>
+      </c>
+      <c r="E5" s="144" t="s">
+        <v>806</v>
+      </c>
+      <c r="F5" s="144" t="s">
         <v>807</v>
       </c>
-      <c r="E5" s="144" t="s">
+      <c r="G5" s="144" t="s">
         <v>808</v>
       </c>
-      <c r="F5" s="144" t="s">
-        <v>854</v>
-      </c>
-      <c r="G5" s="144" t="s">
-        <v>855</v>
-      </c>
-      <c r="H5" s="144" t="s">
-        <v>809</v>
-      </c>
-      <c r="I5" s="144" t="s">
-        <v>810</v>
-      </c>
-      <c r="K5" s="157" t="s">
+      <c r="H5" s="152" t="s">
+        <v>906</v>
+      </c>
+      <c r="I5" s="152" t="s">
+        <v>907</v>
+      </c>
+      <c r="J5" s="152" t="s">
+        <v>908</v>
+      </c>
+      <c r="K5" s="152" t="s">
+        <v>909</v>
+      </c>
+      <c r="L5" s="152" t="s">
         <v>910</v>
       </c>
-      <c r="L5" s="157" t="s">
+      <c r="M5" s="152" t="s">
         <v>911</v>
       </c>
-      <c r="M5" s="157" t="s">
+      <c r="N5" s="152" t="s">
         <v>912</v>
       </c>
-      <c r="N5" s="157" t="s">
-        <v>913</v>
-      </c>
-      <c r="O5" s="157" t="s">
-        <v>914</v>
-      </c>
-      <c r="P5" s="157" t="s">
-        <v>915</v>
-      </c>
-      <c r="Q5" s="157" t="s">
-        <v>916</v>
-      </c>
-      <c r="R5" s="157" t="s">
-        <v>917</v>
-      </c>
-      <c r="S5" s="157" t="s">
-        <v>918</v>
-      </c>
-      <c r="T5" s="157" t="s">
-        <v>919</v>
-      </c>
-      <c r="U5" s="157" t="s">
-        <v>920</v>
+      <c r="O5" s="144" t="s">
+        <v>852</v>
+      </c>
+      <c r="P5" s="144" t="s">
+        <v>853</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="141" customFormat="1" ht="21" customHeight="1">
+    <row r="6" spans="1:17" s="141" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="147"/>
       <c r="B6" s="145" t="s">
         <v>279</v>
@@ -21307,125 +21244,135 @@
       <c r="C6" s="145" t="s">
         <v>280</v>
       </c>
-      <c r="D6" s="145" t="s">
-        <v>849</v>
+      <c r="D6" s="153" t="s">
+        <v>725</v>
       </c>
       <c r="E6" s="145" t="s">
+        <v>847</v>
+      </c>
+      <c r="F6" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="145" t="s">
+      <c r="G6" s="145" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="153" t="s">
+        <v>725</v>
+      </c>
+      <c r="I6" s="153" t="s">
+        <v>725</v>
+      </c>
+      <c r="J6" s="153" t="s">
+        <v>725</v>
+      </c>
+      <c r="K6" s="153" t="s">
+        <v>913</v>
+      </c>
+      <c r="L6" s="153" t="s">
+        <v>913</v>
+      </c>
+      <c r="M6" s="153" t="s">
+        <v>725</v>
+      </c>
+      <c r="N6" s="153" t="s">
+        <v>914</v>
+      </c>
+      <c r="O6" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="145" t="s">
-        <v>850</v>
-      </c>
-      <c r="H6" s="145" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="145" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" s="158" t="s">
-        <v>725</v>
-      </c>
-      <c r="L6" s="158" t="s">
-        <v>725</v>
-      </c>
-      <c r="M6" s="158" t="s">
-        <v>725</v>
-      </c>
-      <c r="N6" s="158" t="s">
-        <v>725</v>
-      </c>
-      <c r="O6" s="158" t="s">
-        <v>725</v>
-      </c>
-      <c r="P6" s="158" t="s">
-        <v>725</v>
-      </c>
-      <c r="Q6" s="158" t="s">
-        <v>921</v>
-      </c>
-      <c r="R6" s="158" t="s">
-        <v>921</v>
-      </c>
-      <c r="S6" s="158" t="s">
-        <v>725</v>
-      </c>
-      <c r="T6" s="158" t="s">
-        <v>922</v>
-      </c>
-      <c r="U6" s="158" t="s">
-        <v>923</v>
+      <c r="P6" s="145" t="s">
+        <v>848</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:17">
       <c r="A7" s="148" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B7" s="137">
         <v>1</v>
       </c>
       <c r="C7" s="137" t="s">
+        <v>811</v>
+      </c>
+      <c r="D7" s="137" t="s">
+        <v>915</v>
+      </c>
+      <c r="E7" s="137" t="s">
+        <v>812</v>
+      </c>
+      <c r="F7" s="137" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="137" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="159">
+        <v>0</v>
+      </c>
+      <c r="I7" s="159"/>
+      <c r="J7" s="159"/>
+      <c r="K7" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" s="159"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="137" t="s">
         <v>813</v>
       </c>
-      <c r="D7" s="137" t="s">
+      <c r="P7" s="138" t="s">
         <v>814</v>
       </c>
-      <c r="E7" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="137" t="s">
+      <c r="Q7" s="136" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="24">
+      <c r="A8" s="148" t="s">
         <v>815</v>
-      </c>
-      <c r="G7" s="138" t="s">
-        <v>816</v>
-      </c>
-      <c r="H7" s="137" t="s">
-        <v>124</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="136" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="148" t="s">
-        <v>817</v>
       </c>
       <c r="B8" s="137">
         <v>2</v>
       </c>
       <c r="C8" s="137" t="s">
+        <v>817</v>
+      </c>
+      <c r="D8" s="137" t="s">
+        <v>915</v>
+      </c>
+      <c r="E8" s="137" t="s">
+        <v>812</v>
+      </c>
+      <c r="F8" s="137" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="137" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="159">
+        <v>0</v>
+      </c>
+      <c r="I8" s="159"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="L8" s="159"/>
+      <c r="M8" s="159"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="137" t="s">
+        <v>818</v>
+      </c>
+      <c r="P8" s="138" t="s">
         <v>819</v>
       </c>
-      <c r="D8" s="137" t="s">
-        <v>814</v>
-      </c>
-      <c r="E8" s="137" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="137" t="s">
+      <c r="Q8" s="136" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="24">
+      <c r="A9" s="148" t="s">
         <v>820</v>
-      </c>
-      <c r="G8" s="138" t="s">
-        <v>821</v>
-      </c>
-      <c r="H8" s="137" t="s">
-        <v>124</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="J8" s="136" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="148" t="s">
-        <v>822</v>
       </c>
       <c r="B9" s="137">
         <v>3</v>
@@ -21434,196 +21381,273 @@
         <v>203</v>
       </c>
       <c r="D9" s="137" t="s">
+        <v>915</v>
+      </c>
+      <c r="E9" s="137" t="s">
+        <v>822</v>
+      </c>
+      <c r="F9" s="137" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="137" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="159">
+        <v>0</v>
+      </c>
+      <c r="I9" s="159"/>
+      <c r="J9" s="159"/>
+      <c r="K9" s="39" t="s">
+        <v>823</v>
+      </c>
+      <c r="L9" s="159"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="137" t="s">
+        <v>818</v>
+      </c>
+      <c r="P9" s="138" t="s">
         <v>824</v>
       </c>
-      <c r="E9" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="137" t="s">
-        <v>820</v>
-      </c>
-      <c r="G9" s="138" t="s">
-        <v>826</v>
-      </c>
-      <c r="H9" s="137" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="39" t="s">
+      <c r="Q9" s="136" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="24">
+      <c r="A10" s="148" t="s">
         <v>825</v>
-      </c>
-      <c r="J9" s="136" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="148" t="s">
-        <v>827</v>
       </c>
       <c r="B10" s="137">
         <v>4</v>
       </c>
       <c r="C10" s="137" t="s">
+        <v>827</v>
+      </c>
+      <c r="D10" s="137" t="s">
+        <v>915</v>
+      </c>
+      <c r="E10" s="137" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="137" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="159">
+        <v>0</v>
+      </c>
+      <c r="I10" s="159"/>
+      <c r="J10" s="159"/>
+      <c r="K10" s="39" t="s">
+        <v>823</v>
+      </c>
+      <c r="L10" s="159"/>
+      <c r="M10" s="159"/>
+      <c r="N10" s="159"/>
+      <c r="O10" s="137" t="s">
+        <v>828</v>
+      </c>
+      <c r="P10" s="138" t="s">
         <v>829</v>
       </c>
-      <c r="D10" s="137" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="137" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="137" t="s">
+      <c r="Q10" s="136" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="24">
+      <c r="A11" s="148" t="s">
         <v>830</v>
-      </c>
-      <c r="G10" s="138" t="s">
-        <v>831</v>
-      </c>
-      <c r="H10" s="137" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>825</v>
-      </c>
-      <c r="J10" s="136" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="148" t="s">
-        <v>832</v>
       </c>
       <c r="B11" s="137">
         <v>5</v>
       </c>
       <c r="C11" s="137" t="s">
+        <v>827</v>
+      </c>
+      <c r="D11" s="137" t="s">
+        <v>915</v>
+      </c>
+      <c r="E11" s="137" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="137" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="159">
+        <v>0</v>
+      </c>
+      <c r="I11" s="159"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="39" t="s">
+        <v>832</v>
+      </c>
+      <c r="L11" s="159"/>
+      <c r="M11" s="159"/>
+      <c r="N11" s="159"/>
+      <c r="O11" s="137" t="s">
+        <v>828</v>
+      </c>
+      <c r="P11" s="138" t="s">
         <v>829</v>
       </c>
-      <c r="D11" s="137" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="137" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="137" t="s">
-        <v>830</v>
-      </c>
-      <c r="G11" s="138" t="s">
+      <c r="Q11" s="136" t="s">
         <v>831</v>
       </c>
-      <c r="H11" s="137" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>834</v>
-      </c>
-      <c r="J11" s="136" t="s">
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="148" t="s">
         <v>833</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="148" t="s">
-        <v>835</v>
       </c>
       <c r="B12" s="137">
         <v>6</v>
       </c>
       <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
+      <c r="D12" s="137" t="s">
+        <v>915</v>
+      </c>
       <c r="E12" s="137"/>
       <c r="F12" s="137"/>
-      <c r="G12" s="39" t="s">
-        <v>836</v>
-      </c>
-      <c r="H12" s="137" t="s">
+      <c r="G12" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="I12" s="39" t="s">
-        <v>825</v>
-      </c>
-      <c r="J12" s="136" t="s">
-        <v>852</v>
+      <c r="H12" s="159">
+        <v>0</v>
+      </c>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="39" t="s">
+        <v>823</v>
+      </c>
+      <c r="L12" s="159"/>
+      <c r="M12" s="159"/>
+      <c r="N12" s="159"/>
+      <c r="O12" s="137"/>
+      <c r="P12" s="39" t="s">
+        <v>834</v>
+      </c>
+      <c r="Q12" s="136" t="s">
+        <v>850</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:17" ht="36">
       <c r="A13" s="148" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B13" s="137">
         <v>7</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>839</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>814</v>
+        <v>837</v>
+      </c>
+      <c r="D13" s="137" t="s">
+        <v>915</v>
       </c>
       <c r="E13" s="39" t="s">
+        <v>812</v>
+      </c>
+      <c r="F13" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="137" t="s">
-        <v>815</v>
-      </c>
-      <c r="G13" s="138"/>
-      <c r="H13" s="39" t="s">
-        <v>825</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>825</v>
-      </c>
-      <c r="J13" s="136" t="s">
+      <c r="G13" s="39" t="s">
+        <v>823</v>
+      </c>
+      <c r="H13" s="159">
+        <v>0</v>
+      </c>
+      <c r="I13" s="159"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="39" t="s">
+        <v>823</v>
+      </c>
+      <c r="L13" s="159"/>
+      <c r="M13" s="159"/>
+      <c r="N13" s="159"/>
+      <c r="O13" s="137" t="s">
+        <v>813</v>
+      </c>
+      <c r="P13" s="138"/>
+      <c r="Q13" s="136" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="148" t="s">
         <v>838</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="148" t="s">
-        <v>840</v>
       </c>
       <c r="B14" s="137">
         <v>8</v>
       </c>
       <c r="C14" s="137" t="s">
+        <v>827</v>
+      </c>
+      <c r="D14" s="137" t="s">
+        <v>915</v>
+      </c>
+      <c r="E14" s="137" t="s">
+        <v>840</v>
+      </c>
+      <c r="F14" s="137" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="137" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="159">
+        <v>0</v>
+      </c>
+      <c r="I14" s="159"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="39" t="s">
+        <v>823</v>
+      </c>
+      <c r="L14" s="159"/>
+      <c r="M14" s="159"/>
+      <c r="N14" s="159"/>
+      <c r="O14" s="137" t="s">
+        <v>828</v>
+      </c>
+      <c r="P14" s="138" t="s">
         <v>829</v>
       </c>
-      <c r="D14" s="137" t="s">
-        <v>842</v>
-      </c>
-      <c r="E14" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="137" t="s">
-        <v>830</v>
-      </c>
-      <c r="G14" s="138" t="s">
-        <v>831</v>
-      </c>
-      <c r="H14" s="137" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="39" t="s">
-        <v>825</v>
-      </c>
-      <c r="J14" s="139" t="s">
+      <c r="Q14" s="139" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="148" t="s">
         <v>841</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="148" t="s">
-        <v>843</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>118</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>844</v>
-      </c>
-      <c r="D15" s="137"/>
+        <v>842</v>
+      </c>
+      <c r="D15" s="137" t="s">
+        <v>915</v>
+      </c>
       <c r="E15" s="137"/>
       <c r="F15" s="137"/>
       <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="140"/>
+      <c r="H15" s="159">
+        <v>0</v>
+      </c>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="159"/>
+      <c r="M15" s="159"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="137"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="140"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:17">
       <c r="A16" s="149" t="s">
         <v>347</v>
       </c>
@@ -21631,81 +21655,114 @@
         <v>102</v>
       </c>
       <c r="C16" s="137" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D16" s="137" t="s">
-        <v>814</v>
+        <v>915</v>
       </c>
       <c r="E16" s="137" t="s">
+        <v>812</v>
+      </c>
+      <c r="F16" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137" t="s">
+      <c r="G16" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="I16" s="137" t="s">
+      <c r="H16" s="159">
+        <v>0</v>
+      </c>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="J16" s="140"/>
+      <c r="L16" s="159"/>
+      <c r="M16" s="159"/>
+      <c r="N16" s="159"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="140"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:17">
       <c r="A17" s="149" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B17" s="137" t="s">
         <v>140</v>
       </c>
       <c r="C17" s="137" t="s">
+        <v>817</v>
+      </c>
+      <c r="D17" s="137" t="s">
+        <v>915</v>
+      </c>
+      <c r="E17" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="137" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="159">
+        <v>0</v>
+      </c>
+      <c r="I17" s="159"/>
+      <c r="J17" s="159"/>
+      <c r="K17" s="137" t="s">
+        <v>124</v>
+      </c>
+      <c r="L17" s="159"/>
+      <c r="M17" s="159"/>
+      <c r="N17" s="159"/>
+      <c r="O17" s="137" t="s">
+        <v>845</v>
+      </c>
+      <c r="P17" s="138" t="s">
         <v>819</v>
       </c>
-      <c r="D17" s="137" t="s">
+      <c r="Q17" s="140"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="149" t="s">
+        <v>844</v>
+      </c>
+      <c r="B18" s="137" t="s">
+        <v>846</v>
+      </c>
+      <c r="C18" s="137" t="s">
+        <v>817</v>
+      </c>
+      <c r="D18" s="137" t="s">
+        <v>915</v>
+      </c>
+      <c r="E18" s="137" t="s">
         <v>130</v>
       </c>
-      <c r="E17" s="137" t="s">
+      <c r="F18" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="F17" s="137" t="s">
-        <v>847</v>
-      </c>
-      <c r="G17" s="138" t="s">
-        <v>821</v>
-      </c>
-      <c r="H17" s="137" t="s">
+      <c r="G18" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="I17" s="137" t="s">
+      <c r="H18" s="159">
+        <v>0</v>
+      </c>
+      <c r="I18" s="159"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="J17" s="140"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="149" t="s">
-        <v>846</v>
-      </c>
-      <c r="B18" s="137" t="s">
-        <v>848</v>
-      </c>
-      <c r="C18" s="137" t="s">
+      <c r="L18" s="159"/>
+      <c r="M18" s="159"/>
+      <c r="N18" s="159"/>
+      <c r="O18" s="137" t="s">
+        <v>845</v>
+      </c>
+      <c r="P18" s="138" t="s">
         <v>819</v>
-      </c>
-      <c r="D18" s="137" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="137" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" s="137" t="s">
-        <v>847</v>
-      </c>
-      <c r="G18" s="138" t="s">
-        <v>821</v>
-      </c>
-      <c r="H18" s="137" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" s="137" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -21717,7 +21774,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:I6 J6:XFD6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:XFD6">
       <formula1>"int,string,bool,long,strList1,strList2,nList1,nList2"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21761,11 +21818,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
@@ -21783,11 +21840,11 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
       <c r="D2" s="1" t="s">
         <v>28</v>
       </c>

--- a/Assets/island/DBCfg/DataCfg.xlsx
+++ b/Assets/island/DBCfg/DataCfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24460" windowHeight="15540" tabRatio="827" activeTab="6"/>
+    <workbookView xWindow="-33640" yWindow="0" windowWidth="29840" windowHeight="17220" tabRatio="827" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="配置表cfg" sheetId="1" r:id="rId1"/>
@@ -872,7 +872,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="949">
   <si>
     <t>表名：</t>
   </si>
@@ -4370,6 +4370,105 @@
   <si>
     <t>0</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>射程</t>
+  </si>
+  <si>
+    <t>高度</t>
+  </si>
+  <si>
+    <t>高度有随机偏移值</t>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>持续时间(秒*10)</t>
+  </si>
+  <si>
+    <t>波及半径</t>
+  </si>
+  <si>
+    <t>速度随机因子(百分比)</t>
+  </si>
+  <si>
+    <t>目标位置随机因子(百分比)</t>
+  </si>
+  <si>
+    <t>是否跟踪弹</t>
+  </si>
+  <si>
+    <t>是否穿心弹</t>
+  </si>
+  <si>
+    <t>是否需要根据轨迹旋转</t>
+  </si>
+  <si>
+    <t>是否判断碰撞触发器</t>
+  </si>
+  <si>
+    <t>击中效果处理</t>
+  </si>
+  <si>
+    <t>击中特效</t>
+  </si>
+  <si>
+    <t>击中音效</t>
+  </si>
+  <si>
+    <t>击中震屏</t>
+  </si>
+  <si>
+    <t>实际上是个特效</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>IsHighOffset</t>
+  </si>
+  <si>
+    <t>MaxStayTime</t>
+  </si>
+  <si>
+    <t>SpreadRadius</t>
+  </si>
+  <si>
+    <t>SpeedRandomFactor</t>
+  </si>
+  <si>
+    <t>PosRandomFactor</t>
+  </si>
+  <si>
+    <t>IsFollow</t>
+  </si>
+  <si>
+    <t>IsMulHit</t>
+  </si>
+  <si>
+    <t>NeedRotate</t>
+  </si>
+  <si>
+    <t>CheckTrigger</t>
+  </si>
+  <si>
+    <t>HitHandle</t>
+  </si>
+  <si>
+    <t>HitEffect</t>
+  </si>
+  <si>
+    <t>HitSFX</t>
+  </si>
+  <si>
+    <t>IsScreenShake</t>
+  </si>
+  <si>
+    <t>IsOnlyAEffect</t>
   </si>
 </sst>
 </file>
@@ -4500,7 +4599,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4789,8 +4888,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92CDDC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D79B"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABF8F"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -4944,8 +5061,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1382">
+  <cellStyleXfs count="1400">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -7496,8 +7637,62 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -7960,6 +8155,9 @@
     <xf numFmtId="0" fontId="16" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7975,11 +8173,20 @@
     <xf numFmtId="49" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="49" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="49" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="50" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="51" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1382">
+  <cellStyles count="1400">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 1 10" xfId="2"/>
     <cellStyle name="20% - 强调文字颜色 1 10 2" xfId="3"/>
@@ -9013,6 +9220,15 @@
     <cellStyle name="超链接" xfId="1376" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1378" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1380" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1382" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1384" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1386" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1388" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1390" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1392" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1394" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1396" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1398" builtinId="8" hidden="1"/>
     <cellStyle name="逗号 [0]" xfId="885" builtinId="6"/>
     <cellStyle name="访问过的超链接" xfId="1085" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1087" builtinId="9" hidden="1"/>
@@ -9163,6 +9379,15 @@
     <cellStyle name="访问过的超链接" xfId="1377" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1379" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1391" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1393" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1395" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1397" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1399" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="886" builtinId="26" customBuiltin="1"/>
     <cellStyle name="好 10" xfId="887"/>
     <cellStyle name="好 11" xfId="888"/>
@@ -9849,11 +10074,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
@@ -9872,11 +10097,11 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
@@ -10220,11 +10445,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
       <c r="D1" s="27" t="s">
         <v>34</v>
       </c>
@@ -10233,11 +10458,11 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:64">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
       <c r="D2" s="27" t="s">
         <v>35</v>
       </c>
@@ -15818,11 +16043,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="4" customFormat="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
       <c r="D1" s="27" t="s">
         <v>365</v>
       </c>
@@ -15862,11 +16087,11 @@
       <c r="AM1" s="64"/>
     </row>
     <row r="2" spans="1:40" s="4" customFormat="1">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
       <c r="D2" s="55" t="s">
         <v>355</v>
       </c>
@@ -18706,11 +18931,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
       <c r="D1" s="27" t="s">
         <v>378</v>
       </c>
@@ -18720,11 +18945,11 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
       <c r="D2" s="55" t="s">
         <v>379</v>
       </c>
@@ -19067,11 +19292,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
       <c r="D1" s="131" t="s">
         <v>769</v>
       </c>
@@ -19080,11 +19305,11 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:42">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
       <c r="D2" s="131" t="s">
         <v>770</v>
       </c>
@@ -21080,10 +21305,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -21103,35 +21328,42 @@
     <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="155" t="s">
+    <row r="1" spans="1:34">
+      <c r="A1" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="157" t="s">
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="158" t="s">
         <v>851</v>
       </c>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
       <c r="G1" s="135"/>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="156" t="s">
+    <row r="2" spans="1:34">
+      <c r="A2" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="157" t="s">
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="158" t="s">
         <v>800</v>
       </c>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
       <c r="G2" s="135"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:34">
       <c r="A3" s="146"/>
       <c r="B3" s="135"/>
       <c r="C3" s="135"/>
@@ -21140,7 +21372,7 @@
       <c r="F3" s="135"/>
       <c r="G3" s="135"/>
     </row>
-    <row r="4" spans="1:17" s="141" customFormat="1" ht="120" customHeight="1">
+    <row r="4" spans="1:34" s="141" customFormat="1" ht="120" customHeight="1">
       <c r="A4" s="147"/>
       <c r="B4" s="142" t="s">
         <v>2</v>
@@ -21187,8 +21419,59 @@
       <c r="P4" s="142" t="s">
         <v>805</v>
       </c>
+      <c r="R4" s="160" t="s">
+        <v>916</v>
+      </c>
+      <c r="S4" s="161" t="s">
+        <v>917</v>
+      </c>
+      <c r="T4" s="161" t="s">
+        <v>918</v>
+      </c>
+      <c r="U4" s="161" t="s">
+        <v>919</v>
+      </c>
+      <c r="V4" s="161" t="s">
+        <v>922</v>
+      </c>
+      <c r="W4" s="161" t="s">
+        <v>920</v>
+      </c>
+      <c r="X4" s="161" t="s">
+        <v>921</v>
+      </c>
+      <c r="Y4" s="161" t="s">
+        <v>923</v>
+      </c>
+      <c r="Z4" s="161" t="s">
+        <v>924</v>
+      </c>
+      <c r="AA4" s="161" t="s">
+        <v>925</v>
+      </c>
+      <c r="AB4" s="161" t="s">
+        <v>926</v>
+      </c>
+      <c r="AC4" s="161" t="s">
+        <v>927</v>
+      </c>
+      <c r="AD4" s="161" t="s">
+        <v>928</v>
+      </c>
+      <c r="AE4" s="161" t="s">
+        <v>929</v>
+      </c>
+      <c r="AF4" s="161" t="s">
+        <v>930</v>
+      </c>
+      <c r="AG4" s="161" t="s">
+        <v>931</v>
+      </c>
+      <c r="AH4" s="161" t="s">
+        <v>932</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" s="141" customFormat="1" ht="46" customHeight="1">
+    <row r="5" spans="1:34" s="141" customFormat="1" ht="46" customHeight="1">
       <c r="A5" s="147"/>
       <c r="B5" s="143" t="s">
         <v>2</v>
@@ -21235,8 +21518,59 @@
       <c r="P5" s="144" t="s">
         <v>853</v>
       </c>
+      <c r="R5" s="162" t="s">
+        <v>933</v>
+      </c>
+      <c r="S5" s="162" t="s">
+        <v>934</v>
+      </c>
+      <c r="T5" s="162" t="s">
+        <v>935</v>
+      </c>
+      <c r="U5" s="162" t="s">
+        <v>806</v>
+      </c>
+      <c r="V5" s="162" t="s">
+        <v>938</v>
+      </c>
+      <c r="W5" s="162" t="s">
+        <v>936</v>
+      </c>
+      <c r="X5" s="162" t="s">
+        <v>937</v>
+      </c>
+      <c r="Y5" s="162" t="s">
+        <v>939</v>
+      </c>
+      <c r="Z5" s="162" t="s">
+        <v>940</v>
+      </c>
+      <c r="AA5" s="162" t="s">
+        <v>941</v>
+      </c>
+      <c r="AB5" s="162" t="s">
+        <v>942</v>
+      </c>
+      <c r="AC5" s="162" t="s">
+        <v>943</v>
+      </c>
+      <c r="AD5" s="162" t="s">
+        <v>944</v>
+      </c>
+      <c r="AE5" s="162" t="s">
+        <v>945</v>
+      </c>
+      <c r="AF5" s="162" t="s">
+        <v>946</v>
+      </c>
+      <c r="AG5" s="162" t="s">
+        <v>947</v>
+      </c>
+      <c r="AH5" s="162" t="s">
+        <v>948</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" s="141" customFormat="1" ht="21" customHeight="1">
+    <row r="6" spans="1:34" s="141" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="147"/>
       <c r="B6" s="145" t="s">
         <v>279</v>
@@ -21283,8 +21617,59 @@
       <c r="P6" s="145" t="s">
         <v>848</v>
       </c>
+      <c r="R6" s="163" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="163" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" s="163" t="s">
+        <v>94</v>
+      </c>
+      <c r="U6" s="163" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="163" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6" s="163" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" s="163" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="163" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="163" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA6" s="163" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB6" s="163" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC6" s="163" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD6" s="163" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="163" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF6" s="163" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG6" s="163" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH6" s="163" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:34">
       <c r="A7" s="148" t="s">
         <v>809</v>
       </c>
@@ -21306,17 +21691,17 @@
       <c r="G7" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="159">
+      <c r="H7" s="154">
         <v>0</v>
       </c>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
       <c r="K7" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
+      <c r="L7" s="154"/>
+      <c r="M7" s="154"/>
+      <c r="N7" s="154"/>
       <c r="O7" s="137" t="s">
         <v>813</v>
       </c>
@@ -21326,8 +21711,17 @@
       <c r="Q7" s="136" t="s">
         <v>810</v>
       </c>
+      <c r="R7" s="137" t="s">
+        <v>915</v>
+      </c>
+      <c r="S7" s="137" t="s">
+        <v>97</v>
+      </c>
+      <c r="U7" s="137" t="s">
+        <v>812</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" ht="24">
+    <row r="8" spans="1:34" ht="24">
       <c r="A8" s="148" t="s">
         <v>815</v>
       </c>
@@ -21349,17 +21743,17 @@
       <c r="G8" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="159">
+      <c r="H8" s="154">
         <v>0</v>
       </c>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
       <c r="K8" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="L8" s="159"/>
-      <c r="M8" s="159"/>
-      <c r="N8" s="159"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="154"/>
+      <c r="N8" s="154"/>
       <c r="O8" s="137" t="s">
         <v>818</v>
       </c>
@@ -21369,8 +21763,17 @@
       <c r="Q8" s="136" t="s">
         <v>816</v>
       </c>
+      <c r="R8" s="137" t="s">
+        <v>915</v>
+      </c>
+      <c r="S8" s="137" t="s">
+        <v>114</v>
+      </c>
+      <c r="U8" s="137" t="s">
+        <v>812</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" ht="24">
+    <row r="9" spans="1:34" ht="24">
       <c r="A9" s="148" t="s">
         <v>820</v>
       </c>
@@ -21392,17 +21795,17 @@
       <c r="G9" s="137" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="159">
+      <c r="H9" s="154">
         <v>0</v>
       </c>
-      <c r="I9" s="159"/>
-      <c r="J9" s="159"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="154"/>
       <c r="K9" s="39" t="s">
         <v>823</v>
       </c>
-      <c r="L9" s="159"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="159"/>
+      <c r="L9" s="154"/>
+      <c r="M9" s="154"/>
+      <c r="N9" s="154"/>
       <c r="O9" s="137" t="s">
         <v>818</v>
       </c>
@@ -21412,8 +21815,17 @@
       <c r="Q9" s="136" t="s">
         <v>821</v>
       </c>
+      <c r="R9" s="137" t="s">
+        <v>915</v>
+      </c>
+      <c r="S9" s="137" t="s">
+        <v>97</v>
+      </c>
+      <c r="U9" s="137" t="s">
+        <v>822</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" ht="24">
+    <row r="10" spans="1:34" ht="24">
       <c r="A10" s="148" t="s">
         <v>825</v>
       </c>
@@ -21435,17 +21847,17 @@
       <c r="G10" s="137" t="s">
         <v>99</v>
       </c>
-      <c r="H10" s="159">
+      <c r="H10" s="154">
         <v>0</v>
       </c>
-      <c r="I10" s="159"/>
-      <c r="J10" s="159"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="154"/>
       <c r="K10" s="39" t="s">
         <v>823</v>
       </c>
-      <c r="L10" s="159"/>
-      <c r="M10" s="159"/>
-      <c r="N10" s="159"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="154"/>
       <c r="O10" s="137" t="s">
         <v>828</v>
       </c>
@@ -21455,8 +21867,17 @@
       <c r="Q10" s="136" t="s">
         <v>826</v>
       </c>
+      <c r="R10" s="137" t="s">
+        <v>915</v>
+      </c>
+      <c r="S10" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="U10" s="137" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" ht="24">
+    <row r="11" spans="1:34" ht="24">
       <c r="A11" s="148" t="s">
         <v>830</v>
       </c>
@@ -21478,17 +21899,17 @@
       <c r="G11" s="137" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="159">
+      <c r="H11" s="154">
         <v>0</v>
       </c>
-      <c r="I11" s="159"/>
-      <c r="J11" s="159"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
       <c r="K11" s="39" t="s">
         <v>832</v>
       </c>
-      <c r="L11" s="159"/>
-      <c r="M11" s="159"/>
-      <c r="N11" s="159"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="154"/>
       <c r="O11" s="137" t="s">
         <v>828</v>
       </c>
@@ -21498,8 +21919,17 @@
       <c r="Q11" s="136" t="s">
         <v>831</v>
       </c>
+      <c r="R11" s="137" t="s">
+        <v>915</v>
+      </c>
+      <c r="S11" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="U11" s="137" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:34">
       <c r="A12" s="148" t="s">
         <v>833</v>
       </c>
@@ -21515,17 +21945,17 @@
       <c r="G12" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="159">
+      <c r="H12" s="154">
         <v>0</v>
       </c>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="154"/>
       <c r="K12" s="39" t="s">
         <v>823</v>
       </c>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="154"/>
       <c r="O12" s="137"/>
       <c r="P12" s="39" t="s">
         <v>834</v>
@@ -21533,8 +21963,13 @@
       <c r="Q12" s="136" t="s">
         <v>850</v>
       </c>
+      <c r="R12" s="137" t="s">
+        <v>915</v>
+      </c>
+      <c r="S12" s="137"/>
+      <c r="U12" s="137"/>
     </row>
-    <row r="13" spans="1:17" ht="36">
+    <row r="13" spans="1:34" ht="36">
       <c r="A13" s="148" t="s">
         <v>835</v>
       </c>
@@ -21556,17 +21991,17 @@
       <c r="G13" s="39" t="s">
         <v>823</v>
       </c>
-      <c r="H13" s="159">
+      <c r="H13" s="154">
         <v>0</v>
       </c>
-      <c r="I13" s="159"/>
-      <c r="J13" s="159"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="154"/>
       <c r="K13" s="39" t="s">
         <v>823</v>
       </c>
-      <c r="L13" s="159"/>
-      <c r="M13" s="159"/>
-      <c r="N13" s="159"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="154"/>
+      <c r="N13" s="154"/>
       <c r="O13" s="137" t="s">
         <v>813</v>
       </c>
@@ -21574,8 +22009,17 @@
       <c r="Q13" s="136" t="s">
         <v>836</v>
       </c>
+      <c r="R13" s="137" t="s">
+        <v>915</v>
+      </c>
+      <c r="S13" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="U13" s="39" t="s">
+        <v>812</v>
+      </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:34">
       <c r="A14" s="148" t="s">
         <v>838</v>
       </c>
@@ -21597,17 +22041,17 @@
       <c r="G14" s="137" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="159">
+      <c r="H14" s="154">
         <v>0</v>
       </c>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="154"/>
       <c r="K14" s="39" t="s">
         <v>823</v>
       </c>
-      <c r="L14" s="159"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="159"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="154"/>
+      <c r="N14" s="154"/>
       <c r="O14" s="137" t="s">
         <v>828</v>
       </c>
@@ -21617,8 +22061,17 @@
       <c r="Q14" s="139" t="s">
         <v>839</v>
       </c>
+      <c r="R14" s="137" t="s">
+        <v>915</v>
+      </c>
+      <c r="S14" s="137" t="s">
+        <v>97</v>
+      </c>
+      <c r="U14" s="137" t="s">
+        <v>840</v>
+      </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:34">
       <c r="A15" s="148" t="s">
         <v>841</v>
       </c>
@@ -21634,20 +22087,25 @@
       <c r="E15" s="137"/>
       <c r="F15" s="137"/>
       <c r="G15" s="137"/>
-      <c r="H15" s="159">
+      <c r="H15" s="154">
         <v>0</v>
       </c>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
       <c r="K15" s="137"/>
-      <c r="L15" s="159"/>
-      <c r="M15" s="159"/>
-      <c r="N15" s="159"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="154"/>
+      <c r="N15" s="154"/>
       <c r="O15" s="137"/>
       <c r="P15" s="137"/>
       <c r="Q15" s="140"/>
+      <c r="R15" s="137" t="s">
+        <v>915</v>
+      </c>
+      <c r="S15" s="137"/>
+      <c r="U15" s="137"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:34">
       <c r="A16" s="149" t="s">
         <v>347</v>
       </c>
@@ -21669,22 +22127,31 @@
       <c r="G16" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="159">
+      <c r="H16" s="154">
         <v>0</v>
       </c>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
       <c r="K16" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="L16" s="159"/>
-      <c r="M16" s="159"/>
-      <c r="N16" s="159"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="154"/>
       <c r="O16" s="137"/>
       <c r="P16" s="137"/>
       <c r="Q16" s="140"/>
+      <c r="R16" s="137" t="s">
+        <v>915</v>
+      </c>
+      <c r="S16" s="137" t="s">
+        <v>97</v>
+      </c>
+      <c r="U16" s="137" t="s">
+        <v>812</v>
+      </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:21">
       <c r="A17" s="149" t="s">
         <v>844</v>
       </c>
@@ -21706,17 +22173,17 @@
       <c r="G17" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="159">
+      <c r="H17" s="154">
         <v>0</v>
       </c>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
       <c r="K17" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="L17" s="159"/>
-      <c r="M17" s="159"/>
-      <c r="N17" s="159"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="154"/>
       <c r="O17" s="137" t="s">
         <v>845</v>
       </c>
@@ -21724,8 +22191,17 @@
         <v>819</v>
       </c>
       <c r="Q17" s="140"/>
+      <c r="R17" s="137" t="s">
+        <v>915</v>
+      </c>
+      <c r="S17" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="U17" s="137" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:21">
       <c r="A18" s="149" t="s">
         <v>844</v>
       </c>
@@ -21747,22 +22223,31 @@
       <c r="G18" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="159">
+      <c r="H18" s="154">
         <v>0</v>
       </c>
-      <c r="I18" s="159"/>
-      <c r="J18" s="159"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="154"/>
       <c r="K18" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="L18" s="159"/>
-      <c r="M18" s="159"/>
-      <c r="N18" s="159"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="154"/>
       <c r="O18" s="137" t="s">
         <v>845</v>
       </c>
       <c r="P18" s="138" t="s">
         <v>819</v>
+      </c>
+      <c r="R18" s="137" t="s">
+        <v>915</v>
+      </c>
+      <c r="S18" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="U18" s="137" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -21774,7 +22259,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:XFD6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:Q6 AI6:XFD6">
       <formula1>"int,string,bool,long,strList1,strList2,nList1,nList2"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21818,11 +22303,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
@@ -21840,11 +22325,11 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
       <c r="D2" s="1" t="s">
         <v>28</v>
       </c>

--- a/Assets/island/DBCfg/DataCfg.xlsx
+++ b/Assets/island/DBCfg/DataCfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-33640" yWindow="0" windowWidth="29840" windowHeight="17220" tabRatio="827" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24540" windowHeight="15600" tabRatio="827" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="配置表cfg" sheetId="1" r:id="rId1"/>
@@ -653,187 +653,6 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>ZhongYuBing</author>
-    <author>chenbin</author>
-  </authors>
-  <commentList>
-    <comment ref="D4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="宋体"/>
-            <family val="7"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ZhongYuBing:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="宋体"/>
-            <family val="7"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="宋体"/>
-            <family val="7"/>
-            <charset val="134"/>
-          </rPr>
-          <t>为</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="宋体"/>
-            <family val="7"/>
-            <charset val="134"/>
-          </rPr>
-          <t>0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="宋体"/>
-            <family val="7"/>
-            <charset val="134"/>
-          </rPr>
-          <t>的时候攻击指定地图点的目标，如果目标移动还是攻击地图的指定点</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="宋体"/>
-            <family val="7"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ZhongYuBing:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="宋体"/>
-            <family val="7"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="宋体"/>
-            <family val="7"/>
-            <charset val="134"/>
-          </rPr>
-          <t>按</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="宋体"/>
-            <family val="7"/>
-            <charset val="134"/>
-          </rPr>
-          <t>/10</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="宋体"/>
-            <family val="7"/>
-            <charset val="134"/>
-          </rPr>
-          <t>算秒</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="宋体"/>
-            <family val="7"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ZhongYuBing:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="宋体"/>
-            <family val="7"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="宋体"/>
-            <family val="7"/>
-            <charset val="134"/>
-          </rPr>
-          <t>攻击的攻击波及范围数值</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="宋体"/>
-            <family val="7"/>
-            <charset val="134"/>
-          </rPr>
-          <t>*10</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M4" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="宋体"/>
-            <family val="7"/>
-            <charset val="134"/>
-          </rPr>
-          <t>chenbin:
-用来指定当子弹击中后的特殊处理</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
@@ -872,7 +691,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="920">
   <si>
     <t>表名：</t>
   </si>
@@ -3886,30 +3705,9 @@
     </r>
   </si>
   <si>
-    <t>飞行速度</t>
-  </si>
-  <si>
-    <t>飞行高度</t>
-  </si>
-  <si>
-    <t>受攻击效果</t>
-  </si>
-  <si>
-    <t>旋转</t>
-  </si>
-  <si>
-    <t>命中音效</t>
-  </si>
-  <si>
     <t>Speed</t>
   </si>
   <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>Rotate</t>
-  </si>
-  <si>
     <t>普通炮弹</t>
   </si>
   <si>
@@ -3925,9 +3723,6 @@
     <t>OnHitCannonball</t>
   </si>
   <si>
-    <t>aif/bullet_normal</t>
-  </si>
-  <si>
     <t>带火的炮弹</t>
   </si>
   <si>
@@ -3938,20 +3733,6 @@
   </si>
   <si>
     <t>FireRange</t>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>if/bullet_fireball</t>
-    </r>
   </si>
   <si>
     <t>炸弹</t>
@@ -3978,9 +3759,6 @@
     </r>
   </si>
   <si>
-    <t>aif/bullet_airbomb</t>
-  </si>
-  <si>
     <t>导弹</t>
   </si>
   <si>
@@ -3991,9 +3769,6 @@
   </si>
   <si>
     <t>BombMissile</t>
-  </si>
-  <si>
-    <t>aif/bullet_missile</t>
   </si>
   <si>
     <t>带火的导弹</t>
@@ -4020,21 +3795,6 @@
     <t>电弧</t>
   </si>
   <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="7"/>
-        <charset val="134"/>
-      </rPr>
-      <t>if/bullet_electric</t>
-    </r>
-  </si>
-  <si>
     <t>死光</t>
   </si>
   <si>
@@ -4069,26 +3829,6 @@
   </si>
   <si>
     <t>12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="7"/>
-        <charset val="134"/>
-      </rPr>
-      <t>tring</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4116,14 +3856,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>OnHitEffect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnHitSoundEff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PrefabName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4296,179 +4028,127 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>射程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度</t>
+  </si>
+  <si>
+    <t>高度有随机偏移值</t>
+  </si>
+  <si>
+    <t>速度</t>
   </si>
   <si>
     <t>持续时间(秒*10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>波及半径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机因子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度随机因子(百分比)</t>
+  </si>
+  <si>
+    <t>目标位置随机因子(百分比)</t>
   </si>
   <si>
     <t>是否跟踪弹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是否穿心弹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要根据轨迹旋转</t>
+  </si>
+  <si>
+    <t>是否判断碰撞触发器</t>
   </si>
   <si>
     <t>击中效果处理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中特效</t>
+  </si>
+  <si>
+    <t>击中音效</t>
+  </si>
+  <si>
+    <t>击中震屏</t>
   </si>
   <si>
     <t>实际上是个特效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Range</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>IsHighOffset</t>
   </si>
   <si>
     <t>MaxStayTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SpreadRadius</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RandomFactor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedRandomFactor</t>
+  </si>
+  <si>
+    <t>PosRandomFactor</t>
   </si>
   <si>
     <t>IsFollow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>IsMulHit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedRotate</t>
+  </si>
+  <si>
+    <t>CheckTrigger</t>
   </si>
   <si>
     <t>HitHandle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitEffect</t>
+  </si>
+  <si>
+    <t>HitSFX</t>
+  </si>
+  <si>
+    <t>IsScreenShake</t>
   </si>
   <si>
     <t>IsOnlyAEffect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>射程</t>
-  </si>
-  <si>
-    <t>高度</t>
-  </si>
-  <si>
-    <t>高度有随机偏移值</t>
-  </si>
-  <si>
-    <t>速度</t>
-  </si>
-  <si>
-    <t>持续时间(秒*10)</t>
-  </si>
-  <si>
-    <t>波及半径</t>
-  </si>
-  <si>
-    <t>速度随机因子(百分比)</t>
-  </si>
-  <si>
-    <t>目标位置随机因子(百分比)</t>
-  </si>
-  <si>
-    <t>是否跟踪弹</t>
-  </si>
-  <si>
-    <t>是否穿心弹</t>
-  </si>
-  <si>
-    <t>是否需要根据轨迹旋转</t>
-  </si>
-  <si>
-    <t>是否判断碰撞触发器</t>
-  </si>
-  <si>
-    <t>击中效果处理</t>
-  </si>
-  <si>
-    <t>击中特效</t>
-  </si>
-  <si>
-    <t>击中音效</t>
-  </si>
-  <si>
-    <t>击中震屏</t>
-  </si>
-  <si>
-    <t>实际上是个特效</t>
-  </si>
-  <si>
-    <t>Range</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>IsHighOffset</t>
-  </si>
-  <si>
-    <t>MaxStayTime</t>
-  </si>
-  <si>
-    <t>SpreadRadius</t>
-  </si>
-  <si>
-    <t>SpeedRandomFactor</t>
-  </si>
-  <si>
-    <t>PosRandomFactor</t>
-  </si>
-  <si>
-    <t>IsFollow</t>
-  </si>
-  <si>
-    <t>IsMulHit</t>
-  </si>
-  <si>
-    <t>NeedRotate</t>
-  </si>
-  <si>
-    <t>CheckTrigger</t>
-  </si>
-  <si>
-    <t>HitHandle</t>
-  </si>
-  <si>
-    <t>HitEffect</t>
-  </si>
-  <si>
-    <t>HitSFX</t>
-  </si>
-  <si>
-    <t>IsScreenShake</t>
-  </si>
-  <si>
-    <t>IsOnlyAEffect</t>
+  </si>
+  <si>
+    <t>collect_Food</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnHitCannonball</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireRange2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4599,7 +4279,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="52">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4884,12 +4564,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92CDDC"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -5086,7 +4760,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1400">
+  <cellStyleXfs count="1416">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -7691,8 +7365,56 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -8146,17 +7868,20 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="48" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="49" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="50" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8173,20 +7898,11 @@
     <xf numFmtId="49" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="49" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="49" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="50" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="51" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1400">
+  <cellStyles count="1416">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 1 10" xfId="2"/>
     <cellStyle name="20% - 强调文字颜色 1 10 2" xfId="3"/>
@@ -9229,6 +8945,14 @@
     <cellStyle name="超链接" xfId="1394" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1396" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1398" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1400" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1402" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1404" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1406" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1408" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1410" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1412" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1414" builtinId="8" hidden="1"/>
     <cellStyle name="逗号 [0]" xfId="885" builtinId="6"/>
     <cellStyle name="访问过的超链接" xfId="1085" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1087" builtinId="9" hidden="1"/>
@@ -9388,6 +9112,14 @@
     <cellStyle name="访问过的超链接" xfId="1395" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1397" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1399" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1401" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1403" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1405" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1407" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1409" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1411" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1413" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1415" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="886" builtinId="26" customBuiltin="1"/>
     <cellStyle name="好 10" xfId="887"/>
     <cellStyle name="好 11" xfId="888"/>
@@ -10074,11 +9806,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
@@ -10097,11 +9829,11 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
@@ -10381,10 +10113,10 @@
   <dimension ref="A1:BL45"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10445,11 +10177,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
       <c r="D1" s="27" t="s">
         <v>34</v>
       </c>
@@ -10458,11 +10190,11 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:64">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
       <c r="D2" s="27" t="s">
         <v>35</v>
       </c>
@@ -10505,7 +10237,7 @@
         <v>42</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="J4" s="28" t="s">
         <v>736</v>
@@ -10655,7 +10387,7 @@
         <v>59</v>
       </c>
       <c r="BG4" s="30" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="BH4" s="30" t="s">
         <v>60</v>
@@ -10696,7 +10428,7 @@
         <v>71</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>896</v>
+        <v>880</v>
       </c>
       <c r="J5" s="28" t="s">
         <v>738</v>
@@ -10822,7 +10554,7 @@
         <v>78</v>
       </c>
       <c r="AY5" s="28" t="s">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="AZ5" s="109" t="s">
         <v>73</v>
@@ -10834,19 +10566,19 @@
         <v>86</v>
       </c>
       <c r="BC5" s="28" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
       <c r="BD5" s="28" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
       <c r="BE5" s="28" t="s">
         <v>79</v>
       </c>
       <c r="BF5" s="28" t="s">
-        <v>879</v>
+        <v>863</v>
       </c>
       <c r="BG5" s="28" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="BH5" s="28" t="s">
         <v>88</v>
@@ -11304,7 +11036,7 @@
       <c r="BA8" s="35"/>
       <c r="BB8" s="35"/>
       <c r="BC8" s="31" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
       <c r="BD8" s="31"/>
       <c r="BE8" s="35"/>
@@ -11429,7 +11161,7 @@
       <c r="BA9" s="35"/>
       <c r="BB9" s="35"/>
       <c r="BC9" s="36" t="s">
-        <v>881</v>
+        <v>865</v>
       </c>
       <c r="BD9" s="36"/>
       <c r="BE9" s="35"/>
@@ -11566,7 +11298,7 @@
       <c r="BA10" s="35"/>
       <c r="BB10" s="35"/>
       <c r="BC10" s="36" t="s">
-        <v>882</v>
+        <v>866</v>
       </c>
       <c r="BD10" s="36"/>
       <c r="BE10" s="35"/>
@@ -11822,10 +11554,10 @@
       <c r="BA12" s="35"/>
       <c r="BB12" s="35"/>
       <c r="BC12" s="36" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
       <c r="BD12" s="37" t="s">
-        <v>877</v>
+        <v>915</v>
       </c>
       <c r="BE12" s="35"/>
       <c r="BF12" s="35"/>
@@ -11947,7 +11679,7 @@
       <c r="BA13" s="35"/>
       <c r="BB13" s="35"/>
       <c r="BC13" s="31" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="BD13" s="33"/>
       <c r="BE13" s="35"/>
@@ -12072,10 +11804,10 @@
       <c r="BA14" s="35"/>
       <c r="BB14" s="35"/>
       <c r="BC14" s="36" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
       <c r="BD14" s="37" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
       <c r="BE14" s="35"/>
       <c r="BF14" s="35"/>
@@ -12197,7 +11929,7 @@
       <c r="BA15" s="35"/>
       <c r="BB15" s="35"/>
       <c r="BC15" s="31" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="BD15" s="33"/>
       <c r="BE15" s="35"/>
@@ -12322,10 +12054,10 @@
       <c r="BA16" s="35"/>
       <c r="BB16" s="35"/>
       <c r="BC16" s="31" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
       <c r="BD16" s="33" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
       <c r="BE16" s="35"/>
       <c r="BF16" s="35"/>
@@ -12447,7 +12179,7 @@
       <c r="BA17" s="35"/>
       <c r="BB17" s="35"/>
       <c r="BC17" s="31" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="BD17" s="33"/>
       <c r="BE17" s="35"/>
@@ -12589,12 +12321,12 @@
       <c r="BA18" s="34"/>
       <c r="BB18" s="34"/>
       <c r="BC18" s="34" t="s">
-        <v>888</v>
+        <v>872</v>
       </c>
       <c r="BD18" s="34"/>
       <c r="BE18" s="34"/>
       <c r="BF18" s="34" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="BG18" s="34"/>
       <c r="BH18" s="34" t="s">
@@ -12737,12 +12469,12 @@
       <c r="BA19" s="32"/>
       <c r="BB19" s="32"/>
       <c r="BC19" s="36" t="s">
-        <v>889</v>
+        <v>873</v>
       </c>
       <c r="BD19" s="36"/>
       <c r="BE19" s="32"/>
       <c r="BF19" s="36" t="s">
-        <v>867</v>
+        <v>851</v>
       </c>
       <c r="BG19" s="36"/>
       <c r="BH19" s="35" t="s">
@@ -12889,12 +12621,12 @@
       <c r="BA20" s="34"/>
       <c r="BB20" s="34"/>
       <c r="BC20" s="34" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
       <c r="BD20" s="34"/>
       <c r="BE20" s="34"/>
       <c r="BF20" s="34" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="BG20" s="34"/>
       <c r="BH20" s="34" t="s">
@@ -13037,12 +12769,12 @@
       <c r="BA21" s="32"/>
       <c r="BB21" s="32"/>
       <c r="BC21" s="36" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
       <c r="BD21" s="36"/>
       <c r="BE21" s="32"/>
       <c r="BF21" s="36" t="s">
-        <v>868</v>
+        <v>852</v>
       </c>
       <c r="BG21" s="36"/>
       <c r="BH21" s="32" t="s">
@@ -13189,12 +12921,12 @@
       <c r="BA22" s="34"/>
       <c r="BB22" s="34"/>
       <c r="BC22" s="34" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
       <c r="BD22" s="34"/>
       <c r="BE22" s="34"/>
       <c r="BF22" s="36" t="s">
-        <v>868</v>
+        <v>852</v>
       </c>
       <c r="BG22" s="36"/>
       <c r="BH22" s="34" t="s">
@@ -13337,12 +13069,12 @@
       <c r="BA23" s="32"/>
       <c r="BB23" s="32"/>
       <c r="BC23" s="36" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
       <c r="BD23" s="36"/>
       <c r="BE23" s="32"/>
       <c r="BF23" s="32" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
       <c r="BG23" s="32"/>
       <c r="BH23" s="32" t="s">
@@ -13488,12 +13220,12 @@
       <c r="BA24" s="36"/>
       <c r="BB24" s="36"/>
       <c r="BC24" s="31" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="BD24" s="36"/>
       <c r="BE24" s="36"/>
       <c r="BF24" s="36" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="BG24" s="36"/>
       <c r="BH24" s="32" t="s">
@@ -13638,12 +13370,12 @@
       <c r="BA25" s="38"/>
       <c r="BB25" s="38"/>
       <c r="BC25" s="31" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="BD25" s="36"/>
       <c r="BE25" s="36"/>
       <c r="BF25" s="36" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="BG25" s="36"/>
       <c r="BH25" s="38" t="s">
@@ -13788,12 +13520,12 @@
       <c r="BA26" s="36"/>
       <c r="BB26" s="36"/>
       <c r="BC26" s="31" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="BD26" s="36"/>
       <c r="BE26" s="36"/>
       <c r="BF26" s="36" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="BG26" s="36"/>
       <c r="BH26" s="32" t="s">
@@ -13938,7 +13670,7 @@
       <c r="BA27" s="36"/>
       <c r="BB27" s="36"/>
       <c r="BC27" s="31" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="BD27" s="36"/>
       <c r="BE27" s="36"/>
@@ -14090,7 +13822,7 @@
       <c r="BA28" s="36"/>
       <c r="BB28" s="36"/>
       <c r="BC28" s="31" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="BD28" s="36"/>
       <c r="BE28" s="36"/>
@@ -14242,7 +13974,7 @@
       <c r="BA29" s="36"/>
       <c r="BB29" s="36"/>
       <c r="BC29" s="31" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="BD29" s="36"/>
       <c r="BE29" s="36"/>
@@ -14384,7 +14116,7 @@
       <c r="BA30" s="36"/>
       <c r="BB30" s="36"/>
       <c r="BC30" s="31" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="BD30" s="36"/>
       <c r="BE30" s="36"/>
@@ -14536,7 +14268,7 @@
       <c r="BA31" s="36"/>
       <c r="BB31" s="36"/>
       <c r="BC31" s="31" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="BD31" s="36"/>
       <c r="BE31" s="36"/>
@@ -14639,7 +14371,7 @@
       <c r="BA32" s="36"/>
       <c r="BB32" s="36"/>
       <c r="BC32" s="36" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="BD32" s="36"/>
       <c r="BE32" s="36"/>
@@ -14738,7 +14470,7 @@
       <c r="BA33" s="36"/>
       <c r="BB33" s="36"/>
       <c r="BC33" s="36" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="BD33" s="36"/>
       <c r="BE33" s="36"/>
@@ -14837,7 +14569,7 @@
       <c r="BA34" s="36"/>
       <c r="BB34" s="36"/>
       <c r="BC34" s="36" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="BD34" s="36"/>
       <c r="BE34" s="36"/>
@@ -14936,7 +14668,7 @@
       <c r="BA35" s="36"/>
       <c r="BB35" s="36"/>
       <c r="BC35" s="36" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="BD35" s="36"/>
       <c r="BE35" s="36"/>
@@ -15035,7 +14767,7 @@
       <c r="BA36" s="36"/>
       <c r="BB36" s="36"/>
       <c r="BC36" s="36" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="BD36" s="36"/>
       <c r="BE36" s="36"/>
@@ -15144,7 +14876,7 @@
       <c r="BA37" s="36"/>
       <c r="BB37" s="36"/>
       <c r="BC37" s="36" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="BD37" s="36"/>
       <c r="BE37" s="36"/>
@@ -15237,7 +14969,7 @@
       <c r="BA38" s="36"/>
       <c r="BB38" s="36"/>
       <c r="BC38" s="36" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="BD38" s="36"/>
       <c r="BE38" s="36"/>
@@ -15328,7 +15060,7 @@
       <c r="BA39" s="36"/>
       <c r="BB39" s="36"/>
       <c r="BC39" s="36" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="BD39" s="36"/>
       <c r="BE39" s="36"/>
@@ -15421,7 +15153,7 @@
       <c r="BA40" s="36"/>
       <c r="BB40" s="36"/>
       <c r="BC40" s="36" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="BD40" s="36"/>
       <c r="BE40" s="36"/>
@@ -15514,7 +15246,7 @@
       <c r="BA41" s="36"/>
       <c r="BB41" s="36"/>
       <c r="BC41" s="36" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="BD41" s="36"/>
       <c r="BE41" s="36"/>
@@ -15607,7 +15339,7 @@
       <c r="BA42" s="36"/>
       <c r="BB42" s="36"/>
       <c r="BC42" s="36" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="BD42" s="36"/>
       <c r="BE42" s="36"/>
@@ -15992,7 +15724,7 @@
       <formula>AND(COUNTIF($AQ$27:$AQ$27,AS27)&gt;1,NOT(ISBLANK(AS27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N5 W7:W45 AT7:AT45 T7:T45 N7:N1048576 Z7:Z45 AF7:AF45 AC7:AC45 AI7:AI45 AO7:AO45 AL7:AL45 Q7:Q45">
       <formula1>"匀速,慢-&gt;快,快-&gt;慢,慢-&gt;快-&gt;慢,快-&gt;慢-&gt;快,极慢-&gt;极快,极快-&gt;极慢,极慢-&gt;极快-&gt;极慢,极快-&gt;极慢-&gt;极快,"</formula1>
     </dataValidation>
@@ -16043,11 +15775,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="4" customFormat="1">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
       <c r="D1" s="27" t="s">
         <v>365</v>
       </c>
@@ -16087,11 +15819,11 @@
       <c r="AM1" s="64"/>
     </row>
     <row r="2" spans="1:40" s="4" customFormat="1">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
       <c r="D2" s="55" t="s">
         <v>355</v>
       </c>
@@ -18931,11 +18663,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
       <c r="D1" s="27" t="s">
         <v>378</v>
       </c>
@@ -18945,11 +18677,11 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
       <c r="D2" s="55" t="s">
         <v>379</v>
       </c>
@@ -19248,11 +18980,11 @@
   <sheetPr codeName="工作表7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AP22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="T7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19292,11 +19024,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
       <c r="D1" s="131" t="s">
         <v>769</v>
       </c>
@@ -19305,11 +19037,11 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:42">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
       <c r="D2" s="131" t="s">
         <v>770</v>
       </c>
@@ -19532,7 +19264,7 @@
         <v>276</v>
       </c>
       <c r="AA5" s="49" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="AB5" s="49" t="s">
         <v>277</v>
@@ -19718,7 +19450,7 @@
         <v>771</v>
       </c>
       <c r="D7" s="40">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E7" s="40" t="s">
         <v>799</v>
@@ -19817,7 +19549,7 @@
         <v>772</v>
       </c>
       <c r="D8" s="40">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>799</v>
@@ -19916,7 +19648,7 @@
         <v>283</v>
       </c>
       <c r="D9" s="40">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="E9" s="40" t="s">
         <v>798</v>
@@ -19992,7 +19724,7 @@
       <c r="AH9" s="40"/>
       <c r="AI9" s="40"/>
       <c r="AJ9" s="21" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
       <c r="AK9" s="40" t="s">
         <v>124</v>
@@ -20019,7 +19751,7 @@
         <v>286</v>
       </c>
       <c r="D10" s="40">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="E10" s="40" t="s">
         <v>791</v>
@@ -20071,7 +19803,7 @@
       <c r="X10" s="40"/>
       <c r="Y10" s="40"/>
       <c r="Z10" s="40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA10" s="40" t="s">
         <v>287</v>
@@ -20110,7 +19842,7 @@
         <v>290</v>
       </c>
       <c r="D11" s="40">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="E11" s="40" t="s">
         <v>792</v>
@@ -20182,7 +19914,7 @@
       <c r="AH11" s="40"/>
       <c r="AI11" s="40"/>
       <c r="AJ11" s="43" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
       <c r="AK11" s="40" t="s">
         <v>99</v>
@@ -20211,7 +19943,7 @@
         <v>293</v>
       </c>
       <c r="D12" s="40">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="E12" s="40" t="s">
         <v>793</v>
@@ -20293,7 +20025,7 @@
       <c r="AH12" s="40"/>
       <c r="AI12" s="40"/>
       <c r="AJ12" s="40" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
       <c r="AK12" s="40" t="s">
         <v>99</v>
@@ -20322,7 +20054,7 @@
         <v>297</v>
       </c>
       <c r="D13" s="40">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="E13" s="40" t="s">
         <v>794</v>
@@ -20375,9 +20107,7 @@
       <c r="W13" s="40"/>
       <c r="X13" s="40"/>
       <c r="Y13" s="40"/>
-      <c r="Z13" s="40">
-        <v>0</v>
-      </c>
+      <c r="Z13" s="40"/>
       <c r="AA13" s="40">
         <v>240</v>
       </c>
@@ -20398,7 +20128,7 @@
       <c r="AH13" s="40"/>
       <c r="AI13" s="40"/>
       <c r="AJ13" s="43" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="AK13" s="40" t="s">
         <v>124</v>
@@ -20427,7 +20157,7 @@
         <v>300</v>
       </c>
       <c r="D14" s="40">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="E14" s="40" t="s">
         <v>795</v>
@@ -20511,7 +20241,7 @@
       </c>
       <c r="AI14" s="40"/>
       <c r="AJ14" s="21" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="AK14" s="40" t="s">
         <v>99</v>
@@ -20538,7 +20268,7 @@
         <v>303</v>
       </c>
       <c r="D15" s="40">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="E15" s="40" t="s">
         <v>796</v>
@@ -20623,7 +20353,7 @@
       </c>
       <c r="AI15" s="40"/>
       <c r="AJ15" s="21" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="AK15" s="40" t="s">
         <v>99</v>
@@ -20652,7 +20382,7 @@
         <v>306</v>
       </c>
       <c r="D16" s="40">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>797</v>
@@ -20726,7 +20456,7 @@
       </c>
       <c r="AI16" s="40"/>
       <c r="AJ16" s="44" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
       <c r="AK16" s="40" t="s">
         <v>124</v>
@@ -20755,7 +20485,7 @@
         <v>313</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>767</v>
+        <v>919</v>
       </c>
       <c r="E17" s="45"/>
       <c r="F17" s="45">
@@ -20813,7 +20543,7 @@
       <c r="AH17" s="45"/>
       <c r="AI17" s="45"/>
       <c r="AJ17" s="45" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="AK17" s="45" t="s">
         <v>124</v>
@@ -20840,7 +20570,7 @@
         <v>318</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>767</v>
+        <v>919</v>
       </c>
       <c r="E18" s="45"/>
       <c r="F18" s="45">
@@ -20898,7 +20628,7 @@
       <c r="AH18" s="45"/>
       <c r="AI18" s="45"/>
       <c r="AJ18" s="45" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
       <c r="AK18" s="45" t="s">
         <v>99</v>
@@ -20925,7 +20655,7 @@
         <v>322</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>767</v>
+        <v>919</v>
       </c>
       <c r="E19" s="45"/>
       <c r="F19" s="45">
@@ -20989,7 +20719,7 @@
       <c r="AH19" s="45"/>
       <c r="AI19" s="45"/>
       <c r="AJ19" s="45" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="AK19" s="45" t="s">
         <v>99</v>
@@ -21018,7 +20748,7 @@
         <v>326</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>767</v>
+        <v>919</v>
       </c>
       <c r="E20" s="45"/>
       <c r="F20" s="45">
@@ -21080,7 +20810,7 @@
       </c>
       <c r="AI20" s="45"/>
       <c r="AJ20" s="45" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="AK20" s="45" t="s">
         <v>99</v>
@@ -21109,7 +20839,7 @@
         <v>332</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>767</v>
+        <v>919</v>
       </c>
       <c r="E21" s="45"/>
       <c r="F21" s="45">
@@ -21171,7 +20901,7 @@
       </c>
       <c r="AI21" s="45"/>
       <c r="AJ21" s="45" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="AK21" s="45" t="s">
         <v>99</v>
@@ -21200,7 +20930,7 @@
         <v>779</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>187</v>
+        <v>919</v>
       </c>
       <c r="E22" s="45"/>
       <c r="F22" s="45">
@@ -21264,7 +20994,7 @@
       <c r="AH22" s="45"/>
       <c r="AI22" s="45"/>
       <c r="AJ22" s="45" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="AK22" s="45" t="s">
         <v>99</v>
@@ -21304,11 +21034,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -21316,54 +21046,53 @@
     <col min="1" max="1" width="10.83203125" style="150"/>
     <col min="2" max="2" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="59.6640625" customWidth="1"/>
+    <col min="22" max="25" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="26" max="29" width="5.5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.5" bestFit="1" customWidth="1"/>
     <col min="33" max="34" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
-      <c r="A1" s="156" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="158" t="s">
-        <v>851</v>
-      </c>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="159" t="s">
+        <v>837</v>
+      </c>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
       <c r="G1" s="135"/>
     </row>
-    <row r="2" spans="1:34">
-      <c r="A2" s="157" t="s">
+    <row r="2" spans="1:21">
+      <c r="A2" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="158" t="s">
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="159" t="s">
         <v>800</v>
       </c>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
       <c r="G2" s="135"/>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:21">
       <c r="A3" s="146"/>
       <c r="B3" s="135"/>
       <c r="C3" s="135"/>
@@ -21372,205 +21101,127 @@
       <c r="F3" s="135"/>
       <c r="G3" s="135"/>
     </row>
-    <row r="4" spans="1:34" s="141" customFormat="1" ht="120" customHeight="1">
+    <row r="4" spans="1:21" s="141" customFormat="1" ht="120" customHeight="1">
       <c r="A4" s="147"/>
       <c r="B4" s="142" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="142" t="s">
-        <v>849</v>
-      </c>
-      <c r="D4" s="151" t="s">
+        <v>835</v>
+      </c>
+      <c r="D4" s="152" t="s">
+        <v>882</v>
+      </c>
+      <c r="E4" s="153" t="s">
+        <v>883</v>
+      </c>
+      <c r="F4" s="153" t="s">
+        <v>884</v>
+      </c>
+      <c r="G4" s="153" t="s">
+        <v>885</v>
+      </c>
+      <c r="H4" s="153" t="s">
+        <v>888</v>
+      </c>
+      <c r="I4" s="153" t="s">
+        <v>886</v>
+      </c>
+      <c r="J4" s="153" t="s">
+        <v>887</v>
+      </c>
+      <c r="K4" s="153" t="s">
+        <v>889</v>
+      </c>
+      <c r="L4" s="153" t="s">
+        <v>890</v>
+      </c>
+      <c r="M4" s="153" t="s">
+        <v>891</v>
+      </c>
+      <c r="N4" s="153" t="s">
+        <v>892</v>
+      </c>
+      <c r="O4" s="153" t="s">
+        <v>893</v>
+      </c>
+      <c r="P4" s="153" t="s">
+        <v>894</v>
+      </c>
+      <c r="Q4" s="153" t="s">
+        <v>895</v>
+      </c>
+      <c r="R4" s="153" t="s">
+        <v>896</v>
+      </c>
+      <c r="S4" s="153" t="s">
         <v>897</v>
       </c>
-      <c r="E4" s="142" t="s">
-        <v>801</v>
-      </c>
-      <c r="F4" s="142" t="s">
-        <v>802</v>
-      </c>
-      <c r="G4" s="142" t="s">
-        <v>804</v>
-      </c>
-      <c r="H4" s="151" t="s">
+      <c r="T4" s="153" t="s">
         <v>898</v>
       </c>
-      <c r="I4" s="151" t="s">
-        <v>899</v>
-      </c>
-      <c r="J4" s="151" t="s">
-        <v>900</v>
-      </c>
-      <c r="K4" s="151" t="s">
-        <v>901</v>
-      </c>
-      <c r="L4" s="151" t="s">
-        <v>902</v>
-      </c>
-      <c r="M4" s="151" t="s">
-        <v>903</v>
-      </c>
-      <c r="N4" s="151" t="s">
-        <v>904</v>
-      </c>
-      <c r="O4" s="142" t="s">
-        <v>803</v>
-      </c>
-      <c r="P4" s="142" t="s">
-        <v>805</v>
-      </c>
-      <c r="R4" s="160" t="s">
-        <v>916</v>
-      </c>
-      <c r="S4" s="161" t="s">
-        <v>917</v>
-      </c>
-      <c r="T4" s="161" t="s">
-        <v>918</v>
-      </c>
-      <c r="U4" s="161" t="s">
-        <v>919</v>
-      </c>
-      <c r="V4" s="161" t="s">
-        <v>922</v>
-      </c>
-      <c r="W4" s="161" t="s">
-        <v>920</v>
-      </c>
-      <c r="X4" s="161" t="s">
-        <v>921</v>
-      </c>
-      <c r="Y4" s="161" t="s">
-        <v>923</v>
-      </c>
-      <c r="Z4" s="161" t="s">
-        <v>924</v>
-      </c>
-      <c r="AA4" s="161" t="s">
-        <v>925</v>
-      </c>
-      <c r="AB4" s="161" t="s">
-        <v>926</v>
-      </c>
-      <c r="AC4" s="161" t="s">
-        <v>927</v>
-      </c>
-      <c r="AD4" s="161" t="s">
-        <v>928</v>
-      </c>
-      <c r="AE4" s="161" t="s">
-        <v>929</v>
-      </c>
-      <c r="AF4" s="161" t="s">
-        <v>930</v>
-      </c>
-      <c r="AG4" s="161" t="s">
-        <v>931</v>
-      </c>
-      <c r="AH4" s="161" t="s">
-        <v>932</v>
-      </c>
     </row>
-    <row r="5" spans="1:34" s="141" customFormat="1" ht="46" customHeight="1">
+    <row r="5" spans="1:21" s="141" customFormat="1" ht="46" customHeight="1">
       <c r="A5" s="147"/>
       <c r="B5" s="143" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="144" t="s">
-        <v>854</v>
-      </c>
-      <c r="D5" s="152" t="s">
+        <v>838</v>
+      </c>
+      <c r="D5" s="154" t="s">
+        <v>899</v>
+      </c>
+      <c r="E5" s="154" t="s">
+        <v>900</v>
+      </c>
+      <c r="F5" s="154" t="s">
+        <v>901</v>
+      </c>
+      <c r="G5" s="154" t="s">
+        <v>801</v>
+      </c>
+      <c r="H5" s="154" t="s">
+        <v>904</v>
+      </c>
+      <c r="I5" s="154" t="s">
+        <v>902</v>
+      </c>
+      <c r="J5" s="154" t="s">
+        <v>903</v>
+      </c>
+      <c r="K5" s="154" t="s">
         <v>905</v>
       </c>
-      <c r="E5" s="144" t="s">
-        <v>806</v>
-      </c>
-      <c r="F5" s="144" t="s">
-        <v>807</v>
-      </c>
-      <c r="G5" s="144" t="s">
-        <v>808</v>
-      </c>
-      <c r="H5" s="152" t="s">
+      <c r="L5" s="154" t="s">
         <v>906</v>
       </c>
-      <c r="I5" s="152" t="s">
+      <c r="M5" s="154" t="s">
         <v>907</v>
       </c>
-      <c r="J5" s="152" t="s">
+      <c r="N5" s="154" t="s">
         <v>908</v>
       </c>
-      <c r="K5" s="152" t="s">
+      <c r="O5" s="154" t="s">
         <v>909</v>
       </c>
-      <c r="L5" s="152" t="s">
+      <c r="P5" s="154" t="s">
         <v>910</v>
       </c>
-      <c r="M5" s="152" t="s">
+      <c r="Q5" s="154" t="s">
         <v>911</v>
       </c>
-      <c r="N5" s="152" t="s">
+      <c r="R5" s="154" t="s">
         <v>912</v>
       </c>
-      <c r="O5" s="144" t="s">
-        <v>852</v>
-      </c>
-      <c r="P5" s="144" t="s">
-        <v>853</v>
-      </c>
-      <c r="R5" s="162" t="s">
-        <v>933</v>
-      </c>
-      <c r="S5" s="162" t="s">
-        <v>934</v>
-      </c>
-      <c r="T5" s="162" t="s">
-        <v>935</v>
-      </c>
-      <c r="U5" s="162" t="s">
-        <v>806</v>
-      </c>
-      <c r="V5" s="162" t="s">
-        <v>938</v>
-      </c>
-      <c r="W5" s="162" t="s">
-        <v>936</v>
-      </c>
-      <c r="X5" s="162" t="s">
-        <v>937</v>
-      </c>
-      <c r="Y5" s="162" t="s">
-        <v>939</v>
-      </c>
-      <c r="Z5" s="162" t="s">
-        <v>940</v>
-      </c>
-      <c r="AA5" s="162" t="s">
-        <v>941</v>
-      </c>
-      <c r="AB5" s="162" t="s">
-        <v>942</v>
-      </c>
-      <c r="AC5" s="162" t="s">
-        <v>943</v>
-      </c>
-      <c r="AD5" s="162" t="s">
-        <v>944</v>
-      </c>
-      <c r="AE5" s="162" t="s">
-        <v>945</v>
-      </c>
-      <c r="AF5" s="162" t="s">
-        <v>946</v>
-      </c>
-      <c r="AG5" s="162" t="s">
-        <v>947</v>
-      </c>
-      <c r="AH5" s="162" t="s">
-        <v>948</v>
+      <c r="S5" s="154" t="s">
+        <v>913</v>
+      </c>
+      <c r="T5" s="154" t="s">
+        <v>914</v>
       </c>
     </row>
-    <row r="6" spans="1:34" s="141" customFormat="1" ht="21" customHeight="1">
+    <row r="6" spans="1:21" s="141" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="147"/>
       <c r="B6" s="145" t="s">
         <v>279</v>
@@ -21578,204 +21229,143 @@
       <c r="C6" s="145" t="s">
         <v>280</v>
       </c>
-      <c r="D6" s="153" t="s">
-        <v>725</v>
-      </c>
-      <c r="E6" s="145" t="s">
-        <v>847</v>
-      </c>
-      <c r="F6" s="145" t="s">
+      <c r="D6" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="145" t="s">
+      <c r="E6" s="155" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="155" t="s">
         <v>94</v>
       </c>
-      <c r="H6" s="153" t="s">
-        <v>725</v>
-      </c>
-      <c r="I6" s="153" t="s">
-        <v>725</v>
-      </c>
-      <c r="J6" s="153" t="s">
-        <v>725</v>
-      </c>
-      <c r="K6" s="153" t="s">
-        <v>913</v>
-      </c>
-      <c r="L6" s="153" t="s">
-        <v>913</v>
-      </c>
-      <c r="M6" s="153" t="s">
-        <v>725</v>
-      </c>
-      <c r="N6" s="153" t="s">
-        <v>914</v>
-      </c>
-      <c r="O6" s="145" t="s">
+      <c r="G6" s="155" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="155" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="155" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="155" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="155" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="O6" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" s="155" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="145" t="s">
-        <v>848</v>
-      </c>
-      <c r="R6" s="163" t="s">
-        <v>5</v>
-      </c>
-      <c r="S6" s="163" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6" s="163" t="s">
+      <c r="R6" s="155" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="155" t="s">
         <v>94</v>
       </c>
-      <c r="U6" s="163" t="s">
-        <v>5</v>
-      </c>
-      <c r="V6" s="163" t="s">
-        <v>5</v>
-      </c>
-      <c r="W6" s="163" t="s">
-        <v>5</v>
-      </c>
-      <c r="X6" s="163" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y6" s="163" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z6" s="163" t="s">
+      <c r="T6" s="155" t="s">
         <v>94</v>
       </c>
-      <c r="AA6" s="163" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB6" s="163" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC6" s="163" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD6" s="163" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE6" s="163" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF6" s="163" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG6" s="163" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH6" s="163" t="s">
-        <v>94</v>
-      </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:21">
       <c r="A7" s="148" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="B7" s="137">
         <v>1</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="D7" s="137" t="s">
-        <v>915</v>
+        <v>881</v>
       </c>
       <c r="E7" s="137" t="s">
-        <v>812</v>
-      </c>
-      <c r="F7" s="137" t="s">
         <v>97</v>
       </c>
+      <c r="F7" s="151"/>
       <c r="G7" s="137" t="s">
+        <v>805</v>
+      </c>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="154">
-        <v>0</v>
-      </c>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="L7" s="154"/>
-      <c r="M7" s="154"/>
-      <c r="N7" s="154"/>
-      <c r="O7" s="137" t="s">
-        <v>813</v>
-      </c>
-      <c r="P7" s="138" t="s">
-        <v>814</v>
-      </c>
-      <c r="Q7" s="136" t="s">
-        <v>810</v>
-      </c>
-      <c r="R7" s="137" t="s">
-        <v>915</v>
-      </c>
-      <c r="S7" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="U7" s="137" t="s">
-        <v>812</v>
+      <c r="M7" s="151"/>
+      <c r="N7" s="151"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="137" t="s">
+        <v>916</v>
+      </c>
+      <c r="R7" s="138"/>
+      <c r="S7" s="151"/>
+      <c r="T7" s="151"/>
+      <c r="U7" s="136" t="s">
+        <v>803</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="24">
+    <row r="8" spans="1:21">
       <c r="A8" s="148" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="B8" s="137">
         <v>2</v>
       </c>
       <c r="C8" s="137" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="D8" s="137" t="s">
-        <v>915</v>
+        <v>881</v>
       </c>
       <c r="E8" s="137" t="s">
-        <v>812</v>
-      </c>
-      <c r="F8" s="137" t="s">
         <v>114</v>
       </c>
+      <c r="F8" s="151"/>
       <c r="G8" s="137" t="s">
+        <v>805</v>
+      </c>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="151"/>
+      <c r="L8" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="154">
-        <v>0</v>
-      </c>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="L8" s="154"/>
-      <c r="M8" s="154"/>
-      <c r="N8" s="154"/>
-      <c r="O8" s="137" t="s">
-        <v>818</v>
-      </c>
-      <c r="P8" s="138" t="s">
-        <v>819</v>
-      </c>
-      <c r="Q8" s="136" t="s">
-        <v>816</v>
-      </c>
-      <c r="R8" s="137" t="s">
-        <v>915</v>
-      </c>
-      <c r="S8" s="137" t="s">
-        <v>114</v>
-      </c>
-      <c r="U8" s="137" t="s">
-        <v>812</v>
+      <c r="M8" s="151"/>
+      <c r="N8" s="151"/>
+      <c r="O8" s="151"/>
+      <c r="P8" s="151"/>
+      <c r="Q8" s="137" t="s">
+        <v>810</v>
+      </c>
+      <c r="R8" s="138"/>
+      <c r="S8" s="151"/>
+      <c r="T8" s="151"/>
+      <c r="U8" s="136" t="s">
+        <v>808</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="24">
+    <row r="9" spans="1:21">
       <c r="A9" s="148" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="B9" s="137">
         <v>3</v>
@@ -21784,328 +21374,265 @@
         <v>203</v>
       </c>
       <c r="D9" s="137" t="s">
-        <v>915</v>
+        <v>881</v>
       </c>
       <c r="E9" s="137" t="s">
-        <v>822</v>
-      </c>
-      <c r="F9" s="137" t="s">
         <v>97</v>
       </c>
+      <c r="F9" s="151"/>
       <c r="G9" s="137" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="154">
-        <v>0</v>
-      </c>
-      <c r="I9" s="154"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="39" t="s">
-        <v>823</v>
-      </c>
-      <c r="L9" s="154"/>
-      <c r="M9" s="154"/>
-      <c r="N9" s="154"/>
-      <c r="O9" s="137" t="s">
-        <v>818</v>
-      </c>
-      <c r="P9" s="138" t="s">
-        <v>824</v>
-      </c>
-      <c r="Q9" s="136" t="s">
-        <v>821</v>
-      </c>
-      <c r="R9" s="137" t="s">
-        <v>915</v>
-      </c>
-      <c r="S9" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="U9" s="137" t="s">
-        <v>822</v>
+        <v>813</v>
+      </c>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="39" t="s">
+        <v>814</v>
+      </c>
+      <c r="M9" s="151"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="137" t="s">
+        <v>810</v>
+      </c>
+      <c r="R9" s="138"/>
+      <c r="S9" s="151"/>
+      <c r="T9" s="151"/>
+      <c r="U9" s="136" t="s">
+        <v>812</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="24">
+    <row r="10" spans="1:21">
       <c r="A10" s="148" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="B10" s="137">
         <v>4</v>
       </c>
       <c r="C10" s="137" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="D10" s="137" t="s">
-        <v>915</v>
+        <v>881</v>
       </c>
       <c r="E10" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="151"/>
+      <c r="G10" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="137" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="137" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="154">
-        <v>0</v>
-      </c>
-      <c r="I10" s="154"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="39" t="s">
-        <v>823</v>
-      </c>
-      <c r="L10" s="154"/>
-      <c r="M10" s="154"/>
-      <c r="N10" s="154"/>
-      <c r="O10" s="137" t="s">
-        <v>828</v>
-      </c>
-      <c r="P10" s="138" t="s">
-        <v>829</v>
-      </c>
-      <c r="Q10" s="136" t="s">
-        <v>826</v>
-      </c>
-      <c r="R10" s="137" t="s">
-        <v>915</v>
-      </c>
-      <c r="S10" s="137" t="s">
-        <v>98</v>
-      </c>
-      <c r="U10" s="137" t="s">
-        <v>129</v>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="39" t="s">
+        <v>814</v>
+      </c>
+      <c r="M10" s="151"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="151"/>
+      <c r="P10" s="151"/>
+      <c r="Q10" s="137" t="s">
+        <v>818</v>
+      </c>
+      <c r="R10" s="138"/>
+      <c r="S10" s="151"/>
+      <c r="T10" s="151"/>
+      <c r="U10" s="136" t="s">
+        <v>816</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="24">
+    <row r="11" spans="1:21">
       <c r="A11" s="148" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="B11" s="137">
         <v>5</v>
       </c>
       <c r="C11" s="137" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>915</v>
+        <v>881</v>
       </c>
       <c r="E11" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="151"/>
+      <c r="G11" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="137" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="137" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" s="154">
-        <v>0</v>
-      </c>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="39" t="s">
-        <v>832</v>
-      </c>
-      <c r="L11" s="154"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="154"/>
-      <c r="O11" s="137" t="s">
-        <v>828</v>
-      </c>
-      <c r="P11" s="138" t="s">
-        <v>829</v>
-      </c>
-      <c r="Q11" s="136" t="s">
-        <v>831</v>
-      </c>
-      <c r="R11" s="137" t="s">
-        <v>915</v>
-      </c>
-      <c r="S11" s="137" t="s">
-        <v>98</v>
-      </c>
-      <c r="U11" s="137" t="s">
-        <v>129</v>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="39" t="s">
+        <v>821</v>
+      </c>
+      <c r="M11" s="151"/>
+      <c r="N11" s="151"/>
+      <c r="O11" s="151"/>
+      <c r="P11" s="151"/>
+      <c r="Q11" s="137" t="s">
+        <v>818</v>
+      </c>
+      <c r="R11" s="138"/>
+      <c r="S11" s="151"/>
+      <c r="T11" s="151"/>
+      <c r="U11" s="136" t="s">
+        <v>820</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:21">
       <c r="A12" s="148" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="B12" s="137">
         <v>6</v>
       </c>
       <c r="C12" s="137"/>
       <c r="D12" s="137" t="s">
-        <v>915</v>
+        <v>881</v>
       </c>
       <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137" t="s">
-        <v>124</v>
-      </c>
-      <c r="H12" s="154">
-        <v>0</v>
-      </c>
-      <c r="I12" s="154"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="39" t="s">
+      <c r="F12" s="151"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="39" t="s">
+        <v>814</v>
+      </c>
+      <c r="M12" s="151"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="137"/>
+      <c r="R12" s="138"/>
+      <c r="S12" s="151"/>
+      <c r="T12" s="151"/>
+      <c r="U12" s="136" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="148" t="s">
         <v>823</v>
-      </c>
-      <c r="L12" s="154"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="154"/>
-      <c r="O12" s="137"/>
-      <c r="P12" s="39" t="s">
-        <v>834</v>
-      </c>
-      <c r="Q12" s="136" t="s">
-        <v>850</v>
-      </c>
-      <c r="R12" s="137" t="s">
-        <v>915</v>
-      </c>
-      <c r="S12" s="137"/>
-      <c r="U12" s="137"/>
-    </row>
-    <row r="13" spans="1:34" ht="36">
-      <c r="A13" s="148" t="s">
-        <v>835</v>
       </c>
       <c r="B13" s="137">
         <v>7</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="D13" s="137" t="s">
-        <v>915</v>
+        <v>881</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>812</v>
-      </c>
-      <c r="F13" s="39" t="s">
         <v>97</v>
       </c>
+      <c r="F13" s="151"/>
       <c r="G13" s="39" t="s">
-        <v>823</v>
-      </c>
-      <c r="H13" s="154">
-        <v>0</v>
-      </c>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="39" t="s">
-        <v>823</v>
-      </c>
-      <c r="L13" s="154"/>
-      <c r="M13" s="154"/>
-      <c r="N13" s="154"/>
-      <c r="O13" s="137" t="s">
-        <v>813</v>
-      </c>
-      <c r="P13" s="138"/>
-      <c r="Q13" s="136" t="s">
-        <v>836</v>
-      </c>
-      <c r="R13" s="137" t="s">
-        <v>915</v>
-      </c>
-      <c r="S13" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="U13" s="39" t="s">
-        <v>812</v>
+        <v>805</v>
+      </c>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="39" t="s">
+        <v>814</v>
+      </c>
+      <c r="M13" s="151"/>
+      <c r="N13" s="151"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="137" t="s">
+        <v>806</v>
+      </c>
+      <c r="R13" s="138"/>
+      <c r="S13" s="151"/>
+      <c r="T13" s="151"/>
+      <c r="U13" s="136" t="s">
+        <v>824</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:21">
       <c r="A14" s="148" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="B14" s="137">
         <v>8</v>
       </c>
       <c r="C14" s="137" t="s">
+        <v>817</v>
+      </c>
+      <c r="D14" s="137" t="s">
+        <v>881</v>
+      </c>
+      <c r="E14" s="137" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="151"/>
+      <c r="G14" s="137" t="s">
+        <v>828</v>
+      </c>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="39" t="s">
+        <v>814</v>
+      </c>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="137" t="s">
+        <v>818</v>
+      </c>
+      <c r="R14" s="138"/>
+      <c r="S14" s="151"/>
+      <c r="T14" s="151"/>
+      <c r="U14" s="139" t="s">
         <v>827</v>
       </c>
-      <c r="D14" s="137" t="s">
-        <v>915</v>
-      </c>
-      <c r="E14" s="137" t="s">
-        <v>840</v>
-      </c>
-      <c r="F14" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="137" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" s="154">
-        <v>0</v>
-      </c>
-      <c r="I14" s="154"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="39" t="s">
-        <v>823</v>
-      </c>
-      <c r="L14" s="154"/>
-      <c r="M14" s="154"/>
-      <c r="N14" s="154"/>
-      <c r="O14" s="137" t="s">
-        <v>828</v>
-      </c>
-      <c r="P14" s="138" t="s">
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="148" t="s">
         <v>829</v>
-      </c>
-      <c r="Q14" s="139" t="s">
-        <v>839</v>
-      </c>
-      <c r="R14" s="137" t="s">
-        <v>915</v>
-      </c>
-      <c r="S14" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="U14" s="137" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
-      <c r="A15" s="148" t="s">
-        <v>841</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>118</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="D15" s="137" t="s">
-        <v>915</v>
+        <v>881</v>
       </c>
       <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
+      <c r="F15" s="151"/>
       <c r="G15" s="137"/>
-      <c r="H15" s="154">
-        <v>0</v>
-      </c>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="154"/>
-      <c r="N15" s="154"/>
-      <c r="O15" s="137"/>
-      <c r="P15" s="137"/>
-      <c r="Q15" s="140"/>
-      <c r="R15" s="137" t="s">
-        <v>915</v>
-      </c>
-      <c r="S15" s="137"/>
-      <c r="U15" s="137"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="151"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="137"/>
+      <c r="R15" s="138"/>
+      <c r="S15" s="151"/>
+      <c r="T15" s="151"/>
+      <c r="U15" s="140"/>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:21">
       <c r="A16" s="149" t="s">
         <v>347</v>
       </c>
@@ -22113,142 +21640,114 @@
         <v>102</v>
       </c>
       <c r="C16" s="137" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="D16" s="137" t="s">
-        <v>915</v>
+        <v>881</v>
       </c>
       <c r="E16" s="137" t="s">
-        <v>812</v>
-      </c>
-      <c r="F16" s="137" t="s">
         <v>97</v>
       </c>
+      <c r="F16" s="151"/>
       <c r="G16" s="137" t="s">
+        <v>805</v>
+      </c>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="154">
-        <v>0</v>
-      </c>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="137" t="s">
-        <v>124</v>
-      </c>
-      <c r="L16" s="154"/>
-      <c r="M16" s="154"/>
-      <c r="N16" s="154"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="137"/>
-      <c r="Q16" s="140"/>
-      <c r="R16" s="137" t="s">
-        <v>915</v>
-      </c>
-      <c r="S16" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="U16" s="137" t="s">
-        <v>812</v>
-      </c>
+      <c r="M16" s="151"/>
+      <c r="N16" s="151"/>
+      <c r="O16" s="151"/>
+      <c r="P16" s="151"/>
+      <c r="Q16" s="137"/>
+      <c r="R16" s="138"/>
+      <c r="S16" s="151"/>
+      <c r="T16" s="161" t="s">
+        <v>917</v>
+      </c>
+      <c r="U16" s="140"/>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="149" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="B17" s="137" t="s">
         <v>140</v>
       </c>
       <c r="C17" s="137" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="D17" s="137" t="s">
-        <v>915</v>
+        <v>881</v>
       </c>
       <c r="E17" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="151"/>
+      <c r="G17" s="137" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="137" t="s">
-        <v>155</v>
-      </c>
-      <c r="G17" s="137" t="s">
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="154">
-        <v>0</v>
-      </c>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="137" t="s">
-        <v>124</v>
-      </c>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="154"/>
-      <c r="O17" s="137" t="s">
-        <v>845</v>
-      </c>
-      <c r="P17" s="138" t="s">
-        <v>819</v>
-      </c>
-      <c r="Q17" s="140"/>
-      <c r="R17" s="137" t="s">
-        <v>915</v>
-      </c>
-      <c r="S17" s="137" t="s">
-        <v>155</v>
-      </c>
-      <c r="U17" s="137" t="s">
-        <v>130</v>
-      </c>
+      <c r="M17" s="151"/>
+      <c r="N17" s="151"/>
+      <c r="O17" s="151"/>
+      <c r="P17" s="151"/>
+      <c r="Q17" s="137" t="s">
+        <v>918</v>
+      </c>
+      <c r="R17" s="138"/>
+      <c r="S17" s="151"/>
+      <c r="T17" s="151"/>
+      <c r="U17" s="140"/>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="149" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="B18" s="137" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="C18" s="137" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="D18" s="137" t="s">
-        <v>915</v>
+        <v>881</v>
       </c>
       <c r="E18" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" s="151"/>
+      <c r="G18" s="137" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="137" t="s">
-        <v>155</v>
-      </c>
-      <c r="G18" s="137" t="s">
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="154">
-        <v>0</v>
-      </c>
-      <c r="I18" s="154"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="137" t="s">
-        <v>124</v>
-      </c>
-      <c r="L18" s="154"/>
-      <c r="M18" s="154"/>
-      <c r="N18" s="154"/>
-      <c r="O18" s="137" t="s">
-        <v>845</v>
-      </c>
-      <c r="P18" s="138" t="s">
-        <v>819</v>
-      </c>
-      <c r="R18" s="137" t="s">
-        <v>915</v>
-      </c>
-      <c r="S18" s="137" t="s">
-        <v>155</v>
-      </c>
-      <c r="U18" s="137" t="s">
-        <v>130</v>
-      </c>
+      <c r="M18" s="151"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="137" t="s">
+        <v>833</v>
+      </c>
+      <c r="R18" s="138"/>
+      <c r="S18" s="151"/>
+      <c r="T18" s="151"/>
+      <c r="U18" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -22259,13 +21758,12 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:Q6 AI6:XFD6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:C6 U6:XFD6">
       <formula1>"int,string,bool,long,strList1,strList2,nList1,nList2"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -22303,11 +21801,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
@@ -22325,11 +21823,11 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
       <c r="D2" s="1" t="s">
         <v>28</v>
       </c>

--- a/Assets/island/DBCfg/DataCfg.xlsx
+++ b/Assets/island/DBCfg/DataCfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24540" windowHeight="15600" tabRatio="827" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24660" windowHeight="15600" tabRatio="827" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="配置表cfg" sheetId="1" r:id="rId1"/>
@@ -691,7 +691,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="921">
   <si>
     <t>表名：</t>
   </si>
@@ -1632,9 +1632,6 @@
     <t>SpaceSize</t>
   </si>
   <si>
-    <t>SolderNum</t>
-  </si>
-  <si>
     <t>SelfExplode</t>
   </si>
   <si>
@@ -4148,6 +4145,14 @@
   </si>
   <si>
     <t>103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SolderNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4760,7 +4765,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1416">
+  <cellStyleXfs count="1418">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -7413,6 +7418,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -7902,7 +7913,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1416">
+  <cellStyles count="1418">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 1 10" xfId="2"/>
     <cellStyle name="20% - 强调文字颜色 1 10 2" xfId="3"/>
@@ -8953,6 +8964,7 @@
     <cellStyle name="超链接" xfId="1410" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1412" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1414" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1416" builtinId="8" hidden="1"/>
     <cellStyle name="逗号 [0]" xfId="885" builtinId="6"/>
     <cellStyle name="访问过的超链接" xfId="1085" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1087" builtinId="9" hidden="1"/>
@@ -9120,6 +9132,7 @@
     <cellStyle name="访问过的超链接" xfId="1411" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1413" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1415" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1417" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="886" builtinId="26" customBuiltin="1"/>
     <cellStyle name="好 10" xfId="887"/>
     <cellStyle name="好 11" xfId="888"/>
@@ -9881,19 +9894,19 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="8" customFormat="1" ht="15" customHeight="1">
@@ -9905,19 +9918,19 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -9937,10 +9950,10 @@
         <v>5</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -10112,11 +10125,11 @@
   </sheetPr>
   <dimension ref="A1:BL45"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="6" topLeftCell="AG7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="AN10" sqref="AN10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10219,13 +10232,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="102" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>40</v>
@@ -10237,103 +10250,103 @@
         <v>42</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J4" s="28" t="s">
+        <v>735</v>
+      </c>
+      <c r="K4" s="28" t="s">
         <v>736</v>
       </c>
-      <c r="K4" s="28" t="s">
-        <v>737</v>
-      </c>
       <c r="L4" s="72" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M4" s="72" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N4" s="72" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O4" s="73" t="s">
+        <v>533</v>
+      </c>
+      <c r="P4" s="73" t="s">
         <v>534</v>
       </c>
-      <c r="P4" s="73" t="s">
-        <v>535</v>
-      </c>
       <c r="Q4" s="73" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="R4" s="74" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="S4" s="74" t="s">
+        <v>540</v>
+      </c>
+      <c r="T4" s="74" t="s">
         <v>541</v>
       </c>
-      <c r="T4" s="74" t="s">
+      <c r="U4" s="75" t="s">
         <v>542</v>
       </c>
-      <c r="U4" s="75" t="s">
+      <c r="V4" s="75" t="s">
         <v>543</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="W4" s="75" t="s">
         <v>544</v>
       </c>
-      <c r="W4" s="75" t="s">
-        <v>545</v>
-      </c>
       <c r="X4" s="80" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y4" s="80" t="s">
         <v>554</v>
       </c>
-      <c r="Y4" s="80" t="s">
+      <c r="Z4" s="80" t="s">
         <v>555</v>
       </c>
-      <c r="Z4" s="80" t="s">
-        <v>556</v>
-      </c>
       <c r="AA4" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="AB4" s="101" t="s">
         <v>591</v>
       </c>
-      <c r="AB4" s="101" t="s">
+      <c r="AC4" s="101" t="s">
         <v>592</v>
       </c>
-      <c r="AC4" s="101" t="s">
-        <v>593</v>
-      </c>
       <c r="AD4" s="112" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AE4" s="112" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AF4" s="112" t="s">
+        <v>601</v>
+      </c>
+      <c r="AG4" s="75" t="s">
         <v>602</v>
       </c>
-      <c r="AG4" s="75" t="s">
+      <c r="AH4" s="75" t="s">
         <v>603</v>
       </c>
-      <c r="AH4" s="75" t="s">
+      <c r="AI4" s="75" t="s">
         <v>604</v>
       </c>
-      <c r="AI4" s="75" t="s">
-        <v>605</v>
-      </c>
       <c r="AJ4" s="105" t="s">
+        <v>617</v>
+      </c>
+      <c r="AK4" s="105" t="s">
         <v>618</v>
       </c>
-      <c r="AK4" s="105" t="s">
+      <c r="AL4" s="105" t="s">
         <v>619</v>
       </c>
-      <c r="AL4" s="105" t="s">
-        <v>620</v>
-      </c>
       <c r="AM4" s="113" t="s">
+        <v>634</v>
+      </c>
+      <c r="AN4" s="113" t="s">
         <v>635</v>
       </c>
-      <c r="AN4" s="113" t="s">
+      <c r="AO4" s="113" t="s">
         <v>636</v>
-      </c>
-      <c r="AO4" s="113" t="s">
-        <v>637</v>
       </c>
       <c r="AP4" s="30" t="s">
         <v>54</v>
@@ -10342,13 +10355,13 @@
         <v>55</v>
       </c>
       <c r="AR4" s="116" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AS4" s="116" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AT4" s="116" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AU4" s="30" t="s">
         <v>58</v>
@@ -10366,7 +10379,7 @@
         <v>52</v>
       </c>
       <c r="AZ4" s="109" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="BA4" s="30" t="s">
         <v>56</v>
@@ -10387,7 +10400,7 @@
         <v>59</v>
       </c>
       <c r="BG4" s="30" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="BH4" s="30" t="s">
         <v>60</v>
@@ -10416,10 +10429,10 @@
         <v>37</v>
       </c>
       <c r="E5" s="102" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>70</v>
@@ -10428,103 +10441,103 @@
         <v>71</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J5" s="28" t="s">
+        <v>737</v>
+      </c>
+      <c r="K5" s="28" t="s">
         <v>738</v>
       </c>
-      <c r="K5" s="28" t="s">
-        <v>739</v>
-      </c>
       <c r="L5" s="72" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M5" s="72" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N5" s="72" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O5" s="73" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="P5" s="73" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Q5" s="73" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="R5" s="74" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="S5" s="74" t="s">
+        <v>545</v>
+      </c>
+      <c r="T5" s="74" t="s">
         <v>546</v>
       </c>
-      <c r="T5" s="74" t="s">
+      <c r="U5" s="75" t="s">
         <v>547</v>
       </c>
-      <c r="U5" s="75" t="s">
+      <c r="V5" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="V5" s="75" t="s">
+      <c r="W5" s="75" t="s">
         <v>549</v>
       </c>
-      <c r="W5" s="75" t="s">
-        <v>550</v>
-      </c>
       <c r="X5" s="80" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="Y5" s="80" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="Z5" s="80" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AA5" s="101" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB5" s="101" t="s">
         <v>594</v>
       </c>
-      <c r="AB5" s="101" t="s">
+      <c r="AC5" s="101" t="s">
         <v>595</v>
       </c>
-      <c r="AC5" s="101" t="s">
-        <v>596</v>
-      </c>
       <c r="AD5" s="112" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AE5" s="112" t="s">
+        <v>599</v>
+      </c>
+      <c r="AF5" s="112" t="s">
         <v>600</v>
       </c>
-      <c r="AF5" s="112" t="s">
-        <v>601</v>
-      </c>
       <c r="AG5" s="75" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AH5" s="75" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AI5" s="75" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AJ5" s="105" t="s">
+        <v>614</v>
+      </c>
+      <c r="AK5" s="105" t="s">
         <v>615</v>
       </c>
-      <c r="AK5" s="105" t="s">
+      <c r="AL5" s="105" t="s">
         <v>616</v>
       </c>
-      <c r="AL5" s="105" t="s">
-        <v>617</v>
-      </c>
       <c r="AM5" s="113" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN5" s="113" t="s">
         <v>638</v>
       </c>
-      <c r="AN5" s="113" t="s">
+      <c r="AO5" s="113" t="s">
         <v>639</v>
-      </c>
-      <c r="AO5" s="113" t="s">
-        <v>640</v>
       </c>
       <c r="AP5" s="28" t="s">
         <v>82</v>
@@ -10533,13 +10546,13 @@
         <v>83</v>
       </c>
       <c r="AR5" s="116" t="s">
+        <v>652</v>
+      </c>
+      <c r="AS5" s="116" t="s">
         <v>653</v>
       </c>
-      <c r="AS5" s="116" t="s">
+      <c r="AT5" s="116" t="s">
         <v>654</v>
-      </c>
-      <c r="AT5" s="116" t="s">
-        <v>655</v>
       </c>
       <c r="AU5" s="28" t="s">
         <v>87</v>
@@ -10554,7 +10567,7 @@
         <v>78</v>
       </c>
       <c r="AY5" s="28" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AZ5" s="109" t="s">
         <v>73</v>
@@ -10566,19 +10579,19 @@
         <v>86</v>
       </c>
       <c r="BC5" s="28" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="BD5" s="28" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="BE5" s="28" t="s">
         <v>79</v>
       </c>
       <c r="BF5" s="28" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="BG5" s="28" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="BH5" s="28" t="s">
         <v>88</v>
@@ -10799,13 +10812,13 @@
         <v>96</v>
       </c>
       <c r="D7" s="104" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E7" s="103" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>99</v>
@@ -10815,10 +10828,10 @@
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="35" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="L7" s="79">
         <v>0</v>
@@ -10828,16 +10841,16 @@
         <v>17280</v>
       </c>
       <c r="N7" s="79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O7" s="76">
         <v>0</v>
       </c>
       <c r="P7" s="76" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="Q7" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R7" s="90">
         <v>0</v>
@@ -10846,7 +10859,7 @@
         <v>30000000</v>
       </c>
       <c r="T7" s="86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U7" s="88">
         <v>0</v>
@@ -10855,21 +10868,21 @@
         <v>30000000</v>
       </c>
       <c r="W7" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X7" s="81">
         <v>1500</v>
       </c>
       <c r="Y7" s="81" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Z7" s="84" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AA7" s="92"/>
       <c r="AB7" s="92"/>
       <c r="AC7" s="93" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AD7" s="95"/>
       <c r="AE7" s="95"/>
@@ -10899,7 +10912,7 @@
       <c r="BA7" s="35"/>
       <c r="BB7" s="35"/>
       <c r="BC7" s="31" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="BD7" s="31"/>
       <c r="BE7" s="35"/>
@@ -10928,7 +10941,7 @@
         <v>97</v>
       </c>
       <c r="E8" s="103" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>115</v>
@@ -10941,10 +10954,10 @@
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="35" t="s">
+        <v>766</v>
+      </c>
+      <c r="K8" s="35" t="s">
         <v>767</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>768</v>
       </c>
       <c r="L8" s="79" t="s">
         <v>97</v>
@@ -10953,52 +10966,52 @@
         <v>5760</v>
       </c>
       <c r="N8" s="79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O8" s="76" t="s">
         <v>122</v>
       </c>
       <c r="P8" s="76" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="Q8" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R8" s="90" t="s">
         <v>122</v>
       </c>
       <c r="S8" s="90" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="T8" s="86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U8" s="88" t="s">
         <v>122</v>
       </c>
       <c r="V8" s="88" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="W8" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X8" s="82">
         <v>250</v>
       </c>
       <c r="Y8" s="82" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="Z8" s="84" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AA8" s="92" t="s">
+        <v>608</v>
+      </c>
+      <c r="AB8" s="92" t="s">
         <v>609</v>
       </c>
-      <c r="AB8" s="92" t="s">
-        <v>610</v>
-      </c>
       <c r="AC8" s="93" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AD8" s="95"/>
       <c r="AE8" s="95"/>
@@ -11007,17 +11020,23 @@
       <c r="AH8" s="98"/>
       <c r="AI8" s="99"/>
       <c r="AJ8" s="106" t="s">
+        <v>610</v>
+      </c>
+      <c r="AK8" s="106" t="s">
         <v>611</v>
       </c>
-      <c r="AK8" s="106" t="s">
-        <v>612</v>
-      </c>
       <c r="AL8" s="107" t="s">
-        <v>560</v>
-      </c>
-      <c r="AM8" s="114"/>
-      <c r="AN8" s="114"/>
-      <c r="AO8" s="115"/>
+        <v>559</v>
+      </c>
+      <c r="AM8" s="114" t="s">
+        <v>920</v>
+      </c>
+      <c r="AN8" s="114" t="s">
+        <v>920</v>
+      </c>
+      <c r="AO8" s="115" t="s">
+        <v>559</v>
+      </c>
       <c r="AP8" s="35"/>
       <c r="AQ8" s="35"/>
       <c r="AR8" s="117"/>
@@ -11031,12 +11050,12 @@
       </c>
       <c r="AY8" s="35"/>
       <c r="AZ8" s="111" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="BA8" s="35"/>
       <c r="BB8" s="35"/>
       <c r="BC8" s="31" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="BD8" s="31"/>
       <c r="BE8" s="35"/>
@@ -11065,7 +11084,7 @@
         <v>97</v>
       </c>
       <c r="E9" s="103" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F9" s="35" t="s">
         <v>98</v>
@@ -11078,10 +11097,10 @@
       </c>
       <c r="I9" s="35"/>
       <c r="J9" s="35" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L9" s="79">
         <v>1</v>
@@ -11090,43 +11109,43 @@
         <v>5760</v>
       </c>
       <c r="N9" s="79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O9" s="76" t="s">
         <v>109</v>
       </c>
       <c r="P9" s="76" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="Q9" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R9" s="90" t="s">
         <v>109</v>
       </c>
       <c r="S9" s="90" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="T9" s="86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U9" s="88" t="s">
         <v>109</v>
       </c>
       <c r="V9" s="88" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="W9" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X9" s="81" t="s">
         <v>111</v>
       </c>
       <c r="Y9" s="81" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Z9" s="84" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AA9" s="92"/>
       <c r="AB9" s="92"/>
@@ -11156,12 +11175,12 @@
       </c>
       <c r="AY9" s="35"/>
       <c r="AZ9" s="111" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="BA9" s="35"/>
       <c r="BB9" s="35"/>
       <c r="BC9" s="36" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="BD9" s="36"/>
       <c r="BE9" s="35"/>
@@ -11190,7 +11209,7 @@
         <v>97</v>
       </c>
       <c r="E10" s="103" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F10" s="35" t="s">
         <v>98</v>
@@ -11203,10 +11222,10 @@
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="35" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L10" s="79">
         <v>1</v>
@@ -11215,52 +11234,52 @@
         <v>5760</v>
       </c>
       <c r="N10" s="79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O10" s="76" t="s">
         <v>113</v>
       </c>
       <c r="P10" s="76" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="Q10" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R10" s="90" t="s">
         <v>113</v>
       </c>
       <c r="S10" s="90" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="T10" s="86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U10" s="88" t="s">
         <v>113</v>
       </c>
       <c r="V10" s="88" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="W10" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X10" s="82">
         <v>500</v>
       </c>
       <c r="Y10" s="82" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Z10" s="84" t="s">
+        <v>558</v>
+      </c>
+      <c r="AA10" s="92" t="s">
+        <v>631</v>
+      </c>
+      <c r="AB10" s="92" t="s">
+        <v>632</v>
+      </c>
+      <c r="AC10" s="93" t="s">
         <v>559</v>
-      </c>
-      <c r="AA10" s="92" t="s">
-        <v>632</v>
-      </c>
-      <c r="AB10" s="92" t="s">
-        <v>633</v>
-      </c>
-      <c r="AC10" s="93" t="s">
-        <v>560</v>
       </c>
       <c r="AD10" s="95"/>
       <c r="AE10" s="95"/>
@@ -11269,13 +11288,13 @@
       <c r="AH10" s="98"/>
       <c r="AI10" s="99"/>
       <c r="AJ10" s="106" t="s">
+        <v>612</v>
+      </c>
+      <c r="AK10" s="106" t="s">
         <v>613</v>
       </c>
-      <c r="AK10" s="106" t="s">
-        <v>614</v>
-      </c>
       <c r="AL10" s="107" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AM10" s="114"/>
       <c r="AN10" s="114"/>
@@ -11293,12 +11312,12 @@
       </c>
       <c r="AY10" s="35"/>
       <c r="AZ10" s="111" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="BA10" s="35"/>
       <c r="BB10" s="35"/>
       <c r="BC10" s="36" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="BD10" s="36"/>
       <c r="BE10" s="35"/>
@@ -11327,7 +11346,7 @@
         <v>97</v>
       </c>
       <c r="E11" s="103" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F11" s="35" t="s">
         <v>110</v>
@@ -11340,10 +11359,10 @@
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="35" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="L11" s="79">
         <v>1</v>
@@ -11352,43 +11371,43 @@
         <v>5760</v>
       </c>
       <c r="N11" s="79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O11" s="76">
         <v>0</v>
       </c>
       <c r="P11" s="76" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="Q11" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R11" s="90">
         <v>0</v>
       </c>
       <c r="S11" s="90" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="T11" s="86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U11" s="88">
         <v>0</v>
       </c>
       <c r="V11" s="88" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="W11" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X11" s="82">
         <v>580</v>
       </c>
       <c r="Y11" s="82" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="Z11" s="84" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AA11" s="92"/>
       <c r="AB11" s="92"/>
@@ -11400,13 +11419,13 @@
       <c r="AH11" s="98"/>
       <c r="AI11" s="99"/>
       <c r="AJ11" s="106" t="s">
+        <v>612</v>
+      </c>
+      <c r="AK11" s="106" t="s">
         <v>613</v>
       </c>
-      <c r="AK11" s="106" t="s">
-        <v>614</v>
-      </c>
       <c r="AL11" s="107" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AM11" s="114"/>
       <c r="AN11" s="114"/>
@@ -11424,12 +11443,12 @@
       </c>
       <c r="AY11" s="36"/>
       <c r="AZ11" s="111" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="BA11" s="36"/>
       <c r="BB11" s="36"/>
       <c r="BC11" s="31" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="BD11" s="36"/>
       <c r="BE11" s="36"/>
@@ -11440,25 +11459,25 @@
       <c r="BJ11" s="36"/>
       <c r="BK11" s="36"/>
       <c r="BL11" s="36" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:64">
       <c r="A12" s="56" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B12" s="35">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D12" s="104" t="s">
         <v>106</v>
       </c>
       <c r="E12" s="103" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F12" s="35" t="s">
         <v>110</v>
@@ -11471,10 +11490,10 @@
       </c>
       <c r="I12" s="35"/>
       <c r="J12" s="35" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L12" s="79">
         <v>1</v>
@@ -11483,7 +11502,7 @@
         <v>10080</v>
       </c>
       <c r="N12" s="79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O12" s="76"/>
       <c r="P12" s="76"/>
@@ -11492,37 +11511,37 @@
         <v>138</v>
       </c>
       <c r="S12" s="90" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T12" s="86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U12" s="88" t="s">
         <v>138</v>
       </c>
       <c r="V12" s="88" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="W12" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X12" s="81">
         <v>400</v>
       </c>
       <c r="Y12" s="81" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Z12" s="84" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AA12" s="92" t="s">
+        <v>620</v>
+      </c>
+      <c r="AB12" s="92" t="s">
         <v>621</v>
       </c>
-      <c r="AB12" s="92" t="s">
-        <v>622</v>
-      </c>
       <c r="AC12" s="93" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AD12" s="95"/>
       <c r="AE12" s="95"/>
@@ -11549,15 +11568,15 @@
       </c>
       <c r="AY12" s="35"/>
       <c r="AZ12" s="111" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="BA12" s="35"/>
       <c r="BB12" s="35"/>
       <c r="BC12" s="36" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="BD12" s="37" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="BE12" s="35"/>
       <c r="BF12" s="35"/>
@@ -11567,25 +11586,25 @@
       <c r="BJ12" s="35"/>
       <c r="BK12" s="35"/>
       <c r="BL12" s="36" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" spans="1:64">
       <c r="A13" s="56" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B13" s="35">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D13" s="104" t="s">
         <v>106</v>
       </c>
       <c r="E13" s="103" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F13" s="35" t="s">
         <v>110</v>
@@ -11598,10 +11617,10 @@
       </c>
       <c r="I13" s="35"/>
       <c r="J13" s="35" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L13" s="79">
         <v>1</v>
@@ -11610,7 +11629,7 @@
         <v>10080</v>
       </c>
       <c r="N13" s="79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O13" s="76"/>
       <c r="P13" s="76"/>
@@ -11619,37 +11638,37 @@
         <v>146</v>
       </c>
       <c r="S13" s="90" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T13" s="86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U13" s="88" t="s">
         <v>146</v>
       </c>
       <c r="V13" s="88" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="W13" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X13" s="81" t="s">
         <v>119</v>
       </c>
       <c r="Y13" s="81" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Z13" s="84" t="s">
+        <v>558</v>
+      </c>
+      <c r="AA13" s="92" t="s">
+        <v>622</v>
+      </c>
+      <c r="AB13" s="92" t="s">
+        <v>623</v>
+      </c>
+      <c r="AC13" s="93" t="s">
         <v>559</v>
-      </c>
-      <c r="AA13" s="92" t="s">
-        <v>623</v>
-      </c>
-      <c r="AB13" s="92" t="s">
-        <v>624</v>
-      </c>
-      <c r="AC13" s="93" t="s">
-        <v>560</v>
       </c>
       <c r="AD13" s="95"/>
       <c r="AE13" s="95"/>
@@ -11679,7 +11698,7 @@
       <c r="BA13" s="35"/>
       <c r="BB13" s="35"/>
       <c r="BC13" s="31" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="BD13" s="33"/>
       <c r="BE13" s="35"/>
@@ -11690,25 +11709,25 @@
       <c r="BJ13" s="35"/>
       <c r="BK13" s="35"/>
       <c r="BL13" s="36" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:64">
       <c r="A14" s="56" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B14" s="35">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D14" s="104" t="s">
         <v>106</v>
       </c>
       <c r="E14" s="103" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>110</v>
@@ -11721,10 +11740,10 @@
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="35" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L14" s="79">
         <v>1</v>
@@ -11733,16 +11752,16 @@
         <v>10080</v>
       </c>
       <c r="N14" s="79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O14" s="76" t="s">
         <v>138</v>
       </c>
       <c r="P14" s="76" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="Q14" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R14" s="90"/>
       <c r="S14" s="90"/>
@@ -11751,28 +11770,28 @@
         <v>138</v>
       </c>
       <c r="V14" s="88" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="W14" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X14" s="81">
         <v>400</v>
       </c>
       <c r="Y14" s="81" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="Z14" s="84" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AA14" s="92" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AB14" s="92" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AC14" s="93" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AD14" s="95"/>
       <c r="AE14" s="95"/>
@@ -11799,15 +11818,15 @@
       </c>
       <c r="AY14" s="35"/>
       <c r="AZ14" s="111" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="BA14" s="35"/>
       <c r="BB14" s="35"/>
       <c r="BC14" s="36" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="BD14" s="37" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="BE14" s="35"/>
       <c r="BF14" s="35"/>
@@ -11835,7 +11854,7 @@
         <v>106</v>
       </c>
       <c r="E15" s="103" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F15" s="35" t="s">
         <v>110</v>
@@ -11848,10 +11867,10 @@
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="35" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L15" s="79">
         <v>1</v>
@@ -11860,16 +11879,16 @@
         <v>10080</v>
       </c>
       <c r="N15" s="79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O15" s="76" t="s">
         <v>146</v>
       </c>
       <c r="P15" s="76" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="Q15" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R15" s="90"/>
       <c r="S15" s="90"/>
@@ -11878,28 +11897,28 @@
         <v>146</v>
       </c>
       <c r="V15" s="88" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="W15" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X15" s="81" t="s">
         <v>119</v>
       </c>
       <c r="Y15" s="81" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="Z15" s="84" t="s">
+        <v>558</v>
+      </c>
+      <c r="AA15" s="92" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB15" s="92" t="s">
+        <v>680</v>
+      </c>
+      <c r="AC15" s="93" t="s">
         <v>559</v>
-      </c>
-      <c r="AA15" s="92" t="s">
-        <v>626</v>
-      </c>
-      <c r="AB15" s="92" t="s">
-        <v>681</v>
-      </c>
-      <c r="AC15" s="93" t="s">
-        <v>560</v>
       </c>
       <c r="AD15" s="95"/>
       <c r="AE15" s="95"/>
@@ -11929,7 +11948,7 @@
       <c r="BA15" s="35"/>
       <c r="BB15" s="35"/>
       <c r="BC15" s="31" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="BD15" s="33"/>
       <c r="BE15" s="35"/>
@@ -11958,7 +11977,7 @@
         <v>106</v>
       </c>
       <c r="E16" s="103" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>110</v>
@@ -11971,10 +11990,10 @@
       </c>
       <c r="I16" s="35"/>
       <c r="J16" s="35" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L16" s="79">
         <v>1</v>
@@ -11983,25 +12002,25 @@
         <v>10080</v>
       </c>
       <c r="N16" s="79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O16" s="76">
         <v>150</v>
       </c>
       <c r="P16" s="76" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="Q16" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R16" s="90">
         <v>150</v>
       </c>
       <c r="S16" s="90" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T16" s="86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U16" s="88"/>
       <c r="V16" s="88"/>
@@ -12010,19 +12029,19 @@
         <v>400</v>
       </c>
       <c r="Y16" s="81" t="s">
+        <v>579</v>
+      </c>
+      <c r="Z16" s="84" t="s">
         <v>580</v>
       </c>
-      <c r="Z16" s="84" t="s">
-        <v>581</v>
-      </c>
       <c r="AA16" s="92" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB16" s="92" t="s">
         <v>628</v>
       </c>
-      <c r="AB16" s="92" t="s">
-        <v>629</v>
-      </c>
       <c r="AC16" s="93" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AD16" s="95"/>
       <c r="AE16" s="95"/>
@@ -12049,15 +12068,15 @@
       </c>
       <c r="AY16" s="35"/>
       <c r="AZ16" s="111" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="BA16" s="35"/>
       <c r="BB16" s="35"/>
       <c r="BC16" s="31" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="BD16" s="33" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="BE16" s="35"/>
       <c r="BF16" s="35"/>
@@ -12085,7 +12104,7 @@
         <v>106</v>
       </c>
       <c r="E17" s="103" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F17" s="35" t="s">
         <v>110</v>
@@ -12098,10 +12117,10 @@
       </c>
       <c r="I17" s="35"/>
       <c r="J17" s="35" t="s">
+        <v>747</v>
+      </c>
+      <c r="K17" s="35" t="s">
         <v>748</v>
-      </c>
-      <c r="K17" s="35" t="s">
-        <v>749</v>
       </c>
       <c r="L17" s="79">
         <v>1</v>
@@ -12110,25 +12129,25 @@
         <v>10080</v>
       </c>
       <c r="N17" s="79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O17" s="76" t="s">
         <v>146</v>
       </c>
       <c r="P17" s="76" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="Q17" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R17" s="90" t="s">
         <v>146</v>
       </c>
       <c r="S17" s="90" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T17" s="86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U17" s="88"/>
       <c r="V17" s="88"/>
@@ -12137,19 +12156,19 @@
         <v>119</v>
       </c>
       <c r="Y17" s="81" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="Z17" s="84" t="s">
+        <v>558</v>
+      </c>
+      <c r="AA17" s="92" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB17" s="92" t="s">
+        <v>626</v>
+      </c>
+      <c r="AC17" s="93" t="s">
         <v>559</v>
-      </c>
-      <c r="AA17" s="92" t="s">
-        <v>626</v>
-      </c>
-      <c r="AB17" s="92" t="s">
-        <v>627</v>
-      </c>
-      <c r="AC17" s="93" t="s">
-        <v>560</v>
       </c>
       <c r="AD17" s="95"/>
       <c r="AE17" s="95"/>
@@ -12179,7 +12198,7 @@
       <c r="BA17" s="35"/>
       <c r="BB17" s="35"/>
       <c r="BC17" s="31" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="BD17" s="33"/>
       <c r="BE17" s="35"/>
@@ -12208,7 +12227,7 @@
         <v>187</v>
       </c>
       <c r="E18" s="103" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F18" s="35" t="s">
         <v>110</v>
@@ -12221,10 +12240,10 @@
       </c>
       <c r="I18" s="35"/>
       <c r="J18" s="35" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="L18" s="79">
         <f>60/60</f>
@@ -12234,43 +12253,43 @@
         <v>10080</v>
       </c>
       <c r="N18" s="79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O18" s="76">
         <v>250</v>
       </c>
       <c r="P18" s="76" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="Q18" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R18" s="90">
         <v>250</v>
       </c>
       <c r="S18" s="90" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T18" s="86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U18" s="88">
         <v>250</v>
       </c>
       <c r="V18" s="88" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="W18" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X18" s="81">
         <v>400</v>
       </c>
       <c r="Y18" s="81" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="Z18" s="84" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AA18" s="92"/>
       <c r="AB18" s="92"/>
@@ -12291,7 +12310,7 @@
         <v>147</v>
       </c>
       <c r="AO18" s="115" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AP18" s="35"/>
       <c r="AQ18" s="34" t="s">
@@ -12301,10 +12320,10 @@
         <v>7</v>
       </c>
       <c r="AS18" s="117" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AT18" s="118" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AU18" s="36"/>
       <c r="AV18" s="34"/>
@@ -12316,17 +12335,17 @@
         <v>97</v>
       </c>
       <c r="AZ18" s="111" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="BA18" s="34"/>
       <c r="BB18" s="34"/>
       <c r="BC18" s="34" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="BD18" s="34"/>
       <c r="BE18" s="34"/>
       <c r="BF18" s="34" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="BG18" s="34"/>
       <c r="BH18" s="34" t="s">
@@ -12353,10 +12372,10 @@
         <v>162</v>
       </c>
       <c r="D19" s="104" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E19" s="103" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F19" s="35" t="s">
         <v>110</v>
@@ -12369,10 +12388,10 @@
       </c>
       <c r="I19" s="35"/>
       <c r="J19" s="35" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L19" s="79">
         <f t="shared" ref="L19:L31" si="1">60/60</f>
@@ -12382,43 +12401,43 @@
         <v>10080</v>
       </c>
       <c r="N19" s="79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O19" s="76">
         <v>1000</v>
       </c>
       <c r="P19" s="76" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="Q19" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R19" s="90">
         <v>1000</v>
       </c>
       <c r="S19" s="90" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T19" s="86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U19" s="88">
         <v>1000</v>
       </c>
       <c r="V19" s="88" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="W19" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X19" s="81">
         <v>400</v>
       </c>
       <c r="Y19" s="81" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="Z19" s="84" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AA19" s="92"/>
       <c r="AB19" s="92"/>
@@ -12439,7 +12458,7 @@
         <v>163</v>
       </c>
       <c r="AO19" s="115" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AP19" s="35"/>
       <c r="AQ19" s="32" t="s">
@@ -12449,10 +12468,10 @@
         <v>11</v>
       </c>
       <c r="AS19" s="117" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AT19" s="118" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AU19" s="36"/>
       <c r="AV19" s="32"/>
@@ -12464,17 +12483,17 @@
         <v>116</v>
       </c>
       <c r="AZ19" s="111" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="BA19" s="32"/>
       <c r="BB19" s="32"/>
       <c r="BC19" s="36" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="BD19" s="36"/>
       <c r="BE19" s="32"/>
       <c r="BF19" s="36" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="BG19" s="36"/>
       <c r="BH19" s="35" t="s">
@@ -12504,7 +12523,7 @@
         <v>187</v>
       </c>
       <c r="E20" s="103" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F20" s="35" t="s">
         <v>110</v>
@@ -12517,10 +12536,10 @@
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="35" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L20" s="79">
         <f t="shared" si="1"/>
@@ -12530,43 +12549,43 @@
         <v>10080</v>
       </c>
       <c r="N20" s="79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O20" s="76" t="s">
         <v>167</v>
       </c>
       <c r="P20" s="76" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="Q20" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R20" s="90" t="s">
         <v>167</v>
       </c>
       <c r="S20" s="90" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T20" s="86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U20" s="88" t="s">
         <v>167</v>
       </c>
       <c r="V20" s="88" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="W20" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X20" s="81">
         <v>400</v>
       </c>
       <c r="Y20" s="81" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="Z20" s="84" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AA20" s="92"/>
       <c r="AB20" s="92"/>
@@ -12587,25 +12606,25 @@
         <v>131</v>
       </c>
       <c r="AO20" s="115" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AP20" s="35" t="s">
         <v>146</v>
       </c>
       <c r="AQ20" s="34" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AR20" s="117">
         <v>20</v>
       </c>
       <c r="AS20" s="117" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AT20" s="118" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AU20" s="36" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AV20" s="34"/>
       <c r="AW20" s="34"/>
@@ -12616,17 +12635,17 @@
         <v>106</v>
       </c>
       <c r="AZ20" s="111" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="BA20" s="34"/>
       <c r="BB20" s="34"/>
       <c r="BC20" s="34" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="BD20" s="34"/>
       <c r="BE20" s="34"/>
       <c r="BF20" s="34" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="BG20" s="34"/>
       <c r="BH20" s="34" t="s">
@@ -12653,10 +12672,10 @@
         <v>170</v>
       </c>
       <c r="D21" s="104" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E21" s="103" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F21" s="35" t="s">
         <v>110</v>
@@ -12669,10 +12688,10 @@
       </c>
       <c r="I21" s="35"/>
       <c r="J21" s="35" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L21" s="79">
         <f t="shared" si="1"/>
@@ -12682,43 +12701,43 @@
         <v>10080</v>
       </c>
       <c r="N21" s="79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O21" s="76">
         <v>22500</v>
       </c>
       <c r="P21" s="76" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="Q21" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R21" s="90">
         <v>22500</v>
       </c>
       <c r="S21" s="90" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T21" s="86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U21" s="88">
         <v>22500</v>
       </c>
       <c r="V21" s="88" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="W21" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X21" s="81" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Y21" s="81" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Z21" s="84" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AA21" s="92"/>
       <c r="AB21" s="92"/>
@@ -12739,7 +12758,7 @@
         <v>163</v>
       </c>
       <c r="AO21" s="115" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AP21" s="35"/>
       <c r="AQ21" s="32" t="s">
@@ -12749,10 +12768,10 @@
         <v>80</v>
       </c>
       <c r="AS21" s="117" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AT21" s="118" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AU21" s="36"/>
       <c r="AV21" s="32"/>
@@ -12764,17 +12783,17 @@
         <v>98</v>
       </c>
       <c r="AZ21" s="111" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="BA21" s="32"/>
       <c r="BB21" s="32"/>
       <c r="BC21" s="36" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="BD21" s="36"/>
       <c r="BE21" s="32"/>
       <c r="BF21" s="36" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="BG21" s="36"/>
       <c r="BH21" s="32" t="s">
@@ -12801,10 +12820,10 @@
         <v>173</v>
       </c>
       <c r="D22" s="104" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E22" s="103" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F22" s="35" t="s">
         <v>110</v>
@@ -12817,10 +12836,10 @@
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="35" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="L22" s="79">
         <f t="shared" si="1"/>
@@ -12830,43 +12849,43 @@
         <v>10080</v>
       </c>
       <c r="N22" s="79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O22" s="77" t="s">
         <v>174</v>
       </c>
       <c r="P22" s="76" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="Q22" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R22" s="90" t="s">
         <v>174</v>
       </c>
       <c r="S22" s="90" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="T22" s="86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U22" s="88" t="s">
         <v>174</v>
       </c>
       <c r="V22" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="W22" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X22" s="82" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Y22" s="82" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="Z22" s="84" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AA22" s="92"/>
       <c r="AB22" s="92"/>
@@ -12887,10 +12906,10 @@
         <v>147</v>
       </c>
       <c r="AO22" s="115" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AP22" s="35" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AQ22" s="34" t="s">
         <v>175</v>
@@ -12899,10 +12918,10 @@
         <v>176</v>
       </c>
       <c r="AS22" s="119" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AT22" s="118" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AU22" s="36" t="s">
         <v>137</v>
@@ -12916,17 +12935,17 @@
         <v>114</v>
       </c>
       <c r="AZ22" s="111" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="BA22" s="34"/>
       <c r="BB22" s="34"/>
       <c r="BC22" s="34" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="BD22" s="34"/>
       <c r="BE22" s="34"/>
       <c r="BF22" s="36" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="BG22" s="36"/>
       <c r="BH22" s="34" t="s">
@@ -12956,7 +12975,7 @@
         <v>187</v>
       </c>
       <c r="E23" s="103" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F23" s="35" t="s">
         <v>110</v>
@@ -12969,10 +12988,10 @@
       </c>
       <c r="I23" s="35"/>
       <c r="J23" s="35" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L23" s="79">
         <f t="shared" si="1"/>
@@ -12982,43 +13001,43 @@
         <v>10080</v>
       </c>
       <c r="N23" s="79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O23" s="76" t="s">
+        <v>560</v>
+      </c>
+      <c r="P23" s="76" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q23" s="87" t="s">
+        <v>679</v>
+      </c>
+      <c r="R23" s="90" t="s">
+        <v>560</v>
+      </c>
+      <c r="S23" s="90" t="s">
         <v>561</v>
       </c>
-      <c r="P23" s="76" t="s">
-        <v>567</v>
-      </c>
-      <c r="Q23" s="87" t="s">
-        <v>680</v>
-      </c>
-      <c r="R23" s="90" t="s">
+      <c r="T23" s="86" t="s">
+        <v>679</v>
+      </c>
+      <c r="U23" s="88" t="s">
+        <v>560</v>
+      </c>
+      <c r="V23" s="88" t="s">
         <v>561</v>
       </c>
-      <c r="S23" s="90" t="s">
-        <v>562</v>
-      </c>
-      <c r="T23" s="86" t="s">
-        <v>680</v>
-      </c>
-      <c r="U23" s="88" t="s">
-        <v>561</v>
-      </c>
-      <c r="V23" s="88" t="s">
-        <v>562</v>
-      </c>
       <c r="W23" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X23" s="81" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Y23" s="81" t="s">
+        <v>586</v>
+      </c>
+      <c r="Z23" s="84" t="s">
         <v>587</v>
-      </c>
-      <c r="Z23" s="84" t="s">
-        <v>588</v>
       </c>
       <c r="AA23" s="92"/>
       <c r="AB23" s="92"/>
@@ -13039,7 +13058,7 @@
         <v>147</v>
       </c>
       <c r="AO23" s="115" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AP23" s="35"/>
       <c r="AQ23" s="32" t="s">
@@ -13049,10 +13068,10 @@
         <v>20</v>
       </c>
       <c r="AS23" s="117" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AT23" s="118" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AU23" s="36"/>
       <c r="AV23" s="32"/>
@@ -13064,17 +13083,17 @@
         <v>115</v>
       </c>
       <c r="AZ23" s="111" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="BA23" s="32"/>
       <c r="BB23" s="32"/>
       <c r="BC23" s="36" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="BD23" s="36"/>
       <c r="BE23" s="32"/>
       <c r="BF23" s="32" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="BG23" s="32"/>
       <c r="BH23" s="32" t="s">
@@ -13104,7 +13123,7 @@
         <v>187</v>
       </c>
       <c r="E24" s="103" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F24" s="35" t="s">
         <v>187</v>
@@ -13117,10 +13136,10 @@
       </c>
       <c r="I24" s="35"/>
       <c r="J24" s="35" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="L24" s="79">
         <f t="shared" si="1"/>
@@ -13131,43 +13150,43 @@
         <v>17280</v>
       </c>
       <c r="N24" s="79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O24" s="76">
         <v>2500000</v>
       </c>
       <c r="P24" s="76" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Q24" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R24" s="90">
         <v>2500000</v>
       </c>
       <c r="S24" s="90" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="T24" s="86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U24" s="88">
         <v>2500000</v>
       </c>
       <c r="V24" s="88" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="W24" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X24" s="81">
         <v>1500</v>
       </c>
       <c r="Y24" s="81" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="Z24" s="84" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AA24" s="92"/>
       <c r="AB24" s="92"/>
@@ -13188,22 +13207,22 @@
         <v>191</v>
       </c>
       <c r="AO24" s="115" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AP24" s="35" t="s">
         <v>192</v>
       </c>
       <c r="AQ24" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="AR24" s="117" t="s">
         <v>666</v>
       </c>
-      <c r="AR24" s="117" t="s">
-        <v>667</v>
-      </c>
       <c r="AS24" s="117" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AT24" s="118" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AU24" s="36"/>
       <c r="AV24" s="36"/>
@@ -13215,17 +13234,17 @@
         <v>190</v>
       </c>
       <c r="AZ24" s="111" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="BA24" s="36"/>
       <c r="BB24" s="36"/>
       <c r="BC24" s="31" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="BD24" s="36"/>
       <c r="BE24" s="36"/>
       <c r="BF24" s="36" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="BG24" s="36"/>
       <c r="BH24" s="32" t="s">
@@ -13252,10 +13271,10 @@
         <v>196</v>
       </c>
       <c r="D25" s="104" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E25" s="103" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F25" s="35" t="s">
         <v>97</v>
@@ -13270,10 +13289,10 @@
         <v>99</v>
       </c>
       <c r="J25" s="35" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L25" s="79">
         <f t="shared" si="1"/>
@@ -13283,34 +13302,34 @@
         <v>10080</v>
       </c>
       <c r="N25" s="79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O25" s="76" t="s">
         <v>197</v>
       </c>
       <c r="P25" s="76" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="Q25" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R25" s="90" t="s">
         <v>197</v>
       </c>
       <c r="S25" s="90" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T25" s="86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U25" s="88" t="s">
         <v>197</v>
       </c>
       <c r="V25" s="88" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="W25" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X25" s="83"/>
       <c r="Y25" s="83"/>
@@ -13328,19 +13347,19 @@
         <v>129</v>
       </c>
       <c r="AK25" s="38" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AL25" s="107" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AM25" s="114" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AN25" s="114" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AO25" s="115" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AP25" s="35"/>
       <c r="AQ25" s="38" t="s">
@@ -13350,10 +13369,10 @@
         <v>199</v>
       </c>
       <c r="AS25" s="120" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AT25" s="118" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AU25" s="36" t="s">
         <v>146</v>
@@ -13370,12 +13389,12 @@
       <c r="BA25" s="38"/>
       <c r="BB25" s="38"/>
       <c r="BC25" s="31" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="BD25" s="36"/>
       <c r="BE25" s="36"/>
       <c r="BF25" s="36" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="BG25" s="36"/>
       <c r="BH25" s="38" t="s">
@@ -13402,10 +13421,10 @@
         <v>203</v>
       </c>
       <c r="D26" s="104" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E26" s="103" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F26" s="35" t="s">
         <v>97</v>
@@ -13420,10 +13439,10 @@
         <v>99</v>
       </c>
       <c r="J26" s="35" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K26" s="35" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="L26" s="79">
         <f t="shared" si="1"/>
@@ -13433,34 +13452,34 @@
         <v>10080</v>
       </c>
       <c r="N26" s="79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O26" s="76" t="s">
         <v>119</v>
       </c>
       <c r="P26" s="76" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="Q26" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R26" s="90" t="s">
         <v>119</v>
       </c>
       <c r="S26" s="90" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T26" s="86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U26" s="88" t="s">
         <v>119</v>
       </c>
       <c r="V26" s="88" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="W26" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X26" s="83"/>
       <c r="Y26" s="83"/>
@@ -13475,22 +13494,22 @@
       <c r="AH26" s="98"/>
       <c r="AI26" s="99"/>
       <c r="AJ26" s="36" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AK26" s="36" t="s">
         <v>198</v>
       </c>
       <c r="AL26" s="107" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AM26" s="114" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AN26" s="114" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AO26" s="115" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AP26" s="35"/>
       <c r="AQ26" s="36" t="s">
@@ -13500,10 +13519,10 @@
         <v>129</v>
       </c>
       <c r="AS26" s="120" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AT26" s="118" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AU26" s="36" t="s">
         <v>146</v>
@@ -13520,12 +13539,12 @@
       <c r="BA26" s="36"/>
       <c r="BB26" s="36"/>
       <c r="BC26" s="31" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="BD26" s="36"/>
       <c r="BE26" s="36"/>
       <c r="BF26" s="36" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="BG26" s="36"/>
       <c r="BH26" s="32" t="s">
@@ -13555,7 +13574,7 @@
         <v>185</v>
       </c>
       <c r="E27" s="103" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F27" s="35" t="s">
         <v>97</v>
@@ -13570,10 +13589,10 @@
         <v>99</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L27" s="79">
         <f t="shared" si="1"/>
@@ -13583,34 +13602,34 @@
         <v>10080</v>
       </c>
       <c r="N27" s="79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O27" s="76" t="s">
         <v>197</v>
       </c>
       <c r="P27" s="76" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="Q27" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R27" s="90" t="s">
         <v>197</v>
       </c>
       <c r="S27" s="90" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T27" s="86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U27" s="88" t="s">
         <v>197</v>
       </c>
       <c r="V27" s="88" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="W27" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X27" s="83"/>
       <c r="Y27" s="83"/>
@@ -13631,16 +13650,16 @@
         <v>122</v>
       </c>
       <c r="AL27" s="107" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AM27" s="114" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AN27" s="114" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AO27" s="115" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AP27" s="35"/>
       <c r="AQ27" s="38" t="s">
@@ -13650,10 +13669,10 @@
         <v>199</v>
       </c>
       <c r="AS27" s="120" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AT27" s="118" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AU27" s="36" t="s">
         <v>146</v>
@@ -13670,7 +13689,7 @@
       <c r="BA27" s="36"/>
       <c r="BB27" s="36"/>
       <c r="BC27" s="31" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="BD27" s="36"/>
       <c r="BE27" s="36"/>
@@ -13700,10 +13719,10 @@
         <v>209</v>
       </c>
       <c r="D28" s="104" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E28" s="103" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F28" s="35" t="s">
         <v>97</v>
@@ -13718,10 +13737,10 @@
         <v>99</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K28" s="35" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L28" s="79">
         <f t="shared" si="1"/>
@@ -13731,34 +13750,34 @@
         <v>10080</v>
       </c>
       <c r="N28" s="79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O28" s="76" t="s">
         <v>150</v>
       </c>
       <c r="P28" s="76" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="Q28" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R28" s="90" t="s">
         <v>150</v>
       </c>
       <c r="S28" s="90" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T28" s="86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U28" s="88" t="s">
         <v>150</v>
       </c>
       <c r="V28" s="88" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="W28" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X28" s="83"/>
       <c r="Y28" s="83"/>
@@ -13767,10 +13786,10 @@
         <v>127</v>
       </c>
       <c r="AB28" s="92" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AC28" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AD28" s="95"/>
       <c r="AE28" s="95"/>
@@ -13785,16 +13804,16 @@
         <v>122</v>
       </c>
       <c r="AL28" s="107" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AM28" s="114" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AN28" s="114" t="s">
         <v>198</v>
       </c>
       <c r="AO28" s="115" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AP28" s="35"/>
       <c r="AQ28" s="38" t="s">
@@ -13804,10 +13823,10 @@
         <v>97</v>
       </c>
       <c r="AS28" s="120" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AT28" s="118" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AU28" s="36"/>
       <c r="AV28" s="35" t="s">
@@ -13822,7 +13841,7 @@
       <c r="BA28" s="36"/>
       <c r="BB28" s="36"/>
       <c r="BC28" s="31" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="BD28" s="36"/>
       <c r="BE28" s="36"/>
@@ -13852,10 +13871,10 @@
         <v>212</v>
       </c>
       <c r="D29" s="104" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F29" s="35" t="s">
         <v>97</v>
@@ -13870,10 +13889,10 @@
         <v>99</v>
       </c>
       <c r="J29" s="35" t="s">
+        <v>752</v>
+      </c>
+      <c r="K29" s="35" t="s">
         <v>753</v>
-      </c>
-      <c r="K29" s="35" t="s">
-        <v>754</v>
       </c>
       <c r="L29" s="79">
         <f t="shared" si="1"/>
@@ -13883,34 +13902,34 @@
         <v>10080</v>
       </c>
       <c r="N29" s="79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O29" s="76" t="s">
         <v>213</v>
       </c>
       <c r="P29" s="76" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="Q29" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R29" s="90" t="s">
         <v>213</v>
       </c>
       <c r="S29" s="90" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T29" s="86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U29" s="88" t="s">
         <v>213</v>
       </c>
       <c r="V29" s="88" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="W29" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X29" s="83"/>
       <c r="Y29" s="83"/>
@@ -13919,10 +13938,10 @@
         <v>163</v>
       </c>
       <c r="AB29" s="92" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AC29" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AD29" s="95"/>
       <c r="AE29" s="95"/>
@@ -13931,22 +13950,22 @@
       <c r="AH29" s="98"/>
       <c r="AI29" s="99"/>
       <c r="AJ29" s="36" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AK29" s="36" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AL29" s="107" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AM29" s="114" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AN29" s="114" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AO29" s="115" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AP29" s="35"/>
       <c r="AQ29" s="38" t="s">
@@ -13956,10 +13975,10 @@
         <v>97</v>
       </c>
       <c r="AS29" s="120" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AT29" s="118" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AU29" s="36"/>
       <c r="AV29" s="35" t="s">
@@ -13974,7 +13993,7 @@
       <c r="BA29" s="36"/>
       <c r="BB29" s="36"/>
       <c r="BC29" s="31" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="BD29" s="36"/>
       <c r="BE29" s="36"/>
@@ -14007,7 +14026,7 @@
         <v>185</v>
       </c>
       <c r="E30" s="103" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F30" s="35" t="s">
         <v>97</v>
@@ -14031,34 +14050,34 @@
         <v>10080</v>
       </c>
       <c r="N30" s="79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O30" s="76" t="s">
         <v>133</v>
       </c>
       <c r="P30" s="76" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="Q30" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R30" s="90" t="s">
         <v>133</v>
       </c>
       <c r="S30" s="90" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T30" s="86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U30" s="88" t="s">
         <v>133</v>
       </c>
       <c r="V30" s="88" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="W30" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X30" s="83"/>
       <c r="Y30" s="83"/>
@@ -14076,32 +14095,32 @@
         <v>129</v>
       </c>
       <c r="AK30" s="36" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AL30" s="107" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AM30" s="114" t="s">
         <v>129</v>
       </c>
       <c r="AN30" s="114" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AO30" s="115" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AP30" s="35"/>
       <c r="AQ30" s="38" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AR30" s="120" t="s">
         <v>101</v>
       </c>
       <c r="AS30" s="120" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AT30" s="118" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AU30" s="36"/>
       <c r="AV30" s="35" t="s">
@@ -14116,7 +14135,7 @@
       <c r="BA30" s="36"/>
       <c r="BB30" s="36"/>
       <c r="BC30" s="31" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="BD30" s="36"/>
       <c r="BE30" s="36"/>
@@ -14149,7 +14168,7 @@
         <v>185</v>
       </c>
       <c r="E31" s="103" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F31" s="35" t="s">
         <v>97</v>
@@ -14164,10 +14183,10 @@
         <v>99</v>
       </c>
       <c r="J31" s="35" t="s">
+        <v>752</v>
+      </c>
+      <c r="K31" s="35" t="s">
         <v>753</v>
-      </c>
-      <c r="K31" s="35" t="s">
-        <v>754</v>
       </c>
       <c r="L31" s="79">
         <f t="shared" si="1"/>
@@ -14177,34 +14196,34 @@
         <v>10080</v>
       </c>
       <c r="N31" s="79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O31" s="76" t="s">
         <v>135</v>
       </c>
       <c r="P31" s="76" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="Q31" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R31" s="90" t="s">
         <v>135</v>
       </c>
       <c r="S31" s="90" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T31" s="86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U31" s="88" t="s">
         <v>135</v>
       </c>
       <c r="V31" s="88" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="W31" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X31" s="83"/>
       <c r="Y31" s="83"/>
@@ -14213,10 +14232,10 @@
         <v>163</v>
       </c>
       <c r="AB31" s="92" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AC31" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AD31" s="95"/>
       <c r="AE31" s="95"/>
@@ -14225,22 +14244,22 @@
       <c r="AH31" s="98"/>
       <c r="AI31" s="99"/>
       <c r="AJ31" s="36" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AK31" s="36" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AL31" s="107" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AM31" s="114" t="s">
         <v>122</v>
       </c>
       <c r="AN31" s="114" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AO31" s="115" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AP31" s="35"/>
       <c r="AQ31" s="38" t="s">
@@ -14253,7 +14272,7 @@
         <v>101</v>
       </c>
       <c r="AT31" s="118" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AU31" s="36"/>
       <c r="AV31" s="35" t="s">
@@ -14268,7 +14287,7 @@
       <c r="BA31" s="36"/>
       <c r="BB31" s="36"/>
       <c r="BC31" s="31" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="BD31" s="36"/>
       <c r="BE31" s="36"/>
@@ -14298,13 +14317,13 @@
         <v>232</v>
       </c>
       <c r="D32" s="104" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E32" s="103" t="s">
         <v>97</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>124</v>
@@ -14325,7 +14344,7 @@
         <v>100000</v>
       </c>
       <c r="Q32" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R32" s="90"/>
       <c r="S32" s="90"/>
@@ -14337,7 +14356,7 @@
         <v>100000</v>
       </c>
       <c r="W32" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X32" s="82"/>
       <c r="Y32" s="82"/>
@@ -14371,7 +14390,7 @@
       <c r="BA32" s="36"/>
       <c r="BB32" s="36"/>
       <c r="BC32" s="36" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="BD32" s="36"/>
       <c r="BE32" s="36"/>
@@ -14397,13 +14416,13 @@
         <v>235</v>
       </c>
       <c r="D33" s="104" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E33" s="103" t="s">
         <v>97</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>124</v>
@@ -14424,7 +14443,7 @@
         <v>100000</v>
       </c>
       <c r="Q33" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R33" s="90"/>
       <c r="S33" s="90"/>
@@ -14436,7 +14455,7 @@
         <v>100000</v>
       </c>
       <c r="W33" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X33" s="82"/>
       <c r="Y33" s="82"/>
@@ -14470,7 +14489,7 @@
       <c r="BA33" s="36"/>
       <c r="BB33" s="36"/>
       <c r="BC33" s="36" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="BD33" s="36"/>
       <c r="BE33" s="36"/>
@@ -14496,13 +14515,13 @@
         <v>238</v>
       </c>
       <c r="D34" s="104" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E34" s="103" t="s">
         <v>97</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>124</v>
@@ -14523,7 +14542,7 @@
         <v>100000</v>
       </c>
       <c r="Q34" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R34" s="90"/>
       <c r="S34" s="90"/>
@@ -14535,7 +14554,7 @@
         <v>100000</v>
       </c>
       <c r="W34" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X34" s="82"/>
       <c r="Y34" s="82"/>
@@ -14569,7 +14588,7 @@
       <c r="BA34" s="36"/>
       <c r="BB34" s="36"/>
       <c r="BC34" s="36" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="BD34" s="36"/>
       <c r="BE34" s="36"/>
@@ -14595,13 +14614,13 @@
         <v>241</v>
       </c>
       <c r="D35" s="104" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E35" s="103" t="s">
         <v>97</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>124</v>
@@ -14622,7 +14641,7 @@
         <v>100000</v>
       </c>
       <c r="Q35" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R35" s="90"/>
       <c r="S35" s="90"/>
@@ -14634,7 +14653,7 @@
         <v>100000</v>
       </c>
       <c r="W35" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X35" s="82"/>
       <c r="Y35" s="82"/>
@@ -14668,7 +14687,7 @@
       <c r="BA35" s="36"/>
       <c r="BB35" s="36"/>
       <c r="BC35" s="36" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="BD35" s="36"/>
       <c r="BE35" s="36"/>
@@ -14694,13 +14713,13 @@
         <v>244</v>
       </c>
       <c r="D36" s="104" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E36" s="103" t="s">
         <v>97</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>124</v>
@@ -14721,7 +14740,7 @@
         <v>100000</v>
       </c>
       <c r="Q36" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R36" s="90"/>
       <c r="S36" s="90"/>
@@ -14733,7 +14752,7 @@
         <v>100000</v>
       </c>
       <c r="W36" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X36" s="82"/>
       <c r="Y36" s="82"/>
@@ -14767,7 +14786,7 @@
       <c r="BA36" s="36"/>
       <c r="BB36" s="36"/>
       <c r="BC36" s="36" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="BD36" s="36"/>
       <c r="BE36" s="36"/>
@@ -14793,7 +14812,7 @@
         <v>247</v>
       </c>
       <c r="D37" s="104" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E37" s="103" t="s">
         <v>97</v>
@@ -14809,10 +14828,10 @@
       </c>
       <c r="I37" s="35"/>
       <c r="J37" s="35" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K37" s="35" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="L37" s="79"/>
       <c r="M37" s="79"/>
@@ -14824,7 +14843,7 @@
         <v>200000</v>
       </c>
       <c r="Q37" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R37" s="90">
         <v>200000</v>
@@ -14833,7 +14852,7 @@
         <v>200000</v>
       </c>
       <c r="T37" s="86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U37" s="88">
         <v>200000</v>
@@ -14842,7 +14861,7 @@
         <v>200000</v>
       </c>
       <c r="W37" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X37" s="82"/>
       <c r="Y37" s="82"/>
@@ -14876,7 +14895,7 @@
       <c r="BA37" s="36"/>
       <c r="BB37" s="36"/>
       <c r="BC37" s="36" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="BD37" s="36"/>
       <c r="BE37" s="36"/>
@@ -14902,7 +14921,7 @@
         <v>157</v>
       </c>
       <c r="D38" s="104" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E38" s="103" t="s">
         <v>97</v>
@@ -14920,10 +14939,10 @@
         <v>99</v>
       </c>
       <c r="J38" s="35" t="s">
+        <v>752</v>
+      </c>
+      <c r="K38" s="35" t="s">
         <v>753</v>
-      </c>
-      <c r="K38" s="35" t="s">
-        <v>754</v>
       </c>
       <c r="L38" s="79"/>
       <c r="M38" s="79"/>
@@ -14969,7 +14988,7 @@
       <c r="BA38" s="36"/>
       <c r="BB38" s="36"/>
       <c r="BC38" s="36" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="BD38" s="36"/>
       <c r="BE38" s="36"/>
@@ -14993,7 +15012,7 @@
         <v>225</v>
       </c>
       <c r="D39" s="104" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E39" s="103" t="s">
         <v>97</v>
@@ -15011,10 +15030,10 @@
         <v>99</v>
       </c>
       <c r="J39" s="35" t="s">
+        <v>752</v>
+      </c>
+      <c r="K39" s="35" t="s">
         <v>753</v>
-      </c>
-      <c r="K39" s="35" t="s">
-        <v>754</v>
       </c>
       <c r="L39" s="79"/>
       <c r="M39" s="79"/>
@@ -15060,7 +15079,7 @@
       <c r="BA39" s="36"/>
       <c r="BB39" s="36"/>
       <c r="BC39" s="36" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="BD39" s="36"/>
       <c r="BE39" s="36"/>
@@ -15086,7 +15105,7 @@
         <v>229</v>
       </c>
       <c r="D40" s="104" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E40" s="103" t="s">
         <v>97</v>
@@ -15104,10 +15123,10 @@
         <v>99</v>
       </c>
       <c r="J40" s="35" t="s">
+        <v>752</v>
+      </c>
+      <c r="K40" s="35" t="s">
         <v>753</v>
-      </c>
-      <c r="K40" s="35" t="s">
-        <v>754</v>
       </c>
       <c r="L40" s="79"/>
       <c r="M40" s="79"/>
@@ -15153,7 +15172,7 @@
       <c r="BA40" s="36"/>
       <c r="BB40" s="36"/>
       <c r="BC40" s="36" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="BD40" s="36"/>
       <c r="BE40" s="36"/>
@@ -15179,7 +15198,7 @@
         <v>250</v>
       </c>
       <c r="D41" s="104" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E41" s="103" t="s">
         <v>97</v>
@@ -15197,10 +15216,10 @@
         <v>99</v>
       </c>
       <c r="J41" s="35" t="s">
+        <v>752</v>
+      </c>
+      <c r="K41" s="35" t="s">
         <v>753</v>
-      </c>
-      <c r="K41" s="35" t="s">
-        <v>754</v>
       </c>
       <c r="L41" s="79"/>
       <c r="M41" s="79"/>
@@ -15246,7 +15265,7 @@
       <c r="BA41" s="36"/>
       <c r="BB41" s="36"/>
       <c r="BC41" s="36" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="BD41" s="36"/>
       <c r="BE41" s="36"/>
@@ -15272,7 +15291,7 @@
         <v>253</v>
       </c>
       <c r="D42" s="104" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E42" s="103" t="s">
         <v>97</v>
@@ -15290,10 +15309,10 @@
         <v>99</v>
       </c>
       <c r="J42" s="35" t="s">
+        <v>752</v>
+      </c>
+      <c r="K42" s="35" t="s">
         <v>753</v>
-      </c>
-      <c r="K42" s="35" t="s">
-        <v>754</v>
       </c>
       <c r="L42" s="79"/>
       <c r="M42" s="79"/>
@@ -15339,7 +15358,7 @@
       <c r="BA42" s="36"/>
       <c r="BB42" s="36"/>
       <c r="BC42" s="36" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="BD42" s="36"/>
       <c r="BE42" s="36"/>
@@ -15355,23 +15374,23 @@
     </row>
     <row r="43" spans="1:64">
       <c r="A43" s="60" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B43" s="62">
         <f>ROW()-6</f>
         <v>37</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D43" s="104" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E43" s="103" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>99</v>
@@ -15381,10 +15400,10 @@
       </c>
       <c r="I43" s="35"/>
       <c r="J43" s="35" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K43" s="35" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L43" s="79">
         <v>0</v>
@@ -15393,43 +15412,43 @@
         <v>5760</v>
       </c>
       <c r="N43" s="79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O43" s="76" t="s">
         <v>122</v>
       </c>
       <c r="P43" s="76" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="Q43" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R43" s="91" t="s">
         <v>122</v>
       </c>
       <c r="S43" s="91" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="T43" s="86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U43" s="89" t="s">
         <v>122</v>
       </c>
       <c r="V43" s="89" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="W43" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X43" s="81" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Y43" s="81" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="Z43" s="84" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AA43" s="92"/>
       <c r="AB43" s="92"/>
@@ -15462,7 +15481,7 @@
       <c r="BA43" s="35"/>
       <c r="BB43" s="35"/>
       <c r="BC43" s="31" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="BD43" s="36"/>
       <c r="BE43" s="35"/>
@@ -15473,28 +15492,28 @@
       <c r="BJ43" s="35"/>
       <c r="BK43" s="35"/>
       <c r="BL43" s="31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="44" spans="1:64">
       <c r="A44" s="61" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B44" s="62">
         <f>ROW()-6</f>
         <v>38</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D44" s="104" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E44" s="103" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>99</v>
@@ -15504,10 +15523,10 @@
       </c>
       <c r="I44" s="35"/>
       <c r="J44" s="35" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K44" s="35" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="L44" s="79">
         <v>0</v>
@@ -15516,43 +15535,43 @@
         <v>5760</v>
       </c>
       <c r="N44" s="79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O44" s="76" t="s">
         <v>122</v>
       </c>
       <c r="P44" s="76" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="Q44" s="87" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R44" s="91" t="s">
         <v>122</v>
       </c>
       <c r="S44" s="91" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="T44" s="86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U44" s="89" t="s">
         <v>122</v>
       </c>
       <c r="V44" s="89" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="W44" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X44" s="81" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Y44" s="81" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="Z44" s="84" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AA44" s="92"/>
       <c r="AB44" s="92"/>
@@ -15585,7 +15604,7 @@
       <c r="BA44" s="35"/>
       <c r="BB44" s="35"/>
       <c r="BC44" s="31" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="BD44" s="36"/>
       <c r="BE44" s="35"/>
@@ -15596,22 +15615,22 @@
       <c r="BJ44" s="35"/>
       <c r="BK44" s="35"/>
       <c r="BL44" s="31" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="45" spans="1:64">
       <c r="A45" s="61" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B45" s="62">
         <f>ROW()-6</f>
         <v>39</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D45" s="104" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E45" s="103" t="s">
         <v>33</v>
@@ -15627,10 +15646,10 @@
       </c>
       <c r="I45" s="35"/>
       <c r="J45" s="35" t="s">
+        <v>752</v>
+      </c>
+      <c r="K45" s="35" t="s">
         <v>753</v>
-      </c>
-      <c r="K45" s="35" t="s">
-        <v>754</v>
       </c>
       <c r="L45" s="79"/>
       <c r="M45" s="79"/>
@@ -15645,13 +15664,13 @@
       <c r="V45" s="89"/>
       <c r="W45" s="85"/>
       <c r="X45" s="81" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Y45" s="81" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Z45" s="84" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AA45" s="92"/>
       <c r="AB45" s="92"/>
@@ -15684,7 +15703,7 @@
       <c r="BA45" s="35"/>
       <c r="BB45" s="35"/>
       <c r="BC45" s="31" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="BD45" s="36"/>
       <c r="BE45" s="35"/>
@@ -15695,7 +15714,7 @@
       <c r="BJ45" s="35"/>
       <c r="BK45" s="35"/>
       <c r="BL45" s="31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -15724,7 +15743,7 @@
       <formula>AND(COUNTIF($AQ$27:$AQ$27,AS27)&gt;1,NOT(ISBLANK(AS27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N5 W7:W45 AT7:AT45 T7:T45 N7:N1048576 Z7:Z45 AF7:AF45 AC7:AC45 AI7:AI45 AO7:AO45 AL7:AL45 Q7:Q45">
       <formula1>"匀速,慢-&gt;快,快-&gt;慢,慢-&gt;快-&gt;慢,快-&gt;慢-&gt;快,极慢-&gt;极快,极快-&gt;极慢,极慢-&gt;极快-&gt;极慢,极快-&gt;极慢-&gt;极快,"</formula1>
     </dataValidation>
@@ -15781,7 +15800,7 @@
       <c r="B1" s="156"/>
       <c r="C1" s="156"/>
       <c r="D1" s="27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -15825,7 +15844,7 @@
       <c r="B2" s="156"/>
       <c r="C2" s="156"/>
       <c r="D2" s="55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -15910,31 +15929,31 @@
         <v>2</v>
       </c>
       <c r="C4" s="52" t="s">
+        <v>341</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>365</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="F4" s="52" t="s">
         <v>342</v>
       </c>
-      <c r="D4" s="52" t="s">
-        <v>366</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>361</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>343</v>
-      </c>
       <c r="G4" s="52" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H4" s="53" t="s">
         <v>120</v>
       </c>
       <c r="I4" s="65" t="s">
+        <v>682</v>
+      </c>
+      <c r="J4" s="65" t="s">
         <v>683</v>
       </c>
-      <c r="J4" s="65" t="s">
-        <v>684</v>
-      </c>
       <c r="K4" s="65" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L4" s="65" t="s">
         <v>141</v>
@@ -15958,7 +15977,7 @@
         <v>169</v>
       </c>
       <c r="S4" s="66" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="T4" s="66" t="s">
         <v>179</v>
@@ -16015,13 +16034,13 @@
         <v>246</v>
       </c>
       <c r="AL4" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="AM4" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="AM4" s="66" t="s">
+      <c r="AN4" s="66" t="s">
         <v>347</v>
-      </c>
-      <c r="AN4" s="66" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:40" s="19" customFormat="1" ht="35" customHeight="1">
@@ -16033,115 +16052,115 @@
         <v>67</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F5" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>723</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>681</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>684</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="K5" s="52" t="s">
+        <v>686</v>
+      </c>
+      <c r="L5" s="52" t="s">
+        <v>687</v>
+      </c>
+      <c r="M5" s="52" t="s">
+        <v>688</v>
+      </c>
+      <c r="N5" s="52" t="s">
+        <v>689</v>
+      </c>
+      <c r="O5" s="52" t="s">
+        <v>690</v>
+      </c>
+      <c r="P5" s="52" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q5" s="52" t="s">
+        <v>692</v>
+      </c>
+      <c r="R5" s="52" t="s">
+        <v>694</v>
+      </c>
+      <c r="S5" s="52" t="s">
+        <v>695</v>
+      </c>
+      <c r="T5" s="52" t="s">
+        <v>696</v>
+      </c>
+      <c r="U5" s="52" t="s">
+        <v>697</v>
+      </c>
+      <c r="V5" s="52" t="s">
+        <v>698</v>
+      </c>
+      <c r="W5" s="52" t="s">
+        <v>699</v>
+      </c>
+      <c r="X5" s="52" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y5" s="52" t="s">
+        <v>701</v>
+      </c>
+      <c r="Z5" s="52" t="s">
+        <v>702</v>
+      </c>
+      <c r="AA5" s="52" t="s">
+        <v>703</v>
+      </c>
+      <c r="AB5" s="52" t="s">
+        <v>704</v>
+      </c>
+      <c r="AC5" s="52" t="s">
+        <v>705</v>
+      </c>
+      <c r="AD5" s="52" t="s">
+        <v>706</v>
+      </c>
+      <c r="AE5" s="52" t="s">
+        <v>707</v>
+      </c>
+      <c r="AF5" s="52" t="s">
+        <v>708</v>
+      </c>
+      <c r="AG5" s="52" t="s">
+        <v>709</v>
+      </c>
+      <c r="AH5" s="52" t="s">
+        <v>710</v>
+      </c>
+      <c r="AI5" s="52" t="s">
+        <v>711</v>
+      </c>
+      <c r="AJ5" s="52" t="s">
+        <v>712</v>
+      </c>
+      <c r="AK5" s="52" t="s">
+        <v>713</v>
+      </c>
+      <c r="AL5" s="66" t="s">
         <v>349</v>
       </c>
-      <c r="G5" s="52" t="s">
-        <v>724</v>
-      </c>
-      <c r="H5" s="52" t="s">
-        <v>682</v>
-      </c>
-      <c r="I5" s="52" t="s">
-        <v>685</v>
-      </c>
-      <c r="J5" s="52" t="s">
-        <v>686</v>
-      </c>
-      <c r="K5" s="52" t="s">
-        <v>687</v>
-      </c>
-      <c r="L5" s="52" t="s">
-        <v>688</v>
-      </c>
-      <c r="M5" s="52" t="s">
-        <v>689</v>
-      </c>
-      <c r="N5" s="52" t="s">
-        <v>690</v>
-      </c>
-      <c r="O5" s="52" t="s">
-        <v>691</v>
-      </c>
-      <c r="P5" s="52" t="s">
-        <v>692</v>
-      </c>
-      <c r="Q5" s="52" t="s">
-        <v>693</v>
-      </c>
-      <c r="R5" s="52" t="s">
-        <v>695</v>
-      </c>
-      <c r="S5" s="52" t="s">
-        <v>696</v>
-      </c>
-      <c r="T5" s="52" t="s">
-        <v>697</v>
-      </c>
-      <c r="U5" s="52" t="s">
-        <v>698</v>
-      </c>
-      <c r="V5" s="52" t="s">
-        <v>699</v>
-      </c>
-      <c r="W5" s="52" t="s">
-        <v>700</v>
-      </c>
-      <c r="X5" s="52" t="s">
-        <v>701</v>
-      </c>
-      <c r="Y5" s="52" t="s">
-        <v>702</v>
-      </c>
-      <c r="Z5" s="52" t="s">
-        <v>703</v>
-      </c>
-      <c r="AA5" s="52" t="s">
-        <v>704</v>
-      </c>
-      <c r="AB5" s="52" t="s">
-        <v>705</v>
-      </c>
-      <c r="AC5" s="52" t="s">
-        <v>706</v>
-      </c>
-      <c r="AD5" s="52" t="s">
-        <v>707</v>
-      </c>
-      <c r="AE5" s="52" t="s">
-        <v>708</v>
-      </c>
-      <c r="AF5" s="52" t="s">
-        <v>709</v>
-      </c>
-      <c r="AG5" s="52" t="s">
-        <v>710</v>
-      </c>
-      <c r="AH5" s="52" t="s">
-        <v>711</v>
-      </c>
-      <c r="AI5" s="52" t="s">
-        <v>712</v>
-      </c>
-      <c r="AJ5" s="52" t="s">
-        <v>713</v>
-      </c>
-      <c r="AK5" s="52" t="s">
-        <v>714</v>
-      </c>
-      <c r="AL5" s="66" t="s">
+      <c r="AM5" s="66" t="s">
         <v>350</v>
       </c>
-      <c r="AM5" s="66" t="s">
+      <c r="AN5" s="66" t="s">
         <v>351</v>
-      </c>
-      <c r="AN5" s="66" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:40" s="4" customFormat="1" ht="24" customHeight="1">
@@ -16153,7 +16172,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E6" s="54" t="s">
         <v>5</v>
@@ -16162,7 +16181,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H6" s="54" t="s">
         <v>5</v>
@@ -16180,10 +16199,10 @@
         <v>5</v>
       </c>
       <c r="M6" s="68" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N6" s="68" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O6" s="67" t="s">
         <v>5</v>
@@ -16234,7 +16253,7 @@
         <v>5</v>
       </c>
       <c r="AE6" s="68" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF6" s="68" t="s">
         <v>5</v>
@@ -16272,16 +16291,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H7" s="39">
         <v>1</v>
@@ -16370,7 +16389,7 @@
         <v>1</v>
       </c>
       <c r="AL7" s="69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AM7" s="69"/>
       <c r="AN7" s="69"/>
@@ -16383,16 +16402,16 @@
         <v>2</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H8" s="39">
         <v>1</v>
@@ -16437,16 +16456,16 @@
         <v>0</v>
       </c>
       <c r="V8" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="W8" s="69" t="s">
         <v>33</v>
       </c>
       <c r="X8" s="69" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Y8" s="69" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="Z8" s="69" t="s">
         <v>155</v>
@@ -16494,16 +16513,16 @@
         <v>3</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H9" s="39">
         <v>1</v>
@@ -16512,19 +16531,19 @@
         <v>33</v>
       </c>
       <c r="J9" s="69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K9" s="69" t="s">
         <v>33</v>
       </c>
       <c r="L9" s="69" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M9" s="69" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N9" s="69" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O9" s="69" t="s">
         <v>33</v>
@@ -16551,19 +16570,19 @@
         <v>187</v>
       </c>
       <c r="W9" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="X9" s="69" t="s">
         <v>33</v>
       </c>
       <c r="Y9" s="69" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="Z9" s="69" t="s">
         <v>155</v>
       </c>
       <c r="AA9" s="69" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AB9" s="69" t="s">
         <v>155</v>
@@ -16607,16 +16626,16 @@
         <v>4</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H10" s="39">
         <v>1</v>
@@ -16625,19 +16644,19 @@
         <v>33</v>
       </c>
       <c r="J10" s="69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K10" s="69" t="s">
         <v>33</v>
       </c>
       <c r="L10" s="69" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M10" s="69" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N10" s="69" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O10" s="69" t="s">
         <v>33</v>
@@ -16649,10 +16668,10 @@
         <v>1</v>
       </c>
       <c r="R10" s="69" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="S10" s="69" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="T10" s="69">
         <v>0</v>
@@ -16667,19 +16686,19 @@
         <v>187</v>
       </c>
       <c r="X10" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Y10" s="69" t="s">
         <v>33</v>
       </c>
       <c r="Z10" s="69" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AA10" s="69" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AB10" s="69" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AC10" s="69"/>
       <c r="AD10" s="69"/>
@@ -16720,16 +16739,16 @@
         <v>5</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H11" s="39" t="s">
         <v>33</v>
@@ -16774,28 +16793,28 @@
         <v>0</v>
       </c>
       <c r="V11" s="69" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="W11" s="69" t="s">
         <v>185</v>
       </c>
       <c r="X11" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Y11" s="69" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Z11" s="69" t="s">
         <v>33</v>
       </c>
       <c r="AA11" s="69" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AB11" s="69" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AC11" s="69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AD11" s="69"/>
       <c r="AE11" s="69" t="s">
@@ -16837,46 +16856,46 @@
         <v>6</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I12" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J12" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K12" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L12" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M12" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N12" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O12" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P12" s="69" t="s">
         <v>33</v>
       </c>
       <c r="Q12" s="69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="R12" s="69">
         <v>1</v>
@@ -16885,34 +16904,34 @@
         <v>97</v>
       </c>
       <c r="T12" s="69" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="U12" s="69">
         <v>0</v>
       </c>
       <c r="V12" s="69" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="W12" s="69" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="X12" s="69" t="s">
         <v>187</v>
       </c>
       <c r="Y12" s="69" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Z12" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AA12" s="69" t="s">
         <v>33</v>
       </c>
       <c r="AB12" s="69" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AC12" s="69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AD12" s="69" t="s">
         <v>97</v>
@@ -16921,22 +16940,22 @@
         <v>97</v>
       </c>
       <c r="AF12" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG12" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AH12" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AI12" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AJ12" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AK12" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AL12" s="69">
         <v>1</v>
@@ -16956,43 +16975,43 @@
         <v>7</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I13" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J13" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K13" s="69" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L13" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M13" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N13" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O13" s="69" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P13" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q13" s="69" t="s">
         <v>33</v>
@@ -17007,13 +17026,13 @@
         <v>97</v>
       </c>
       <c r="U13" s="69" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="V13" s="69" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="W13" s="69" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="X13" s="69" t="s">
         <v>187</v>
@@ -17022,16 +17041,16 @@
         <v>187</v>
       </c>
       <c r="Z13" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AA13" s="69" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AB13" s="69" t="s">
         <v>33</v>
       </c>
       <c r="AC13" s="69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AD13" s="69" t="s">
         <v>97</v>
@@ -17040,22 +17059,22 @@
         <v>97</v>
       </c>
       <c r="AF13" s="69" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG13" s="69" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AH13" s="69" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AI13" s="69" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AJ13" s="69" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AK13" s="69" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AL13" s="69">
         <v>2</v>
@@ -17075,46 +17094,46 @@
         <v>8</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I14" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J14" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K14" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L14" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M14" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N14" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O14" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P14" s="69" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q14" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="R14" s="69" t="s">
         <v>33</v>
@@ -17126,13 +17145,13 @@
         <v>33</v>
       </c>
       <c r="U14" s="69" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="V14" s="69" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="W14" s="69" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="X14" s="69" t="s">
         <v>185</v>
@@ -17144,13 +17163,13 @@
         <v>187</v>
       </c>
       <c r="AA14" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AB14" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AC14" s="69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AD14" s="69" t="s">
         <v>97</v>
@@ -17159,22 +17178,22 @@
         <v>97</v>
       </c>
       <c r="AF14" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG14" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AH14" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AI14" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AJ14" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AK14" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AL14" s="69">
         <v>2</v>
@@ -17194,64 +17213,64 @@
         <v>9</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I15" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J15" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K15" s="69" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L15" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M15" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N15" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O15" s="69" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P15" s="69" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q15" s="69" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="R15" s="69" t="s">
         <v>33</v>
       </c>
       <c r="S15" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="T15" s="69" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="U15" s="69" t="s">
         <v>33</v>
       </c>
       <c r="V15" s="69" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="W15" s="69" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="X15" s="69" t="s">
         <v>185</v>
@@ -17266,10 +17285,10 @@
         <v>187</v>
       </c>
       <c r="AB15" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AC15" s="69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AD15" s="69" t="s">
         <v>97</v>
@@ -17278,22 +17297,22 @@
         <v>97</v>
       </c>
       <c r="AF15" s="69" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG15" s="69" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH15" s="69" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AI15" s="69" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AJ15" s="69" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AK15" s="69" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AL15" s="69">
         <v>2</v>
@@ -17307,58 +17326,58 @@
     </row>
     <row r="16" spans="1:40">
       <c r="B16" s="39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C16" s="39">
         <v>10</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I16" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J16" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K16" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L16" s="69" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M16" s="69" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N16" s="69" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O16" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P16" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q16" s="69" t="s">
+        <v>455</v>
+      </c>
+      <c r="R16" s="69" t="s">
+        <v>437</v>
+      </c>
+      <c r="S16" s="69" t="s">
         <v>456</v>
-      </c>
-      <c r="R16" s="69" t="s">
-        <v>438</v>
-      </c>
-      <c r="S16" s="69" t="s">
-        <v>457</v>
       </c>
       <c r="T16" s="69" t="s">
         <v>33</v>
@@ -17370,10 +17389,10 @@
         <v>182</v>
       </c>
       <c r="W16" s="69" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="X16" s="69" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Y16" s="69" t="s">
         <v>185</v>
@@ -17388,7 +17407,7 @@
         <v>187</v>
       </c>
       <c r="AC16" s="69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AD16" s="69" t="s">
         <v>97</v>
@@ -17397,22 +17416,22 @@
         <v>97</v>
       </c>
       <c r="AF16" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG16" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AH16" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AI16" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AJ16" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AK16" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AL16" s="69">
         <v>2</v>
@@ -17432,16 +17451,16 @@
         <v>11</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>187</v>
@@ -17468,22 +17487,22 @@
         <v>187</v>
       </c>
       <c r="P17" s="69" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Q17" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="R17" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="S17" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="T17" s="69" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="U17" s="69" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="V17" s="69" t="s">
         <v>182</v>
@@ -17492,22 +17511,22 @@
         <v>182</v>
       </c>
       <c r="X17" s="69" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Y17" s="69" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Z17" s="69" t="s">
         <v>185</v>
       </c>
       <c r="AA17" s="69" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AB17" s="69" t="s">
         <v>187</v>
       </c>
       <c r="AC17" s="69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AD17" s="69" t="s">
         <v>97</v>
@@ -17534,13 +17553,13 @@
         <v>187</v>
       </c>
       <c r="AL17" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AM17" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AN17" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="2:40">
@@ -17551,16 +17570,16 @@
         <v>12</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>187</v>
@@ -17572,34 +17591,34 @@
         <v>187</v>
       </c>
       <c r="K18" s="69" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L18" s="69" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M18" s="69" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N18" s="69" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="O18" s="69" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P18" s="69" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q18" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="R18" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="S18" s="69" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="T18" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="U18" s="69" t="s">
         <v>33</v>
@@ -17611,22 +17630,22 @@
         <v>182</v>
       </c>
       <c r="X18" s="69" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Y18" s="69" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Z18" s="69" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AA18" s="69" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AB18" s="69" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AC18" s="69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AD18" s="69" t="s">
         <v>97</v>
@@ -17635,22 +17654,22 @@
         <v>97</v>
       </c>
       <c r="AF18" s="69" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG18" s="69" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AH18" s="69" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AI18" s="69" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AJ18" s="69" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AK18" s="69" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AL18" s="69">
         <v>2</v>
@@ -17670,16 +17689,16 @@
         <v>13</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H19" s="39" t="s">
         <v>187</v>
@@ -17691,61 +17710,61 @@
         <v>187</v>
       </c>
       <c r="K19" s="69" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L19" s="69" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M19" s="69" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N19" s="69" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O19" s="69" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P19" s="69" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Q19" s="69" t="s">
         <v>187</v>
       </c>
       <c r="R19" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="S19" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="T19" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="U19" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="V19" s="69" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="W19" s="69" t="s">
         <v>182</v>
       </c>
       <c r="X19" s="69" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Y19" s="69" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Z19" s="69" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AA19" s="69" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AB19" s="69" t="s">
         <v>185</v>
       </c>
       <c r="AC19" s="69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AD19" s="69" t="s">
         <v>97</v>
@@ -17754,22 +17773,22 @@
         <v>97</v>
       </c>
       <c r="AF19" s="69" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AG19" s="69" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AH19" s="69" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AI19" s="69" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AJ19" s="69" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AK19" s="69" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AL19" s="69">
         <v>2</v>
@@ -17789,16 +17808,16 @@
         <v>14</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H20" s="39" t="s">
         <v>187</v>
@@ -17810,7 +17829,7 @@
         <v>187</v>
       </c>
       <c r="K20" s="69" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L20" s="69" t="s">
         <v>187</v>
@@ -17822,7 +17841,7 @@
         <v>187</v>
       </c>
       <c r="O20" s="69" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P20" s="69" t="s">
         <v>187</v>
@@ -17831,40 +17850,40 @@
         <v>187</v>
       </c>
       <c r="R20" s="69" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="S20" s="69" t="s">
         <v>187</v>
       </c>
       <c r="T20" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="U20" s="69" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="V20" s="69" t="s">
         <v>186</v>
       </c>
       <c r="W20" s="69" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="X20" s="69" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Y20" s="69" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Z20" s="69" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AA20" s="69" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AB20" s="69" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AC20" s="69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AD20" s="69" t="s">
         <v>97</v>
@@ -17873,22 +17892,22 @@
         <v>97</v>
       </c>
       <c r="AF20" s="69" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG20" s="69" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AH20" s="69" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AI20" s="69" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AJ20" s="69" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AK20" s="69" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AL20" s="69">
         <v>3</v>
@@ -17908,16 +17927,16 @@
         <v>15</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H21" s="39" t="s">
         <v>187</v>
@@ -17929,7 +17948,7 @@
         <v>187</v>
       </c>
       <c r="K21" s="69" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L21" s="69" t="s">
         <v>187</v>
@@ -17941,7 +17960,7 @@
         <v>187</v>
       </c>
       <c r="O21" s="69" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P21" s="69" t="s">
         <v>187</v>
@@ -17950,16 +17969,16 @@
         <v>187</v>
       </c>
       <c r="R21" s="69" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="S21" s="69" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="T21" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="U21" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="V21" s="69" t="s">
         <v>186</v>
@@ -17968,22 +17987,22 @@
         <v>186</v>
       </c>
       <c r="X21" s="69" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y21" s="69" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Z21" s="69" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AA21" s="69" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB21" s="69" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AC21" s="69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AD21" s="69" t="s">
         <v>97</v>
@@ -17992,22 +18011,22 @@
         <v>97</v>
       </c>
       <c r="AF21" s="69" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG21" s="69" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AH21" s="69" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AI21" s="69" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AJ21" s="69" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AK21" s="69" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AL21" s="69">
         <v>3</v>
@@ -18027,19 +18046,19 @@
         <v>16</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I22" s="69" t="s">
         <v>98</v>
@@ -18063,7 +18082,7 @@
         <v>98</v>
       </c>
       <c r="P22" s="69" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Q22" s="69" t="s">
         <v>187</v>
@@ -18078,10 +18097,10 @@
         <v>187</v>
       </c>
       <c r="U22" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="V22" s="69" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="W22" s="69" t="s">
         <v>186</v>
@@ -18093,16 +18112,16 @@
         <v>182</v>
       </c>
       <c r="Z22" s="69" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AA22" s="69" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB22" s="69" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AC22" s="69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AD22" s="69" t="s">
         <v>97</v>
@@ -18146,16 +18165,16 @@
         <v>17</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H23" s="39">
         <v>4</v>
@@ -18185,10 +18204,10 @@
         <v>185</v>
       </c>
       <c r="Q23" s="69" t="s">
+        <v>442</v>
+      </c>
+      <c r="R23" s="69" t="s">
         <v>443</v>
-      </c>
-      <c r="R23" s="69" t="s">
-        <v>444</v>
       </c>
       <c r="S23" s="69" t="s">
         <v>187</v>
@@ -18200,10 +18219,10 @@
         <v>187</v>
       </c>
       <c r="V23" s="69" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="W23" s="69" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="X23" s="69" t="s">
         <v>182</v>
@@ -18215,13 +18234,13 @@
         <v>182</v>
       </c>
       <c r="AA23" s="69" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AB23" s="69" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AC23" s="69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AD23" s="69" t="s">
         <v>97</v>
@@ -18259,22 +18278,22 @@
     </row>
     <row r="24" spans="2:40">
       <c r="B24" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C24" s="39">
         <v>18</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H24" s="39">
         <v>4</v>
@@ -18310,7 +18329,7 @@
         <v>187</v>
       </c>
       <c r="S24" s="69" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="T24" s="69" t="s">
         <v>187</v>
@@ -18319,13 +18338,13 @@
         <v>187</v>
       </c>
       <c r="V24" s="69" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="W24" s="69" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="X24" s="69" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Y24" s="69" t="s">
         <v>182</v>
@@ -18340,7 +18359,7 @@
         <v>182</v>
       </c>
       <c r="AC24" s="69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AD24" s="69" t="s">
         <v>97</v>
@@ -18378,22 +18397,22 @@
     </row>
     <row r="25" spans="2:40">
       <c r="B25" s="39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C25" s="39">
         <v>19</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H25" s="39">
         <v>4</v>
@@ -18438,10 +18457,10 @@
         <v>187</v>
       </c>
       <c r="V25" s="69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W25" s="69" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="X25" s="69" t="s">
         <v>186</v>
@@ -18459,7 +18478,7 @@
         <v>182</v>
       </c>
       <c r="AC25" s="69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AD25" s="69" t="s">
         <v>97</v>
@@ -18483,7 +18502,7 @@
         <v>98</v>
       </c>
       <c r="AK25" s="69" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AL25" s="69">
         <v>3</v>
@@ -18503,16 +18522,16 @@
         <v>20</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H26" s="69" t="s">
         <v>98</v>
@@ -18542,22 +18561,22 @@
         <v>185</v>
       </c>
       <c r="Q26" s="69" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R26" s="69" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S26" s="69" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="T26" s="69" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="U26" s="69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="V26" s="69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W26" s="69" t="s">
         <v>186</v>
@@ -18575,7 +18594,7 @@
         <v>186</v>
       </c>
       <c r="AB26" s="69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AC26" s="69" t="s">
         <v>97</v>
@@ -18669,7 +18688,7 @@
       <c r="B1" s="156"/>
       <c r="C1" s="156"/>
       <c r="D1" s="27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -18683,7 +18702,7 @@
       <c r="B2" s="156"/>
       <c r="C2" s="156"/>
       <c r="D2" s="55" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -18708,19 +18727,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E4" s="52" t="s">
+        <v>387</v>
+      </c>
+      <c r="F4" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="G4" s="52" t="s">
         <v>389</v>
-      </c>
-      <c r="G4" s="52" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="19" customFormat="1" ht="35" customHeight="1">
@@ -18729,19 +18748,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D5" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="E5" s="52" t="s">
         <v>384</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="F5" s="52" t="s">
         <v>385</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="G5" s="52" t="s">
         <v>386</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" ht="24" customHeight="1">
@@ -18750,7 +18769,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D6" s="54" t="s">
         <v>6</v>
@@ -18771,19 +18790,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -18792,19 +18811,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -18813,19 +18832,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -18834,19 +18853,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -18855,19 +18874,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -18876,19 +18895,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -18897,19 +18916,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -18918,19 +18937,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="D14" s="39" t="s">
         <v>399</v>
       </c>
-      <c r="D14" s="39" t="s">
-        <v>400</v>
-      </c>
       <c r="E14" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -18939,19 +18958,19 @@
         <v>9</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -18980,11 +18999,11 @@
   <sheetPr codeName="工作表7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AP22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="T7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18:D22"/>
+      <selection pane="bottomRight" activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19030,7 +19049,7 @@
       <c r="B1" s="156"/>
       <c r="C1" s="156"/>
       <c r="D1" s="131" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E1" s="1"/>
       <c r="H1" s="1"/>
@@ -19043,7 +19062,7 @@
       <c r="B2" s="156"/>
       <c r="C2" s="156"/>
       <c r="D2" s="131" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E2" s="1"/>
       <c r="H2" s="1"/>
@@ -19072,22 +19091,22 @@
         <v>37</v>
       </c>
       <c r="E4" s="128" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F4" s="102" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G4" s="28" t="s">
+        <v>735</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>736</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>737</v>
       </c>
       <c r="I4" s="128" t="s">
         <v>257</v>
       </c>
       <c r="J4" s="48" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="K4" s="128" t="s">
         <v>39</v>
@@ -19132,7 +19151,7 @@
         <v>48</v>
       </c>
       <c r="Y4" s="128" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="Z4" s="128" t="s">
         <v>266</v>
@@ -19162,7 +19181,7 @@
         <v>58</v>
       </c>
       <c r="AI4" s="128" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AJ4" s="128" t="s">
         <v>59</v>
@@ -19198,22 +19217,22 @@
         <v>37</v>
       </c>
       <c r="E5" s="128" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F5" s="102" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G5" s="28" t="s">
+        <v>737</v>
+      </c>
+      <c r="H5" s="28" t="s">
         <v>738</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>739</v>
       </c>
       <c r="I5" s="49" t="s">
         <v>270</v>
       </c>
       <c r="J5" s="50" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="K5" s="50" t="s">
         <v>69</v>
@@ -19237,7 +19256,7 @@
         <v>275</v>
       </c>
       <c r="R5" s="49" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="S5" s="132" t="s">
         <v>74</v>
@@ -19255,19 +19274,19 @@
         <v>76</v>
       </c>
       <c r="X5" s="49" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="Y5" s="49" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="Z5" s="49" t="s">
+        <v>919</v>
+      </c>
+      <c r="AA5" s="49" t="s">
+        <v>838</v>
+      </c>
+      <c r="AB5" s="49" t="s">
         <v>276</v>
-      </c>
-      <c r="AA5" s="49" t="s">
-        <v>839</v>
-      </c>
-      <c r="AB5" s="49" t="s">
-        <v>277</v>
       </c>
       <c r="AC5" s="49" t="s">
         <v>81</v>
@@ -19288,10 +19307,10 @@
         <v>87</v>
       </c>
       <c r="AI5" s="49" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AJ5" s="49" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AK5" s="49" t="s">
         <v>88</v>
@@ -19303,7 +19322,7 @@
         <v>80</v>
       </c>
       <c r="AN5" s="49" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AO5" s="49" t="s">
         <v>92</v>
@@ -19315,7 +19334,7 @@
     <row r="6" spans="1:42" s="19" customFormat="1" ht="23" customHeight="1">
       <c r="A6" s="23"/>
       <c r="B6" s="125" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C6" s="125" t="s">
         <v>6</v>
@@ -19324,7 +19343,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="125" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>5</v>
@@ -19339,10 +19358,10 @@
         <v>5</v>
       </c>
       <c r="J6" s="125" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="K6" s="125" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L6" s="125" t="s">
         <v>5</v>
@@ -19360,10 +19379,10 @@
         <v>5</v>
       </c>
       <c r="Q6" s="125" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R6" s="125" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S6" s="132" t="s">
         <v>5</v>
@@ -19375,37 +19394,37 @@
         <v>5</v>
       </c>
       <c r="V6" s="125" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="W6" s="125" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X6" s="125" t="s">
         <v>94</v>
       </c>
       <c r="Y6" s="125" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="Z6" s="125" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA6" s="125" t="s">
         <v>5</v>
       </c>
       <c r="AB6" s="125" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AC6" s="125" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AD6" s="125" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AE6" s="125" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF6" s="125" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG6" s="125" t="s">
         <v>5</v>
@@ -19414,25 +19433,25 @@
         <v>5</v>
       </c>
       <c r="AI6" s="125" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ6" s="125" t="s">
+        <v>279</v>
+      </c>
+      <c r="AK6" s="125" t="s">
         <v>280</v>
       </c>
-      <c r="AJ6" s="125" t="s">
+      <c r="AL6" s="125" t="s">
         <v>280</v>
-      </c>
-      <c r="AK6" s="125" t="s">
-        <v>281</v>
-      </c>
-      <c r="AL6" s="125" t="s">
-        <v>281</v>
       </c>
       <c r="AM6" s="126" t="s">
         <v>5</v>
       </c>
       <c r="AN6" s="125" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AO6" s="125" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AP6" s="125" t="s">
         <v>6</v>
@@ -19440,29 +19459,29 @@
     </row>
     <row r="7" spans="1:42">
       <c r="A7" s="121" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B7" s="42">
         <f t="shared" ref="B7:B22" si="0">ROW()-6</f>
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D7" s="40">
         <v>100</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F7" s="40">
         <v>1</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I7" s="40">
         <v>20</v>
@@ -19499,7 +19518,7 @@
         <v>97</v>
       </c>
       <c r="U7" s="42" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="V7" s="40" t="s">
         <v>136</v>
@@ -19534,34 +19553,34 @@
       <c r="AN7" s="40"/>
       <c r="AO7" s="40"/>
       <c r="AP7" s="40" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:42">
       <c r="A8" s="121" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B8" s="42">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D8" s="40">
         <v>100</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F8" s="40">
         <v>1</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I8" s="40">
         <v>20</v>
@@ -19601,7 +19620,7 @@
         <v>86</v>
       </c>
       <c r="V8" s="40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="W8" s="40"/>
       <c r="X8" s="40"/>
@@ -19633,34 +19652,34 @@
       <c r="AN8" s="40"/>
       <c r="AO8" s="40"/>
       <c r="AP8" s="40" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:42">
       <c r="A9" s="122" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B9" s="40">
         <f>ROW()-6</f>
         <v>3</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D9" s="40">
         <v>102</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F9" s="40">
         <v>6</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I9" s="40">
         <v>20</v>
@@ -19724,7 +19743,7 @@
       <c r="AH9" s="40"/>
       <c r="AI9" s="40"/>
       <c r="AJ9" s="21" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AK9" s="40" t="s">
         <v>124</v>
@@ -19736,25 +19755,25 @@
       <c r="AN9" s="40"/>
       <c r="AO9" s="40"/>
       <c r="AP9" s="40" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:42">
       <c r="A10" s="122" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B10" s="40">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D10" s="40">
         <v>101</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F10" s="40">
         <v>6</v>
@@ -19806,7 +19825,7 @@
         <v>3</v>
       </c>
       <c r="AA10" s="40" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AB10" s="40"/>
       <c r="AC10" s="40"/>
@@ -19827,25 +19846,25 @@
       <c r="AN10" s="40"/>
       <c r="AO10" s="40"/>
       <c r="AP10" s="40" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:42">
       <c r="A11" s="122" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B11" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D11" s="40">
         <v>101</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F11" s="40">
         <v>6</v>
@@ -19914,7 +19933,7 @@
       <c r="AH11" s="40"/>
       <c r="AI11" s="40"/>
       <c r="AJ11" s="43" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AK11" s="40" t="s">
         <v>99</v>
@@ -19928,34 +19947,34 @@
       <c r="AN11" s="40"/>
       <c r="AO11" s="40"/>
       <c r="AP11" s="40" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:42">
       <c r="A12" s="122" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B12" s="40">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D12" s="40">
         <v>101</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F12" s="40">
         <v>6</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I12" s="40" t="s">
         <v>107</v>
@@ -20010,7 +20029,7 @@
       </c>
       <c r="AB12" s="40"/>
       <c r="AC12" s="40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AD12" s="40"/>
       <c r="AE12" s="40" t="s">
@@ -20025,7 +20044,7 @@
       <c r="AH12" s="40"/>
       <c r="AI12" s="40"/>
       <c r="AJ12" s="40" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AK12" s="40" t="s">
         <v>99</v>
@@ -20039,25 +20058,25 @@
       <c r="AN12" s="40"/>
       <c r="AO12" s="40"/>
       <c r="AP12" s="40" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:42">
       <c r="A13" s="122" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B13" s="40">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D13" s="40">
         <v>101</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F13" s="40">
         <v>6</v>
@@ -20128,7 +20147,7 @@
       <c r="AH13" s="40"/>
       <c r="AI13" s="40"/>
       <c r="AJ13" s="43" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AK13" s="40" t="s">
         <v>124</v>
@@ -20142,34 +20161,34 @@
       <c r="AN13" s="40"/>
       <c r="AO13" s="40"/>
       <c r="AP13" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:42">
       <c r="A14" s="122" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B14" s="40">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D14" s="40">
         <v>101</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F14" s="40">
         <v>6</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>130</v>
@@ -20241,7 +20260,7 @@
       </c>
       <c r="AI14" s="40"/>
       <c r="AJ14" s="21" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AK14" s="40" t="s">
         <v>99</v>
@@ -20253,34 +20272,34 @@
       <c r="AN14" s="40"/>
       <c r="AO14" s="40"/>
       <c r="AP14" s="40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:42">
       <c r="A15" s="122" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B15" s="40">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D15" s="40">
         <v>101</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F15" s="40">
         <v>6</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I15" s="40">
         <v>240</v>
@@ -20353,7 +20372,7 @@
       </c>
       <c r="AI15" s="40"/>
       <c r="AJ15" s="21" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AK15" s="40" t="s">
         <v>99</v>
@@ -20367,25 +20386,25 @@
       <c r="AN15" s="40"/>
       <c r="AO15" s="40"/>
       <c r="AP15" s="40" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:42">
       <c r="A16" s="122" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B16" s="40">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D16" s="40">
         <v>101</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F16" s="40">
         <v>6</v>
@@ -20456,7 +20475,7 @@
       </c>
       <c r="AI16" s="40"/>
       <c r="AJ16" s="44" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AK16" s="40" t="s">
         <v>124</v>
@@ -20470,41 +20489,41 @@
       <c r="AN16" s="40"/>
       <c r="AO16" s="40"/>
       <c r="AP16" s="40" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:42">
       <c r="A17" s="123" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B17" s="45">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E17" s="45"/>
       <c r="F17" s="45">
         <v>1</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H17" s="35" t="s">
         <v>186</v>
       </c>
       <c r="I17" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>776</v>
+      </c>
+      <c r="K17" s="45" t="s">
         <v>314</v>
-      </c>
-      <c r="J17" s="45" t="s">
-        <v>777</v>
-      </c>
-      <c r="K17" s="45" t="s">
-        <v>315</v>
       </c>
       <c r="L17" s="45"/>
       <c r="M17" s="45"/>
@@ -20543,7 +20562,7 @@
       <c r="AH17" s="45"/>
       <c r="AI17" s="45"/>
       <c r="AJ17" s="45" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AK17" s="45" t="s">
         <v>124</v>
@@ -20555,41 +20574,41 @@
       <c r="AN17" s="45"/>
       <c r="AO17" s="45"/>
       <c r="AP17" s="45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:42">
       <c r="A18" s="123" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B18" s="45">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E18" s="45"/>
       <c r="F18" s="45">
         <v>1</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H18" s="35" t="s">
         <v>186</v>
       </c>
       <c r="I18" s="45" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K18" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L18" s="45"/>
       <c r="M18" s="45"/>
@@ -20628,7 +20647,7 @@
       <c r="AH18" s="45"/>
       <c r="AI18" s="45"/>
       <c r="AJ18" s="45" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AK18" s="45" t="s">
         <v>99</v>
@@ -20640,41 +20659,41 @@
       <c r="AN18" s="45"/>
       <c r="AO18" s="45"/>
       <c r="AP18" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:42">
       <c r="A19" s="123" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B19" s="45">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E19" s="45"/>
       <c r="F19" s="45">
         <v>1</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I19" s="45" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K19" s="45" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L19" s="45"/>
       <c r="M19" s="45"/>
@@ -20719,7 +20738,7 @@
       <c r="AH19" s="45"/>
       <c r="AI19" s="45"/>
       <c r="AJ19" s="45" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AK19" s="45" t="s">
         <v>99</v>
@@ -20733,41 +20752,41 @@
       <c r="AN19" s="45"/>
       <c r="AO19" s="45"/>
       <c r="AP19" s="45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:42">
       <c r="A20" s="123" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B20" s="45">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E20" s="45"/>
       <c r="F20" s="45">
         <v>1</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I20" s="45" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K20" s="45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L20" s="45"/>
       <c r="M20" s="45"/>
@@ -20781,7 +20800,7 @@
       <c r="S20" s="45"/>
       <c r="T20" s="45"/>
       <c r="U20" s="45" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V20" s="45" t="s">
         <v>119</v>
@@ -20801,7 +20820,7 @@
       </c>
       <c r="AD20" s="45"/>
       <c r="AE20" s="45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF20" s="45"/>
       <c r="AG20" s="42"/>
@@ -20810,7 +20829,7 @@
       </c>
       <c r="AI20" s="45"/>
       <c r="AJ20" s="45" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AK20" s="45" t="s">
         <v>99</v>
@@ -20824,41 +20843,41 @@
       <c r="AN20" s="45"/>
       <c r="AO20" s="45"/>
       <c r="AP20" s="45" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:42">
       <c r="A21" s="123" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B21" s="45">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E21" s="45"/>
       <c r="F21" s="45">
         <v>1</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I21" s="45" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J21" s="45" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K21" s="45" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L21" s="45"/>
       <c r="M21" s="45"/>
@@ -20875,7 +20894,7 @@
         <v>107</v>
       </c>
       <c r="V21" s="45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="W21" s="45"/>
       <c r="X21" s="45" t="s">
@@ -20888,7 +20907,7 @@
       </c>
       <c r="AB21" s="45"/>
       <c r="AC21" s="45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AD21" s="45"/>
       <c r="AE21" s="45" t="s">
@@ -20901,7 +20920,7 @@
       </c>
       <c r="AI21" s="45"/>
       <c r="AJ21" s="45" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AK21" s="45" t="s">
         <v>99</v>
@@ -20915,41 +20934,41 @@
       <c r="AN21" s="45"/>
       <c r="AO21" s="45"/>
       <c r="AP21" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:42">
       <c r="A22" s="124" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B22" s="45">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E22" s="45"/>
       <c r="F22" s="45">
         <v>1</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I22" s="45" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J22" s="45" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K22" s="45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L22" s="45"/>
       <c r="M22" s="45"/>
@@ -20963,10 +20982,10 @@
       <c r="S22" s="45"/>
       <c r="T22" s="45"/>
       <c r="U22" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="V22" s="45" t="s">
         <v>337</v>
-      </c>
-      <c r="V22" s="45" t="s">
-        <v>338</v>
       </c>
       <c r="W22" s="45"/>
       <c r="X22" s="45" t="s">
@@ -20979,11 +20998,11 @@
       </c>
       <c r="AB22" s="45"/>
       <c r="AC22" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AD22" s="45"/>
       <c r="AE22" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF22" s="45" t="s">
         <v>187</v>
@@ -20994,7 +21013,7 @@
       <c r="AH22" s="45"/>
       <c r="AI22" s="45"/>
       <c r="AJ22" s="45" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AK22" s="45" t="s">
         <v>99</v>
@@ -21003,12 +21022,12 @@
         <v>99</v>
       </c>
       <c r="AM22" s="45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AN22" s="45"/>
       <c r="AO22" s="45"/>
       <c r="AP22" s="46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -21073,7 +21092,7 @@
       <c r="B1" s="157"/>
       <c r="C1" s="157"/>
       <c r="D1" s="159" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E1" s="159"/>
       <c r="F1" s="159"/>
@@ -21086,7 +21105,7 @@
       <c r="B2" s="157"/>
       <c r="C2" s="157"/>
       <c r="D2" s="159" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E2" s="159"/>
       <c r="F2" s="159"/>
@@ -21107,58 +21126,58 @@
         <v>2</v>
       </c>
       <c r="C4" s="142" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D4" s="152" t="s">
+        <v>881</v>
+      </c>
+      <c r="E4" s="153" t="s">
         <v>882</v>
       </c>
-      <c r="E4" s="153" t="s">
+      <c r="F4" s="153" t="s">
         <v>883</v>
       </c>
-      <c r="F4" s="153" t="s">
+      <c r="G4" s="153" t="s">
         <v>884</v>
       </c>
-      <c r="G4" s="153" t="s">
+      <c r="H4" s="153" t="s">
+        <v>887</v>
+      </c>
+      <c r="I4" s="153" t="s">
         <v>885</v>
       </c>
-      <c r="H4" s="153" t="s">
+      <c r="J4" s="153" t="s">
+        <v>886</v>
+      </c>
+      <c r="K4" s="153" t="s">
         <v>888</v>
       </c>
-      <c r="I4" s="153" t="s">
-        <v>886</v>
-      </c>
-      <c r="J4" s="153" t="s">
-        <v>887</v>
-      </c>
-      <c r="K4" s="153" t="s">
+      <c r="L4" s="153" t="s">
         <v>889</v>
       </c>
-      <c r="L4" s="153" t="s">
+      <c r="M4" s="153" t="s">
         <v>890</v>
       </c>
-      <c r="M4" s="153" t="s">
+      <c r="N4" s="153" t="s">
         <v>891</v>
       </c>
-      <c r="N4" s="153" t="s">
+      <c r="O4" s="153" t="s">
         <v>892</v>
       </c>
-      <c r="O4" s="153" t="s">
+      <c r="P4" s="153" t="s">
         <v>893</v>
       </c>
-      <c r="P4" s="153" t="s">
+      <c r="Q4" s="153" t="s">
         <v>894</v>
       </c>
-      <c r="Q4" s="153" t="s">
+      <c r="R4" s="153" t="s">
         <v>895</v>
       </c>
-      <c r="R4" s="153" t="s">
+      <c r="S4" s="153" t="s">
         <v>896</v>
       </c>
-      <c r="S4" s="153" t="s">
+      <c r="T4" s="153" t="s">
         <v>897</v>
-      </c>
-      <c r="T4" s="153" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="141" customFormat="1" ht="46" customHeight="1">
@@ -21167,67 +21186,67 @@
         <v>2</v>
       </c>
       <c r="C5" s="144" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D5" s="154" t="s">
+        <v>898</v>
+      </c>
+      <c r="E5" s="154" t="s">
         <v>899</v>
       </c>
-      <c r="E5" s="154" t="s">
+      <c r="F5" s="154" t="s">
         <v>900</v>
       </c>
-      <c r="F5" s="154" t="s">
+      <c r="G5" s="154" t="s">
+        <v>800</v>
+      </c>
+      <c r="H5" s="154" t="s">
+        <v>903</v>
+      </c>
+      <c r="I5" s="154" t="s">
         <v>901</v>
       </c>
-      <c r="G5" s="154" t="s">
-        <v>801</v>
-      </c>
-      <c r="H5" s="154" t="s">
+      <c r="J5" s="154" t="s">
+        <v>902</v>
+      </c>
+      <c r="K5" s="154" t="s">
         <v>904</v>
       </c>
-      <c r="I5" s="154" t="s">
-        <v>902</v>
-      </c>
-      <c r="J5" s="154" t="s">
-        <v>903</v>
-      </c>
-      <c r="K5" s="154" t="s">
+      <c r="L5" s="154" t="s">
         <v>905</v>
       </c>
-      <c r="L5" s="154" t="s">
+      <c r="M5" s="154" t="s">
         <v>906</v>
       </c>
-      <c r="M5" s="154" t="s">
+      <c r="N5" s="154" t="s">
         <v>907</v>
       </c>
-      <c r="N5" s="154" t="s">
+      <c r="O5" s="154" t="s">
         <v>908</v>
       </c>
-      <c r="O5" s="154" t="s">
+      <c r="P5" s="154" t="s">
         <v>909</v>
       </c>
-      <c r="P5" s="154" t="s">
+      <c r="Q5" s="154" t="s">
         <v>910</v>
       </c>
-      <c r="Q5" s="154" t="s">
+      <c r="R5" s="154" t="s">
         <v>911</v>
       </c>
-      <c r="R5" s="154" t="s">
+      <c r="S5" s="154" t="s">
         <v>912</v>
       </c>
-      <c r="S5" s="154" t="s">
+      <c r="T5" s="154" t="s">
         <v>913</v>
-      </c>
-      <c r="T5" s="154" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="141" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="147"/>
       <c r="B6" s="145" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="145" t="s">
         <v>279</v>
-      </c>
-      <c r="C6" s="145" t="s">
-        <v>280</v>
       </c>
       <c r="D6" s="155" t="s">
         <v>5</v>
@@ -21283,23 +21302,23 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="148" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B7" s="137">
         <v>1</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D7" s="137" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E7" s="137" t="s">
         <v>97</v>
       </c>
       <c r="F7" s="151"/>
       <c r="G7" s="137" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H7" s="151"/>
       <c r="I7" s="151"/>
@@ -21313,34 +21332,34 @@
       <c r="O7" s="151"/>
       <c r="P7" s="151"/>
       <c r="Q7" s="137" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="R7" s="138"/>
       <c r="S7" s="151"/>
       <c r="T7" s="151"/>
       <c r="U7" s="136" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="148" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B8" s="137">
         <v>2</v>
       </c>
       <c r="C8" s="137" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D8" s="137" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E8" s="137" t="s">
         <v>114</v>
       </c>
       <c r="F8" s="151"/>
       <c r="G8" s="137" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H8" s="151"/>
       <c r="I8" s="151"/>
@@ -21354,18 +21373,18 @@
       <c r="O8" s="151"/>
       <c r="P8" s="151"/>
       <c r="Q8" s="137" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="R8" s="138"/>
       <c r="S8" s="151"/>
       <c r="T8" s="151"/>
       <c r="U8" s="136" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="148" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B9" s="137">
         <v>3</v>
@@ -21374,48 +21393,48 @@
         <v>203</v>
       </c>
       <c r="D9" s="137" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E9" s="137" t="s">
         <v>97</v>
       </c>
       <c r="F9" s="151"/>
       <c r="G9" s="137" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H9" s="151"/>
       <c r="I9" s="151"/>
       <c r="J9" s="151"/>
       <c r="K9" s="151"/>
       <c r="L9" s="39" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="M9" s="151"/>
       <c r="N9" s="151"/>
       <c r="O9" s="151"/>
       <c r="P9" s="151"/>
       <c r="Q9" s="137" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="R9" s="138"/>
       <c r="S9" s="151"/>
       <c r="T9" s="151"/>
       <c r="U9" s="136" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="148" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B10" s="137">
         <v>4</v>
       </c>
       <c r="C10" s="137" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D10" s="137" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E10" s="137" t="s">
         <v>98</v>
@@ -21429,34 +21448,34 @@
       <c r="J10" s="151"/>
       <c r="K10" s="151"/>
       <c r="L10" s="39" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="M10" s="151"/>
       <c r="N10" s="151"/>
       <c r="O10" s="151"/>
       <c r="P10" s="151"/>
       <c r="Q10" s="137" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="R10" s="138"/>
       <c r="S10" s="151"/>
       <c r="T10" s="151"/>
       <c r="U10" s="136" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="148" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B11" s="137">
         <v>5</v>
       </c>
       <c r="C11" s="137" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E11" s="137" t="s">
         <v>98</v>
@@ -21470,32 +21489,32 @@
       <c r="J11" s="151"/>
       <c r="K11" s="151"/>
       <c r="L11" s="39" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="M11" s="151"/>
       <c r="N11" s="151"/>
       <c r="O11" s="151"/>
       <c r="P11" s="151"/>
       <c r="Q11" s="137" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="R11" s="138"/>
       <c r="S11" s="151"/>
       <c r="T11" s="151"/>
       <c r="U11" s="136" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="148" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B12" s="137">
         <v>6</v>
       </c>
       <c r="C12" s="137"/>
       <c r="D12" s="137" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E12" s="137"/>
       <c r="F12" s="151"/>
@@ -21505,7 +21524,7 @@
       <c r="J12" s="151"/>
       <c r="K12" s="151"/>
       <c r="L12" s="39" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="M12" s="151"/>
       <c r="N12" s="151"/>
@@ -21516,103 +21535,103 @@
       <c r="S12" s="151"/>
       <c r="T12" s="151"/>
       <c r="U12" s="136" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="148" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B13" s="137">
         <v>7</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D13" s="137" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E13" s="39" t="s">
         <v>97</v>
       </c>
       <c r="F13" s="151"/>
       <c r="G13" s="39" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H13" s="151"/>
       <c r="I13" s="151"/>
       <c r="J13" s="151"/>
       <c r="K13" s="151"/>
       <c r="L13" s="39" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="M13" s="151"/>
       <c r="N13" s="151"/>
       <c r="O13" s="151"/>
       <c r="P13" s="151"/>
       <c r="Q13" s="137" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R13" s="138"/>
       <c r="S13" s="151"/>
       <c r="T13" s="151"/>
       <c r="U13" s="136" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="148" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B14" s="137">
         <v>8</v>
       </c>
       <c r="C14" s="137" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D14" s="137" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E14" s="137" t="s">
         <v>97</v>
       </c>
       <c r="F14" s="151"/>
       <c r="G14" s="137" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H14" s="151"/>
       <c r="I14" s="151"/>
       <c r="J14" s="151"/>
       <c r="K14" s="151"/>
       <c r="L14" s="39" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="M14" s="151"/>
       <c r="N14" s="151"/>
       <c r="O14" s="151"/>
       <c r="P14" s="151"/>
       <c r="Q14" s="137" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="R14" s="138"/>
       <c r="S14" s="151"/>
       <c r="T14" s="151"/>
       <c r="U14" s="139" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="148" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>118</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D15" s="137" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E15" s="137"/>
       <c r="F15" s="151"/>
@@ -21634,23 +21653,23 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="149" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B16" s="137" t="s">
         <v>102</v>
       </c>
       <c r="C16" s="137" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D16" s="137" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E16" s="137" t="s">
         <v>97</v>
       </c>
       <c r="F16" s="151"/>
       <c r="G16" s="137" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H16" s="151"/>
       <c r="I16" s="151"/>
@@ -21667,22 +21686,22 @@
       <c r="R16" s="138"/>
       <c r="S16" s="151"/>
       <c r="T16" s="161" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="U16" s="140"/>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="149" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B17" s="137" t="s">
         <v>140</v>
       </c>
       <c r="C17" s="137" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D17" s="137" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E17" s="137" t="s">
         <v>155</v>
@@ -21703,7 +21722,7 @@
       <c r="O17" s="151"/>
       <c r="P17" s="151"/>
       <c r="Q17" s="137" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="R17" s="138"/>
       <c r="S17" s="151"/>
@@ -21712,16 +21731,16 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="149" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B18" s="137" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C18" s="137" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D18" s="137" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E18" s="137" t="s">
         <v>155</v>
@@ -21742,7 +21761,7 @@
       <c r="O18" s="151"/>
       <c r="P18" s="151"/>
       <c r="Q18" s="137" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="R18" s="138"/>
       <c r="S18" s="151"/>

--- a/Assets/island/DBCfg/DataCfg.xlsx
+++ b/Assets/island/DBCfg/DataCfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24660" windowHeight="15600" tabRatio="827" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24700" windowHeight="15600" tabRatio="827" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="配置表cfg" sheetId="1" r:id="rId1"/>
@@ -691,7 +691,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="922">
   <si>
     <t>表名：</t>
   </si>
@@ -4038,121 +4038,126 @@
     <t>高度有随机偏移值</t>
   </si>
   <si>
+    <t>持续时间(秒*10)</t>
+  </si>
+  <si>
+    <t>波及半径</t>
+  </si>
+  <si>
+    <t>速度随机因子(百分比)</t>
+  </si>
+  <si>
+    <t>目标位置随机因子(百分比)</t>
+  </si>
+  <si>
+    <t>是否跟踪弹</t>
+  </si>
+  <si>
+    <t>是否穿心弹</t>
+  </si>
+  <si>
+    <t>是否需要根据轨迹旋转</t>
+  </si>
+  <si>
+    <t>是否判断碰撞触发器</t>
+  </si>
+  <si>
+    <t>击中效果处理</t>
+  </si>
+  <si>
+    <t>击中特效</t>
+  </si>
+  <si>
+    <t>击中音效</t>
+  </si>
+  <si>
+    <t>击中震屏</t>
+  </si>
+  <si>
+    <t>实际上是个特效</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>IsHighOffset</t>
+  </si>
+  <si>
+    <t>MaxStayTime</t>
+  </si>
+  <si>
+    <t>SpreadRadius</t>
+  </si>
+  <si>
+    <t>SpeedRandomFactor</t>
+  </si>
+  <si>
+    <t>PosRandomFactor</t>
+  </si>
+  <si>
+    <t>IsFollow</t>
+  </si>
+  <si>
+    <t>IsMulHit</t>
+  </si>
+  <si>
+    <t>NeedRotate</t>
+  </si>
+  <si>
+    <t>CheckTrigger</t>
+  </si>
+  <si>
+    <t>HitHandle</t>
+  </si>
+  <si>
+    <t>HitEffect</t>
+  </si>
+  <si>
+    <t>HitSFX</t>
+  </si>
+  <si>
+    <t>IsScreenShake</t>
+  </si>
+  <si>
+    <t>IsOnlyAEffect</t>
+  </si>
+  <si>
+    <t>collect_Food</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnHitCannonball</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireRange2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SolderNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreferedTargetType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>速度</t>
-  </si>
-  <si>
-    <t>持续时间(秒*10)</t>
-  </si>
-  <si>
-    <t>波及半径</t>
-  </si>
-  <si>
-    <t>速度随机因子(百分比)</t>
-  </si>
-  <si>
-    <t>目标位置随机因子(百分比)</t>
-  </si>
-  <si>
-    <t>是否跟踪弹</t>
-  </si>
-  <si>
-    <t>是否穿心弹</t>
-  </si>
-  <si>
-    <t>是否需要根据轨迹旋转</t>
-  </si>
-  <si>
-    <t>是否判断碰撞触发器</t>
-  </si>
-  <si>
-    <t>击中效果处理</t>
-  </si>
-  <si>
-    <t>击中特效</t>
-  </si>
-  <si>
-    <t>击中音效</t>
-  </si>
-  <si>
-    <t>击中震屏</t>
-  </si>
-  <si>
-    <t>实际上是个特效</t>
-  </si>
-  <si>
-    <t>Range</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>IsHighOffset</t>
-  </si>
-  <si>
-    <t>MaxStayTime</t>
-  </si>
-  <si>
-    <t>SpreadRadius</t>
-  </si>
-  <si>
-    <t>SpeedRandomFactor</t>
-  </si>
-  <si>
-    <t>PosRandomFactor</t>
-  </si>
-  <si>
-    <t>IsFollow</t>
-  </si>
-  <si>
-    <t>IsMulHit</t>
-  </si>
-  <si>
-    <t>NeedRotate</t>
-  </si>
-  <si>
-    <t>CheckTrigger</t>
-  </si>
-  <si>
-    <t>HitHandle</t>
-  </si>
-  <si>
-    <t>HitEffect</t>
-  </si>
-  <si>
-    <t>HitSFX</t>
-  </si>
-  <si>
-    <t>IsScreenShake</t>
-  </si>
-  <si>
-    <t>IsOnlyAEffect</t>
-  </si>
-  <si>
-    <t>collect_Food</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnHitCannonball</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireRange2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>103</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SolderNum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4765,7 +4770,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1418">
+  <cellStyleXfs count="1420">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -7424,6 +7429,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -7913,7 +7924,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1418">
+  <cellStyles count="1420">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 1 10" xfId="2"/>
     <cellStyle name="20% - 强调文字颜色 1 10 2" xfId="3"/>
@@ -8965,6 +8976,7 @@
     <cellStyle name="超链接" xfId="1412" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1414" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1416" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1418" builtinId="8" hidden="1"/>
     <cellStyle name="逗号 [0]" xfId="885" builtinId="6"/>
     <cellStyle name="访问过的超链接" xfId="1085" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1087" builtinId="9" hidden="1"/>
@@ -9133,6 +9145,7 @@
     <cellStyle name="访问过的超链接" xfId="1413" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1415" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1417" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1419" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="886" builtinId="26" customBuiltin="1"/>
     <cellStyle name="好 10" xfId="887"/>
     <cellStyle name="好 11" xfId="888"/>
@@ -10125,11 +10138,11 @@
   </sheetPr>
   <dimension ref="A1:BL45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="AG7" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="6" topLeftCell="AH10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AN10" sqref="AN10"/>
+      <selection pane="bottomRight" activeCell="AQ19" sqref="AQ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10576,7 +10589,7 @@
         <v>85</v>
       </c>
       <c r="BB5" s="28" t="s">
-        <v>86</v>
+        <v>920</v>
       </c>
       <c r="BC5" s="28" t="s">
         <v>877</v>
@@ -11029,10 +11042,10 @@
         <v>559</v>
       </c>
       <c r="AM8" s="114" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AN8" s="114" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AO8" s="115" t="s">
         <v>559</v>
@@ -11576,7 +11589,7 @@
         <v>869</v>
       </c>
       <c r="BD12" s="37" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="BE12" s="35"/>
       <c r="BF12" s="35"/>
@@ -19000,10 +19013,10 @@
   <dimension ref="A1:AP22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="T7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="W7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Z5" sqref="Z5"/>
+      <selection pane="bottomRight" activeCell="AF22" sqref="AF22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19280,7 +19293,7 @@
         <v>782</v>
       </c>
       <c r="Z5" s="49" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AA5" s="49" t="s">
         <v>838</v>
@@ -20504,7 +20517,7 @@
         <v>312</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E17" s="45"/>
       <c r="F17" s="45">
@@ -20589,7 +20602,7 @@
         <v>317</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E18" s="45"/>
       <c r="F18" s="45">
@@ -20674,7 +20687,7 @@
         <v>321</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E19" s="45"/>
       <c r="F19" s="45">
@@ -20767,7 +20780,7 @@
         <v>325</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E20" s="45"/>
       <c r="F20" s="45">
@@ -20858,7 +20871,7 @@
         <v>331</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E21" s="45"/>
       <c r="F21" s="45">
@@ -20949,7 +20962,7 @@
         <v>778</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E22" s="45"/>
       <c r="F22" s="45">
@@ -21056,8 +21069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -21120,7 +21133,7 @@
       <c r="F3" s="135"/>
       <c r="G3" s="135"/>
     </row>
-    <row r="4" spans="1:21" s="141" customFormat="1" ht="120" customHeight="1">
+    <row r="4" spans="1:21" s="141" customFormat="1" ht="208">
       <c r="A4" s="147"/>
       <c r="B4" s="142" t="s">
         <v>2</v>
@@ -21138,46 +21151,46 @@
         <v>883</v>
       </c>
       <c r="G4" s="153" t="s">
+        <v>921</v>
+      </c>
+      <c r="H4" s="153" t="s">
+        <v>886</v>
+      </c>
+      <c r="I4" s="153" t="s">
         <v>884</v>
       </c>
-      <c r="H4" s="153" t="s">
+      <c r="J4" s="153" t="s">
+        <v>885</v>
+      </c>
+      <c r="K4" s="153" t="s">
         <v>887</v>
       </c>
-      <c r="I4" s="153" t="s">
-        <v>885</v>
-      </c>
-      <c r="J4" s="153" t="s">
-        <v>886</v>
-      </c>
-      <c r="K4" s="153" t="s">
+      <c r="L4" s="153" t="s">
         <v>888</v>
       </c>
-      <c r="L4" s="153" t="s">
+      <c r="M4" s="153" t="s">
         <v>889</v>
       </c>
-      <c r="M4" s="153" t="s">
+      <c r="N4" s="153" t="s">
         <v>890</v>
       </c>
-      <c r="N4" s="153" t="s">
+      <c r="O4" s="153" t="s">
         <v>891</v>
       </c>
-      <c r="O4" s="153" t="s">
+      <c r="P4" s="153" t="s">
         <v>892</v>
       </c>
-      <c r="P4" s="153" t="s">
+      <c r="Q4" s="153" t="s">
         <v>893</v>
       </c>
-      <c r="Q4" s="153" t="s">
+      <c r="R4" s="153" t="s">
         <v>894</v>
       </c>
-      <c r="R4" s="153" t="s">
+      <c r="S4" s="153" t="s">
         <v>895</v>
       </c>
-      <c r="S4" s="153" t="s">
+      <c r="T4" s="153" t="s">
         <v>896</v>
-      </c>
-      <c r="T4" s="153" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="141" customFormat="1" ht="46" customHeight="1">
@@ -21189,55 +21202,55 @@
         <v>837</v>
       </c>
       <c r="D5" s="154" t="s">
+        <v>897</v>
+      </c>
+      <c r="E5" s="154" t="s">
         <v>898</v>
       </c>
-      <c r="E5" s="154" t="s">
+      <c r="F5" s="154" t="s">
         <v>899</v>
-      </c>
-      <c r="F5" s="154" t="s">
-        <v>900</v>
       </c>
       <c r="G5" s="154" t="s">
         <v>800</v>
       </c>
       <c r="H5" s="154" t="s">
+        <v>902</v>
+      </c>
+      <c r="I5" s="154" t="s">
+        <v>900</v>
+      </c>
+      <c r="J5" s="154" t="s">
+        <v>901</v>
+      </c>
+      <c r="K5" s="154" t="s">
         <v>903</v>
       </c>
-      <c r="I5" s="154" t="s">
-        <v>901</v>
-      </c>
-      <c r="J5" s="154" t="s">
-        <v>902</v>
-      </c>
-      <c r="K5" s="154" t="s">
+      <c r="L5" s="154" t="s">
         <v>904</v>
       </c>
-      <c r="L5" s="154" t="s">
+      <c r="M5" s="154" t="s">
         <v>905</v>
       </c>
-      <c r="M5" s="154" t="s">
+      <c r="N5" s="154" t="s">
         <v>906</v>
       </c>
-      <c r="N5" s="154" t="s">
+      <c r="O5" s="154" t="s">
         <v>907</v>
       </c>
-      <c r="O5" s="154" t="s">
+      <c r="P5" s="154" t="s">
         <v>908</v>
       </c>
-      <c r="P5" s="154" t="s">
+      <c r="Q5" s="154" t="s">
         <v>909</v>
       </c>
-      <c r="Q5" s="154" t="s">
+      <c r="R5" s="154" t="s">
         <v>910</v>
       </c>
-      <c r="R5" s="154" t="s">
+      <c r="S5" s="154" t="s">
         <v>911</v>
       </c>
-      <c r="S5" s="154" t="s">
+      <c r="T5" s="154" t="s">
         <v>912</v>
-      </c>
-      <c r="T5" s="154" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="141" customFormat="1" ht="21" customHeight="1">
@@ -21332,7 +21345,7 @@
       <c r="O7" s="151"/>
       <c r="P7" s="151"/>
       <c r="Q7" s="137" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="R7" s="138"/>
       <c r="S7" s="151"/>
@@ -21563,7 +21576,7 @@
       <c r="J13" s="151"/>
       <c r="K13" s="151"/>
       <c r="L13" s="39" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="M13" s="151"/>
       <c r="N13" s="151"/>
@@ -21686,7 +21699,7 @@
       <c r="R16" s="138"/>
       <c r="S16" s="151"/>
       <c r="T16" s="161" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="U16" s="140"/>
     </row>
@@ -21722,7 +21735,7 @@
       <c r="O17" s="151"/>
       <c r="P17" s="151"/>
       <c r="Q17" s="137" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="R17" s="138"/>
       <c r="S17" s="151"/>

--- a/Assets/island/DBCfg/DataCfg.xlsx
+++ b/Assets/island/DBCfg/DataCfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24680" windowHeight="15600" tabRatio="827" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24460" windowHeight="15600" tabRatio="827" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="配置表cfg" sheetId="1" r:id="rId1"/>
@@ -691,7 +691,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="932">
   <si>
     <t>表名：</t>
   </si>
@@ -3795,9 +3795,6 @@
     <t>直线攻击的导弹效果</t>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
     <t>激光</t>
   </si>
   <si>
@@ -4173,6 +4170,38 @@
   </si>
   <si>
     <t>BombShip</t>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageRadius</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4790,7 +4819,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1436">
+  <cellStyleXfs count="1438">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -7503,6 +7532,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -7973,6 +8008,27 @@
     <xf numFmtId="0" fontId="16" fillId="51" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="32" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="48" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7988,29 +8044,8 @@
     <xf numFmtId="49" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="32" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="48" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="48" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1436">
+  <cellStyles count="1438">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 1 10" xfId="2"/>
     <cellStyle name="20% - 强调文字颜色 1 10 2" xfId="3"/>
@@ -9071,6 +9106,7 @@
     <cellStyle name="超链接" xfId="1430" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1432" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1434" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1436" builtinId="8" hidden="1"/>
     <cellStyle name="逗号 [0]" xfId="885" builtinId="6"/>
     <cellStyle name="访问过的超链接" xfId="1085" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1087" builtinId="9" hidden="1"/>
@@ -9248,6 +9284,7 @@
     <cellStyle name="访问过的超链接" xfId="1431" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1433" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1435" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1437" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="886" builtinId="26" customBuiltin="1"/>
     <cellStyle name="好 10" xfId="887"/>
     <cellStyle name="好 11" xfId="888"/>
@@ -9448,63 +9485,7 @@
     <cellStyle name="注释 8" xfId="1082"/>
     <cellStyle name="注释 9" xfId="1083"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="14"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="14"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="14"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="14"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b val="0"/>
@@ -9990,11 +9971,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
@@ -10013,11 +9994,11 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
@@ -10297,10 +10278,10 @@
   <dimension ref="A1:BL45"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="Z7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="AE11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AR1" sqref="AR1:AT1048576"/>
+      <selection pane="bottomRight" activeCell="AU5" sqref="AU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10361,11 +10342,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
       <c r="D1" s="27" t="s">
         <v>34</v>
       </c>
@@ -10374,11 +10355,11 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:64">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
       <c r="D2" s="27" t="s">
         <v>35</v>
       </c>
@@ -10421,7 +10402,7 @@
         <v>42</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J4" s="28" t="s">
         <v>731</v>
@@ -10571,7 +10552,7 @@
         <v>58</v>
       </c>
       <c r="BG4" s="30" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="BH4" s="30" t="s">
         <v>59</v>
@@ -10612,7 +10593,7 @@
         <v>70</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J5" s="28" t="s">
         <v>733</v>
@@ -10738,7 +10719,7 @@
         <v>76</v>
       </c>
       <c r="AY5" s="28" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AZ5" s="109" t="s">
         <v>71</v>
@@ -10747,22 +10728,22 @@
         <v>82</v>
       </c>
       <c r="BB5" s="28" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="BC5" s="28" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="BD5" s="28" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="BE5" s="28" t="s">
         <v>77</v>
       </c>
       <c r="BF5" s="28" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="BG5" s="28" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="BH5" s="28" t="s">
         <v>85</v>
@@ -11200,10 +11181,10 @@
         <v>555</v>
       </c>
       <c r="AM8" s="114" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AN8" s="114" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AO8" s="115" t="s">
         <v>555</v>
@@ -11226,7 +11207,7 @@
       <c r="BA8" s="35"/>
       <c r="BB8" s="35"/>
       <c r="BC8" s="31" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="BD8" s="31"/>
       <c r="BE8" s="35"/>
@@ -11351,7 +11332,7 @@
       <c r="BA9" s="35"/>
       <c r="BB9" s="35"/>
       <c r="BC9" s="36" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="BD9" s="36"/>
       <c r="BE9" s="35"/>
@@ -11488,7 +11469,7 @@
       <c r="BA10" s="35"/>
       <c r="BB10" s="35"/>
       <c r="BC10" s="36" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="BD10" s="36"/>
       <c r="BE10" s="35"/>
@@ -11744,10 +11725,10 @@
       <c r="BA12" s="35"/>
       <c r="BB12" s="35"/>
       <c r="BC12" s="36" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="BD12" s="37" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="BE12" s="35"/>
       <c r="BF12" s="35"/>
@@ -11869,7 +11850,7 @@
       <c r="BA13" s="35"/>
       <c r="BB13" s="35"/>
       <c r="BC13" s="31" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="BD13" s="33"/>
       <c r="BE13" s="35"/>
@@ -11994,10 +11975,10 @@
       <c r="BA14" s="35"/>
       <c r="BB14" s="35"/>
       <c r="BC14" s="36" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="BD14" s="37" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="BE14" s="35"/>
       <c r="BF14" s="35"/>
@@ -12119,7 +12100,7 @@
       <c r="BA15" s="35"/>
       <c r="BB15" s="35"/>
       <c r="BC15" s="31" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="BD15" s="33"/>
       <c r="BE15" s="35"/>
@@ -12244,10 +12225,10 @@
       <c r="BA16" s="35"/>
       <c r="BB16" s="35"/>
       <c r="BC16" s="31" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="BD16" s="33" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="BE16" s="35"/>
       <c r="BF16" s="35"/>
@@ -12369,7 +12350,7 @@
       <c r="BA17" s="35"/>
       <c r="BB17" s="35"/>
       <c r="BC17" s="31" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="BD17" s="33"/>
       <c r="BE17" s="35"/>
@@ -12511,12 +12492,12 @@
       <c r="BA18" s="34"/>
       <c r="BB18" s="34"/>
       <c r="BC18" s="34" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="BD18" s="34"/>
       <c r="BE18" s="34"/>
       <c r="BF18" s="34" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="BG18" s="34"/>
       <c r="BH18" s="34" t="s">
@@ -12659,12 +12640,12 @@
       <c r="BA19" s="32"/>
       <c r="BB19" s="32"/>
       <c r="BC19" s="36" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="BD19" s="36"/>
       <c r="BE19" s="32"/>
       <c r="BF19" s="36" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="BG19" s="36"/>
       <c r="BH19" s="35" t="s">
@@ -12811,12 +12792,12 @@
       <c r="BA20" s="34"/>
       <c r="BB20" s="34"/>
       <c r="BC20" s="34" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="BD20" s="34"/>
       <c r="BE20" s="34"/>
       <c r="BF20" s="34" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="BG20" s="34"/>
       <c r="BH20" s="34" t="s">
@@ -12959,12 +12940,12 @@
       <c r="BA21" s="32"/>
       <c r="BB21" s="32"/>
       <c r="BC21" s="36" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="BD21" s="36"/>
       <c r="BE21" s="32"/>
       <c r="BF21" s="36" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="BG21" s="36"/>
       <c r="BH21" s="32" t="s">
@@ -13111,12 +13092,12 @@
       <c r="BA22" s="34"/>
       <c r="BB22" s="34"/>
       <c r="BC22" s="34" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="BD22" s="34"/>
       <c r="BE22" s="34"/>
       <c r="BF22" s="36" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="BG22" s="36"/>
       <c r="BH22" s="34" t="s">
@@ -13259,12 +13240,12 @@
       <c r="BA23" s="32"/>
       <c r="BB23" s="32"/>
       <c r="BC23" s="36" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="BD23" s="36"/>
       <c r="BE23" s="32"/>
       <c r="BF23" s="32" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="BG23" s="32"/>
       <c r="BH23" s="32" t="s">
@@ -13410,12 +13391,12 @@
       <c r="BA24" s="36"/>
       <c r="BB24" s="36"/>
       <c r="BC24" s="31" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="BD24" s="36"/>
       <c r="BE24" s="36"/>
       <c r="BF24" s="36" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="BG24" s="36"/>
       <c r="BH24" s="32" t="s">
@@ -13560,12 +13541,12 @@
       <c r="BA25" s="38"/>
       <c r="BB25" s="38"/>
       <c r="BC25" s="31" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="BD25" s="36"/>
       <c r="BE25" s="36"/>
       <c r="BF25" s="36" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="BG25" s="36"/>
       <c r="BH25" s="38" t="s">
@@ -13710,12 +13691,12 @@
       <c r="BA26" s="36"/>
       <c r="BB26" s="36"/>
       <c r="BC26" s="31" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="BD26" s="36"/>
       <c r="BE26" s="36"/>
       <c r="BF26" s="36" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="BG26" s="36"/>
       <c r="BH26" s="32" t="s">
@@ -13860,7 +13841,7 @@
       <c r="BA27" s="36"/>
       <c r="BB27" s="36"/>
       <c r="BC27" s="31" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="BD27" s="36"/>
       <c r="BE27" s="36"/>
@@ -14012,7 +13993,7 @@
       <c r="BA28" s="36"/>
       <c r="BB28" s="36"/>
       <c r="BC28" s="31" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="BD28" s="36"/>
       <c r="BE28" s="36"/>
@@ -14164,7 +14145,7 @@
       <c r="BA29" s="36"/>
       <c r="BB29" s="36"/>
       <c r="BC29" s="31" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="BD29" s="36"/>
       <c r="BE29" s="36"/>
@@ -14306,7 +14287,7 @@
       <c r="BA30" s="36"/>
       <c r="BB30" s="36"/>
       <c r="BC30" s="31" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="BD30" s="36"/>
       <c r="BE30" s="36"/>
@@ -14458,7 +14439,7 @@
       <c r="BA31" s="36"/>
       <c r="BB31" s="36"/>
       <c r="BC31" s="31" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="BD31" s="36"/>
       <c r="BE31" s="36"/>
@@ -14561,7 +14542,7 @@
       <c r="BA32" s="36"/>
       <c r="BB32" s="36"/>
       <c r="BC32" s="36" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="BD32" s="36"/>
       <c r="BE32" s="36"/>
@@ -14660,7 +14641,7 @@
       <c r="BA33" s="36"/>
       <c r="BB33" s="36"/>
       <c r="BC33" s="36" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="BD33" s="36"/>
       <c r="BE33" s="36"/>
@@ -14759,7 +14740,7 @@
       <c r="BA34" s="36"/>
       <c r="BB34" s="36"/>
       <c r="BC34" s="36" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="BD34" s="36"/>
       <c r="BE34" s="36"/>
@@ -14858,7 +14839,7 @@
       <c r="BA35" s="36"/>
       <c r="BB35" s="36"/>
       <c r="BC35" s="36" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="BD35" s="36"/>
       <c r="BE35" s="36"/>
@@ -14957,7 +14938,7 @@
       <c r="BA36" s="36"/>
       <c r="BB36" s="36"/>
       <c r="BC36" s="36" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="BD36" s="36"/>
       <c r="BE36" s="36"/>
@@ -15066,7 +15047,7 @@
       <c r="BA37" s="36"/>
       <c r="BB37" s="36"/>
       <c r="BC37" s="36" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="BD37" s="36"/>
       <c r="BE37" s="36"/>
@@ -15159,7 +15140,7 @@
       <c r="BA38" s="36"/>
       <c r="BB38" s="36"/>
       <c r="BC38" s="36" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="BD38" s="36"/>
       <c r="BE38" s="36"/>
@@ -15250,7 +15231,7 @@
       <c r="BA39" s="36"/>
       <c r="BB39" s="36"/>
       <c r="BC39" s="36" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="BD39" s="36"/>
       <c r="BE39" s="36"/>
@@ -15343,7 +15324,7 @@
       <c r="BA40" s="36"/>
       <c r="BB40" s="36"/>
       <c r="BC40" s="36" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="BD40" s="36"/>
       <c r="BE40" s="36"/>
@@ -15436,7 +15417,7 @@
       <c r="BA41" s="36"/>
       <c r="BB41" s="36"/>
       <c r="BC41" s="36" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="BD41" s="36"/>
       <c r="BE41" s="36"/>
@@ -15529,7 +15510,7 @@
       <c r="BA42" s="36"/>
       <c r="BB42" s="36"/>
       <c r="BC42" s="36" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="BD42" s="36"/>
       <c r="BE42" s="36"/>
@@ -15965,11 +15946,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="4" customFormat="1">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
       <c r="D1" s="27" t="s">
         <v>360</v>
       </c>
@@ -16009,11 +15990,11 @@
       <c r="AM1" s="64"/>
     </row>
     <row r="2" spans="1:40" s="4" customFormat="1">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
       <c r="D2" s="55" t="s">
         <v>350</v>
       </c>
@@ -18853,11 +18834,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
       <c r="D1" s="27" t="s">
         <v>373</v>
       </c>
@@ -18867,11 +18848,11 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
       <c r="D2" s="55" t="s">
         <v>374</v>
       </c>
@@ -19170,11 +19151,11 @@
   <sheetPr codeName="工作表7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AV22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="AA7" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="6" topLeftCell="AF7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AP16" sqref="AP16"/>
+      <selection pane="bottomRight" activeCell="AL5" sqref="AL5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19219,11 +19200,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
       <c r="D1" s="131" t="s">
         <v>764</v>
       </c>
@@ -19232,11 +19213,11 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:48">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
       <c r="D2" s="131" t="s">
         <v>765</v>
       </c>
@@ -19375,10 +19356,10 @@
         <v>58</v>
       </c>
       <c r="AO4" s="128" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AP4" s="128" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="AQ4" s="128" t="s">
         <v>59</v>
@@ -19486,10 +19467,10 @@
         <v>778</v>
       </c>
       <c r="AD5" s="49" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AE5" s="49" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AF5" s="49" t="s">
         <v>272</v>
@@ -19510,7 +19491,7 @@
         <v>83</v>
       </c>
       <c r="AL5" s="49" t="s">
-        <v>84</v>
+        <v>930</v>
       </c>
       <c r="AM5" s="49" t="s">
         <v>780</v>
@@ -19519,10 +19500,10 @@
         <v>782</v>
       </c>
       <c r="AO5" s="49" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AP5" s="49" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AQ5" s="49" t="s">
         <v>85</v>
@@ -19747,19 +19728,19 @@
       <c r="T7" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="U7" s="164" t="s">
+      <c r="U7" s="159" t="s">
         <v>304</v>
       </c>
-      <c r="V7" s="164" t="s">
+      <c r="V7" s="159" t="s">
         <v>304</v>
       </c>
-      <c r="W7" s="165" t="s">
+      <c r="W7" s="160" t="s">
         <v>555</v>
       </c>
-      <c r="X7" s="162" t="s">
+      <c r="X7" s="157" t="s">
         <v>133</v>
       </c>
-      <c r="Y7" s="162" t="s">
+      <c r="Y7" s="157" t="s">
         <v>133</v>
       </c>
       <c r="Z7" s="84" t="s">
@@ -19860,19 +19841,19 @@
       <c r="T8" s="134">
         <v>6</v>
       </c>
-      <c r="U8" s="164">
+      <c r="U8" s="159">
         <v>86</v>
       </c>
-      <c r="V8" s="164">
+      <c r="V8" s="159">
         <v>86</v>
       </c>
-      <c r="W8" s="165" t="s">
+      <c r="W8" s="160" t="s">
         <v>555</v>
       </c>
-      <c r="X8" s="162" t="s">
+      <c r="X8" s="157" t="s">
         <v>306</v>
       </c>
-      <c r="Y8" s="162" t="s">
+      <c r="Y8" s="157" t="s">
         <v>306</v>
       </c>
       <c r="Z8" s="84" t="s">
@@ -19973,22 +19954,22 @@
       <c r="T9" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="U9" s="164">
+      <c r="U9" s="159">
         <f>22*2</f>
         <v>44</v>
       </c>
-      <c r="V9" s="164">
+      <c r="V9" s="159">
         <f>22*2</f>
         <v>44</v>
       </c>
-      <c r="W9" s="165" t="s">
+      <c r="W9" s="160" t="s">
         <v>555</v>
       </c>
-      <c r="X9" s="162">
+      <c r="X9" s="157">
         <f>90*1.5</f>
         <v>135</v>
       </c>
-      <c r="Y9" s="162">
+      <c r="Y9" s="157">
         <f>90*1.5</f>
         <v>135</v>
       </c>
@@ -20015,10 +19996,10 @@
       <c r="AL9" s="40"/>
       <c r="AM9" s="40"/>
       <c r="AN9" s="21" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AO9" s="21" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AP9" s="21"/>
       <c r="AQ9" s="40" t="s">
@@ -20090,15 +20071,15 @@
       <c r="T10" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="U10" s="164"/>
-      <c r="V10" s="164"/>
-      <c r="W10" s="165" t="s">
+      <c r="U10" s="159"/>
+      <c r="V10" s="159"/>
+      <c r="W10" s="160" t="s">
         <v>555</v>
       </c>
-      <c r="X10" s="162">
+      <c r="X10" s="157">
         <v>13</v>
       </c>
-      <c r="Y10" s="162">
+      <c r="Y10" s="157">
         <v>13</v>
       </c>
       <c r="Z10" s="84" t="s">
@@ -20124,7 +20105,7 @@
       <c r="AN10" s="40"/>
       <c r="AO10" s="40"/>
       <c r="AP10" s="40" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AQ10" s="40" t="s">
         <v>121</v>
@@ -20195,19 +20176,19 @@
       <c r="T11" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="U11" s="164" t="s">
+      <c r="U11" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="V11" s="164" t="s">
+      <c r="V11" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="W11" s="165" t="s">
+      <c r="W11" s="160" t="s">
         <v>555</v>
       </c>
-      <c r="X11" s="162" t="s">
+      <c r="X11" s="157" t="s">
         <v>120</v>
       </c>
-      <c r="Y11" s="162" t="s">
+      <c r="Y11" s="157" t="s">
         <v>120</v>
       </c>
       <c r="Z11" s="84" t="s">
@@ -20235,11 +20216,11 @@
       <c r="AL11" s="40"/>
       <c r="AM11" s="40"/>
       <c r="AN11" s="43" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AO11" s="43"/>
       <c r="AP11" s="43" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AQ11" s="40" t="s">
         <v>96</v>
@@ -20316,19 +20297,19 @@
       <c r="T12" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="U12" s="164">
+      <c r="U12" s="159">
         <v>11</v>
       </c>
-      <c r="V12" s="164">
+      <c r="V12" s="159">
         <v>11</v>
       </c>
-      <c r="W12" s="165" t="s">
+      <c r="W12" s="160" t="s">
         <v>555</v>
       </c>
-      <c r="X12" s="162" t="s">
+      <c r="X12" s="157" t="s">
         <v>125</v>
       </c>
-      <c r="Y12" s="162" t="s">
+      <c r="Y12" s="157" t="s">
         <v>125</v>
       </c>
       <c r="Z12" s="84" t="s">
@@ -20362,11 +20343,11 @@
       <c r="AL12" s="40"/>
       <c r="AM12" s="40"/>
       <c r="AN12" s="40" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AO12" s="40"/>
       <c r="AP12" s="40" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AQ12" s="40" t="s">
         <v>96</v>
@@ -20439,19 +20420,19 @@
       <c r="T13" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="U13" s="164">
+      <c r="U13" s="159">
         <v>14</v>
       </c>
-      <c r="V13" s="164">
+      <c r="V13" s="159">
         <v>14</v>
       </c>
-      <c r="W13" s="165" t="s">
+      <c r="W13" s="160" t="s">
         <v>555</v>
       </c>
-      <c r="X13" s="162" t="s">
+      <c r="X13" s="157" t="s">
         <v>143</v>
       </c>
-      <c r="Y13" s="162" t="s">
+      <c r="Y13" s="157" t="s">
         <v>143</v>
       </c>
       <c r="Z13" s="84" t="s">
@@ -20481,11 +20462,11 @@
       <c r="AL13" s="40"/>
       <c r="AM13" s="40"/>
       <c r="AN13" s="43" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AO13" s="43"/>
       <c r="AP13" s="43" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AQ13" s="40" t="s">
         <v>121</v>
@@ -20562,22 +20543,22 @@
       <c r="T14" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="U14" s="166">
+      <c r="U14" s="161">
         <f>120</f>
         <v>120</v>
       </c>
-      <c r="V14" s="166">
+      <c r="V14" s="161">
         <f>120</f>
         <v>120</v>
       </c>
-      <c r="W14" s="165" t="s">
+      <c r="W14" s="160" t="s">
         <v>555</v>
       </c>
-      <c r="X14" s="162">
+      <c r="X14" s="157">
         <f>20*10</f>
         <v>200</v>
       </c>
-      <c r="Y14" s="162">
+      <c r="Y14" s="157">
         <f>20*10</f>
         <v>200</v>
       </c>
@@ -20612,11 +20593,11 @@
       </c>
       <c r="AM14" s="40"/>
       <c r="AN14" s="21" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AO14" s="21"/>
       <c r="AP14" s="21" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AQ14" s="40" t="s">
         <v>96</v>
@@ -20691,21 +20672,21 @@
       <c r="T15" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="U15" s="164">
+      <c r="U15" s="159">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="V15" s="164">
+      <c r="V15" s="159">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="W15" s="165" t="s">
+      <c r="W15" s="160" t="s">
         <v>555</v>
       </c>
-      <c r="X15" s="162" t="s">
+      <c r="X15" s="157" t="s">
         <v>135</v>
       </c>
-      <c r="Y15" s="162" t="s">
+      <c r="Y15" s="157" t="s">
         <v>135</v>
       </c>
       <c r="Z15" s="84" t="s">
@@ -20741,11 +20722,11 @@
       </c>
       <c r="AM15" s="40"/>
       <c r="AN15" s="21" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AO15" s="21"/>
       <c r="AP15" s="21" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AQ15" s="40" t="s">
         <v>96</v>
@@ -20818,19 +20799,19 @@
       <c r="T16" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="U16" s="164" t="s">
+      <c r="U16" s="159" t="s">
         <v>134</v>
       </c>
-      <c r="V16" s="164" t="s">
+      <c r="V16" s="159" t="s">
         <v>134</v>
       </c>
-      <c r="W16" s="165" t="s">
+      <c r="W16" s="160" t="s">
         <v>555</v>
       </c>
-      <c r="X16" s="162" t="s">
+      <c r="X16" s="157" t="s">
         <v>195</v>
       </c>
-      <c r="Y16" s="162" t="s">
+      <c r="Y16" s="157" t="s">
         <v>195</v>
       </c>
       <c r="Z16" s="84" t="s">
@@ -20860,11 +20841,11 @@
       </c>
       <c r="AM16" s="40"/>
       <c r="AN16" s="44" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AO16" s="44"/>
       <c r="AP16" s="44" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AQ16" s="40" t="s">
         <v>121</v>
@@ -20893,7 +20874,7 @@
         <v>308</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E17" s="45"/>
       <c r="F17" s="45">
@@ -20925,19 +20906,19 @@
       <c r="R17" s="45"/>
       <c r="S17" s="45"/>
       <c r="T17" s="45"/>
-      <c r="U17" s="167" t="s">
+      <c r="U17" s="162" t="s">
         <v>99</v>
       </c>
-      <c r="V17" s="167" t="s">
+      <c r="V17" s="162" t="s">
         <v>99</v>
       </c>
-      <c r="W17" s="165" t="s">
+      <c r="W17" s="160" t="s">
         <v>555</v>
       </c>
-      <c r="X17" s="163" t="s">
+      <c r="X17" s="158" t="s">
         <v>124</v>
       </c>
-      <c r="Y17" s="163" t="s">
+      <c r="Y17" s="158" t="s">
         <v>124</v>
       </c>
       <c r="Z17" s="84" t="s">
@@ -20963,10 +20944,10 @@
       <c r="AL17" s="45"/>
       <c r="AM17" s="45"/>
       <c r="AN17" s="45" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AO17" s="45" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AP17" s="45"/>
       <c r="AQ17" s="45" t="s">
@@ -20994,7 +20975,7 @@
         <v>313</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E18" s="45"/>
       <c r="F18" s="45">
@@ -21026,19 +21007,19 @@
       <c r="R18" s="45"/>
       <c r="S18" s="45"/>
       <c r="T18" s="45"/>
-      <c r="U18" s="167" t="s">
+      <c r="U18" s="162" t="s">
         <v>135</v>
       </c>
-      <c r="V18" s="167" t="s">
+      <c r="V18" s="162" t="s">
         <v>135</v>
       </c>
-      <c r="W18" s="165" t="s">
+      <c r="W18" s="160" t="s">
         <v>555</v>
       </c>
-      <c r="X18" s="163">
+      <c r="X18" s="158">
         <v>100</v>
       </c>
-      <c r="Y18" s="163">
+      <c r="Y18" s="158">
         <v>100</v>
       </c>
       <c r="Z18" s="84" t="s">
@@ -21064,7 +21045,7 @@
       <c r="AL18" s="45"/>
       <c r="AM18" s="45"/>
       <c r="AN18" s="45" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AO18" s="45"/>
       <c r="AP18" s="45"/>
@@ -21093,7 +21074,7 @@
         <v>317</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E19" s="45"/>
       <c r="F19" s="45">
@@ -21125,19 +21106,19 @@
       <c r="R19" s="45"/>
       <c r="S19" s="45"/>
       <c r="T19" s="45"/>
-      <c r="U19" s="167" t="s">
+      <c r="U19" s="162" t="s">
         <v>126</v>
       </c>
-      <c r="V19" s="167" t="s">
+      <c r="V19" s="162" t="s">
         <v>126</v>
       </c>
-      <c r="W19" s="165" t="s">
+      <c r="W19" s="160" t="s">
         <v>555</v>
       </c>
-      <c r="X19" s="163" t="s">
+      <c r="X19" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="Y19" s="163" t="s">
+      <c r="Y19" s="158" t="s">
         <v>147</v>
       </c>
       <c r="Z19" s="84" t="s">
@@ -21169,7 +21150,7 @@
       <c r="AL19" s="45"/>
       <c r="AM19" s="45"/>
       <c r="AN19" s="45" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AO19" s="45"/>
       <c r="AP19" s="45"/>
@@ -21200,7 +21181,7 @@
         <v>321</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E20" s="45"/>
       <c r="F20" s="45">
@@ -21232,19 +21213,19 @@
       <c r="R20" s="45"/>
       <c r="S20" s="45"/>
       <c r="T20" s="45"/>
-      <c r="U20" s="167" t="s">
+      <c r="U20" s="162" t="s">
         <v>323</v>
       </c>
-      <c r="V20" s="167" t="s">
+      <c r="V20" s="162" t="s">
         <v>323</v>
       </c>
-      <c r="W20" s="165" t="s">
+      <c r="W20" s="160" t="s">
         <v>555</v>
       </c>
-      <c r="X20" s="163" t="s">
+      <c r="X20" s="158" t="s">
         <v>116</v>
       </c>
-      <c r="Y20" s="163" t="s">
+      <c r="Y20" s="158" t="s">
         <v>116</v>
       </c>
       <c r="Z20" s="84" t="s">
@@ -21274,7 +21255,7 @@
       </c>
       <c r="AM20" s="45"/>
       <c r="AN20" s="45" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AO20" s="45"/>
       <c r="AP20" s="45"/>
@@ -21305,7 +21286,7 @@
         <v>327</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E21" s="45"/>
       <c r="F21" s="45">
@@ -21337,19 +21318,19 @@
       <c r="R21" s="45"/>
       <c r="S21" s="45"/>
       <c r="T21" s="45"/>
-      <c r="U21" s="167" t="s">
+      <c r="U21" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="V21" s="167" t="s">
+      <c r="V21" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="W21" s="165" t="s">
+      <c r="W21" s="160" t="s">
         <v>555</v>
       </c>
-      <c r="X21" s="163" t="s">
+      <c r="X21" s="158" t="s">
         <v>289</v>
       </c>
-      <c r="Y21" s="163" t="s">
+      <c r="Y21" s="158" t="s">
         <v>289</v>
       </c>
       <c r="Z21" s="84" t="s">
@@ -21379,7 +21360,7 @@
       </c>
       <c r="AM21" s="45"/>
       <c r="AN21" s="45" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AO21" s="45"/>
       <c r="AP21" s="45"/>
@@ -21410,7 +21391,7 @@
         <v>774</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E22" s="45"/>
       <c r="F22" s="45">
@@ -21442,19 +21423,19 @@
       <c r="R22" s="45"/>
       <c r="S22" s="45"/>
       <c r="T22" s="45"/>
-      <c r="U22" s="167" t="s">
+      <c r="U22" s="162" t="s">
         <v>332</v>
       </c>
-      <c r="V22" s="167" t="s">
+      <c r="V22" s="162" t="s">
         <v>332</v>
       </c>
-      <c r="W22" s="165" t="s">
+      <c r="W22" s="160" t="s">
         <v>555</v>
       </c>
-      <c r="X22" s="163" t="s">
+      <c r="X22" s="158" t="s">
         <v>333</v>
       </c>
-      <c r="Y22" s="163" t="s">
+      <c r="Y22" s="158" t="s">
         <v>333</v>
       </c>
       <c r="Z22" s="84" t="s">
@@ -21486,7 +21467,7 @@
       <c r="AL22" s="45"/>
       <c r="AM22" s="45"/>
       <c r="AN22" s="45" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AO22" s="45"/>
       <c r="AP22" s="45"/>
@@ -21534,8 +21515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -21564,29 +21545,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="159" t="s">
-        <v>832</v>
-      </c>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="166" t="s">
+        <v>831</v>
+      </c>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
       <c r="G1" s="135"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="159" t="s">
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="166" t="s">
         <v>795</v>
       </c>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
       <c r="G2" s="135"/>
     </row>
     <row r="3" spans="1:21">
@@ -21604,58 +21585,58 @@
         <v>2</v>
       </c>
       <c r="C4" s="142" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D4" s="152" t="s">
+        <v>876</v>
+      </c>
+      <c r="E4" s="153" t="s">
         <v>877</v>
       </c>
-      <c r="E4" s="153" t="s">
+      <c r="F4" s="153" t="s">
         <v>878</v>
       </c>
-      <c r="F4" s="153" t="s">
+      <c r="G4" s="153" t="s">
+        <v>915</v>
+      </c>
+      <c r="H4" s="153" t="s">
+        <v>881</v>
+      </c>
+      <c r="I4" s="153" t="s">
         <v>879</v>
       </c>
-      <c r="G4" s="153" t="s">
-        <v>916</v>
-      </c>
-      <c r="H4" s="153" t="s">
+      <c r="J4" s="153" t="s">
+        <v>880</v>
+      </c>
+      <c r="K4" s="153" t="s">
         <v>882</v>
       </c>
-      <c r="I4" s="153" t="s">
-        <v>880</v>
-      </c>
-      <c r="J4" s="153" t="s">
-        <v>881</v>
-      </c>
-      <c r="K4" s="153" t="s">
+      <c r="L4" s="153" t="s">
         <v>883</v>
       </c>
-      <c r="L4" s="153" t="s">
+      <c r="M4" s="153" t="s">
         <v>884</v>
       </c>
-      <c r="M4" s="153" t="s">
+      <c r="N4" s="153" t="s">
         <v>885</v>
       </c>
-      <c r="N4" s="153" t="s">
+      <c r="O4" s="153" t="s">
         <v>886</v>
       </c>
-      <c r="O4" s="153" t="s">
+      <c r="P4" s="153" t="s">
         <v>887</v>
       </c>
-      <c r="P4" s="153" t="s">
+      <c r="Q4" s="153" t="s">
         <v>888</v>
       </c>
-      <c r="Q4" s="153" t="s">
+      <c r="R4" s="153" t="s">
         <v>889</v>
       </c>
-      <c r="R4" s="153" t="s">
+      <c r="S4" s="153" t="s">
         <v>890</v>
       </c>
-      <c r="S4" s="153" t="s">
+      <c r="T4" s="153" t="s">
         <v>891</v>
-      </c>
-      <c r="T4" s="153" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="141" customFormat="1" ht="46" customHeight="1">
@@ -21664,58 +21645,58 @@
         <v>2</v>
       </c>
       <c r="C5" s="144" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D5" s="154" t="s">
+        <v>892</v>
+      </c>
+      <c r="E5" s="154" t="s">
         <v>893</v>
       </c>
-      <c r="E5" s="154" t="s">
+      <c r="F5" s="154" t="s">
         <v>894</v>
-      </c>
-      <c r="F5" s="154" t="s">
-        <v>895</v>
       </c>
       <c r="G5" s="154" t="s">
         <v>796</v>
       </c>
       <c r="H5" s="154" t="s">
+        <v>897</v>
+      </c>
+      <c r="I5" s="154" t="s">
+        <v>895</v>
+      </c>
+      <c r="J5" s="154" t="s">
+        <v>896</v>
+      </c>
+      <c r="K5" s="154" t="s">
         <v>898</v>
       </c>
-      <c r="I5" s="154" t="s">
-        <v>896</v>
-      </c>
-      <c r="J5" s="154" t="s">
-        <v>897</v>
-      </c>
-      <c r="K5" s="154" t="s">
+      <c r="L5" s="154" t="s">
         <v>899</v>
       </c>
-      <c r="L5" s="154" t="s">
+      <c r="M5" s="154" t="s">
         <v>900</v>
       </c>
-      <c r="M5" s="154" t="s">
+      <c r="N5" s="154" t="s">
         <v>901</v>
       </c>
-      <c r="N5" s="154" t="s">
+      <c r="O5" s="154" t="s">
         <v>902</v>
       </c>
-      <c r="O5" s="154" t="s">
+      <c r="P5" s="154" t="s">
         <v>903</v>
       </c>
-      <c r="P5" s="154" t="s">
+      <c r="Q5" s="154" t="s">
         <v>904</v>
       </c>
-      <c r="Q5" s="154" t="s">
+      <c r="R5" s="154" t="s">
+        <v>916</v>
+      </c>
+      <c r="S5" s="154" t="s">
         <v>905</v>
       </c>
-      <c r="R5" s="154" t="s">
-        <v>917</v>
-      </c>
-      <c r="S5" s="154" t="s">
+      <c r="T5" s="154" t="s">
         <v>906</v>
-      </c>
-      <c r="T5" s="154" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="141" customFormat="1" ht="21" customHeight="1">
@@ -21789,14 +21770,14 @@
         <v>799</v>
       </c>
       <c r="D7" s="137" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E7" s="137" t="s">
-        <v>94</v>
+        <v>924</v>
       </c>
       <c r="F7" s="151"/>
       <c r="G7" s="137" t="s">
-        <v>800</v>
+        <v>926</v>
       </c>
       <c r="H7" s="151"/>
       <c r="I7" s="151"/>
@@ -21810,7 +21791,7 @@
       <c r="O7" s="151"/>
       <c r="P7" s="151"/>
       <c r="Q7" s="137" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="R7" s="138"/>
       <c r="S7" s="151"/>
@@ -21830,14 +21811,14 @@
         <v>804</v>
       </c>
       <c r="D8" s="137" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E8" s="137" t="s">
-        <v>111</v>
+        <v>931</v>
       </c>
       <c r="F8" s="151"/>
       <c r="G8" s="137" t="s">
-        <v>800</v>
+        <v>927</v>
       </c>
       <c r="H8" s="151"/>
       <c r="I8" s="151"/>
@@ -21854,7 +21835,9 @@
         <v>805</v>
       </c>
       <c r="R8" s="138"/>
-      <c r="S8" s="151"/>
+      <c r="S8" s="156" t="s">
+        <v>929</v>
+      </c>
       <c r="T8" s="151"/>
       <c r="U8" s="136" t="s">
         <v>803</v>
@@ -21871,10 +21854,10 @@
         <v>200</v>
       </c>
       <c r="D9" s="137" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E9" s="137" t="s">
-        <v>94</v>
+        <v>924</v>
       </c>
       <c r="F9" s="151"/>
       <c r="G9" s="137" t="s">
@@ -21912,10 +21895,10 @@
         <v>812</v>
       </c>
       <c r="D10" s="137" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E10" s="137" t="s">
-        <v>95</v>
+        <v>925</v>
       </c>
       <c r="F10" s="151"/>
       <c r="G10" s="137" t="s">
@@ -21953,10 +21936,10 @@
         <v>812</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E11" s="137" t="s">
-        <v>95</v>
+        <v>925</v>
       </c>
       <c r="F11" s="151"/>
       <c r="G11" s="137" t="s">
@@ -21992,7 +21975,7 @@
       </c>
       <c r="C12" s="137"/>
       <c r="D12" s="137" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E12" s="137"/>
       <c r="F12" s="151"/>
@@ -22013,7 +21996,7 @@
       <c r="S12" s="151"/>
       <c r="T12" s="151"/>
       <c r="U12" s="136" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -22027,10 +22010,10 @@
         <v>820</v>
       </c>
       <c r="D13" s="137" t="s">
-        <v>876</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>94</v>
+        <v>875</v>
+      </c>
+      <c r="E13" s="137" t="s">
+        <v>924</v>
       </c>
       <c r="F13" s="151"/>
       <c r="G13" s="39" t="s">
@@ -22068,14 +22051,14 @@
         <v>812</v>
       </c>
       <c r="D14" s="137" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E14" s="137" t="s">
-        <v>94</v>
+        <v>924</v>
       </c>
       <c r="F14" s="151"/>
       <c r="G14" s="137" t="s">
-        <v>823</v>
+        <v>928</v>
       </c>
       <c r="H14" s="151"/>
       <c r="I14" s="151"/>
@@ -22100,16 +22083,16 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="148" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>115</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D15" s="137" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E15" s="137"/>
       <c r="F15" s="151"/>
@@ -22137,13 +22120,13 @@
         <v>99</v>
       </c>
       <c r="C16" s="137" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D16" s="137" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E16" s="137" t="s">
-        <v>94</v>
+        <v>924</v>
       </c>
       <c r="F16" s="151"/>
       <c r="G16" s="137" t="s">
@@ -22163,14 +22146,14 @@
       <c r="Q16" s="137"/>
       <c r="R16" s="138"/>
       <c r="S16" s="151"/>
-      <c r="T16" s="161" t="s">
-        <v>910</v>
+      <c r="T16" s="156" t="s">
+        <v>909</v>
       </c>
       <c r="U16" s="140"/>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="149" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B17" s="137" t="s">
         <v>137</v>
@@ -22179,7 +22162,7 @@
         <v>804</v>
       </c>
       <c r="D17" s="137" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E17" s="137" t="s">
         <v>152</v>
@@ -22200,7 +22183,7 @@
       <c r="O17" s="151"/>
       <c r="P17" s="151"/>
       <c r="Q17" s="137" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="R17" s="138"/>
       <c r="S17" s="151"/>
@@ -22209,16 +22192,16 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="149" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B18" s="137" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C18" s="137" t="s">
         <v>804</v>
       </c>
       <c r="D18" s="137" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E18" s="137" t="s">
         <v>152</v>
@@ -22239,7 +22222,7 @@
       <c r="O18" s="151"/>
       <c r="P18" s="151"/>
       <c r="Q18" s="137" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="R18" s="138"/>
       <c r="S18" s="151"/>
@@ -22298,11 +22281,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
@@ -22320,11 +22303,11 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
       <c r="D2" s="1" t="s">
         <v>28</v>
       </c>

--- a/Assets/island/DBCfg/DataCfg.xlsx
+++ b/Assets/island/DBCfg/DataCfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24560" windowHeight="15600" tabRatio="827" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24560" windowHeight="15600" tabRatio="827" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="配置表cfg" sheetId="1" r:id="rId1"/>
@@ -3082,10 +3082,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DamageMin</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3884,11 +3880,373 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>lightning_amb_02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lightning_amb_02</t>
+    <t>Bullets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectEffect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect_oil_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect_coins_01</t>
+  </si>
+  <si>
+    <t>AttackSound</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pickup_troop_housing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pickup_building_tech</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pickup_alliance_build</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pickup_tree</t>
+  </si>
+  <si>
+    <t>pichup_comm</t>
+  </si>
+  <si>
+    <t>pickup_goldmine</t>
+  </si>
+  <si>
+    <t>pickup_oil_pump</t>
+  </si>
+  <si>
+    <t>pickup_storage</t>
+  </si>
+  <si>
+    <t>pickup_cannon</t>
+  </si>
+  <si>
+    <t>pickup_rock</t>
+  </si>
+  <si>
+    <t>pickup_bow</t>
+  </si>
+  <si>
+    <t>pickup_cannon2</t>
+  </si>
+  <si>
+    <t>pickup_mortar</t>
+  </si>
+  <si>
+    <t>pickup_tesla</t>
+  </si>
+  <si>
+    <t>SelectedEffect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要地块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DontNeedFloor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>射程</t>
+  </si>
+  <si>
+    <t>高度</t>
+  </si>
+  <si>
+    <t>高度有随机偏移值</t>
+  </si>
+  <si>
+    <t>波及半径</t>
+  </si>
+  <si>
+    <t>速度随机因子(百分比)</t>
+  </si>
+  <si>
+    <t>目标位置随机因子(百分比)</t>
+  </si>
+  <si>
+    <t>是否跟踪弹</t>
+  </si>
+  <si>
+    <t>是否穿心弹</t>
+  </si>
+  <si>
+    <t>是否需要根据轨迹旋转</t>
+  </si>
+  <si>
+    <t>是否判断碰撞触发器</t>
+  </si>
+  <si>
+    <t>击中效果处理</t>
+  </si>
+  <si>
+    <t>击中特效</t>
+  </si>
+  <si>
+    <t>击中音效</t>
+  </si>
+  <si>
+    <t>击中震屏</t>
+  </si>
+  <si>
+    <t>实际上是个特效</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>IsHighOffset</t>
+  </si>
+  <si>
+    <t>MaxStayTime</t>
+  </si>
+  <si>
+    <t>SpreadRadius</t>
+  </si>
+  <si>
+    <t>SpeedRandomFactor</t>
+  </si>
+  <si>
+    <t>PosRandomFactor</t>
+  </si>
+  <si>
+    <t>IsFollow</t>
+  </si>
+  <si>
+    <t>IsMulHit</t>
+  </si>
+  <si>
+    <t>NeedRotate</t>
+  </si>
+  <si>
+    <t>CheckTrigger</t>
+  </si>
+  <si>
+    <t>HitHandle</t>
+  </si>
+  <si>
+    <t>HitEffect</t>
+  </si>
+  <si>
+    <t>IsScreenShake</t>
+  </si>
+  <si>
+    <t>IsOnlyAEffect</t>
+  </si>
+  <si>
+    <t>collect_Food</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnHitCannonball</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireRange2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SolderNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreferedTargetType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitSFX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡音效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeadSound</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sailor_die</t>
+  </si>
+  <si>
+    <t>dragon_die_01</t>
+  </si>
+  <si>
+    <t>死亡特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeadEffect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BombShip</t>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageAffectRang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageAffectRang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击波及范围半径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击波及范围半径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageMin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mortar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时刷新目标的毫秒时间（0是不刷新）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefreshTargetMSec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightningBolt</t>
+  </si>
+  <si>
+    <t>Thunderbolt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间(秒*10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightningBolt2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击特效</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3896,370 +4254,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Bullets</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击特殊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CollectEffect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>collect_oil_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>collect_coins_01</t>
-  </si>
-  <si>
-    <t>AttackSound</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pickup_troop_housing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pickup_building_tech</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pickup_alliance_build</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pickup_tree</t>
-  </si>
-  <si>
-    <t>pichup_comm</t>
-  </si>
-  <si>
-    <t>pickup_goldmine</t>
-  </si>
-  <si>
-    <t>pickup_oil_pump</t>
-  </si>
-  <si>
-    <t>pickup_storage</t>
-  </si>
-  <si>
-    <t>pickup_cannon</t>
-  </si>
-  <si>
-    <t>pickup_rock</t>
-  </si>
-  <si>
-    <t>pickup_bow</t>
-  </si>
-  <si>
-    <t>pickup_cannon2</t>
-  </si>
-  <si>
-    <t>pickup_mortar</t>
-  </si>
-  <si>
-    <t>pickup_tesla</t>
-  </si>
-  <si>
-    <t>SelectedEffect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不需要地块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DontNeedFloor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>射程</t>
-  </si>
-  <si>
-    <t>高度</t>
-  </si>
-  <si>
-    <t>高度有随机偏移值</t>
-  </si>
-  <si>
-    <t>波及半径</t>
-  </si>
-  <si>
-    <t>速度随机因子(百分比)</t>
-  </si>
-  <si>
-    <t>目标位置随机因子(百分比)</t>
-  </si>
-  <si>
-    <t>是否跟踪弹</t>
-  </si>
-  <si>
-    <t>是否穿心弹</t>
-  </si>
-  <si>
-    <t>是否需要根据轨迹旋转</t>
-  </si>
-  <si>
-    <t>是否判断碰撞触发器</t>
-  </si>
-  <si>
-    <t>击中效果处理</t>
-  </si>
-  <si>
-    <t>击中特效</t>
-  </si>
-  <si>
-    <t>击中音效</t>
-  </si>
-  <si>
-    <t>击中震屏</t>
-  </si>
-  <si>
-    <t>实际上是个特效</t>
-  </si>
-  <si>
-    <t>Range</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>IsHighOffset</t>
-  </si>
-  <si>
-    <t>MaxStayTime</t>
-  </si>
-  <si>
-    <t>SpreadRadius</t>
-  </si>
-  <si>
-    <t>SpeedRandomFactor</t>
-  </si>
-  <si>
-    <t>PosRandomFactor</t>
-  </si>
-  <si>
-    <t>IsFollow</t>
-  </si>
-  <si>
-    <t>IsMulHit</t>
-  </si>
-  <si>
-    <t>NeedRotate</t>
-  </si>
-  <si>
-    <t>CheckTrigger</t>
-  </si>
-  <si>
-    <t>HitHandle</t>
-  </si>
-  <si>
-    <t>HitEffect</t>
-  </si>
-  <si>
-    <t>IsScreenShake</t>
-  </si>
-  <si>
-    <t>IsOnlyAEffect</t>
-  </si>
-  <si>
-    <t>collect_Food</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnHitCannonball</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireRange2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>103</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SolderNum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PreferedTargetType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HitSFX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡音效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeadSound</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sailor_die</t>
-  </si>
-  <si>
-    <t>dragon_die_01</t>
-  </si>
-  <si>
-    <t>死亡特效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeadEffect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BombShip</t>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>35</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>45</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>45</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageAffectRang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageAffectRang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击波及范围半径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击波及范围半径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageMin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mortar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>150</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时刷新目标的毫秒时间（0是不刷新）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefreshTargetMSec</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LightningBolt</t>
-  </si>
-  <si>
-    <t>Thunderbolt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续时间(秒*10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LightningBolt2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>BombLandmine</t>
+  </si>
+  <si>
+    <t>BombWaterMine</t>
   </si>
 </sst>
 </file>
@@ -10209,13 +10207,13 @@
         <v>403</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="8" customFormat="1" ht="15" customHeight="1">
@@ -10233,13 +10231,13 @@
         <v>404</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -10259,10 +10257,10 @@
         <v>5</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -10434,11 +10432,11 @@
   </sheetPr>
   <dimension ref="A1:BL45"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="Z11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="6" topLeftCell="AR18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AY25" sqref="AY25"/>
+      <selection pane="bottomRight" activeCell="BG28" sqref="BG28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10490,7 +10488,7 @@
     <col min="56" max="56" width="19.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="3" style="4" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="21.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="3" style="4" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="60" max="61" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="62" max="63" width="3" style="4" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="26.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -10559,13 +10557,13 @@
         <v>42</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="J4" s="28" t="s">
+        <v>721</v>
+      </c>
+      <c r="K4" s="28" t="s">
         <v>722</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>723</v>
       </c>
       <c r="L4" s="72" t="s">
         <v>517</v>
@@ -10664,16 +10662,16 @@
         <v>54</v>
       </c>
       <c r="AR4" s="116" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AS4" s="116" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AT4" s="116" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AU4" s="30" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="AV4" s="30" t="s">
         <v>46</v>
@@ -10709,7 +10707,7 @@
         <v>57</v>
       </c>
       <c r="BG4" s="30" t="s">
-        <v>843</v>
+        <v>941</v>
       </c>
       <c r="BH4" s="30" t="s">
         <v>58</v>
@@ -10738,7 +10736,7 @@
         <v>37</v>
       </c>
       <c r="E5" s="102" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>345</v>
@@ -10750,13 +10748,13 @@
         <v>69</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="J5" s="28" t="s">
+        <v>723</v>
+      </c>
+      <c r="K5" s="28" t="s">
         <v>724</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>725</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>519</v>
@@ -10768,7 +10766,7 @@
         <v>521</v>
       </c>
       <c r="O5" s="73" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P5" s="73" t="s">
         <v>525</v>
@@ -10855,16 +10853,16 @@
         <v>80</v>
       </c>
       <c r="AR5" s="116" t="s">
+        <v>641</v>
+      </c>
+      <c r="AS5" s="116" t="s">
         <v>642</v>
       </c>
-      <c r="AS5" s="116" t="s">
+      <c r="AT5" s="116" t="s">
         <v>643</v>
       </c>
-      <c r="AT5" s="116" t="s">
-        <v>644</v>
-      </c>
       <c r="AU5" s="49" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="AV5" s="28" t="s">
         <v>73</v>
@@ -10876,7 +10874,7 @@
         <v>75</v>
       </c>
       <c r="AY5" s="28" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="AZ5" s="109" t="s">
         <v>70</v>
@@ -10885,22 +10883,22 @@
         <v>81</v>
       </c>
       <c r="BB5" s="28" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="BC5" s="28" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="BD5" s="28" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="BE5" s="28" t="s">
         <v>76</v>
       </c>
       <c r="BF5" s="28" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="BG5" s="28" t="s">
-        <v>841</v>
+        <v>942</v>
       </c>
       <c r="BH5" s="28" t="s">
         <v>83</v>
@@ -11121,13 +11119,13 @@
         <v>91</v>
       </c>
       <c r="D7" s="104" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E7" s="103" t="s">
         <v>348</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>94</v>
@@ -11137,10 +11135,10 @@
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="35" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="L7" s="79">
         <v>0</v>
@@ -11150,7 +11148,7 @@
         <v>17280</v>
       </c>
       <c r="N7" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O7" s="76">
         <v>0</v>
@@ -11159,7 +11157,7 @@
         <v>553</v>
       </c>
       <c r="Q7" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R7" s="90">
         <v>0</v>
@@ -11168,7 +11166,7 @@
         <v>30000000</v>
       </c>
       <c r="T7" s="86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U7" s="88">
         <v>0</v>
@@ -11177,7 +11175,7 @@
         <v>30000000</v>
       </c>
       <c r="W7" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X7" s="81">
         <v>1500</v>
@@ -11221,7 +11219,7 @@
       <c r="BA7" s="35"/>
       <c r="BB7" s="35"/>
       <c r="BC7" s="31" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="BD7" s="31"/>
       <c r="BE7" s="35"/>
@@ -11263,10 +11261,10 @@
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="35" t="s">
+        <v>752</v>
+      </c>
+      <c r="K8" s="35" t="s">
         <v>753</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>754</v>
       </c>
       <c r="L8" s="79" t="s">
         <v>92</v>
@@ -11275,7 +11273,7 @@
         <v>5760</v>
       </c>
       <c r="N8" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O8" s="76" t="s">
         <v>117</v>
@@ -11284,7 +11282,7 @@
         <v>541</v>
       </c>
       <c r="Q8" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R8" s="90" t="s">
         <v>117</v>
@@ -11293,7 +11291,7 @@
         <v>541</v>
       </c>
       <c r="T8" s="86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U8" s="88" t="s">
         <v>117</v>
@@ -11302,7 +11300,7 @@
         <v>541</v>
       </c>
       <c r="W8" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X8" s="82">
         <v>250</v>
@@ -11338,10 +11336,10 @@
         <v>549</v>
       </c>
       <c r="AM8" s="114" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="AN8" s="114" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="AO8" s="115" t="s">
         <v>549</v>
@@ -11364,7 +11362,7 @@
       <c r="BA8" s="35"/>
       <c r="BB8" s="35"/>
       <c r="BC8" s="31" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="BD8" s="31"/>
       <c r="BE8" s="35"/>
@@ -11406,10 +11404,10 @@
       </c>
       <c r="I9" s="35"/>
       <c r="J9" s="35" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="L9" s="79">
         <v>1</v>
@@ -11418,7 +11416,7 @@
         <v>5760</v>
       </c>
       <c r="N9" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O9" s="76" t="s">
         <v>104</v>
@@ -11427,7 +11425,7 @@
         <v>541</v>
       </c>
       <c r="Q9" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R9" s="90" t="s">
         <v>104</v>
@@ -11436,7 +11434,7 @@
         <v>541</v>
       </c>
       <c r="T9" s="86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U9" s="88" t="s">
         <v>104</v>
@@ -11445,7 +11443,7 @@
         <v>541</v>
       </c>
       <c r="W9" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X9" s="81" t="s">
         <v>106</v>
@@ -11489,7 +11487,7 @@
       <c r="BA9" s="35"/>
       <c r="BB9" s="35"/>
       <c r="BC9" s="36" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="BD9" s="36"/>
       <c r="BE9" s="35"/>
@@ -11531,10 +11529,10 @@
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="L10" s="79">
         <v>1</v>
@@ -11543,7 +11541,7 @@
         <v>5760</v>
       </c>
       <c r="N10" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O10" s="76" t="s">
         <v>108</v>
@@ -11552,7 +11550,7 @@
         <v>541</v>
       </c>
       <c r="Q10" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R10" s="90" t="s">
         <v>108</v>
@@ -11561,7 +11559,7 @@
         <v>541</v>
       </c>
       <c r="T10" s="86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U10" s="88" t="s">
         <v>108</v>
@@ -11570,7 +11568,7 @@
         <v>541</v>
       </c>
       <c r="W10" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X10" s="82">
         <v>500</v>
@@ -11626,7 +11624,7 @@
       <c r="BA10" s="35"/>
       <c r="BB10" s="35"/>
       <c r="BC10" s="36" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="BD10" s="36"/>
       <c r="BE10" s="35"/>
@@ -11668,10 +11666,10 @@
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="35" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="L11" s="79">
         <v>1</v>
@@ -11680,7 +11678,7 @@
         <v>5760</v>
       </c>
       <c r="N11" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O11" s="76">
         <v>0</v>
@@ -11689,7 +11687,7 @@
         <v>541</v>
       </c>
       <c r="Q11" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R11" s="90">
         <v>0</v>
@@ -11698,7 +11696,7 @@
         <v>541</v>
       </c>
       <c r="T11" s="86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U11" s="88">
         <v>0</v>
@@ -11707,7 +11705,7 @@
         <v>541</v>
       </c>
       <c r="W11" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X11" s="82">
         <v>580</v>
@@ -11757,7 +11755,7 @@
       <c r="BA11" s="36"/>
       <c r="BB11" s="36"/>
       <c r="BC11" s="31" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="BD11" s="36"/>
       <c r="BE11" s="36"/>
@@ -11799,10 +11797,10 @@
       </c>
       <c r="I12" s="35"/>
       <c r="J12" s="35" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="L12" s="79">
         <v>1</v>
@@ -11811,7 +11809,7 @@
         <v>10080</v>
       </c>
       <c r="N12" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O12" s="76"/>
       <c r="P12" s="76"/>
@@ -11823,7 +11821,7 @@
         <v>540</v>
       </c>
       <c r="T12" s="86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U12" s="88" t="s">
         <v>133</v>
@@ -11832,7 +11830,7 @@
         <v>540</v>
       </c>
       <c r="W12" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X12" s="81">
         <v>400</v>
@@ -11882,10 +11880,10 @@
       <c r="BA12" s="35"/>
       <c r="BB12" s="35"/>
       <c r="BC12" s="36" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="BD12" s="37" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="BE12" s="35"/>
       <c r="BF12" s="35"/>
@@ -11926,10 +11924,10 @@
       </c>
       <c r="I13" s="35"/>
       <c r="J13" s="35" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L13" s="79">
         <v>1</v>
@@ -11938,7 +11936,7 @@
         <v>10080</v>
       </c>
       <c r="N13" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O13" s="76"/>
       <c r="P13" s="76"/>
@@ -11950,7 +11948,7 @@
         <v>540</v>
       </c>
       <c r="T13" s="86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U13" s="88" t="s">
         <v>141</v>
@@ -11959,7 +11957,7 @@
         <v>540</v>
       </c>
       <c r="W13" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X13" s="81" t="s">
         <v>114</v>
@@ -12007,7 +12005,7 @@
       <c r="BA13" s="35"/>
       <c r="BB13" s="35"/>
       <c r="BC13" s="31" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="BD13" s="33"/>
       <c r="BE13" s="35"/>
@@ -12049,10 +12047,10 @@
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="35" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="L14" s="79">
         <v>1</v>
@@ -12061,7 +12059,7 @@
         <v>10080</v>
       </c>
       <c r="N14" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O14" s="76" t="s">
         <v>133</v>
@@ -12070,7 +12068,7 @@
         <v>540</v>
       </c>
       <c r="Q14" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R14" s="90"/>
       <c r="S14" s="90"/>
@@ -12082,7 +12080,7 @@
         <v>540</v>
       </c>
       <c r="W14" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X14" s="81">
         <v>400</v>
@@ -12132,10 +12130,10 @@
       <c r="BA14" s="35"/>
       <c r="BB14" s="35"/>
       <c r="BC14" s="36" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="BD14" s="37" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="BE14" s="35"/>
       <c r="BF14" s="35"/>
@@ -12176,10 +12174,10 @@
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="35" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L15" s="79">
         <v>1</v>
@@ -12188,7 +12186,7 @@
         <v>10080</v>
       </c>
       <c r="N15" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O15" s="76" t="s">
         <v>141</v>
@@ -12197,7 +12195,7 @@
         <v>540</v>
       </c>
       <c r="Q15" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R15" s="90"/>
       <c r="S15" s="90"/>
@@ -12209,7 +12207,7 @@
         <v>540</v>
       </c>
       <c r="W15" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X15" s="81" t="s">
         <v>114</v>
@@ -12224,7 +12222,7 @@
         <v>615</v>
       </c>
       <c r="AB15" s="92" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AC15" s="93" t="s">
         <v>549</v>
@@ -12257,7 +12255,7 @@
       <c r="BA15" s="35"/>
       <c r="BB15" s="35"/>
       <c r="BC15" s="31" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="BD15" s="33"/>
       <c r="BE15" s="35"/>
@@ -12299,10 +12297,10 @@
       </c>
       <c r="I16" s="35"/>
       <c r="J16" s="35" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L16" s="79">
         <v>1</v>
@@ -12311,7 +12309,7 @@
         <v>10080</v>
       </c>
       <c r="N16" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O16" s="76">
         <v>150</v>
@@ -12320,7 +12318,7 @@
         <v>540</v>
       </c>
       <c r="Q16" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R16" s="90">
         <v>150</v>
@@ -12329,7 +12327,7 @@
         <v>540</v>
       </c>
       <c r="T16" s="86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U16" s="88"/>
       <c r="V16" s="88"/>
@@ -12382,10 +12380,10 @@
       <c r="BA16" s="35"/>
       <c r="BB16" s="35"/>
       <c r="BC16" s="31" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="BD16" s="33" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="BE16" s="35"/>
       <c r="BF16" s="35"/>
@@ -12426,10 +12424,10 @@
       </c>
       <c r="I17" s="35"/>
       <c r="J17" s="35" t="s">
+        <v>733</v>
+      </c>
+      <c r="K17" s="35" t="s">
         <v>734</v>
-      </c>
-      <c r="K17" s="35" t="s">
-        <v>735</v>
       </c>
       <c r="L17" s="79">
         <v>1</v>
@@ -12438,7 +12436,7 @@
         <v>10080</v>
       </c>
       <c r="N17" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O17" s="76" t="s">
         <v>141</v>
@@ -12447,7 +12445,7 @@
         <v>540</v>
       </c>
       <c r="Q17" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R17" s="90" t="s">
         <v>141</v>
@@ -12456,7 +12454,7 @@
         <v>540</v>
       </c>
       <c r="T17" s="86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U17" s="88"/>
       <c r="V17" s="88"/>
@@ -12507,7 +12505,7 @@
       <c r="BA17" s="35"/>
       <c r="BB17" s="35"/>
       <c r="BC17" s="31" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="BD17" s="33"/>
       <c r="BE17" s="35"/>
@@ -12549,10 +12547,10 @@
       </c>
       <c r="I18" s="35"/>
       <c r="J18" s="35" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L18" s="79">
         <f>60/60</f>
@@ -12562,7 +12560,7 @@
         <v>10080</v>
       </c>
       <c r="N18" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O18" s="76">
         <v>250</v>
@@ -12571,7 +12569,7 @@
         <v>555</v>
       </c>
       <c r="Q18" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R18" s="90">
         <v>250</v>
@@ -12580,7 +12578,7 @@
         <v>540</v>
       </c>
       <c r="T18" s="86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U18" s="88">
         <v>250</v>
@@ -12589,7 +12587,7 @@
         <v>540</v>
       </c>
       <c r="W18" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X18" s="81">
         <v>400</v>
@@ -12629,7 +12627,7 @@
         <v>7</v>
       </c>
       <c r="AS18" s="117" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AT18" s="118" t="s">
         <v>549</v>
@@ -12649,12 +12647,12 @@
       <c r="BA18" s="34"/>
       <c r="BB18" s="34"/>
       <c r="BC18" s="34" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="BD18" s="34"/>
       <c r="BE18" s="34"/>
       <c r="BF18" s="34" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="BG18" s="34"/>
       <c r="BH18" s="34" t="s">
@@ -12697,10 +12695,10 @@
       </c>
       <c r="I19" s="35"/>
       <c r="J19" s="35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="L19" s="79">
         <f t="shared" ref="L19:L31" si="1">60/60</f>
@@ -12710,7 +12708,7 @@
         <v>10080</v>
       </c>
       <c r="N19" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O19" s="76">
         <v>1000</v>
@@ -12719,7 +12717,7 @@
         <v>555</v>
       </c>
       <c r="Q19" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R19" s="90">
         <v>1000</v>
@@ -12728,7 +12726,7 @@
         <v>540</v>
       </c>
       <c r="T19" s="86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U19" s="88">
         <v>1000</v>
@@ -12737,7 +12735,7 @@
         <v>540</v>
       </c>
       <c r="W19" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X19" s="81">
         <v>400</v>
@@ -12777,7 +12775,7 @@
         <v>11</v>
       </c>
       <c r="AS19" s="117" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AT19" s="118" t="s">
         <v>549</v>
@@ -12797,12 +12795,12 @@
       <c r="BA19" s="32"/>
       <c r="BB19" s="32"/>
       <c r="BC19" s="36" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="BD19" s="36"/>
       <c r="BE19" s="32"/>
       <c r="BF19" s="36" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="BG19" s="36"/>
       <c r="BH19" s="35" t="s">
@@ -12845,10 +12843,10 @@
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="L20" s="79">
         <f t="shared" si="1"/>
@@ -12858,7 +12856,7 @@
         <v>10080</v>
       </c>
       <c r="N20" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O20" s="76" t="s">
         <v>162</v>
@@ -12867,7 +12865,7 @@
         <v>555</v>
       </c>
       <c r="Q20" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R20" s="90" t="s">
         <v>162</v>
@@ -12876,7 +12874,7 @@
         <v>540</v>
       </c>
       <c r="T20" s="86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U20" s="88" t="s">
         <v>162</v>
@@ -12885,7 +12883,7 @@
         <v>540</v>
       </c>
       <c r="W20" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X20" s="81">
         <v>400</v>
@@ -12918,22 +12916,22 @@
         <v>549</v>
       </c>
       <c r="AP20" s="35" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="AQ20" s="34" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AR20" s="117">
         <v>20</v>
       </c>
       <c r="AS20" s="117" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AT20" s="118" t="s">
         <v>577</v>
       </c>
       <c r="AU20" s="36" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="AV20" s="34"/>
       <c r="AW20" s="34"/>
@@ -12949,12 +12947,12 @@
       <c r="BA20" s="34"/>
       <c r="BB20" s="34"/>
       <c r="BC20" s="34" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="BD20" s="34"/>
       <c r="BE20" s="34"/>
       <c r="BF20" s="34" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="BG20" s="34"/>
       <c r="BH20" s="34" t="s">
@@ -12997,10 +12995,10 @@
       </c>
       <c r="I21" s="35"/>
       <c r="J21" s="35" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L21" s="79">
         <f t="shared" si="1"/>
@@ -13010,7 +13008,7 @@
         <v>10080</v>
       </c>
       <c r="N21" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O21" s="76">
         <v>22500</v>
@@ -13019,7 +13017,7 @@
         <v>555</v>
       </c>
       <c r="Q21" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R21" s="90">
         <v>22500</v>
@@ -13028,7 +13026,7 @@
         <v>540</v>
       </c>
       <c r="T21" s="86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U21" s="88">
         <v>22500</v>
@@ -13037,7 +13035,7 @@
         <v>540</v>
       </c>
       <c r="W21" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X21" s="81" t="s">
         <v>578</v>
@@ -13061,10 +13059,10 @@
       <c r="AK21" s="106"/>
       <c r="AL21" s="107"/>
       <c r="AM21" s="114" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="AN21" s="114" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="AO21" s="115" t="s">
         <v>549</v>
@@ -13077,7 +13075,7 @@
         <v>80</v>
       </c>
       <c r="AS21" s="117" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AT21" s="118" t="s">
         <v>577</v>
@@ -13089,7 +13087,7 @@
         <v>94</v>
       </c>
       <c r="AY21" s="32" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="AZ21" s="111" t="s">
         <v>620</v>
@@ -13097,12 +13095,12 @@
       <c r="BA21" s="32"/>
       <c r="BB21" s="32"/>
       <c r="BC21" s="36" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="BD21" s="36"/>
       <c r="BE21" s="32"/>
       <c r="BF21" s="36" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="BG21" s="36"/>
       <c r="BH21" s="32" t="s">
@@ -13126,7 +13124,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="D22" s="104" t="s">
         <v>391</v>
@@ -13145,10 +13143,10 @@
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="35" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L22" s="79">
         <f t="shared" si="1"/>
@@ -13158,7 +13156,7 @@
         <v>10080</v>
       </c>
       <c r="N22" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O22" s="77" t="s">
         <v>168</v>
@@ -13167,7 +13165,7 @@
         <v>555</v>
       </c>
       <c r="Q22" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R22" s="90" t="s">
         <v>168</v>
@@ -13176,7 +13174,7 @@
         <v>554</v>
       </c>
       <c r="T22" s="86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U22" s="88" t="s">
         <v>168</v>
@@ -13185,7 +13183,7 @@
         <v>554</v>
       </c>
       <c r="W22" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X22" s="82" t="s">
         <v>579</v>
@@ -13209,31 +13207,31 @@
       <c r="AK22" s="106"/>
       <c r="AL22" s="107"/>
       <c r="AM22" s="114" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="AN22" s="114" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="AO22" s="115" t="s">
         <v>549</v>
       </c>
       <c r="AP22" s="35" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AQ22" s="34" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="AR22" s="119" t="s">
         <v>169</v>
       </c>
       <c r="AS22" s="119" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AT22" s="118" t="s">
         <v>549</v>
       </c>
       <c r="AU22" s="36" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="AV22" s="34"/>
       <c r="AW22" s="34"/>
@@ -13241,7 +13239,7 @@
         <v>94</v>
       </c>
       <c r="AY22" s="34" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="AZ22" s="111" t="s">
         <v>620</v>
@@ -13249,12 +13247,12 @@
       <c r="BA22" s="34"/>
       <c r="BB22" s="34"/>
       <c r="BC22" s="34" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="BD22" s="34"/>
       <c r="BE22" s="34"/>
       <c r="BF22" s="36" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="BG22" s="36"/>
       <c r="BH22" s="34" t="s">
@@ -13278,7 +13276,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="D23" s="104" t="s">
         <v>179</v>
@@ -13297,10 +13295,10 @@
       </c>
       <c r="I23" s="35"/>
       <c r="J23" s="35" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L23" s="79">
         <f t="shared" si="1"/>
@@ -13310,7 +13308,7 @@
         <v>10080</v>
       </c>
       <c r="N23" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O23" s="76" t="s">
         <v>550</v>
@@ -13319,7 +13317,7 @@
         <v>556</v>
       </c>
       <c r="Q23" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R23" s="90" t="s">
         <v>550</v>
@@ -13328,7 +13326,7 @@
         <v>551</v>
       </c>
       <c r="T23" s="86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U23" s="88" t="s">
         <v>550</v>
@@ -13337,7 +13335,7 @@
         <v>551</v>
       </c>
       <c r="W23" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X23" s="81" t="s">
         <v>558</v>
@@ -13377,7 +13375,7 @@
         <v>20</v>
       </c>
       <c r="AS23" s="117" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AT23" s="118" t="s">
         <v>548</v>
@@ -13397,12 +13395,12 @@
       <c r="BA23" s="32"/>
       <c r="BB23" s="32"/>
       <c r="BC23" s="36" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="BD23" s="36"/>
       <c r="BE23" s="32"/>
       <c r="BF23" s="32" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="BG23" s="32"/>
       <c r="BH23" s="32" t="s">
@@ -13445,10 +13443,10 @@
       </c>
       <c r="I24" s="35"/>
       <c r="J24" s="35" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="L24" s="79">
         <f t="shared" si="1"/>
@@ -13459,7 +13457,7 @@
         <v>17280</v>
       </c>
       <c r="N24" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O24" s="76">
         <v>2500000</v>
@@ -13468,7 +13466,7 @@
         <v>551</v>
       </c>
       <c r="Q24" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R24" s="90">
         <v>2500000</v>
@@ -13477,7 +13475,7 @@
         <v>552</v>
       </c>
       <c r="T24" s="86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U24" s="88">
         <v>2500000</v>
@@ -13486,7 +13484,7 @@
         <v>552</v>
       </c>
       <c r="W24" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X24" s="81">
         <v>1500</v>
@@ -13522,13 +13520,13 @@
         <v>183</v>
       </c>
       <c r="AQ24" s="36" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="AR24" s="117" t="s">
         <v>177</v>
       </c>
       <c r="AS24" s="117" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="AT24" s="118" t="s">
         <v>570</v>
@@ -13548,12 +13546,12 @@
       <c r="BA24" s="36"/>
       <c r="BB24" s="36"/>
       <c r="BC24" s="31" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="BD24" s="36"/>
       <c r="BE24" s="36"/>
       <c r="BF24" s="36" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="BG24" s="36"/>
       <c r="BH24" s="32" t="s">
@@ -13598,10 +13596,10 @@
         <v>94</v>
       </c>
       <c r="J25" s="35" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="L25" s="79">
         <f t="shared" si="1"/>
@@ -13611,7 +13609,7 @@
         <v>10080</v>
       </c>
       <c r="N25" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O25" s="76" t="s">
         <v>188</v>
@@ -13620,7 +13618,7 @@
         <v>540</v>
       </c>
       <c r="Q25" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R25" s="90" t="s">
         <v>188</v>
@@ -13629,7 +13627,7 @@
         <v>540</v>
       </c>
       <c r="T25" s="86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U25" s="88" t="s">
         <v>188</v>
@@ -13638,7 +13636,7 @@
         <v>540</v>
       </c>
       <c r="W25" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X25" s="83"/>
       <c r="Y25" s="83"/>
@@ -13656,7 +13654,7 @@
         <v>124</v>
       </c>
       <c r="AK25" s="38" t="s">
-        <v>640</v>
+        <v>940</v>
       </c>
       <c r="AL25" s="107" t="s">
         <v>549</v>
@@ -13678,7 +13676,7 @@
         <v>190</v>
       </c>
       <c r="AS25" s="120" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AT25" s="118" t="s">
         <v>548</v>
@@ -13698,14 +13696,14 @@
       <c r="BA25" s="38"/>
       <c r="BB25" s="38"/>
       <c r="BC25" s="31" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="BD25" s="36"/>
       <c r="BE25" s="36"/>
-      <c r="BF25" s="36" t="s">
-        <v>839</v>
-      </c>
-      <c r="BG25" s="36"/>
+      <c r="BF25" s="36"/>
+      <c r="BG25" s="36" t="s">
+        <v>943</v>
+      </c>
       <c r="BH25" s="38" t="s">
         <v>119</v>
       </c>
@@ -13748,10 +13746,10 @@
         <v>94</v>
       </c>
       <c r="J26" s="35" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K26" s="35" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="L26" s="79">
         <f t="shared" si="1"/>
@@ -13761,7 +13759,7 @@
         <v>10080</v>
       </c>
       <c r="N26" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O26" s="76" t="s">
         <v>114</v>
@@ -13770,7 +13768,7 @@
         <v>540</v>
       </c>
       <c r="Q26" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R26" s="90" t="s">
         <v>114</v>
@@ -13779,7 +13777,7 @@
         <v>540</v>
       </c>
       <c r="T26" s="86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U26" s="88" t="s">
         <v>114</v>
@@ -13788,7 +13786,7 @@
         <v>540</v>
       </c>
       <c r="W26" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X26" s="83"/>
       <c r="Y26" s="83"/>
@@ -13828,7 +13826,7 @@
         <v>124</v>
       </c>
       <c r="AS26" s="120" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AT26" s="118" t="s">
         <v>577</v>
@@ -13848,13 +13846,11 @@
       <c r="BA26" s="36"/>
       <c r="BB26" s="36"/>
       <c r="BC26" s="31" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="BD26" s="36"/>
       <c r="BE26" s="36"/>
-      <c r="BF26" s="36" t="s">
-        <v>840</v>
-      </c>
+      <c r="BF26" s="36"/>
       <c r="BG26" s="36"/>
       <c r="BH26" s="32" t="s">
         <v>94</v>
@@ -13898,10 +13894,10 @@
         <v>94</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="L27" s="79">
         <f t="shared" si="1"/>
@@ -13911,7 +13907,7 @@
         <v>10080</v>
       </c>
       <c r="N27" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O27" s="76" t="s">
         <v>188</v>
@@ -13920,7 +13916,7 @@
         <v>540</v>
       </c>
       <c r="Q27" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R27" s="90" t="s">
         <v>188</v>
@@ -13929,7 +13925,7 @@
         <v>540</v>
       </c>
       <c r="T27" s="86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U27" s="88" t="s">
         <v>188</v>
@@ -13938,7 +13934,7 @@
         <v>540</v>
       </c>
       <c r="W27" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X27" s="83"/>
       <c r="Y27" s="83"/>
@@ -13978,7 +13974,7 @@
         <v>190</v>
       </c>
       <c r="AS27" s="120" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AT27" s="118" t="s">
         <v>549</v>
@@ -13998,12 +13994,14 @@
       <c r="BA27" s="36"/>
       <c r="BB27" s="36"/>
       <c r="BC27" s="31" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="BD27" s="36"/>
       <c r="BE27" s="36"/>
       <c r="BF27" s="36"/>
-      <c r="BG27" s="36"/>
+      <c r="BG27" s="36" t="s">
+        <v>944</v>
+      </c>
       <c r="BH27" s="36" t="s">
         <v>119</v>
       </c>
@@ -14046,10 +14044,10 @@
         <v>94</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K28" s="35" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="L28" s="79">
         <f t="shared" si="1"/>
@@ -14059,7 +14057,7 @@
         <v>10080</v>
       </c>
       <c r="N28" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O28" s="76" t="s">
         <v>145</v>
@@ -14068,7 +14066,7 @@
         <v>540</v>
       </c>
       <c r="Q28" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R28" s="90" t="s">
         <v>145</v>
@@ -14077,7 +14075,7 @@
         <v>540</v>
       </c>
       <c r="T28" s="86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U28" s="88" t="s">
         <v>145</v>
@@ -14086,7 +14084,7 @@
         <v>540</v>
       </c>
       <c r="W28" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X28" s="83"/>
       <c r="Y28" s="83"/>
@@ -14095,7 +14093,7 @@
         <v>122</v>
       </c>
       <c r="AB28" s="92" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AC28" s="93" t="s">
         <v>549</v>
@@ -14132,7 +14130,7 @@
         <v>92</v>
       </c>
       <c r="AS28" s="120" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AT28" s="118" t="s">
         <v>549</v>
@@ -14150,7 +14148,7 @@
       <c r="BA28" s="36"/>
       <c r="BB28" s="36"/>
       <c r="BC28" s="31" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="BD28" s="36"/>
       <c r="BE28" s="36"/>
@@ -14198,10 +14196,10 @@
         <v>94</v>
       </c>
       <c r="J29" s="35" t="s">
+        <v>738</v>
+      </c>
+      <c r="K29" s="35" t="s">
         <v>739</v>
-      </c>
-      <c r="K29" s="35" t="s">
-        <v>740</v>
       </c>
       <c r="L29" s="79">
         <f t="shared" si="1"/>
@@ -14211,7 +14209,7 @@
         <v>10080</v>
       </c>
       <c r="N29" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O29" s="76" t="s">
         <v>204</v>
@@ -14220,7 +14218,7 @@
         <v>540</v>
       </c>
       <c r="Q29" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R29" s="90" t="s">
         <v>204</v>
@@ -14229,7 +14227,7 @@
         <v>540</v>
       </c>
       <c r="T29" s="86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U29" s="88" t="s">
         <v>204</v>
@@ -14238,7 +14236,7 @@
         <v>540</v>
       </c>
       <c r="W29" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X29" s="83"/>
       <c r="Y29" s="83"/>
@@ -14247,7 +14245,7 @@
         <v>158</v>
       </c>
       <c r="AB29" s="92" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AC29" s="93" t="s">
         <v>549</v>
@@ -14284,7 +14282,7 @@
         <v>92</v>
       </c>
       <c r="AS29" s="120" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AT29" s="118" t="s">
         <v>549</v>
@@ -14302,7 +14300,7 @@
       <c r="BA29" s="36"/>
       <c r="BB29" s="36"/>
       <c r="BC29" s="31" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="BD29" s="36"/>
       <c r="BE29" s="36"/>
@@ -14359,7 +14357,7 @@
         <v>10080</v>
       </c>
       <c r="N30" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O30" s="76" t="s">
         <v>128</v>
@@ -14368,7 +14366,7 @@
         <v>540</v>
       </c>
       <c r="Q30" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R30" s="90" t="s">
         <v>128</v>
@@ -14377,7 +14375,7 @@
         <v>540</v>
       </c>
       <c r="T30" s="86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U30" s="88" t="s">
         <v>128</v>
@@ -14386,7 +14384,7 @@
         <v>540</v>
       </c>
       <c r="W30" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X30" s="83"/>
       <c r="Y30" s="83"/>
@@ -14420,13 +14418,13 @@
       </c>
       <c r="AP30" s="35"/>
       <c r="AQ30" s="38" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AR30" s="120" t="s">
         <v>96</v>
       </c>
       <c r="AS30" s="120" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AT30" s="118" t="s">
         <v>549</v>
@@ -14444,7 +14442,7 @@
       <c r="BA30" s="36"/>
       <c r="BB30" s="36"/>
       <c r="BC30" s="31" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="BD30" s="36"/>
       <c r="BE30" s="36"/>
@@ -14492,10 +14490,10 @@
         <v>94</v>
       </c>
       <c r="J31" s="35" t="s">
+        <v>738</v>
+      </c>
+      <c r="K31" s="35" t="s">
         <v>739</v>
-      </c>
-      <c r="K31" s="35" t="s">
-        <v>740</v>
       </c>
       <c r="L31" s="79">
         <f t="shared" si="1"/>
@@ -14505,7 +14503,7 @@
         <v>10080</v>
       </c>
       <c r="N31" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O31" s="76" t="s">
         <v>130</v>
@@ -14514,7 +14512,7 @@
         <v>540</v>
       </c>
       <c r="Q31" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R31" s="90" t="s">
         <v>130</v>
@@ -14523,7 +14521,7 @@
         <v>540</v>
       </c>
       <c r="T31" s="86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U31" s="88" t="s">
         <v>130</v>
@@ -14532,7 +14530,7 @@
         <v>540</v>
       </c>
       <c r="W31" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X31" s="83"/>
       <c r="Y31" s="83"/>
@@ -14541,7 +14539,7 @@
         <v>158</v>
       </c>
       <c r="AB31" s="92" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AC31" s="93" t="s">
         <v>549</v>
@@ -14596,7 +14594,7 @@
       <c r="BA31" s="36"/>
       <c r="BB31" s="36"/>
       <c r="BC31" s="31" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="BD31" s="36"/>
       <c r="BE31" s="36"/>
@@ -14632,7 +14630,7 @@
         <v>92</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>119</v>
@@ -14653,7 +14651,7 @@
         <v>100000</v>
       </c>
       <c r="Q32" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R32" s="90"/>
       <c r="S32" s="90"/>
@@ -14665,7 +14663,7 @@
         <v>100000</v>
       </c>
       <c r="W32" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X32" s="82"/>
       <c r="Y32" s="82"/>
@@ -14699,7 +14697,7 @@
       <c r="BA32" s="36"/>
       <c r="BB32" s="36"/>
       <c r="BC32" s="36" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="BD32" s="36"/>
       <c r="BE32" s="36"/>
@@ -14731,7 +14729,7 @@
         <v>92</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>119</v>
@@ -14752,7 +14750,7 @@
         <v>100000</v>
       </c>
       <c r="Q33" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R33" s="90"/>
       <c r="S33" s="90"/>
@@ -14764,7 +14762,7 @@
         <v>100000</v>
       </c>
       <c r="W33" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X33" s="82"/>
       <c r="Y33" s="82"/>
@@ -14798,7 +14796,7 @@
       <c r="BA33" s="36"/>
       <c r="BB33" s="36"/>
       <c r="BC33" s="36" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="BD33" s="36"/>
       <c r="BE33" s="36"/>
@@ -14830,7 +14828,7 @@
         <v>92</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>119</v>
@@ -14851,7 +14849,7 @@
         <v>100000</v>
       </c>
       <c r="Q34" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R34" s="90"/>
       <c r="S34" s="90"/>
@@ -14863,7 +14861,7 @@
         <v>100000</v>
       </c>
       <c r="W34" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X34" s="82"/>
       <c r="Y34" s="82"/>
@@ -14897,7 +14895,7 @@
       <c r="BA34" s="36"/>
       <c r="BB34" s="36"/>
       <c r="BC34" s="36" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="BD34" s="36"/>
       <c r="BE34" s="36"/>
@@ -14929,7 +14927,7 @@
         <v>92</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>119</v>
@@ -14950,7 +14948,7 @@
         <v>100000</v>
       </c>
       <c r="Q35" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R35" s="90"/>
       <c r="S35" s="90"/>
@@ -14962,7 +14960,7 @@
         <v>100000</v>
       </c>
       <c r="W35" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X35" s="82"/>
       <c r="Y35" s="82"/>
@@ -14996,7 +14994,7 @@
       <c r="BA35" s="36"/>
       <c r="BB35" s="36"/>
       <c r="BC35" s="36" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="BD35" s="36"/>
       <c r="BE35" s="36"/>
@@ -15028,7 +15026,7 @@
         <v>92</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>119</v>
@@ -15049,7 +15047,7 @@
         <v>100000</v>
       </c>
       <c r="Q36" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R36" s="90"/>
       <c r="S36" s="90"/>
@@ -15061,7 +15059,7 @@
         <v>100000</v>
       </c>
       <c r="W36" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X36" s="82"/>
       <c r="Y36" s="82"/>
@@ -15095,7 +15093,7 @@
       <c r="BA36" s="36"/>
       <c r="BB36" s="36"/>
       <c r="BC36" s="36" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="BD36" s="36"/>
       <c r="BE36" s="36"/>
@@ -15137,10 +15135,10 @@
       </c>
       <c r="I37" s="35"/>
       <c r="J37" s="35" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K37" s="35" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L37" s="79"/>
       <c r="M37" s="79"/>
@@ -15152,7 +15150,7 @@
         <v>200000</v>
       </c>
       <c r="Q37" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R37" s="90">
         <v>200000</v>
@@ -15161,7 +15159,7 @@
         <v>200000</v>
       </c>
       <c r="T37" s="86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U37" s="88">
         <v>200000</v>
@@ -15170,7 +15168,7 @@
         <v>200000</v>
       </c>
       <c r="W37" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X37" s="82"/>
       <c r="Y37" s="82"/>
@@ -15204,7 +15202,7 @@
       <c r="BA37" s="36"/>
       <c r="BB37" s="36"/>
       <c r="BC37" s="36" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="BD37" s="36"/>
       <c r="BE37" s="36"/>
@@ -15248,10 +15246,10 @@
         <v>94</v>
       </c>
       <c r="J38" s="35" t="s">
+        <v>738</v>
+      </c>
+      <c r="K38" s="35" t="s">
         <v>739</v>
-      </c>
-      <c r="K38" s="35" t="s">
-        <v>740</v>
       </c>
       <c r="L38" s="79"/>
       <c r="M38" s="79"/>
@@ -15297,7 +15295,7 @@
       <c r="BA38" s="36"/>
       <c r="BB38" s="36"/>
       <c r="BC38" s="36" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="BD38" s="36"/>
       <c r="BE38" s="36"/>
@@ -15339,10 +15337,10 @@
         <v>94</v>
       </c>
       <c r="J39" s="35" t="s">
+        <v>738</v>
+      </c>
+      <c r="K39" s="35" t="s">
         <v>739</v>
-      </c>
-      <c r="K39" s="35" t="s">
-        <v>740</v>
       </c>
       <c r="L39" s="79"/>
       <c r="M39" s="79"/>
@@ -15388,7 +15386,7 @@
       <c r="BA39" s="36"/>
       <c r="BB39" s="36"/>
       <c r="BC39" s="36" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="BD39" s="36"/>
       <c r="BE39" s="36"/>
@@ -15432,10 +15430,10 @@
         <v>94</v>
       </c>
       <c r="J40" s="35" t="s">
+        <v>738</v>
+      </c>
+      <c r="K40" s="35" t="s">
         <v>739</v>
-      </c>
-      <c r="K40" s="35" t="s">
-        <v>740</v>
       </c>
       <c r="L40" s="79"/>
       <c r="M40" s="79"/>
@@ -15481,7 +15479,7 @@
       <c r="BA40" s="36"/>
       <c r="BB40" s="36"/>
       <c r="BC40" s="36" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="BD40" s="36"/>
       <c r="BE40" s="36"/>
@@ -15525,10 +15523,10 @@
         <v>94</v>
       </c>
       <c r="J41" s="35" t="s">
+        <v>738</v>
+      </c>
+      <c r="K41" s="35" t="s">
         <v>739</v>
-      </c>
-      <c r="K41" s="35" t="s">
-        <v>740</v>
       </c>
       <c r="L41" s="79"/>
       <c r="M41" s="79"/>
@@ -15574,7 +15572,7 @@
       <c r="BA41" s="36"/>
       <c r="BB41" s="36"/>
       <c r="BC41" s="36" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="BD41" s="36"/>
       <c r="BE41" s="36"/>
@@ -15618,10 +15616,10 @@
         <v>94</v>
       </c>
       <c r="J42" s="35" t="s">
+        <v>738</v>
+      </c>
+      <c r="K42" s="35" t="s">
         <v>739</v>
-      </c>
-      <c r="K42" s="35" t="s">
-        <v>740</v>
       </c>
       <c r="L42" s="79"/>
       <c r="M42" s="79"/>
@@ -15667,7 +15665,7 @@
       <c r="BA42" s="36"/>
       <c r="BB42" s="36"/>
       <c r="BC42" s="36" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="BD42" s="36"/>
       <c r="BE42" s="36"/>
@@ -15709,10 +15707,10 @@
       </c>
       <c r="I43" s="35"/>
       <c r="J43" s="35" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K43" s="35" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L43" s="79">
         <v>0</v>
@@ -15721,7 +15719,7 @@
         <v>5760</v>
       </c>
       <c r="N43" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O43" s="76" t="s">
         <v>117</v>
@@ -15730,7 +15728,7 @@
         <v>541</v>
       </c>
       <c r="Q43" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R43" s="91" t="s">
         <v>117</v>
@@ -15739,7 +15737,7 @@
         <v>541</v>
       </c>
       <c r="T43" s="86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U43" s="89" t="s">
         <v>117</v>
@@ -15748,7 +15746,7 @@
         <v>541</v>
       </c>
       <c r="W43" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X43" s="81" t="s">
         <v>482</v>
@@ -15790,7 +15788,7 @@
       <c r="BA43" s="35"/>
       <c r="BB43" s="35"/>
       <c r="BC43" s="31" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="BD43" s="36"/>
       <c r="BE43" s="35"/>
@@ -15832,10 +15830,10 @@
       </c>
       <c r="I44" s="35"/>
       <c r="J44" s="35" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K44" s="35" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L44" s="79">
         <v>0</v>
@@ -15844,7 +15842,7 @@
         <v>5760</v>
       </c>
       <c r="N44" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O44" s="76" t="s">
         <v>117</v>
@@ -15853,7 +15851,7 @@
         <v>541</v>
       </c>
       <c r="Q44" s="87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R44" s="91" t="s">
         <v>117</v>
@@ -15862,7 +15860,7 @@
         <v>541</v>
       </c>
       <c r="T44" s="86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U44" s="89" t="s">
         <v>117</v>
@@ -15871,7 +15869,7 @@
         <v>541</v>
       </c>
       <c r="W44" s="85" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X44" s="81" t="s">
         <v>484</v>
@@ -15913,7 +15911,7 @@
       <c r="BA44" s="35"/>
       <c r="BB44" s="35"/>
       <c r="BC44" s="31" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="BD44" s="36"/>
       <c r="BE44" s="35"/>
@@ -15955,10 +15953,10 @@
       </c>
       <c r="I45" s="35"/>
       <c r="J45" s="35" t="s">
+        <v>738</v>
+      </c>
+      <c r="K45" s="35" t="s">
         <v>739</v>
-      </c>
-      <c r="K45" s="35" t="s">
-        <v>740</v>
       </c>
       <c r="L45" s="79"/>
       <c r="M45" s="79"/>
@@ -16012,7 +16010,7 @@
       <c r="BA45" s="35"/>
       <c r="BB45" s="35"/>
       <c r="BC45" s="31" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="BD45" s="36"/>
       <c r="BE45" s="35"/>
@@ -16250,16 +16248,16 @@
         <v>332</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H4" s="53" t="s">
         <v>115</v>
       </c>
       <c r="I4" s="65" t="s">
+        <v>668</v>
+      </c>
+      <c r="J4" s="65" t="s">
         <v>669</v>
-      </c>
-      <c r="J4" s="65" t="s">
-        <v>670</v>
       </c>
       <c r="K4" s="65" t="s">
         <v>333</v>
@@ -16370,97 +16368,97 @@
         <v>338</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I5" s="52" t="s">
+        <v>670</v>
+      </c>
+      <c r="J5" s="52" t="s">
         <v>671</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="K5" s="52" t="s">
         <v>672</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="L5" s="52" t="s">
         <v>673</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="M5" s="52" t="s">
         <v>674</v>
       </c>
-      <c r="M5" s="52" t="s">
+      <c r="N5" s="52" t="s">
         <v>675</v>
       </c>
-      <c r="N5" s="52" t="s">
+      <c r="O5" s="52" t="s">
         <v>676</v>
       </c>
-      <c r="O5" s="52" t="s">
+      <c r="P5" s="52" t="s">
         <v>677</v>
       </c>
-      <c r="P5" s="52" t="s">
+      <c r="Q5" s="52" t="s">
         <v>678</v>
       </c>
-      <c r="Q5" s="52" t="s">
-        <v>679</v>
-      </c>
       <c r="R5" s="52" t="s">
+        <v>680</v>
+      </c>
+      <c r="S5" s="52" t="s">
         <v>681</v>
       </c>
-      <c r="S5" s="52" t="s">
+      <c r="T5" s="52" t="s">
         <v>682</v>
       </c>
-      <c r="T5" s="52" t="s">
+      <c r="U5" s="52" t="s">
         <v>683</v>
       </c>
-      <c r="U5" s="52" t="s">
+      <c r="V5" s="52" t="s">
         <v>684</v>
       </c>
-      <c r="V5" s="52" t="s">
+      <c r="W5" s="52" t="s">
         <v>685</v>
       </c>
-      <c r="W5" s="52" t="s">
+      <c r="X5" s="52" t="s">
         <v>686</v>
       </c>
-      <c r="X5" s="52" t="s">
+      <c r="Y5" s="52" t="s">
         <v>687</v>
       </c>
-      <c r="Y5" s="52" t="s">
+      <c r="Z5" s="52" t="s">
         <v>688</v>
       </c>
-      <c r="Z5" s="52" t="s">
+      <c r="AA5" s="52" t="s">
         <v>689</v>
       </c>
-      <c r="AA5" s="52" t="s">
+      <c r="AB5" s="52" t="s">
         <v>690</v>
       </c>
-      <c r="AB5" s="52" t="s">
+      <c r="AC5" s="52" t="s">
         <v>691</v>
       </c>
-      <c r="AC5" s="52" t="s">
+      <c r="AD5" s="52" t="s">
         <v>692</v>
       </c>
-      <c r="AD5" s="52" t="s">
+      <c r="AE5" s="52" t="s">
         <v>693</v>
       </c>
-      <c r="AE5" s="52" t="s">
+      <c r="AF5" s="52" t="s">
         <v>694</v>
       </c>
-      <c r="AF5" s="52" t="s">
+      <c r="AG5" s="52" t="s">
         <v>695</v>
       </c>
-      <c r="AG5" s="52" t="s">
+      <c r="AH5" s="52" t="s">
         <v>696</v>
       </c>
-      <c r="AH5" s="52" t="s">
+      <c r="AI5" s="52" t="s">
         <v>697</v>
       </c>
-      <c r="AI5" s="52" t="s">
+      <c r="AJ5" s="52" t="s">
         <v>698</v>
       </c>
-      <c r="AJ5" s="52" t="s">
+      <c r="AK5" s="52" t="s">
         <v>699</v>
-      </c>
-      <c r="AK5" s="52" t="s">
-        <v>700</v>
       </c>
       <c r="AL5" s="66" t="s">
         <v>339</v>
@@ -16490,7 +16488,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H6" s="54" t="s">
         <v>5</v>
@@ -16609,7 +16607,7 @@
         <v>326</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H7" s="39">
         <v>1</v>
@@ -16720,7 +16718,7 @@
         <v>491</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H8" s="39">
         <v>1</v>
@@ -16831,7 +16829,7 @@
         <v>489</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H9" s="39">
         <v>1</v>
@@ -16944,7 +16942,7 @@
         <v>492</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H10" s="39">
         <v>1</v>
@@ -16977,7 +16975,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="69" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="S10" s="69" t="s">
         <v>458</v>
@@ -17057,7 +17055,7 @@
         <v>493</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H11" s="39" t="s">
         <v>33</v>
@@ -17174,7 +17172,7 @@
         <v>494</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H12" s="39" t="s">
         <v>427</v>
@@ -17293,7 +17291,7 @@
         <v>490</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H13" s="39" t="s">
         <v>427</v>
@@ -17412,7 +17410,7 @@
         <v>495</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H14" s="39" t="s">
         <v>427</v>
@@ -17531,7 +17529,7 @@
         <v>496</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H15" s="39" t="s">
         <v>427</v>
@@ -17650,7 +17648,7 @@
         <v>497</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H16" s="39" t="s">
         <v>428</v>
@@ -17769,7 +17767,7 @@
         <v>498</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>179</v>
@@ -17888,7 +17886,7 @@
         <v>499</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>179</v>
@@ -18007,7 +18005,7 @@
         <v>409</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H19" s="39" t="s">
         <v>179</v>
@@ -18126,7 +18124,7 @@
         <v>504</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H20" s="39" t="s">
         <v>179</v>
@@ -18245,7 +18243,7 @@
         <v>500</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H21" s="39" t="s">
         <v>179</v>
@@ -18364,7 +18362,7 @@
         <v>505</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H22" s="39" t="s">
         <v>429</v>
@@ -18483,7 +18481,7 @@
         <v>506</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H23" s="39">
         <v>4</v>
@@ -18602,7 +18600,7 @@
         <v>501</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H24" s="39">
         <v>4</v>
@@ -18721,7 +18719,7 @@
         <v>502</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H25" s="39">
         <v>4</v>
@@ -18840,7 +18838,7 @@
         <v>503</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H26" s="69" t="s">
         <v>93</v>
@@ -19363,7 +19361,7 @@
       <c r="B1" s="164"/>
       <c r="C1" s="164"/>
       <c r="D1" s="131" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E1" s="1"/>
       <c r="H1" s="1"/>
@@ -19376,7 +19374,7 @@
       <c r="B2" s="164"/>
       <c r="C2" s="164"/>
       <c r="D2" s="131" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E2" s="1"/>
       <c r="H2" s="1"/>
@@ -19405,22 +19403,22 @@
         <v>37</v>
       </c>
       <c r="E4" s="128" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F4" s="102" t="s">
         <v>346</v>
       </c>
       <c r="G4" s="28" t="s">
+        <v>721</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>722</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>723</v>
       </c>
       <c r="I4" s="128" t="s">
         <v>248</v>
       </c>
       <c r="J4" s="48" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K4" s="128" t="s">
         <v>39</v>
@@ -19453,13 +19451,13 @@
         <v>255</v>
       </c>
       <c r="U4" s="116" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="V4" s="116" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="W4" s="116" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="X4" s="80" t="s">
         <v>543</v>
@@ -19477,7 +19475,7 @@
         <v>47</v>
       </c>
       <c r="AC4" s="128" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AD4" s="128" t="s">
         <v>256</v>
@@ -19504,19 +19502,19 @@
         <v>56</v>
       </c>
       <c r="AL4" s="128" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="AM4" s="128" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AN4" s="128" t="s">
         <v>57</v>
       </c>
       <c r="AO4" s="128" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="AP4" s="128" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="AQ4" s="128" t="s">
         <v>58</v>
@@ -19549,22 +19547,22 @@
         <v>37</v>
       </c>
       <c r="E5" s="128" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F5" s="102" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G5" s="28" t="s">
+        <v>723</v>
+      </c>
+      <c r="H5" s="28" t="s">
         <v>724</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>725</v>
       </c>
       <c r="I5" s="49" t="s">
         <v>260</v>
       </c>
       <c r="J5" s="50" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K5" s="50" t="s">
         <v>67</v>
@@ -19588,7 +19586,7 @@
         <v>265</v>
       </c>
       <c r="R5" s="49" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="S5" s="132" t="s">
         <v>71</v>
@@ -19597,13 +19595,13 @@
         <v>72</v>
       </c>
       <c r="U5" s="116" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="V5" s="116" t="s">
+        <v>642</v>
+      </c>
+      <c r="W5" s="116" t="s">
         <v>643</v>
-      </c>
-      <c r="W5" s="116" t="s">
-        <v>644</v>
       </c>
       <c r="X5" s="80" t="s">
         <v>542</v>
@@ -19618,16 +19616,16 @@
         <v>73</v>
       </c>
       <c r="AB5" s="49" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AC5" s="49" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AD5" s="49" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="AE5" s="49" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AF5" s="49" t="s">
         <v>266</v>
@@ -19648,19 +19646,19 @@
         <v>82</v>
       </c>
       <c r="AL5" s="49" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="AM5" s="49" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AN5" s="49" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AO5" s="49" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="AP5" s="49" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="AQ5" s="49" t="s">
         <v>83</v>
@@ -19693,7 +19691,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="125" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>5</v>
@@ -19708,7 +19706,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="125" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K6" s="125" t="s">
         <v>268</v>
@@ -19765,7 +19763,7 @@
         <v>89</v>
       </c>
       <c r="AC6" s="125" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AD6" s="125" t="s">
         <v>268</v>
@@ -19834,13 +19832,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D7" s="40">
         <v>100</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F7" s="40">
         <v>1</v>
@@ -19849,7 +19847,7 @@
         <v>427</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I7" s="40">
         <v>20</v>
@@ -19947,13 +19945,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D8" s="40">
         <v>100</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F8" s="40">
         <v>1</v>
@@ -19962,7 +19960,7 @@
         <v>427</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I8" s="40">
         <v>20</v>
@@ -20066,7 +20064,7 @@
         <v>102</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F9" s="40">
         <v>6</v>
@@ -20075,7 +20073,7 @@
         <v>427</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I9" s="40">
         <v>20</v>
@@ -20153,10 +20151,10 @@
       <c r="AL9" s="40"/>
       <c r="AM9" s="40"/>
       <c r="AN9" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AO9" s="21" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="AP9" s="21"/>
       <c r="AQ9" s="40" t="s">
@@ -20187,7 +20185,7 @@
         <v>101</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F10" s="40">
         <v>6</v>
@@ -20262,7 +20260,7 @@
       <c r="AN10" s="40"/>
       <c r="AO10" s="40"/>
       <c r="AP10" s="40" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="AQ10" s="40" t="s">
         <v>119</v>
@@ -20292,7 +20290,7 @@
         <v>101</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F11" s="40">
         <v>6</v>
@@ -20373,11 +20371,11 @@
       <c r="AL11" s="40"/>
       <c r="AM11" s="40"/>
       <c r="AN11" s="43" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AO11" s="43"/>
       <c r="AP11" s="43" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="AQ11" s="40" t="s">
         <v>94</v>
@@ -20409,7 +20407,7 @@
         <v>101</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F12" s="40">
         <v>6</v>
@@ -20418,7 +20416,7 @@
         <v>427</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I12" s="40" t="s">
         <v>102</v>
@@ -20500,11 +20498,11 @@
       <c r="AL12" s="40"/>
       <c r="AM12" s="40"/>
       <c r="AN12" s="40" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AO12" s="40"/>
       <c r="AP12" s="40" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="AQ12" s="40" t="s">
         <v>94</v>
@@ -20536,7 +20534,7 @@
         <v>101</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F13" s="40">
         <v>6</v>
@@ -20619,11 +20617,11 @@
       <c r="AL13" s="40"/>
       <c r="AM13" s="40"/>
       <c r="AN13" s="43" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AO13" s="43"/>
       <c r="AP13" s="43" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="AQ13" s="40" t="s">
         <v>119</v>
@@ -20655,7 +20653,7 @@
         <v>101</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F14" s="40">
         <v>6</v>
@@ -20664,7 +20662,7 @@
         <v>427</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>125</v>
@@ -20750,11 +20748,11 @@
       </c>
       <c r="AM14" s="40"/>
       <c r="AN14" s="21" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AO14" s="21"/>
       <c r="AP14" s="21" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="AQ14" s="40" t="s">
         <v>94</v>
@@ -20784,7 +20782,7 @@
         <v>101</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F15" s="40">
         <v>6</v>
@@ -20793,7 +20791,7 @@
         <v>427</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I15" s="40">
         <v>240</v>
@@ -20879,11 +20877,11 @@
       </c>
       <c r="AM15" s="40"/>
       <c r="AN15" s="21" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AO15" s="21"/>
       <c r="AP15" s="21" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="AQ15" s="40" t="s">
         <v>94</v>
@@ -20915,7 +20913,7 @@
         <v>101</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F16" s="40">
         <v>6</v>
@@ -20998,11 +20996,11 @@
       </c>
       <c r="AM16" s="40"/>
       <c r="AN16" s="44" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AO16" s="44"/>
       <c r="AP16" s="44" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="AQ16" s="40" t="s">
         <v>119</v>
@@ -21031,7 +21029,7 @@
         <v>302</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="E17" s="45"/>
       <c r="F17" s="45">
@@ -21047,7 +21045,7 @@
         <v>303</v>
       </c>
       <c r="J17" s="45" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K17" s="45" t="s">
         <v>304</v>
@@ -21101,10 +21099,10 @@
       <c r="AL17" s="45"/>
       <c r="AM17" s="45"/>
       <c r="AN17" s="45" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AO17" s="45" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="AP17" s="45"/>
       <c r="AQ17" s="45" t="s">
@@ -21132,7 +21130,7 @@
         <v>307</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="E18" s="45"/>
       <c r="F18" s="45">
@@ -21148,7 +21146,7 @@
         <v>303</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K18" s="45" t="s">
         <v>308</v>
@@ -21202,7 +21200,7 @@
       <c r="AL18" s="45"/>
       <c r="AM18" s="45"/>
       <c r="AN18" s="45" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AO18" s="45"/>
       <c r="AP18" s="45"/>
@@ -21231,7 +21229,7 @@
         <v>311</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="E19" s="45"/>
       <c r="F19" s="45">
@@ -21241,13 +21239,13 @@
         <v>427</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I19" s="45" t="s">
         <v>303</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K19" s="45" t="s">
         <v>312</v>
@@ -21307,7 +21305,7 @@
       <c r="AL19" s="45"/>
       <c r="AM19" s="45"/>
       <c r="AN19" s="45" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AO19" s="45"/>
       <c r="AP19" s="45"/>
@@ -21338,7 +21336,7 @@
         <v>315</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="E20" s="45"/>
       <c r="F20" s="45">
@@ -21348,13 +21346,13 @@
         <v>427</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I20" s="45" t="s">
         <v>303</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K20" s="45" t="s">
         <v>316</v>
@@ -21412,7 +21410,7 @@
       </c>
       <c r="AM20" s="45"/>
       <c r="AN20" s="45" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AO20" s="45"/>
       <c r="AP20" s="45"/>
@@ -21443,7 +21441,7 @@
         <v>321</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="E21" s="45"/>
       <c r="F21" s="45">
@@ -21453,13 +21451,13 @@
         <v>427</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I21" s="45" t="s">
         <v>303</v>
       </c>
       <c r="J21" s="45" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K21" s="45" t="s">
         <v>322</v>
@@ -21517,7 +21515,7 @@
       </c>
       <c r="AM21" s="45"/>
       <c r="AN21" s="45" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AO21" s="45"/>
       <c r="AP21" s="45"/>
@@ -21545,10 +21543,10 @@
         <v>16</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="E22" s="45"/>
       <c r="F22" s="45">
@@ -21558,13 +21556,13 @@
         <v>427</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I22" s="45" t="s">
         <v>303</v>
       </c>
       <c r="J22" s="45" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K22" s="45" t="s">
         <v>325</v>
@@ -21624,7 +21622,7 @@
       <c r="AL22" s="45"/>
       <c r="AM22" s="45"/>
       <c r="AN22" s="45" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AO22" s="45"/>
       <c r="AP22" s="45"/>
@@ -21672,8 +21670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -21711,7 +21709,7 @@
       <c r="B1" s="165"/>
       <c r="C1" s="165"/>
       <c r="D1" s="167" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E1" s="167"/>
       <c r="F1" s="167"/>
@@ -21724,7 +21722,7 @@
       <c r="B2" s="165"/>
       <c r="C2" s="165"/>
       <c r="D2" s="167" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E2" s="167"/>
       <c r="F2" s="167"/>
@@ -21745,61 +21743,61 @@
         <v>2</v>
       </c>
       <c r="C4" s="142" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D4" s="152" t="s">
+        <v>861</v>
+      </c>
+      <c r="E4" s="153" t="s">
+        <v>862</v>
+      </c>
+      <c r="F4" s="153" t="s">
+        <v>863</v>
+      </c>
+      <c r="G4" s="153" t="s">
+        <v>899</v>
+      </c>
+      <c r="H4" s="153" t="s">
+        <v>865</v>
+      </c>
+      <c r="I4" s="153" t="s">
+        <v>938</v>
+      </c>
+      <c r="J4" s="153" t="s">
+        <v>864</v>
+      </c>
+      <c r="K4" s="153" t="s">
         <v>866</v>
       </c>
-      <c r="E4" s="153" t="s">
+      <c r="L4" s="153" t="s">
         <v>867</v>
       </c>
-      <c r="F4" s="153" t="s">
+      <c r="M4" s="153" t="s">
+        <v>929</v>
+      </c>
+      <c r="N4" s="153" t="s">
         <v>868</v>
       </c>
-      <c r="G4" s="153" t="s">
-        <v>904</v>
-      </c>
-      <c r="H4" s="153" t="s">
+      <c r="O4" s="153" t="s">
+        <v>869</v>
+      </c>
+      <c r="P4" s="153" t="s">
         <v>870</v>
       </c>
-      <c r="I4" s="153" t="s">
-        <v>943</v>
-      </c>
-      <c r="J4" s="153" t="s">
-        <v>869</v>
-      </c>
-      <c r="K4" s="153" t="s">
+      <c r="Q4" s="153" t="s">
         <v>871</v>
       </c>
-      <c r="L4" s="153" t="s">
+      <c r="R4" s="153" t="s">
         <v>872</v>
       </c>
-      <c r="M4" s="153" t="s">
-        <v>934</v>
-      </c>
-      <c r="N4" s="153" t="s">
+      <c r="S4" s="153" t="s">
         <v>873</v>
       </c>
-      <c r="O4" s="153" t="s">
+      <c r="T4" s="153" t="s">
         <v>874</v>
       </c>
-      <c r="P4" s="153" t="s">
+      <c r="U4" s="153" t="s">
         <v>875</v>
-      </c>
-      <c r="Q4" s="153" t="s">
-        <v>876</v>
-      </c>
-      <c r="R4" s="153" t="s">
-        <v>877</v>
-      </c>
-      <c r="S4" s="153" t="s">
-        <v>878</v>
-      </c>
-      <c r="T4" s="153" t="s">
-        <v>879</v>
-      </c>
-      <c r="U4" s="153" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="141" customFormat="1" ht="46" customHeight="1">
@@ -21808,61 +21806,61 @@
         <v>2</v>
       </c>
       <c r="C5" s="144" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D5" s="154" t="s">
+        <v>876</v>
+      </c>
+      <c r="E5" s="154" t="s">
+        <v>877</v>
+      </c>
+      <c r="F5" s="154" t="s">
+        <v>878</v>
+      </c>
+      <c r="G5" s="154" t="s">
+        <v>786</v>
+      </c>
+      <c r="H5" s="154" t="s">
         <v>881</v>
       </c>
-      <c r="E5" s="154" t="s">
+      <c r="I5" s="154" t="s">
+        <v>879</v>
+      </c>
+      <c r="J5" s="154" t="s">
+        <v>880</v>
+      </c>
+      <c r="K5" s="154" t="s">
         <v>882</v>
       </c>
-      <c r="F5" s="154" t="s">
+      <c r="L5" s="154" t="s">
         <v>883</v>
       </c>
-      <c r="G5" s="154" t="s">
-        <v>787</v>
-      </c>
-      <c r="H5" s="154" t="s">
+      <c r="M5" s="154" t="s">
+        <v>933</v>
+      </c>
+      <c r="N5" s="154" t="s">
+        <v>884</v>
+      </c>
+      <c r="O5" s="154" t="s">
+        <v>885</v>
+      </c>
+      <c r="P5" s="154" t="s">
         <v>886</v>
       </c>
-      <c r="I5" s="154" t="s">
-        <v>884</v>
-      </c>
-      <c r="J5" s="154" t="s">
-        <v>885</v>
-      </c>
-      <c r="K5" s="154" t="s">
+      <c r="Q5" s="154" t="s">
         <v>887</v>
       </c>
-      <c r="L5" s="154" t="s">
+      <c r="R5" s="154" t="s">
         <v>888</v>
       </c>
-      <c r="M5" s="154" t="s">
-        <v>938</v>
-      </c>
-      <c r="N5" s="154" t="s">
+      <c r="S5" s="154" t="s">
+        <v>900</v>
+      </c>
+      <c r="T5" s="154" t="s">
         <v>889</v>
       </c>
-      <c r="O5" s="154" t="s">
+      <c r="U5" s="154" t="s">
         <v>890</v>
-      </c>
-      <c r="P5" s="154" t="s">
-        <v>891</v>
-      </c>
-      <c r="Q5" s="154" t="s">
-        <v>892</v>
-      </c>
-      <c r="R5" s="154" t="s">
-        <v>893</v>
-      </c>
-      <c r="S5" s="154" t="s">
-        <v>905</v>
-      </c>
-      <c r="T5" s="154" t="s">
-        <v>894</v>
-      </c>
-      <c r="U5" s="154" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="141" customFormat="1" ht="21" customHeight="1">
@@ -21901,7 +21899,7 @@
         <v>89</v>
       </c>
       <c r="M6" s="155" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="N6" s="155" t="s">
         <v>89</v>
@@ -21930,23 +21928,23 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="148" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B7" s="137">
         <v>1</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D7" s="137" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="E7" s="137" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="F7" s="151"/>
       <c r="G7" s="137" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="H7" s="151"/>
       <c r="I7" s="151"/>
@@ -21961,34 +21959,34 @@
       <c r="P7" s="151"/>
       <c r="Q7" s="151"/>
       <c r="R7" s="137" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="S7" s="138"/>
       <c r="T7" s="151"/>
       <c r="U7" s="151"/>
       <c r="V7" s="136" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="148" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B8" s="137">
         <v>2</v>
       </c>
       <c r="C8" s="137" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D8" s="137" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="E8" s="137" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="F8" s="151"/>
       <c r="G8" s="137" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="H8" s="151"/>
       <c r="I8" s="151"/>
@@ -22003,20 +22001,20 @@
       <c r="P8" s="151"/>
       <c r="Q8" s="151"/>
       <c r="R8" s="137" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S8" s="138"/>
       <c r="T8" s="156" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="U8" s="151"/>
       <c r="V8" s="136" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="148" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B9" s="137">
         <v>3</v>
@@ -22025,14 +22023,14 @@
         <v>194</v>
       </c>
       <c r="D9" s="137" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="E9" s="137" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="F9" s="151"/>
       <c r="G9" s="137" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H9" s="151"/>
       <c r="I9" s="151">
@@ -22041,7 +22039,7 @@
       <c r="J9" s="151"/>
       <c r="K9" s="151"/>
       <c r="L9" s="39" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="M9" s="39"/>
       <c r="N9" s="151"/>
@@ -22051,34 +22049,34 @@
       <c r="P9" s="151"/>
       <c r="Q9" s="151"/>
       <c r="R9" s="137" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S9" s="138"/>
       <c r="T9" s="151"/>
       <c r="U9" s="151"/>
       <c r="V9" s="136" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="148" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B10" s="137">
         <v>4</v>
       </c>
       <c r="C10" s="137" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D10" s="137" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="E10" s="137" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="F10" s="151"/>
       <c r="G10" s="137" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="H10" s="151"/>
       <c r="I10" s="151">
@@ -22087,10 +22085,10 @@
       <c r="J10" s="151"/>
       <c r="K10" s="151"/>
       <c r="L10" s="39" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="M10" s="39" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="N10" s="151"/>
       <c r="O10" s="163" t="s">
@@ -22099,71 +22097,71 @@
       <c r="P10" s="151"/>
       <c r="Q10" s="151"/>
       <c r="R10" s="137" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="S10" s="138"/>
       <c r="T10" s="151"/>
       <c r="U10" s="151"/>
       <c r="V10" s="136" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="148" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B11" s="137">
         <v>5</v>
       </c>
       <c r="C11" s="137" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="E11" s="137" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="F11" s="151"/>
       <c r="G11" s="137" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="H11" s="151"/>
       <c r="I11" s="151"/>
       <c r="J11" s="151"/>
       <c r="K11" s="151"/>
       <c r="L11" s="39" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="M11" s="39"/>
       <c r="N11" s="151"/>
       <c r="O11" s="39" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P11" s="151"/>
       <c r="Q11" s="151"/>
       <c r="R11" s="137" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="S11" s="138"/>
       <c r="T11" s="151"/>
       <c r="U11" s="151"/>
       <c r="V11" s="136" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="148" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B12" s="137">
         <v>6</v>
       </c>
       <c r="C12" s="137" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="D12" s="137" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="E12" s="137"/>
       <c r="F12" s="151"/>
@@ -22173,7 +22171,7 @@
       <c r="J12" s="151"/>
       <c r="K12" s="151"/>
       <c r="L12" s="39" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="M12" s="39"/>
       <c r="N12" s="151"/>
@@ -22185,109 +22183,109 @@
       <c r="T12" s="151"/>
       <c r="U12" s="151"/>
       <c r="V12" s="136" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="148" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B13" s="137">
         <v>7</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D13" s="137" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="E13" s="137" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="F13" s="151"/>
       <c r="G13" s="39" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H13" s="151"/>
       <c r="I13" s="151"/>
       <c r="J13" s="151"/>
       <c r="K13" s="151"/>
       <c r="L13" s="39" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="M13" s="39"/>
       <c r="N13" s="151"/>
       <c r="O13" s="39" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P13" s="151"/>
       <c r="Q13" s="151"/>
       <c r="R13" s="137" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="S13" s="138"/>
       <c r="T13" s="151"/>
       <c r="U13" s="151"/>
       <c r="V13" s="136" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="148" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B14" s="137">
         <v>8</v>
       </c>
       <c r="C14" s="137" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D14" s="137" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="E14" s="137" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="F14" s="151"/>
       <c r="G14" s="137" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="H14" s="151"/>
       <c r="I14" s="151"/>
       <c r="J14" s="151"/>
       <c r="K14" s="151"/>
       <c r="L14" s="39" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="M14" s="39"/>
       <c r="N14" s="151"/>
       <c r="O14" s="39" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P14" s="151"/>
       <c r="Q14" s="151"/>
       <c r="R14" s="137" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="S14" s="138"/>
       <c r="T14" s="151"/>
       <c r="U14" s="151"/>
       <c r="V14" s="139" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="148" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>113</v>
       </c>
       <c r="C15" s="137" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="D15" s="137" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="E15" s="137"/>
       <c r="F15" s="151"/>
@@ -22316,17 +22314,17 @@
         <v>97</v>
       </c>
       <c r="C16" s="137" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D16" s="137" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="E16" s="137" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="F16" s="151"/>
       <c r="G16" s="137" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H16" s="151"/>
       <c r="I16" s="151"/>
@@ -22344,22 +22342,22 @@
       <c r="S16" s="138"/>
       <c r="T16" s="151"/>
       <c r="U16" s="156" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="V16" s="140"/>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="149" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B17" s="137" t="s">
         <v>135</v>
       </c>
       <c r="C17" s="137" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D17" s="137" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="E17" s="137" t="s">
         <v>150</v>
@@ -22381,7 +22379,7 @@
       <c r="P17" s="151"/>
       <c r="Q17" s="151"/>
       <c r="R17" s="137" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="S17" s="138"/>
       <c r="T17" s="151"/>
@@ -22390,16 +22388,16 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="149" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B18" s="137" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C18" s="137" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D18" s="137" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="E18" s="137" t="s">
         <v>150</v>
@@ -22421,7 +22419,7 @@
       <c r="P18" s="151"/>
       <c r="Q18" s="151"/>
       <c r="R18" s="137" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="S18" s="138"/>
       <c r="T18" s="151"/>

--- a/Assets/island/DBCfg/DataCfg.xlsx
+++ b/Assets/island/DBCfg/DataCfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24560" windowHeight="15600" tabRatio="827" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24620" windowHeight="15600" tabRatio="827" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="配置表cfg" sheetId="1" r:id="rId1"/>
@@ -691,7 +691,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="951">
   <si>
     <t>表名：</t>
   </si>
@@ -3078,10 +3078,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DamageMin</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4131,10 +4127,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>45</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4242,22 +4234,53 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>攻击特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackEffect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BombLandmine</t>
+  </si>
+  <si>
+    <t>BombWaterMine</t>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>200</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>攻击特效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackEffect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BombLandmine</t>
-  </si>
-  <si>
-    <t>BombWaterMine</t>
+    <t>300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BombAir</t>
   </si>
 </sst>
 </file>
@@ -10207,13 +10230,13 @@
         <v>403</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="8" customFormat="1" ht="15" customHeight="1">
@@ -10231,13 +10254,13 @@
         <v>404</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -10257,10 +10280,10 @@
         <v>5</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -10433,10 +10456,10 @@
   <dimension ref="A1:BL45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="AR18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="AR12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="BG28" sqref="BG28"/>
+      <selection pane="bottomRight" activeCell="BG26" sqref="BG26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10557,13 +10580,13 @@
         <v>42</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J4" s="28" t="s">
+        <v>720</v>
+      </c>
+      <c r="K4" s="28" t="s">
         <v>721</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>722</v>
       </c>
       <c r="L4" s="72" t="s">
         <v>517</v>
@@ -10662,16 +10685,16 @@
         <v>54</v>
       </c>
       <c r="AR4" s="116" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AS4" s="116" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AT4" s="116" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AU4" s="30" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="AV4" s="30" t="s">
         <v>46</v>
@@ -10707,7 +10730,7 @@
         <v>57</v>
       </c>
       <c r="BG4" s="30" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="BH4" s="30" t="s">
         <v>58</v>
@@ -10736,7 +10759,7 @@
         <v>37</v>
       </c>
       <c r="E5" s="102" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>345</v>
@@ -10748,13 +10771,13 @@
         <v>69</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J5" s="28" t="s">
+        <v>722</v>
+      </c>
+      <c r="K5" s="28" t="s">
         <v>723</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>724</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>519</v>
@@ -10766,7 +10789,7 @@
         <v>521</v>
       </c>
       <c r="O5" s="73" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P5" s="73" t="s">
         <v>525</v>
@@ -10853,16 +10876,16 @@
         <v>80</v>
       </c>
       <c r="AR5" s="116" t="s">
+        <v>640</v>
+      </c>
+      <c r="AS5" s="116" t="s">
         <v>641</v>
       </c>
-      <c r="AS5" s="116" t="s">
+      <c r="AT5" s="116" t="s">
         <v>642</v>
       </c>
-      <c r="AT5" s="116" t="s">
-        <v>643</v>
-      </c>
       <c r="AU5" s="49" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="AV5" s="28" t="s">
         <v>73</v>
@@ -10874,7 +10897,7 @@
         <v>75</v>
       </c>
       <c r="AY5" s="28" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AZ5" s="109" t="s">
         <v>70</v>
@@ -10883,22 +10906,22 @@
         <v>81</v>
       </c>
       <c r="BB5" s="28" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="BC5" s="28" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="BD5" s="28" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="BE5" s="28" t="s">
         <v>76</v>
       </c>
       <c r="BF5" s="28" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="BG5" s="28" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="BH5" s="28" t="s">
         <v>83</v>
@@ -11119,13 +11142,13 @@
         <v>91</v>
       </c>
       <c r="D7" s="104" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E7" s="103" t="s">
         <v>348</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>94</v>
@@ -11135,10 +11158,10 @@
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="35" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="L7" s="79">
         <v>0</v>
@@ -11148,7 +11171,7 @@
         <v>17280</v>
       </c>
       <c r="N7" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O7" s="76">
         <v>0</v>
@@ -11157,7 +11180,7 @@
         <v>553</v>
       </c>
       <c r="Q7" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R7" s="90">
         <v>0</v>
@@ -11166,7 +11189,7 @@
         <v>30000000</v>
       </c>
       <c r="T7" s="86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U7" s="88">
         <v>0</v>
@@ -11175,7 +11198,7 @@
         <v>30000000</v>
       </c>
       <c r="W7" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X7" s="81">
         <v>1500</v>
@@ -11219,7 +11242,7 @@
       <c r="BA7" s="35"/>
       <c r="BB7" s="35"/>
       <c r="BC7" s="31" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="BD7" s="31"/>
       <c r="BE7" s="35"/>
@@ -11261,10 +11284,10 @@
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="35" t="s">
+        <v>751</v>
+      </c>
+      <c r="K8" s="35" t="s">
         <v>752</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>753</v>
       </c>
       <c r="L8" s="79" t="s">
         <v>92</v>
@@ -11273,7 +11296,7 @@
         <v>5760</v>
       </c>
       <c r="N8" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O8" s="76" t="s">
         <v>117</v>
@@ -11282,7 +11305,7 @@
         <v>541</v>
       </c>
       <c r="Q8" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R8" s="90" t="s">
         <v>117</v>
@@ -11291,7 +11314,7 @@
         <v>541</v>
       </c>
       <c r="T8" s="86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U8" s="88" t="s">
         <v>117</v>
@@ -11300,7 +11323,7 @@
         <v>541</v>
       </c>
       <c r="W8" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X8" s="82">
         <v>250</v>
@@ -11336,10 +11359,10 @@
         <v>549</v>
       </c>
       <c r="AM8" s="114" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AN8" s="114" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AO8" s="115" t="s">
         <v>549</v>
@@ -11362,7 +11385,7 @@
       <c r="BA8" s="35"/>
       <c r="BB8" s="35"/>
       <c r="BC8" s="31" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="BD8" s="31"/>
       <c r="BE8" s="35"/>
@@ -11404,10 +11427,10 @@
       </c>
       <c r="I9" s="35"/>
       <c r="J9" s="35" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="L9" s="79">
         <v>1</v>
@@ -11416,7 +11439,7 @@
         <v>5760</v>
       </c>
       <c r="N9" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O9" s="76" t="s">
         <v>104</v>
@@ -11425,7 +11448,7 @@
         <v>541</v>
       </c>
       <c r="Q9" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R9" s="90" t="s">
         <v>104</v>
@@ -11434,7 +11457,7 @@
         <v>541</v>
       </c>
       <c r="T9" s="86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U9" s="88" t="s">
         <v>104</v>
@@ -11443,7 +11466,7 @@
         <v>541</v>
       </c>
       <c r="W9" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X9" s="81" t="s">
         <v>106</v>
@@ -11487,7 +11510,7 @@
       <c r="BA9" s="35"/>
       <c r="BB9" s="35"/>
       <c r="BC9" s="36" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="BD9" s="36"/>
       <c r="BE9" s="35"/>
@@ -11529,10 +11552,10 @@
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="35" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="L10" s="79">
         <v>1</v>
@@ -11541,7 +11564,7 @@
         <v>5760</v>
       </c>
       <c r="N10" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O10" s="76" t="s">
         <v>108</v>
@@ -11550,7 +11573,7 @@
         <v>541</v>
       </c>
       <c r="Q10" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R10" s="90" t="s">
         <v>108</v>
@@ -11559,7 +11582,7 @@
         <v>541</v>
       </c>
       <c r="T10" s="86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U10" s="88" t="s">
         <v>108</v>
@@ -11568,7 +11591,7 @@
         <v>541</v>
       </c>
       <c r="W10" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X10" s="82">
         <v>500</v>
@@ -11624,7 +11647,7 @@
       <c r="BA10" s="35"/>
       <c r="BB10" s="35"/>
       <c r="BC10" s="36" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="BD10" s="36"/>
       <c r="BE10" s="35"/>
@@ -11666,10 +11689,10 @@
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="L11" s="79">
         <v>1</v>
@@ -11678,7 +11701,7 @@
         <v>5760</v>
       </c>
       <c r="N11" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O11" s="76">
         <v>0</v>
@@ -11687,7 +11710,7 @@
         <v>541</v>
       </c>
       <c r="Q11" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R11" s="90">
         <v>0</v>
@@ -11696,7 +11719,7 @@
         <v>541</v>
       </c>
       <c r="T11" s="86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U11" s="88">
         <v>0</v>
@@ -11705,7 +11728,7 @@
         <v>541</v>
       </c>
       <c r="W11" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X11" s="82">
         <v>580</v>
@@ -11755,7 +11778,7 @@
       <c r="BA11" s="36"/>
       <c r="BB11" s="36"/>
       <c r="BC11" s="31" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="BD11" s="36"/>
       <c r="BE11" s="36"/>
@@ -11797,10 +11820,10 @@
       </c>
       <c r="I12" s="35"/>
       <c r="J12" s="35" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="L12" s="79">
         <v>1</v>
@@ -11809,7 +11832,7 @@
         <v>10080</v>
       </c>
       <c r="N12" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O12" s="76"/>
       <c r="P12" s="76"/>
@@ -11821,7 +11844,7 @@
         <v>540</v>
       </c>
       <c r="T12" s="86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U12" s="88" t="s">
         <v>133</v>
@@ -11830,7 +11853,7 @@
         <v>540</v>
       </c>
       <c r="W12" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X12" s="81">
         <v>400</v>
@@ -11880,10 +11903,10 @@
       <c r="BA12" s="35"/>
       <c r="BB12" s="35"/>
       <c r="BC12" s="36" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="BD12" s="37" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="BE12" s="35"/>
       <c r="BF12" s="35"/>
@@ -11924,10 +11947,10 @@
       </c>
       <c r="I13" s="35"/>
       <c r="J13" s="35" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="L13" s="79">
         <v>1</v>
@@ -11936,7 +11959,7 @@
         <v>10080</v>
       </c>
       <c r="N13" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O13" s="76"/>
       <c r="P13" s="76"/>
@@ -11948,7 +11971,7 @@
         <v>540</v>
       </c>
       <c r="T13" s="86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U13" s="88" t="s">
         <v>141</v>
@@ -11957,7 +11980,7 @@
         <v>540</v>
       </c>
       <c r="W13" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X13" s="81" t="s">
         <v>114</v>
@@ -12005,7 +12028,7 @@
       <c r="BA13" s="35"/>
       <c r="BB13" s="35"/>
       <c r="BC13" s="31" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="BD13" s="33"/>
       <c r="BE13" s="35"/>
@@ -12047,10 +12070,10 @@
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="35" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L14" s="79">
         <v>1</v>
@@ -12059,7 +12082,7 @@
         <v>10080</v>
       </c>
       <c r="N14" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O14" s="76" t="s">
         <v>133</v>
@@ -12068,7 +12091,7 @@
         <v>540</v>
       </c>
       <c r="Q14" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R14" s="90"/>
       <c r="S14" s="90"/>
@@ -12080,7 +12103,7 @@
         <v>540</v>
       </c>
       <c r="W14" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X14" s="81">
         <v>400</v>
@@ -12130,10 +12153,10 @@
       <c r="BA14" s="35"/>
       <c r="BB14" s="35"/>
       <c r="BC14" s="36" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="BD14" s="37" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="BE14" s="35"/>
       <c r="BF14" s="35"/>
@@ -12174,10 +12197,10 @@
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="35" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="L15" s="79">
         <v>1</v>
@@ -12186,7 +12209,7 @@
         <v>10080</v>
       </c>
       <c r="N15" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O15" s="76" t="s">
         <v>141</v>
@@ -12195,7 +12218,7 @@
         <v>540</v>
       </c>
       <c r="Q15" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R15" s="90"/>
       <c r="S15" s="90"/>
@@ -12207,7 +12230,7 @@
         <v>540</v>
       </c>
       <c r="W15" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X15" s="81" t="s">
         <v>114</v>
@@ -12222,7 +12245,7 @@
         <v>615</v>
       </c>
       <c r="AB15" s="92" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AC15" s="93" t="s">
         <v>549</v>
@@ -12255,7 +12278,7 @@
       <c r="BA15" s="35"/>
       <c r="BB15" s="35"/>
       <c r="BC15" s="31" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="BD15" s="33"/>
       <c r="BE15" s="35"/>
@@ -12297,10 +12320,10 @@
       </c>
       <c r="I16" s="35"/>
       <c r="J16" s="35" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L16" s="79">
         <v>1</v>
@@ -12309,7 +12332,7 @@
         <v>10080</v>
       </c>
       <c r="N16" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O16" s="76">
         <v>150</v>
@@ -12318,7 +12341,7 @@
         <v>540</v>
       </c>
       <c r="Q16" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R16" s="90">
         <v>150</v>
@@ -12327,7 +12350,7 @@
         <v>540</v>
       </c>
       <c r="T16" s="86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U16" s="88"/>
       <c r="V16" s="88"/>
@@ -12380,10 +12403,10 @@
       <c r="BA16" s="35"/>
       <c r="BB16" s="35"/>
       <c r="BC16" s="31" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="BD16" s="33" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="BE16" s="35"/>
       <c r="BF16" s="35"/>
@@ -12424,10 +12447,10 @@
       </c>
       <c r="I17" s="35"/>
       <c r="J17" s="35" t="s">
+        <v>732</v>
+      </c>
+      <c r="K17" s="35" t="s">
         <v>733</v>
-      </c>
-      <c r="K17" s="35" t="s">
-        <v>734</v>
       </c>
       <c r="L17" s="79">
         <v>1</v>
@@ -12436,7 +12459,7 @@
         <v>10080</v>
       </c>
       <c r="N17" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O17" s="76" t="s">
         <v>141</v>
@@ -12445,7 +12468,7 @@
         <v>540</v>
       </c>
       <c r="Q17" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R17" s="90" t="s">
         <v>141</v>
@@ -12454,7 +12477,7 @@
         <v>540</v>
       </c>
       <c r="T17" s="86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U17" s="88"/>
       <c r="V17" s="88"/>
@@ -12505,7 +12528,7 @@
       <c r="BA17" s="35"/>
       <c r="BB17" s="35"/>
       <c r="BC17" s="31" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="BD17" s="33"/>
       <c r="BE17" s="35"/>
@@ -12547,10 +12570,10 @@
       </c>
       <c r="I18" s="35"/>
       <c r="J18" s="35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L18" s="79">
         <f>60/60</f>
@@ -12560,7 +12583,7 @@
         <v>10080</v>
       </c>
       <c r="N18" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O18" s="76">
         <v>250</v>
@@ -12569,7 +12592,7 @@
         <v>555</v>
       </c>
       <c r="Q18" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R18" s="90">
         <v>250</v>
@@ -12578,7 +12601,7 @@
         <v>540</v>
       </c>
       <c r="T18" s="86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U18" s="88">
         <v>250</v>
@@ -12587,7 +12610,7 @@
         <v>540</v>
       </c>
       <c r="W18" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X18" s="81">
         <v>400</v>
@@ -12627,7 +12650,7 @@
         <v>7</v>
       </c>
       <c r="AS18" s="117" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AT18" s="118" t="s">
         <v>549</v>
@@ -12647,12 +12670,12 @@
       <c r="BA18" s="34"/>
       <c r="BB18" s="34"/>
       <c r="BC18" s="34" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="BD18" s="34"/>
       <c r="BE18" s="34"/>
       <c r="BF18" s="34" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="BG18" s="34"/>
       <c r="BH18" s="34" t="s">
@@ -12695,10 +12718,10 @@
       </c>
       <c r="I19" s="35"/>
       <c r="J19" s="35" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L19" s="79">
         <f t="shared" ref="L19:L31" si="1">60/60</f>
@@ -12708,7 +12731,7 @@
         <v>10080</v>
       </c>
       <c r="N19" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O19" s="76">
         <v>1000</v>
@@ -12717,7 +12740,7 @@
         <v>555</v>
       </c>
       <c r="Q19" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R19" s="90">
         <v>1000</v>
@@ -12726,7 +12749,7 @@
         <v>540</v>
       </c>
       <c r="T19" s="86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U19" s="88">
         <v>1000</v>
@@ -12735,7 +12758,7 @@
         <v>540</v>
       </c>
       <c r="W19" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X19" s="81">
         <v>400</v>
@@ -12775,7 +12798,7 @@
         <v>11</v>
       </c>
       <c r="AS19" s="117" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AT19" s="118" t="s">
         <v>549</v>
@@ -12795,12 +12818,12 @@
       <c r="BA19" s="32"/>
       <c r="BB19" s="32"/>
       <c r="BC19" s="36" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="BD19" s="36"/>
       <c r="BE19" s="32"/>
       <c r="BF19" s="36" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="BG19" s="36"/>
       <c r="BH19" s="35" t="s">
@@ -12843,10 +12866,10 @@
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="35" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L20" s="79">
         <f t="shared" si="1"/>
@@ -12856,7 +12879,7 @@
         <v>10080</v>
       </c>
       <c r="N20" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O20" s="76" t="s">
         <v>162</v>
@@ -12865,7 +12888,7 @@
         <v>555</v>
       </c>
       <c r="Q20" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R20" s="90" t="s">
         <v>162</v>
@@ -12874,7 +12897,7 @@
         <v>540</v>
       </c>
       <c r="T20" s="86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U20" s="88" t="s">
         <v>162</v>
@@ -12883,7 +12906,7 @@
         <v>540</v>
       </c>
       <c r="W20" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X20" s="81">
         <v>400</v>
@@ -12916,22 +12939,22 @@
         <v>549</v>
       </c>
       <c r="AP20" s="35" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="AQ20" s="34" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AR20" s="117">
         <v>20</v>
       </c>
       <c r="AS20" s="117" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AT20" s="118" t="s">
         <v>577</v>
       </c>
       <c r="AU20" s="36" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="AV20" s="34"/>
       <c r="AW20" s="34"/>
@@ -12947,12 +12970,12 @@
       <c r="BA20" s="34"/>
       <c r="BB20" s="34"/>
       <c r="BC20" s="34" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="BD20" s="34"/>
       <c r="BE20" s="34"/>
       <c r="BF20" s="34" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="BG20" s="34"/>
       <c r="BH20" s="34" t="s">
@@ -12995,10 +13018,10 @@
       </c>
       <c r="I21" s="35"/>
       <c r="J21" s="35" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="L21" s="79">
         <f t="shared" si="1"/>
@@ -13008,7 +13031,7 @@
         <v>10080</v>
       </c>
       <c r="N21" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O21" s="76">
         <v>22500</v>
@@ -13017,7 +13040,7 @@
         <v>555</v>
       </c>
       <c r="Q21" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R21" s="90">
         <v>22500</v>
@@ -13026,7 +13049,7 @@
         <v>540</v>
       </c>
       <c r="T21" s="86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U21" s="88">
         <v>22500</v>
@@ -13035,7 +13058,7 @@
         <v>540</v>
       </c>
       <c r="W21" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X21" s="81" t="s">
         <v>578</v>
@@ -13059,10 +13082,10 @@
       <c r="AK21" s="106"/>
       <c r="AL21" s="107"/>
       <c r="AM21" s="114" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="AN21" s="114" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="AO21" s="115" t="s">
         <v>549</v>
@@ -13075,7 +13098,7 @@
         <v>80</v>
       </c>
       <c r="AS21" s="117" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AT21" s="118" t="s">
         <v>577</v>
@@ -13087,7 +13110,7 @@
         <v>94</v>
       </c>
       <c r="AY21" s="32" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="AZ21" s="111" t="s">
         <v>620</v>
@@ -13095,12 +13118,12 @@
       <c r="BA21" s="32"/>
       <c r="BB21" s="32"/>
       <c r="BC21" s="36" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="BD21" s="36"/>
       <c r="BE21" s="32"/>
       <c r="BF21" s="36" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="BG21" s="36"/>
       <c r="BH21" s="32" t="s">
@@ -13124,7 +13147,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D22" s="104" t="s">
         <v>391</v>
@@ -13143,10 +13166,10 @@
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L22" s="79">
         <f t="shared" si="1"/>
@@ -13156,7 +13179,7 @@
         <v>10080</v>
       </c>
       <c r="N22" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O22" s="77" t="s">
         <v>168</v>
@@ -13165,7 +13188,7 @@
         <v>555</v>
       </c>
       <c r="Q22" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R22" s="90" t="s">
         <v>168</v>
@@ -13174,7 +13197,7 @@
         <v>554</v>
       </c>
       <c r="T22" s="86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U22" s="88" t="s">
         <v>168</v>
@@ -13183,7 +13206,7 @@
         <v>554</v>
       </c>
       <c r="W22" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X22" s="82" t="s">
         <v>579</v>
@@ -13207,31 +13230,31 @@
       <c r="AK22" s="106"/>
       <c r="AL22" s="107"/>
       <c r="AM22" s="114" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="AN22" s="114" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="AO22" s="115" t="s">
         <v>549</v>
       </c>
       <c r="AP22" s="35" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AQ22" s="34" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="AR22" s="119" t="s">
         <v>169</v>
       </c>
       <c r="AS22" s="119" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AT22" s="118" t="s">
         <v>549</v>
       </c>
       <c r="AU22" s="36" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="AV22" s="34"/>
       <c r="AW22" s="34"/>
@@ -13239,7 +13262,7 @@
         <v>94</v>
       </c>
       <c r="AY22" s="34" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="AZ22" s="111" t="s">
         <v>620</v>
@@ -13247,12 +13270,12 @@
       <c r="BA22" s="34"/>
       <c r="BB22" s="34"/>
       <c r="BC22" s="34" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="BD22" s="34"/>
       <c r="BE22" s="34"/>
       <c r="BF22" s="36" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="BG22" s="36"/>
       <c r="BH22" s="34" t="s">
@@ -13276,7 +13299,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D23" s="104" t="s">
         <v>179</v>
@@ -13295,10 +13318,10 @@
       </c>
       <c r="I23" s="35"/>
       <c r="J23" s="35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="L23" s="79">
         <f t="shared" si="1"/>
@@ -13308,7 +13331,7 @@
         <v>10080</v>
       </c>
       <c r="N23" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O23" s="76" t="s">
         <v>550</v>
@@ -13317,7 +13340,7 @@
         <v>556</v>
       </c>
       <c r="Q23" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R23" s="90" t="s">
         <v>550</v>
@@ -13326,7 +13349,7 @@
         <v>551</v>
       </c>
       <c r="T23" s="86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U23" s="88" t="s">
         <v>550</v>
@@ -13335,7 +13358,7 @@
         <v>551</v>
       </c>
       <c r="W23" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X23" s="81" t="s">
         <v>558</v>
@@ -13375,7 +13398,7 @@
         <v>20</v>
       </c>
       <c r="AS23" s="117" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AT23" s="118" t="s">
         <v>548</v>
@@ -13395,12 +13418,12 @@
       <c r="BA23" s="32"/>
       <c r="BB23" s="32"/>
       <c r="BC23" s="36" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="BD23" s="36"/>
       <c r="BE23" s="32"/>
       <c r="BF23" s="32" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="BG23" s="32"/>
       <c r="BH23" s="32" t="s">
@@ -13443,10 +13466,10 @@
       </c>
       <c r="I24" s="35"/>
       <c r="J24" s="35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L24" s="79">
         <f t="shared" si="1"/>
@@ -13457,7 +13480,7 @@
         <v>17280</v>
       </c>
       <c r="N24" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O24" s="76">
         <v>2500000</v>
@@ -13466,7 +13489,7 @@
         <v>551</v>
       </c>
       <c r="Q24" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R24" s="90">
         <v>2500000</v>
@@ -13475,7 +13498,7 @@
         <v>552</v>
       </c>
       <c r="T24" s="86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U24" s="88">
         <v>2500000</v>
@@ -13484,7 +13507,7 @@
         <v>552</v>
       </c>
       <c r="W24" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X24" s="81">
         <v>1500</v>
@@ -13520,13 +13543,13 @@
         <v>183</v>
       </c>
       <c r="AQ24" s="36" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="AR24" s="117" t="s">
         <v>177</v>
       </c>
       <c r="AS24" s="117" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="AT24" s="118" t="s">
         <v>570</v>
@@ -13546,12 +13569,12 @@
       <c r="BA24" s="36"/>
       <c r="BB24" s="36"/>
       <c r="BC24" s="31" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="BD24" s="36"/>
       <c r="BE24" s="36"/>
       <c r="BF24" s="36" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="BG24" s="36"/>
       <c r="BH24" s="32" t="s">
@@ -13596,10 +13619,10 @@
         <v>94</v>
       </c>
       <c r="J25" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="L25" s="79">
         <f t="shared" si="1"/>
@@ -13609,7 +13632,7 @@
         <v>10080</v>
       </c>
       <c r="N25" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O25" s="76" t="s">
         <v>188</v>
@@ -13618,7 +13641,7 @@
         <v>540</v>
       </c>
       <c r="Q25" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R25" s="90" t="s">
         <v>188</v>
@@ -13627,7 +13650,7 @@
         <v>540</v>
       </c>
       <c r="T25" s="86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U25" s="88" t="s">
         <v>188</v>
@@ -13636,7 +13659,7 @@
         <v>540</v>
       </c>
       <c r="W25" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X25" s="83"/>
       <c r="Y25" s="83"/>
@@ -13651,10 +13674,10 @@
       <c r="AH25" s="98"/>
       <c r="AI25" s="99"/>
       <c r="AJ25" s="38" t="s">
-        <v>124</v>
+        <v>944</v>
       </c>
       <c r="AK25" s="38" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="AL25" s="107" t="s">
         <v>549</v>
@@ -13663,7 +13686,7 @@
         <v>635</v>
       </c>
       <c r="AN25" s="114" t="s">
-        <v>634</v>
+        <v>946</v>
       </c>
       <c r="AO25" s="115" t="s">
         <v>549</v>
@@ -13676,7 +13699,7 @@
         <v>190</v>
       </c>
       <c r="AS25" s="120" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AT25" s="118" t="s">
         <v>548</v>
@@ -13696,13 +13719,13 @@
       <c r="BA25" s="38"/>
       <c r="BB25" s="38"/>
       <c r="BC25" s="31" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="BD25" s="36"/>
       <c r="BE25" s="36"/>
       <c r="BF25" s="36"/>
       <c r="BG25" s="36" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="BH25" s="38" t="s">
         <v>119</v>
@@ -13746,10 +13769,10 @@
         <v>94</v>
       </c>
       <c r="J26" s="35" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K26" s="35" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="L26" s="79">
         <f t="shared" si="1"/>
@@ -13759,7 +13782,7 @@
         <v>10080</v>
       </c>
       <c r="N26" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O26" s="76" t="s">
         <v>114</v>
@@ -13768,7 +13791,7 @@
         <v>540</v>
       </c>
       <c r="Q26" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R26" s="90" t="s">
         <v>114</v>
@@ -13777,7 +13800,7 @@
         <v>540</v>
       </c>
       <c r="T26" s="86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U26" s="88" t="s">
         <v>114</v>
@@ -13786,7 +13809,7 @@
         <v>540</v>
       </c>
       <c r="W26" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X26" s="83"/>
       <c r="Y26" s="83"/>
@@ -13804,7 +13827,7 @@
         <v>634</v>
       </c>
       <c r="AK26" s="36" t="s">
-        <v>189</v>
+        <v>947</v>
       </c>
       <c r="AL26" s="107" t="s">
         <v>549</v>
@@ -13820,13 +13843,13 @@
       </c>
       <c r="AP26" s="35"/>
       <c r="AQ26" s="36" t="s">
-        <v>117</v>
+        <v>948</v>
       </c>
       <c r="AR26" s="120" t="s">
         <v>124</v>
       </c>
       <c r="AS26" s="120" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AT26" s="118" t="s">
         <v>577</v>
@@ -13846,12 +13869,14 @@
       <c r="BA26" s="36"/>
       <c r="BB26" s="36"/>
       <c r="BC26" s="31" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="BD26" s="36"/>
       <c r="BE26" s="36"/>
       <c r="BF26" s="36"/>
-      <c r="BG26" s="36"/>
+      <c r="BG26" s="36" t="s">
+        <v>950</v>
+      </c>
       <c r="BH26" s="32" t="s">
         <v>94</v>
       </c>
@@ -13894,10 +13919,10 @@
         <v>94</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="L27" s="79">
         <f t="shared" si="1"/>
@@ -13907,7 +13932,7 @@
         <v>10080</v>
       </c>
       <c r="N27" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O27" s="76" t="s">
         <v>188</v>
@@ -13916,7 +13941,7 @@
         <v>540</v>
       </c>
       <c r="Q27" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R27" s="90" t="s">
         <v>188</v>
@@ -13925,7 +13950,7 @@
         <v>540</v>
       </c>
       <c r="T27" s="86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U27" s="88" t="s">
         <v>188</v>
@@ -13934,7 +13959,7 @@
         <v>540</v>
       </c>
       <c r="W27" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X27" s="83"/>
       <c r="Y27" s="83"/>
@@ -13949,7 +13974,7 @@
       <c r="AH27" s="98"/>
       <c r="AI27" s="99"/>
       <c r="AJ27" s="36" t="s">
-        <v>117</v>
+        <v>943</v>
       </c>
       <c r="AK27" s="36" t="s">
         <v>117</v>
@@ -13974,7 +13999,7 @@
         <v>190</v>
       </c>
       <c r="AS27" s="120" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AT27" s="118" t="s">
         <v>549</v>
@@ -13994,13 +14019,13 @@
       <c r="BA27" s="36"/>
       <c r="BB27" s="36"/>
       <c r="BC27" s="31" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="BD27" s="36"/>
       <c r="BE27" s="36"/>
       <c r="BF27" s="36"/>
       <c r="BG27" s="36" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="BH27" s="36" t="s">
         <v>119</v>
@@ -14044,10 +14069,10 @@
         <v>94</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K28" s="35" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="L28" s="79">
         <f t="shared" si="1"/>
@@ -14057,7 +14082,7 @@
         <v>10080</v>
       </c>
       <c r="N28" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O28" s="76" t="s">
         <v>145</v>
@@ -14066,7 +14091,7 @@
         <v>540</v>
       </c>
       <c r="Q28" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R28" s="90" t="s">
         <v>145</v>
@@ -14075,7 +14100,7 @@
         <v>540</v>
       </c>
       <c r="T28" s="86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U28" s="88" t="s">
         <v>145</v>
@@ -14084,7 +14109,7 @@
         <v>540</v>
       </c>
       <c r="W28" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X28" s="83"/>
       <c r="Y28" s="83"/>
@@ -14093,7 +14118,7 @@
         <v>122</v>
       </c>
       <c r="AB28" s="92" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AC28" s="93" t="s">
         <v>549</v>
@@ -14130,7 +14155,7 @@
         <v>92</v>
       </c>
       <c r="AS28" s="120" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AT28" s="118" t="s">
         <v>549</v>
@@ -14148,7 +14173,7 @@
       <c r="BA28" s="36"/>
       <c r="BB28" s="36"/>
       <c r="BC28" s="31" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="BD28" s="36"/>
       <c r="BE28" s="36"/>
@@ -14196,10 +14221,10 @@
         <v>94</v>
       </c>
       <c r="J29" s="35" t="s">
+        <v>737</v>
+      </c>
+      <c r="K29" s="35" t="s">
         <v>738</v>
-      </c>
-      <c r="K29" s="35" t="s">
-        <v>739</v>
       </c>
       <c r="L29" s="79">
         <f t="shared" si="1"/>
@@ -14209,7 +14234,7 @@
         <v>10080</v>
       </c>
       <c r="N29" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O29" s="76" t="s">
         <v>204</v>
@@ -14218,7 +14243,7 @@
         <v>540</v>
       </c>
       <c r="Q29" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R29" s="90" t="s">
         <v>204</v>
@@ -14227,7 +14252,7 @@
         <v>540</v>
       </c>
       <c r="T29" s="86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U29" s="88" t="s">
         <v>204</v>
@@ -14236,7 +14261,7 @@
         <v>540</v>
       </c>
       <c r="W29" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X29" s="83"/>
       <c r="Y29" s="83"/>
@@ -14245,7 +14270,7 @@
         <v>158</v>
       </c>
       <c r="AB29" s="92" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AC29" s="93" t="s">
         <v>549</v>
@@ -14282,7 +14307,7 @@
         <v>92</v>
       </c>
       <c r="AS29" s="120" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AT29" s="118" t="s">
         <v>549</v>
@@ -14300,7 +14325,7 @@
       <c r="BA29" s="36"/>
       <c r="BB29" s="36"/>
       <c r="BC29" s="31" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="BD29" s="36"/>
       <c r="BE29" s="36"/>
@@ -14357,7 +14382,7 @@
         <v>10080</v>
       </c>
       <c r="N30" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O30" s="76" t="s">
         <v>128</v>
@@ -14366,7 +14391,7 @@
         <v>540</v>
       </c>
       <c r="Q30" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R30" s="90" t="s">
         <v>128</v>
@@ -14375,7 +14400,7 @@
         <v>540</v>
       </c>
       <c r="T30" s="86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U30" s="88" t="s">
         <v>128</v>
@@ -14384,7 +14409,7 @@
         <v>540</v>
       </c>
       <c r="W30" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X30" s="83"/>
       <c r="Y30" s="83"/>
@@ -14418,13 +14443,13 @@
       </c>
       <c r="AP30" s="35"/>
       <c r="AQ30" s="38" t="s">
-        <v>640</v>
+        <v>949</v>
       </c>
       <c r="AR30" s="120" t="s">
         <v>96</v>
       </c>
       <c r="AS30" s="120" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AT30" s="118" t="s">
         <v>549</v>
@@ -14442,7 +14467,7 @@
       <c r="BA30" s="36"/>
       <c r="BB30" s="36"/>
       <c r="BC30" s="31" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="BD30" s="36"/>
       <c r="BE30" s="36"/>
@@ -14490,10 +14515,10 @@
         <v>94</v>
       </c>
       <c r="J31" s="35" t="s">
+        <v>737</v>
+      </c>
+      <c r="K31" s="35" t="s">
         <v>738</v>
-      </c>
-      <c r="K31" s="35" t="s">
-        <v>739</v>
       </c>
       <c r="L31" s="79">
         <f t="shared" si="1"/>
@@ -14503,7 +14528,7 @@
         <v>10080</v>
       </c>
       <c r="N31" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O31" s="76" t="s">
         <v>130</v>
@@ -14512,7 +14537,7 @@
         <v>540</v>
       </c>
       <c r="Q31" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R31" s="90" t="s">
         <v>130</v>
@@ -14521,7 +14546,7 @@
         <v>540</v>
       </c>
       <c r="T31" s="86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U31" s="88" t="s">
         <v>130</v>
@@ -14530,7 +14555,7 @@
         <v>540</v>
       </c>
       <c r="W31" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X31" s="83"/>
       <c r="Y31" s="83"/>
@@ -14539,7 +14564,7 @@
         <v>158</v>
       </c>
       <c r="AB31" s="92" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AC31" s="93" t="s">
         <v>549</v>
@@ -14594,7 +14619,7 @@
       <c r="BA31" s="36"/>
       <c r="BB31" s="36"/>
       <c r="BC31" s="31" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="BD31" s="36"/>
       <c r="BE31" s="36"/>
@@ -14630,7 +14655,7 @@
         <v>92</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>119</v>
@@ -14651,7 +14676,7 @@
         <v>100000</v>
       </c>
       <c r="Q32" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R32" s="90"/>
       <c r="S32" s="90"/>
@@ -14663,7 +14688,7 @@
         <v>100000</v>
       </c>
       <c r="W32" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X32" s="82"/>
       <c r="Y32" s="82"/>
@@ -14697,7 +14722,7 @@
       <c r="BA32" s="36"/>
       <c r="BB32" s="36"/>
       <c r="BC32" s="36" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="BD32" s="36"/>
       <c r="BE32" s="36"/>
@@ -14729,7 +14754,7 @@
         <v>92</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>119</v>
@@ -14750,7 +14775,7 @@
         <v>100000</v>
       </c>
       <c r="Q33" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R33" s="90"/>
       <c r="S33" s="90"/>
@@ -14762,7 +14787,7 @@
         <v>100000</v>
       </c>
       <c r="W33" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X33" s="82"/>
       <c r="Y33" s="82"/>
@@ -14796,7 +14821,7 @@
       <c r="BA33" s="36"/>
       <c r="BB33" s="36"/>
       <c r="BC33" s="36" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="BD33" s="36"/>
       <c r="BE33" s="36"/>
@@ -14828,7 +14853,7 @@
         <v>92</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>119</v>
@@ -14849,7 +14874,7 @@
         <v>100000</v>
       </c>
       <c r="Q34" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R34" s="90"/>
       <c r="S34" s="90"/>
@@ -14861,7 +14886,7 @@
         <v>100000</v>
       </c>
       <c r="W34" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X34" s="82"/>
       <c r="Y34" s="82"/>
@@ -14895,7 +14920,7 @@
       <c r="BA34" s="36"/>
       <c r="BB34" s="36"/>
       <c r="BC34" s="36" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="BD34" s="36"/>
       <c r="BE34" s="36"/>
@@ -14927,7 +14952,7 @@
         <v>92</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>119</v>
@@ -14948,7 +14973,7 @@
         <v>100000</v>
       </c>
       <c r="Q35" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R35" s="90"/>
       <c r="S35" s="90"/>
@@ -14960,7 +14985,7 @@
         <v>100000</v>
       </c>
       <c r="W35" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X35" s="82"/>
       <c r="Y35" s="82"/>
@@ -14994,7 +15019,7 @@
       <c r="BA35" s="36"/>
       <c r="BB35" s="36"/>
       <c r="BC35" s="36" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="BD35" s="36"/>
       <c r="BE35" s="36"/>
@@ -15026,7 +15051,7 @@
         <v>92</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>119</v>
@@ -15047,7 +15072,7 @@
         <v>100000</v>
       </c>
       <c r="Q36" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R36" s="90"/>
       <c r="S36" s="90"/>
@@ -15059,7 +15084,7 @@
         <v>100000</v>
       </c>
       <c r="W36" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X36" s="82"/>
       <c r="Y36" s="82"/>
@@ -15093,7 +15118,7 @@
       <c r="BA36" s="36"/>
       <c r="BB36" s="36"/>
       <c r="BC36" s="36" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="BD36" s="36"/>
       <c r="BE36" s="36"/>
@@ -15135,10 +15160,10 @@
       </c>
       <c r="I37" s="35"/>
       <c r="J37" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K37" s="35" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L37" s="79"/>
       <c r="M37" s="79"/>
@@ -15150,7 +15175,7 @@
         <v>200000</v>
       </c>
       <c r="Q37" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R37" s="90">
         <v>200000</v>
@@ -15159,7 +15184,7 @@
         <v>200000</v>
       </c>
       <c r="T37" s="86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U37" s="88">
         <v>200000</v>
@@ -15168,7 +15193,7 @@
         <v>200000</v>
       </c>
       <c r="W37" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X37" s="82"/>
       <c r="Y37" s="82"/>
@@ -15202,7 +15227,7 @@
       <c r="BA37" s="36"/>
       <c r="BB37" s="36"/>
       <c r="BC37" s="36" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="BD37" s="36"/>
       <c r="BE37" s="36"/>
@@ -15246,10 +15271,10 @@
         <v>94</v>
       </c>
       <c r="J38" s="35" t="s">
+        <v>737</v>
+      </c>
+      <c r="K38" s="35" t="s">
         <v>738</v>
-      </c>
-      <c r="K38" s="35" t="s">
-        <v>739</v>
       </c>
       <c r="L38" s="79"/>
       <c r="M38" s="79"/>
@@ -15295,7 +15320,7 @@
       <c r="BA38" s="36"/>
       <c r="BB38" s="36"/>
       <c r="BC38" s="36" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="BD38" s="36"/>
       <c r="BE38" s="36"/>
@@ -15337,10 +15362,10 @@
         <v>94</v>
       </c>
       <c r="J39" s="35" t="s">
+        <v>737</v>
+      </c>
+      <c r="K39" s="35" t="s">
         <v>738</v>
-      </c>
-      <c r="K39" s="35" t="s">
-        <v>739</v>
       </c>
       <c r="L39" s="79"/>
       <c r="M39" s="79"/>
@@ -15386,7 +15411,7 @@
       <c r="BA39" s="36"/>
       <c r="BB39" s="36"/>
       <c r="BC39" s="36" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="BD39" s="36"/>
       <c r="BE39" s="36"/>
@@ -15430,10 +15455,10 @@
         <v>94</v>
       </c>
       <c r="J40" s="35" t="s">
+        <v>737</v>
+      </c>
+      <c r="K40" s="35" t="s">
         <v>738</v>
-      </c>
-      <c r="K40" s="35" t="s">
-        <v>739</v>
       </c>
       <c r="L40" s="79"/>
       <c r="M40" s="79"/>
@@ -15479,7 +15504,7 @@
       <c r="BA40" s="36"/>
       <c r="BB40" s="36"/>
       <c r="BC40" s="36" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="BD40" s="36"/>
       <c r="BE40" s="36"/>
@@ -15523,10 +15548,10 @@
         <v>94</v>
       </c>
       <c r="J41" s="35" t="s">
+        <v>737</v>
+      </c>
+      <c r="K41" s="35" t="s">
         <v>738</v>
-      </c>
-      <c r="K41" s="35" t="s">
-        <v>739</v>
       </c>
       <c r="L41" s="79"/>
       <c r="M41" s="79"/>
@@ -15572,7 +15597,7 @@
       <c r="BA41" s="36"/>
       <c r="BB41" s="36"/>
       <c r="BC41" s="36" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="BD41" s="36"/>
       <c r="BE41" s="36"/>
@@ -15616,10 +15641,10 @@
         <v>94</v>
       </c>
       <c r="J42" s="35" t="s">
+        <v>737</v>
+      </c>
+      <c r="K42" s="35" t="s">
         <v>738</v>
-      </c>
-      <c r="K42" s="35" t="s">
-        <v>739</v>
       </c>
       <c r="L42" s="79"/>
       <c r="M42" s="79"/>
@@ -15665,7 +15690,7 @@
       <c r="BA42" s="36"/>
       <c r="BB42" s="36"/>
       <c r="BC42" s="36" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="BD42" s="36"/>
       <c r="BE42" s="36"/>
@@ -15707,10 +15732,10 @@
       </c>
       <c r="I43" s="35"/>
       <c r="J43" s="35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K43" s="35" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L43" s="79">
         <v>0</v>
@@ -15719,7 +15744,7 @@
         <v>5760</v>
       </c>
       <c r="N43" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O43" s="76" t="s">
         <v>117</v>
@@ -15728,7 +15753,7 @@
         <v>541</v>
       </c>
       <c r="Q43" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R43" s="91" t="s">
         <v>117</v>
@@ -15737,7 +15762,7 @@
         <v>541</v>
       </c>
       <c r="T43" s="86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U43" s="89" t="s">
         <v>117</v>
@@ -15746,7 +15771,7 @@
         <v>541</v>
       </c>
       <c r="W43" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X43" s="81" t="s">
         <v>482</v>
@@ -15788,7 +15813,7 @@
       <c r="BA43" s="35"/>
       <c r="BB43" s="35"/>
       <c r="BC43" s="31" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="BD43" s="36"/>
       <c r="BE43" s="35"/>
@@ -15830,10 +15855,10 @@
       </c>
       <c r="I44" s="35"/>
       <c r="J44" s="35" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K44" s="35" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L44" s="79">
         <v>0</v>
@@ -15842,7 +15867,7 @@
         <v>5760</v>
       </c>
       <c r="N44" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O44" s="76" t="s">
         <v>117</v>
@@ -15851,7 +15876,7 @@
         <v>541</v>
       </c>
       <c r="Q44" s="87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R44" s="91" t="s">
         <v>117</v>
@@ -15860,7 +15885,7 @@
         <v>541</v>
       </c>
       <c r="T44" s="86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U44" s="89" t="s">
         <v>117</v>
@@ -15869,7 +15894,7 @@
         <v>541</v>
       </c>
       <c r="W44" s="85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X44" s="81" t="s">
         <v>484</v>
@@ -15911,7 +15936,7 @@
       <c r="BA44" s="35"/>
       <c r="BB44" s="35"/>
       <c r="BC44" s="31" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="BD44" s="36"/>
       <c r="BE44" s="35"/>
@@ -15953,10 +15978,10 @@
       </c>
       <c r="I45" s="35"/>
       <c r="J45" s="35" t="s">
+        <v>737</v>
+      </c>
+      <c r="K45" s="35" t="s">
         <v>738</v>
-      </c>
-      <c r="K45" s="35" t="s">
-        <v>739</v>
       </c>
       <c r="L45" s="79"/>
       <c r="M45" s="79"/>
@@ -16010,7 +16035,7 @@
       <c r="BA45" s="35"/>
       <c r="BB45" s="35"/>
       <c r="BC45" s="31" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="BD45" s="36"/>
       <c r="BE45" s="35"/>
@@ -16248,16 +16273,16 @@
         <v>332</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H4" s="53" t="s">
         <v>115</v>
       </c>
       <c r="I4" s="65" t="s">
+        <v>667</v>
+      </c>
+      <c r="J4" s="65" t="s">
         <v>668</v>
-      </c>
-      <c r="J4" s="65" t="s">
-        <v>669</v>
       </c>
       <c r="K4" s="65" t="s">
         <v>333</v>
@@ -16368,97 +16393,97 @@
         <v>338</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I5" s="52" t="s">
+        <v>669</v>
+      </c>
+      <c r="J5" s="52" t="s">
         <v>670</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="K5" s="52" t="s">
         <v>671</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="L5" s="52" t="s">
         <v>672</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="M5" s="52" t="s">
         <v>673</v>
       </c>
-      <c r="M5" s="52" t="s">
+      <c r="N5" s="52" t="s">
         <v>674</v>
       </c>
-      <c r="N5" s="52" t="s">
+      <c r="O5" s="52" t="s">
         <v>675</v>
       </c>
-      <c r="O5" s="52" t="s">
+      <c r="P5" s="52" t="s">
         <v>676</v>
       </c>
-      <c r="P5" s="52" t="s">
+      <c r="Q5" s="52" t="s">
         <v>677</v>
       </c>
-      <c r="Q5" s="52" t="s">
-        <v>678</v>
-      </c>
       <c r="R5" s="52" t="s">
+        <v>679</v>
+      </c>
+      <c r="S5" s="52" t="s">
         <v>680</v>
       </c>
-      <c r="S5" s="52" t="s">
+      <c r="T5" s="52" t="s">
         <v>681</v>
       </c>
-      <c r="T5" s="52" t="s">
+      <c r="U5" s="52" t="s">
         <v>682</v>
       </c>
-      <c r="U5" s="52" t="s">
+      <c r="V5" s="52" t="s">
         <v>683</v>
       </c>
-      <c r="V5" s="52" t="s">
+      <c r="W5" s="52" t="s">
         <v>684</v>
       </c>
-      <c r="W5" s="52" t="s">
+      <c r="X5" s="52" t="s">
         <v>685</v>
       </c>
-      <c r="X5" s="52" t="s">
+      <c r="Y5" s="52" t="s">
         <v>686</v>
       </c>
-      <c r="Y5" s="52" t="s">
+      <c r="Z5" s="52" t="s">
         <v>687</v>
       </c>
-      <c r="Z5" s="52" t="s">
+      <c r="AA5" s="52" t="s">
         <v>688</v>
       </c>
-      <c r="AA5" s="52" t="s">
+      <c r="AB5" s="52" t="s">
         <v>689</v>
       </c>
-      <c r="AB5" s="52" t="s">
+      <c r="AC5" s="52" t="s">
         <v>690</v>
       </c>
-      <c r="AC5" s="52" t="s">
+      <c r="AD5" s="52" t="s">
         <v>691</v>
       </c>
-      <c r="AD5" s="52" t="s">
+      <c r="AE5" s="52" t="s">
         <v>692</v>
       </c>
-      <c r="AE5" s="52" t="s">
+      <c r="AF5" s="52" t="s">
         <v>693</v>
       </c>
-      <c r="AF5" s="52" t="s">
+      <c r="AG5" s="52" t="s">
         <v>694</v>
       </c>
-      <c r="AG5" s="52" t="s">
+      <c r="AH5" s="52" t="s">
         <v>695</v>
       </c>
-      <c r="AH5" s="52" t="s">
+      <c r="AI5" s="52" t="s">
         <v>696</v>
       </c>
-      <c r="AI5" s="52" t="s">
+      <c r="AJ5" s="52" t="s">
         <v>697</v>
       </c>
-      <c r="AJ5" s="52" t="s">
+      <c r="AK5" s="52" t="s">
         <v>698</v>
-      </c>
-      <c r="AK5" s="52" t="s">
-        <v>699</v>
       </c>
       <c r="AL5" s="66" t="s">
         <v>339</v>
@@ -16488,7 +16513,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H6" s="54" t="s">
         <v>5</v>
@@ -16607,7 +16632,7 @@
         <v>326</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H7" s="39">
         <v>1</v>
@@ -16718,7 +16743,7 @@
         <v>491</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H8" s="39">
         <v>1</v>
@@ -16829,7 +16854,7 @@
         <v>489</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H9" s="39">
         <v>1</v>
@@ -16942,7 +16967,7 @@
         <v>492</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H10" s="39">
         <v>1</v>
@@ -16975,7 +17000,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="69" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="S10" s="69" t="s">
         <v>458</v>
@@ -17055,7 +17080,7 @@
         <v>493</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H11" s="39" t="s">
         <v>33</v>
@@ -17172,7 +17197,7 @@
         <v>494</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H12" s="39" t="s">
         <v>427</v>
@@ -17291,7 +17316,7 @@
         <v>490</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H13" s="39" t="s">
         <v>427</v>
@@ -17410,7 +17435,7 @@
         <v>495</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H14" s="39" t="s">
         <v>427</v>
@@ -17529,7 +17554,7 @@
         <v>496</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H15" s="39" t="s">
         <v>427</v>
@@ -17648,7 +17673,7 @@
         <v>497</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H16" s="39" t="s">
         <v>428</v>
@@ -17767,7 +17792,7 @@
         <v>498</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>179</v>
@@ -17886,7 +17911,7 @@
         <v>499</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>179</v>
@@ -18005,7 +18030,7 @@
         <v>409</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H19" s="39" t="s">
         <v>179</v>
@@ -18124,7 +18149,7 @@
         <v>504</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H20" s="39" t="s">
         <v>179</v>
@@ -18243,7 +18268,7 @@
         <v>500</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H21" s="39" t="s">
         <v>179</v>
@@ -18362,7 +18387,7 @@
         <v>505</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H22" s="39" t="s">
         <v>429</v>
@@ -18481,7 +18506,7 @@
         <v>506</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H23" s="39">
         <v>4</v>
@@ -18600,7 +18625,7 @@
         <v>501</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H24" s="39">
         <v>4</v>
@@ -18719,7 +18744,7 @@
         <v>502</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H25" s="39">
         <v>4</v>
@@ -18838,7 +18863,7 @@
         <v>503</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H26" s="69" t="s">
         <v>93</v>
@@ -19307,7 +19332,7 @@
   <dimension ref="A1:AV22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="AB7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="W7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="AS16" sqref="AS16"/>
@@ -19361,7 +19386,7 @@
       <c r="B1" s="164"/>
       <c r="C1" s="164"/>
       <c r="D1" s="131" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E1" s="1"/>
       <c r="H1" s="1"/>
@@ -19374,7 +19399,7 @@
       <c r="B2" s="164"/>
       <c r="C2" s="164"/>
       <c r="D2" s="131" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E2" s="1"/>
       <c r="H2" s="1"/>
@@ -19403,22 +19428,22 @@
         <v>37</v>
       </c>
       <c r="E4" s="128" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F4" s="102" t="s">
         <v>346</v>
       </c>
       <c r="G4" s="28" t="s">
+        <v>720</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>721</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>722</v>
       </c>
       <c r="I4" s="128" t="s">
         <v>248</v>
       </c>
       <c r="J4" s="48" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K4" s="128" t="s">
         <v>39</v>
@@ -19451,13 +19476,13 @@
         <v>255</v>
       </c>
       <c r="U4" s="116" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="V4" s="116" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="W4" s="116" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="X4" s="80" t="s">
         <v>543</v>
@@ -19475,7 +19500,7 @@
         <v>47</v>
       </c>
       <c r="AC4" s="128" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AD4" s="128" t="s">
         <v>256</v>
@@ -19502,19 +19527,19 @@
         <v>56</v>
       </c>
       <c r="AL4" s="128" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="AM4" s="128" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AN4" s="128" t="s">
         <v>57</v>
       </c>
       <c r="AO4" s="128" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AP4" s="128" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AQ4" s="128" t="s">
         <v>58</v>
@@ -19547,22 +19572,22 @@
         <v>37</v>
       </c>
       <c r="E5" s="128" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F5" s="102" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G5" s="28" t="s">
+        <v>722</v>
+      </c>
+      <c r="H5" s="28" t="s">
         <v>723</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>724</v>
       </c>
       <c r="I5" s="49" t="s">
         <v>260</v>
       </c>
       <c r="J5" s="50" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K5" s="50" t="s">
         <v>67</v>
@@ -19586,7 +19611,7 @@
         <v>265</v>
       </c>
       <c r="R5" s="49" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="S5" s="132" t="s">
         <v>71</v>
@@ -19595,13 +19620,13 @@
         <v>72</v>
       </c>
       <c r="U5" s="116" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="V5" s="116" t="s">
+        <v>641</v>
+      </c>
+      <c r="W5" s="116" t="s">
         <v>642</v>
-      </c>
-      <c r="W5" s="116" t="s">
-        <v>643</v>
       </c>
       <c r="X5" s="80" t="s">
         <v>542</v>
@@ -19616,16 +19641,16 @@
         <v>73</v>
       </c>
       <c r="AB5" s="49" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AC5" s="49" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AD5" s="49" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AE5" s="49" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF5" s="49" t="s">
         <v>266</v>
@@ -19646,19 +19671,19 @@
         <v>82</v>
       </c>
       <c r="AL5" s="49" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="AM5" s="49" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AN5" s="49" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AO5" s="49" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AP5" s="49" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AQ5" s="49" t="s">
         <v>83</v>
@@ -19691,7 +19716,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="125" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>5</v>
@@ -19706,7 +19731,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="125" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K6" s="125" t="s">
         <v>268</v>
@@ -19763,7 +19788,7 @@
         <v>89</v>
       </c>
       <c r="AC6" s="125" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AD6" s="125" t="s">
         <v>268</v>
@@ -19832,13 +19857,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D7" s="40">
         <v>100</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F7" s="40">
         <v>1</v>
@@ -19847,7 +19872,7 @@
         <v>427</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I7" s="40">
         <v>20</v>
@@ -19945,13 +19970,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D8" s="40">
         <v>100</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F8" s="40">
         <v>1</v>
@@ -19960,7 +19985,7 @@
         <v>427</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I8" s="40">
         <v>20</v>
@@ -20064,7 +20089,7 @@
         <v>102</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F9" s="40">
         <v>6</v>
@@ -20073,7 +20098,7 @@
         <v>427</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I9" s="40">
         <v>20</v>
@@ -20151,10 +20176,10 @@
       <c r="AL9" s="40"/>
       <c r="AM9" s="40"/>
       <c r="AN9" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AO9" s="21" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AP9" s="21"/>
       <c r="AQ9" s="40" t="s">
@@ -20185,7 +20210,7 @@
         <v>101</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F10" s="40">
         <v>6</v>
@@ -20260,7 +20285,7 @@
       <c r="AN10" s="40"/>
       <c r="AO10" s="40"/>
       <c r="AP10" s="40" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AQ10" s="40" t="s">
         <v>119</v>
@@ -20290,7 +20315,7 @@
         <v>101</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F11" s="40">
         <v>6</v>
@@ -20371,11 +20396,11 @@
       <c r="AL11" s="40"/>
       <c r="AM11" s="40"/>
       <c r="AN11" s="43" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AO11" s="43"/>
       <c r="AP11" s="43" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AQ11" s="40" t="s">
         <v>94</v>
@@ -20407,7 +20432,7 @@
         <v>101</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F12" s="40">
         <v>6</v>
@@ -20416,7 +20441,7 @@
         <v>427</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I12" s="40" t="s">
         <v>102</v>
@@ -20498,11 +20523,11 @@
       <c r="AL12" s="40"/>
       <c r="AM12" s="40"/>
       <c r="AN12" s="40" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AO12" s="40"/>
       <c r="AP12" s="40" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AQ12" s="40" t="s">
         <v>94</v>
@@ -20534,7 +20559,7 @@
         <v>101</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F13" s="40">
         <v>6</v>
@@ -20617,11 +20642,11 @@
       <c r="AL13" s="40"/>
       <c r="AM13" s="40"/>
       <c r="AN13" s="43" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AO13" s="43"/>
       <c r="AP13" s="43" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AQ13" s="40" t="s">
         <v>119</v>
@@ -20653,7 +20678,7 @@
         <v>101</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F14" s="40">
         <v>6</v>
@@ -20662,7 +20687,7 @@
         <v>427</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>125</v>
@@ -20748,11 +20773,11 @@
       </c>
       <c r="AM14" s="40"/>
       <c r="AN14" s="21" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AO14" s="21"/>
       <c r="AP14" s="21" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AQ14" s="40" t="s">
         <v>94</v>
@@ -20782,7 +20807,7 @@
         <v>101</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F15" s="40">
         <v>6</v>
@@ -20791,7 +20816,7 @@
         <v>427</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I15" s="40">
         <v>240</v>
@@ -20877,11 +20902,11 @@
       </c>
       <c r="AM15" s="40"/>
       <c r="AN15" s="21" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AO15" s="21"/>
       <c r="AP15" s="21" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AQ15" s="40" t="s">
         <v>94</v>
@@ -20913,7 +20938,7 @@
         <v>101</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F16" s="40">
         <v>6</v>
@@ -20996,11 +21021,11 @@
       </c>
       <c r="AM16" s="40"/>
       <c r="AN16" s="44" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AO16" s="44"/>
       <c r="AP16" s="44" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AQ16" s="40" t="s">
         <v>119</v>
@@ -21029,7 +21054,7 @@
         <v>302</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E17" s="45"/>
       <c r="F17" s="45">
@@ -21045,7 +21070,7 @@
         <v>303</v>
       </c>
       <c r="J17" s="45" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K17" s="45" t="s">
         <v>304</v>
@@ -21099,10 +21124,10 @@
       <c r="AL17" s="45"/>
       <c r="AM17" s="45"/>
       <c r="AN17" s="45" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AO17" s="45" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AP17" s="45"/>
       <c r="AQ17" s="45" t="s">
@@ -21130,7 +21155,7 @@
         <v>307</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E18" s="45"/>
       <c r="F18" s="45">
@@ -21146,7 +21171,7 @@
         <v>303</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K18" s="45" t="s">
         <v>308</v>
@@ -21200,7 +21225,7 @@
       <c r="AL18" s="45"/>
       <c r="AM18" s="45"/>
       <c r="AN18" s="45" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AO18" s="45"/>
       <c r="AP18" s="45"/>
@@ -21229,7 +21254,7 @@
         <v>311</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E19" s="45"/>
       <c r="F19" s="45">
@@ -21239,13 +21264,13 @@
         <v>427</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I19" s="45" t="s">
         <v>303</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K19" s="45" t="s">
         <v>312</v>
@@ -21305,7 +21330,7 @@
       <c r="AL19" s="45"/>
       <c r="AM19" s="45"/>
       <c r="AN19" s="45" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AO19" s="45"/>
       <c r="AP19" s="45"/>
@@ -21336,7 +21361,7 @@
         <v>315</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E20" s="45"/>
       <c r="F20" s="45">
@@ -21346,13 +21371,13 @@
         <v>427</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I20" s="45" t="s">
         <v>303</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K20" s="45" t="s">
         <v>316</v>
@@ -21410,7 +21435,7 @@
       </c>
       <c r="AM20" s="45"/>
       <c r="AN20" s="45" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AO20" s="45"/>
       <c r="AP20" s="45"/>
@@ -21441,7 +21466,7 @@
         <v>321</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E21" s="45"/>
       <c r="F21" s="45">
@@ -21451,13 +21476,13 @@
         <v>427</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I21" s="45" t="s">
         <v>303</v>
       </c>
       <c r="J21" s="45" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K21" s="45" t="s">
         <v>322</v>
@@ -21515,7 +21540,7 @@
       </c>
       <c r="AM21" s="45"/>
       <c r="AN21" s="45" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AO21" s="45"/>
       <c r="AP21" s="45"/>
@@ -21543,10 +21568,10 @@
         <v>16</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E22" s="45"/>
       <c r="F22" s="45">
@@ -21556,13 +21581,13 @@
         <v>427</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I22" s="45" t="s">
         <v>303</v>
       </c>
       <c r="J22" s="45" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K22" s="45" t="s">
         <v>325</v>
@@ -21622,7 +21647,7 @@
       <c r="AL22" s="45"/>
       <c r="AM22" s="45"/>
       <c r="AN22" s="45" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AO22" s="45"/>
       <c r="AP22" s="45"/>
@@ -21671,7 +21696,7 @@
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -21709,7 +21734,7 @@
       <c r="B1" s="165"/>
       <c r="C1" s="165"/>
       <c r="D1" s="167" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E1" s="167"/>
       <c r="F1" s="167"/>
@@ -21722,7 +21747,7 @@
       <c r="B2" s="165"/>
       <c r="C2" s="165"/>
       <c r="D2" s="167" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E2" s="167"/>
       <c r="F2" s="167"/>
@@ -21743,61 +21768,61 @@
         <v>2</v>
       </c>
       <c r="C4" s="142" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D4" s="152" t="s">
+        <v>860</v>
+      </c>
+      <c r="E4" s="153" t="s">
         <v>861</v>
       </c>
-      <c r="E4" s="153" t="s">
+      <c r="F4" s="153" t="s">
         <v>862</v>
       </c>
-      <c r="F4" s="153" t="s">
+      <c r="G4" s="153" t="s">
+        <v>898</v>
+      </c>
+      <c r="H4" s="153" t="s">
+        <v>864</v>
+      </c>
+      <c r="I4" s="153" t="s">
+        <v>936</v>
+      </c>
+      <c r="J4" s="153" t="s">
         <v>863</v>
       </c>
-      <c r="G4" s="153" t="s">
-        <v>899</v>
-      </c>
-      <c r="H4" s="153" t="s">
+      <c r="K4" s="153" t="s">
         <v>865</v>
       </c>
-      <c r="I4" s="153" t="s">
-        <v>938</v>
-      </c>
-      <c r="J4" s="153" t="s">
-        <v>864</v>
-      </c>
-      <c r="K4" s="153" t="s">
+      <c r="L4" s="153" t="s">
         <v>866</v>
       </c>
-      <c r="L4" s="153" t="s">
+      <c r="M4" s="153" t="s">
+        <v>927</v>
+      </c>
+      <c r="N4" s="153" t="s">
         <v>867</v>
       </c>
-      <c r="M4" s="153" t="s">
-        <v>929</v>
-      </c>
-      <c r="N4" s="153" t="s">
+      <c r="O4" s="153" t="s">
         <v>868</v>
       </c>
-      <c r="O4" s="153" t="s">
+      <c r="P4" s="153" t="s">
         <v>869</v>
       </c>
-      <c r="P4" s="153" t="s">
+      <c r="Q4" s="153" t="s">
         <v>870</v>
       </c>
-      <c r="Q4" s="153" t="s">
+      <c r="R4" s="153" t="s">
         <v>871</v>
       </c>
-      <c r="R4" s="153" t="s">
+      <c r="S4" s="153" t="s">
         <v>872</v>
       </c>
-      <c r="S4" s="153" t="s">
+      <c r="T4" s="153" t="s">
         <v>873</v>
       </c>
-      <c r="T4" s="153" t="s">
+      <c r="U4" s="153" t="s">
         <v>874</v>
-      </c>
-      <c r="U4" s="153" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="141" customFormat="1" ht="46" customHeight="1">
@@ -21806,61 +21831,61 @@
         <v>2</v>
       </c>
       <c r="C5" s="144" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D5" s="154" t="s">
+        <v>875</v>
+      </c>
+      <c r="E5" s="154" t="s">
         <v>876</v>
       </c>
-      <c r="E5" s="154" t="s">
+      <c r="F5" s="154" t="s">
         <v>877</v>
       </c>
-      <c r="F5" s="154" t="s">
+      <c r="G5" s="154" t="s">
+        <v>785</v>
+      </c>
+      <c r="H5" s="154" t="s">
+        <v>880</v>
+      </c>
+      <c r="I5" s="154" t="s">
         <v>878</v>
       </c>
-      <c r="G5" s="154" t="s">
-        <v>786</v>
-      </c>
-      <c r="H5" s="154" t="s">
+      <c r="J5" s="154" t="s">
+        <v>879</v>
+      </c>
+      <c r="K5" s="154" t="s">
         <v>881</v>
       </c>
-      <c r="I5" s="154" t="s">
-        <v>879</v>
-      </c>
-      <c r="J5" s="154" t="s">
-        <v>880</v>
-      </c>
-      <c r="K5" s="154" t="s">
+      <c r="L5" s="154" t="s">
         <v>882</v>
       </c>
-      <c r="L5" s="154" t="s">
+      <c r="M5" s="154" t="s">
+        <v>931</v>
+      </c>
+      <c r="N5" s="154" t="s">
         <v>883</v>
       </c>
-      <c r="M5" s="154" t="s">
-        <v>933</v>
-      </c>
-      <c r="N5" s="154" t="s">
+      <c r="O5" s="154" t="s">
         <v>884</v>
       </c>
-      <c r="O5" s="154" t="s">
+      <c r="P5" s="154" t="s">
         <v>885</v>
       </c>
-      <c r="P5" s="154" t="s">
+      <c r="Q5" s="154" t="s">
         <v>886</v>
       </c>
-      <c r="Q5" s="154" t="s">
+      <c r="R5" s="154" t="s">
         <v>887</v>
       </c>
-      <c r="R5" s="154" t="s">
+      <c r="S5" s="154" t="s">
+        <v>899</v>
+      </c>
+      <c r="T5" s="154" t="s">
         <v>888</v>
       </c>
-      <c r="S5" s="154" t="s">
-        <v>900</v>
-      </c>
-      <c r="T5" s="154" t="s">
+      <c r="U5" s="154" t="s">
         <v>889</v>
-      </c>
-      <c r="U5" s="154" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="141" customFormat="1" ht="21" customHeight="1">
@@ -21899,7 +21924,7 @@
         <v>89</v>
       </c>
       <c r="M6" s="155" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="N6" s="155" t="s">
         <v>89</v>
@@ -21928,23 +21953,23 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="148" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B7" s="137">
         <v>1</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D7" s="137" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E7" s="137" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F7" s="151"/>
       <c r="G7" s="137" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H7" s="151"/>
       <c r="I7" s="151"/>
@@ -21959,34 +21984,34 @@
       <c r="P7" s="151"/>
       <c r="Q7" s="151"/>
       <c r="R7" s="137" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="S7" s="138"/>
       <c r="T7" s="151"/>
       <c r="U7" s="151"/>
       <c r="V7" s="136" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="148" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B8" s="137">
         <v>2</v>
       </c>
       <c r="C8" s="137" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D8" s="137" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E8" s="137" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F8" s="151"/>
       <c r="G8" s="137" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H8" s="151"/>
       <c r="I8" s="151"/>
@@ -22001,20 +22026,20 @@
       <c r="P8" s="151"/>
       <c r="Q8" s="151"/>
       <c r="R8" s="137" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="S8" s="138"/>
       <c r="T8" s="156" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="U8" s="151"/>
       <c r="V8" s="136" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="148" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B9" s="137">
         <v>3</v>
@@ -22023,14 +22048,14 @@
         <v>194</v>
       </c>
       <c r="D9" s="137" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E9" s="137" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F9" s="151"/>
       <c r="G9" s="137" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H9" s="151"/>
       <c r="I9" s="151">
@@ -22039,7 +22064,7 @@
       <c r="J9" s="151"/>
       <c r="K9" s="151"/>
       <c r="L9" s="39" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="M9" s="39"/>
       <c r="N9" s="151"/>
@@ -22049,34 +22074,34 @@
       <c r="P9" s="151"/>
       <c r="Q9" s="151"/>
       <c r="R9" s="137" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="S9" s="138"/>
       <c r="T9" s="151"/>
       <c r="U9" s="151"/>
       <c r="V9" s="136" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="148" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B10" s="137">
         <v>4</v>
       </c>
       <c r="C10" s="137" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D10" s="137" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E10" s="137" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F10" s="151"/>
       <c r="G10" s="137" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="H10" s="151"/>
       <c r="I10" s="151">
@@ -22085,10 +22110,10 @@
       <c r="J10" s="151"/>
       <c r="K10" s="151"/>
       <c r="L10" s="39" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="M10" s="39" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="N10" s="151"/>
       <c r="O10" s="163" t="s">
@@ -22097,71 +22122,71 @@
       <c r="P10" s="151"/>
       <c r="Q10" s="151"/>
       <c r="R10" s="137" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="S10" s="138"/>
       <c r="T10" s="151"/>
       <c r="U10" s="151"/>
       <c r="V10" s="136" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="148" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B11" s="137">
         <v>5</v>
       </c>
       <c r="C11" s="137" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E11" s="137" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F11" s="151"/>
       <c r="G11" s="137" t="s">
-        <v>912</v>
+        <v>942</v>
       </c>
       <c r="H11" s="151"/>
       <c r="I11" s="151"/>
       <c r="J11" s="151"/>
       <c r="K11" s="151"/>
       <c r="L11" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M11" s="39"/>
       <c r="N11" s="151"/>
       <c r="O11" s="39" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="P11" s="151"/>
       <c r="Q11" s="151"/>
       <c r="R11" s="137" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="S11" s="138"/>
       <c r="T11" s="151"/>
       <c r="U11" s="151"/>
       <c r="V11" s="136" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="148" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B12" s="137">
         <v>6</v>
       </c>
       <c r="C12" s="137" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D12" s="137" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E12" s="137"/>
       <c r="F12" s="151"/>
@@ -22171,7 +22196,7 @@
       <c r="J12" s="151"/>
       <c r="K12" s="151"/>
       <c r="L12" s="39" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="M12" s="39"/>
       <c r="N12" s="151"/>
@@ -22183,109 +22208,109 @@
       <c r="T12" s="151"/>
       <c r="U12" s="151"/>
       <c r="V12" s="136" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="148" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B13" s="137">
         <v>7</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D13" s="137" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E13" s="137" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F13" s="151"/>
       <c r="G13" s="39" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H13" s="151"/>
       <c r="I13" s="151"/>
       <c r="J13" s="151"/>
       <c r="K13" s="151"/>
       <c r="L13" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M13" s="39"/>
       <c r="N13" s="151"/>
       <c r="O13" s="39" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="P13" s="151"/>
       <c r="Q13" s="151"/>
       <c r="R13" s="137" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="S13" s="138"/>
       <c r="T13" s="151"/>
       <c r="U13" s="151"/>
       <c r="V13" s="136" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="148" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B14" s="137">
         <v>8</v>
       </c>
       <c r="C14" s="137" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D14" s="137" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E14" s="137" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F14" s="151"/>
       <c r="G14" s="137" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H14" s="151"/>
       <c r="I14" s="151"/>
       <c r="J14" s="151"/>
       <c r="K14" s="151"/>
       <c r="L14" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M14" s="39"/>
       <c r="N14" s="151"/>
       <c r="O14" s="39" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="P14" s="151"/>
       <c r="Q14" s="151"/>
       <c r="R14" s="137" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="S14" s="138"/>
       <c r="T14" s="151"/>
       <c r="U14" s="151"/>
       <c r="V14" s="139" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="148" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>113</v>
       </c>
       <c r="C15" s="137" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D15" s="137" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E15" s="137"/>
       <c r="F15" s="151"/>
@@ -22314,17 +22339,17 @@
         <v>97</v>
       </c>
       <c r="C16" s="137" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D16" s="137" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E16" s="137" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F16" s="151"/>
       <c r="G16" s="137" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H16" s="151"/>
       <c r="I16" s="151"/>
@@ -22342,22 +22367,22 @@
       <c r="S16" s="138"/>
       <c r="T16" s="151"/>
       <c r="U16" s="156" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="V16" s="140"/>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="149" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B17" s="137" t="s">
         <v>135</v>
       </c>
       <c r="C17" s="137" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D17" s="137" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E17" s="137" t="s">
         <v>150</v>
@@ -22379,7 +22404,7 @@
       <c r="P17" s="151"/>
       <c r="Q17" s="151"/>
       <c r="R17" s="137" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="S17" s="138"/>
       <c r="T17" s="151"/>
@@ -22388,16 +22413,16 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="149" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B18" s="137" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C18" s="137" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D18" s="137" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E18" s="137" t="s">
         <v>150</v>
@@ -22419,7 +22444,7 @@
       <c r="P18" s="151"/>
       <c r="Q18" s="151"/>
       <c r="R18" s="137" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="S18" s="138"/>
       <c r="T18" s="151"/>

--- a/Assets/island/DBCfg/DataCfg.xlsx
+++ b/Assets/island/DBCfg/DataCfg.xlsx
@@ -691,7 +691,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2735" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="963">
   <si>
     <t>表名：</t>
   </si>
@@ -3040,31 +3040,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>200</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>800</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>快-&gt;慢-&gt;快</t>
-  </si>
-  <si>
-    <t>250</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>250</t>
@@ -4324,6 +4316,18 @@
   </si>
   <si>
     <t>8000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle.TrapMonsterAttack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>250</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10285,13 +10289,13 @@
         <v>402</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="8" customFormat="1" ht="15" customHeight="1">
@@ -10309,13 +10313,13 @@
         <v>403</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -10335,10 +10339,10 @@
         <v>5</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -10511,10 +10515,10 @@
   <dimension ref="A1:BM45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="AH15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="AG15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AV30" sqref="AV30"/>
+      <selection pane="bottomRight" activeCell="AK31" sqref="AK31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10636,13 +10640,13 @@
         <v>42</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="L4" s="72" t="s">
         <v>516</v>
@@ -10741,19 +10745,19 @@
         <v>54</v>
       </c>
       <c r="AR4" s="116" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AS4" s="116" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AT4" s="116" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AU4" s="30" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="AV4" s="102" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AW4" s="30" t="s">
         <v>46</v>
@@ -10789,7 +10793,7 @@
         <v>57</v>
       </c>
       <c r="BH4" s="30" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="BI4" s="30" t="s">
         <v>58</v>
@@ -10818,7 +10822,7 @@
         <v>37</v>
       </c>
       <c r="E5" s="102" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>344</v>
@@ -10830,13 +10834,13 @@
         <v>69</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>518</v>
@@ -10848,7 +10852,7 @@
         <v>520</v>
       </c>
       <c r="O5" s="73" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="P5" s="73" t="s">
         <v>524</v>
@@ -10935,19 +10939,19 @@
         <v>80</v>
       </c>
       <c r="AR5" s="116" t="s">
+        <v>637</v>
+      </c>
+      <c r="AS5" s="116" t="s">
+        <v>638</v>
+      </c>
+      <c r="AT5" s="116" t="s">
         <v>639</v>
       </c>
-      <c r="AS5" s="116" t="s">
-        <v>640</v>
-      </c>
-      <c r="AT5" s="116" t="s">
-        <v>641</v>
-      </c>
       <c r="AU5" s="49" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="AV5" s="169" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="AW5" s="28" t="s">
         <v>73</v>
@@ -10959,7 +10963,7 @@
         <v>75</v>
       </c>
       <c r="AZ5" s="28" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="BA5" s="109" t="s">
         <v>70</v>
@@ -10968,22 +10972,22 @@
         <v>81</v>
       </c>
       <c r="BC5" s="28" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="BD5" s="28" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="BE5" s="28" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="BF5" s="28" t="s">
         <v>76</v>
       </c>
       <c r="BG5" s="28" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="BH5" s="28" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="BI5" s="28" t="s">
         <v>83</v>
@@ -11141,7 +11145,7 @@
         <v>5</v>
       </c>
       <c r="AV6" s="102" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="AW6" s="30" t="s">
         <v>89</v>
@@ -11207,13 +11211,13 @@
         <v>91</v>
       </c>
       <c r="D7" s="104" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E7" s="103" t="s">
         <v>347</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>94</v>
@@ -11223,10 +11227,10 @@
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="35" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="L7" s="79">
         <v>0</v>
@@ -11236,7 +11240,7 @@
         <v>17280</v>
       </c>
       <c r="N7" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O7" s="76">
         <v>0</v>
@@ -11245,7 +11249,7 @@
         <v>552</v>
       </c>
       <c r="Q7" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R7" s="90">
         <v>0</v>
@@ -11254,7 +11258,7 @@
         <v>30000000</v>
       </c>
       <c r="T7" s="86" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U7" s="88">
         <v>0</v>
@@ -11263,7 +11267,7 @@
         <v>30000000</v>
       </c>
       <c r="W7" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X7" s="81">
         <v>1500</v>
@@ -11308,7 +11312,7 @@
       <c r="BB7" s="35"/>
       <c r="BC7" s="35"/>
       <c r="BD7" s="31" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="BE7" s="31"/>
       <c r="BF7" s="35"/>
@@ -11350,10 +11354,10 @@
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="35" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="L8" s="79" t="s">
         <v>92</v>
@@ -11362,7 +11366,7 @@
         <v>5760</v>
       </c>
       <c r="N8" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O8" s="76" t="s">
         <v>117</v>
@@ -11371,7 +11375,7 @@
         <v>540</v>
       </c>
       <c r="Q8" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R8" s="90" t="s">
         <v>117</v>
@@ -11380,7 +11384,7 @@
         <v>540</v>
       </c>
       <c r="T8" s="86" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U8" s="88" t="s">
         <v>117</v>
@@ -11389,7 +11393,7 @@
         <v>540</v>
       </c>
       <c r="W8" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X8" s="82">
         <v>250</v>
@@ -11425,10 +11429,10 @@
         <v>548</v>
       </c>
       <c r="AM8" s="114" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="AN8" s="114" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="AO8" s="115" t="s">
         <v>548</v>
@@ -11452,7 +11456,7 @@
       <c r="BB8" s="35"/>
       <c r="BC8" s="35"/>
       <c r="BD8" s="31" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="BE8" s="31"/>
       <c r="BF8" s="35"/>
@@ -11494,10 +11498,10 @@
       </c>
       <c r="I9" s="35"/>
       <c r="J9" s="35" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="L9" s="79">
         <v>1</v>
@@ -11506,7 +11510,7 @@
         <v>5760</v>
       </c>
       <c r="N9" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O9" s="76" t="s">
         <v>104</v>
@@ -11515,7 +11519,7 @@
         <v>540</v>
       </c>
       <c r="Q9" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R9" s="90" t="s">
         <v>104</v>
@@ -11524,7 +11528,7 @@
         <v>540</v>
       </c>
       <c r="T9" s="86" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U9" s="88" t="s">
         <v>104</v>
@@ -11533,7 +11537,7 @@
         <v>540</v>
       </c>
       <c r="W9" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X9" s="81" t="s">
         <v>106</v>
@@ -11578,7 +11582,7 @@
       <c r="BB9" s="35"/>
       <c r="BC9" s="35"/>
       <c r="BD9" s="36" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="BE9" s="36"/>
       <c r="BF9" s="35"/>
@@ -11620,10 +11624,10 @@
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="35" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="L10" s="79">
         <v>1</v>
@@ -11632,7 +11636,7 @@
         <v>5760</v>
       </c>
       <c r="N10" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O10" s="76" t="s">
         <v>108</v>
@@ -11641,7 +11645,7 @@
         <v>540</v>
       </c>
       <c r="Q10" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R10" s="90" t="s">
         <v>108</v>
@@ -11650,7 +11654,7 @@
         <v>540</v>
       </c>
       <c r="T10" s="86" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U10" s="88" t="s">
         <v>108</v>
@@ -11659,7 +11663,7 @@
         <v>540</v>
       </c>
       <c r="W10" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X10" s="82">
         <v>500</v>
@@ -11716,7 +11720,7 @@
       <c r="BB10" s="35"/>
       <c r="BC10" s="35"/>
       <c r="BD10" s="36" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="BE10" s="36"/>
       <c r="BF10" s="35"/>
@@ -11758,10 +11762,10 @@
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="35" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="L11" s="79">
         <v>1</v>
@@ -11770,7 +11774,7 @@
         <v>5760</v>
       </c>
       <c r="N11" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O11" s="76">
         <v>0</v>
@@ -11779,7 +11783,7 @@
         <v>540</v>
       </c>
       <c r="Q11" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R11" s="90">
         <v>0</v>
@@ -11788,7 +11792,7 @@
         <v>540</v>
       </c>
       <c r="T11" s="86" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U11" s="88">
         <v>0</v>
@@ -11797,7 +11801,7 @@
         <v>540</v>
       </c>
       <c r="W11" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X11" s="82">
         <v>580</v>
@@ -11848,7 +11852,7 @@
       <c r="BB11" s="36"/>
       <c r="BC11" s="36"/>
       <c r="BD11" s="31" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="BE11" s="36"/>
       <c r="BF11" s="36"/>
@@ -11890,10 +11894,10 @@
       </c>
       <c r="I12" s="35"/>
       <c r="J12" s="35" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="L12" s="79">
         <v>1</v>
@@ -11902,7 +11906,7 @@
         <v>10080</v>
       </c>
       <c r="N12" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O12" s="76"/>
       <c r="P12" s="76"/>
@@ -11914,7 +11918,7 @@
         <v>539</v>
       </c>
       <c r="T12" s="86" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U12" s="88" t="s">
         <v>133</v>
@@ -11923,7 +11927,7 @@
         <v>539</v>
       </c>
       <c r="W12" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X12" s="81">
         <v>400</v>
@@ -11974,10 +11978,10 @@
       <c r="BB12" s="35"/>
       <c r="BC12" s="35"/>
       <c r="BD12" s="36" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="BE12" s="37" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="BF12" s="35"/>
       <c r="BG12" s="35"/>
@@ -12018,10 +12022,10 @@
       </c>
       <c r="I13" s="35"/>
       <c r="J13" s="35" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="L13" s="79">
         <v>1</v>
@@ -12030,7 +12034,7 @@
         <v>10080</v>
       </c>
       <c r="N13" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O13" s="76"/>
       <c r="P13" s="76"/>
@@ -12042,7 +12046,7 @@
         <v>539</v>
       </c>
       <c r="T13" s="86" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U13" s="88" t="s">
         <v>141</v>
@@ -12051,7 +12055,7 @@
         <v>539</v>
       </c>
       <c r="W13" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X13" s="81" t="s">
         <v>114</v>
@@ -12100,7 +12104,7 @@
       <c r="BB13" s="35"/>
       <c r="BC13" s="35"/>
       <c r="BD13" s="31" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="BE13" s="33"/>
       <c r="BF13" s="35"/>
@@ -12142,10 +12146,10 @@
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="35" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="L14" s="79">
         <v>1</v>
@@ -12154,7 +12158,7 @@
         <v>10080</v>
       </c>
       <c r="N14" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O14" s="76" t="s">
         <v>133</v>
@@ -12163,7 +12167,7 @@
         <v>539</v>
       </c>
       <c r="Q14" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R14" s="90"/>
       <c r="S14" s="90"/>
@@ -12175,7 +12179,7 @@
         <v>539</v>
       </c>
       <c r="W14" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X14" s="81">
         <v>400</v>
@@ -12226,10 +12230,10 @@
       <c r="BB14" s="35"/>
       <c r="BC14" s="35"/>
       <c r="BD14" s="36" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="BE14" s="37" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="BF14" s="35"/>
       <c r="BG14" s="35"/>
@@ -12270,10 +12274,10 @@
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="35" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="L15" s="79">
         <v>1</v>
@@ -12282,7 +12286,7 @@
         <v>10080</v>
       </c>
       <c r="N15" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O15" s="76" t="s">
         <v>141</v>
@@ -12291,7 +12295,7 @@
         <v>539</v>
       </c>
       <c r="Q15" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R15" s="90"/>
       <c r="S15" s="90"/>
@@ -12303,7 +12307,7 @@
         <v>539</v>
       </c>
       <c r="W15" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X15" s="81" t="s">
         <v>114</v>
@@ -12318,7 +12322,7 @@
         <v>614</v>
       </c>
       <c r="AB15" s="92" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AC15" s="93" t="s">
         <v>548</v>
@@ -12352,7 +12356,7 @@
       <c r="BB15" s="35"/>
       <c r="BC15" s="35"/>
       <c r="BD15" s="31" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="BE15" s="33"/>
       <c r="BF15" s="35"/>
@@ -12394,10 +12398,10 @@
       </c>
       <c r="I16" s="35"/>
       <c r="J16" s="35" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="L16" s="79">
         <v>1</v>
@@ -12406,7 +12410,7 @@
         <v>10080</v>
       </c>
       <c r="N16" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O16" s="76">
         <v>150</v>
@@ -12415,7 +12419,7 @@
         <v>539</v>
       </c>
       <c r="Q16" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R16" s="90">
         <v>150</v>
@@ -12424,7 +12428,7 @@
         <v>539</v>
       </c>
       <c r="T16" s="86" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U16" s="88"/>
       <c r="V16" s="88"/>
@@ -12478,10 +12482,10 @@
       <c r="BB16" s="35"/>
       <c r="BC16" s="35"/>
       <c r="BD16" s="31" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="BE16" s="33" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="BF16" s="35"/>
       <c r="BG16" s="35"/>
@@ -12522,10 +12526,10 @@
       </c>
       <c r="I17" s="35"/>
       <c r="J17" s="35" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="L17" s="79">
         <v>1</v>
@@ -12534,7 +12538,7 @@
         <v>10080</v>
       </c>
       <c r="N17" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O17" s="76" t="s">
         <v>141</v>
@@ -12543,7 +12547,7 @@
         <v>539</v>
       </c>
       <c r="Q17" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R17" s="90" t="s">
         <v>141</v>
@@ -12552,7 +12556,7 @@
         <v>539</v>
       </c>
       <c r="T17" s="86" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U17" s="88"/>
       <c r="V17" s="88"/>
@@ -12604,7 +12608,7 @@
       <c r="BB17" s="35"/>
       <c r="BC17" s="35"/>
       <c r="BD17" s="31" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="BE17" s="33"/>
       <c r="BF17" s="35"/>
@@ -12646,10 +12650,10 @@
       </c>
       <c r="I18" s="35"/>
       <c r="J18" s="35" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="L18" s="79">
         <f>60/60</f>
@@ -12659,7 +12663,7 @@
         <v>10080</v>
       </c>
       <c r="N18" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O18" s="76">
         <v>250</v>
@@ -12668,7 +12672,7 @@
         <v>554</v>
       </c>
       <c r="Q18" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R18" s="90">
         <v>250</v>
@@ -12677,7 +12681,7 @@
         <v>539</v>
       </c>
       <c r="T18" s="86" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U18" s="88">
         <v>250</v>
@@ -12686,7 +12690,7 @@
         <v>539</v>
       </c>
       <c r="W18" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X18" s="81">
         <v>400</v>
@@ -12726,7 +12730,7 @@
         <v>7</v>
       </c>
       <c r="AS18" s="117" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AT18" s="118" t="s">
         <v>548</v>
@@ -12747,12 +12751,12 @@
       <c r="BB18" s="34"/>
       <c r="BC18" s="34"/>
       <c r="BD18" s="34" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="BE18" s="34"/>
       <c r="BF18" s="34"/>
       <c r="BG18" s="34" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="BH18" s="34"/>
       <c r="BI18" s="34" t="s">
@@ -12795,10 +12799,10 @@
       </c>
       <c r="I19" s="35"/>
       <c r="J19" s="35" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="L19" s="79">
         <f t="shared" ref="L19:L31" si="1">60/60</f>
@@ -12808,7 +12812,7 @@
         <v>10080</v>
       </c>
       <c r="N19" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O19" s="76">
         <v>1000</v>
@@ -12817,7 +12821,7 @@
         <v>554</v>
       </c>
       <c r="Q19" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R19" s="90">
         <v>1000</v>
@@ -12826,7 +12830,7 @@
         <v>539</v>
       </c>
       <c r="T19" s="86" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U19" s="88">
         <v>1000</v>
@@ -12835,7 +12839,7 @@
         <v>539</v>
       </c>
       <c r="W19" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X19" s="81">
         <v>400</v>
@@ -12875,7 +12879,7 @@
         <v>11</v>
       </c>
       <c r="AS19" s="117" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AT19" s="118" t="s">
         <v>548</v>
@@ -12896,12 +12900,12 @@
       <c r="BB19" s="32"/>
       <c r="BC19" s="32"/>
       <c r="BD19" s="36" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="BE19" s="36"/>
       <c r="BF19" s="32"/>
       <c r="BG19" s="36" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="BH19" s="36"/>
       <c r="BI19" s="35" t="s">
@@ -12944,10 +12948,10 @@
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="35" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="L20" s="79">
         <f t="shared" si="1"/>
@@ -12957,7 +12961,7 @@
         <v>10080</v>
       </c>
       <c r="N20" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O20" s="76" t="s">
         <v>162</v>
@@ -12966,7 +12970,7 @@
         <v>554</v>
       </c>
       <c r="Q20" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R20" s="90" t="s">
         <v>162</v>
@@ -12975,7 +12979,7 @@
         <v>539</v>
       </c>
       <c r="T20" s="86" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U20" s="88" t="s">
         <v>162</v>
@@ -12984,7 +12988,7 @@
         <v>539</v>
       </c>
       <c r="W20" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X20" s="81">
         <v>400</v>
@@ -13017,22 +13021,22 @@
         <v>548</v>
       </c>
       <c r="AP20" s="35" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="AQ20" s="34" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AR20" s="117">
         <v>20</v>
       </c>
       <c r="AS20" s="117" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AT20" s="118" t="s">
         <v>576</v>
       </c>
       <c r="AU20" s="36" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="AV20" s="36"/>
       <c r="AW20" s="34"/>
@@ -13049,12 +13053,12 @@
       <c r="BB20" s="34"/>
       <c r="BC20" s="34"/>
       <c r="BD20" s="34" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="BE20" s="34"/>
       <c r="BF20" s="34"/>
       <c r="BG20" s="34" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="BH20" s="34"/>
       <c r="BI20" s="34" t="s">
@@ -13097,10 +13101,10 @@
       </c>
       <c r="I21" s="35"/>
       <c r="J21" s="35" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="L21" s="79">
         <f t="shared" si="1"/>
@@ -13110,7 +13114,7 @@
         <v>10080</v>
       </c>
       <c r="N21" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O21" s="76">
         <v>22500</v>
@@ -13119,7 +13123,7 @@
         <v>554</v>
       </c>
       <c r="Q21" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R21" s="90">
         <v>22500</v>
@@ -13128,7 +13132,7 @@
         <v>539</v>
       </c>
       <c r="T21" s="86" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U21" s="88">
         <v>22500</v>
@@ -13137,7 +13141,7 @@
         <v>539</v>
       </c>
       <c r="W21" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X21" s="81" t="s">
         <v>577</v>
@@ -13161,10 +13165,10 @@
       <c r="AK21" s="106"/>
       <c r="AL21" s="107"/>
       <c r="AM21" s="114" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="AN21" s="114" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="AO21" s="115" t="s">
         <v>548</v>
@@ -13177,7 +13181,7 @@
         <v>80</v>
       </c>
       <c r="AS21" s="117" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AT21" s="118" t="s">
         <v>576</v>
@@ -13190,7 +13194,7 @@
         <v>94</v>
       </c>
       <c r="AZ21" s="32" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="BA21" s="111" t="s">
         <v>619</v>
@@ -13198,12 +13202,12 @@
       <c r="BB21" s="32"/>
       <c r="BC21" s="32"/>
       <c r="BD21" s="36" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="BE21" s="36"/>
       <c r="BF21" s="32"/>
       <c r="BG21" s="36" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="BH21" s="36"/>
       <c r="BI21" s="32" t="s">
@@ -13227,7 +13231,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D22" s="104" t="s">
         <v>390</v>
@@ -13246,10 +13250,10 @@
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="35" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="L22" s="79">
         <f t="shared" si="1"/>
@@ -13259,7 +13263,7 @@
         <v>10080</v>
       </c>
       <c r="N22" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O22" s="77" t="s">
         <v>168</v>
@@ -13268,7 +13272,7 @@
         <v>554</v>
       </c>
       <c r="Q22" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R22" s="90" t="s">
         <v>168</v>
@@ -13277,7 +13281,7 @@
         <v>553</v>
       </c>
       <c r="T22" s="86" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U22" s="88" t="s">
         <v>168</v>
@@ -13286,7 +13290,7 @@
         <v>553</v>
       </c>
       <c r="W22" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X22" s="82" t="s">
         <v>578</v>
@@ -13310,31 +13314,31 @@
       <c r="AK22" s="106"/>
       <c r="AL22" s="107"/>
       <c r="AM22" s="114" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="AN22" s="114" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="AO22" s="115" t="s">
         <v>548</v>
       </c>
       <c r="AP22" s="35" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AQ22" s="34" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="AR22" s="119" t="s">
         <v>169</v>
       </c>
       <c r="AS22" s="119" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AT22" s="118" t="s">
         <v>548</v>
       </c>
       <c r="AU22" s="36" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="AV22" s="36"/>
       <c r="AW22" s="34"/>
@@ -13343,7 +13347,7 @@
         <v>94</v>
       </c>
       <c r="AZ22" s="34" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="BA22" s="111" t="s">
         <v>619</v>
@@ -13351,12 +13355,12 @@
       <c r="BB22" s="34"/>
       <c r="BC22" s="34"/>
       <c r="BD22" s="34" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="BE22" s="34"/>
       <c r="BF22" s="34"/>
       <c r="BG22" s="36" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="BH22" s="36"/>
       <c r="BI22" s="34" t="s">
@@ -13380,7 +13384,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D23" s="104" t="s">
         <v>179</v>
@@ -13399,10 +13403,10 @@
       </c>
       <c r="I23" s="35"/>
       <c r="J23" s="35" t="s">
+        <v>724</v>
+      </c>
+      <c r="K23" s="35" t="s">
         <v>726</v>
-      </c>
-      <c r="K23" s="35" t="s">
-        <v>728</v>
       </c>
       <c r="L23" s="79">
         <f t="shared" si="1"/>
@@ -13412,7 +13416,7 @@
         <v>10080</v>
       </c>
       <c r="N23" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O23" s="76" t="s">
         <v>549</v>
@@ -13421,7 +13425,7 @@
         <v>555</v>
       </c>
       <c r="Q23" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R23" s="90" t="s">
         <v>549</v>
@@ -13430,7 +13434,7 @@
         <v>550</v>
       </c>
       <c r="T23" s="86" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U23" s="88" t="s">
         <v>549</v>
@@ -13439,7 +13443,7 @@
         <v>550</v>
       </c>
       <c r="W23" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X23" s="81" t="s">
         <v>557</v>
@@ -13479,7 +13483,7 @@
         <v>20</v>
       </c>
       <c r="AS23" s="117" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AT23" s="118" t="s">
         <v>547</v>
@@ -13500,12 +13504,12 @@
       <c r="BB23" s="32"/>
       <c r="BC23" s="32"/>
       <c r="BD23" s="36" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="BE23" s="36"/>
       <c r="BF23" s="32"/>
       <c r="BG23" s="32" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="BH23" s="32"/>
       <c r="BI23" s="32" t="s">
@@ -13548,10 +13552,10 @@
       </c>
       <c r="I24" s="35"/>
       <c r="J24" s="35" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="L24" s="79">
         <f t="shared" si="1"/>
@@ -13562,7 +13566,7 @@
         <v>17280</v>
       </c>
       <c r="N24" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O24" s="76">
         <v>2500000</v>
@@ -13571,7 +13575,7 @@
         <v>550</v>
       </c>
       <c r="Q24" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R24" s="90">
         <v>2500000</v>
@@ -13580,7 +13584,7 @@
         <v>551</v>
       </c>
       <c r="T24" s="86" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U24" s="88">
         <v>2500000</v>
@@ -13589,7 +13593,7 @@
         <v>551</v>
       </c>
       <c r="W24" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X24" s="81">
         <v>1500</v>
@@ -13625,13 +13629,13 @@
         <v>183</v>
       </c>
       <c r="AQ24" s="36" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="AR24" s="117" t="s">
         <v>177</v>
       </c>
       <c r="AS24" s="117" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="AT24" s="118" t="s">
         <v>569</v>
@@ -13652,12 +13656,12 @@
       <c r="BB24" s="36"/>
       <c r="BC24" s="36"/>
       <c r="BD24" s="31" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="BE24" s="36"/>
       <c r="BF24" s="36"/>
       <c r="BG24" s="36" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="BH24" s="36"/>
       <c r="BI24" s="32" t="s">
@@ -13702,10 +13706,10 @@
         <v>94</v>
       </c>
       <c r="J25" s="35" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="L25" s="79">
         <f t="shared" si="1"/>
@@ -13715,7 +13719,7 @@
         <v>10080</v>
       </c>
       <c r="N25" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O25" s="76" t="s">
         <v>188</v>
@@ -13724,7 +13728,7 @@
         <v>539</v>
       </c>
       <c r="Q25" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R25" s="90" t="s">
         <v>188</v>
@@ -13733,7 +13737,7 @@
         <v>539</v>
       </c>
       <c r="T25" s="86" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U25" s="88" t="s">
         <v>188</v>
@@ -13742,7 +13746,7 @@
         <v>539</v>
       </c>
       <c r="W25" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X25" s="83"/>
       <c r="Y25" s="83"/>
@@ -13757,19 +13761,19 @@
       <c r="AH25" s="98"/>
       <c r="AI25" s="99"/>
       <c r="AJ25" s="38" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="AK25" s="38" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="AL25" s="107" t="s">
         <v>548</v>
       </c>
       <c r="AM25" s="114" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AN25" s="114" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="AO25" s="115" t="s">
         <v>548</v>
@@ -13782,7 +13786,7 @@
         <v>190</v>
       </c>
       <c r="AS25" s="120" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AT25" s="118" t="s">
         <v>547</v>
@@ -13803,13 +13807,13 @@
       <c r="BB25" s="38"/>
       <c r="BC25" s="38"/>
       <c r="BD25" s="31" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="BE25" s="36"/>
       <c r="BF25" s="36"/>
       <c r="BG25" s="36"/>
       <c r="BH25" s="36" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="BI25" s="38" t="s">
         <v>119</v>
@@ -13832,7 +13836,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D26" s="104" t="s">
         <v>392</v>
@@ -13853,10 +13857,10 @@
         <v>94</v>
       </c>
       <c r="J26" s="35" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="K26" s="35" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="L26" s="79">
         <f t="shared" si="1"/>
@@ -13866,7 +13870,7 @@
         <v>10080</v>
       </c>
       <c r="N26" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O26" s="76" t="s">
         <v>114</v>
@@ -13875,7 +13879,7 @@
         <v>539</v>
       </c>
       <c r="Q26" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R26" s="90" t="s">
         <v>114</v>
@@ -13884,7 +13888,7 @@
         <v>539</v>
       </c>
       <c r="T26" s="86" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U26" s="88" t="s">
         <v>114</v>
@@ -13893,7 +13897,7 @@
         <v>539</v>
       </c>
       <c r="W26" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X26" s="83"/>
       <c r="Y26" s="83"/>
@@ -13908,32 +13912,32 @@
       <c r="AH26" s="98"/>
       <c r="AI26" s="99"/>
       <c r="AJ26" s="36" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AK26" s="36" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="AL26" s="107" t="s">
         <v>548</v>
       </c>
       <c r="AM26" s="114" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AN26" s="114" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AO26" s="115" t="s">
         <v>548</v>
       </c>
       <c r="AP26" s="35"/>
       <c r="AQ26" s="36" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="AR26" s="120" t="s">
         <v>124</v>
       </c>
       <c r="AS26" s="120" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AT26" s="118" t="s">
         <v>576</v>
@@ -13954,13 +13958,13 @@
       <c r="BB26" s="36"/>
       <c r="BC26" s="36"/>
       <c r="BD26" s="31" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="BE26" s="36"/>
       <c r="BF26" s="36"/>
       <c r="BG26" s="36"/>
       <c r="BH26" s="36" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="BI26" s="32" t="s">
         <v>94</v>
@@ -14004,10 +14008,10 @@
         <v>94</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="L27" s="79">
         <f t="shared" si="1"/>
@@ -14017,7 +14021,7 @@
         <v>10080</v>
       </c>
       <c r="N27" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O27" s="76" t="s">
         <v>188</v>
@@ -14026,7 +14030,7 @@
         <v>539</v>
       </c>
       <c r="Q27" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R27" s="90" t="s">
         <v>188</v>
@@ -14035,7 +14039,7 @@
         <v>539</v>
       </c>
       <c r="T27" s="86" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U27" s="88" t="s">
         <v>188</v>
@@ -14044,7 +14048,7 @@
         <v>539</v>
       </c>
       <c r="W27" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X27" s="83"/>
       <c r="Y27" s="83"/>
@@ -14059,7 +14063,7 @@
       <c r="AH27" s="98"/>
       <c r="AI27" s="99"/>
       <c r="AJ27" s="36" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="AK27" s="36" t="s">
         <v>117</v>
@@ -14068,10 +14072,10 @@
         <v>548</v>
       </c>
       <c r="AM27" s="114" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AN27" s="114" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AO27" s="115" t="s">
         <v>548</v>
@@ -14084,7 +14088,7 @@
         <v>190</v>
       </c>
       <c r="AS27" s="120" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AT27" s="118" t="s">
         <v>548</v>
@@ -14105,13 +14109,13 @@
       <c r="BB27" s="36"/>
       <c r="BC27" s="36"/>
       <c r="BD27" s="31" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="BE27" s="36"/>
       <c r="BF27" s="36"/>
       <c r="BG27" s="36"/>
       <c r="BH27" s="36" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="BI27" s="36" t="s">
         <v>119</v>
@@ -14134,7 +14138,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D28" s="104" t="s">
         <v>393</v>
@@ -14155,10 +14159,10 @@
         <v>94</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="K28" s="35" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="L28" s="79">
         <f t="shared" si="1"/>
@@ -14168,7 +14172,7 @@
         <v>10080</v>
       </c>
       <c r="N28" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O28" s="76" t="s">
         <v>145</v>
@@ -14177,7 +14181,7 @@
         <v>539</v>
       </c>
       <c r="Q28" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R28" s="90" t="s">
         <v>145</v>
@@ -14186,7 +14190,7 @@
         <v>539</v>
       </c>
       <c r="T28" s="86" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U28" s="88" t="s">
         <v>145</v>
@@ -14195,7 +14199,7 @@
         <v>539</v>
       </c>
       <c r="W28" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X28" s="83"/>
       <c r="Y28" s="83"/>
@@ -14204,7 +14208,7 @@
         <v>122</v>
       </c>
       <c r="AB28" s="92" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AC28" s="93" t="s">
         <v>548</v>
@@ -14225,7 +14229,7 @@
         <v>548</v>
       </c>
       <c r="AM28" s="114" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AN28" s="114" t="s">
         <v>189</v>
@@ -14238,17 +14242,17 @@
         <v>189</v>
       </c>
       <c r="AR28" s="120" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="AS28" s="120" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AT28" s="118" t="s">
         <v>548</v>
       </c>
       <c r="AU28" s="36"/>
       <c r="AV28" s="36" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="AW28" s="35" t="s">
         <v>94</v>
@@ -14262,7 +14266,7 @@
       <c r="BB28" s="36"/>
       <c r="BC28" s="36"/>
       <c r="BD28" s="31" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="BE28" s="36"/>
       <c r="BF28" s="36"/>
@@ -14310,10 +14314,10 @@
         <v>94</v>
       </c>
       <c r="J29" s="35" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="K29" s="35" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="L29" s="79">
         <f t="shared" si="1"/>
@@ -14323,7 +14327,7 @@
         <v>10080</v>
       </c>
       <c r="N29" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O29" s="76" t="s">
         <v>203</v>
@@ -14332,7 +14336,7 @@
         <v>539</v>
       </c>
       <c r="Q29" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R29" s="90" t="s">
         <v>203</v>
@@ -14341,7 +14345,7 @@
         <v>539</v>
       </c>
       <c r="T29" s="86" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U29" s="88" t="s">
         <v>203</v>
@@ -14350,7 +14354,7 @@
         <v>539</v>
       </c>
       <c r="W29" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X29" s="83"/>
       <c r="Y29" s="83"/>
@@ -14359,7 +14363,7 @@
         <v>158</v>
       </c>
       <c r="AB29" s="92" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AC29" s="93" t="s">
         <v>548</v>
@@ -14371,39 +14375,39 @@
       <c r="AH29" s="98"/>
       <c r="AI29" s="99"/>
       <c r="AJ29" s="36" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK29" s="36" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AL29" s="107" t="s">
         <v>548</v>
       </c>
       <c r="AM29" s="114" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AN29" s="114" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AO29" s="115" t="s">
         <v>548</v>
       </c>
       <c r="AP29" s="35"/>
       <c r="AQ29" s="38" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="AR29" s="120" t="s">
         <v>92</v>
       </c>
       <c r="AS29" s="120" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="AT29" s="118" t="s">
         <v>548</v>
       </c>
       <c r="AU29" s="36"/>
       <c r="AV29" s="36" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="AW29" s="35" t="s">
         <v>94</v>
@@ -14417,13 +14421,13 @@
       <c r="BB29" s="36"/>
       <c r="BC29" s="36"/>
       <c r="BD29" s="31" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="BE29" s="36"/>
       <c r="BF29" s="36"/>
       <c r="BG29" s="36"/>
       <c r="BH29" s="36" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="BI29" s="32" t="s">
         <v>94</v>
@@ -14476,7 +14480,7 @@
         <v>10080</v>
       </c>
       <c r="N30" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O30" s="76" t="s">
         <v>128</v>
@@ -14485,7 +14489,7 @@
         <v>539</v>
       </c>
       <c r="Q30" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R30" s="90" t="s">
         <v>128</v>
@@ -14494,7 +14498,7 @@
         <v>539</v>
       </c>
       <c r="T30" s="86" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U30" s="88" t="s">
         <v>128</v>
@@ -14503,7 +14507,7 @@
         <v>539</v>
       </c>
       <c r="W30" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X30" s="83"/>
       <c r="Y30" s="83"/>
@@ -14521,7 +14525,7 @@
         <v>124</v>
       </c>
       <c r="AK30" s="36" t="s">
-        <v>636</v>
+        <v>962</v>
       </c>
       <c r="AL30" s="107" t="s">
         <v>548</v>
@@ -14530,20 +14534,20 @@
         <v>124</v>
       </c>
       <c r="AN30" s="114" t="s">
-        <v>630</v>
+        <v>961</v>
       </c>
       <c r="AO30" s="115" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AP30" s="35"/>
       <c r="AQ30" s="38" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="AR30" s="120" t="s">
         <v>96</v>
       </c>
       <c r="AS30" s="120" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AT30" s="118" t="s">
         <v>548</v>
@@ -14562,12 +14566,14 @@
       <c r="BB30" s="36"/>
       <c r="BC30" s="36"/>
       <c r="BD30" s="31" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="BE30" s="36"/>
       <c r="BF30" s="36"/>
       <c r="BG30" s="36"/>
-      <c r="BH30" s="36"/>
+      <c r="BH30" s="36" t="s">
+        <v>960</v>
+      </c>
       <c r="BI30" s="32" t="s">
         <v>119</v>
       </c>
@@ -14610,10 +14616,10 @@
         <v>94</v>
       </c>
       <c r="J31" s="35" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="K31" s="35" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="L31" s="79">
         <f t="shared" si="1"/>
@@ -14623,7 +14629,7 @@
         <v>10080</v>
       </c>
       <c r="N31" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O31" s="76" t="s">
         <v>130</v>
@@ -14632,7 +14638,7 @@
         <v>539</v>
       </c>
       <c r="Q31" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R31" s="90" t="s">
         <v>130</v>
@@ -14641,7 +14647,7 @@
         <v>539</v>
       </c>
       <c r="T31" s="86" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U31" s="88" t="s">
         <v>130</v>
@@ -14650,7 +14656,7 @@
         <v>539</v>
       </c>
       <c r="W31" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X31" s="83"/>
       <c r="Y31" s="83"/>
@@ -14659,7 +14665,7 @@
         <v>158</v>
       </c>
       <c r="AB31" s="92" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AC31" s="93" t="s">
         <v>548</v>
@@ -14671,10 +14677,10 @@
       <c r="AH31" s="98"/>
       <c r="AI31" s="99"/>
       <c r="AJ31" s="36" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AK31" s="36" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AL31" s="107" t="s">
         <v>548</v>
@@ -14703,7 +14709,7 @@
       </c>
       <c r="AU31" s="36"/>
       <c r="AV31" s="36" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="AW31" s="35" t="s">
         <v>94</v>
@@ -14717,7 +14723,7 @@
       <c r="BB31" s="36"/>
       <c r="BC31" s="36"/>
       <c r="BD31" s="31" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="BE31" s="36"/>
       <c r="BF31" s="36"/>
@@ -14753,7 +14759,7 @@
         <v>92</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>119</v>
@@ -14774,7 +14780,7 @@
         <v>100000</v>
       </c>
       <c r="Q32" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R32" s="90"/>
       <c r="S32" s="90"/>
@@ -14786,7 +14792,7 @@
         <v>100000</v>
       </c>
       <c r="W32" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X32" s="82"/>
       <c r="Y32" s="82"/>
@@ -14821,7 +14827,7 @@
       <c r="BB32" s="36"/>
       <c r="BC32" s="36"/>
       <c r="BD32" s="36" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="BE32" s="36"/>
       <c r="BF32" s="36"/>
@@ -14853,7 +14859,7 @@
         <v>92</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>119</v>
@@ -14874,7 +14880,7 @@
         <v>100000</v>
       </c>
       <c r="Q33" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R33" s="90"/>
       <c r="S33" s="90"/>
@@ -14886,7 +14892,7 @@
         <v>100000</v>
       </c>
       <c r="W33" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X33" s="82"/>
       <c r="Y33" s="82"/>
@@ -14921,7 +14927,7 @@
       <c r="BB33" s="36"/>
       <c r="BC33" s="36"/>
       <c r="BD33" s="36" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="BE33" s="36"/>
       <c r="BF33" s="36"/>
@@ -14953,7 +14959,7 @@
         <v>92</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>119</v>
@@ -14974,7 +14980,7 @@
         <v>100000</v>
       </c>
       <c r="Q34" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R34" s="90"/>
       <c r="S34" s="90"/>
@@ -14986,7 +14992,7 @@
         <v>100000</v>
       </c>
       <c r="W34" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X34" s="82"/>
       <c r="Y34" s="82"/>
@@ -15021,7 +15027,7 @@
       <c r="BB34" s="36"/>
       <c r="BC34" s="36"/>
       <c r="BD34" s="36" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="BE34" s="36"/>
       <c r="BF34" s="36"/>
@@ -15053,7 +15059,7 @@
         <v>92</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>119</v>
@@ -15074,7 +15080,7 @@
         <v>100000</v>
       </c>
       <c r="Q35" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R35" s="90"/>
       <c r="S35" s="90"/>
@@ -15086,7 +15092,7 @@
         <v>100000</v>
       </c>
       <c r="W35" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X35" s="82"/>
       <c r="Y35" s="82"/>
@@ -15121,7 +15127,7 @@
       <c r="BB35" s="36"/>
       <c r="BC35" s="36"/>
       <c r="BD35" s="36" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="BE35" s="36"/>
       <c r="BF35" s="36"/>
@@ -15153,7 +15159,7 @@
         <v>92</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>119</v>
@@ -15174,7 +15180,7 @@
         <v>100000</v>
       </c>
       <c r="Q36" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R36" s="90"/>
       <c r="S36" s="90"/>
@@ -15186,7 +15192,7 @@
         <v>100000</v>
       </c>
       <c r="W36" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X36" s="82"/>
       <c r="Y36" s="82"/>
@@ -15221,7 +15227,7 @@
       <c r="BB36" s="36"/>
       <c r="BC36" s="36"/>
       <c r="BD36" s="36" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="BE36" s="36"/>
       <c r="BF36" s="36"/>
@@ -15263,10 +15269,10 @@
       </c>
       <c r="I37" s="35"/>
       <c r="J37" s="35" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="K37" s="35" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="L37" s="79"/>
       <c r="M37" s="79"/>
@@ -15278,7 +15284,7 @@
         <v>200000</v>
       </c>
       <c r="Q37" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R37" s="90">
         <v>200000</v>
@@ -15287,7 +15293,7 @@
         <v>200000</v>
       </c>
       <c r="T37" s="86" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U37" s="88">
         <v>200000</v>
@@ -15296,7 +15302,7 @@
         <v>200000</v>
       </c>
       <c r="W37" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X37" s="82"/>
       <c r="Y37" s="82"/>
@@ -15331,7 +15337,7 @@
       <c r="BB37" s="36"/>
       <c r="BC37" s="36"/>
       <c r="BD37" s="36" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="BE37" s="36"/>
       <c r="BF37" s="36"/>
@@ -15375,10 +15381,10 @@
         <v>94</v>
       </c>
       <c r="J38" s="35" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="K38" s="35" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="L38" s="79"/>
       <c r="M38" s="79"/>
@@ -15425,7 +15431,7 @@
       <c r="BB38" s="36"/>
       <c r="BC38" s="36"/>
       <c r="BD38" s="36" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="BE38" s="36"/>
       <c r="BF38" s="36"/>
@@ -15467,10 +15473,10 @@
         <v>94</v>
       </c>
       <c r="J39" s="35" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="K39" s="35" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="L39" s="79"/>
       <c r="M39" s="79"/>
@@ -15517,7 +15523,7 @@
       <c r="BB39" s="36"/>
       <c r="BC39" s="36"/>
       <c r="BD39" s="36" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="BE39" s="36"/>
       <c r="BF39" s="36"/>
@@ -15561,10 +15567,10 @@
         <v>94</v>
       </c>
       <c r="J40" s="35" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="K40" s="35" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="L40" s="79"/>
       <c r="M40" s="79"/>
@@ -15611,7 +15617,7 @@
       <c r="BB40" s="36"/>
       <c r="BC40" s="36"/>
       <c r="BD40" s="36" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="BE40" s="36"/>
       <c r="BF40" s="36"/>
@@ -15655,10 +15661,10 @@
         <v>94</v>
       </c>
       <c r="J41" s="35" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="K41" s="35" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="L41" s="79"/>
       <c r="M41" s="79"/>
@@ -15705,7 +15711,7 @@
       <c r="BB41" s="36"/>
       <c r="BC41" s="36"/>
       <c r="BD41" s="36" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="BE41" s="36"/>
       <c r="BF41" s="36"/>
@@ -15749,10 +15755,10 @@
         <v>94</v>
       </c>
       <c r="J42" s="35" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="K42" s="35" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="L42" s="79"/>
       <c r="M42" s="79"/>
@@ -15799,7 +15805,7 @@
       <c r="BB42" s="36"/>
       <c r="BC42" s="36"/>
       <c r="BD42" s="36" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="BE42" s="36"/>
       <c r="BF42" s="36"/>
@@ -15841,10 +15847,10 @@
       </c>
       <c r="I43" s="35"/>
       <c r="J43" s="35" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="K43" s="35" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="L43" s="79">
         <v>0</v>
@@ -15853,7 +15859,7 @@
         <v>5760</v>
       </c>
       <c r="N43" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O43" s="76" t="s">
         <v>117</v>
@@ -15862,7 +15868,7 @@
         <v>540</v>
       </c>
       <c r="Q43" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R43" s="91" t="s">
         <v>117</v>
@@ -15871,7 +15877,7 @@
         <v>540</v>
       </c>
       <c r="T43" s="86" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U43" s="89" t="s">
         <v>117</v>
@@ -15880,7 +15886,7 @@
         <v>540</v>
       </c>
       <c r="W43" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X43" s="81" t="s">
         <v>481</v>
@@ -15923,7 +15929,7 @@
       <c r="BB43" s="35"/>
       <c r="BC43" s="35"/>
       <c r="BD43" s="31" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="BE43" s="36"/>
       <c r="BF43" s="35"/>
@@ -15965,10 +15971,10 @@
       </c>
       <c r="I44" s="35"/>
       <c r="J44" s="35" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="K44" s="35" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="L44" s="79">
         <v>0</v>
@@ -15977,7 +15983,7 @@
         <v>5760</v>
       </c>
       <c r="N44" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O44" s="76" t="s">
         <v>117</v>
@@ -15986,7 +15992,7 @@
         <v>540</v>
       </c>
       <c r="Q44" s="87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R44" s="91" t="s">
         <v>117</v>
@@ -15995,7 +16001,7 @@
         <v>540</v>
       </c>
       <c r="T44" s="86" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U44" s="89" t="s">
         <v>117</v>
@@ -16004,7 +16010,7 @@
         <v>540</v>
       </c>
       <c r="W44" s="85" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X44" s="81" t="s">
         <v>483</v>
@@ -16047,7 +16053,7 @@
       <c r="BB44" s="35"/>
       <c r="BC44" s="35"/>
       <c r="BD44" s="31" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="BE44" s="36"/>
       <c r="BF44" s="35"/>
@@ -16089,10 +16095,10 @@
       </c>
       <c r="I45" s="35"/>
       <c r="J45" s="35" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="K45" s="35" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="L45" s="79"/>
       <c r="M45" s="79"/>
@@ -16147,7 +16153,7 @@
       <c r="BB45" s="35"/>
       <c r="BC45" s="35"/>
       <c r="BD45" s="31" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="BE45" s="36"/>
       <c r="BF45" s="35"/>
@@ -16385,16 +16391,16 @@
         <v>331</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H4" s="53" t="s">
         <v>115</v>
       </c>
       <c r="I4" s="65" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="J4" s="65" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="K4" s="65" t="s">
         <v>332</v>
@@ -16505,97 +16511,97 @@
         <v>337</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I5" s="52" t="s">
+        <v>666</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>667</v>
+      </c>
+      <c r="K5" s="52" t="s">
         <v>668</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="L5" s="52" t="s">
         <v>669</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="M5" s="52" t="s">
         <v>670</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="N5" s="52" t="s">
         <v>671</v>
       </c>
-      <c r="M5" s="52" t="s">
+      <c r="O5" s="52" t="s">
         <v>672</v>
       </c>
-      <c r="N5" s="52" t="s">
+      <c r="P5" s="52" t="s">
         <v>673</v>
       </c>
-      <c r="O5" s="52" t="s">
+      <c r="Q5" s="52" t="s">
         <v>674</v>
       </c>
-      <c r="P5" s="52" t="s">
-        <v>675</v>
-      </c>
-      <c r="Q5" s="52" t="s">
+      <c r="R5" s="52" t="s">
         <v>676</v>
       </c>
-      <c r="R5" s="52" t="s">
+      <c r="S5" s="52" t="s">
+        <v>677</v>
+      </c>
+      <c r="T5" s="52" t="s">
         <v>678</v>
       </c>
-      <c r="S5" s="52" t="s">
+      <c r="U5" s="52" t="s">
         <v>679</v>
       </c>
-      <c r="T5" s="52" t="s">
+      <c r="V5" s="52" t="s">
         <v>680</v>
       </c>
-      <c r="U5" s="52" t="s">
+      <c r="W5" s="52" t="s">
         <v>681</v>
       </c>
-      <c r="V5" s="52" t="s">
+      <c r="X5" s="52" t="s">
         <v>682</v>
       </c>
-      <c r="W5" s="52" t="s">
+      <c r="Y5" s="52" t="s">
         <v>683</v>
       </c>
-      <c r="X5" s="52" t="s">
+      <c r="Z5" s="52" t="s">
         <v>684</v>
       </c>
-      <c r="Y5" s="52" t="s">
+      <c r="AA5" s="52" t="s">
         <v>685</v>
       </c>
-      <c r="Z5" s="52" t="s">
+      <c r="AB5" s="52" t="s">
         <v>686</v>
       </c>
-      <c r="AA5" s="52" t="s">
+      <c r="AC5" s="52" t="s">
         <v>687</v>
       </c>
-      <c r="AB5" s="52" t="s">
+      <c r="AD5" s="52" t="s">
         <v>688</v>
       </c>
-      <c r="AC5" s="52" t="s">
+      <c r="AE5" s="52" t="s">
         <v>689</v>
       </c>
-      <c r="AD5" s="52" t="s">
+      <c r="AF5" s="52" t="s">
         <v>690</v>
       </c>
-      <c r="AE5" s="52" t="s">
+      <c r="AG5" s="52" t="s">
         <v>691</v>
       </c>
-      <c r="AF5" s="52" t="s">
+      <c r="AH5" s="52" t="s">
         <v>692</v>
       </c>
-      <c r="AG5" s="52" t="s">
+      <c r="AI5" s="52" t="s">
         <v>693</v>
       </c>
-      <c r="AH5" s="52" t="s">
+      <c r="AJ5" s="52" t="s">
         <v>694</v>
       </c>
-      <c r="AI5" s="52" t="s">
+      <c r="AK5" s="52" t="s">
         <v>695</v>
-      </c>
-      <c r="AJ5" s="52" t="s">
-        <v>696</v>
-      </c>
-      <c r="AK5" s="52" t="s">
-        <v>697</v>
       </c>
       <c r="AL5" s="66" t="s">
         <v>338</v>
@@ -16625,7 +16631,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H6" s="54" t="s">
         <v>5</v>
@@ -16744,7 +16750,7 @@
         <v>325</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H7" s="39">
         <v>1</v>
@@ -16855,7 +16861,7 @@
         <v>490</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H8" s="39">
         <v>1</v>
@@ -16966,7 +16972,7 @@
         <v>488</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H9" s="39">
         <v>1</v>
@@ -17079,7 +17085,7 @@
         <v>491</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H10" s="39">
         <v>1</v>
@@ -17112,7 +17118,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="69" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="S10" s="69" t="s">
         <v>457</v>
@@ -17192,7 +17198,7 @@
         <v>492</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H11" s="39" t="s">
         <v>33</v>
@@ -17309,7 +17315,7 @@
         <v>493</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H12" s="39" t="s">
         <v>426</v>
@@ -17428,7 +17434,7 @@
         <v>489</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H13" s="39" t="s">
         <v>426</v>
@@ -17547,7 +17553,7 @@
         <v>494</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H14" s="39" t="s">
         <v>426</v>
@@ -17666,7 +17672,7 @@
         <v>495</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H15" s="39" t="s">
         <v>426</v>
@@ -17785,7 +17791,7 @@
         <v>496</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H16" s="39" t="s">
         <v>427</v>
@@ -17904,7 +17910,7 @@
         <v>497</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>179</v>
@@ -18023,7 +18029,7 @@
         <v>498</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>179</v>
@@ -18142,7 +18148,7 @@
         <v>408</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H19" s="39" t="s">
         <v>179</v>
@@ -18261,7 +18267,7 @@
         <v>503</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H20" s="39" t="s">
         <v>179</v>
@@ -18380,7 +18386,7 @@
         <v>499</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H21" s="39" t="s">
         <v>179</v>
@@ -18499,7 +18505,7 @@
         <v>504</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H22" s="39" t="s">
         <v>428</v>
@@ -18618,7 +18624,7 @@
         <v>505</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H23" s="39">
         <v>4</v>
@@ -18737,7 +18743,7 @@
         <v>500</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H24" s="39">
         <v>4</v>
@@ -18856,7 +18862,7 @@
         <v>501</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H25" s="39">
         <v>4</v>
@@ -18975,7 +18981,7 @@
         <v>502</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H26" s="69" t="s">
         <v>93</v>
@@ -19498,7 +19504,7 @@
       <c r="B1" s="164"/>
       <c r="C1" s="164"/>
       <c r="D1" s="131" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E1" s="1"/>
       <c r="H1" s="1"/>
@@ -19511,7 +19517,7 @@
       <c r="B2" s="164"/>
       <c r="C2" s="164"/>
       <c r="D2" s="131" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E2" s="1"/>
       <c r="H2" s="1"/>
@@ -19540,22 +19546,22 @@
         <v>37</v>
       </c>
       <c r="E4" s="128" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F4" s="102" t="s">
         <v>345</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="I4" s="128" t="s">
         <v>247</v>
       </c>
       <c r="J4" s="48" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="K4" s="128" t="s">
         <v>39</v>
@@ -19588,13 +19594,13 @@
         <v>254</v>
       </c>
       <c r="U4" s="116" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="V4" s="116" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="W4" s="116" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="X4" s="80" t="s">
         <v>542</v>
@@ -19612,7 +19618,7 @@
         <v>47</v>
       </c>
       <c r="AC4" s="128" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AD4" s="128" t="s">
         <v>255</v>
@@ -19639,19 +19645,19 @@
         <v>56</v>
       </c>
       <c r="AL4" s="128" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="AM4" s="128" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="AN4" s="128" t="s">
         <v>57</v>
       </c>
       <c r="AO4" s="128" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="AP4" s="128" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="AQ4" s="128" t="s">
         <v>58</v>
@@ -19684,22 +19690,22 @@
         <v>37</v>
       </c>
       <c r="E5" s="128" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F5" s="102" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="I5" s="49" t="s">
         <v>259</v>
       </c>
       <c r="J5" s="50" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="K5" s="50" t="s">
         <v>67</v>
@@ -19723,7 +19729,7 @@
         <v>264</v>
       </c>
       <c r="R5" s="49" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="S5" s="132" t="s">
         <v>71</v>
@@ -19732,13 +19738,13 @@
         <v>72</v>
       </c>
       <c r="U5" s="116" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="V5" s="116" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="W5" s="116" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="X5" s="80" t="s">
         <v>541</v>
@@ -19753,16 +19759,16 @@
         <v>73</v>
       </c>
       <c r="AB5" s="49" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="AC5" s="49" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="AD5" s="49" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="AE5" s="49" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AF5" s="49" t="s">
         <v>265</v>
@@ -19783,19 +19789,19 @@
         <v>82</v>
       </c>
       <c r="AL5" s="49" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="AM5" s="49" t="s">
+        <v>766</v>
+      </c>
+      <c r="AN5" s="49" t="s">
         <v>768</v>
       </c>
-      <c r="AN5" s="49" t="s">
-        <v>770</v>
-      </c>
       <c r="AO5" s="49" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="AP5" s="49" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="AQ5" s="49" t="s">
         <v>83</v>
@@ -19828,7 +19834,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="125" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>5</v>
@@ -19843,7 +19849,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="125" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="K6" s="125" t="s">
         <v>267</v>
@@ -19900,7 +19906,7 @@
         <v>89</v>
       </c>
       <c r="AC6" s="125" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AD6" s="125" t="s">
         <v>267</v>
@@ -19969,13 +19975,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D7" s="40">
         <v>100</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F7" s="40">
         <v>1</v>
@@ -19984,7 +19990,7 @@
         <v>426</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I7" s="40">
         <v>20</v>
@@ -20082,13 +20088,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D8" s="40">
         <v>100</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F8" s="40">
         <v>1</v>
@@ -20097,7 +20103,7 @@
         <v>426</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I8" s="40">
         <v>20</v>
@@ -20201,7 +20207,7 @@
         <v>102</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F9" s="40">
         <v>6</v>
@@ -20210,7 +20216,7 @@
         <v>426</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I9" s="40">
         <v>20</v>
@@ -20288,10 +20294,10 @@
       <c r="AL9" s="40"/>
       <c r="AM9" s="40"/>
       <c r="AN9" s="21" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AO9" s="21" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="AP9" s="21"/>
       <c r="AQ9" s="40" t="s">
@@ -20322,7 +20328,7 @@
         <v>101</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F10" s="40">
         <v>6</v>
@@ -20397,7 +20403,7 @@
       <c r="AN10" s="40"/>
       <c r="AO10" s="40"/>
       <c r="AP10" s="40" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="AQ10" s="40" t="s">
         <v>119</v>
@@ -20427,7 +20433,7 @@
         <v>101</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F11" s="40">
         <v>6</v>
@@ -20508,11 +20514,11 @@
       <c r="AL11" s="40"/>
       <c r="AM11" s="40"/>
       <c r="AN11" s="43" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AO11" s="43"/>
       <c r="AP11" s="43" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="AQ11" s="40" t="s">
         <v>94</v>
@@ -20544,7 +20550,7 @@
         <v>101</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F12" s="40">
         <v>6</v>
@@ -20553,7 +20559,7 @@
         <v>426</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="I12" s="40" t="s">
         <v>102</v>
@@ -20635,11 +20641,11 @@
       <c r="AL12" s="40"/>
       <c r="AM12" s="40"/>
       <c r="AN12" s="40" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AO12" s="40"/>
       <c r="AP12" s="40" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="AQ12" s="40" t="s">
         <v>94</v>
@@ -20671,7 +20677,7 @@
         <v>101</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F13" s="40">
         <v>6</v>
@@ -20754,11 +20760,11 @@
       <c r="AL13" s="40"/>
       <c r="AM13" s="40"/>
       <c r="AN13" s="43" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="AO13" s="43"/>
       <c r="AP13" s="43" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="AQ13" s="40" t="s">
         <v>119</v>
@@ -20790,7 +20796,7 @@
         <v>101</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F14" s="40">
         <v>6</v>
@@ -20799,7 +20805,7 @@
         <v>426</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>125</v>
@@ -20885,11 +20891,11 @@
       </c>
       <c r="AM14" s="40"/>
       <c r="AN14" s="21" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AO14" s="21"/>
       <c r="AP14" s="21" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="AQ14" s="40" t="s">
         <v>94</v>
@@ -20919,7 +20925,7 @@
         <v>101</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F15" s="40">
         <v>6</v>
@@ -20928,7 +20934,7 @@
         <v>426</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="I15" s="40">
         <v>240</v>
@@ -21014,11 +21020,11 @@
       </c>
       <c r="AM15" s="40"/>
       <c r="AN15" s="21" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AO15" s="21"/>
       <c r="AP15" s="21" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="AQ15" s="40" t="s">
         <v>94</v>
@@ -21050,7 +21056,7 @@
         <v>101</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F16" s="40">
         <v>6</v>
@@ -21133,11 +21139,11 @@
       </c>
       <c r="AM16" s="40"/>
       <c r="AN16" s="44" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="AO16" s="44"/>
       <c r="AP16" s="44" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="AQ16" s="40" t="s">
         <v>119</v>
@@ -21166,7 +21172,7 @@
         <v>301</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E17" s="45"/>
       <c r="F17" s="45">
@@ -21182,7 +21188,7 @@
         <v>302</v>
       </c>
       <c r="J17" s="45" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="K17" s="45" t="s">
         <v>303</v>
@@ -21236,10 +21242,10 @@
       <c r="AL17" s="45"/>
       <c r="AM17" s="45"/>
       <c r="AN17" s="45" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="AO17" s="45" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="AP17" s="45"/>
       <c r="AQ17" s="45" t="s">
@@ -21267,7 +21273,7 @@
         <v>306</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E18" s="45"/>
       <c r="F18" s="45">
@@ -21283,7 +21289,7 @@
         <v>302</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="K18" s="45" t="s">
         <v>307</v>
@@ -21337,7 +21343,7 @@
       <c r="AL18" s="45"/>
       <c r="AM18" s="45"/>
       <c r="AN18" s="45" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="AO18" s="45"/>
       <c r="AP18" s="45"/>
@@ -21366,7 +21372,7 @@
         <v>310</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E19" s="45"/>
       <c r="F19" s="45">
@@ -21376,13 +21382,13 @@
         <v>426</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="I19" s="45" t="s">
         <v>302</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="K19" s="45" t="s">
         <v>311</v>
@@ -21442,7 +21448,7 @@
       <c r="AL19" s="45"/>
       <c r="AM19" s="45"/>
       <c r="AN19" s="45" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="AO19" s="45"/>
       <c r="AP19" s="45"/>
@@ -21473,7 +21479,7 @@
         <v>314</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E20" s="45"/>
       <c r="F20" s="45">
@@ -21483,13 +21489,13 @@
         <v>426</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="I20" s="45" t="s">
         <v>302</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="K20" s="45" t="s">
         <v>315</v>
@@ -21547,7 +21553,7 @@
       </c>
       <c r="AM20" s="45"/>
       <c r="AN20" s="45" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="AO20" s="45"/>
       <c r="AP20" s="45"/>
@@ -21578,7 +21584,7 @@
         <v>320</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E21" s="45"/>
       <c r="F21" s="45">
@@ -21588,13 +21594,13 @@
         <v>426</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="I21" s="45" t="s">
         <v>302</v>
       </c>
       <c r="J21" s="45" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="K21" s="45" t="s">
         <v>321</v>
@@ -21652,7 +21658,7 @@
       </c>
       <c r="AM21" s="45"/>
       <c r="AN21" s="45" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="AO21" s="45"/>
       <c r="AP21" s="45"/>
@@ -21680,10 +21686,10 @@
         <v>16</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E22" s="45"/>
       <c r="F22" s="45">
@@ -21693,13 +21699,13 @@
         <v>426</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="I22" s="45" t="s">
         <v>302</v>
       </c>
       <c r="J22" s="45" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="K22" s="45" t="s">
         <v>324</v>
@@ -21759,7 +21765,7 @@
       <c r="AL22" s="45"/>
       <c r="AM22" s="45"/>
       <c r="AN22" s="45" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="AO22" s="45"/>
       <c r="AP22" s="45"/>
@@ -21846,7 +21852,7 @@
       <c r="B1" s="165"/>
       <c r="C1" s="165"/>
       <c r="D1" s="167" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E1" s="167"/>
       <c r="F1" s="167"/>
@@ -21859,7 +21865,7 @@
       <c r="B2" s="165"/>
       <c r="C2" s="165"/>
       <c r="D2" s="167" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E2" s="167"/>
       <c r="F2" s="167"/>
@@ -21880,61 +21886,61 @@
         <v>2</v>
       </c>
       <c r="C4" s="142" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D4" s="152" t="s">
+        <v>857</v>
+      </c>
+      <c r="E4" s="153" t="s">
+        <v>858</v>
+      </c>
+      <c r="F4" s="153" t="s">
         <v>859</v>
       </c>
-      <c r="E4" s="153" t="s">
+      <c r="G4" s="153" t="s">
+        <v>895</v>
+      </c>
+      <c r="H4" s="153" t="s">
+        <v>861</v>
+      </c>
+      <c r="I4" s="153" t="s">
+        <v>933</v>
+      </c>
+      <c r="J4" s="153" t="s">
         <v>860</v>
       </c>
-      <c r="F4" s="153" t="s">
-        <v>861</v>
-      </c>
-      <c r="G4" s="153" t="s">
-        <v>897</v>
-      </c>
-      <c r="H4" s="153" t="s">
+      <c r="K4" s="153" t="s">
+        <v>862</v>
+      </c>
+      <c r="L4" s="153" t="s">
         <v>863</v>
       </c>
-      <c r="I4" s="153" t="s">
-        <v>935</v>
-      </c>
-      <c r="J4" s="153" t="s">
-        <v>862</v>
-      </c>
-      <c r="K4" s="153" t="s">
+      <c r="M4" s="153" t="s">
+        <v>924</v>
+      </c>
+      <c r="N4" s="153" t="s">
         <v>864</v>
       </c>
-      <c r="L4" s="153" t="s">
+      <c r="O4" s="153" t="s">
         <v>865</v>
       </c>
-      <c r="M4" s="153" t="s">
-        <v>926</v>
-      </c>
-      <c r="N4" s="153" t="s">
+      <c r="P4" s="153" t="s">
         <v>866</v>
       </c>
-      <c r="O4" s="153" t="s">
+      <c r="Q4" s="153" t="s">
         <v>867</v>
       </c>
-      <c r="P4" s="153" t="s">
+      <c r="R4" s="153" t="s">
         <v>868</v>
       </c>
-      <c r="Q4" s="153" t="s">
+      <c r="S4" s="153" t="s">
         <v>869</v>
       </c>
-      <c r="R4" s="153" t="s">
+      <c r="T4" s="153" t="s">
         <v>870</v>
       </c>
-      <c r="S4" s="153" t="s">
+      <c r="U4" s="153" t="s">
         <v>871</v>
-      </c>
-      <c r="T4" s="153" t="s">
-        <v>872</v>
-      </c>
-      <c r="U4" s="153" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="141" customFormat="1" ht="46" customHeight="1">
@@ -21943,61 +21949,61 @@
         <v>2</v>
       </c>
       <c r="C5" s="144" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D5" s="154" t="s">
+        <v>872</v>
+      </c>
+      <c r="E5" s="154" t="s">
+        <v>873</v>
+      </c>
+      <c r="F5" s="154" t="s">
         <v>874</v>
       </c>
-      <c r="E5" s="154" t="s">
+      <c r="G5" s="154" t="s">
+        <v>782</v>
+      </c>
+      <c r="H5" s="154" t="s">
+        <v>877</v>
+      </c>
+      <c r="I5" s="154" t="s">
         <v>875</v>
       </c>
-      <c r="F5" s="154" t="s">
+      <c r="J5" s="154" t="s">
         <v>876</v>
       </c>
-      <c r="G5" s="154" t="s">
-        <v>784</v>
-      </c>
-      <c r="H5" s="154" t="s">
+      <c r="K5" s="154" t="s">
+        <v>878</v>
+      </c>
+      <c r="L5" s="154" t="s">
         <v>879</v>
       </c>
-      <c r="I5" s="154" t="s">
-        <v>877</v>
-      </c>
-      <c r="J5" s="154" t="s">
-        <v>878</v>
-      </c>
-      <c r="K5" s="154" t="s">
+      <c r="M5" s="154" t="s">
+        <v>928</v>
+      </c>
+      <c r="N5" s="154" t="s">
         <v>880</v>
       </c>
-      <c r="L5" s="154" t="s">
+      <c r="O5" s="154" t="s">
         <v>881</v>
       </c>
-      <c r="M5" s="154" t="s">
-        <v>930</v>
-      </c>
-      <c r="N5" s="154" t="s">
+      <c r="P5" s="154" t="s">
         <v>882</v>
       </c>
-      <c r="O5" s="154" t="s">
+      <c r="Q5" s="154" t="s">
         <v>883</v>
       </c>
-      <c r="P5" s="154" t="s">
+      <c r="R5" s="154" t="s">
         <v>884</v>
       </c>
-      <c r="Q5" s="154" t="s">
+      <c r="S5" s="154" t="s">
+        <v>896</v>
+      </c>
+      <c r="T5" s="154" t="s">
         <v>885</v>
       </c>
-      <c r="R5" s="154" t="s">
+      <c r="U5" s="154" t="s">
         <v>886</v>
-      </c>
-      <c r="S5" s="154" t="s">
-        <v>898</v>
-      </c>
-      <c r="T5" s="154" t="s">
-        <v>887</v>
-      </c>
-      <c r="U5" s="154" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="141" customFormat="1" ht="21" customHeight="1">
@@ -22036,7 +22042,7 @@
         <v>89</v>
       </c>
       <c r="M6" s="155" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="N6" s="155" t="s">
         <v>89</v>
@@ -22065,23 +22071,23 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="148" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B7" s="137">
         <v>1</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D7" s="137" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E7" s="137" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F7" s="151"/>
       <c r="G7" s="137" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="H7" s="151"/>
       <c r="I7" s="151"/>
@@ -22096,34 +22102,34 @@
       <c r="P7" s="151"/>
       <c r="Q7" s="151"/>
       <c r="R7" s="137" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="S7" s="138"/>
       <c r="T7" s="151"/>
       <c r="U7" s="151"/>
       <c r="V7" s="136" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="148" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B8" s="137">
         <v>2</v>
       </c>
       <c r="C8" s="137" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D8" s="137" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E8" s="137" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="F8" s="151"/>
       <c r="G8" s="137" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H8" s="151"/>
       <c r="I8" s="151"/>
@@ -22138,20 +22144,20 @@
       <c r="P8" s="151"/>
       <c r="Q8" s="151"/>
       <c r="R8" s="137" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="S8" s="138"/>
       <c r="T8" s="156" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="U8" s="151"/>
       <c r="V8" s="136" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="148" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B9" s="137">
         <v>3</v>
@@ -22160,14 +22166,14 @@
         <v>194</v>
       </c>
       <c r="D9" s="137" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E9" s="137" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F9" s="151"/>
       <c r="G9" s="137" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H9" s="151"/>
       <c r="I9" s="151">
@@ -22176,7 +22182,7 @@
       <c r="J9" s="151"/>
       <c r="K9" s="151"/>
       <c r="L9" s="39" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="M9" s="39"/>
       <c r="N9" s="151"/>
@@ -22186,34 +22192,34 @@
       <c r="P9" s="151"/>
       <c r="Q9" s="151"/>
       <c r="R9" s="137" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="S9" s="138"/>
       <c r="T9" s="151"/>
       <c r="U9" s="151"/>
       <c r="V9" s="136" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="148" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B10" s="137">
         <v>4</v>
       </c>
       <c r="C10" s="137" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D10" s="137" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E10" s="137" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F10" s="151"/>
       <c r="G10" s="137" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="H10" s="151"/>
       <c r="I10" s="151">
@@ -22222,10 +22228,10 @@
       <c r="J10" s="151"/>
       <c r="K10" s="151"/>
       <c r="L10" s="39" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="M10" s="39" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="N10" s="151"/>
       <c r="O10" s="163" t="s">
@@ -22234,71 +22240,71 @@
       <c r="P10" s="151"/>
       <c r="Q10" s="151"/>
       <c r="R10" s="137" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="S10" s="138"/>
       <c r="T10" s="151"/>
       <c r="U10" s="151"/>
       <c r="V10" s="136" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="148" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B11" s="137">
         <v>5</v>
       </c>
       <c r="C11" s="137" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E11" s="137" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F11" s="151"/>
       <c r="G11" s="137" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="H11" s="151"/>
       <c r="I11" s="151"/>
       <c r="J11" s="151"/>
       <c r="K11" s="151"/>
       <c r="L11" s="39" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="M11" s="39"/>
       <c r="N11" s="151"/>
       <c r="O11" s="39" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="P11" s="151"/>
       <c r="Q11" s="151"/>
       <c r="R11" s="137" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="S11" s="138"/>
       <c r="T11" s="151"/>
       <c r="U11" s="151"/>
       <c r="V11" s="136" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="148" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B12" s="137">
         <v>6</v>
       </c>
       <c r="C12" s="137" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D12" s="137" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E12" s="137"/>
       <c r="F12" s="151"/>
@@ -22308,7 +22314,7 @@
       <c r="J12" s="151"/>
       <c r="K12" s="151"/>
       <c r="L12" s="39" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="M12" s="39"/>
       <c r="N12" s="151"/>
@@ -22320,109 +22326,109 @@
       <c r="T12" s="151"/>
       <c r="U12" s="151"/>
       <c r="V12" s="136" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="148" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B13" s="137">
         <v>7</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D13" s="137" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E13" s="137" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F13" s="151"/>
       <c r="G13" s="39" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H13" s="151"/>
       <c r="I13" s="151"/>
       <c r="J13" s="151"/>
       <c r="K13" s="151"/>
       <c r="L13" s="39" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="M13" s="39"/>
       <c r="N13" s="151"/>
       <c r="O13" s="39" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="P13" s="151"/>
       <c r="Q13" s="151"/>
       <c r="R13" s="137" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="S13" s="138"/>
       <c r="T13" s="151"/>
       <c r="U13" s="151"/>
       <c r="V13" s="136" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="148" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B14" s="137">
         <v>8</v>
       </c>
       <c r="C14" s="137" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D14" s="137" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E14" s="137" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F14" s="151"/>
       <c r="G14" s="137" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H14" s="151"/>
       <c r="I14" s="151"/>
       <c r="J14" s="151"/>
       <c r="K14" s="151"/>
       <c r="L14" s="39" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="M14" s="39"/>
       <c r="N14" s="151"/>
       <c r="O14" s="39" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="P14" s="151"/>
       <c r="Q14" s="151"/>
       <c r="R14" s="137" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="S14" s="138"/>
       <c r="T14" s="151"/>
       <c r="U14" s="151"/>
       <c r="V14" s="139" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="148" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>113</v>
       </c>
       <c r="C15" s="137" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D15" s="137" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E15" s="137"/>
       <c r="F15" s="151"/>
@@ -22451,17 +22457,17 @@
         <v>97</v>
       </c>
       <c r="C16" s="137" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D16" s="137" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E16" s="137" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F16" s="151"/>
       <c r="G16" s="137" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H16" s="151"/>
       <c r="I16" s="151"/>
@@ -22479,22 +22485,22 @@
       <c r="S16" s="138"/>
       <c r="T16" s="151"/>
       <c r="U16" s="156" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="V16" s="140"/>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="149" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B17" s="137" t="s">
         <v>135</v>
       </c>
       <c r="C17" s="137" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D17" s="137" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E17" s="137" t="s">
         <v>150</v>
@@ -22516,7 +22522,7 @@
       <c r="P17" s="151"/>
       <c r="Q17" s="151"/>
       <c r="R17" s="137" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="S17" s="138"/>
       <c r="T17" s="151"/>
@@ -22525,16 +22531,16 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="149" t="s">
+        <v>811</v>
+      </c>
+      <c r="B18" s="137" t="s">
         <v>813</v>
       </c>
-      <c r="B18" s="137" t="s">
-        <v>815</v>
-      </c>
       <c r="C18" s="137" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D18" s="137" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E18" s="137" t="s">
         <v>150</v>
@@ -22556,7 +22562,7 @@
       <c r="P18" s="151"/>
       <c r="Q18" s="151"/>
       <c r="R18" s="137" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="S18" s="138"/>
       <c r="T18" s="151"/>

--- a/Assets/island/DBCfg/DataCfg.xlsx
+++ b/Assets/island/DBCfg/DataCfg.xlsx
@@ -691,7 +691,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="964">
   <si>
     <t>表名：</t>
   </si>
@@ -1385,9 +1385,6 @@
   </si>
   <si>
     <t>海怪</t>
-  </si>
-  <si>
-    <t>Monster</t>
   </si>
   <si>
     <t>MonsterInfor</t>
@@ -4328,6 +4325,14 @@
   </si>
   <si>
     <t>200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BombSwirl</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10283,19 +10288,19 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="8" customFormat="1" ht="15" customHeight="1">
@@ -10307,19 +10312,19 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -10339,10 +10344,10 @@
         <v>5</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -10515,10 +10520,10 @@
   <dimension ref="A1:BM45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="AG15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="AB13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AK31" sqref="AK31"/>
+      <selection pane="bottomRight" activeCell="AQ32" sqref="AQ32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10622,13 +10627,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="102" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>40</v>
@@ -10640,103 +10645,103 @@
         <v>42</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="J4" s="28" t="s">
+        <v>716</v>
+      </c>
+      <c r="K4" s="28" t="s">
         <v>717</v>
       </c>
-      <c r="K4" s="28" t="s">
-        <v>718</v>
-      </c>
       <c r="L4" s="72" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M4" s="72" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N4" s="72" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O4" s="73" t="s">
+        <v>521</v>
+      </c>
+      <c r="P4" s="73" t="s">
         <v>522</v>
       </c>
-      <c r="P4" s="73" t="s">
-        <v>523</v>
-      </c>
       <c r="Q4" s="73" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="R4" s="74" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="S4" s="74" t="s">
+        <v>528</v>
+      </c>
+      <c r="T4" s="74" t="s">
         <v>529</v>
       </c>
-      <c r="T4" s="74" t="s">
+      <c r="U4" s="75" t="s">
         <v>530</v>
       </c>
-      <c r="U4" s="75" t="s">
+      <c r="V4" s="75" t="s">
         <v>531</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="W4" s="75" t="s">
         <v>532</v>
       </c>
-      <c r="W4" s="75" t="s">
-        <v>533</v>
-      </c>
       <c r="X4" s="80" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y4" s="80" t="s">
         <v>542</v>
       </c>
-      <c r="Y4" s="80" t="s">
+      <c r="Z4" s="80" t="s">
         <v>543</v>
       </c>
-      <c r="Z4" s="80" t="s">
-        <v>544</v>
-      </c>
       <c r="AA4" s="101" t="s">
+        <v>578</v>
+      </c>
+      <c r="AB4" s="101" t="s">
         <v>579</v>
       </c>
-      <c r="AB4" s="101" t="s">
+      <c r="AC4" s="101" t="s">
         <v>580</v>
       </c>
-      <c r="AC4" s="101" t="s">
-        <v>581</v>
-      </c>
       <c r="AD4" s="112" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AE4" s="112" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AF4" s="112" t="s">
+        <v>589</v>
+      </c>
+      <c r="AG4" s="75" t="s">
         <v>590</v>
       </c>
-      <c r="AG4" s="75" t="s">
+      <c r="AH4" s="75" t="s">
         <v>591</v>
       </c>
-      <c r="AH4" s="75" t="s">
+      <c r="AI4" s="75" t="s">
         <v>592</v>
       </c>
-      <c r="AI4" s="75" t="s">
-        <v>593</v>
-      </c>
       <c r="AJ4" s="105" t="s">
+        <v>605</v>
+      </c>
+      <c r="AK4" s="105" t="s">
         <v>606</v>
       </c>
-      <c r="AK4" s="105" t="s">
+      <c r="AL4" s="105" t="s">
         <v>607</v>
       </c>
-      <c r="AL4" s="105" t="s">
-        <v>608</v>
-      </c>
       <c r="AM4" s="113" t="s">
+        <v>622</v>
+      </c>
+      <c r="AN4" s="113" t="s">
         <v>623</v>
       </c>
-      <c r="AN4" s="113" t="s">
+      <c r="AO4" s="113" t="s">
         <v>624</v>
-      </c>
-      <c r="AO4" s="113" t="s">
-        <v>625</v>
       </c>
       <c r="AP4" s="30" t="s">
         <v>53</v>
@@ -10745,19 +10750,19 @@
         <v>54</v>
       </c>
       <c r="AR4" s="116" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AS4" s="116" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AT4" s="116" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AU4" s="30" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AV4" s="102" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AW4" s="30" t="s">
         <v>46</v>
@@ -10772,7 +10777,7 @@
         <v>51</v>
       </c>
       <c r="BA4" s="109" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="BB4" s="30" t="s">
         <v>55</v>
@@ -10793,7 +10798,7 @@
         <v>57</v>
       </c>
       <c r="BH4" s="30" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="BI4" s="30" t="s">
         <v>58</v>
@@ -10822,10 +10827,10 @@
         <v>37</v>
       </c>
       <c r="E5" s="102" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>68</v>
@@ -10834,103 +10839,103 @@
         <v>69</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J5" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="K5" s="28" t="s">
         <v>719</v>
       </c>
-      <c r="K5" s="28" t="s">
-        <v>720</v>
-      </c>
       <c r="L5" s="72" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M5" s="72" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N5" s="72" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O5" s="73" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="P5" s="73" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="Q5" s="73" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="R5" s="74" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="S5" s="74" t="s">
+        <v>533</v>
+      </c>
+      <c r="T5" s="74" t="s">
         <v>534</v>
       </c>
-      <c r="T5" s="74" t="s">
+      <c r="U5" s="75" t="s">
         <v>535</v>
       </c>
-      <c r="U5" s="75" t="s">
+      <c r="V5" s="75" t="s">
         <v>536</v>
       </c>
-      <c r="V5" s="75" t="s">
+      <c r="W5" s="75" t="s">
         <v>537</v>
       </c>
-      <c r="W5" s="75" t="s">
-        <v>538</v>
-      </c>
       <c r="X5" s="80" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="Y5" s="80" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="Z5" s="80" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AA5" s="101" t="s">
+        <v>581</v>
+      </c>
+      <c r="AB5" s="101" t="s">
         <v>582</v>
       </c>
-      <c r="AB5" s="101" t="s">
+      <c r="AC5" s="101" t="s">
         <v>583</v>
       </c>
-      <c r="AC5" s="101" t="s">
-        <v>584</v>
-      </c>
       <c r="AD5" s="112" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AE5" s="112" t="s">
+        <v>587</v>
+      </c>
+      <c r="AF5" s="112" t="s">
         <v>588</v>
       </c>
-      <c r="AF5" s="112" t="s">
-        <v>589</v>
-      </c>
       <c r="AG5" s="75" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AH5" s="75" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AI5" s="75" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AJ5" s="105" t="s">
+        <v>602</v>
+      </c>
+      <c r="AK5" s="105" t="s">
         <v>603</v>
       </c>
-      <c r="AK5" s="105" t="s">
+      <c r="AL5" s="105" t="s">
         <v>604</v>
       </c>
-      <c r="AL5" s="105" t="s">
-        <v>605</v>
-      </c>
       <c r="AM5" s="113" t="s">
+        <v>625</v>
+      </c>
+      <c r="AN5" s="113" t="s">
         <v>626</v>
       </c>
-      <c r="AN5" s="113" t="s">
+      <c r="AO5" s="113" t="s">
         <v>627</v>
-      </c>
-      <c r="AO5" s="113" t="s">
-        <v>628</v>
       </c>
       <c r="AP5" s="28" t="s">
         <v>79</v>
@@ -10939,19 +10944,19 @@
         <v>80</v>
       </c>
       <c r="AR5" s="116" t="s">
+        <v>636</v>
+      </c>
+      <c r="AS5" s="116" t="s">
         <v>637</v>
       </c>
-      <c r="AS5" s="116" t="s">
+      <c r="AT5" s="116" t="s">
         <v>638</v>
       </c>
-      <c r="AT5" s="116" t="s">
-        <v>639</v>
-      </c>
       <c r="AU5" s="49" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AV5" s="169" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="AW5" s="28" t="s">
         <v>73</v>
@@ -10963,7 +10968,7 @@
         <v>75</v>
       </c>
       <c r="AZ5" s="28" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="BA5" s="109" t="s">
         <v>70</v>
@@ -10972,22 +10977,22 @@
         <v>81</v>
       </c>
       <c r="BC5" s="28" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="BD5" s="28" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="BE5" s="28" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="BF5" s="28" t="s">
         <v>76</v>
       </c>
       <c r="BG5" s="28" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="BH5" s="28" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="BI5" s="28" t="s">
         <v>83</v>
@@ -11145,7 +11150,7 @@
         <v>5</v>
       </c>
       <c r="AV6" s="102" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="AW6" s="30" t="s">
         <v>89</v>
@@ -11211,13 +11216,13 @@
         <v>91</v>
       </c>
       <c r="D7" s="104" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E7" s="103" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>94</v>
@@ -11227,10 +11232,10 @@
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="35" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L7" s="79">
         <v>0</v>
@@ -11240,16 +11245,16 @@
         <v>17280</v>
       </c>
       <c r="N7" s="79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O7" s="76">
         <v>0</v>
       </c>
       <c r="P7" s="76" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="Q7" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R7" s="90">
         <v>0</v>
@@ -11258,7 +11263,7 @@
         <v>30000000</v>
       </c>
       <c r="T7" s="86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U7" s="88">
         <v>0</v>
@@ -11267,21 +11272,21 @@
         <v>30000000</v>
       </c>
       <c r="W7" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X7" s="81">
         <v>1500</v>
       </c>
       <c r="Y7" s="81" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="Z7" s="84" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AA7" s="92"/>
       <c r="AB7" s="92"/>
       <c r="AC7" s="93" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AD7" s="95"/>
       <c r="AE7" s="95"/>
@@ -11312,7 +11317,7 @@
       <c r="BB7" s="35"/>
       <c r="BC7" s="35"/>
       <c r="BD7" s="31" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="BE7" s="31"/>
       <c r="BF7" s="35"/>
@@ -11341,7 +11346,7 @@
         <v>92</v>
       </c>
       <c r="E8" s="103" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>110</v>
@@ -11354,10 +11359,10 @@
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="35" t="s">
+        <v>747</v>
+      </c>
+      <c r="K8" s="35" t="s">
         <v>748</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>749</v>
       </c>
       <c r="L8" s="79" t="s">
         <v>92</v>
@@ -11366,52 +11371,52 @@
         <v>5760</v>
       </c>
       <c r="N8" s="79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O8" s="76" t="s">
         <v>117</v>
       </c>
       <c r="P8" s="76" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="Q8" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R8" s="90" t="s">
         <v>117</v>
       </c>
       <c r="S8" s="90" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="T8" s="86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U8" s="88" t="s">
         <v>117</v>
       </c>
       <c r="V8" s="88" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="W8" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X8" s="82">
         <v>250</v>
       </c>
       <c r="Y8" s="82" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Z8" s="84" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AA8" s="92" t="s">
+        <v>596</v>
+      </c>
+      <c r="AB8" s="92" t="s">
         <v>597</v>
       </c>
-      <c r="AB8" s="92" t="s">
-        <v>598</v>
-      </c>
       <c r="AC8" s="93" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AD8" s="95"/>
       <c r="AE8" s="95"/>
@@ -11420,22 +11425,22 @@
       <c r="AH8" s="98"/>
       <c r="AI8" s="99"/>
       <c r="AJ8" s="106" t="s">
+        <v>598</v>
+      </c>
+      <c r="AK8" s="106" t="s">
         <v>599</v>
       </c>
-      <c r="AK8" s="106" t="s">
-        <v>600</v>
-      </c>
       <c r="AL8" s="107" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AM8" s="114" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AN8" s="114" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AO8" s="115" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AP8" s="35"/>
       <c r="AQ8" s="35"/>
@@ -11451,12 +11456,12 @@
       </c>
       <c r="AZ8" s="35"/>
       <c r="BA8" s="111" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="BB8" s="35"/>
       <c r="BC8" s="35"/>
       <c r="BD8" s="31" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="BE8" s="31"/>
       <c r="BF8" s="35"/>
@@ -11485,7 +11490,7 @@
         <v>92</v>
       </c>
       <c r="E9" s="103" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F9" s="35" t="s">
         <v>93</v>
@@ -11498,10 +11503,10 @@
       </c>
       <c r="I9" s="35"/>
       <c r="J9" s="35" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L9" s="79">
         <v>1</v>
@@ -11510,43 +11515,43 @@
         <v>5760</v>
       </c>
       <c r="N9" s="79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O9" s="76" t="s">
         <v>104</v>
       </c>
       <c r="P9" s="76" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="Q9" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R9" s="90" t="s">
         <v>104</v>
       </c>
       <c r="S9" s="90" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="T9" s="86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U9" s="88" t="s">
         <v>104</v>
       </c>
       <c r="V9" s="88" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="W9" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X9" s="81" t="s">
         <v>106</v>
       </c>
       <c r="Y9" s="81" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="Z9" s="84" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AA9" s="92"/>
       <c r="AB9" s="92"/>
@@ -11577,12 +11582,12 @@
       </c>
       <c r="AZ9" s="35"/>
       <c r="BA9" s="111" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="BB9" s="35"/>
       <c r="BC9" s="35"/>
       <c r="BD9" s="36" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="BE9" s="36"/>
       <c r="BF9" s="35"/>
@@ -11611,7 +11616,7 @@
         <v>92</v>
       </c>
       <c r="E10" s="103" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F10" s="35" t="s">
         <v>93</v>
@@ -11624,10 +11629,10 @@
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="35" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L10" s="79">
         <v>1</v>
@@ -11636,52 +11641,52 @@
         <v>5760</v>
       </c>
       <c r="N10" s="79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O10" s="76" t="s">
         <v>108</v>
       </c>
       <c r="P10" s="76" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="Q10" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R10" s="90" t="s">
         <v>108</v>
       </c>
       <c r="S10" s="90" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="T10" s="86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U10" s="88" t="s">
         <v>108</v>
       </c>
       <c r="V10" s="88" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="W10" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X10" s="82">
         <v>500</v>
       </c>
       <c r="Y10" s="82" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="Z10" s="84" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA10" s="92" t="s">
+        <v>619</v>
+      </c>
+      <c r="AB10" s="92" t="s">
+        <v>620</v>
+      </c>
+      <c r="AC10" s="93" t="s">
         <v>547</v>
-      </c>
-      <c r="AA10" s="92" t="s">
-        <v>620</v>
-      </c>
-      <c r="AB10" s="92" t="s">
-        <v>621</v>
-      </c>
-      <c r="AC10" s="93" t="s">
-        <v>548</v>
       </c>
       <c r="AD10" s="95"/>
       <c r="AE10" s="95"/>
@@ -11690,13 +11695,13 @@
       <c r="AH10" s="98"/>
       <c r="AI10" s="99"/>
       <c r="AJ10" s="106" t="s">
+        <v>600</v>
+      </c>
+      <c r="AK10" s="106" t="s">
         <v>601</v>
       </c>
-      <c r="AK10" s="106" t="s">
-        <v>602</v>
-      </c>
       <c r="AL10" s="107" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AM10" s="114"/>
       <c r="AN10" s="114"/>
@@ -11715,12 +11720,12 @@
       </c>
       <c r="AZ10" s="35"/>
       <c r="BA10" s="111" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="BB10" s="35"/>
       <c r="BC10" s="35"/>
       <c r="BD10" s="36" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="BE10" s="36"/>
       <c r="BF10" s="35"/>
@@ -11736,20 +11741,20 @@
     </row>
     <row r="11" spans="1:65">
       <c r="A11" s="56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B11" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D11" s="104" t="s">
         <v>92</v>
       </c>
       <c r="E11" s="103" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F11" s="35" t="s">
         <v>105</v>
@@ -11762,10 +11767,10 @@
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="35" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L11" s="79">
         <v>1</v>
@@ -11774,43 +11779,43 @@
         <v>5760</v>
       </c>
       <c r="N11" s="79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O11" s="76">
         <v>0</v>
       </c>
       <c r="P11" s="76" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="Q11" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R11" s="90">
         <v>0</v>
       </c>
       <c r="S11" s="90" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="T11" s="86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U11" s="88">
         <v>0</v>
       </c>
       <c r="V11" s="88" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="W11" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X11" s="82">
         <v>580</v>
       </c>
       <c r="Y11" s="82" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Z11" s="84" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AA11" s="92"/>
       <c r="AB11" s="92"/>
@@ -11822,13 +11827,13 @@
       <c r="AH11" s="98"/>
       <c r="AI11" s="99"/>
       <c r="AJ11" s="106" t="s">
+        <v>600</v>
+      </c>
+      <c r="AK11" s="106" t="s">
         <v>601</v>
       </c>
-      <c r="AK11" s="106" t="s">
-        <v>602</v>
-      </c>
       <c r="AL11" s="107" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AM11" s="114"/>
       <c r="AN11" s="114"/>
@@ -11847,12 +11852,12 @@
       </c>
       <c r="AZ11" s="36"/>
       <c r="BA11" s="111" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="BB11" s="36"/>
       <c r="BC11" s="36"/>
       <c r="BD11" s="31" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="BE11" s="36"/>
       <c r="BF11" s="36"/>
@@ -11863,25 +11868,25 @@
       <c r="BK11" s="36"/>
       <c r="BL11" s="36"/>
       <c r="BM11" s="36" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:65">
       <c r="A12" s="56" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B12" s="35">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D12" s="104" t="s">
         <v>101</v>
       </c>
       <c r="E12" s="103" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F12" s="35" t="s">
         <v>105</v>
@@ -11894,10 +11899,10 @@
       </c>
       <c r="I12" s="35"/>
       <c r="J12" s="35" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="L12" s="79">
         <v>1</v>
@@ -11906,7 +11911,7 @@
         <v>10080</v>
       </c>
       <c r="N12" s="79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O12" s="76"/>
       <c r="P12" s="76"/>
@@ -11915,37 +11920,37 @@
         <v>133</v>
       </c>
       <c r="S12" s="90" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="T12" s="86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U12" s="88" t="s">
         <v>133</v>
       </c>
       <c r="V12" s="88" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W12" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X12" s="81">
         <v>400</v>
       </c>
       <c r="Y12" s="81" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="Z12" s="84" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AA12" s="92" t="s">
+        <v>608</v>
+      </c>
+      <c r="AB12" s="92" t="s">
         <v>609</v>
       </c>
-      <c r="AB12" s="92" t="s">
-        <v>610</v>
-      </c>
       <c r="AC12" s="93" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AD12" s="95"/>
       <c r="AE12" s="95"/>
@@ -11973,15 +11978,15 @@
       </c>
       <c r="AZ12" s="35"/>
       <c r="BA12" s="111" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="BB12" s="35"/>
       <c r="BC12" s="35"/>
       <c r="BD12" s="36" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="BE12" s="37" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="BF12" s="35"/>
       <c r="BG12" s="35"/>
@@ -11991,25 +11996,25 @@
       <c r="BK12" s="35"/>
       <c r="BL12" s="35"/>
       <c r="BM12" s="36" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:65">
       <c r="A13" s="56" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B13" s="35">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D13" s="104" t="s">
         <v>101</v>
       </c>
       <c r="E13" s="103" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F13" s="35" t="s">
         <v>105</v>
@@ -12022,10 +12027,10 @@
       </c>
       <c r="I13" s="35"/>
       <c r="J13" s="35" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L13" s="79">
         <v>1</v>
@@ -12034,7 +12039,7 @@
         <v>10080</v>
       </c>
       <c r="N13" s="79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O13" s="76"/>
       <c r="P13" s="76"/>
@@ -12043,37 +12048,37 @@
         <v>141</v>
       </c>
       <c r="S13" s="90" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="T13" s="86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U13" s="88" t="s">
         <v>141</v>
       </c>
       <c r="V13" s="88" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W13" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X13" s="81" t="s">
         <v>114</v>
       </c>
       <c r="Y13" s="81" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="Z13" s="84" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA13" s="92" t="s">
+        <v>610</v>
+      </c>
+      <c r="AB13" s="92" t="s">
+        <v>611</v>
+      </c>
+      <c r="AC13" s="93" t="s">
         <v>547</v>
-      </c>
-      <c r="AA13" s="92" t="s">
-        <v>611</v>
-      </c>
-      <c r="AB13" s="92" t="s">
-        <v>612</v>
-      </c>
-      <c r="AC13" s="93" t="s">
-        <v>548</v>
       </c>
       <c r="AD13" s="95"/>
       <c r="AE13" s="95"/>
@@ -12104,7 +12109,7 @@
       <c r="BB13" s="35"/>
       <c r="BC13" s="35"/>
       <c r="BD13" s="31" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="BE13" s="33"/>
       <c r="BF13" s="35"/>
@@ -12115,25 +12120,25 @@
       <c r="BK13" s="35"/>
       <c r="BL13" s="35"/>
       <c r="BM13" s="36" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:65">
       <c r="A14" s="56" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B14" s="35">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D14" s="104" t="s">
         <v>101</v>
       </c>
       <c r="E14" s="103" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>105</v>
@@ -12146,10 +12151,10 @@
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="35" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L14" s="79">
         <v>1</v>
@@ -12158,16 +12163,16 @@
         <v>10080</v>
       </c>
       <c r="N14" s="79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O14" s="76" t="s">
         <v>133</v>
       </c>
       <c r="P14" s="76" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Q14" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R14" s="90"/>
       <c r="S14" s="90"/>
@@ -12176,28 +12181,28 @@
         <v>133</v>
       </c>
       <c r="V14" s="88" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W14" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X14" s="81">
         <v>400</v>
       </c>
       <c r="Y14" s="81" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="Z14" s="84" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AA14" s="92" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AB14" s="92" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AC14" s="93" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AD14" s="95"/>
       <c r="AE14" s="95"/>
@@ -12225,15 +12230,15 @@
       </c>
       <c r="AZ14" s="35"/>
       <c r="BA14" s="111" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="BB14" s="35"/>
       <c r="BC14" s="35"/>
       <c r="BD14" s="36" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="BE14" s="37" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="BF14" s="35"/>
       <c r="BG14" s="35"/>
@@ -12248,20 +12253,20 @@
     </row>
     <row r="15" spans="1:65">
       <c r="A15" s="57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B15" s="35">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D15" s="104" t="s">
         <v>101</v>
       </c>
       <c r="E15" s="103" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F15" s="35" t="s">
         <v>105</v>
@@ -12274,10 +12279,10 @@
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="35" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L15" s="79">
         <v>1</v>
@@ -12286,16 +12291,16 @@
         <v>10080</v>
       </c>
       <c r="N15" s="79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O15" s="76" t="s">
         <v>141</v>
       </c>
       <c r="P15" s="76" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Q15" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R15" s="90"/>
       <c r="S15" s="90"/>
@@ -12304,28 +12309,28 @@
         <v>141</v>
       </c>
       <c r="V15" s="88" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W15" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X15" s="81" t="s">
         <v>114</v>
       </c>
       <c r="Y15" s="81" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="Z15" s="84" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA15" s="92" t="s">
+        <v>613</v>
+      </c>
+      <c r="AB15" s="92" t="s">
+        <v>661</v>
+      </c>
+      <c r="AC15" s="93" t="s">
         <v>547</v>
-      </c>
-      <c r="AA15" s="92" t="s">
-        <v>614</v>
-      </c>
-      <c r="AB15" s="92" t="s">
-        <v>662</v>
-      </c>
-      <c r="AC15" s="93" t="s">
-        <v>548</v>
       </c>
       <c r="AD15" s="95"/>
       <c r="AE15" s="95"/>
@@ -12356,7 +12361,7 @@
       <c r="BB15" s="35"/>
       <c r="BC15" s="35"/>
       <c r="BD15" s="31" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="BE15" s="33"/>
       <c r="BF15" s="35"/>
@@ -12367,7 +12372,7 @@
       <c r="BK15" s="35"/>
       <c r="BL15" s="35"/>
       <c r="BM15" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -12385,7 +12390,7 @@
         <v>101</v>
       </c>
       <c r="E16" s="103" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>105</v>
@@ -12398,10 +12403,10 @@
       </c>
       <c r="I16" s="35"/>
       <c r="J16" s="35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L16" s="79">
         <v>1</v>
@@ -12410,25 +12415,25 @@
         <v>10080</v>
       </c>
       <c r="N16" s="79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O16" s="76">
         <v>150</v>
       </c>
       <c r="P16" s="76" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Q16" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R16" s="90">
         <v>150</v>
       </c>
       <c r="S16" s="90" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="T16" s="86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U16" s="88"/>
       <c r="V16" s="88"/>
@@ -12437,19 +12442,19 @@
         <v>400</v>
       </c>
       <c r="Y16" s="81" t="s">
+        <v>567</v>
+      </c>
+      <c r="Z16" s="84" t="s">
         <v>568</v>
       </c>
-      <c r="Z16" s="84" t="s">
-        <v>569</v>
-      </c>
       <c r="AA16" s="92" t="s">
+        <v>615</v>
+      </c>
+      <c r="AB16" s="92" t="s">
         <v>616</v>
       </c>
-      <c r="AB16" s="92" t="s">
-        <v>617</v>
-      </c>
       <c r="AC16" s="93" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AD16" s="95"/>
       <c r="AE16" s="95"/>
@@ -12477,15 +12482,15 @@
       </c>
       <c r="AZ16" s="35"/>
       <c r="BA16" s="111" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="BB16" s="35"/>
       <c r="BC16" s="35"/>
       <c r="BD16" s="31" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="BE16" s="33" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="BF16" s="35"/>
       <c r="BG16" s="35"/>
@@ -12513,7 +12518,7 @@
         <v>101</v>
       </c>
       <c r="E17" s="103" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F17" s="35" t="s">
         <v>105</v>
@@ -12526,10 +12531,10 @@
       </c>
       <c r="I17" s="35"/>
       <c r="J17" s="35" t="s">
+        <v>728</v>
+      </c>
+      <c r="K17" s="35" t="s">
         <v>729</v>
-      </c>
-      <c r="K17" s="35" t="s">
-        <v>730</v>
       </c>
       <c r="L17" s="79">
         <v>1</v>
@@ -12538,25 +12543,25 @@
         <v>10080</v>
       </c>
       <c r="N17" s="79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O17" s="76" t="s">
         <v>141</v>
       </c>
       <c r="P17" s="76" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Q17" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R17" s="90" t="s">
         <v>141</v>
       </c>
       <c r="S17" s="90" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="T17" s="86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U17" s="88"/>
       <c r="V17" s="88"/>
@@ -12565,19 +12570,19 @@
         <v>114</v>
       </c>
       <c r="Y17" s="81" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="Z17" s="84" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA17" s="92" t="s">
+        <v>613</v>
+      </c>
+      <c r="AB17" s="92" t="s">
+        <v>614</v>
+      </c>
+      <c r="AC17" s="93" t="s">
         <v>547</v>
-      </c>
-      <c r="AA17" s="92" t="s">
-        <v>614</v>
-      </c>
-      <c r="AB17" s="92" t="s">
-        <v>615</v>
-      </c>
-      <c r="AC17" s="93" t="s">
-        <v>548</v>
       </c>
       <c r="AD17" s="95"/>
       <c r="AE17" s="95"/>
@@ -12608,7 +12613,7 @@
       <c r="BB17" s="35"/>
       <c r="BC17" s="35"/>
       <c r="BD17" s="31" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="BE17" s="33"/>
       <c r="BF17" s="35"/>
@@ -12637,7 +12642,7 @@
         <v>179</v>
       </c>
       <c r="E18" s="103" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F18" s="35" t="s">
         <v>105</v>
@@ -12650,10 +12655,10 @@
       </c>
       <c r="I18" s="35"/>
       <c r="J18" s="35" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="L18" s="79">
         <f>60/60</f>
@@ -12663,43 +12668,43 @@
         <v>10080</v>
       </c>
       <c r="N18" s="79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O18" s="76">
         <v>250</v>
       </c>
       <c r="P18" s="76" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Q18" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R18" s="90">
         <v>250</v>
       </c>
       <c r="S18" s="90" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="T18" s="86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U18" s="88">
         <v>250</v>
       </c>
       <c r="V18" s="88" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W18" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X18" s="81">
         <v>400</v>
       </c>
       <c r="Y18" s="81" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Z18" s="84" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AA18" s="92"/>
       <c r="AB18" s="92"/>
@@ -12720,7 +12725,7 @@
         <v>142</v>
       </c>
       <c r="AO18" s="115" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AP18" s="35"/>
       <c r="AQ18" s="34" t="s">
@@ -12730,10 +12735,10 @@
         <v>7</v>
       </c>
       <c r="AS18" s="117" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AT18" s="118" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AU18" s="36"/>
       <c r="AV18" s="36"/>
@@ -12746,17 +12751,17 @@
         <v>92</v>
       </c>
       <c r="BA18" s="111" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="BB18" s="34"/>
       <c r="BC18" s="34"/>
       <c r="BD18" s="34" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="BE18" s="34"/>
       <c r="BF18" s="34"/>
       <c r="BG18" s="34" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="BH18" s="34"/>
       <c r="BI18" s="34" t="s">
@@ -12783,10 +12788,10 @@
         <v>157</v>
       </c>
       <c r="D19" s="104" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E19" s="103" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F19" s="35" t="s">
         <v>105</v>
@@ -12799,10 +12804,10 @@
       </c>
       <c r="I19" s="35"/>
       <c r="J19" s="35" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L19" s="79">
         <f t="shared" ref="L19:L31" si="1">60/60</f>
@@ -12812,43 +12817,43 @@
         <v>10080</v>
       </c>
       <c r="N19" s="79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O19" s="76">
         <v>1000</v>
       </c>
       <c r="P19" s="76" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Q19" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R19" s="90">
         <v>1000</v>
       </c>
       <c r="S19" s="90" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="T19" s="86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U19" s="88">
         <v>1000</v>
       </c>
       <c r="V19" s="88" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W19" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X19" s="81">
         <v>400</v>
       </c>
       <c r="Y19" s="81" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Z19" s="84" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AA19" s="92"/>
       <c r="AB19" s="92"/>
@@ -12869,7 +12874,7 @@
         <v>158</v>
       </c>
       <c r="AO19" s="115" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AP19" s="35"/>
       <c r="AQ19" s="32" t="s">
@@ -12879,10 +12884,10 @@
         <v>11</v>
       </c>
       <c r="AS19" s="117" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AT19" s="118" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AU19" s="36"/>
       <c r="AV19" s="36"/>
@@ -12895,17 +12900,17 @@
         <v>111</v>
       </c>
       <c r="BA19" s="111" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="BB19" s="32"/>
       <c r="BC19" s="32"/>
       <c r="BD19" s="36" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="BE19" s="36"/>
       <c r="BF19" s="32"/>
       <c r="BG19" s="36" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="BH19" s="36"/>
       <c r="BI19" s="35" t="s">
@@ -12935,7 +12940,7 @@
         <v>179</v>
       </c>
       <c r="E20" s="103" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F20" s="35" t="s">
         <v>105</v>
@@ -12948,10 +12953,10 @@
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="35" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L20" s="79">
         <f t="shared" si="1"/>
@@ -12961,43 +12966,43 @@
         <v>10080</v>
       </c>
       <c r="N20" s="79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O20" s="76" t="s">
         <v>162</v>
       </c>
       <c r="P20" s="76" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Q20" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R20" s="90" t="s">
         <v>162</v>
       </c>
       <c r="S20" s="90" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="T20" s="86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U20" s="88" t="s">
         <v>162</v>
       </c>
       <c r="V20" s="88" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W20" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X20" s="81">
         <v>400</v>
       </c>
       <c r="Y20" s="81" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="Z20" s="84" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AA20" s="92"/>
       <c r="AB20" s="92"/>
@@ -13018,25 +13023,25 @@
         <v>126</v>
       </c>
       <c r="AO20" s="115" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AP20" s="35" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AQ20" s="34" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AR20" s="117">
         <v>20</v>
       </c>
       <c r="AS20" s="117" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AT20" s="118" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AU20" s="36" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AV20" s="36"/>
       <c r="AW20" s="34"/>
@@ -13048,17 +13053,17 @@
         <v>101</v>
       </c>
       <c r="BA20" s="111" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="BB20" s="34"/>
       <c r="BC20" s="34"/>
       <c r="BD20" s="34" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="BE20" s="34"/>
       <c r="BF20" s="34"/>
       <c r="BG20" s="34" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="BH20" s="34"/>
       <c r="BI20" s="34" t="s">
@@ -13085,10 +13090,10 @@
         <v>165</v>
       </c>
       <c r="D21" s="104" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E21" s="103" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F21" s="35" t="s">
         <v>105</v>
@@ -13101,10 +13106,10 @@
       </c>
       <c r="I21" s="35"/>
       <c r="J21" s="35" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L21" s="79">
         <f t="shared" si="1"/>
@@ -13114,43 +13119,43 @@
         <v>10080</v>
       </c>
       <c r="N21" s="79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O21" s="76">
         <v>22500</v>
       </c>
       <c r="P21" s="76" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Q21" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R21" s="90">
         <v>22500</v>
       </c>
       <c r="S21" s="90" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="T21" s="86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U21" s="88">
         <v>22500</v>
       </c>
       <c r="V21" s="88" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W21" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X21" s="81" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Y21" s="81" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Z21" s="84" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AA21" s="92"/>
       <c r="AB21" s="92"/>
@@ -13165,13 +13170,13 @@
       <c r="AK21" s="106"/>
       <c r="AL21" s="107"/>
       <c r="AM21" s="114" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AN21" s="114" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AO21" s="115" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AP21" s="35"/>
       <c r="AQ21" s="32" t="s">
@@ -13181,10 +13186,10 @@
         <v>80</v>
       </c>
       <c r="AS21" s="117" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AT21" s="118" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AU21" s="36"/>
       <c r="AV21" s="36"/>
@@ -13194,20 +13199,20 @@
         <v>94</v>
       </c>
       <c r="AZ21" s="32" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="BA21" s="111" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="BB21" s="32"/>
       <c r="BC21" s="32"/>
       <c r="BD21" s="36" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="BE21" s="36"/>
       <c r="BF21" s="32"/>
       <c r="BG21" s="36" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="BH21" s="36"/>
       <c r="BI21" s="32" t="s">
@@ -13231,13 +13236,13 @@
         <v>16</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D22" s="104" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E22" s="103" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F22" s="35" t="s">
         <v>105</v>
@@ -13250,10 +13255,10 @@
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="35" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="L22" s="79">
         <f t="shared" si="1"/>
@@ -13263,43 +13268,43 @@
         <v>10080</v>
       </c>
       <c r="N22" s="79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O22" s="77" t="s">
         <v>168</v>
       </c>
       <c r="P22" s="76" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Q22" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R22" s="90" t="s">
         <v>168</v>
       </c>
       <c r="S22" s="90" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="T22" s="86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U22" s="88" t="s">
         <v>168</v>
       </c>
       <c r="V22" s="88" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W22" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X22" s="82" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="Y22" s="82" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="Z22" s="84" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AA22" s="92"/>
       <c r="AB22" s="92"/>
@@ -13314,31 +13319,31 @@
       <c r="AK22" s="106"/>
       <c r="AL22" s="107"/>
       <c r="AM22" s="114" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AN22" s="114" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AO22" s="115" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AP22" s="35" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AQ22" s="34" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AR22" s="119" t="s">
         <v>169</v>
       </c>
       <c r="AS22" s="119" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AT22" s="118" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AU22" s="36" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AV22" s="36"/>
       <c r="AW22" s="34"/>
@@ -13347,20 +13352,20 @@
         <v>94</v>
       </c>
       <c r="AZ22" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="BA22" s="111" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="BB22" s="34"/>
       <c r="BC22" s="34"/>
       <c r="BD22" s="34" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="BE22" s="34"/>
       <c r="BF22" s="34"/>
       <c r="BG22" s="36" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="BH22" s="36"/>
       <c r="BI22" s="34" t="s">
@@ -13384,13 +13389,13 @@
         <v>17</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D23" s="104" t="s">
         <v>179</v>
       </c>
       <c r="E23" s="103" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F23" s="35" t="s">
         <v>105</v>
@@ -13403,10 +13408,10 @@
       </c>
       <c r="I23" s="35"/>
       <c r="J23" s="35" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L23" s="79">
         <f t="shared" si="1"/>
@@ -13416,43 +13421,43 @@
         <v>10080</v>
       </c>
       <c r="N23" s="79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O23" s="76" t="s">
+        <v>548</v>
+      </c>
+      <c r="P23" s="76" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q23" s="87" t="s">
+        <v>660</v>
+      </c>
+      <c r="R23" s="90" t="s">
+        <v>548</v>
+      </c>
+      <c r="S23" s="90" t="s">
         <v>549</v>
       </c>
-      <c r="P23" s="76" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q23" s="87" t="s">
-        <v>661</v>
-      </c>
-      <c r="R23" s="90" t="s">
+      <c r="T23" s="86" t="s">
+        <v>660</v>
+      </c>
+      <c r="U23" s="88" t="s">
+        <v>548</v>
+      </c>
+      <c r="V23" s="88" t="s">
         <v>549</v>
       </c>
-      <c r="S23" s="90" t="s">
-        <v>550</v>
-      </c>
-      <c r="T23" s="86" t="s">
-        <v>661</v>
-      </c>
-      <c r="U23" s="88" t="s">
-        <v>549</v>
-      </c>
-      <c r="V23" s="88" t="s">
-        <v>550</v>
-      </c>
       <c r="W23" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X23" s="81" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="Y23" s="81" t="s">
+        <v>574</v>
+      </c>
+      <c r="Z23" s="84" t="s">
         <v>575</v>
-      </c>
-      <c r="Z23" s="84" t="s">
-        <v>576</v>
       </c>
       <c r="AA23" s="92"/>
       <c r="AB23" s="92"/>
@@ -13473,7 +13478,7 @@
         <v>142</v>
       </c>
       <c r="AO23" s="115" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AP23" s="35"/>
       <c r="AQ23" s="32" t="s">
@@ -13483,10 +13488,10 @@
         <v>20</v>
       </c>
       <c r="AS23" s="117" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AT23" s="118" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AU23" s="36"/>
       <c r="AV23" s="36"/>
@@ -13499,17 +13504,17 @@
         <v>110</v>
       </c>
       <c r="BA23" s="111" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="BB23" s="32"/>
       <c r="BC23" s="32"/>
       <c r="BD23" s="36" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="BE23" s="36"/>
       <c r="BF23" s="32"/>
       <c r="BG23" s="32" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="BH23" s="32"/>
       <c r="BI23" s="32" t="s">
@@ -13539,7 +13544,7 @@
         <v>179</v>
       </c>
       <c r="E24" s="103" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F24" s="35" t="s">
         <v>179</v>
@@ -13552,10 +13557,10 @@
       </c>
       <c r="I24" s="35"/>
       <c r="J24" s="35" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L24" s="79">
         <f t="shared" si="1"/>
@@ -13566,43 +13571,43 @@
         <v>17280</v>
       </c>
       <c r="N24" s="79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O24" s="76">
         <v>2500000</v>
       </c>
       <c r="P24" s="76" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="Q24" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R24" s="90">
         <v>2500000</v>
       </c>
       <c r="S24" s="90" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T24" s="86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U24" s="88">
         <v>2500000</v>
       </c>
       <c r="V24" s="88" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="W24" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X24" s="81">
         <v>1500</v>
       </c>
       <c r="Y24" s="81" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="Z24" s="84" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AA24" s="92"/>
       <c r="AB24" s="92"/>
@@ -13623,22 +13628,22 @@
         <v>182</v>
       </c>
       <c r="AO24" s="115" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AP24" s="35" t="s">
         <v>183</v>
       </c>
       <c r="AQ24" s="36" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AR24" s="117" t="s">
         <v>177</v>
       </c>
       <c r="AS24" s="117" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="AT24" s="118" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AU24" s="36"/>
       <c r="AV24" s="36"/>
@@ -13648,20 +13653,20 @@
         <v>181</v>
       </c>
       <c r="AZ24" s="36" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="BA24" s="111" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="BB24" s="36"/>
       <c r="BC24" s="36"/>
       <c r="BD24" s="31" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="BE24" s="36"/>
       <c r="BF24" s="36"/>
       <c r="BG24" s="36" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="BH24" s="36"/>
       <c r="BI24" s="32" t="s">
@@ -13688,10 +13693,10 @@
         <v>187</v>
       </c>
       <c r="D25" s="104" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E25" s="103" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F25" s="35" t="s">
         <v>92</v>
@@ -13706,10 +13711,10 @@
         <v>94</v>
       </c>
       <c r="J25" s="35" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="L25" s="79">
         <f t="shared" si="1"/>
@@ -13719,34 +13724,34 @@
         <v>10080</v>
       </c>
       <c r="N25" s="79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O25" s="76" t="s">
         <v>188</v>
       </c>
       <c r="P25" s="76" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Q25" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R25" s="90" t="s">
         <v>188</v>
       </c>
       <c r="S25" s="90" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="T25" s="86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U25" s="88" t="s">
         <v>188</v>
       </c>
       <c r="V25" s="88" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W25" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X25" s="83"/>
       <c r="Y25" s="83"/>
@@ -13761,22 +13766,22 @@
       <c r="AH25" s="98"/>
       <c r="AI25" s="99"/>
       <c r="AJ25" s="38" t="s">
+        <v>940</v>
+      </c>
+      <c r="AK25" s="38" t="s">
         <v>941</v>
       </c>
-      <c r="AK25" s="38" t="s">
+      <c r="AL25" s="107" t="s">
+        <v>547</v>
+      </c>
+      <c r="AM25" s="114" t="s">
+        <v>632</v>
+      </c>
+      <c r="AN25" s="114" t="s">
         <v>942</v>
       </c>
-      <c r="AL25" s="107" t="s">
-        <v>548</v>
-      </c>
-      <c r="AM25" s="114" t="s">
-        <v>633</v>
-      </c>
-      <c r="AN25" s="114" t="s">
-        <v>943</v>
-      </c>
       <c r="AO25" s="115" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AP25" s="35"/>
       <c r="AQ25" s="38" t="s">
@@ -13786,10 +13791,10 @@
         <v>190</v>
       </c>
       <c r="AS25" s="120" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AT25" s="118" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AU25" s="36" t="s">
         <v>141</v>
@@ -13807,13 +13812,13 @@
       <c r="BB25" s="38"/>
       <c r="BC25" s="38"/>
       <c r="BD25" s="31" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="BE25" s="36"/>
       <c r="BF25" s="36"/>
       <c r="BG25" s="36"/>
       <c r="BH25" s="36" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="BI25" s="38" t="s">
         <v>119</v>
@@ -13836,13 +13841,13 @@
         <v>20</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D26" s="104" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E26" s="103" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F26" s="35" t="s">
         <v>92</v>
@@ -13857,10 +13862,10 @@
         <v>94</v>
       </c>
       <c r="J26" s="35" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K26" s="35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="L26" s="79">
         <f t="shared" si="1"/>
@@ -13870,34 +13875,34 @@
         <v>10080</v>
       </c>
       <c r="N26" s="79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O26" s="76" t="s">
         <v>114</v>
       </c>
       <c r="P26" s="76" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Q26" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R26" s="90" t="s">
         <v>114</v>
       </c>
       <c r="S26" s="90" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="T26" s="86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U26" s="88" t="s">
         <v>114</v>
       </c>
       <c r="V26" s="88" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W26" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X26" s="83"/>
       <c r="Y26" s="83"/>
@@ -13912,35 +13917,35 @@
       <c r="AH26" s="98"/>
       <c r="AI26" s="99"/>
       <c r="AJ26" s="36" t="s">
+        <v>631</v>
+      </c>
+      <c r="AK26" s="36" t="s">
+        <v>943</v>
+      </c>
+      <c r="AL26" s="107" t="s">
+        <v>547</v>
+      </c>
+      <c r="AM26" s="114" t="s">
         <v>632</v>
       </c>
-      <c r="AK26" s="36" t="s">
-        <v>944</v>
-      </c>
-      <c r="AL26" s="107" t="s">
-        <v>548</v>
-      </c>
-      <c r="AM26" s="114" t="s">
-        <v>633</v>
-      </c>
       <c r="AN26" s="114" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AO26" s="115" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AP26" s="35"/>
       <c r="AQ26" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="AR26" s="120" t="s">
         <v>124</v>
       </c>
       <c r="AS26" s="120" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AT26" s="118" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AU26" s="36" t="s">
         <v>141</v>
@@ -13958,13 +13963,13 @@
       <c r="BB26" s="36"/>
       <c r="BC26" s="36"/>
       <c r="BD26" s="31" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="BE26" s="36"/>
       <c r="BF26" s="36"/>
       <c r="BG26" s="36"/>
       <c r="BH26" s="36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="BI26" s="32" t="s">
         <v>94</v>
@@ -13993,7 +13998,7 @@
         <v>177</v>
       </c>
       <c r="E27" s="103" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F27" s="35" t="s">
         <v>92</v>
@@ -14008,10 +14013,10 @@
         <v>94</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="L27" s="79">
         <f t="shared" si="1"/>
@@ -14021,34 +14026,34 @@
         <v>10080</v>
       </c>
       <c r="N27" s="79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O27" s="76" t="s">
         <v>188</v>
       </c>
       <c r="P27" s="76" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Q27" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R27" s="90" t="s">
         <v>188</v>
       </c>
       <c r="S27" s="90" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="T27" s="86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U27" s="88" t="s">
         <v>188</v>
       </c>
       <c r="V27" s="88" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W27" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X27" s="83"/>
       <c r="Y27" s="83"/>
@@ -14063,22 +14068,22 @@
       <c r="AH27" s="98"/>
       <c r="AI27" s="99"/>
       <c r="AJ27" s="36" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AK27" s="36" t="s">
         <v>117</v>
       </c>
       <c r="AL27" s="107" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AM27" s="114" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AN27" s="114" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AO27" s="115" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AP27" s="35"/>
       <c r="AQ27" s="38" t="s">
@@ -14088,10 +14093,10 @@
         <v>190</v>
       </c>
       <c r="AS27" s="120" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AT27" s="118" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AU27" s="36" t="s">
         <v>141</v>
@@ -14109,13 +14114,13 @@
       <c r="BB27" s="36"/>
       <c r="BC27" s="36"/>
       <c r="BD27" s="31" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="BE27" s="36"/>
       <c r="BF27" s="36"/>
       <c r="BG27" s="36"/>
       <c r="BH27" s="36" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="BI27" s="36" t="s">
         <v>119</v>
@@ -14138,13 +14143,13 @@
         <v>22</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D28" s="104" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E28" s="103" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F28" s="35" t="s">
         <v>92</v>
@@ -14159,10 +14164,10 @@
         <v>94</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K28" s="35" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="L28" s="79">
         <f t="shared" si="1"/>
@@ -14172,34 +14177,34 @@
         <v>10080</v>
       </c>
       <c r="N28" s="79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O28" s="76" t="s">
         <v>145</v>
       </c>
       <c r="P28" s="76" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Q28" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R28" s="90" t="s">
         <v>145</v>
       </c>
       <c r="S28" s="90" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="T28" s="86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U28" s="88" t="s">
         <v>145</v>
       </c>
       <c r="V28" s="88" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W28" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X28" s="83"/>
       <c r="Y28" s="83"/>
@@ -14208,10 +14213,10 @@
         <v>122</v>
       </c>
       <c r="AB28" s="92" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AC28" s="93" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AD28" s="95"/>
       <c r="AE28" s="95"/>
@@ -14226,33 +14231,33 @@
         <v>117</v>
       </c>
       <c r="AL28" s="107" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AM28" s="114" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AN28" s="114" t="s">
         <v>189</v>
       </c>
       <c r="AO28" s="115" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AP28" s="35"/>
       <c r="AQ28" s="38" t="s">
         <v>189</v>
       </c>
       <c r="AR28" s="120" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="AS28" s="120" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AT28" s="118" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AU28" s="36"/>
       <c r="AV28" s="36" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AW28" s="35" t="s">
         <v>94</v>
@@ -14266,7 +14271,7 @@
       <c r="BB28" s="36"/>
       <c r="BC28" s="36"/>
       <c r="BD28" s="31" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="BE28" s="36"/>
       <c r="BF28" s="36"/>
@@ -14296,10 +14301,10 @@
         <v>202</v>
       </c>
       <c r="D29" s="104" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F29" s="35" t="s">
         <v>92</v>
@@ -14314,10 +14319,10 @@
         <v>94</v>
       </c>
       <c r="J29" s="35" t="s">
+        <v>733</v>
+      </c>
+      <c r="K29" s="35" t="s">
         <v>734</v>
-      </c>
-      <c r="K29" s="35" t="s">
-        <v>735</v>
       </c>
       <c r="L29" s="79">
         <f t="shared" si="1"/>
@@ -14327,34 +14332,34 @@
         <v>10080</v>
       </c>
       <c r="N29" s="79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O29" s="76" t="s">
         <v>203</v>
       </c>
       <c r="P29" s="76" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Q29" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R29" s="90" t="s">
         <v>203</v>
       </c>
       <c r="S29" s="90" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="T29" s="86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U29" s="88" t="s">
         <v>203</v>
       </c>
       <c r="V29" s="88" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W29" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X29" s="83"/>
       <c r="Y29" s="83"/>
@@ -14363,10 +14368,10 @@
         <v>158</v>
       </c>
       <c r="AB29" s="92" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AC29" s="93" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AD29" s="95"/>
       <c r="AE29" s="95"/>
@@ -14375,39 +14380,39 @@
       <c r="AH29" s="98"/>
       <c r="AI29" s="99"/>
       <c r="AJ29" s="36" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK29" s="36" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AL29" s="107" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AM29" s="114" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AN29" s="114" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AO29" s="115" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AP29" s="35"/>
       <c r="AQ29" s="38" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AR29" s="120" t="s">
         <v>92</v>
       </c>
       <c r="AS29" s="120" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="AT29" s="118" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AU29" s="36"/>
       <c r="AV29" s="36" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="AW29" s="35" t="s">
         <v>94</v>
@@ -14421,13 +14426,13 @@
       <c r="BB29" s="36"/>
       <c r="BC29" s="36"/>
       <c r="BD29" s="31" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="BE29" s="36"/>
       <c r="BF29" s="36"/>
       <c r="BG29" s="36"/>
       <c r="BH29" s="36" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="BI29" s="32" t="s">
         <v>94</v>
@@ -14450,13 +14455,13 @@
         <v>24</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>206</v>
+        <v>962</v>
       </c>
       <c r="D30" s="104" t="s">
         <v>177</v>
       </c>
       <c r="E30" s="103" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F30" s="35" t="s">
         <v>92</v>
@@ -14480,34 +14485,34 @@
         <v>10080</v>
       </c>
       <c r="N30" s="79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O30" s="76" t="s">
         <v>128</v>
       </c>
       <c r="P30" s="76" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Q30" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R30" s="90" t="s">
         <v>128</v>
       </c>
       <c r="S30" s="90" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="T30" s="86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U30" s="88" t="s">
         <v>128</v>
       </c>
       <c r="V30" s="88" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W30" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X30" s="83"/>
       <c r="Y30" s="83"/>
@@ -14525,32 +14530,32 @@
         <v>124</v>
       </c>
       <c r="AK30" s="36" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="AL30" s="107" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AM30" s="114" t="s">
         <v>124</v>
       </c>
       <c r="AN30" s="114" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="AO30" s="115" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AP30" s="35"/>
       <c r="AQ30" s="38" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="AR30" s="120" t="s">
         <v>96</v>
       </c>
       <c r="AS30" s="120" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AT30" s="118" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AU30" s="36"/>
       <c r="AV30" s="36"/>
@@ -14566,13 +14571,13 @@
       <c r="BB30" s="36"/>
       <c r="BC30" s="36"/>
       <c r="BD30" s="31" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="BE30" s="36"/>
       <c r="BF30" s="36"/>
       <c r="BG30" s="36"/>
       <c r="BH30" s="36" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="BI30" s="32" t="s">
         <v>119</v>
@@ -14583,25 +14588,25 @@
       <c r="BK30" s="36"/>
       <c r="BL30" s="36"/>
       <c r="BM30" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:65">
       <c r="A31" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B31" s="35">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D31" s="104" t="s">
         <v>177</v>
       </c>
       <c r="E31" s="103" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F31" s="35" t="s">
         <v>92</v>
@@ -14616,10 +14621,10 @@
         <v>94</v>
       </c>
       <c r="J31" s="35" t="s">
+        <v>733</v>
+      </c>
+      <c r="K31" s="35" t="s">
         <v>734</v>
-      </c>
-      <c r="K31" s="35" t="s">
-        <v>735</v>
       </c>
       <c r="L31" s="79">
         <f t="shared" si="1"/>
@@ -14629,34 +14634,34 @@
         <v>10080</v>
       </c>
       <c r="N31" s="79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O31" s="76" t="s">
         <v>130</v>
       </c>
       <c r="P31" s="76" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Q31" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R31" s="90" t="s">
         <v>130</v>
       </c>
       <c r="S31" s="90" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="T31" s="86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U31" s="88" t="s">
         <v>130</v>
       </c>
       <c r="V31" s="88" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W31" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X31" s="83"/>
       <c r="Y31" s="83"/>
@@ -14665,10 +14670,10 @@
         <v>158</v>
       </c>
       <c r="AB31" s="92" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AC31" s="93" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AD31" s="95"/>
       <c r="AE31" s="95"/>
@@ -14677,26 +14682,26 @@
       <c r="AH31" s="98"/>
       <c r="AI31" s="99"/>
       <c r="AJ31" s="36" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AK31" s="36" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AL31" s="107" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AM31" s="114" t="s">
         <v>117</v>
       </c>
       <c r="AN31" s="114" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AO31" s="115" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AP31" s="35"/>
       <c r="AQ31" s="38" t="s">
-        <v>189</v>
+        <v>954</v>
       </c>
       <c r="AR31" s="120" t="s">
         <v>96</v>
@@ -14705,11 +14710,11 @@
         <v>96</v>
       </c>
       <c r="AT31" s="118" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AU31" s="36"/>
       <c r="AV31" s="36" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AW31" s="35" t="s">
         <v>94</v>
@@ -14723,12 +14728,14 @@
       <c r="BB31" s="36"/>
       <c r="BC31" s="36"/>
       <c r="BD31" s="31" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="BE31" s="36"/>
       <c r="BF31" s="36"/>
       <c r="BG31" s="36"/>
-      <c r="BH31" s="36"/>
+      <c r="BH31" s="36" t="s">
+        <v>963</v>
+      </c>
       <c r="BI31" s="36" t="s">
         <v>94</v>
       </c>
@@ -14738,28 +14745,28 @@
       <c r="BK31" s="36"/>
       <c r="BL31" s="36"/>
       <c r="BM31" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:65">
       <c r="A32" s="56" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B32" s="35">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D32" s="104" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E32" s="103" t="s">
         <v>92</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>119</v>
@@ -14780,7 +14787,7 @@
         <v>100000</v>
       </c>
       <c r="Q32" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R32" s="90"/>
       <c r="S32" s="90"/>
@@ -14792,7 +14799,7 @@
         <v>100000</v>
       </c>
       <c r="W32" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X32" s="82"/>
       <c r="Y32" s="82"/>
@@ -14827,7 +14834,7 @@
       <c r="BB32" s="36"/>
       <c r="BC32" s="36"/>
       <c r="BD32" s="36" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="BE32" s="36"/>
       <c r="BF32" s="36"/>
@@ -14838,28 +14845,28 @@
       <c r="BK32" s="36"/>
       <c r="BL32" s="36"/>
       <c r="BM32" s="36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:65">
       <c r="A33" s="56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B33" s="35">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D33" s="104" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E33" s="103" t="s">
         <v>92</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>119</v>
@@ -14880,7 +14887,7 @@
         <v>100000</v>
       </c>
       <c r="Q33" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R33" s="90"/>
       <c r="S33" s="90"/>
@@ -14892,7 +14899,7 @@
         <v>100000</v>
       </c>
       <c r="W33" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X33" s="82"/>
       <c r="Y33" s="82"/>
@@ -14927,7 +14934,7 @@
       <c r="BB33" s="36"/>
       <c r="BC33" s="36"/>
       <c r="BD33" s="36" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="BE33" s="36"/>
       <c r="BF33" s="36"/>
@@ -14938,28 +14945,28 @@
       <c r="BK33" s="36"/>
       <c r="BL33" s="36"/>
       <c r="BM33" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:65">
       <c r="A34" s="56" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B34" s="35">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D34" s="104" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E34" s="103" t="s">
         <v>92</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>119</v>
@@ -14980,7 +14987,7 @@
         <v>100000</v>
       </c>
       <c r="Q34" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R34" s="90"/>
       <c r="S34" s="90"/>
@@ -14992,7 +14999,7 @@
         <v>100000</v>
       </c>
       <c r="W34" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X34" s="82"/>
       <c r="Y34" s="82"/>
@@ -15027,7 +15034,7 @@
       <c r="BB34" s="36"/>
       <c r="BC34" s="36"/>
       <c r="BD34" s="36" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="BE34" s="36"/>
       <c r="BF34" s="36"/>
@@ -15038,28 +15045,28 @@
       <c r="BK34" s="36"/>
       <c r="BL34" s="36"/>
       <c r="BM34" s="36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:65">
       <c r="A35" s="56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B35" s="35">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D35" s="104" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E35" s="103" t="s">
         <v>92</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>119</v>
@@ -15080,7 +15087,7 @@
         <v>100000</v>
       </c>
       <c r="Q35" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R35" s="90"/>
       <c r="S35" s="90"/>
@@ -15092,7 +15099,7 @@
         <v>100000</v>
       </c>
       <c r="W35" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X35" s="82"/>
       <c r="Y35" s="82"/>
@@ -15127,7 +15134,7 @@
       <c r="BB35" s="36"/>
       <c r="BC35" s="36"/>
       <c r="BD35" s="36" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="BE35" s="36"/>
       <c r="BF35" s="36"/>
@@ -15138,28 +15145,28 @@
       <c r="BK35" s="36"/>
       <c r="BL35" s="36"/>
       <c r="BM35" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:65">
       <c r="A36" s="56" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B36" s="35">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D36" s="104" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E36" s="103" t="s">
         <v>92</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>119</v>
@@ -15180,7 +15187,7 @@
         <v>100000</v>
       </c>
       <c r="Q36" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R36" s="90"/>
       <c r="S36" s="90"/>
@@ -15192,7 +15199,7 @@
         <v>100000</v>
       </c>
       <c r="W36" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X36" s="82"/>
       <c r="Y36" s="82"/>
@@ -15227,7 +15234,7 @@
       <c r="BB36" s="36"/>
       <c r="BC36" s="36"/>
       <c r="BD36" s="36" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="BE36" s="36"/>
       <c r="BF36" s="36"/>
@@ -15238,22 +15245,22 @@
       <c r="BK36" s="36"/>
       <c r="BL36" s="36"/>
       <c r="BM36" s="36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:65">
       <c r="A37" s="56" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B37" s="35">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D37" s="104" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E37" s="103" t="s">
         <v>92</v>
@@ -15269,10 +15276,10 @@
       </c>
       <c r="I37" s="35"/>
       <c r="J37" s="35" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K37" s="35" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="L37" s="79"/>
       <c r="M37" s="79"/>
@@ -15284,7 +15291,7 @@
         <v>200000</v>
       </c>
       <c r="Q37" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R37" s="90">
         <v>200000</v>
@@ -15293,7 +15300,7 @@
         <v>200000</v>
       </c>
       <c r="T37" s="86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U37" s="88">
         <v>200000</v>
@@ -15302,7 +15309,7 @@
         <v>200000</v>
       </c>
       <c r="W37" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X37" s="82"/>
       <c r="Y37" s="82"/>
@@ -15337,7 +15344,7 @@
       <c r="BB37" s="36"/>
       <c r="BC37" s="36"/>
       <c r="BD37" s="36" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="BE37" s="36"/>
       <c r="BF37" s="36"/>
@@ -15348,7 +15355,7 @@
       <c r="BK37" s="36"/>
       <c r="BL37" s="36"/>
       <c r="BM37" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:65">
@@ -15363,7 +15370,7 @@
         <v>152</v>
       </c>
       <c r="D38" s="104" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E38" s="103" t="s">
         <v>92</v>
@@ -15381,10 +15388,10 @@
         <v>94</v>
       </c>
       <c r="J38" s="35" t="s">
+        <v>733</v>
+      </c>
+      <c r="K38" s="35" t="s">
         <v>734</v>
-      </c>
-      <c r="K38" s="35" t="s">
-        <v>735</v>
       </c>
       <c r="L38" s="79"/>
       <c r="M38" s="79"/>
@@ -15431,7 +15438,7 @@
       <c r="BB38" s="36"/>
       <c r="BC38" s="36"/>
       <c r="BD38" s="36" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="BE38" s="36"/>
       <c r="BF38" s="36"/>
@@ -15445,17 +15452,17 @@
     </row>
     <row r="39" spans="1:65">
       <c r="A39" s="56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B39" s="35">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D39" s="104" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E39" s="103" t="s">
         <v>92</v>
@@ -15473,10 +15480,10 @@
         <v>94</v>
       </c>
       <c r="J39" s="35" t="s">
+        <v>733</v>
+      </c>
+      <c r="K39" s="35" t="s">
         <v>734</v>
-      </c>
-      <c r="K39" s="35" t="s">
-        <v>735</v>
       </c>
       <c r="L39" s="79"/>
       <c r="M39" s="79"/>
@@ -15523,7 +15530,7 @@
       <c r="BB39" s="36"/>
       <c r="BC39" s="36"/>
       <c r="BD39" s="36" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="BE39" s="36"/>
       <c r="BF39" s="36"/>
@@ -15534,22 +15541,22 @@
       <c r="BK39" s="36"/>
       <c r="BL39" s="36"/>
       <c r="BM39" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:65">
       <c r="A40" s="56" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B40" s="35">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D40" s="104" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E40" s="103" t="s">
         <v>92</v>
@@ -15567,10 +15574,10 @@
         <v>94</v>
       </c>
       <c r="J40" s="35" t="s">
+        <v>733</v>
+      </c>
+      <c r="K40" s="35" t="s">
         <v>734</v>
-      </c>
-      <c r="K40" s="35" t="s">
-        <v>735</v>
       </c>
       <c r="L40" s="79"/>
       <c r="M40" s="79"/>
@@ -15617,7 +15624,7 @@
       <c r="BB40" s="36"/>
       <c r="BC40" s="36"/>
       <c r="BD40" s="36" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="BE40" s="36"/>
       <c r="BF40" s="36"/>
@@ -15628,22 +15635,22 @@
       <c r="BK40" s="36"/>
       <c r="BL40" s="36"/>
       <c r="BM40" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:65">
       <c r="A41" s="56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B41" s="35">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D41" s="104" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E41" s="103" t="s">
         <v>92</v>
@@ -15661,10 +15668,10 @@
         <v>94</v>
       </c>
       <c r="J41" s="35" t="s">
+        <v>733</v>
+      </c>
+      <c r="K41" s="35" t="s">
         <v>734</v>
-      </c>
-      <c r="K41" s="35" t="s">
-        <v>735</v>
       </c>
       <c r="L41" s="79"/>
       <c r="M41" s="79"/>
@@ -15711,7 +15718,7 @@
       <c r="BB41" s="36"/>
       <c r="BC41" s="36"/>
       <c r="BD41" s="36" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="BE41" s="36"/>
       <c r="BF41" s="36"/>
@@ -15722,22 +15729,22 @@
       <c r="BK41" s="36"/>
       <c r="BL41" s="36"/>
       <c r="BM41" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:65">
       <c r="A42" s="56" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B42" s="35">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D42" s="104" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E42" s="103" t="s">
         <v>92</v>
@@ -15755,10 +15762,10 @@
         <v>94</v>
       </c>
       <c r="J42" s="35" t="s">
+        <v>733</v>
+      </c>
+      <c r="K42" s="35" t="s">
         <v>734</v>
-      </c>
-      <c r="K42" s="35" t="s">
-        <v>735</v>
       </c>
       <c r="L42" s="79"/>
       <c r="M42" s="79"/>
@@ -15805,7 +15812,7 @@
       <c r="BB42" s="36"/>
       <c r="BC42" s="36"/>
       <c r="BD42" s="36" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="BE42" s="36"/>
       <c r="BF42" s="36"/>
@@ -15816,28 +15823,28 @@
       <c r="BK42" s="36"/>
       <c r="BL42" s="36"/>
       <c r="BM42" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:65">
       <c r="A43" s="60" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B43" s="62">
         <f>ROW()-6</f>
         <v>37</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D43" s="104" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E43" s="103" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>94</v>
@@ -15847,10 +15854,10 @@
       </c>
       <c r="I43" s="35"/>
       <c r="J43" s="35" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="K43" s="35" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L43" s="79">
         <v>0</v>
@@ -15859,43 +15866,43 @@
         <v>5760</v>
       </c>
       <c r="N43" s="79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O43" s="76" t="s">
         <v>117</v>
       </c>
       <c r="P43" s="76" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="Q43" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R43" s="91" t="s">
         <v>117</v>
       </c>
       <c r="S43" s="91" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="T43" s="86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U43" s="89" t="s">
         <v>117</v>
       </c>
       <c r="V43" s="89" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="W43" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X43" s="81" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Y43" s="81" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="Z43" s="84" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AA43" s="92"/>
       <c r="AB43" s="92"/>
@@ -15929,7 +15936,7 @@
       <c r="BB43" s="35"/>
       <c r="BC43" s="35"/>
       <c r="BD43" s="31" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="BE43" s="36"/>
       <c r="BF43" s="35"/>
@@ -15940,28 +15947,28 @@
       <c r="BK43" s="35"/>
       <c r="BL43" s="35"/>
       <c r="BM43" s="31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="44" spans="1:65">
       <c r="A44" s="61" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B44" s="62">
         <f>ROW()-6</f>
         <v>38</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D44" s="104" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E44" s="103" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>94</v>
@@ -15971,10 +15978,10 @@
       </c>
       <c r="I44" s="35"/>
       <c r="J44" s="35" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K44" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="L44" s="79">
         <v>0</v>
@@ -15983,43 +15990,43 @@
         <v>5760</v>
       </c>
       <c r="N44" s="79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O44" s="76" t="s">
         <v>117</v>
       </c>
       <c r="P44" s="76" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="Q44" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R44" s="91" t="s">
         <v>117</v>
       </c>
       <c r="S44" s="91" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="T44" s="86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U44" s="89" t="s">
         <v>117</v>
       </c>
       <c r="V44" s="89" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="W44" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X44" s="81" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Y44" s="81" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="Z44" s="84" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AA44" s="92"/>
       <c r="AB44" s="92"/>
@@ -16053,7 +16060,7 @@
       <c r="BB44" s="35"/>
       <c r="BC44" s="35"/>
       <c r="BD44" s="31" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="BE44" s="36"/>
       <c r="BF44" s="35"/>
@@ -16064,22 +16071,22 @@
       <c r="BK44" s="35"/>
       <c r="BL44" s="35"/>
       <c r="BM44" s="31" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="45" spans="1:65">
       <c r="A45" s="61" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B45" s="62">
         <f>ROW()-6</f>
         <v>39</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D45" s="104" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E45" s="103" t="s">
         <v>33</v>
@@ -16095,10 +16102,10 @@
       </c>
       <c r="I45" s="35"/>
       <c r="J45" s="35" t="s">
+        <v>733</v>
+      </c>
+      <c r="K45" s="35" t="s">
         <v>734</v>
-      </c>
-      <c r="K45" s="35" t="s">
-        <v>735</v>
       </c>
       <c r="L45" s="79"/>
       <c r="M45" s="79"/>
@@ -16113,13 +16120,13 @@
       <c r="V45" s="89"/>
       <c r="W45" s="85"/>
       <c r="X45" s="81" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y45" s="81" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Z45" s="84" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AA45" s="92"/>
       <c r="AB45" s="92"/>
@@ -16153,7 +16160,7 @@
       <c r="BB45" s="35"/>
       <c r="BC45" s="35"/>
       <c r="BD45" s="31" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="BE45" s="36"/>
       <c r="BF45" s="35"/>
@@ -16164,7 +16171,7 @@
       <c r="BK45" s="35"/>
       <c r="BL45" s="35"/>
       <c r="BM45" s="31" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -16250,7 +16257,7 @@
       <c r="B1" s="164"/>
       <c r="C1" s="164"/>
       <c r="D1" s="27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -16294,7 +16301,7 @@
       <c r="B2" s="164"/>
       <c r="C2" s="164"/>
       <c r="D2" s="55" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -16379,31 +16386,31 @@
         <v>2</v>
       </c>
       <c r="C4" s="52" t="s">
+        <v>329</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>353</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="F4" s="52" t="s">
         <v>330</v>
       </c>
-      <c r="D4" s="52" t="s">
-        <v>354</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>349</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>331</v>
-      </c>
       <c r="G4" s="52" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H4" s="53" t="s">
         <v>115</v>
       </c>
       <c r="I4" s="65" t="s">
+        <v>663</v>
+      </c>
+      <c r="J4" s="65" t="s">
         <v>664</v>
       </c>
-      <c r="J4" s="65" t="s">
-        <v>665</v>
-      </c>
       <c r="K4" s="65" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L4" s="65" t="s">
         <v>136</v>
@@ -16412,7 +16419,7 @@
         <v>139</v>
       </c>
       <c r="N4" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O4" s="66" t="s">
         <v>153</v>
@@ -16427,7 +16434,7 @@
         <v>164</v>
       </c>
       <c r="S4" s="66" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T4" s="66" t="s">
         <v>172</v>
@@ -16454,7 +16461,7 @@
         <v>205</v>
       </c>
       <c r="AB4" s="66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AC4" s="66" t="s">
         <v>147</v>
@@ -16463,34 +16470,34 @@
         <v>99</v>
       </c>
       <c r="AE4" s="66" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF4" s="66" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG4" s="66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AH4" s="66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AI4" s="66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AJ4" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AK4" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AL4" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="AM4" s="66" t="s">
         <v>334</v>
       </c>
-      <c r="AM4" s="66" t="s">
+      <c r="AN4" s="66" t="s">
         <v>335</v>
-      </c>
-      <c r="AN4" s="66" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:40" s="19" customFormat="1" ht="35" customHeight="1">
@@ -16502,115 +16509,115 @@
         <v>65</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F5" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>704</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>662</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>665</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>666</v>
+      </c>
+      <c r="K5" s="52" t="s">
+        <v>667</v>
+      </c>
+      <c r="L5" s="52" t="s">
+        <v>668</v>
+      </c>
+      <c r="M5" s="52" t="s">
+        <v>669</v>
+      </c>
+      <c r="N5" s="52" t="s">
+        <v>670</v>
+      </c>
+      <c r="O5" s="52" t="s">
+        <v>671</v>
+      </c>
+      <c r="P5" s="52" t="s">
+        <v>672</v>
+      </c>
+      <c r="Q5" s="52" t="s">
+        <v>673</v>
+      </c>
+      <c r="R5" s="52" t="s">
+        <v>675</v>
+      </c>
+      <c r="S5" s="52" t="s">
+        <v>676</v>
+      </c>
+      <c r="T5" s="52" t="s">
+        <v>677</v>
+      </c>
+      <c r="U5" s="52" t="s">
+        <v>678</v>
+      </c>
+      <c r="V5" s="52" t="s">
+        <v>679</v>
+      </c>
+      <c r="W5" s="52" t="s">
+        <v>680</v>
+      </c>
+      <c r="X5" s="52" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y5" s="52" t="s">
+        <v>682</v>
+      </c>
+      <c r="Z5" s="52" t="s">
+        <v>683</v>
+      </c>
+      <c r="AA5" s="52" t="s">
+        <v>684</v>
+      </c>
+      <c r="AB5" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC5" s="52" t="s">
+        <v>686</v>
+      </c>
+      <c r="AD5" s="52" t="s">
+        <v>687</v>
+      </c>
+      <c r="AE5" s="52" t="s">
+        <v>688</v>
+      </c>
+      <c r="AF5" s="52" t="s">
+        <v>689</v>
+      </c>
+      <c r="AG5" s="52" t="s">
+        <v>690</v>
+      </c>
+      <c r="AH5" s="52" t="s">
+        <v>691</v>
+      </c>
+      <c r="AI5" s="52" t="s">
+        <v>692</v>
+      </c>
+      <c r="AJ5" s="52" t="s">
+        <v>693</v>
+      </c>
+      <c r="AK5" s="52" t="s">
+        <v>694</v>
+      </c>
+      <c r="AL5" s="66" t="s">
         <v>337</v>
       </c>
-      <c r="G5" s="52" t="s">
-        <v>705</v>
-      </c>
-      <c r="H5" s="52" t="s">
-        <v>663</v>
-      </c>
-      <c r="I5" s="52" t="s">
-        <v>666</v>
-      </c>
-      <c r="J5" s="52" t="s">
-        <v>667</v>
-      </c>
-      <c r="K5" s="52" t="s">
-        <v>668</v>
-      </c>
-      <c r="L5" s="52" t="s">
-        <v>669</v>
-      </c>
-      <c r="M5" s="52" t="s">
-        <v>670</v>
-      </c>
-      <c r="N5" s="52" t="s">
-        <v>671</v>
-      </c>
-      <c r="O5" s="52" t="s">
-        <v>672</v>
-      </c>
-      <c r="P5" s="52" t="s">
-        <v>673</v>
-      </c>
-      <c r="Q5" s="52" t="s">
-        <v>674</v>
-      </c>
-      <c r="R5" s="52" t="s">
-        <v>676</v>
-      </c>
-      <c r="S5" s="52" t="s">
-        <v>677</v>
-      </c>
-      <c r="T5" s="52" t="s">
-        <v>678</v>
-      </c>
-      <c r="U5" s="52" t="s">
-        <v>679</v>
-      </c>
-      <c r="V5" s="52" t="s">
-        <v>680</v>
-      </c>
-      <c r="W5" s="52" t="s">
-        <v>681</v>
-      </c>
-      <c r="X5" s="52" t="s">
-        <v>682</v>
-      </c>
-      <c r="Y5" s="52" t="s">
-        <v>683</v>
-      </c>
-      <c r="Z5" s="52" t="s">
-        <v>684</v>
-      </c>
-      <c r="AA5" s="52" t="s">
-        <v>685</v>
-      </c>
-      <c r="AB5" s="52" t="s">
-        <v>686</v>
-      </c>
-      <c r="AC5" s="52" t="s">
-        <v>687</v>
-      </c>
-      <c r="AD5" s="52" t="s">
-        <v>688</v>
-      </c>
-      <c r="AE5" s="52" t="s">
-        <v>689</v>
-      </c>
-      <c r="AF5" s="52" t="s">
-        <v>690</v>
-      </c>
-      <c r="AG5" s="52" t="s">
-        <v>691</v>
-      </c>
-      <c r="AH5" s="52" t="s">
-        <v>692</v>
-      </c>
-      <c r="AI5" s="52" t="s">
-        <v>693</v>
-      </c>
-      <c r="AJ5" s="52" t="s">
-        <v>694</v>
-      </c>
-      <c r="AK5" s="52" t="s">
-        <v>695</v>
-      </c>
-      <c r="AL5" s="66" t="s">
+      <c r="AM5" s="66" t="s">
         <v>338</v>
       </c>
-      <c r="AM5" s="66" t="s">
+      <c r="AN5" s="66" t="s">
         <v>339</v>
-      </c>
-      <c r="AN5" s="66" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:40" s="4" customFormat="1" ht="24" customHeight="1">
@@ -16622,7 +16629,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E6" s="54" t="s">
         <v>5</v>
@@ -16631,7 +16638,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H6" s="54" t="s">
         <v>5</v>
@@ -16649,10 +16656,10 @@
         <v>5</v>
       </c>
       <c r="M6" s="68" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N6" s="68" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O6" s="67" t="s">
         <v>5</v>
@@ -16703,7 +16710,7 @@
         <v>5</v>
       </c>
       <c r="AE6" s="68" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF6" s="68" t="s">
         <v>5</v>
@@ -16741,16 +16748,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H7" s="39">
         <v>1</v>
@@ -16839,7 +16846,7 @@
         <v>1</v>
       </c>
       <c r="AL7" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AM7" s="69"/>
       <c r="AN7" s="69"/>
@@ -16852,16 +16859,16 @@
         <v>2</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H8" s="39">
         <v>1</v>
@@ -16906,16 +16913,16 @@
         <v>0</v>
       </c>
       <c r="V8" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="W8" s="69" t="s">
         <v>33</v>
       </c>
       <c r="X8" s="69" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Y8" s="69" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Z8" s="69" t="s">
         <v>150</v>
@@ -16963,16 +16970,16 @@
         <v>3</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H9" s="39">
         <v>1</v>
@@ -16981,19 +16988,19 @@
         <v>33</v>
       </c>
       <c r="J9" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K9" s="69" t="s">
         <v>33</v>
       </c>
       <c r="L9" s="69" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M9" s="69" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N9" s="69" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O9" s="69" t="s">
         <v>33</v>
@@ -17020,19 +17027,19 @@
         <v>179</v>
       </c>
       <c r="W9" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="X9" s="69" t="s">
         <v>33</v>
       </c>
       <c r="Y9" s="69" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Z9" s="69" t="s">
         <v>150</v>
       </c>
       <c r="AA9" s="69" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AB9" s="69" t="s">
         <v>150</v>
@@ -17076,16 +17083,16 @@
         <v>4</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H10" s="39">
         <v>1</v>
@@ -17094,19 +17101,19 @@
         <v>33</v>
       </c>
       <c r="J10" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K10" s="69" t="s">
         <v>33</v>
       </c>
       <c r="L10" s="69" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M10" s="69" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N10" s="69" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O10" s="69" t="s">
         <v>33</v>
@@ -17118,10 +17125,10 @@
         <v>1</v>
       </c>
       <c r="R10" s="69" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="S10" s="69" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="T10" s="69">
         <v>0</v>
@@ -17136,19 +17143,19 @@
         <v>179</v>
       </c>
       <c r="X10" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Y10" s="69" t="s">
         <v>33</v>
       </c>
       <c r="Z10" s="69" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AA10" s="69" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AB10" s="69" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AC10" s="69"/>
       <c r="AD10" s="69"/>
@@ -17189,16 +17196,16 @@
         <v>5</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H11" s="39" t="s">
         <v>33</v>
@@ -17243,28 +17250,28 @@
         <v>0</v>
       </c>
       <c r="V11" s="69" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="W11" s="69" t="s">
         <v>177</v>
       </c>
       <c r="X11" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Y11" s="69" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Z11" s="69" t="s">
         <v>33</v>
       </c>
       <c r="AA11" s="69" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AB11" s="69" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AC11" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AD11" s="69"/>
       <c r="AE11" s="69" t="s">
@@ -17306,46 +17313,46 @@
         <v>6</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I12" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J12" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K12" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L12" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M12" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N12" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O12" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P12" s="69" t="s">
         <v>33</v>
       </c>
       <c r="Q12" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="R12" s="69">
         <v>1</v>
@@ -17354,34 +17361,34 @@
         <v>92</v>
       </c>
       <c r="T12" s="69" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="U12" s="69">
         <v>0</v>
       </c>
       <c r="V12" s="69" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="W12" s="69" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="X12" s="69" t="s">
         <v>179</v>
       </c>
       <c r="Y12" s="69" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Z12" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AA12" s="69" t="s">
         <v>33</v>
       </c>
       <c r="AB12" s="69" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AC12" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AD12" s="69" t="s">
         <v>92</v>
@@ -17390,22 +17397,22 @@
         <v>92</v>
       </c>
       <c r="AF12" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AG12" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AH12" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AI12" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AJ12" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AK12" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AL12" s="69">
         <v>1</v>
@@ -17425,43 +17432,43 @@
         <v>7</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I13" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J13" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K13" s="69" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L13" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M13" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N13" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O13" s="69" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P13" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q13" s="69" t="s">
         <v>33</v>
@@ -17476,13 +17483,13 @@
         <v>92</v>
       </c>
       <c r="U13" s="69" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V13" s="69" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="W13" s="69" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="X13" s="69" t="s">
         <v>179</v>
@@ -17491,16 +17498,16 @@
         <v>179</v>
       </c>
       <c r="Z13" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AA13" s="69" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AB13" s="69" t="s">
         <v>33</v>
       </c>
       <c r="AC13" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AD13" s="69" t="s">
         <v>92</v>
@@ -17509,22 +17516,22 @@
         <v>92</v>
       </c>
       <c r="AF13" s="69" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG13" s="69" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AH13" s="69" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AI13" s="69" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AJ13" s="69" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AK13" s="69" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AL13" s="69">
         <v>2</v>
@@ -17544,46 +17551,46 @@
         <v>8</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I14" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J14" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K14" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L14" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M14" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N14" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O14" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P14" s="69" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q14" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R14" s="69" t="s">
         <v>33</v>
@@ -17595,13 +17602,13 @@
         <v>33</v>
       </c>
       <c r="U14" s="69" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="V14" s="69" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="W14" s="69" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="X14" s="69" t="s">
         <v>177</v>
@@ -17613,13 +17620,13 @@
         <v>179</v>
       </c>
       <c r="AA14" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AB14" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AC14" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AD14" s="69" t="s">
         <v>92</v>
@@ -17628,22 +17635,22 @@
         <v>92</v>
       </c>
       <c r="AF14" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AG14" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AH14" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AI14" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AJ14" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AK14" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AL14" s="69">
         <v>2</v>
@@ -17663,64 +17670,64 @@
         <v>9</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I15" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J15" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K15" s="69" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L15" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M15" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N15" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O15" s="69" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P15" s="69" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Q15" s="69" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R15" s="69" t="s">
         <v>33</v>
       </c>
       <c r="S15" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="T15" s="69" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="U15" s="69" t="s">
         <v>33</v>
       </c>
       <c r="V15" s="69" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="W15" s="69" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="X15" s="69" t="s">
         <v>177</v>
@@ -17735,10 +17742,10 @@
         <v>179</v>
       </c>
       <c r="AB15" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AC15" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AD15" s="69" t="s">
         <v>92</v>
@@ -17747,22 +17754,22 @@
         <v>92</v>
       </c>
       <c r="AF15" s="69" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG15" s="69" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AH15" s="69" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AI15" s="69" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AJ15" s="69" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AK15" s="69" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AL15" s="69">
         <v>2</v>
@@ -17776,58 +17783,58 @@
     </row>
     <row r="16" spans="1:40">
       <c r="B16" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C16" s="39">
         <v>10</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I16" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J16" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K16" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L16" s="69" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M16" s="69" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N16" s="69" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O16" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P16" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q16" s="69" t="s">
+        <v>443</v>
+      </c>
+      <c r="R16" s="69" t="s">
+        <v>425</v>
+      </c>
+      <c r="S16" s="69" t="s">
         <v>444</v>
-      </c>
-      <c r="R16" s="69" t="s">
-        <v>426</v>
-      </c>
-      <c r="S16" s="69" t="s">
-        <v>445</v>
       </c>
       <c r="T16" s="69" t="s">
         <v>33</v>
@@ -17839,10 +17846,10 @@
         <v>174</v>
       </c>
       <c r="W16" s="69" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="X16" s="69" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Y16" s="69" t="s">
         <v>177</v>
@@ -17857,7 +17864,7 @@
         <v>179</v>
       </c>
       <c r="AC16" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AD16" s="69" t="s">
         <v>92</v>
@@ -17866,22 +17873,22 @@
         <v>92</v>
       </c>
       <c r="AF16" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AG16" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AH16" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AI16" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AJ16" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AK16" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AL16" s="69">
         <v>2</v>
@@ -17901,16 +17908,16 @@
         <v>11</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>179</v>
@@ -17937,22 +17944,22 @@
         <v>179</v>
       </c>
       <c r="P17" s="69" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Q17" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R17" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="S17" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="T17" s="69" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="U17" s="69" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="V17" s="69" t="s">
         <v>174</v>
@@ -17961,22 +17968,22 @@
         <v>174</v>
       </c>
       <c r="X17" s="69" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Y17" s="69" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Z17" s="69" t="s">
         <v>177</v>
       </c>
       <c r="AA17" s="69" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AB17" s="69" t="s">
         <v>179</v>
       </c>
       <c r="AC17" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AD17" s="69" t="s">
         <v>92</v>
@@ -18003,13 +18010,13 @@
         <v>179</v>
       </c>
       <c r="AL17" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AM17" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AN17" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="2:40">
@@ -18020,16 +18027,16 @@
         <v>12</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>179</v>
@@ -18041,34 +18048,34 @@
         <v>179</v>
       </c>
       <c r="K18" s="69" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L18" s="69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M18" s="69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N18" s="69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O18" s="69" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P18" s="69" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q18" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R18" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="S18" s="69" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="T18" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U18" s="69" t="s">
         <v>33</v>
@@ -18080,22 +18087,22 @@
         <v>174</v>
       </c>
       <c r="X18" s="69" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Y18" s="69" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Z18" s="69" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AA18" s="69" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AB18" s="69" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AC18" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AD18" s="69" t="s">
         <v>92</v>
@@ -18104,22 +18111,22 @@
         <v>92</v>
       </c>
       <c r="AF18" s="69" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG18" s="69" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AH18" s="69" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AI18" s="69" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AJ18" s="69" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AK18" s="69" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AL18" s="69">
         <v>2</v>
@@ -18133,22 +18140,22 @@
     </row>
     <row r="19" spans="2:40">
       <c r="B19" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C19" s="39">
         <v>13</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H19" s="39" t="s">
         <v>179</v>
@@ -18160,61 +18167,61 @@
         <v>179</v>
       </c>
       <c r="K19" s="69" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L19" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M19" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N19" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O19" s="69" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P19" s="69" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Q19" s="69" t="s">
         <v>179</v>
       </c>
       <c r="R19" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="S19" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="T19" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U19" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="V19" s="69" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="W19" s="69" t="s">
         <v>174</v>
       </c>
       <c r="X19" s="69" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Y19" s="69" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Z19" s="69" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AA19" s="69" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AB19" s="69" t="s">
         <v>177</v>
       </c>
       <c r="AC19" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AD19" s="69" t="s">
         <v>92</v>
@@ -18223,22 +18230,22 @@
         <v>92</v>
       </c>
       <c r="AF19" s="69" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG19" s="69" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AH19" s="69" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AI19" s="69" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AJ19" s="69" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AK19" s="69" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AL19" s="69">
         <v>2</v>
@@ -18258,16 +18265,16 @@
         <v>14</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H20" s="39" t="s">
         <v>179</v>
@@ -18279,7 +18286,7 @@
         <v>179</v>
       </c>
       <c r="K20" s="69" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L20" s="69" t="s">
         <v>179</v>
@@ -18291,7 +18298,7 @@
         <v>179</v>
       </c>
       <c r="O20" s="69" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P20" s="69" t="s">
         <v>179</v>
@@ -18300,40 +18307,40 @@
         <v>179</v>
       </c>
       <c r="R20" s="69" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="S20" s="69" t="s">
         <v>179</v>
       </c>
       <c r="T20" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U20" s="69" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="V20" s="69" t="s">
         <v>178</v>
       </c>
       <c r="W20" s="69" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="X20" s="69" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Y20" s="69" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Z20" s="69" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA20" s="69" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AB20" s="69" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AC20" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AD20" s="69" t="s">
         <v>92</v>
@@ -18342,22 +18349,22 @@
         <v>92</v>
       </c>
       <c r="AF20" s="69" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG20" s="69" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AH20" s="69" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AI20" s="69" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AJ20" s="69" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AK20" s="69" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AL20" s="69">
         <v>3</v>
@@ -18377,16 +18384,16 @@
         <v>15</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H21" s="39" t="s">
         <v>179</v>
@@ -18398,7 +18405,7 @@
         <v>179</v>
       </c>
       <c r="K21" s="69" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L21" s="69" t="s">
         <v>179</v>
@@ -18410,7 +18417,7 @@
         <v>179</v>
       </c>
       <c r="O21" s="69" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P21" s="69" t="s">
         <v>179</v>
@@ -18419,16 +18426,16 @@
         <v>179</v>
       </c>
       <c r="R21" s="69" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="S21" s="69" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="T21" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U21" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="V21" s="69" t="s">
         <v>178</v>
@@ -18437,22 +18444,22 @@
         <v>178</v>
       </c>
       <c r="X21" s="69" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Y21" s="69" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Z21" s="69" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA21" s="69" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AB21" s="69" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AC21" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AD21" s="69" t="s">
         <v>92</v>
@@ -18461,22 +18468,22 @@
         <v>92</v>
       </c>
       <c r="AF21" s="69" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG21" s="69" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AH21" s="69" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AI21" s="69" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AJ21" s="69" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AK21" s="69" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AL21" s="69">
         <v>3</v>
@@ -18496,19 +18503,19 @@
         <v>16</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I22" s="69" t="s">
         <v>93</v>
@@ -18532,7 +18539,7 @@
         <v>93</v>
       </c>
       <c r="P22" s="69" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q22" s="69" t="s">
         <v>179</v>
@@ -18547,10 +18554,10 @@
         <v>179</v>
       </c>
       <c r="U22" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="V22" s="69" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="W22" s="69" t="s">
         <v>178</v>
@@ -18562,16 +18569,16 @@
         <v>174</v>
       </c>
       <c r="Z22" s="69" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA22" s="69" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AB22" s="69" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AC22" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AD22" s="69" t="s">
         <v>92</v>
@@ -18615,16 +18622,16 @@
         <v>17</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H23" s="39">
         <v>4</v>
@@ -18654,10 +18661,10 @@
         <v>177</v>
       </c>
       <c r="Q23" s="69" t="s">
+        <v>430</v>
+      </c>
+      <c r="R23" s="69" t="s">
         <v>431</v>
-      </c>
-      <c r="R23" s="69" t="s">
-        <v>432</v>
       </c>
       <c r="S23" s="69" t="s">
         <v>179</v>
@@ -18669,10 +18676,10 @@
         <v>179</v>
       </c>
       <c r="V23" s="69" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="W23" s="69" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="X23" s="69" t="s">
         <v>174</v>
@@ -18684,13 +18691,13 @@
         <v>174</v>
       </c>
       <c r="AA23" s="69" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AB23" s="69" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AC23" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AD23" s="69" t="s">
         <v>92</v>
@@ -18728,22 +18735,22 @@
     </row>
     <row r="24" spans="2:40">
       <c r="B24" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C24" s="39">
         <v>18</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H24" s="39">
         <v>4</v>
@@ -18779,7 +18786,7 @@
         <v>179</v>
       </c>
       <c r="S24" s="69" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="T24" s="69" t="s">
         <v>179</v>
@@ -18788,13 +18795,13 @@
         <v>179</v>
       </c>
       <c r="V24" s="69" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="W24" s="69" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="X24" s="69" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Y24" s="69" t="s">
         <v>174</v>
@@ -18809,7 +18816,7 @@
         <v>174</v>
       </c>
       <c r="AC24" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AD24" s="69" t="s">
         <v>92</v>
@@ -18847,22 +18854,22 @@
     </row>
     <row r="25" spans="2:40">
       <c r="B25" s="39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C25" s="39">
         <v>19</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H25" s="39">
         <v>4</v>
@@ -18907,10 +18914,10 @@
         <v>179</v>
       </c>
       <c r="V25" s="69" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="W25" s="69" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="X25" s="69" t="s">
         <v>178</v>
@@ -18928,7 +18935,7 @@
         <v>174</v>
       </c>
       <c r="AC25" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AD25" s="69" t="s">
         <v>92</v>
@@ -18952,7 +18959,7 @@
         <v>93</v>
       </c>
       <c r="AK25" s="69" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AL25" s="69">
         <v>3</v>
@@ -18972,16 +18979,16 @@
         <v>20</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H26" s="69" t="s">
         <v>93</v>
@@ -19011,22 +19018,22 @@
         <v>177</v>
       </c>
       <c r="Q26" s="69" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="R26" s="69" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="S26" s="69" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="T26" s="69" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="U26" s="69" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="V26" s="69" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="W26" s="69" t="s">
         <v>178</v>
@@ -19044,7 +19051,7 @@
         <v>178</v>
       </c>
       <c r="AB26" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AC26" s="69" t="s">
         <v>92</v>
@@ -19138,7 +19145,7 @@
       <c r="B1" s="164"/>
       <c r="C1" s="164"/>
       <c r="D1" s="27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -19152,7 +19159,7 @@
       <c r="B2" s="164"/>
       <c r="C2" s="164"/>
       <c r="D2" s="55" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -19177,19 +19184,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E4" s="52" t="s">
+        <v>375</v>
+      </c>
+      <c r="F4" s="52" t="s">
         <v>376</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="G4" s="52" t="s">
         <v>377</v>
-      </c>
-      <c r="G4" s="52" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="19" customFormat="1" ht="35" customHeight="1">
@@ -19198,19 +19205,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D5" s="52" t="s">
+        <v>371</v>
+      </c>
+      <c r="E5" s="52" t="s">
         <v>372</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="F5" s="52" t="s">
         <v>373</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="G5" s="52" t="s">
         <v>374</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" ht="24" customHeight="1">
@@ -19219,7 +19226,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D6" s="54" t="s">
         <v>6</v>
@@ -19240,19 +19247,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -19261,19 +19268,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -19282,19 +19289,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -19303,19 +19310,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -19324,19 +19331,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -19345,19 +19352,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -19366,19 +19373,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -19387,19 +19394,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="D14" s="39" t="s">
         <v>387</v>
       </c>
-      <c r="D14" s="39" t="s">
-        <v>388</v>
-      </c>
       <c r="E14" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -19408,19 +19415,19 @@
         <v>9</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -19504,7 +19511,7 @@
       <c r="B1" s="164"/>
       <c r="C1" s="164"/>
       <c r="D1" s="131" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E1" s="1"/>
       <c r="H1" s="1"/>
@@ -19517,7 +19524,7 @@
       <c r="B2" s="164"/>
       <c r="C2" s="164"/>
       <c r="D2" s="131" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E2" s="1"/>
       <c r="H2" s="1"/>
@@ -19546,22 +19553,22 @@
         <v>37</v>
       </c>
       <c r="E4" s="128" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F4" s="102" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G4" s="28" t="s">
+        <v>716</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>717</v>
       </c>
-      <c r="H4" s="28" t="s">
-        <v>718</v>
-      </c>
       <c r="I4" s="128" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J4" s="48" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K4" s="128" t="s">
         <v>39</v>
@@ -19570,46 +19577,46 @@
         <v>38</v>
       </c>
       <c r="M4" s="128" t="s">
+        <v>247</v>
+      </c>
+      <c r="N4" s="129" t="s">
         <v>248</v>
       </c>
-      <c r="N4" s="129" t="s">
+      <c r="O4" s="130" t="s">
         <v>249</v>
       </c>
-      <c r="O4" s="130" t="s">
+      <c r="P4" s="128" t="s">
         <v>250</v>
       </c>
-      <c r="P4" s="128" t="s">
+      <c r="Q4" s="128" t="s">
         <v>251</v>
-      </c>
-      <c r="Q4" s="128" t="s">
-        <v>252</v>
       </c>
       <c r="R4" s="128" t="s">
         <v>45</v>
       </c>
       <c r="S4" s="132" t="s">
+        <v>252</v>
+      </c>
+      <c r="T4" s="133" t="s">
         <v>253</v>
       </c>
-      <c r="T4" s="133" t="s">
-        <v>254</v>
-      </c>
       <c r="U4" s="116" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="V4" s="116" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="W4" s="116" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="X4" s="80" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y4" s="80" t="s">
         <v>542</v>
       </c>
-      <c r="Y4" s="80" t="s">
+      <c r="Z4" s="80" t="s">
         <v>543</v>
-      </c>
-      <c r="Z4" s="80" t="s">
-        <v>544</v>
       </c>
       <c r="AA4" s="128" t="s">
         <v>46</v>
@@ -19618,16 +19625,16 @@
         <v>47</v>
       </c>
       <c r="AC4" s="128" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AD4" s="128" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE4" s="128" t="s">
         <v>48</v>
       </c>
       <c r="AF4" s="128" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG4" s="128" t="s">
         <v>52</v>
@@ -19645,19 +19652,19 @@
         <v>56</v>
       </c>
       <c r="AL4" s="128" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AM4" s="128" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AN4" s="128" t="s">
         <v>57</v>
       </c>
       <c r="AO4" s="128" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AP4" s="128" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AQ4" s="128" t="s">
         <v>58</v>
@@ -19666,10 +19673,10 @@
         <v>59</v>
       </c>
       <c r="AS4" s="130" t="s">
+        <v>256</v>
+      </c>
+      <c r="AT4" s="128" t="s">
         <v>257</v>
-      </c>
-      <c r="AT4" s="128" t="s">
-        <v>258</v>
       </c>
       <c r="AU4" s="128" t="s">
         <v>62</v>
@@ -19690,22 +19697,22 @@
         <v>37</v>
       </c>
       <c r="E5" s="128" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F5" s="102" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G5" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="H5" s="28" t="s">
         <v>719</v>
       </c>
-      <c r="H5" s="28" t="s">
-        <v>720</v>
-      </c>
       <c r="I5" s="49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J5" s="50" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K5" s="50" t="s">
         <v>67</v>
@@ -19714,22 +19721,22 @@
         <v>66</v>
       </c>
       <c r="M5" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="N5" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="N5" s="51" t="s">
+      <c r="O5" s="49" t="s">
         <v>261</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="P5" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="P5" s="49" t="s">
+      <c r="Q5" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="Q5" s="49" t="s">
-        <v>264</v>
-      </c>
       <c r="R5" s="49" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="S5" s="132" t="s">
         <v>71</v>
@@ -19738,40 +19745,40 @@
         <v>72</v>
       </c>
       <c r="U5" s="116" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="V5" s="116" t="s">
+        <v>637</v>
+      </c>
+      <c r="W5" s="116" t="s">
         <v>638</v>
       </c>
-      <c r="W5" s="116" t="s">
-        <v>639</v>
-      </c>
       <c r="X5" s="80" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="Y5" s="80" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="Z5" s="80" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AA5" s="49" t="s">
         <v>73</v>
       </c>
       <c r="AB5" s="49" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AC5" s="49" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AD5" s="49" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AE5" s="49" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AF5" s="49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG5" s="49" t="s">
         <v>78</v>
@@ -19789,19 +19796,19 @@
         <v>82</v>
       </c>
       <c r="AL5" s="49" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AM5" s="49" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AN5" s="49" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AO5" s="49" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AP5" s="49" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AQ5" s="49" t="s">
         <v>83</v>
@@ -19813,7 +19820,7 @@
         <v>77</v>
       </c>
       <c r="AT5" s="49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AU5" s="49" t="s">
         <v>87</v>
@@ -19825,7 +19832,7 @@
     <row r="6" spans="1:48" s="19" customFormat="1" ht="23" customHeight="1">
       <c r="A6" s="23"/>
       <c r="B6" s="125" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C6" s="125" t="s">
         <v>6</v>
@@ -19834,7 +19841,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="125" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>5</v>
@@ -19849,10 +19856,10 @@
         <v>5</v>
       </c>
       <c r="J6" s="125" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="K6" s="125" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L6" s="125" t="s">
         <v>5</v>
@@ -19870,10 +19877,10 @@
         <v>5</v>
       </c>
       <c r="Q6" s="125" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="R6" s="125" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="S6" s="132" t="s">
         <v>5</v>
@@ -19900,34 +19907,34 @@
         <v>5</v>
       </c>
       <c r="AA6" s="125" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AB6" s="125" t="s">
         <v>89</v>
       </c>
       <c r="AC6" s="125" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AD6" s="125" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE6" s="125" t="s">
         <v>5</v>
       </c>
       <c r="AF6" s="125" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG6" s="125" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AH6" s="125" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AI6" s="125" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ6" s="125" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AK6" s="125" t="s">
         <v>5</v>
@@ -19936,10 +19943,10 @@
         <v>5</v>
       </c>
       <c r="AM6" s="125" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AN6" s="125" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AO6" s="125" t="s">
         <v>6</v>
@@ -19948,19 +19955,19 @@
         <v>6</v>
       </c>
       <c r="AQ6" s="125" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AR6" s="125" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AS6" s="126" t="s">
         <v>5</v>
       </c>
       <c r="AT6" s="125" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AU6" s="125" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AV6" s="125" t="s">
         <v>6</v>
@@ -19968,29 +19975,29 @@
     </row>
     <row r="7" spans="1:48">
       <c r="A7" s="121" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B7" s="42">
         <f t="shared" ref="B7:B22" si="0">ROW()-6</f>
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D7" s="40">
         <v>100</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F7" s="40">
         <v>1</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I7" s="40">
         <v>20</v>
@@ -20027,13 +20034,13 @@
         <v>92</v>
       </c>
       <c r="U7" s="159" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="V7" s="159" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="W7" s="160" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="X7" s="157" t="s">
         <v>131</v>
@@ -20042,7 +20049,7 @@
         <v>131</v>
       </c>
       <c r="Z7" s="84" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AA7" s="40"/>
       <c r="AB7" s="40"/>
@@ -20076,34 +20083,34 @@
       <c r="AT7" s="40"/>
       <c r="AU7" s="40"/>
       <c r="AV7" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:48">
       <c r="A8" s="121" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B8" s="42">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D8" s="40">
         <v>100</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F8" s="40">
         <v>1</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I8" s="40">
         <v>20</v>
@@ -20146,16 +20153,16 @@
         <v>86</v>
       </c>
       <c r="W8" s="160" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="X8" s="157" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Y8" s="157" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Z8" s="84" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AA8" s="40"/>
       <c r="AB8" s="40"/>
@@ -20189,34 +20196,34 @@
       <c r="AT8" s="40"/>
       <c r="AU8" s="40"/>
       <c r="AV8" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:48">
       <c r="A9" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B9" s="40">
         <f>ROW()-6</f>
         <v>3</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D9" s="40">
         <v>102</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F9" s="40">
         <v>6</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I9" s="40">
         <v>20</v>
@@ -20261,7 +20268,7 @@
         <v>44</v>
       </c>
       <c r="W9" s="160" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="X9" s="157">
         <f>90*1.5</f>
@@ -20272,7 +20279,7 @@
         <v>135</v>
       </c>
       <c r="Z9" s="84" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AA9" s="40"/>
       <c r="AB9" s="40"/>
@@ -20294,10 +20301,10 @@
       <c r="AL9" s="40"/>
       <c r="AM9" s="40"/>
       <c r="AN9" s="21" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AO9" s="21" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AP9" s="21"/>
       <c r="AQ9" s="40" t="s">
@@ -20310,25 +20317,25 @@
       <c r="AT9" s="40"/>
       <c r="AU9" s="40"/>
       <c r="AV9" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:48">
       <c r="A10" s="122" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B10" s="40">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D10" s="40">
         <v>101</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F10" s="40">
         <v>6</v>
@@ -20372,7 +20379,7 @@
       <c r="U10" s="159"/>
       <c r="V10" s="159"/>
       <c r="W10" s="160" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="X10" s="157">
         <v>13</v>
@@ -20381,7 +20388,7 @@
         <v>13</v>
       </c>
       <c r="Z10" s="84" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AA10" s="40"/>
       <c r="AB10" s="40"/>
@@ -20390,7 +20397,7 @@
         <v>3</v>
       </c>
       <c r="AE10" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF10" s="40"/>
       <c r="AG10" s="40"/>
@@ -20403,7 +20410,7 @@
       <c r="AN10" s="40"/>
       <c r="AO10" s="40"/>
       <c r="AP10" s="40" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AQ10" s="40" t="s">
         <v>119</v>
@@ -20415,25 +20422,25 @@
       <c r="AT10" s="40"/>
       <c r="AU10" s="40"/>
       <c r="AV10" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:48">
       <c r="A11" s="122" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B11" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D11" s="40">
         <v>101</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F11" s="40">
         <v>6</v>
@@ -20481,7 +20488,7 @@
         <v>111</v>
       </c>
       <c r="W11" s="160" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="X11" s="157" t="s">
         <v>118</v>
@@ -20490,7 +20497,7 @@
         <v>118</v>
       </c>
       <c r="Z11" s="84" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AA11" s="40"/>
       <c r="AB11" s="40"/>
@@ -20514,11 +20521,11 @@
       <c r="AL11" s="40"/>
       <c r="AM11" s="40"/>
       <c r="AN11" s="43" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AO11" s="43"/>
       <c r="AP11" s="43" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AQ11" s="40" t="s">
         <v>94</v>
@@ -20532,34 +20539,34 @@
       <c r="AT11" s="40"/>
       <c r="AU11" s="40"/>
       <c r="AV11" s="40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:48">
       <c r="A12" s="122" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B12" s="40">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D12" s="40">
         <v>101</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F12" s="40">
         <v>6</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I12" s="40" t="s">
         <v>102</v>
@@ -20602,7 +20609,7 @@
         <v>11</v>
       </c>
       <c r="W12" s="160" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="X12" s="157" t="s">
         <v>123</v>
@@ -20611,7 +20618,7 @@
         <v>123</v>
       </c>
       <c r="Z12" s="84" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AA12" s="40"/>
       <c r="AB12" s="40" t="s">
@@ -20626,7 +20633,7 @@
       </c>
       <c r="AF12" s="40"/>
       <c r="AG12" s="40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AH12" s="40"/>
       <c r="AI12" s="40" t="s">
@@ -20641,11 +20648,11 @@
       <c r="AL12" s="40"/>
       <c r="AM12" s="40"/>
       <c r="AN12" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AO12" s="40"/>
       <c r="AP12" s="40" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AQ12" s="40" t="s">
         <v>94</v>
@@ -20659,25 +20666,25 @@
       <c r="AT12" s="40"/>
       <c r="AU12" s="40"/>
       <c r="AV12" s="40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:48">
       <c r="A13" s="122" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B13" s="40">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D13" s="40">
         <v>101</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F13" s="40">
         <v>6</v>
@@ -20725,7 +20732,7 @@
         <v>14</v>
       </c>
       <c r="W13" s="160" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="X13" s="157" t="s">
         <v>141</v>
@@ -20734,7 +20741,7 @@
         <v>141</v>
       </c>
       <c r="Z13" s="84" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AA13" s="40"/>
       <c r="AB13" s="40"/>
@@ -20760,11 +20767,11 @@
       <c r="AL13" s="40"/>
       <c r="AM13" s="40"/>
       <c r="AN13" s="43" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AO13" s="43"/>
       <c r="AP13" s="43" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AQ13" s="40" t="s">
         <v>119</v>
@@ -20778,34 +20785,34 @@
       <c r="AT13" s="40"/>
       <c r="AU13" s="40"/>
       <c r="AV13" s="40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:48">
       <c r="A14" s="122" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B14" s="40">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D14" s="40">
         <v>101</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F14" s="40">
         <v>6</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>125</v>
@@ -20850,7 +20857,7 @@
         <v>120</v>
       </c>
       <c r="W14" s="160" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="X14" s="157">
         <f>20*10</f>
@@ -20861,7 +20868,7 @@
         <v>200</v>
       </c>
       <c r="Z14" s="84" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AA14" s="40"/>
       <c r="AB14" s="40" t="s">
@@ -20891,11 +20898,11 @@
       </c>
       <c r="AM14" s="40"/>
       <c r="AN14" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AO14" s="21"/>
       <c r="AP14" s="21" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AQ14" s="40" t="s">
         <v>94</v>
@@ -20907,34 +20914,34 @@
       <c r="AT14" s="40"/>
       <c r="AU14" s="40"/>
       <c r="AV14" s="40" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:48">
       <c r="A15" s="122" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B15" s="40">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D15" s="40">
         <v>101</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F15" s="40">
         <v>6</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I15" s="40">
         <v>240</v>
@@ -20979,7 +20986,7 @@
         <v>100</v>
       </c>
       <c r="W15" s="160" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="X15" s="157" t="s">
         <v>133</v>
@@ -20988,7 +20995,7 @@
         <v>133</v>
       </c>
       <c r="Z15" s="84" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AA15" s="40"/>
       <c r="AB15" s="40" t="s">
@@ -21020,11 +21027,11 @@
       </c>
       <c r="AM15" s="40"/>
       <c r="AN15" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AO15" s="21"/>
       <c r="AP15" s="21" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AQ15" s="40" t="s">
         <v>94</v>
@@ -21038,25 +21045,25 @@
       <c r="AT15" s="40"/>
       <c r="AU15" s="40"/>
       <c r="AV15" s="40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:48">
       <c r="A16" s="122" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B16" s="40">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D16" s="40">
         <v>101</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F16" s="40">
         <v>6</v>
@@ -21104,7 +21111,7 @@
         <v>132</v>
       </c>
       <c r="W16" s="160" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="X16" s="157" t="s">
         <v>189</v>
@@ -21113,7 +21120,7 @@
         <v>189</v>
       </c>
       <c r="Z16" s="84" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AA16" s="40"/>
       <c r="AB16" s="40"/>
@@ -21139,11 +21146,11 @@
       </c>
       <c r="AM16" s="40"/>
       <c r="AN16" s="44" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AO16" s="44"/>
       <c r="AP16" s="44" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AQ16" s="40" t="s">
         <v>119</v>
@@ -21157,41 +21164,41 @@
       <c r="AT16" s="40"/>
       <c r="AU16" s="40"/>
       <c r="AV16" s="40" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:48">
       <c r="A17" s="123" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B17" s="45">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E17" s="45"/>
       <c r="F17" s="45">
         <v>1</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H17" s="35" t="s">
         <v>178</v>
       </c>
       <c r="I17" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="K17" s="45" t="s">
         <v>302</v>
-      </c>
-      <c r="J17" s="45" t="s">
-        <v>758</v>
-      </c>
-      <c r="K17" s="45" t="s">
-        <v>303</v>
       </c>
       <c r="L17" s="45"/>
       <c r="M17" s="45"/>
@@ -21211,7 +21218,7 @@
         <v>97</v>
       </c>
       <c r="W17" s="160" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="X17" s="158" t="s">
         <v>122</v>
@@ -21220,7 +21227,7 @@
         <v>122</v>
       </c>
       <c r="Z17" s="84" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AA17" s="45"/>
       <c r="AB17" s="45"/>
@@ -21242,10 +21249,10 @@
       <c r="AL17" s="45"/>
       <c r="AM17" s="45"/>
       <c r="AN17" s="45" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AO17" s="45" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="AP17" s="45"/>
       <c r="AQ17" s="45" t="s">
@@ -21258,41 +21265,41 @@
       <c r="AT17" s="45"/>
       <c r="AU17" s="45"/>
       <c r="AV17" s="45" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:48">
       <c r="A18" s="123" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B18" s="45">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E18" s="45"/>
       <c r="F18" s="45">
         <v>1</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H18" s="35" t="s">
         <v>178</v>
       </c>
       <c r="I18" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K18" s="45" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L18" s="45"/>
       <c r="M18" s="45"/>
@@ -21312,7 +21319,7 @@
         <v>133</v>
       </c>
       <c r="W18" s="160" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="X18" s="158">
         <v>100</v>
@@ -21321,7 +21328,7 @@
         <v>100</v>
       </c>
       <c r="Z18" s="84" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AA18" s="45"/>
       <c r="AB18" s="45"/>
@@ -21343,7 +21350,7 @@
       <c r="AL18" s="45"/>
       <c r="AM18" s="45"/>
       <c r="AN18" s="45" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AO18" s="45"/>
       <c r="AP18" s="45"/>
@@ -21357,41 +21364,41 @@
       <c r="AT18" s="45"/>
       <c r="AU18" s="45"/>
       <c r="AV18" s="45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:48">
       <c r="A19" s="123" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B19" s="45">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E19" s="45"/>
       <c r="F19" s="45">
         <v>1</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I19" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K19" s="45" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L19" s="45"/>
       <c r="M19" s="45"/>
@@ -21411,7 +21418,7 @@
         <v>124</v>
       </c>
       <c r="W19" s="160" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="X19" s="158" t="s">
         <v>145</v>
@@ -21420,7 +21427,7 @@
         <v>145</v>
       </c>
       <c r="Z19" s="84" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AA19" s="45"/>
       <c r="AB19" s="45" t="s">
@@ -21448,7 +21455,7 @@
       <c r="AL19" s="45"/>
       <c r="AM19" s="45"/>
       <c r="AN19" s="45" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AO19" s="45"/>
       <c r="AP19" s="45"/>
@@ -21464,41 +21471,41 @@
       <c r="AT19" s="45"/>
       <c r="AU19" s="45"/>
       <c r="AV19" s="45" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:48">
       <c r="A20" s="123" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B20" s="45">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E20" s="45"/>
       <c r="F20" s="45">
         <v>1</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I20" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K20" s="45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L20" s="45"/>
       <c r="M20" s="45"/>
@@ -21512,13 +21519,13 @@
       <c r="S20" s="45"/>
       <c r="T20" s="45"/>
       <c r="U20" s="162" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V20" s="162" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="W20" s="160" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="X20" s="158" t="s">
         <v>114</v>
@@ -21527,7 +21534,7 @@
         <v>114</v>
       </c>
       <c r="Z20" s="84" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AA20" s="45"/>
       <c r="AB20" s="45" t="s">
@@ -21544,7 +21551,7 @@
       </c>
       <c r="AH20" s="45"/>
       <c r="AI20" s="45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AJ20" s="45"/>
       <c r="AK20" s="42"/>
@@ -21553,7 +21560,7 @@
       </c>
       <c r="AM20" s="45"/>
       <c r="AN20" s="45" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AO20" s="45"/>
       <c r="AP20" s="45"/>
@@ -21569,41 +21576,41 @@
       <c r="AT20" s="45"/>
       <c r="AU20" s="45"/>
       <c r="AV20" s="45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:48">
       <c r="A21" s="123" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B21" s="45">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E21" s="45"/>
       <c r="F21" s="45">
         <v>1</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I21" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J21" s="45" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K21" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L21" s="45"/>
       <c r="M21" s="45"/>
@@ -21623,16 +21630,16 @@
         <v>102</v>
       </c>
       <c r="W21" s="160" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="X21" s="158" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Y21" s="158" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z21" s="84" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AA21" s="45"/>
       <c r="AB21" s="45" t="s">
@@ -21645,7 +21652,7 @@
       </c>
       <c r="AF21" s="45"/>
       <c r="AG21" s="45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AH21" s="45"/>
       <c r="AI21" s="45" t="s">
@@ -21658,7 +21665,7 @@
       </c>
       <c r="AM21" s="45"/>
       <c r="AN21" s="45" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AO21" s="45"/>
       <c r="AP21" s="45"/>
@@ -21674,41 +21681,41 @@
       <c r="AT21" s="45"/>
       <c r="AU21" s="45"/>
       <c r="AV21" s="45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:48">
       <c r="A22" s="124" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B22" s="45">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E22" s="45"/>
       <c r="F22" s="45">
         <v>1</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I22" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J22" s="45" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K22" s="45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L22" s="45"/>
       <c r="M22" s="45"/>
@@ -21722,22 +21729,22 @@
       <c r="S22" s="45"/>
       <c r="T22" s="45"/>
       <c r="U22" s="162" t="s">
+        <v>324</v>
+      </c>
+      <c r="V22" s="162" t="s">
+        <v>324</v>
+      </c>
+      <c r="W22" s="160" t="s">
+        <v>547</v>
+      </c>
+      <c r="X22" s="158" t="s">
         <v>325</v>
       </c>
-      <c r="V22" s="162" t="s">
+      <c r="Y22" s="158" t="s">
         <v>325</v>
       </c>
-      <c r="W22" s="160" t="s">
-        <v>548</v>
-      </c>
-      <c r="X22" s="158" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y22" s="158" t="s">
-        <v>326</v>
-      </c>
       <c r="Z22" s="84" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AA22" s="45"/>
       <c r="AB22" s="45" t="s">
@@ -21750,11 +21757,11 @@
       </c>
       <c r="AF22" s="45"/>
       <c r="AG22" s="45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AH22" s="45"/>
       <c r="AI22" s="45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AJ22" s="45" t="s">
         <v>179</v>
@@ -21765,7 +21772,7 @@
       <c r="AL22" s="45"/>
       <c r="AM22" s="45"/>
       <c r="AN22" s="45" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AO22" s="45"/>
       <c r="AP22" s="45"/>
@@ -21776,12 +21783,12 @@
         <v>94</v>
       </c>
       <c r="AS22" s="45" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AT22" s="45"/>
       <c r="AU22" s="45"/>
       <c r="AV22" s="46" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -21852,7 +21859,7 @@
       <c r="B1" s="165"/>
       <c r="C1" s="165"/>
       <c r="D1" s="167" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E1" s="167"/>
       <c r="F1" s="167"/>
@@ -21865,7 +21872,7 @@
       <c r="B2" s="165"/>
       <c r="C2" s="165"/>
       <c r="D2" s="167" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E2" s="167"/>
       <c r="F2" s="167"/>
@@ -21886,61 +21893,61 @@
         <v>2</v>
       </c>
       <c r="C4" s="142" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D4" s="152" t="s">
+        <v>856</v>
+      </c>
+      <c r="E4" s="153" t="s">
         <v>857</v>
       </c>
-      <c r="E4" s="153" t="s">
+      <c r="F4" s="153" t="s">
         <v>858</v>
       </c>
-      <c r="F4" s="153" t="s">
+      <c r="G4" s="153" t="s">
+        <v>894</v>
+      </c>
+      <c r="H4" s="153" t="s">
+        <v>860</v>
+      </c>
+      <c r="I4" s="153" t="s">
+        <v>932</v>
+      </c>
+      <c r="J4" s="153" t="s">
         <v>859</v>
       </c>
-      <c r="G4" s="153" t="s">
-        <v>895</v>
-      </c>
-      <c r="H4" s="153" t="s">
+      <c r="K4" s="153" t="s">
         <v>861</v>
       </c>
-      <c r="I4" s="153" t="s">
-        <v>933</v>
-      </c>
-      <c r="J4" s="153" t="s">
-        <v>860</v>
-      </c>
-      <c r="K4" s="153" t="s">
+      <c r="L4" s="153" t="s">
         <v>862</v>
       </c>
-      <c r="L4" s="153" t="s">
+      <c r="M4" s="153" t="s">
+        <v>923</v>
+      </c>
+      <c r="N4" s="153" t="s">
         <v>863</v>
       </c>
-      <c r="M4" s="153" t="s">
-        <v>924</v>
-      </c>
-      <c r="N4" s="153" t="s">
+      <c r="O4" s="153" t="s">
         <v>864</v>
       </c>
-      <c r="O4" s="153" t="s">
+      <c r="P4" s="153" t="s">
         <v>865</v>
       </c>
-      <c r="P4" s="153" t="s">
+      <c r="Q4" s="153" t="s">
         <v>866</v>
       </c>
-      <c r="Q4" s="153" t="s">
+      <c r="R4" s="153" t="s">
         <v>867</v>
       </c>
-      <c r="R4" s="153" t="s">
+      <c r="S4" s="153" t="s">
         <v>868</v>
       </c>
-      <c r="S4" s="153" t="s">
+      <c r="T4" s="153" t="s">
         <v>869</v>
       </c>
-      <c r="T4" s="153" t="s">
+      <c r="U4" s="153" t="s">
         <v>870</v>
-      </c>
-      <c r="U4" s="153" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="141" customFormat="1" ht="46" customHeight="1">
@@ -21949,70 +21956,70 @@
         <v>2</v>
       </c>
       <c r="C5" s="144" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D5" s="154" t="s">
+        <v>871</v>
+      </c>
+      <c r="E5" s="154" t="s">
         <v>872</v>
       </c>
-      <c r="E5" s="154" t="s">
+      <c r="F5" s="154" t="s">
         <v>873</v>
       </c>
-      <c r="F5" s="154" t="s">
+      <c r="G5" s="154" t="s">
+        <v>781</v>
+      </c>
+      <c r="H5" s="154" t="s">
+        <v>876</v>
+      </c>
+      <c r="I5" s="154" t="s">
         <v>874</v>
       </c>
-      <c r="G5" s="154" t="s">
-        <v>782</v>
-      </c>
-      <c r="H5" s="154" t="s">
+      <c r="J5" s="154" t="s">
+        <v>875</v>
+      </c>
+      <c r="K5" s="154" t="s">
         <v>877</v>
       </c>
-      <c r="I5" s="154" t="s">
-        <v>875</v>
-      </c>
-      <c r="J5" s="154" t="s">
-        <v>876</v>
-      </c>
-      <c r="K5" s="154" t="s">
+      <c r="L5" s="154" t="s">
         <v>878</v>
       </c>
-      <c r="L5" s="154" t="s">
+      <c r="M5" s="154" t="s">
+        <v>927</v>
+      </c>
+      <c r="N5" s="154" t="s">
         <v>879</v>
       </c>
-      <c r="M5" s="154" t="s">
-        <v>928</v>
-      </c>
-      <c r="N5" s="154" t="s">
+      <c r="O5" s="154" t="s">
         <v>880</v>
       </c>
-      <c r="O5" s="154" t="s">
+      <c r="P5" s="154" t="s">
         <v>881</v>
       </c>
-      <c r="P5" s="154" t="s">
+      <c r="Q5" s="154" t="s">
         <v>882</v>
       </c>
-      <c r="Q5" s="154" t="s">
+      <c r="R5" s="154" t="s">
         <v>883</v>
       </c>
-      <c r="R5" s="154" t="s">
+      <c r="S5" s="154" t="s">
+        <v>895</v>
+      </c>
+      <c r="T5" s="154" t="s">
         <v>884</v>
       </c>
-      <c r="S5" s="154" t="s">
-        <v>896</v>
-      </c>
-      <c r="T5" s="154" t="s">
+      <c r="U5" s="154" t="s">
         <v>885</v>
-      </c>
-      <c r="U5" s="154" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="141" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="147"/>
       <c r="B6" s="145" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="145" t="s">
         <v>267</v>
-      </c>
-      <c r="C6" s="145" t="s">
-        <v>268</v>
       </c>
       <c r="D6" s="155" t="s">
         <v>5</v>
@@ -22042,7 +22049,7 @@
         <v>89</v>
       </c>
       <c r="M6" s="155" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="N6" s="155" t="s">
         <v>89</v>
@@ -22071,23 +22078,23 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="148" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B7" s="137">
         <v>1</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D7" s="137" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E7" s="137" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F7" s="151"/>
       <c r="G7" s="137" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H7" s="151"/>
       <c r="I7" s="151"/>
@@ -22102,34 +22109,34 @@
       <c r="P7" s="151"/>
       <c r="Q7" s="151"/>
       <c r="R7" s="137" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="S7" s="138"/>
       <c r="T7" s="151"/>
       <c r="U7" s="151"/>
       <c r="V7" s="136" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="148" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B8" s="137">
         <v>2</v>
       </c>
       <c r="C8" s="137" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D8" s="137" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E8" s="137" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F8" s="151"/>
       <c r="G8" s="137" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H8" s="151"/>
       <c r="I8" s="151"/>
@@ -22144,20 +22151,20 @@
       <c r="P8" s="151"/>
       <c r="Q8" s="151"/>
       <c r="R8" s="137" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="S8" s="138"/>
       <c r="T8" s="156" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="U8" s="151"/>
       <c r="V8" s="136" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="148" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B9" s="137">
         <v>3</v>
@@ -22166,14 +22173,14 @@
         <v>194</v>
       </c>
       <c r="D9" s="137" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E9" s="137" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F9" s="151"/>
       <c r="G9" s="137" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H9" s="151"/>
       <c r="I9" s="151">
@@ -22182,7 +22189,7 @@
       <c r="J9" s="151"/>
       <c r="K9" s="151"/>
       <c r="L9" s="39" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="M9" s="39"/>
       <c r="N9" s="151"/>
@@ -22192,34 +22199,34 @@
       <c r="P9" s="151"/>
       <c r="Q9" s="151"/>
       <c r="R9" s="137" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="S9" s="138"/>
       <c r="T9" s="151"/>
       <c r="U9" s="151"/>
       <c r="V9" s="136" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="148" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B10" s="137">
         <v>4</v>
       </c>
       <c r="C10" s="137" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D10" s="137" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E10" s="137" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F10" s="151"/>
       <c r="G10" s="137" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H10" s="151"/>
       <c r="I10" s="151">
@@ -22228,10 +22235,10 @@
       <c r="J10" s="151"/>
       <c r="K10" s="151"/>
       <c r="L10" s="39" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="M10" s="39" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="N10" s="151"/>
       <c r="O10" s="163" t="s">
@@ -22240,71 +22247,71 @@
       <c r="P10" s="151"/>
       <c r="Q10" s="151"/>
       <c r="R10" s="137" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="S10" s="138"/>
       <c r="T10" s="151"/>
       <c r="U10" s="151"/>
       <c r="V10" s="136" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="148" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B11" s="137">
         <v>5</v>
       </c>
       <c r="C11" s="137" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E11" s="137" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F11" s="151"/>
       <c r="G11" s="137" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H11" s="151"/>
       <c r="I11" s="151"/>
       <c r="J11" s="151"/>
       <c r="K11" s="151"/>
       <c r="L11" s="39" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M11" s="39"/>
       <c r="N11" s="151"/>
       <c r="O11" s="39" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="P11" s="151"/>
       <c r="Q11" s="151"/>
       <c r="R11" s="137" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="S11" s="138"/>
       <c r="T11" s="151"/>
       <c r="U11" s="151"/>
       <c r="V11" s="136" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="148" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B12" s="137">
         <v>6</v>
       </c>
       <c r="C12" s="137" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D12" s="137" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E12" s="137"/>
       <c r="F12" s="151"/>
@@ -22314,7 +22321,7 @@
       <c r="J12" s="151"/>
       <c r="K12" s="151"/>
       <c r="L12" s="39" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="M12" s="39"/>
       <c r="N12" s="151"/>
@@ -22326,109 +22333,109 @@
       <c r="T12" s="151"/>
       <c r="U12" s="151"/>
       <c r="V12" s="136" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="148" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B13" s="137">
         <v>7</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D13" s="137" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E13" s="137" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F13" s="151"/>
       <c r="G13" s="39" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H13" s="151"/>
       <c r="I13" s="151"/>
       <c r="J13" s="151"/>
       <c r="K13" s="151"/>
       <c r="L13" s="39" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M13" s="39"/>
       <c r="N13" s="151"/>
       <c r="O13" s="39" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="P13" s="151"/>
       <c r="Q13" s="151"/>
       <c r="R13" s="137" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="S13" s="138"/>
       <c r="T13" s="151"/>
       <c r="U13" s="151"/>
       <c r="V13" s="136" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="148" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B14" s="137">
         <v>8</v>
       </c>
       <c r="C14" s="137" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D14" s="137" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E14" s="137" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F14" s="151"/>
       <c r="G14" s="137" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H14" s="151"/>
       <c r="I14" s="151"/>
       <c r="J14" s="151"/>
       <c r="K14" s="151"/>
       <c r="L14" s="39" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M14" s="39"/>
       <c r="N14" s="151"/>
       <c r="O14" s="39" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="P14" s="151"/>
       <c r="Q14" s="151"/>
       <c r="R14" s="137" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="S14" s="138"/>
       <c r="T14" s="151"/>
       <c r="U14" s="151"/>
       <c r="V14" s="139" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="148" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>113</v>
       </c>
       <c r="C15" s="137" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D15" s="137" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E15" s="137"/>
       <c r="F15" s="151"/>
@@ -22451,23 +22458,23 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="149" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B16" s="137" t="s">
         <v>97</v>
       </c>
       <c r="C16" s="137" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D16" s="137" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E16" s="137" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F16" s="151"/>
       <c r="G16" s="137" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H16" s="151"/>
       <c r="I16" s="151"/>
@@ -22485,22 +22492,22 @@
       <c r="S16" s="138"/>
       <c r="T16" s="151"/>
       <c r="U16" s="156" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="V16" s="140"/>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="149" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B17" s="137" t="s">
         <v>135</v>
       </c>
       <c r="C17" s="137" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D17" s="137" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E17" s="137" t="s">
         <v>150</v>
@@ -22522,7 +22529,7 @@
       <c r="P17" s="151"/>
       <c r="Q17" s="151"/>
       <c r="R17" s="137" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="S17" s="138"/>
       <c r="T17" s="151"/>
@@ -22531,16 +22538,16 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="149" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B18" s="137" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C18" s="137" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D18" s="137" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E18" s="137" t="s">
         <v>150</v>
@@ -22562,7 +22569,7 @@
       <c r="P18" s="151"/>
       <c r="Q18" s="151"/>
       <c r="R18" s="137" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="S18" s="138"/>
       <c r="T18" s="151"/>

--- a/Assets/island/DBCfg/DataCfg.xlsx
+++ b/Assets/island/DBCfg/DataCfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25000" windowHeight="15540" tabRatio="827" activeTab="6"/>
+    <workbookView xWindow="-60" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="827" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="配置表cfg" sheetId="1" r:id="rId1"/>
@@ -3257,10 +3257,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>工人数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4311,6 +4307,10 @@
   </si>
   <si>
     <t>13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4929,7 +4929,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1472">
+  <cellStyleXfs count="1474">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -7750,6 +7750,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -8244,6 +8250,9 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8259,11 +8268,8 @@
     <xf numFmtId="49" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1472">
+  <cellStyles count="1474">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 1 10" xfId="2"/>
     <cellStyle name="20% - 强调文字颜色 1 10 2" xfId="3"/>
@@ -9342,6 +9348,7 @@
     <cellStyle name="超链接" xfId="1466" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1468" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1470" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1472" builtinId="8" hidden="1"/>
     <cellStyle name="逗号 [0]" xfId="885" builtinId="6"/>
     <cellStyle name="访问过的超链接" xfId="1085" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1087" builtinId="9" hidden="1"/>
@@ -9537,6 +9544,7 @@
     <cellStyle name="访问过的超链接" xfId="1467" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1469" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1471" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1473" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="886" builtinId="26" customBuiltin="1"/>
     <cellStyle name="好 10" xfId="887"/>
     <cellStyle name="好 11" xfId="888"/>
@@ -10223,11 +10231,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
@@ -10246,11 +10254,11 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
@@ -10304,13 +10312,13 @@
         <v>399</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="8" customFormat="1" ht="15" customHeight="1">
@@ -10328,13 +10336,13 @@
         <v>400</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -10354,10 +10362,10 @@
         <v>5</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -10529,11 +10537,11 @@
   </sheetPr>
   <dimension ref="A1:BM45"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="V22" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32:XFD32"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D43:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10595,11 +10603,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
       <c r="D1" s="27" t="s">
         <v>34</v>
       </c>
@@ -10608,11 +10616,11 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:65">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
       <c r="D2" s="27" t="s">
         <v>35</v>
       </c>
@@ -10655,13 +10663,13 @@
         <v>42</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J4" s="28" t="s">
+        <v>710</v>
+      </c>
+      <c r="K4" s="28" t="s">
         <v>711</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>712</v>
       </c>
       <c r="L4" s="72" t="s">
         <v>513</v>
@@ -10769,10 +10777,10 @@
         <v>634</v>
       </c>
       <c r="AU4" s="30" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AV4" s="102" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="AW4" s="30" t="s">
         <v>46</v>
@@ -10808,7 +10816,7 @@
         <v>57</v>
       </c>
       <c r="BH4" s="30" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="BI4" s="30" t="s">
         <v>58</v>
@@ -10849,13 +10857,13 @@
         <v>69</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J5" s="28" t="s">
+        <v>712</v>
+      </c>
+      <c r="K5" s="28" t="s">
         <v>713</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>714</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>515</v>
@@ -10963,10 +10971,10 @@
         <v>633</v>
       </c>
       <c r="AU5" s="49" t="s">
-        <v>904</v>
-      </c>
-      <c r="AV5" s="169" t="s">
-        <v>945</v>
+        <v>903</v>
+      </c>
+      <c r="AV5" s="164" t="s">
+        <v>944</v>
       </c>
       <c r="AW5" s="28" t="s">
         <v>73</v>
@@ -10978,7 +10986,7 @@
         <v>75</v>
       </c>
       <c r="AZ5" s="28" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="BA5" s="109" t="s">
         <v>70</v>
@@ -10987,22 +10995,22 @@
         <v>80</v>
       </c>
       <c r="BC5" s="28" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="BD5" s="28" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="BE5" s="28" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="BF5" s="28" t="s">
         <v>76</v>
       </c>
       <c r="BG5" s="28" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="BH5" s="28" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="BI5" s="28" t="s">
         <v>82</v>
@@ -11160,7 +11168,7 @@
         <v>5</v>
       </c>
       <c r="AV6" s="102" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AW6" s="30" t="s">
         <v>88</v>
@@ -11226,13 +11234,13 @@
         <v>90</v>
       </c>
       <c r="D7" s="104" t="s">
-        <v>690</v>
+        <v>961</v>
       </c>
       <c r="E7" s="103" t="s">
         <v>344</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>93</v>
@@ -11242,10 +11250,10 @@
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="35" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L7" s="79">
         <v>0</v>
@@ -11327,7 +11335,7 @@
       <c r="BB7" s="35"/>
       <c r="BC7" s="35"/>
       <c r="BD7" s="31" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="BE7" s="31"/>
       <c r="BF7" s="35"/>
@@ -11369,10 +11377,10 @@
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="35" t="s">
+        <v>741</v>
+      </c>
+      <c r="K8" s="35" t="s">
         <v>742</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>743</v>
       </c>
       <c r="L8" s="79" t="s">
         <v>91</v>
@@ -11459,7 +11467,7 @@
       <c r="BB8" s="35"/>
       <c r="BC8" s="35"/>
       <c r="BD8" s="31" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="BE8" s="31"/>
       <c r="BF8" s="35"/>
@@ -11501,10 +11509,10 @@
       </c>
       <c r="I9" s="35"/>
       <c r="J9" s="35" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="L9" s="79">
         <v>1</v>
@@ -11585,7 +11593,7 @@
       <c r="BB9" s="35"/>
       <c r="BC9" s="35"/>
       <c r="BD9" s="36" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="BE9" s="36"/>
       <c r="BF9" s="35"/>
@@ -11608,7 +11616,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D10" s="104" t="s">
         <v>91</v>
@@ -11627,10 +11635,10 @@
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="35" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="L10" s="79">
         <v>1</v>
@@ -11693,7 +11701,7 @@
       <c r="AH10" s="98"/>
       <c r="AI10" s="99"/>
       <c r="AJ10" s="106" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="AK10" s="106" t="s">
         <v>596</v>
@@ -11723,7 +11731,7 @@
       <c r="BB10" s="35"/>
       <c r="BC10" s="35"/>
       <c r="BD10" s="36" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="BE10" s="36"/>
       <c r="BF10" s="35"/>
@@ -11765,10 +11773,10 @@
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="35" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="L11" s="79">
         <v>1</v>
@@ -11825,7 +11833,7 @@
       <c r="AH11" s="98"/>
       <c r="AI11" s="99"/>
       <c r="AJ11" s="106" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="AK11" s="106" t="s">
         <v>596</v>
@@ -11855,7 +11863,7 @@
       <c r="BB11" s="36"/>
       <c r="BC11" s="36"/>
       <c r="BD11" s="31" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="BE11" s="36"/>
       <c r="BF11" s="36"/>
@@ -11897,10 +11905,10 @@
       </c>
       <c r="I12" s="35"/>
       <c r="J12" s="35" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="L12" s="79">
         <v>1</v>
@@ -11981,10 +11989,10 @@
       <c r="BB12" s="35"/>
       <c r="BC12" s="35"/>
       <c r="BD12" s="36" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="BE12" s="37" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="BF12" s="35"/>
       <c r="BG12" s="35"/>
@@ -12025,10 +12033,10 @@
       </c>
       <c r="I13" s="35"/>
       <c r="J13" s="35" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="L13" s="79">
         <v>1</v>
@@ -12107,7 +12115,7 @@
       <c r="BB13" s="35"/>
       <c r="BC13" s="35"/>
       <c r="BD13" s="31" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="BE13" s="33"/>
       <c r="BF13" s="35"/>
@@ -12149,10 +12157,10 @@
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="35" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="L14" s="79">
         <v>1</v>
@@ -12233,10 +12241,10 @@
       <c r="BB14" s="35"/>
       <c r="BC14" s="35"/>
       <c r="BD14" s="36" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="BE14" s="37" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="BF14" s="35"/>
       <c r="BG14" s="35"/>
@@ -12277,10 +12285,10 @@
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="35" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="L15" s="79">
         <v>1</v>
@@ -12359,7 +12367,7 @@
       <c r="BB15" s="35"/>
       <c r="BC15" s="35"/>
       <c r="BD15" s="31" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="BE15" s="33"/>
       <c r="BF15" s="35"/>
@@ -12401,10 +12409,10 @@
       </c>
       <c r="I16" s="35"/>
       <c r="J16" s="35" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="L16" s="79">
         <v>1</v>
@@ -12485,10 +12493,10 @@
       <c r="BB16" s="35"/>
       <c r="BC16" s="35"/>
       <c r="BD16" s="31" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="BE16" s="33" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="BF16" s="35"/>
       <c r="BG16" s="35"/>
@@ -12529,10 +12537,10 @@
       </c>
       <c r="I17" s="35"/>
       <c r="J17" s="35" t="s">
+        <v>722</v>
+      </c>
+      <c r="K17" s="35" t="s">
         <v>723</v>
-      </c>
-      <c r="K17" s="35" t="s">
-        <v>724</v>
       </c>
       <c r="L17" s="79">
         <v>1</v>
@@ -12611,7 +12619,7 @@
       <c r="BB17" s="35"/>
       <c r="BC17" s="35"/>
       <c r="BD17" s="31" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="BE17" s="33"/>
       <c r="BF17" s="35"/>
@@ -12653,10 +12661,10 @@
       </c>
       <c r="I18" s="35"/>
       <c r="J18" s="35" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="L18" s="79">
         <f>60/60</f>
@@ -12754,12 +12762,12 @@
       <c r="BB18" s="34"/>
       <c r="BC18" s="34"/>
       <c r="BD18" s="34" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="BE18" s="34"/>
       <c r="BF18" s="34"/>
       <c r="BG18" s="34" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="BH18" s="34"/>
       <c r="BI18" s="34" t="s">
@@ -12802,10 +12810,10 @@
       </c>
       <c r="I19" s="35"/>
       <c r="J19" s="35" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L19" s="79">
         <f t="shared" ref="L19:L31" si="1">60/60</f>
@@ -12903,12 +12911,12 @@
       <c r="BB19" s="32"/>
       <c r="BC19" s="32"/>
       <c r="BD19" s="36" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="BE19" s="36"/>
       <c r="BF19" s="32"/>
       <c r="BG19" s="36" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="BH19" s="36"/>
       <c r="BI19" s="35" t="s">
@@ -12951,10 +12959,10 @@
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="35" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L20" s="79">
         <f t="shared" si="1"/>
@@ -13024,7 +13032,7 @@
         <v>545</v>
       </c>
       <c r="AP20" s="35" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AQ20" s="34" t="s">
         <v>644</v>
@@ -13039,7 +13047,7 @@
         <v>573</v>
       </c>
       <c r="AU20" s="36" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AV20" s="36"/>
       <c r="AW20" s="34"/>
@@ -13056,12 +13064,12 @@
       <c r="BB20" s="34"/>
       <c r="BC20" s="34"/>
       <c r="BD20" s="34" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="BE20" s="34"/>
       <c r="BF20" s="34"/>
       <c r="BG20" s="34" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="BH20" s="34"/>
       <c r="BI20" s="34" t="s">
@@ -13104,10 +13112,10 @@
       </c>
       <c r="I21" s="35"/>
       <c r="J21" s="35" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="L21" s="79">
         <f t="shared" si="1"/>
@@ -13168,10 +13176,10 @@
       <c r="AK21" s="106"/>
       <c r="AL21" s="107"/>
       <c r="AM21" s="114" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AN21" s="114" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AO21" s="115" t="s">
         <v>545</v>
@@ -13197,7 +13205,7 @@
         <v>93</v>
       </c>
       <c r="AZ21" s="32" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="BA21" s="111" t="s">
         <v>613</v>
@@ -13205,12 +13213,12 @@
       <c r="BB21" s="32"/>
       <c r="BC21" s="32"/>
       <c r="BD21" s="36" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="BE21" s="36"/>
       <c r="BF21" s="32"/>
       <c r="BG21" s="36" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="BH21" s="36"/>
       <c r="BI21" s="32" t="s">
@@ -13234,7 +13242,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D22" s="104" t="s">
         <v>387</v>
@@ -13253,10 +13261,10 @@
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="35" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L22" s="79">
         <f t="shared" si="1"/>
@@ -13317,10 +13325,10 @@
       <c r="AK22" s="106"/>
       <c r="AL22" s="107"/>
       <c r="AM22" s="114" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AN22" s="114" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AO22" s="115" t="s">
         <v>545</v>
@@ -13329,7 +13337,7 @@
         <v>645</v>
       </c>
       <c r="AQ22" s="34" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AR22" s="119" t="s">
         <v>167</v>
@@ -13341,7 +13349,7 @@
         <v>545</v>
       </c>
       <c r="AU22" s="36" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AV22" s="36"/>
       <c r="AW22" s="34"/>
@@ -13350,7 +13358,7 @@
         <v>93</v>
       </c>
       <c r="AZ22" s="34" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="BA22" s="111" t="s">
         <v>613</v>
@@ -13358,12 +13366,12 @@
       <c r="BB22" s="34"/>
       <c r="BC22" s="34"/>
       <c r="BD22" s="34" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="BE22" s="34"/>
       <c r="BF22" s="34"/>
       <c r="BG22" s="36" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="BH22" s="36"/>
       <c r="BI22" s="34" t="s">
@@ -13387,7 +13395,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D23" s="104" t="s">
         <v>177</v>
@@ -13406,10 +13414,10 @@
       </c>
       <c r="I23" s="35"/>
       <c r="J23" s="35" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="L23" s="79">
         <f t="shared" si="1"/>
@@ -13507,12 +13515,12 @@
       <c r="BB23" s="32"/>
       <c r="BC23" s="32"/>
       <c r="BD23" s="36" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="BE23" s="36"/>
       <c r="BF23" s="32"/>
       <c r="BG23" s="32" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="BH23" s="32"/>
       <c r="BI23" s="32" t="s">
@@ -13555,10 +13563,10 @@
       </c>
       <c r="I24" s="35"/>
       <c r="J24" s="35" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L24" s="79">
         <f t="shared" si="1"/>
@@ -13632,13 +13640,13 @@
         <v>181</v>
       </c>
       <c r="AQ24" s="36" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AR24" s="117" t="s">
         <v>175</v>
       </c>
       <c r="AS24" s="117" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AT24" s="118" t="s">
         <v>566</v>
@@ -13659,12 +13667,12 @@
       <c r="BB24" s="36"/>
       <c r="BC24" s="36"/>
       <c r="BD24" s="31" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="BE24" s="36"/>
       <c r="BF24" s="36"/>
       <c r="BG24" s="36" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="BH24" s="36"/>
       <c r="BI24" s="32" t="s">
@@ -13709,10 +13717,10 @@
         <v>93</v>
       </c>
       <c r="J25" s="35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L25" s="79">
         <f t="shared" si="1"/>
@@ -13764,10 +13772,10 @@
       <c r="AH25" s="98"/>
       <c r="AI25" s="99"/>
       <c r="AJ25" s="38" t="s">
+        <v>933</v>
+      </c>
+      <c r="AK25" s="38" t="s">
         <v>934</v>
-      </c>
-      <c r="AK25" s="38" t="s">
-        <v>935</v>
       </c>
       <c r="AL25" s="107" t="s">
         <v>545</v>
@@ -13776,7 +13784,7 @@
         <v>627</v>
       </c>
       <c r="AN25" s="114" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="AO25" s="115" t="s">
         <v>545</v>
@@ -13810,13 +13818,13 @@
       <c r="BB25" s="38"/>
       <c r="BC25" s="38"/>
       <c r="BD25" s="31" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="BE25" s="36"/>
       <c r="BF25" s="36"/>
       <c r="BG25" s="36"/>
       <c r="BH25" s="36" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="BI25" s="38" t="s">
         <v>118</v>
@@ -13839,7 +13847,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D26" s="104" t="s">
         <v>389</v>
@@ -13860,10 +13868,10 @@
         <v>93</v>
       </c>
       <c r="J26" s="35" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K26" s="35" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="L26" s="79">
         <f t="shared" si="1"/>
@@ -13918,7 +13926,7 @@
         <v>626</v>
       </c>
       <c r="AK26" s="36" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AL26" s="107" t="s">
         <v>545</v>
@@ -13934,7 +13942,7 @@
       </c>
       <c r="AP26" s="35"/>
       <c r="AQ26" s="36" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AR26" s="120" t="s">
         <v>123</v>
@@ -13961,13 +13969,13 @@
       <c r="BB26" s="36"/>
       <c r="BC26" s="36"/>
       <c r="BD26" s="31" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="BE26" s="36"/>
       <c r="BF26" s="36"/>
       <c r="BG26" s="36"/>
       <c r="BH26" s="36" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="BI26" s="32" t="s">
         <v>93</v>
@@ -14011,10 +14019,10 @@
         <v>93</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L27" s="79">
         <f t="shared" si="1"/>
@@ -14066,7 +14074,7 @@
       <c r="AH27" s="98"/>
       <c r="AI27" s="99"/>
       <c r="AJ27" s="36" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="AK27" s="36" t="s">
         <v>116</v>
@@ -14112,13 +14120,13 @@
       <c r="BB27" s="36"/>
       <c r="BC27" s="36"/>
       <c r="BD27" s="31" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="BE27" s="36"/>
       <c r="BF27" s="36"/>
       <c r="BG27" s="36"/>
       <c r="BH27" s="36" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="BI27" s="36" t="s">
         <v>118</v>
@@ -14141,7 +14149,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D28" s="104" t="s">
         <v>390</v>
@@ -14162,10 +14170,10 @@
         <v>93</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K28" s="35" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L28" s="79">
         <f t="shared" si="1"/>
@@ -14245,7 +14253,7 @@
         <v>187</v>
       </c>
       <c r="AR28" s="120" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AS28" s="120" t="s">
         <v>637</v>
@@ -14255,7 +14263,7 @@
       </c>
       <c r="AU28" s="36"/>
       <c r="AV28" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="AW28" s="35" t="s">
         <v>93</v>
@@ -14269,7 +14277,7 @@
       <c r="BB28" s="36"/>
       <c r="BC28" s="36"/>
       <c r="BD28" s="31" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="BE28" s="36"/>
       <c r="BF28" s="36"/>
@@ -14317,10 +14325,10 @@
         <v>93</v>
       </c>
       <c r="J29" s="35" t="s">
+        <v>727</v>
+      </c>
+      <c r="K29" s="35" t="s">
         <v>728</v>
-      </c>
-      <c r="K29" s="35" t="s">
-        <v>729</v>
       </c>
       <c r="L29" s="79">
         <f t="shared" si="1"/>
@@ -14397,20 +14405,20 @@
       </c>
       <c r="AP29" s="35"/>
       <c r="AQ29" s="38" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="AR29" s="120" t="s">
         <v>91</v>
       </c>
       <c r="AS29" s="120" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="AT29" s="118" t="s">
         <v>545</v>
       </c>
       <c r="AU29" s="36"/>
       <c r="AV29" s="36" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="AW29" s="35" t="s">
         <v>93</v>
@@ -14424,13 +14432,13 @@
       <c r="BB29" s="36"/>
       <c r="BC29" s="36"/>
       <c r="BD29" s="31" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="BE29" s="36"/>
       <c r="BF29" s="36"/>
       <c r="BG29" s="36"/>
       <c r="BH29" s="36" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="BI29" s="32" t="s">
         <v>93</v>
@@ -14453,7 +14461,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D30" s="104" t="s">
         <v>175</v>
@@ -14528,7 +14536,7 @@
         <v>123</v>
       </c>
       <c r="AK30" s="36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AL30" s="107" t="s">
         <v>545</v>
@@ -14537,14 +14545,14 @@
         <v>123</v>
       </c>
       <c r="AN30" s="114" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AO30" s="115" t="s">
         <v>628</v>
       </c>
       <c r="AP30" s="35"/>
       <c r="AQ30" s="38" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AR30" s="120" t="s">
         <v>95</v>
@@ -14569,13 +14577,13 @@
       <c r="BB30" s="36"/>
       <c r="BC30" s="36"/>
       <c r="BD30" s="31" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="BE30" s="36"/>
       <c r="BF30" s="36"/>
       <c r="BG30" s="36"/>
       <c r="BH30" s="36" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="BI30" s="32" t="s">
         <v>118</v>
@@ -14619,10 +14627,10 @@
         <v>93</v>
       </c>
       <c r="J31" s="35" t="s">
+        <v>727</v>
+      </c>
+      <c r="K31" s="35" t="s">
         <v>728</v>
-      </c>
-      <c r="K31" s="35" t="s">
-        <v>729</v>
       </c>
       <c r="L31" s="79">
         <f t="shared" si="1"/>
@@ -14699,7 +14707,7 @@
       </c>
       <c r="AP31" s="35"/>
       <c r="AQ31" s="38" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="AR31" s="120" t="s">
         <v>95</v>
@@ -14712,7 +14720,7 @@
       </c>
       <c r="AU31" s="36"/>
       <c r="AV31" s="36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="AW31" s="35" t="s">
         <v>93</v>
@@ -14726,13 +14734,13 @@
       <c r="BB31" s="36"/>
       <c r="BC31" s="36"/>
       <c r="BD31" s="31" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="BE31" s="36"/>
       <c r="BF31" s="36"/>
       <c r="BG31" s="36"/>
       <c r="BH31" s="36" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="BI31" s="36" t="s">
         <v>93</v>
@@ -14764,7 +14772,7 @@
         <v>91</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>118</v>
@@ -14832,7 +14840,7 @@
       <c r="BB32" s="36"/>
       <c r="BC32" s="36"/>
       <c r="BD32" s="36" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="BE32" s="36"/>
       <c r="BF32" s="36"/>
@@ -14864,7 +14872,7 @@
         <v>91</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>118</v>
@@ -14932,7 +14940,7 @@
       <c r="BB33" s="36"/>
       <c r="BC33" s="36"/>
       <c r="BD33" s="36" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="BE33" s="36"/>
       <c r="BF33" s="36"/>
@@ -14964,7 +14972,7 @@
         <v>91</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>118</v>
@@ -15032,7 +15040,7 @@
       <c r="BB34" s="36"/>
       <c r="BC34" s="36"/>
       <c r="BD34" s="36" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="BE34" s="36"/>
       <c r="BF34" s="36"/>
@@ -15064,7 +15072,7 @@
         <v>91</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>118</v>
@@ -15132,7 +15140,7 @@
       <c r="BB35" s="36"/>
       <c r="BC35" s="36"/>
       <c r="BD35" s="36" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="BE35" s="36"/>
       <c r="BF35" s="36"/>
@@ -15164,7 +15172,7 @@
         <v>91</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>118</v>
@@ -15232,7 +15240,7 @@
       <c r="BB36" s="36"/>
       <c r="BC36" s="36"/>
       <c r="BD36" s="36" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="BE36" s="36"/>
       <c r="BF36" s="36"/>
@@ -15274,10 +15282,10 @@
       </c>
       <c r="I37" s="35"/>
       <c r="J37" s="35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K37" s="35" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L37" s="79"/>
       <c r="M37" s="79"/>
@@ -15342,7 +15350,7 @@
       <c r="BB37" s="36"/>
       <c r="BC37" s="36"/>
       <c r="BD37" s="36" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="BE37" s="36"/>
       <c r="BF37" s="36"/>
@@ -15386,10 +15394,10 @@
         <v>93</v>
       </c>
       <c r="J38" s="35" t="s">
+        <v>727</v>
+      </c>
+      <c r="K38" s="35" t="s">
         <v>728</v>
-      </c>
-      <c r="K38" s="35" t="s">
-        <v>729</v>
       </c>
       <c r="L38" s="79"/>
       <c r="M38" s="79"/>
@@ -15436,7 +15444,7 @@
       <c r="BB38" s="36"/>
       <c r="BC38" s="36"/>
       <c r="BD38" s="36" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="BE38" s="36"/>
       <c r="BF38" s="36"/>
@@ -15478,10 +15486,10 @@
         <v>93</v>
       </c>
       <c r="J39" s="35" t="s">
+        <v>727</v>
+      </c>
+      <c r="K39" s="35" t="s">
         <v>728</v>
-      </c>
-      <c r="K39" s="35" t="s">
-        <v>729</v>
       </c>
       <c r="L39" s="79"/>
       <c r="M39" s="79"/>
@@ -15528,7 +15536,7 @@
       <c r="BB39" s="36"/>
       <c r="BC39" s="36"/>
       <c r="BD39" s="36" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="BE39" s="36"/>
       <c r="BF39" s="36"/>
@@ -15572,10 +15580,10 @@
         <v>93</v>
       </c>
       <c r="J40" s="35" t="s">
+        <v>727</v>
+      </c>
+      <c r="K40" s="35" t="s">
         <v>728</v>
-      </c>
-      <c r="K40" s="35" t="s">
-        <v>729</v>
       </c>
       <c r="L40" s="79"/>
       <c r="M40" s="79"/>
@@ -15622,7 +15630,7 @@
       <c r="BB40" s="36"/>
       <c r="BC40" s="36"/>
       <c r="BD40" s="36" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="BE40" s="36"/>
       <c r="BF40" s="36"/>
@@ -15666,10 +15674,10 @@
         <v>93</v>
       </c>
       <c r="J41" s="35" t="s">
+        <v>727</v>
+      </c>
+      <c r="K41" s="35" t="s">
         <v>728</v>
-      </c>
-      <c r="K41" s="35" t="s">
-        <v>729</v>
       </c>
       <c r="L41" s="79"/>
       <c r="M41" s="79"/>
@@ -15716,7 +15724,7 @@
       <c r="BB41" s="36"/>
       <c r="BC41" s="36"/>
       <c r="BD41" s="36" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="BE41" s="36"/>
       <c r="BF41" s="36"/>
@@ -15760,10 +15768,10 @@
         <v>93</v>
       </c>
       <c r="J42" s="35" t="s">
+        <v>727</v>
+      </c>
+      <c r="K42" s="35" t="s">
         <v>728</v>
-      </c>
-      <c r="K42" s="35" t="s">
-        <v>729</v>
       </c>
       <c r="L42" s="79"/>
       <c r="M42" s="79"/>
@@ -15810,7 +15818,7 @@
       <c r="BB42" s="36"/>
       <c r="BC42" s="36"/>
       <c r="BD42" s="36" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="BE42" s="36"/>
       <c r="BF42" s="36"/>
@@ -15836,7 +15844,7 @@
         <v>472</v>
       </c>
       <c r="D43" s="104" t="s">
-        <v>454</v>
+        <v>961</v>
       </c>
       <c r="E43" s="103" t="s">
         <v>477</v>
@@ -15852,10 +15860,10 @@
       </c>
       <c r="I43" s="35"/>
       <c r="J43" s="35" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K43" s="35" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L43" s="79">
         <v>0</v>
@@ -15934,7 +15942,7 @@
       <c r="BB43" s="35"/>
       <c r="BC43" s="35"/>
       <c r="BD43" s="31" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="BE43" s="36"/>
       <c r="BF43" s="35"/>
@@ -15960,7 +15968,7 @@
         <v>476</v>
       </c>
       <c r="D44" s="104" t="s">
-        <v>454</v>
+        <v>961</v>
       </c>
       <c r="E44" s="103" t="s">
         <v>339</v>
@@ -15976,10 +15984,10 @@
       </c>
       <c r="I44" s="35"/>
       <c r="J44" s="35" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K44" s="35" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="L44" s="79">
         <v>0</v>
@@ -16058,7 +16066,7 @@
       <c r="BB44" s="35"/>
       <c r="BC44" s="35"/>
       <c r="BD44" s="31" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="BE44" s="36"/>
       <c r="BF44" s="35"/>
@@ -16084,7 +16092,7 @@
         <v>473</v>
       </c>
       <c r="D45" s="104" t="s">
-        <v>454</v>
+        <v>961</v>
       </c>
       <c r="E45" s="103" t="s">
         <v>33</v>
@@ -16100,10 +16108,10 @@
       </c>
       <c r="I45" s="35"/>
       <c r="J45" s="35" t="s">
+        <v>727</v>
+      </c>
+      <c r="K45" s="35" t="s">
         <v>728</v>
-      </c>
-      <c r="K45" s="35" t="s">
-        <v>729</v>
       </c>
       <c r="L45" s="79"/>
       <c r="M45" s="79"/>
@@ -16158,7 +16166,7 @@
       <c r="BB45" s="35"/>
       <c r="BC45" s="35"/>
       <c r="BD45" s="31" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="BE45" s="36"/>
       <c r="BF45" s="35"/>
@@ -16249,11 +16257,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="4" customFormat="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
       <c r="D1" s="27" t="s">
         <v>350</v>
       </c>
@@ -16293,11 +16301,11 @@
       <c r="AM1" s="64"/>
     </row>
     <row r="2" spans="1:40" s="4" customFormat="1">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
       <c r="D2" s="55" t="s">
         <v>340</v>
       </c>
@@ -16396,7 +16404,7 @@
         <v>328</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H4" s="53" t="s">
         <v>114</v>
@@ -16516,7 +16524,7 @@
         <v>334</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H5" s="52" t="s">
         <v>657</v>
@@ -16636,7 +16644,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H6" s="54" t="s">
         <v>5</v>
@@ -16755,7 +16763,7 @@
         <v>322</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H7" s="39">
         <v>1</v>
@@ -16866,7 +16874,7 @@
         <v>487</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H8" s="39">
         <v>1</v>
@@ -16977,7 +16985,7 @@
         <v>485</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H9" s="39">
         <v>1</v>
@@ -17090,7 +17098,7 @@
         <v>488</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H10" s="39">
         <v>1</v>
@@ -17203,7 +17211,7 @@
         <v>489</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H11" s="39" t="s">
         <v>33</v>
@@ -17320,7 +17328,7 @@
         <v>490</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H12" s="39" t="s">
         <v>423</v>
@@ -17439,7 +17447,7 @@
         <v>486</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H13" s="39" t="s">
         <v>423</v>
@@ -17558,7 +17566,7 @@
         <v>491</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H14" s="39" t="s">
         <v>423</v>
@@ -17677,7 +17685,7 @@
         <v>492</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H15" s="39" t="s">
         <v>423</v>
@@ -17796,7 +17804,7 @@
         <v>493</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H16" s="39" t="s">
         <v>424</v>
@@ -17915,7 +17923,7 @@
         <v>494</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>177</v>
@@ -18034,7 +18042,7 @@
         <v>495</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>177</v>
@@ -18153,7 +18161,7 @@
         <v>405</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H19" s="39" t="s">
         <v>177</v>
@@ -18272,7 +18280,7 @@
         <v>500</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H20" s="39" t="s">
         <v>177</v>
@@ -18391,7 +18399,7 @@
         <v>496</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H21" s="39" t="s">
         <v>177</v>
@@ -18510,7 +18518,7 @@
         <v>501</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H22" s="39" t="s">
         <v>425</v>
@@ -18629,7 +18637,7 @@
         <v>502</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H23" s="39">
         <v>4</v>
@@ -18748,7 +18756,7 @@
         <v>497</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H24" s="39">
         <v>4</v>
@@ -18867,7 +18875,7 @@
         <v>498</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H25" s="39">
         <v>4</v>
@@ -18986,7 +18994,7 @@
         <v>499</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H26" s="69" t="s">
         <v>92</v>
@@ -19137,11 +19145,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
       <c r="D1" s="27" t="s">
         <v>363</v>
       </c>
@@ -19151,11 +19159,11 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
       <c r="D2" s="55" t="s">
         <v>364</v>
       </c>
@@ -19455,10 +19463,10 @@
   <dimension ref="A1:AV22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="AA7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="AF7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomRight" activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19503,26 +19511,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
       <c r="D1" s="131" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:48">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
       <c r="D2" s="131" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E2" s="1"/>
       <c r="H2" s="1"/>
@@ -19551,22 +19559,22 @@
         <v>37</v>
       </c>
       <c r="E4" s="128" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F4" s="102" t="s">
         <v>342</v>
       </c>
       <c r="G4" s="28" t="s">
+        <v>710</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>711</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>712</v>
       </c>
       <c r="I4" s="128" t="s">
         <v>244</v>
       </c>
       <c r="J4" s="48" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="K4" s="128" t="s">
         <v>39</v>
@@ -19623,7 +19631,7 @@
         <v>47</v>
       </c>
       <c r="AC4" s="128" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AD4" s="128" t="s">
         <v>252</v>
@@ -19650,19 +19658,19 @@
         <v>56</v>
       </c>
       <c r="AL4" s="128" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AM4" s="128" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AN4" s="128" t="s">
         <v>57</v>
       </c>
       <c r="AO4" s="128" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AP4" s="128" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AQ4" s="128" t="s">
         <v>58</v>
@@ -19695,22 +19703,22 @@
         <v>37</v>
       </c>
       <c r="E5" s="128" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F5" s="102" t="s">
         <v>654</v>
       </c>
       <c r="G5" s="28" t="s">
+        <v>712</v>
+      </c>
+      <c r="H5" s="28" t="s">
         <v>713</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>714</v>
       </c>
       <c r="I5" s="49" t="s">
         <v>256</v>
       </c>
       <c r="J5" s="50" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K5" s="50" t="s">
         <v>67</v>
@@ -19734,7 +19742,7 @@
         <v>261</v>
       </c>
       <c r="R5" s="49" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="S5" s="132" t="s">
         <v>71</v>
@@ -19743,7 +19751,7 @@
         <v>72</v>
       </c>
       <c r="U5" s="116" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="V5" s="116" t="s">
         <v>632</v>
@@ -19764,22 +19772,22 @@
         <v>73</v>
       </c>
       <c r="AB5" s="49" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AC5" s="49" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AD5" s="49" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AE5" s="49" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AF5" s="49" t="s">
         <v>262</v>
       </c>
       <c r="AG5" s="49" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="AH5" s="49" t="s">
         <v>78</v>
@@ -19794,19 +19802,19 @@
         <v>81</v>
       </c>
       <c r="AL5" s="49" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AM5" s="49" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AN5" s="49" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AO5" s="49" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AP5" s="49" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AQ5" s="49" t="s">
         <v>82</v>
@@ -19839,7 +19847,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="125" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>5</v>
@@ -19854,7 +19862,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="125" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K6" s="125" t="s">
         <v>264</v>
@@ -19911,7 +19919,7 @@
         <v>88</v>
       </c>
       <c r="AC6" s="125" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AD6" s="125" t="s">
         <v>264</v>
@@ -19980,13 +19988,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D7" s="40">
         <v>100</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F7" s="40">
         <v>1</v>
@@ -19995,7 +20003,7 @@
         <v>423</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I7" s="40">
         <v>20</v>
@@ -20093,13 +20101,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D8" s="40">
         <v>100</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F8" s="40">
         <v>1</v>
@@ -20108,7 +20116,7 @@
         <v>423</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I8" s="40">
         <v>20</v>
@@ -20212,7 +20220,7 @@
         <v>102</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F9" s="40">
         <v>6</v>
@@ -20221,7 +20229,7 @@
         <v>423</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I9" s="40">
         <v>20</v>
@@ -20299,10 +20307,10 @@
       <c r="AL9" s="40"/>
       <c r="AM9" s="40"/>
       <c r="AN9" s="21" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AO9" s="21" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AP9" s="21"/>
       <c r="AQ9" s="40" t="s">
@@ -20333,7 +20341,7 @@
         <v>101</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F10" s="40">
         <v>6</v>
@@ -20408,7 +20416,7 @@
       <c r="AN10" s="40"/>
       <c r="AO10" s="40"/>
       <c r="AP10" s="40" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AQ10" s="40" t="s">
         <v>118</v>
@@ -20438,7 +20446,7 @@
         <v>101</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F11" s="40">
         <v>6</v>
@@ -20519,11 +20527,11 @@
       <c r="AL11" s="40"/>
       <c r="AM11" s="40"/>
       <c r="AN11" s="43" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AO11" s="43"/>
       <c r="AP11" s="43" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AQ11" s="40" t="s">
         <v>93</v>
@@ -20555,7 +20563,7 @@
         <v>101</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F12" s="40">
         <v>6</v>
@@ -20564,7 +20572,7 @@
         <v>423</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I12" s="40" t="s">
         <v>101</v>
@@ -20646,11 +20654,11 @@
       <c r="AL12" s="40"/>
       <c r="AM12" s="40"/>
       <c r="AN12" s="40" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AO12" s="40"/>
       <c r="AP12" s="40" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AQ12" s="40" t="s">
         <v>93</v>
@@ -20682,7 +20690,7 @@
         <v>101</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F13" s="40">
         <v>6</v>
@@ -20765,11 +20773,11 @@
       <c r="AL13" s="40"/>
       <c r="AM13" s="40"/>
       <c r="AN13" s="43" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AO13" s="43"/>
       <c r="AP13" s="43" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AQ13" s="40" t="s">
         <v>118</v>
@@ -20801,7 +20809,7 @@
         <v>101</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F14" s="40">
         <v>6</v>
@@ -20810,7 +20818,7 @@
         <v>423</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>124</v>
@@ -20896,11 +20904,11 @@
       </c>
       <c r="AM14" s="40"/>
       <c r="AN14" s="21" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AO14" s="21"/>
       <c r="AP14" s="21" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AQ14" s="40" t="s">
         <v>93</v>
@@ -20930,7 +20938,7 @@
         <v>101</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F15" s="40">
         <v>6</v>
@@ -20939,7 +20947,7 @@
         <v>423</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I15" s="40">
         <v>240</v>
@@ -21025,11 +21033,11 @@
       </c>
       <c r="AM15" s="40"/>
       <c r="AN15" s="21" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AO15" s="21"/>
       <c r="AP15" s="21" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AQ15" s="40" t="s">
         <v>93</v>
@@ -21061,7 +21069,7 @@
         <v>101</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F16" s="40">
         <v>6</v>
@@ -21144,11 +21152,11 @@
       </c>
       <c r="AM16" s="40"/>
       <c r="AN16" s="44" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AO16" s="44"/>
       <c r="AP16" s="44" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AQ16" s="40" t="s">
         <v>118</v>
@@ -21177,7 +21185,7 @@
         <v>298</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E17" s="45"/>
       <c r="F17" s="45">
@@ -21193,7 +21201,7 @@
         <v>299</v>
       </c>
       <c r="J17" s="45" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K17" s="45" t="s">
         <v>300</v>
@@ -21247,10 +21255,10 @@
       <c r="AL17" s="45"/>
       <c r="AM17" s="45"/>
       <c r="AN17" s="45" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AO17" s="45" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AP17" s="45"/>
       <c r="AQ17" s="45" t="s">
@@ -21278,7 +21286,7 @@
         <v>303</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E18" s="45"/>
       <c r="F18" s="45">
@@ -21294,7 +21302,7 @@
         <v>299</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K18" s="45" t="s">
         <v>304</v>
@@ -21348,7 +21356,7 @@
       <c r="AL18" s="45"/>
       <c r="AM18" s="45"/>
       <c r="AN18" s="45" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AO18" s="45"/>
       <c r="AP18" s="45"/>
@@ -21377,7 +21385,7 @@
         <v>307</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E19" s="45"/>
       <c r="F19" s="45">
@@ -21387,13 +21395,13 @@
         <v>423</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I19" s="45" t="s">
         <v>299</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K19" s="45" t="s">
         <v>308</v>
@@ -21453,7 +21461,7 @@
       <c r="AL19" s="45"/>
       <c r="AM19" s="45"/>
       <c r="AN19" s="45" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AO19" s="45"/>
       <c r="AP19" s="45"/>
@@ -21484,7 +21492,7 @@
         <v>311</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E20" s="45"/>
       <c r="F20" s="45">
@@ -21494,13 +21502,13 @@
         <v>423</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I20" s="45" t="s">
         <v>299</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K20" s="45" t="s">
         <v>312</v>
@@ -21558,7 +21566,7 @@
       </c>
       <c r="AM20" s="45"/>
       <c r="AN20" s="45" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AO20" s="45"/>
       <c r="AP20" s="45"/>
@@ -21589,7 +21597,7 @@
         <v>317</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E21" s="45"/>
       <c r="F21" s="45">
@@ -21599,13 +21607,13 @@
         <v>423</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I21" s="45" t="s">
         <v>299</v>
       </c>
       <c r="J21" s="45" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K21" s="45" t="s">
         <v>318</v>
@@ -21663,7 +21671,7 @@
       </c>
       <c r="AM21" s="45"/>
       <c r="AN21" s="45" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AO21" s="45"/>
       <c r="AP21" s="45"/>
@@ -21691,10 +21699,10 @@
         <v>16</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E22" s="45"/>
       <c r="F22" s="45">
@@ -21704,13 +21712,13 @@
         <v>423</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I22" s="45" t="s">
         <v>299</v>
       </c>
       <c r="J22" s="45" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K22" s="45" t="s">
         <v>321</v>
@@ -21770,7 +21778,7 @@
       <c r="AL22" s="45"/>
       <c r="AM22" s="45"/>
       <c r="AN22" s="45" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AO22" s="45"/>
       <c r="AP22" s="45"/>
@@ -21818,7 +21826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -21851,29 +21859,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="167" t="s">
-        <v>810</v>
-      </c>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="168" t="s">
+        <v>809</v>
+      </c>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
       <c r="G1" s="135"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="167" t="s">
-        <v>775</v>
-      </c>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="168" t="s">
+        <v>774</v>
+      </c>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
       <c r="G2" s="135"/>
     </row>
     <row r="3" spans="1:22">
@@ -21891,61 +21899,61 @@
         <v>2</v>
       </c>
       <c r="C4" s="142" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D4" s="152" t="s">
+        <v>850</v>
+      </c>
+      <c r="E4" s="153" t="s">
         <v>851</v>
       </c>
-      <c r="E4" s="153" t="s">
+      <c r="F4" s="153" t="s">
         <v>852</v>
       </c>
-      <c r="F4" s="153" t="s">
+      <c r="G4" s="153" t="s">
+        <v>887</v>
+      </c>
+      <c r="H4" s="153" t="s">
+        <v>854</v>
+      </c>
+      <c r="I4" s="153" t="s">
+        <v>925</v>
+      </c>
+      <c r="J4" s="153" t="s">
         <v>853</v>
       </c>
-      <c r="G4" s="153" t="s">
-        <v>888</v>
-      </c>
-      <c r="H4" s="153" t="s">
+      <c r="K4" s="153" t="s">
         <v>855</v>
       </c>
-      <c r="I4" s="153" t="s">
-        <v>926</v>
-      </c>
-      <c r="J4" s="153" t="s">
-        <v>854</v>
-      </c>
-      <c r="K4" s="153" t="s">
+      <c r="L4" s="153" t="s">
         <v>856</v>
       </c>
-      <c r="L4" s="153" t="s">
+      <c r="M4" s="153" t="s">
+        <v>916</v>
+      </c>
+      <c r="N4" s="153" t="s">
         <v>857</v>
       </c>
-      <c r="M4" s="153" t="s">
-        <v>917</v>
-      </c>
-      <c r="N4" s="153" t="s">
+      <c r="O4" s="153" t="s">
         <v>858</v>
       </c>
-      <c r="O4" s="153" t="s">
+      <c r="P4" s="153" t="s">
         <v>859</v>
       </c>
-      <c r="P4" s="153" t="s">
+      <c r="Q4" s="153" t="s">
         <v>860</v>
       </c>
-      <c r="Q4" s="153" t="s">
+      <c r="R4" s="153" t="s">
         <v>861</v>
       </c>
-      <c r="R4" s="153" t="s">
+      <c r="S4" s="153" t="s">
         <v>862</v>
       </c>
-      <c r="S4" s="153" t="s">
+      <c r="T4" s="153" t="s">
         <v>863</v>
       </c>
-      <c r="T4" s="153" t="s">
+      <c r="U4" s="153" t="s">
         <v>864</v>
-      </c>
-      <c r="U4" s="153" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="141" customFormat="1" ht="46" customHeight="1">
@@ -21954,61 +21962,61 @@
         <v>2</v>
       </c>
       <c r="C5" s="144" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D5" s="154" t="s">
+        <v>865</v>
+      </c>
+      <c r="E5" s="154" t="s">
         <v>866</v>
       </c>
-      <c r="E5" s="154" t="s">
+      <c r="F5" s="154" t="s">
         <v>867</v>
       </c>
-      <c r="F5" s="154" t="s">
+      <c r="G5" s="154" t="s">
+        <v>775</v>
+      </c>
+      <c r="H5" s="154" t="s">
+        <v>870</v>
+      </c>
+      <c r="I5" s="154" t="s">
         <v>868</v>
       </c>
-      <c r="G5" s="154" t="s">
-        <v>776</v>
-      </c>
-      <c r="H5" s="154" t="s">
+      <c r="J5" s="154" t="s">
+        <v>869</v>
+      </c>
+      <c r="K5" s="154" t="s">
         <v>871</v>
       </c>
-      <c r="I5" s="154" t="s">
-        <v>869</v>
-      </c>
-      <c r="J5" s="154" t="s">
-        <v>870</v>
-      </c>
-      <c r="K5" s="154" t="s">
+      <c r="L5" s="154" t="s">
         <v>872</v>
       </c>
-      <c r="L5" s="154" t="s">
+      <c r="M5" s="154" t="s">
+        <v>920</v>
+      </c>
+      <c r="N5" s="154" t="s">
         <v>873</v>
       </c>
-      <c r="M5" s="154" t="s">
-        <v>921</v>
-      </c>
-      <c r="N5" s="154" t="s">
+      <c r="O5" s="154" t="s">
         <v>874</v>
       </c>
-      <c r="O5" s="154" t="s">
+      <c r="P5" s="154" t="s">
         <v>875</v>
       </c>
-      <c r="P5" s="154" t="s">
+      <c r="Q5" s="154" t="s">
         <v>876</v>
       </c>
-      <c r="Q5" s="154" t="s">
+      <c r="R5" s="154" t="s">
         <v>877</v>
       </c>
-      <c r="R5" s="154" t="s">
+      <c r="S5" s="154" t="s">
+        <v>888</v>
+      </c>
+      <c r="T5" s="154" t="s">
         <v>878</v>
       </c>
-      <c r="S5" s="154" t="s">
-        <v>889</v>
-      </c>
-      <c r="T5" s="154" t="s">
+      <c r="U5" s="154" t="s">
         <v>879</v>
-      </c>
-      <c r="U5" s="154" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="141" customFormat="1" ht="21" customHeight="1">
@@ -22047,7 +22055,7 @@
         <v>88</v>
       </c>
       <c r="M6" s="155" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="N6" s="155" t="s">
         <v>88</v>
@@ -22076,23 +22084,23 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="148" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B7" s="137">
         <v>1</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D7" s="137" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E7" s="137" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F7" s="151"/>
       <c r="G7" s="137" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H7" s="151"/>
       <c r="I7" s="151"/>
@@ -22107,34 +22115,34 @@
       <c r="P7" s="151"/>
       <c r="Q7" s="151"/>
       <c r="R7" s="137" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="S7" s="138"/>
       <c r="T7" s="151"/>
       <c r="U7" s="151"/>
       <c r="V7" s="136" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="148" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B8" s="137">
         <v>2</v>
       </c>
       <c r="C8" s="137" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D8" s="137" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E8" s="137" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F8" s="151"/>
       <c r="G8" s="137" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H8" s="151"/>
       <c r="I8" s="151"/>
@@ -22149,20 +22157,20 @@
       <c r="P8" s="151"/>
       <c r="Q8" s="151"/>
       <c r="R8" s="137" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="S8" s="138"/>
       <c r="T8" s="156" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="U8" s="151"/>
       <c r="V8" s="136" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="148" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B9" s="137">
         <v>3</v>
@@ -22171,14 +22179,14 @@
         <v>192</v>
       </c>
       <c r="D9" s="137" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E9" s="137" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F9" s="151"/>
       <c r="G9" s="137" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H9" s="151"/>
       <c r="I9" s="151">
@@ -22187,7 +22195,7 @@
       <c r="J9" s="151"/>
       <c r="K9" s="151"/>
       <c r="L9" s="39" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="M9" s="39"/>
       <c r="N9" s="151"/>
@@ -22197,34 +22205,34 @@
       <c r="P9" s="151"/>
       <c r="Q9" s="151"/>
       <c r="R9" s="137" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="S9" s="138"/>
       <c r="T9" s="151"/>
       <c r="U9" s="151"/>
       <c r="V9" s="136" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="148" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B10" s="137">
         <v>4</v>
       </c>
       <c r="C10" s="137" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D10" s="137" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E10" s="137" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F10" s="151"/>
       <c r="G10" s="137" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H10" s="151"/>
       <c r="I10" s="151">
@@ -22233,10 +22241,10 @@
       <c r="J10" s="151"/>
       <c r="K10" s="151"/>
       <c r="L10" s="39" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="M10" s="39" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="N10" s="151"/>
       <c r="O10" s="163" t="s">
@@ -22245,71 +22253,71 @@
       <c r="P10" s="151"/>
       <c r="Q10" s="151"/>
       <c r="R10" s="137" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="S10" s="138"/>
       <c r="T10" s="151"/>
       <c r="U10" s="151"/>
       <c r="V10" s="136" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="148" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B11" s="137">
         <v>5</v>
       </c>
       <c r="C11" s="137" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E11" s="137" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F11" s="151"/>
       <c r="G11" s="137" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H11" s="151"/>
       <c r="I11" s="151"/>
       <c r="J11" s="151"/>
       <c r="K11" s="151"/>
       <c r="L11" s="39" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="M11" s="39"/>
       <c r="N11" s="151"/>
       <c r="O11" s="39" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="P11" s="151"/>
       <c r="Q11" s="151"/>
       <c r="R11" s="137" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="S11" s="138"/>
       <c r="T11" s="151"/>
       <c r="U11" s="151"/>
       <c r="V11" s="136" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="148" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B12" s="137">
         <v>6</v>
       </c>
       <c r="C12" s="137" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D12" s="137" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E12" s="137"/>
       <c r="F12" s="151"/>
@@ -22319,7 +22327,7 @@
       <c r="J12" s="151"/>
       <c r="K12" s="151"/>
       <c r="L12" s="39" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="M12" s="39"/>
       <c r="N12" s="151"/>
@@ -22331,109 +22339,109 @@
       <c r="T12" s="151"/>
       <c r="U12" s="151"/>
       <c r="V12" s="136" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="148" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B13" s="137">
         <v>7</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D13" s="137" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E13" s="137" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F13" s="151"/>
       <c r="G13" s="39" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H13" s="151"/>
       <c r="I13" s="151"/>
       <c r="J13" s="151"/>
       <c r="K13" s="151"/>
       <c r="L13" s="39" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="M13" s="39"/>
       <c r="N13" s="151"/>
       <c r="O13" s="39" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="P13" s="151"/>
       <c r="Q13" s="151"/>
       <c r="R13" s="137" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="S13" s="138"/>
       <c r="T13" s="151"/>
       <c r="U13" s="151"/>
       <c r="V13" s="136" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="148" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B14" s="137">
         <v>8</v>
       </c>
       <c r="C14" s="137" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D14" s="137" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E14" s="137" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F14" s="151"/>
       <c r="G14" s="137" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H14" s="151"/>
       <c r="I14" s="151"/>
       <c r="J14" s="151"/>
       <c r="K14" s="151"/>
       <c r="L14" s="39" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="M14" s="39"/>
       <c r="N14" s="151"/>
       <c r="O14" s="39" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="P14" s="151"/>
       <c r="Q14" s="151"/>
       <c r="R14" s="137" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="S14" s="138"/>
       <c r="T14" s="151"/>
       <c r="U14" s="151"/>
       <c r="V14" s="139" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="148" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>112</v>
       </c>
       <c r="C15" s="137" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D15" s="137" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E15" s="137"/>
       <c r="F15" s="151"/>
@@ -22462,17 +22470,17 @@
         <v>96</v>
       </c>
       <c r="C16" s="137" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D16" s="137" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E16" s="137" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F16" s="151"/>
       <c r="G16" s="137" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H16" s="151"/>
       <c r="I16" s="151"/>
@@ -22490,22 +22498,22 @@
       <c r="S16" s="138"/>
       <c r="T16" s="151"/>
       <c r="U16" s="156" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="V16" s="140"/>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="149" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B17" s="137" t="s">
         <v>134</v>
       </c>
       <c r="C17" s="137" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D17" s="137" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E17" s="137" t="s">
         <v>148</v>
@@ -22527,7 +22535,7 @@
       <c r="P17" s="151"/>
       <c r="Q17" s="151"/>
       <c r="R17" s="137" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="S17" s="138"/>
       <c r="T17" s="151"/>
@@ -22536,16 +22544,16 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="149" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B18" s="137" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C18" s="137" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D18" s="137" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E18" s="137" t="s">
         <v>148</v>
@@ -22567,7 +22575,7 @@
       <c r="P18" s="151"/>
       <c r="Q18" s="151"/>
       <c r="R18" s="137" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="S18" s="138"/>
       <c r="T18" s="151"/>
@@ -22576,23 +22584,23 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="148" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B19" s="137" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C19" s="137" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D19" s="137" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E19" s="137" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F19" s="151"/>
       <c r="G19" s="137" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H19" s="151"/>
       <c r="I19" s="151"/>
@@ -22607,13 +22615,13 @@
       <c r="P19" s="151"/>
       <c r="Q19" s="151"/>
       <c r="R19" s="137" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="S19" s="138"/>
       <c r="T19" s="156"/>
       <c r="U19" s="151"/>
       <c r="V19" s="136" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -22668,11 +22676,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
@@ -22690,11 +22698,11 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
       <c r="D2" s="1" t="s">
         <v>28</v>
       </c>

--- a/Assets/island/DBCfg/DataCfg.xlsx
+++ b/Assets/island/DBCfg/DataCfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="827" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26240" windowHeight="15540" tabRatio="827" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="配置表cfg" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,9 @@
     <sheet name="兵种表" sheetId="15" r:id="rId6"/>
     <sheet name="子弹" sheetId="22" r:id="rId7"/>
     <sheet name="多语言" sheetId="16" r:id="rId8"/>
+    <sheet name="大地图块" sheetId="23" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -674,8 +675,47 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>bin chen</author>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="7"/>
+            <charset val="134"/>
+          </rPr>
+          <t>bin chen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="7"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1:港口
+2：装饰
+3：玩家
+99：占用</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="984">
   <si>
     <t>表名：</t>
   </si>
@@ -1627,18 +1667,12 @@
     <t>陆战队员</t>
   </si>
   <si>
-    <t>Barbarian</t>
-  </si>
-  <si>
     <t>WhiteDolphinInfor</t>
   </si>
   <si>
     <t>破浪级登陆艇</t>
   </si>
   <si>
-    <t>LandCraft</t>
-  </si>
-  <si>
     <t>180</t>
   </si>
   <si>
@@ -1673,12 +1707,6 @@
   </si>
   <si>
     <t>GreenSeaUrchinsInfor</t>
-  </si>
-  <si>
-    <t>毁灭者自爆炸弹</t>
-  </si>
-  <si>
-    <t>WallBreaker</t>
   </si>
   <si>
     <t>BloodSharkInfor</t>
@@ -4311,6 +4339,106 @@
   </si>
   <si>
     <t>-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barbarian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LandCraft</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breaker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁灭者自爆炸弹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占用地块数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Port</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>据点/港口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>worldmap.mapport</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>worldmap.island1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>worldmap.island2</t>
+  </si>
+  <si>
+    <t>worldmap.island3</t>
+  </si>
+  <si>
+    <t>worldmap.island4</t>
+  </si>
+  <si>
+    <t>worldmap.island5</t>
+  </si>
+  <si>
+    <t>装饰岛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占用格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBCFMapTile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家岛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>worldmap.mapcity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBCFMapTileData</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4929,7 +5057,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1474">
+  <cellStyleXfs count="1496">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -7756,8 +7884,74 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -8250,6 +8444,9 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
@@ -8269,7 +8466,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1474">
+  <cellStyles count="1496">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 1 10" xfId="2"/>
     <cellStyle name="20% - 强调文字颜色 1 10 2" xfId="3"/>
@@ -9349,6 +9546,17 @@
     <cellStyle name="超链接" xfId="1468" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1470" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1472" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1474" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1476" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1478" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1480" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1482" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1484" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1486" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1488" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1490" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1492" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1494" builtinId="8" hidden="1"/>
     <cellStyle name="逗号 [0]" xfId="885" builtinId="6"/>
     <cellStyle name="访问过的超链接" xfId="1085" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1087" builtinId="9" hidden="1"/>
@@ -9545,6 +9753,17 @@
     <cellStyle name="访问过的超链接" xfId="1469" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1471" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1473" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1475" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1477" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1479" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1481" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1483" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1485" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1487" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1489" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1491" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1493" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1495" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="886" builtinId="26" customBuiltin="1"/>
     <cellStyle name="好 10" xfId="887"/>
     <cellStyle name="好 11" xfId="888"/>
@@ -10206,7 +10425,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10231,11 +10450,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
@@ -10254,11 +10473,11 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
@@ -10306,19 +10525,19 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>702</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="8" customFormat="1" ht="15" customHeight="1">
@@ -10330,19 +10549,19 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -10362,10 +10581,10 @@
         <v>5</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -10537,7 +10756,7 @@
   </sheetPr>
   <dimension ref="A1:BM45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -10603,11 +10822,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
       <c r="D1" s="27" t="s">
         <v>34</v>
       </c>
@@ -10616,11 +10835,11 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:65">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
       <c r="D2" s="27" t="s">
         <v>35</v>
       </c>
@@ -10645,13 +10864,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="102" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>40</v>
@@ -10663,103 +10882,103 @@
         <v>42</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="L4" s="72" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M4" s="72" t="s">
+        <v>508</v>
+      </c>
+      <c r="N4" s="72" t="s">
         <v>512</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="O4" s="73" t="s">
+        <v>515</v>
+      </c>
+      <c r="P4" s="73" t="s">
         <v>516</v>
       </c>
-      <c r="O4" s="73" t="s">
-        <v>519</v>
-      </c>
-      <c r="P4" s="73" t="s">
+      <c r="Q4" s="73" t="s">
+        <v>518</v>
+      </c>
+      <c r="R4" s="74" t="s">
         <v>520</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="S4" s="74" t="s">
         <v>522</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="T4" s="74" t="s">
+        <v>523</v>
+      </c>
+      <c r="U4" s="75" t="s">
         <v>524</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="V4" s="75" t="s">
+        <v>525</v>
+      </c>
+      <c r="W4" s="75" t="s">
         <v>526</v>
       </c>
-      <c r="T4" s="74" t="s">
-        <v>527</v>
-      </c>
-      <c r="U4" s="75" t="s">
-        <v>528</v>
-      </c>
-      <c r="V4" s="75" t="s">
-        <v>529</v>
-      </c>
-      <c r="W4" s="75" t="s">
-        <v>530</v>
-      </c>
       <c r="X4" s="80" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="Y4" s="80" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="Z4" s="80" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="AA4" s="101" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="AB4" s="101" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="AC4" s="101" t="s">
+        <v>574</v>
+      </c>
+      <c r="AD4" s="112" t="s">
         <v>578</v>
       </c>
-      <c r="AD4" s="112" t="s">
-        <v>582</v>
-      </c>
       <c r="AE4" s="112" t="s">
+        <v>580</v>
+      </c>
+      <c r="AF4" s="112" t="s">
+        <v>583</v>
+      </c>
+      <c r="AG4" s="75" t="s">
         <v>584</v>
       </c>
-      <c r="AF4" s="112" t="s">
-        <v>587</v>
-      </c>
-      <c r="AG4" s="75" t="s">
-        <v>588</v>
-      </c>
       <c r="AH4" s="75" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="AI4" s="75" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="AJ4" s="105" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="AK4" s="105" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="AL4" s="105" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="AM4" s="113" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="AN4" s="113" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="AO4" s="113" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="AP4" s="30" t="s">
         <v>53</v>
@@ -10768,19 +10987,19 @@
         <v>54</v>
       </c>
       <c r="AR4" s="116" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="AS4" s="116" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="AT4" s="116" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="AU4" s="30" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="AV4" s="102" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AW4" s="30" t="s">
         <v>46</v>
@@ -10795,7 +11014,7 @@
         <v>51</v>
       </c>
       <c r="BA4" s="109" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="BB4" s="30" t="s">
         <v>55</v>
@@ -10816,7 +11035,7 @@
         <v>57</v>
       </c>
       <c r="BH4" s="30" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="BI4" s="30" t="s">
         <v>58</v>
@@ -10845,10 +11064,10 @@
         <v>37</v>
       </c>
       <c r="E5" s="102" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>68</v>
@@ -10857,103 +11076,103 @@
         <v>69</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="L5" s="72" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="M5" s="72" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="N5" s="72" t="s">
+        <v>513</v>
+      </c>
+      <c r="O5" s="73" t="s">
+        <v>649</v>
+      </c>
+      <c r="P5" s="73" t="s">
         <v>517</v>
       </c>
-      <c r="O5" s="73" t="s">
-        <v>653</v>
-      </c>
-      <c r="P5" s="73" t="s">
+      <c r="Q5" s="73" t="s">
+        <v>519</v>
+      </c>
+      <c r="R5" s="74" t="s">
         <v>521</v>
       </c>
-      <c r="Q5" s="73" t="s">
-        <v>523</v>
-      </c>
-      <c r="R5" s="74" t="s">
-        <v>525</v>
-      </c>
       <c r="S5" s="74" t="s">
+        <v>527</v>
+      </c>
+      <c r="T5" s="74" t="s">
+        <v>528</v>
+      </c>
+      <c r="U5" s="75" t="s">
+        <v>529</v>
+      </c>
+      <c r="V5" s="75" t="s">
+        <v>530</v>
+      </c>
+      <c r="W5" s="75" t="s">
         <v>531</v>
       </c>
-      <c r="T5" s="74" t="s">
-        <v>532</v>
-      </c>
-      <c r="U5" s="75" t="s">
-        <v>533</v>
-      </c>
-      <c r="V5" s="75" t="s">
+      <c r="X5" s="80" t="s">
         <v>534</v>
       </c>
-      <c r="W5" s="75" t="s">
-        <v>535</v>
-      </c>
-      <c r="X5" s="80" t="s">
+      <c r="Y5" s="80" t="s">
+        <v>539</v>
+      </c>
+      <c r="Z5" s="80" t="s">
         <v>538</v>
       </c>
-      <c r="Y5" s="80" t="s">
-        <v>543</v>
-      </c>
-      <c r="Z5" s="80" t="s">
-        <v>542</v>
-      </c>
       <c r="AA5" s="101" t="s">
+        <v>575</v>
+      </c>
+      <c r="AB5" s="101" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC5" s="101" t="s">
+        <v>577</v>
+      </c>
+      <c r="AD5" s="112" t="s">
         <v>579</v>
       </c>
-      <c r="AB5" s="101" t="s">
-        <v>580</v>
-      </c>
-      <c r="AC5" s="101" t="s">
+      <c r="AE5" s="112" t="s">
         <v>581</v>
       </c>
-      <c r="AD5" s="112" t="s">
-        <v>583</v>
-      </c>
-      <c r="AE5" s="112" t="s">
-        <v>585</v>
-      </c>
       <c r="AF5" s="112" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="AG5" s="75" t="s">
+        <v>589</v>
+      </c>
+      <c r="AH5" s="75" t="s">
+        <v>588</v>
+      </c>
+      <c r="AI5" s="75" t="s">
+        <v>587</v>
+      </c>
+      <c r="AJ5" s="105" t="s">
         <v>593</v>
       </c>
-      <c r="AH5" s="75" t="s">
-        <v>592</v>
-      </c>
-      <c r="AI5" s="75" t="s">
-        <v>591</v>
-      </c>
-      <c r="AJ5" s="105" t="s">
-        <v>597</v>
-      </c>
       <c r="AK5" s="105" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="AL5" s="105" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="AM5" s="113" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="AN5" s="113" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="AO5" s="113" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="AP5" s="28" t="s">
         <v>78</v>
@@ -10962,19 +11181,19 @@
         <v>79</v>
       </c>
       <c r="AR5" s="116" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="AS5" s="116" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="AT5" s="116" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="AU5" s="49" t="s">
-        <v>903</v>
-      </c>
-      <c r="AV5" s="164" t="s">
-        <v>944</v>
+        <v>899</v>
+      </c>
+      <c r="AV5" s="165" t="s">
+        <v>940</v>
       </c>
       <c r="AW5" s="28" t="s">
         <v>73</v>
@@ -10986,7 +11205,7 @@
         <v>75</v>
       </c>
       <c r="AZ5" s="28" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="BA5" s="109" t="s">
         <v>70</v>
@@ -10995,22 +11214,22 @@
         <v>80</v>
       </c>
       <c r="BC5" s="28" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="BD5" s="28" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="BE5" s="28" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="BF5" s="28" t="s">
         <v>76</v>
       </c>
       <c r="BG5" s="28" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="BH5" s="28" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="BI5" s="28" t="s">
         <v>82</v>
@@ -11168,7 +11387,7 @@
         <v>5</v>
       </c>
       <c r="AV6" s="102" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AW6" s="30" t="s">
         <v>88</v>
@@ -11234,13 +11453,13 @@
         <v>90</v>
       </c>
       <c r="D7" s="104" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="E7" s="103" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>93</v>
@@ -11250,10 +11469,10 @@
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="35" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="L7" s="79">
         <v>0</v>
@@ -11263,16 +11482,16 @@
         <v>17280</v>
       </c>
       <c r="N7" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="O7" s="76">
         <v>0</v>
       </c>
       <c r="P7" s="76" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="Q7" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R7" s="90">
         <v>0</v>
@@ -11281,7 +11500,7 @@
         <v>30000000</v>
       </c>
       <c r="T7" s="86" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="U7" s="88">
         <v>0</v>
@@ -11290,21 +11509,21 @@
         <v>30000000</v>
       </c>
       <c r="W7" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X7" s="81">
         <v>1500</v>
       </c>
       <c r="Y7" s="81" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="Z7" s="84" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AA7" s="92"/>
       <c r="AB7" s="92"/>
       <c r="AC7" s="93" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AD7" s="95"/>
       <c r="AE7" s="95"/>
@@ -11335,7 +11554,7 @@
       <c r="BB7" s="35"/>
       <c r="BC7" s="35"/>
       <c r="BD7" s="31" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="BE7" s="31"/>
       <c r="BF7" s="35"/>
@@ -11364,7 +11583,7 @@
         <v>91</v>
       </c>
       <c r="E8" s="103" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>109</v>
@@ -11377,10 +11596,10 @@
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="35" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="L8" s="79" t="s">
         <v>91</v>
@@ -11389,52 +11608,52 @@
         <v>5760</v>
       </c>
       <c r="N8" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="O8" s="76" t="s">
         <v>116</v>
       </c>
       <c r="P8" s="76" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="Q8" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R8" s="90" t="s">
         <v>116</v>
       </c>
       <c r="S8" s="90" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="T8" s="86" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="U8" s="88" t="s">
         <v>116</v>
       </c>
       <c r="V8" s="88" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="W8" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X8" s="82">
         <v>250</v>
       </c>
       <c r="Y8" s="82" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="Z8" s="84" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AA8" s="92" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="AB8" s="92" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="AC8" s="93" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AD8" s="95"/>
       <c r="AE8" s="95"/>
@@ -11462,12 +11681,12 @@
       </c>
       <c r="AZ8" s="35"/>
       <c r="BA8" s="111" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="BB8" s="35"/>
       <c r="BC8" s="35"/>
       <c r="BD8" s="31" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="BE8" s="31"/>
       <c r="BF8" s="35"/>
@@ -11496,7 +11715,7 @@
         <v>91</v>
       </c>
       <c r="E9" s="103" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F9" s="35" t="s">
         <v>92</v>
@@ -11509,10 +11728,10 @@
       </c>
       <c r="I9" s="35"/>
       <c r="J9" s="35" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="L9" s="79">
         <v>1</v>
@@ -11521,43 +11740,43 @@
         <v>5760</v>
       </c>
       <c r="N9" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="O9" s="76" t="s">
         <v>103</v>
       </c>
       <c r="P9" s="76" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="Q9" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R9" s="90" t="s">
         <v>103</v>
       </c>
       <c r="S9" s="90" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="T9" s="86" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="U9" s="88" t="s">
         <v>103</v>
       </c>
       <c r="V9" s="88" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="W9" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X9" s="81" t="s">
         <v>105</v>
       </c>
       <c r="Y9" s="81" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="Z9" s="84" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AA9" s="92"/>
       <c r="AB9" s="92"/>
@@ -11588,12 +11807,12 @@
       </c>
       <c r="AZ9" s="35"/>
       <c r="BA9" s="111" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="BB9" s="35"/>
       <c r="BC9" s="35"/>
       <c r="BD9" s="36" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="BE9" s="36"/>
       <c r="BF9" s="35"/>
@@ -11616,13 +11835,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="D10" s="104" t="s">
         <v>91</v>
       </c>
       <c r="E10" s="103" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F10" s="35" t="s">
         <v>92</v>
@@ -11635,10 +11854,10 @@
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="35" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="L10" s="79">
         <v>1</v>
@@ -11647,52 +11866,52 @@
         <v>5760</v>
       </c>
       <c r="N10" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="O10" s="76" t="s">
         <v>107</v>
       </c>
       <c r="P10" s="76" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="Q10" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R10" s="90" t="s">
         <v>107</v>
       </c>
       <c r="S10" s="90" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="T10" s="86" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="U10" s="88" t="s">
         <v>107</v>
       </c>
       <c r="V10" s="88" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="W10" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X10" s="82">
         <v>500</v>
       </c>
       <c r="Y10" s="82" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="Z10" s="84" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AA10" s="92" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="AB10" s="92" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="AC10" s="93" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AD10" s="95"/>
       <c r="AE10" s="95"/>
@@ -11701,13 +11920,13 @@
       <c r="AH10" s="98"/>
       <c r="AI10" s="99"/>
       <c r="AJ10" s="106" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="AK10" s="106" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="AL10" s="107" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AM10" s="114"/>
       <c r="AN10" s="114"/>
@@ -11726,12 +11945,12 @@
       </c>
       <c r="AZ10" s="35"/>
       <c r="BA10" s="111" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="BB10" s="35"/>
       <c r="BC10" s="35"/>
       <c r="BD10" s="36" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="BE10" s="36"/>
       <c r="BF10" s="35"/>
@@ -11760,7 +11979,7 @@
         <v>91</v>
       </c>
       <c r="E11" s="103" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F11" s="35" t="s">
         <v>104</v>
@@ -11773,10 +11992,10 @@
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="35" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="L11" s="79">
         <v>1</v>
@@ -11785,43 +12004,43 @@
         <v>5760</v>
       </c>
       <c r="N11" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="O11" s="76">
         <v>0</v>
       </c>
       <c r="P11" s="76" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="Q11" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R11" s="90">
         <v>0</v>
       </c>
       <c r="S11" s="90" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="T11" s="86" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="U11" s="88">
         <v>0</v>
       </c>
       <c r="V11" s="88" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="W11" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X11" s="82">
         <v>580</v>
       </c>
       <c r="Y11" s="82" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="Z11" s="84" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AA11" s="92"/>
       <c r="AB11" s="92"/>
@@ -11833,13 +12052,13 @@
       <c r="AH11" s="98"/>
       <c r="AI11" s="99"/>
       <c r="AJ11" s="106" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="AK11" s="106" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="AL11" s="107" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AM11" s="114"/>
       <c r="AN11" s="114"/>
@@ -11858,12 +12077,12 @@
       </c>
       <c r="AZ11" s="36"/>
       <c r="BA11" s="111" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="BB11" s="36"/>
       <c r="BC11" s="36"/>
       <c r="BD11" s="31" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="BE11" s="36"/>
       <c r="BF11" s="36"/>
@@ -11874,25 +12093,25 @@
       <c r="BK11" s="36"/>
       <c r="BL11" s="36"/>
       <c r="BM11" s="36" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:65">
       <c r="A12" s="56" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B12" s="35">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D12" s="104" t="s">
         <v>100</v>
       </c>
       <c r="E12" s="103" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F12" s="35" t="s">
         <v>104</v>
@@ -11905,10 +12124,10 @@
       </c>
       <c r="I12" s="35"/>
       <c r="J12" s="35" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="L12" s="79">
         <v>1</v>
@@ -11917,7 +12136,7 @@
         <v>10080</v>
       </c>
       <c r="N12" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="O12" s="76"/>
       <c r="P12" s="76"/>
@@ -11926,37 +12145,37 @@
         <v>132</v>
       </c>
       <c r="S12" s="90" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="T12" s="86" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="U12" s="88" t="s">
         <v>132</v>
       </c>
       <c r="V12" s="88" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="W12" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X12" s="81">
         <v>400</v>
       </c>
       <c r="Y12" s="81" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="Z12" s="84" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="AA12" s="92" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="AB12" s="92" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AC12" s="93" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="AD12" s="95"/>
       <c r="AE12" s="95"/>
@@ -11984,15 +12203,15 @@
       </c>
       <c r="AZ12" s="35"/>
       <c r="BA12" s="111" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="BB12" s="35"/>
       <c r="BC12" s="35"/>
       <c r="BD12" s="36" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="BE12" s="37" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="BF12" s="35"/>
       <c r="BG12" s="35"/>
@@ -12002,25 +12221,25 @@
       <c r="BK12" s="35"/>
       <c r="BL12" s="35"/>
       <c r="BM12" s="36" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:65">
       <c r="A13" s="56" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B13" s="35">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D13" s="104" t="s">
         <v>100</v>
       </c>
       <c r="E13" s="103" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F13" s="35" t="s">
         <v>104</v>
@@ -12033,10 +12252,10 @@
       </c>
       <c r="I13" s="35"/>
       <c r="J13" s="35" t="s">
+        <v>711</v>
+      </c>
+      <c r="K13" s="35" t="s">
         <v>715</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>719</v>
       </c>
       <c r="L13" s="79">
         <v>1</v>
@@ -12045,7 +12264,7 @@
         <v>10080</v>
       </c>
       <c r="N13" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="O13" s="76"/>
       <c r="P13" s="76"/>
@@ -12054,37 +12273,37 @@
         <v>140</v>
       </c>
       <c r="S13" s="90" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="T13" s="86" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="U13" s="88" t="s">
         <v>140</v>
       </c>
       <c r="V13" s="88" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="W13" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X13" s="81" t="s">
         <v>113</v>
       </c>
       <c r="Y13" s="81" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="Z13" s="84" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AA13" s="92" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="AB13" s="92" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="AC13" s="93" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AD13" s="95"/>
       <c r="AE13" s="95"/>
@@ -12115,7 +12334,7 @@
       <c r="BB13" s="35"/>
       <c r="BC13" s="35"/>
       <c r="BD13" s="31" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="BE13" s="33"/>
       <c r="BF13" s="35"/>
@@ -12126,25 +12345,25 @@
       <c r="BK13" s="35"/>
       <c r="BL13" s="35"/>
       <c r="BM13" s="36" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:65">
       <c r="A14" s="56" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B14" s="35">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D14" s="104" t="s">
         <v>100</v>
       </c>
       <c r="E14" s="103" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>104</v>
@@ -12157,10 +12376,10 @@
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="35" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="L14" s="79">
         <v>1</v>
@@ -12169,16 +12388,16 @@
         <v>10080</v>
       </c>
       <c r="N14" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="O14" s="76" t="s">
         <v>132</v>
       </c>
       <c r="P14" s="76" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="Q14" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R14" s="90"/>
       <c r="S14" s="90"/>
@@ -12187,28 +12406,28 @@
         <v>132</v>
       </c>
       <c r="V14" s="88" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="W14" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X14" s="81">
         <v>400</v>
       </c>
       <c r="Y14" s="81" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="Z14" s="84" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="AA14" s="92" t="s">
+        <v>599</v>
+      </c>
+      <c r="AB14" s="92" t="s">
         <v>603</v>
       </c>
-      <c r="AB14" s="92" t="s">
-        <v>607</v>
-      </c>
       <c r="AC14" s="93" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="AD14" s="95"/>
       <c r="AE14" s="95"/>
@@ -12236,15 +12455,15 @@
       </c>
       <c r="AZ14" s="35"/>
       <c r="BA14" s="111" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="BB14" s="35"/>
       <c r="BC14" s="35"/>
       <c r="BD14" s="36" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="BE14" s="37" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="BF14" s="35"/>
       <c r="BG14" s="35"/>
@@ -12272,7 +12491,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="103" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F15" s="35" t="s">
         <v>104</v>
@@ -12285,10 +12504,10 @@
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="35" t="s">
+        <v>711</v>
+      </c>
+      <c r="K15" s="35" t="s">
         <v>715</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>719</v>
       </c>
       <c r="L15" s="79">
         <v>1</v>
@@ -12297,16 +12516,16 @@
         <v>10080</v>
       </c>
       <c r="N15" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="O15" s="76" t="s">
         <v>140</v>
       </c>
       <c r="P15" s="76" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="Q15" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R15" s="90"/>
       <c r="S15" s="90"/>
@@ -12315,28 +12534,28 @@
         <v>140</v>
       </c>
       <c r="V15" s="88" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="W15" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X15" s="81" t="s">
         <v>113</v>
       </c>
       <c r="Y15" s="81" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="Z15" s="84" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AA15" s="92" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="AB15" s="92" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="AC15" s="93" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AD15" s="95"/>
       <c r="AE15" s="95"/>
@@ -12367,7 +12586,7 @@
       <c r="BB15" s="35"/>
       <c r="BC15" s="35"/>
       <c r="BD15" s="31" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="BE15" s="33"/>
       <c r="BF15" s="35"/>
@@ -12396,7 +12615,7 @@
         <v>100</v>
       </c>
       <c r="E16" s="103" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>104</v>
@@ -12409,10 +12628,10 @@
       </c>
       <c r="I16" s="35"/>
       <c r="J16" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="L16" s="79">
         <v>1</v>
@@ -12421,25 +12640,25 @@
         <v>10080</v>
       </c>
       <c r="N16" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="O16" s="76">
         <v>150</v>
       </c>
       <c r="P16" s="76" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="Q16" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R16" s="90">
         <v>150</v>
       </c>
       <c r="S16" s="90" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="T16" s="86" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="U16" s="88"/>
       <c r="V16" s="88"/>
@@ -12448,19 +12667,19 @@
         <v>400</v>
       </c>
       <c r="Y16" s="81" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="Z16" s="84" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="AA16" s="92" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AB16" s="92" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="AC16" s="93" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AD16" s="95"/>
       <c r="AE16" s="95"/>
@@ -12488,15 +12707,15 @@
       </c>
       <c r="AZ16" s="35"/>
       <c r="BA16" s="111" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="BB16" s="35"/>
       <c r="BC16" s="35"/>
       <c r="BD16" s="31" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="BE16" s="33" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="BF16" s="35"/>
       <c r="BG16" s="35"/>
@@ -12524,7 +12743,7 @@
         <v>100</v>
       </c>
       <c r="E17" s="103" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F17" s="35" t="s">
         <v>104</v>
@@ -12537,10 +12756,10 @@
       </c>
       <c r="I17" s="35"/>
       <c r="J17" s="35" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="L17" s="79">
         <v>1</v>
@@ -12549,25 +12768,25 @@
         <v>10080</v>
       </c>
       <c r="N17" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="O17" s="76" t="s">
         <v>140</v>
       </c>
       <c r="P17" s="76" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="Q17" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R17" s="90" t="s">
         <v>140</v>
       </c>
       <c r="S17" s="90" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="T17" s="86" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="U17" s="88"/>
       <c r="V17" s="88"/>
@@ -12576,19 +12795,19 @@
         <v>113</v>
       </c>
       <c r="Y17" s="81" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="Z17" s="84" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AA17" s="92" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="AB17" s="92" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="AC17" s="93" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AD17" s="95"/>
       <c r="AE17" s="95"/>
@@ -12619,7 +12838,7 @@
       <c r="BB17" s="35"/>
       <c r="BC17" s="35"/>
       <c r="BD17" s="31" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="BE17" s="33"/>
       <c r="BF17" s="35"/>
@@ -12648,7 +12867,7 @@
         <v>177</v>
       </c>
       <c r="E18" s="103" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F18" s="35" t="s">
         <v>104</v>
@@ -12661,10 +12880,10 @@
       </c>
       <c r="I18" s="35"/>
       <c r="J18" s="35" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="L18" s="79">
         <f>60/60</f>
@@ -12674,43 +12893,43 @@
         <v>10080</v>
       </c>
       <c r="N18" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="O18" s="76">
         <v>250</v>
       </c>
       <c r="P18" s="76" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="Q18" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R18" s="90">
         <v>250</v>
       </c>
       <c r="S18" s="90" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="T18" s="86" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="U18" s="88">
         <v>250</v>
       </c>
       <c r="V18" s="88" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="W18" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X18" s="81">
         <v>400</v>
       </c>
       <c r="Y18" s="81" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="Z18" s="84" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="AA18" s="92"/>
       <c r="AB18" s="92"/>
@@ -12731,7 +12950,7 @@
         <v>141</v>
       </c>
       <c r="AO18" s="115" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AP18" s="35"/>
       <c r="AQ18" s="34" t="s">
@@ -12741,10 +12960,10 @@
         <v>7</v>
       </c>
       <c r="AS18" s="117" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="AT18" s="118" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AU18" s="36"/>
       <c r="AV18" s="36"/>
@@ -12757,17 +12976,17 @@
         <v>91</v>
       </c>
       <c r="BA18" s="111" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="BB18" s="34"/>
       <c r="BC18" s="34"/>
       <c r="BD18" s="34" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="BE18" s="34"/>
       <c r="BF18" s="34"/>
       <c r="BG18" s="34" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="BH18" s="34"/>
       <c r="BI18" s="34" t="s">
@@ -12794,10 +13013,10 @@
         <v>155</v>
       </c>
       <c r="D19" s="104" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E19" s="103" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F19" s="35" t="s">
         <v>104</v>
@@ -12810,10 +13029,10 @@
       </c>
       <c r="I19" s="35"/>
       <c r="J19" s="35" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="L19" s="79">
         <f t="shared" ref="L19:L31" si="1">60/60</f>
@@ -12823,43 +13042,43 @@
         <v>10080</v>
       </c>
       <c r="N19" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="O19" s="76">
         <v>1000</v>
       </c>
       <c r="P19" s="76" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="Q19" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R19" s="90">
         <v>1000</v>
       </c>
       <c r="S19" s="90" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="T19" s="86" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="U19" s="88">
         <v>1000</v>
       </c>
       <c r="V19" s="88" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="W19" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X19" s="81">
         <v>400</v>
       </c>
       <c r="Y19" s="81" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="Z19" s="84" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="AA19" s="92"/>
       <c r="AB19" s="92"/>
@@ -12880,7 +13099,7 @@
         <v>156</v>
       </c>
       <c r="AO19" s="115" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AP19" s="35"/>
       <c r="AQ19" s="32" t="s">
@@ -12890,10 +13109,10 @@
         <v>11</v>
       </c>
       <c r="AS19" s="117" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="AT19" s="118" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AU19" s="36"/>
       <c r="AV19" s="36"/>
@@ -12906,17 +13125,17 @@
         <v>110</v>
       </c>
       <c r="BA19" s="111" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="BB19" s="32"/>
       <c r="BC19" s="32"/>
       <c r="BD19" s="36" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="BE19" s="36"/>
       <c r="BF19" s="32"/>
       <c r="BG19" s="36" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="BH19" s="36"/>
       <c r="BI19" s="35" t="s">
@@ -12946,7 +13165,7 @@
         <v>177</v>
       </c>
       <c r="E20" s="103" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F20" s="35" t="s">
         <v>104</v>
@@ -12959,10 +13178,10 @@
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="35" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="L20" s="79">
         <f t="shared" si="1"/>
@@ -12972,43 +13191,43 @@
         <v>10080</v>
       </c>
       <c r="N20" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="O20" s="76" t="s">
         <v>160</v>
       </c>
       <c r="P20" s="76" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="Q20" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R20" s="90" t="s">
         <v>160</v>
       </c>
       <c r="S20" s="90" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="T20" s="86" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="U20" s="88" t="s">
         <v>160</v>
       </c>
       <c r="V20" s="88" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="W20" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X20" s="81">
         <v>400</v>
       </c>
       <c r="Y20" s="81" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="Z20" s="84" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AA20" s="92"/>
       <c r="AB20" s="92"/>
@@ -13029,25 +13248,25 @@
         <v>125</v>
       </c>
       <c r="AO20" s="115" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AP20" s="35" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="AQ20" s="34" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="AR20" s="117">
         <v>20</v>
       </c>
       <c r="AS20" s="117" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="AT20" s="118" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="AU20" s="36" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="AV20" s="36"/>
       <c r="AW20" s="34"/>
@@ -13059,17 +13278,17 @@
         <v>100</v>
       </c>
       <c r="BA20" s="111" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="BB20" s="34"/>
       <c r="BC20" s="34"/>
       <c r="BD20" s="34" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="BE20" s="34"/>
       <c r="BF20" s="34"/>
       <c r="BG20" s="34" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="BH20" s="34"/>
       <c r="BI20" s="34" t="s">
@@ -13096,10 +13315,10 @@
         <v>163</v>
       </c>
       <c r="D21" s="104" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E21" s="103" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F21" s="35" t="s">
         <v>104</v>
@@ -13112,10 +13331,10 @@
       </c>
       <c r="I21" s="35"/>
       <c r="J21" s="35" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="L21" s="79">
         <f t="shared" si="1"/>
@@ -13125,43 +13344,43 @@
         <v>10080</v>
       </c>
       <c r="N21" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="O21" s="76">
         <v>22500</v>
       </c>
       <c r="P21" s="76" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="Q21" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R21" s="90">
         <v>22500</v>
       </c>
       <c r="S21" s="90" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="T21" s="86" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="U21" s="88">
         <v>22500</v>
       </c>
       <c r="V21" s="88" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="W21" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X21" s="81" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="Y21" s="81" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="Z21" s="84" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AA21" s="92"/>
       <c r="AB21" s="92"/>
@@ -13176,13 +13395,13 @@
       <c r="AK21" s="106"/>
       <c r="AL21" s="107"/>
       <c r="AM21" s="114" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="AN21" s="114" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="AO21" s="115" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AP21" s="35"/>
       <c r="AQ21" s="32" t="s">
@@ -13192,10 +13411,10 @@
         <v>80</v>
       </c>
       <c r="AS21" s="117" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="AT21" s="118" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="AU21" s="36"/>
       <c r="AV21" s="36"/>
@@ -13205,20 +13424,20 @@
         <v>93</v>
       </c>
       <c r="AZ21" s="32" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="BA21" s="111" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="BB21" s="32"/>
       <c r="BC21" s="32"/>
       <c r="BD21" s="36" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="BE21" s="36"/>
       <c r="BF21" s="32"/>
       <c r="BG21" s="36" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="BH21" s="36"/>
       <c r="BI21" s="32" t="s">
@@ -13242,13 +13461,13 @@
         <v>16</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D22" s="104" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E22" s="103" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F22" s="35" t="s">
         <v>104</v>
@@ -13261,10 +13480,10 @@
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="35" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="L22" s="79">
         <f t="shared" si="1"/>
@@ -13274,43 +13493,43 @@
         <v>10080</v>
       </c>
       <c r="N22" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="O22" s="77" t="s">
         <v>166</v>
       </c>
       <c r="P22" s="76" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="Q22" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R22" s="90" t="s">
         <v>166</v>
       </c>
       <c r="S22" s="90" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="T22" s="86" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="U22" s="88" t="s">
         <v>166</v>
       </c>
       <c r="V22" s="88" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="W22" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X22" s="82" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="Y22" s="82" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="Z22" s="84" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AA22" s="92"/>
       <c r="AB22" s="92"/>
@@ -13325,31 +13544,31 @@
       <c r="AK22" s="106"/>
       <c r="AL22" s="107"/>
       <c r="AM22" s="114" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="AN22" s="114" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="AO22" s="115" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AP22" s="35" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="AQ22" s="34" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="AR22" s="119" t="s">
         <v>167</v>
       </c>
       <c r="AS22" s="119" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="AT22" s="118" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AU22" s="36" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="AV22" s="36"/>
       <c r="AW22" s="34"/>
@@ -13358,20 +13577,20 @@
         <v>93</v>
       </c>
       <c r="AZ22" s="34" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="BA22" s="111" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="BB22" s="34"/>
       <c r="BC22" s="34"/>
       <c r="BD22" s="34" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="BE22" s="34"/>
       <c r="BF22" s="34"/>
       <c r="BG22" s="36" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="BH22" s="36"/>
       <c r="BI22" s="34" t="s">
@@ -13395,13 +13614,13 @@
         <v>17</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D23" s="104" t="s">
         <v>177</v>
       </c>
       <c r="E23" s="103" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F23" s="35" t="s">
         <v>104</v>
@@ -13414,10 +13633,10 @@
       </c>
       <c r="I23" s="35"/>
       <c r="J23" s="35" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="L23" s="79">
         <f t="shared" si="1"/>
@@ -13427,43 +13646,43 @@
         <v>10080</v>
       </c>
       <c r="N23" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="O23" s="76" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="P23" s="76" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="Q23" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R23" s="90" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="S23" s="90" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="T23" s="86" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="U23" s="88" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="V23" s="88" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="W23" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X23" s="81" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="Y23" s="81" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="Z23" s="84" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="AA23" s="92"/>
       <c r="AB23" s="92"/>
@@ -13484,7 +13703,7 @@
         <v>141</v>
       </c>
       <c r="AO23" s="115" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AP23" s="35"/>
       <c r="AQ23" s="32" t="s">
@@ -13494,10 +13713,10 @@
         <v>20</v>
       </c>
       <c r="AS23" s="117" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="AT23" s="118" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AU23" s="36"/>
       <c r="AV23" s="36"/>
@@ -13510,17 +13729,17 @@
         <v>109</v>
       </c>
       <c r="BA23" s="111" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="BB23" s="32"/>
       <c r="BC23" s="32"/>
       <c r="BD23" s="36" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="BE23" s="36"/>
       <c r="BF23" s="32"/>
       <c r="BG23" s="32" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="BH23" s="32"/>
       <c r="BI23" s="32" t="s">
@@ -13550,7 +13769,7 @@
         <v>177</v>
       </c>
       <c r="E24" s="103" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F24" s="35" t="s">
         <v>177</v>
@@ -13563,10 +13782,10 @@
       </c>
       <c r="I24" s="35"/>
       <c r="J24" s="35" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="L24" s="79">
         <f t="shared" si="1"/>
@@ -13577,43 +13796,43 @@
         <v>17280</v>
       </c>
       <c r="N24" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="O24" s="76">
         <v>2500000</v>
       </c>
       <c r="P24" s="76" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="Q24" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R24" s="90">
         <v>2500000</v>
       </c>
       <c r="S24" s="90" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="T24" s="86" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="U24" s="88">
         <v>2500000</v>
       </c>
       <c r="V24" s="88" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="W24" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X24" s="81">
         <v>1500</v>
       </c>
       <c r="Y24" s="81" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="Z24" s="84" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="AA24" s="92"/>
       <c r="AB24" s="92"/>
@@ -13634,22 +13853,22 @@
         <v>180</v>
       </c>
       <c r="AO24" s="115" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AP24" s="35" t="s">
         <v>181</v>
       </c>
       <c r="AQ24" s="36" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="AR24" s="117" t="s">
         <v>175</v>
       </c>
       <c r="AS24" s="117" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="AT24" s="118" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="AU24" s="36"/>
       <c r="AV24" s="36"/>
@@ -13659,20 +13878,20 @@
         <v>179</v>
       </c>
       <c r="AZ24" s="36" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="BA24" s="111" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="BB24" s="36"/>
       <c r="BC24" s="36"/>
       <c r="BD24" s="31" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="BE24" s="36"/>
       <c r="BF24" s="36"/>
       <c r="BG24" s="36" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="BH24" s="36"/>
       <c r="BI24" s="32" t="s">
@@ -13699,10 +13918,10 @@
         <v>185</v>
       </c>
       <c r="D25" s="104" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E25" s="103" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F25" s="35" t="s">
         <v>91</v>
@@ -13717,10 +13936,10 @@
         <v>93</v>
       </c>
       <c r="J25" s="35" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="L25" s="79">
         <f t="shared" si="1"/>
@@ -13730,34 +13949,34 @@
         <v>10080</v>
       </c>
       <c r="N25" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="O25" s="76" t="s">
         <v>186</v>
       </c>
       <c r="P25" s="76" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="Q25" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R25" s="90" t="s">
         <v>186</v>
       </c>
       <c r="S25" s="90" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="T25" s="86" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="U25" s="88" t="s">
         <v>186</v>
       </c>
       <c r="V25" s="88" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="W25" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X25" s="83"/>
       <c r="Y25" s="83"/>
@@ -13772,22 +13991,22 @@
       <c r="AH25" s="98"/>
       <c r="AI25" s="99"/>
       <c r="AJ25" s="38" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="AK25" s="38" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="AL25" s="107" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AM25" s="114" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="AN25" s="114" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="AO25" s="115" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AP25" s="35"/>
       <c r="AQ25" s="38" t="s">
@@ -13797,10 +14016,10 @@
         <v>188</v>
       </c>
       <c r="AS25" s="120" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="AT25" s="118" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AU25" s="36" t="s">
         <v>140</v>
@@ -13818,13 +14037,13 @@
       <c r="BB25" s="38"/>
       <c r="BC25" s="38"/>
       <c r="BD25" s="31" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="BE25" s="36"/>
       <c r="BF25" s="36"/>
       <c r="BG25" s="36"/>
       <c r="BH25" s="36" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="BI25" s="38" t="s">
         <v>118</v>
@@ -13847,13 +14066,13 @@
         <v>20</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="D26" s="104" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E26" s="103" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F26" s="35" t="s">
         <v>91</v>
@@ -13868,10 +14087,10 @@
         <v>93</v>
       </c>
       <c r="J26" s="35" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="K26" s="35" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="L26" s="79">
         <f t="shared" si="1"/>
@@ -13881,34 +14100,34 @@
         <v>10080</v>
       </c>
       <c r="N26" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="O26" s="76" t="s">
         <v>113</v>
       </c>
       <c r="P26" s="76" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="Q26" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R26" s="90" t="s">
         <v>113</v>
       </c>
       <c r="S26" s="90" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="T26" s="86" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="U26" s="88" t="s">
         <v>113</v>
       </c>
       <c r="V26" s="88" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="W26" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X26" s="83"/>
       <c r="Y26" s="83"/>
@@ -13923,35 +14142,35 @@
       <c r="AH26" s="98"/>
       <c r="AI26" s="99"/>
       <c r="AJ26" s="36" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="AK26" s="36" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="AL26" s="107" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AM26" s="114" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="AN26" s="114" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="AO26" s="115" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AP26" s="35"/>
       <c r="AQ26" s="36" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="AR26" s="120" t="s">
         <v>123</v>
       </c>
       <c r="AS26" s="120" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="AT26" s="118" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="AU26" s="36" t="s">
         <v>140</v>
@@ -13969,13 +14188,13 @@
       <c r="BB26" s="36"/>
       <c r="BC26" s="36"/>
       <c r="BD26" s="31" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="BE26" s="36"/>
       <c r="BF26" s="36"/>
       <c r="BG26" s="36"/>
       <c r="BH26" s="36" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="BI26" s="32" t="s">
         <v>93</v>
@@ -14004,7 +14223,7 @@
         <v>175</v>
       </c>
       <c r="E27" s="103" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F27" s="35" t="s">
         <v>91</v>
@@ -14019,10 +14238,10 @@
         <v>93</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="L27" s="79">
         <f t="shared" si="1"/>
@@ -14032,34 +14251,34 @@
         <v>10080</v>
       </c>
       <c r="N27" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="O27" s="76" t="s">
         <v>186</v>
       </c>
       <c r="P27" s="76" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="Q27" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R27" s="90" t="s">
         <v>186</v>
       </c>
       <c r="S27" s="90" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="T27" s="86" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="U27" s="88" t="s">
         <v>186</v>
       </c>
       <c r="V27" s="88" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="W27" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X27" s="83"/>
       <c r="Y27" s="83"/>
@@ -14074,22 +14293,22 @@
       <c r="AH27" s="98"/>
       <c r="AI27" s="99"/>
       <c r="AJ27" s="36" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="AK27" s="36" t="s">
         <v>116</v>
       </c>
       <c r="AL27" s="107" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AM27" s="114" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="AN27" s="114" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="AO27" s="115" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AP27" s="35"/>
       <c r="AQ27" s="38" t="s">
@@ -14099,10 +14318,10 @@
         <v>188</v>
       </c>
       <c r="AS27" s="120" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="AT27" s="118" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AU27" s="36" t="s">
         <v>140</v>
@@ -14120,13 +14339,13 @@
       <c r="BB27" s="36"/>
       <c r="BC27" s="36"/>
       <c r="BD27" s="31" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="BE27" s="36"/>
       <c r="BF27" s="36"/>
       <c r="BG27" s="36"/>
       <c r="BH27" s="36" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="BI27" s="36" t="s">
         <v>118</v>
@@ -14149,13 +14368,13 @@
         <v>22</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="D28" s="104" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E28" s="103" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F28" s="35" t="s">
         <v>91</v>
@@ -14170,10 +14389,10 @@
         <v>93</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="K28" s="35" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="L28" s="79">
         <f t="shared" si="1"/>
@@ -14183,34 +14402,34 @@
         <v>10080</v>
       </c>
       <c r="N28" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="O28" s="76" t="s">
         <v>144</v>
       </c>
       <c r="P28" s="76" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="Q28" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R28" s="90" t="s">
         <v>144</v>
       </c>
       <c r="S28" s="90" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="T28" s="86" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="U28" s="88" t="s">
         <v>144</v>
       </c>
       <c r="V28" s="88" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="W28" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X28" s="83"/>
       <c r="Y28" s="83"/>
@@ -14219,10 +14438,10 @@
         <v>121</v>
       </c>
       <c r="AB28" s="92" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="AC28" s="93" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AD28" s="95"/>
       <c r="AE28" s="95"/>
@@ -14237,33 +14456,33 @@
         <v>116</v>
       </c>
       <c r="AL28" s="107" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AM28" s="114" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="AN28" s="114" t="s">
         <v>187</v>
       </c>
       <c r="AO28" s="115" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AP28" s="35"/>
       <c r="AQ28" s="38" t="s">
         <v>187</v>
       </c>
       <c r="AR28" s="120" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="AS28" s="120" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="AT28" s="118" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AU28" s="36"/>
       <c r="AV28" s="36" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="AW28" s="35" t="s">
         <v>93</v>
@@ -14277,7 +14496,7 @@
       <c r="BB28" s="36"/>
       <c r="BC28" s="36"/>
       <c r="BD28" s="31" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="BE28" s="36"/>
       <c r="BF28" s="36"/>
@@ -14307,10 +14526,10 @@
         <v>200</v>
       </c>
       <c r="D29" s="104" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F29" s="35" t="s">
         <v>91</v>
@@ -14325,10 +14544,10 @@
         <v>93</v>
       </c>
       <c r="J29" s="35" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="K29" s="35" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="L29" s="79">
         <f t="shared" si="1"/>
@@ -14338,34 +14557,34 @@
         <v>10080</v>
       </c>
       <c r="N29" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="O29" s="76" t="s">
         <v>201</v>
       </c>
       <c r="P29" s="76" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="Q29" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R29" s="90" t="s">
         <v>201</v>
       </c>
       <c r="S29" s="90" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="T29" s="86" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="U29" s="88" t="s">
         <v>201</v>
       </c>
       <c r="V29" s="88" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="W29" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X29" s="83"/>
       <c r="Y29" s="83"/>
@@ -14374,10 +14593,10 @@
         <v>156</v>
       </c>
       <c r="AB29" s="92" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="AC29" s="93" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AD29" s="95"/>
       <c r="AE29" s="95"/>
@@ -14386,39 +14605,39 @@
       <c r="AH29" s="98"/>
       <c r="AI29" s="99"/>
       <c r="AJ29" s="36" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="AK29" s="36" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="AL29" s="107" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AM29" s="114" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="AN29" s="114" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="AO29" s="115" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AP29" s="35"/>
       <c r="AQ29" s="38" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="AR29" s="120" t="s">
         <v>91</v>
       </c>
       <c r="AS29" s="120" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="AT29" s="118" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AU29" s="36"/>
       <c r="AV29" s="36" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AW29" s="35" t="s">
         <v>93</v>
@@ -14432,13 +14651,13 @@
       <c r="BB29" s="36"/>
       <c r="BC29" s="36"/>
       <c r="BD29" s="31" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="BE29" s="36"/>
       <c r="BF29" s="36"/>
       <c r="BG29" s="36"/>
       <c r="BH29" s="36" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="BI29" s="32" t="s">
         <v>93</v>
@@ -14461,13 +14680,13 @@
         <v>24</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D30" s="104" t="s">
         <v>175</v>
       </c>
       <c r="E30" s="103" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F30" s="35" t="s">
         <v>91</v>
@@ -14491,34 +14710,34 @@
         <v>10080</v>
       </c>
       <c r="N30" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="O30" s="76" t="s">
         <v>127</v>
       </c>
       <c r="P30" s="76" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="Q30" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R30" s="90" t="s">
         <v>127</v>
       </c>
       <c r="S30" s="90" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="T30" s="86" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="U30" s="88" t="s">
         <v>127</v>
       </c>
       <c r="V30" s="88" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="W30" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X30" s="83"/>
       <c r="Y30" s="83"/>
@@ -14536,32 +14755,32 @@
         <v>123</v>
       </c>
       <c r="AK30" s="36" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="AL30" s="107" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AM30" s="114" t="s">
         <v>123</v>
       </c>
       <c r="AN30" s="114" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="AO30" s="115" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="AP30" s="35"/>
       <c r="AQ30" s="38" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="AR30" s="120" t="s">
         <v>95</v>
       </c>
       <c r="AS30" s="120" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="AT30" s="118" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AU30" s="36"/>
       <c r="AV30" s="36"/>
@@ -14577,13 +14796,13 @@
       <c r="BB30" s="36"/>
       <c r="BC30" s="36"/>
       <c r="BD30" s="31" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="BE30" s="36"/>
       <c r="BF30" s="36"/>
       <c r="BG30" s="36"/>
       <c r="BH30" s="36" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="BI30" s="32" t="s">
         <v>118</v>
@@ -14612,7 +14831,7 @@
         <v>175</v>
       </c>
       <c r="E31" s="103" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F31" s="35" t="s">
         <v>91</v>
@@ -14627,10 +14846,10 @@
         <v>93</v>
       </c>
       <c r="J31" s="35" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="K31" s="35" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="L31" s="79">
         <f t="shared" si="1"/>
@@ -14640,34 +14859,34 @@
         <v>10080</v>
       </c>
       <c r="N31" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="O31" s="76" t="s">
         <v>129</v>
       </c>
       <c r="P31" s="76" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="Q31" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R31" s="90" t="s">
         <v>129</v>
       </c>
       <c r="S31" s="90" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="T31" s="86" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="U31" s="88" t="s">
         <v>129</v>
       </c>
       <c r="V31" s="88" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="W31" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X31" s="83"/>
       <c r="Y31" s="83"/>
@@ -14676,10 +14895,10 @@
         <v>156</v>
       </c>
       <c r="AB31" s="92" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="AC31" s="93" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AD31" s="95"/>
       <c r="AE31" s="95"/>
@@ -14688,26 +14907,26 @@
       <c r="AH31" s="98"/>
       <c r="AI31" s="99"/>
       <c r="AJ31" s="36" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="AK31" s="36" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AL31" s="107" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AM31" s="114" t="s">
         <v>116</v>
       </c>
       <c r="AN31" s="114" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="AO31" s="115" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AP31" s="35"/>
       <c r="AQ31" s="38" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="AR31" s="120" t="s">
         <v>95</v>
@@ -14716,11 +14935,11 @@
         <v>95</v>
       </c>
       <c r="AT31" s="118" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AU31" s="36"/>
       <c r="AV31" s="36" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="AW31" s="35" t="s">
         <v>93</v>
@@ -14734,13 +14953,13 @@
       <c r="BB31" s="36"/>
       <c r="BC31" s="36"/>
       <c r="BD31" s="31" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="BE31" s="36"/>
       <c r="BF31" s="36"/>
       <c r="BG31" s="36"/>
       <c r="BH31" s="36" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="BI31" s="36" t="s">
         <v>93</v>
@@ -14766,13 +14985,13 @@
         <v>219</v>
       </c>
       <c r="D32" s="104" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E32" s="103" t="s">
         <v>91</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>118</v>
@@ -14793,7 +15012,7 @@
         <v>100000</v>
       </c>
       <c r="Q32" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R32" s="90"/>
       <c r="S32" s="90"/>
@@ -14805,7 +15024,7 @@
         <v>100000</v>
       </c>
       <c r="W32" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X32" s="82"/>
       <c r="Y32" s="82"/>
@@ -14840,7 +15059,7 @@
       <c r="BB32" s="36"/>
       <c r="BC32" s="36"/>
       <c r="BD32" s="36" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="BE32" s="36"/>
       <c r="BF32" s="36"/>
@@ -14866,13 +15085,13 @@
         <v>222</v>
       </c>
       <c r="D33" s="104" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E33" s="103" t="s">
         <v>91</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>118</v>
@@ -14893,7 +15112,7 @@
         <v>100000</v>
       </c>
       <c r="Q33" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R33" s="90"/>
       <c r="S33" s="90"/>
@@ -14905,7 +15124,7 @@
         <v>100000</v>
       </c>
       <c r="W33" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X33" s="82"/>
       <c r="Y33" s="82"/>
@@ -14940,7 +15159,7 @@
       <c r="BB33" s="36"/>
       <c r="BC33" s="36"/>
       <c r="BD33" s="36" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="BE33" s="36"/>
       <c r="BF33" s="36"/>
@@ -14966,13 +15185,13 @@
         <v>225</v>
       </c>
       <c r="D34" s="104" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E34" s="103" t="s">
         <v>91</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>118</v>
@@ -14993,7 +15212,7 @@
         <v>100000</v>
       </c>
       <c r="Q34" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R34" s="90"/>
       <c r="S34" s="90"/>
@@ -15005,7 +15224,7 @@
         <v>100000</v>
       </c>
       <c r="W34" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X34" s="82"/>
       <c r="Y34" s="82"/>
@@ -15040,7 +15259,7 @@
       <c r="BB34" s="36"/>
       <c r="BC34" s="36"/>
       <c r="BD34" s="36" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="BE34" s="36"/>
       <c r="BF34" s="36"/>
@@ -15066,13 +15285,13 @@
         <v>228</v>
       </c>
       <c r="D35" s="104" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E35" s="103" t="s">
         <v>91</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>118</v>
@@ -15093,7 +15312,7 @@
         <v>100000</v>
       </c>
       <c r="Q35" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R35" s="90"/>
       <c r="S35" s="90"/>
@@ -15105,7 +15324,7 @@
         <v>100000</v>
       </c>
       <c r="W35" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X35" s="82"/>
       <c r="Y35" s="82"/>
@@ -15140,7 +15359,7 @@
       <c r="BB35" s="36"/>
       <c r="BC35" s="36"/>
       <c r="BD35" s="36" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="BE35" s="36"/>
       <c r="BF35" s="36"/>
@@ -15166,13 +15385,13 @@
         <v>231</v>
       </c>
       <c r="D36" s="104" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E36" s="103" t="s">
         <v>91</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>118</v>
@@ -15193,7 +15412,7 @@
         <v>100000</v>
       </c>
       <c r="Q36" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R36" s="90"/>
       <c r="S36" s="90"/>
@@ -15205,7 +15424,7 @@
         <v>100000</v>
       </c>
       <c r="W36" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X36" s="82"/>
       <c r="Y36" s="82"/>
@@ -15240,7 +15459,7 @@
       <c r="BB36" s="36"/>
       <c r="BC36" s="36"/>
       <c r="BD36" s="36" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="BE36" s="36"/>
       <c r="BF36" s="36"/>
@@ -15266,7 +15485,7 @@
         <v>234</v>
       </c>
       <c r="D37" s="104" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E37" s="103" t="s">
         <v>91</v>
@@ -15282,10 +15501,10 @@
       </c>
       <c r="I37" s="35"/>
       <c r="J37" s="35" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="K37" s="35" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="L37" s="79"/>
       <c r="M37" s="79"/>
@@ -15297,7 +15516,7 @@
         <v>200000</v>
       </c>
       <c r="Q37" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R37" s="90">
         <v>200000</v>
@@ -15306,7 +15525,7 @@
         <v>200000</v>
       </c>
       <c r="T37" s="86" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="U37" s="88">
         <v>200000</v>
@@ -15315,7 +15534,7 @@
         <v>200000</v>
       </c>
       <c r="W37" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X37" s="82"/>
       <c r="Y37" s="82"/>
@@ -15350,7 +15569,7 @@
       <c r="BB37" s="36"/>
       <c r="BC37" s="36"/>
       <c r="BD37" s="36" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="BE37" s="36"/>
       <c r="BF37" s="36"/>
@@ -15376,7 +15595,7 @@
         <v>150</v>
       </c>
       <c r="D38" s="104" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E38" s="103" t="s">
         <v>91</v>
@@ -15394,10 +15613,10 @@
         <v>93</v>
       </c>
       <c r="J38" s="35" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="K38" s="35" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="L38" s="79"/>
       <c r="M38" s="79"/>
@@ -15444,7 +15663,7 @@
       <c r="BB38" s="36"/>
       <c r="BC38" s="36"/>
       <c r="BD38" s="36" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="BE38" s="36"/>
       <c r="BF38" s="36"/>
@@ -15468,7 +15687,7 @@
         <v>212</v>
       </c>
       <c r="D39" s="104" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E39" s="103" t="s">
         <v>91</v>
@@ -15486,10 +15705,10 @@
         <v>93</v>
       </c>
       <c r="J39" s="35" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="K39" s="35" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="L39" s="79"/>
       <c r="M39" s="79"/>
@@ -15536,7 +15755,7 @@
       <c r="BB39" s="36"/>
       <c r="BC39" s="36"/>
       <c r="BD39" s="36" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="BE39" s="36"/>
       <c r="BF39" s="36"/>
@@ -15562,7 +15781,7 @@
         <v>216</v>
       </c>
       <c r="D40" s="104" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E40" s="103" t="s">
         <v>91</v>
@@ -15580,10 +15799,10 @@
         <v>93</v>
       </c>
       <c r="J40" s="35" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="K40" s="35" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="L40" s="79"/>
       <c r="M40" s="79"/>
@@ -15630,7 +15849,7 @@
       <c r="BB40" s="36"/>
       <c r="BC40" s="36"/>
       <c r="BD40" s="36" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="BE40" s="36"/>
       <c r="BF40" s="36"/>
@@ -15656,7 +15875,7 @@
         <v>237</v>
       </c>
       <c r="D41" s="104" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E41" s="103" t="s">
         <v>91</v>
@@ -15674,10 +15893,10 @@
         <v>93</v>
       </c>
       <c r="J41" s="35" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="K41" s="35" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="L41" s="79"/>
       <c r="M41" s="79"/>
@@ -15724,7 +15943,7 @@
       <c r="BB41" s="36"/>
       <c r="BC41" s="36"/>
       <c r="BD41" s="36" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="BE41" s="36"/>
       <c r="BF41" s="36"/>
@@ -15750,7 +15969,7 @@
         <v>240</v>
       </c>
       <c r="D42" s="104" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E42" s="103" t="s">
         <v>91</v>
@@ -15768,10 +15987,10 @@
         <v>93</v>
       </c>
       <c r="J42" s="35" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="K42" s="35" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="L42" s="79"/>
       <c r="M42" s="79"/>
@@ -15818,7 +16037,7 @@
       <c r="BB42" s="36"/>
       <c r="BC42" s="36"/>
       <c r="BD42" s="36" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="BE42" s="36"/>
       <c r="BF42" s="36"/>
@@ -15834,23 +16053,23 @@
     </row>
     <row r="43" spans="1:65">
       <c r="A43" s="60" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B43" s="62">
         <f>ROW()-6</f>
         <v>37</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D43" s="104" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="E43" s="103" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>93</v>
@@ -15860,10 +16079,10 @@
       </c>
       <c r="I43" s="35"/>
       <c r="J43" s="35" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="K43" s="35" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="L43" s="79">
         <v>0</v>
@@ -15872,43 +16091,43 @@
         <v>5760</v>
       </c>
       <c r="N43" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="O43" s="76" t="s">
         <v>116</v>
       </c>
       <c r="P43" s="76" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="Q43" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R43" s="91" t="s">
         <v>116</v>
       </c>
       <c r="S43" s="91" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="T43" s="86" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="U43" s="89" t="s">
         <v>116</v>
       </c>
       <c r="V43" s="89" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="W43" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X43" s="81" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="Y43" s="81" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="Z43" s="84" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AA43" s="92"/>
       <c r="AB43" s="92"/>
@@ -15942,7 +16161,7 @@
       <c r="BB43" s="35"/>
       <c r="BC43" s="35"/>
       <c r="BD43" s="31" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="BE43" s="36"/>
       <c r="BF43" s="35"/>
@@ -15953,28 +16172,28 @@
       <c r="BK43" s="35"/>
       <c r="BL43" s="35"/>
       <c r="BM43" s="31" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="44" spans="1:65">
       <c r="A44" s="61" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B44" s="62">
         <f>ROW()-6</f>
         <v>38</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D44" s="104" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="E44" s="103" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>93</v>
@@ -15984,10 +16203,10 @@
       </c>
       <c r="I44" s="35"/>
       <c r="J44" s="35" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="K44" s="35" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="L44" s="79">
         <v>0</v>
@@ -15996,43 +16215,43 @@
         <v>5760</v>
       </c>
       <c r="N44" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="O44" s="76" t="s">
         <v>116</v>
       </c>
       <c r="P44" s="76" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="Q44" s="87" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R44" s="91" t="s">
         <v>116</v>
       </c>
       <c r="S44" s="91" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="T44" s="86" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="U44" s="89" t="s">
         <v>116</v>
       </c>
       <c r="V44" s="89" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="W44" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X44" s="81" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="Y44" s="81" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="Z44" s="84" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AA44" s="92"/>
       <c r="AB44" s="92"/>
@@ -16066,7 +16285,7 @@
       <c r="BB44" s="35"/>
       <c r="BC44" s="35"/>
       <c r="BD44" s="31" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="BE44" s="36"/>
       <c r="BF44" s="35"/>
@@ -16077,22 +16296,22 @@
       <c r="BK44" s="35"/>
       <c r="BL44" s="35"/>
       <c r="BM44" s="31" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="45" spans="1:65">
       <c r="A45" s="61" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B45" s="62">
         <f>ROW()-6</f>
         <v>39</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D45" s="104" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="E45" s="103" t="s">
         <v>33</v>
@@ -16108,10 +16327,10 @@
       </c>
       <c r="I45" s="35"/>
       <c r="J45" s="35" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="K45" s="35" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="L45" s="79"/>
       <c r="M45" s="79"/>
@@ -16126,13 +16345,13 @@
       <c r="V45" s="89"/>
       <c r="W45" s="85"/>
       <c r="X45" s="81" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="Y45" s="81" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="Z45" s="84" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AA45" s="92"/>
       <c r="AB45" s="92"/>
@@ -16166,7 +16385,7 @@
       <c r="BB45" s="35"/>
       <c r="BC45" s="35"/>
       <c r="BD45" s="31" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="BE45" s="36"/>
       <c r="BF45" s="35"/>
@@ -16177,7 +16396,7 @@
       <c r="BK45" s="35"/>
       <c r="BL45" s="35"/>
       <c r="BM45" s="31" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -16257,13 +16476,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="4" customFormat="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
       <c r="D1" s="27" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -16301,13 +16520,13 @@
       <c r="AM1" s="64"/>
     </row>
     <row r="2" spans="1:40" s="4" customFormat="1">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
       <c r="D2" s="55" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -16392,31 +16611,31 @@
         <v>2</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H4" s="53" t="s">
         <v>114</v>
       </c>
       <c r="I4" s="65" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="J4" s="65" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="K4" s="65" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L4" s="65" t="s">
         <v>135</v>
@@ -16440,7 +16659,7 @@
         <v>162</v>
       </c>
       <c r="S4" s="66" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="T4" s="66" t="s">
         <v>170</v>
@@ -16497,13 +16716,13 @@
         <v>233</v>
       </c>
       <c r="AL4" s="66" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AM4" s="66" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AN4" s="66" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:40" s="19" customFormat="1" ht="35" customHeight="1">
@@ -16515,115 +16734,115 @@
         <v>65</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="H5" s="52" t="s">
+        <v>653</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>656</v>
+      </c>
+      <c r="J5" s="52" t="s">
         <v>657</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="K5" s="52" t="s">
+        <v>658</v>
+      </c>
+      <c r="L5" s="52" t="s">
+        <v>659</v>
+      </c>
+      <c r="M5" s="52" t="s">
         <v>660</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="N5" s="52" t="s">
         <v>661</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="O5" s="52" t="s">
         <v>662</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="P5" s="52" t="s">
         <v>663</v>
       </c>
-      <c r="M5" s="52" t="s">
+      <c r="Q5" s="52" t="s">
         <v>664</v>
       </c>
-      <c r="N5" s="52" t="s">
-        <v>665</v>
-      </c>
-      <c r="O5" s="52" t="s">
+      <c r="R5" s="52" t="s">
         <v>666</v>
       </c>
-      <c r="P5" s="52" t="s">
+      <c r="S5" s="52" t="s">
         <v>667</v>
       </c>
-      <c r="Q5" s="52" t="s">
+      <c r="T5" s="52" t="s">
         <v>668</v>
       </c>
-      <c r="R5" s="52" t="s">
+      <c r="U5" s="52" t="s">
+        <v>669</v>
+      </c>
+      <c r="V5" s="52" t="s">
         <v>670</v>
       </c>
-      <c r="S5" s="52" t="s">
+      <c r="W5" s="52" t="s">
         <v>671</v>
       </c>
-      <c r="T5" s="52" t="s">
+      <c r="X5" s="52" t="s">
         <v>672</v>
       </c>
-      <c r="U5" s="52" t="s">
+      <c r="Y5" s="52" t="s">
         <v>673</v>
       </c>
-      <c r="V5" s="52" t="s">
+      <c r="Z5" s="52" t="s">
         <v>674</v>
       </c>
-      <c r="W5" s="52" t="s">
+      <c r="AA5" s="52" t="s">
         <v>675</v>
       </c>
-      <c r="X5" s="52" t="s">
+      <c r="AB5" s="52" t="s">
         <v>676</v>
       </c>
-      <c r="Y5" s="52" t="s">
+      <c r="AC5" s="52" t="s">
         <v>677</v>
       </c>
-      <c r="Z5" s="52" t="s">
+      <c r="AD5" s="52" t="s">
         <v>678</v>
       </c>
-      <c r="AA5" s="52" t="s">
+      <c r="AE5" s="52" t="s">
         <v>679</v>
       </c>
-      <c r="AB5" s="52" t="s">
+      <c r="AF5" s="52" t="s">
         <v>680</v>
       </c>
-      <c r="AC5" s="52" t="s">
+      <c r="AG5" s="52" t="s">
         <v>681</v>
       </c>
-      <c r="AD5" s="52" t="s">
+      <c r="AH5" s="52" t="s">
         <v>682</v>
       </c>
-      <c r="AE5" s="52" t="s">
+      <c r="AI5" s="52" t="s">
         <v>683</v>
       </c>
-      <c r="AF5" s="52" t="s">
+      <c r="AJ5" s="52" t="s">
         <v>684</v>
       </c>
-      <c r="AG5" s="52" t="s">
+      <c r="AK5" s="52" t="s">
         <v>685</v>
       </c>
-      <c r="AH5" s="52" t="s">
-        <v>686</v>
-      </c>
-      <c r="AI5" s="52" t="s">
-        <v>687</v>
-      </c>
-      <c r="AJ5" s="52" t="s">
-        <v>688</v>
-      </c>
-      <c r="AK5" s="52" t="s">
-        <v>689</v>
-      </c>
       <c r="AL5" s="66" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AM5" s="66" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AN5" s="66" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:40" s="4" customFormat="1" ht="24" customHeight="1">
@@ -16635,7 +16854,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E6" s="54" t="s">
         <v>5</v>
@@ -16644,7 +16863,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="H6" s="54" t="s">
         <v>5</v>
@@ -16754,16 +16973,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H7" s="39">
         <v>1</v>
@@ -16852,7 +17071,7 @@
         <v>1</v>
       </c>
       <c r="AL7" s="69" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AM7" s="69"/>
       <c r="AN7" s="69"/>
@@ -16865,16 +17084,16 @@
         <v>2</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H8" s="39">
         <v>1</v>
@@ -16919,16 +17138,16 @@
         <v>0</v>
       </c>
       <c r="V8" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="W8" s="69" t="s">
         <v>33</v>
       </c>
       <c r="X8" s="69" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="Y8" s="69" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="Z8" s="69" t="s">
         <v>148</v>
@@ -16976,16 +17195,16 @@
         <v>3</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H9" s="39">
         <v>1</v>
@@ -16994,19 +17213,19 @@
         <v>33</v>
       </c>
       <c r="J9" s="69" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="K9" s="69" t="s">
         <v>33</v>
       </c>
       <c r="L9" s="69" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M9" s="69" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="N9" s="69" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="O9" s="69" t="s">
         <v>33</v>
@@ -17033,19 +17252,19 @@
         <v>177</v>
       </c>
       <c r="W9" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="X9" s="69" t="s">
         <v>33</v>
       </c>
       <c r="Y9" s="69" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="Z9" s="69" t="s">
         <v>148</v>
       </c>
       <c r="AA9" s="69" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AB9" s="69" t="s">
         <v>148</v>
@@ -17089,16 +17308,16 @@
         <v>4</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H10" s="39">
         <v>1</v>
@@ -17107,19 +17326,19 @@
         <v>33</v>
       </c>
       <c r="J10" s="69" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="K10" s="69" t="s">
         <v>33</v>
       </c>
       <c r="L10" s="69" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M10" s="69" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="N10" s="69" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="O10" s="69" t="s">
         <v>33</v>
@@ -17131,10 +17350,10 @@
         <v>1</v>
       </c>
       <c r="R10" s="69" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="S10" s="69" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="T10" s="69">
         <v>0</v>
@@ -17149,19 +17368,19 @@
         <v>177</v>
       </c>
       <c r="X10" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="Y10" s="69" t="s">
         <v>33</v>
       </c>
       <c r="Z10" s="69" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AA10" s="69" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AB10" s="69" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AC10" s="69"/>
       <c r="AD10" s="69"/>
@@ -17202,16 +17421,16 @@
         <v>5</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H11" s="39" t="s">
         <v>33</v>
@@ -17256,28 +17475,28 @@
         <v>0</v>
       </c>
       <c r="V11" s="69" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="W11" s="69" t="s">
         <v>175</v>
       </c>
       <c r="X11" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="Y11" s="69" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="Z11" s="69" t="s">
         <v>33</v>
       </c>
       <c r="AA11" s="69" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AB11" s="69" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AC11" s="69" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AD11" s="69"/>
       <c r="AE11" s="69" t="s">
@@ -17319,46 +17538,46 @@
         <v>6</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="I12" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J12" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="K12" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L12" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M12" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="N12" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O12" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="P12" s="69" t="s">
         <v>33</v>
       </c>
       <c r="Q12" s="69" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="R12" s="69">
         <v>1</v>
@@ -17367,34 +17586,34 @@
         <v>91</v>
       </c>
       <c r="T12" s="69" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="U12" s="69">
         <v>0</v>
       </c>
       <c r="V12" s="69" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="W12" s="69" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="X12" s="69" t="s">
         <v>177</v>
       </c>
       <c r="Y12" s="69" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="Z12" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AA12" s="69" t="s">
         <v>33</v>
       </c>
       <c r="AB12" s="69" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AC12" s="69" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AD12" s="69" t="s">
         <v>91</v>
@@ -17403,22 +17622,22 @@
         <v>91</v>
       </c>
       <c r="AF12" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AG12" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AH12" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AI12" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AJ12" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AK12" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AL12" s="69">
         <v>1</v>
@@ -17438,43 +17657,43 @@
         <v>7</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="I13" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J13" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="K13" s="69" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L13" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M13" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="N13" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O13" s="69" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P13" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="Q13" s="69" t="s">
         <v>33</v>
@@ -17489,13 +17708,13 @@
         <v>91</v>
       </c>
       <c r="U13" s="69" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="V13" s="69" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="W13" s="69" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="X13" s="69" t="s">
         <v>177</v>
@@ -17504,16 +17723,16 @@
         <v>177</v>
       </c>
       <c r="Z13" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AA13" s="69" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AB13" s="69" t="s">
         <v>33</v>
       </c>
       <c r="AC13" s="69" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AD13" s="69" t="s">
         <v>91</v>
@@ -17522,22 +17741,22 @@
         <v>91</v>
       </c>
       <c r="AF13" s="69" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AG13" s="69" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AH13" s="69" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AI13" s="69" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AJ13" s="69" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AK13" s="69" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AL13" s="69">
         <v>2</v>
@@ -17557,46 +17776,46 @@
         <v>8</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="I14" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J14" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="K14" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L14" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M14" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="N14" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O14" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="P14" s="69" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="Q14" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="R14" s="69" t="s">
         <v>33</v>
@@ -17608,13 +17827,13 @@
         <v>33</v>
       </c>
       <c r="U14" s="69" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="V14" s="69" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="W14" s="69" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="X14" s="69" t="s">
         <v>175</v>
@@ -17626,13 +17845,13 @@
         <v>177</v>
       </c>
       <c r="AA14" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AB14" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AC14" s="69" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AD14" s="69" t="s">
         <v>91</v>
@@ -17641,22 +17860,22 @@
         <v>91</v>
       </c>
       <c r="AF14" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AG14" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AH14" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AI14" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AJ14" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AK14" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AL14" s="69">
         <v>2</v>
@@ -17676,64 +17895,64 @@
         <v>9</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="H15" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="I15" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="J15" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="K15" s="69" t="s">
         <v>423</v>
       </c>
-      <c r="I15" s="69" t="s">
+      <c r="L15" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="M15" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="N15" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="O15" s="69" t="s">
         <v>423</v>
       </c>
-      <c r="J15" s="69" t="s">
-        <v>423</v>
-      </c>
-      <c r="K15" s="69" t="s">
-        <v>427</v>
-      </c>
-      <c r="L15" s="69" t="s">
-        <v>423</v>
-      </c>
-      <c r="M15" s="69" t="s">
-        <v>423</v>
-      </c>
-      <c r="N15" s="69" t="s">
-        <v>423</v>
-      </c>
-      <c r="O15" s="69" t="s">
-        <v>427</v>
-      </c>
       <c r="P15" s="69" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="Q15" s="69" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="R15" s="69" t="s">
         <v>33</v>
       </c>
       <c r="S15" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="T15" s="69" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="U15" s="69" t="s">
         <v>33</v>
       </c>
       <c r="V15" s="69" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="W15" s="69" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="X15" s="69" t="s">
         <v>175</v>
@@ -17748,10 +17967,10 @@
         <v>177</v>
       </c>
       <c r="AB15" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AC15" s="69" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AD15" s="69" t="s">
         <v>91</v>
@@ -17760,22 +17979,22 @@
         <v>91</v>
       </c>
       <c r="AF15" s="69" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AG15" s="69" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AH15" s="69" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AI15" s="69" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AJ15" s="69" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AK15" s="69" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AL15" s="69">
         <v>2</v>
@@ -17789,58 +18008,58 @@
     </row>
     <row r="16" spans="1:40">
       <c r="B16" s="39" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C16" s="39">
         <v>10</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I16" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J16" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="K16" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L16" s="69" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="M16" s="69" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="N16" s="69" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="O16" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="P16" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="Q16" s="69" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="R16" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="S16" s="69" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="T16" s="69" t="s">
         <v>33</v>
@@ -17852,10 +18071,10 @@
         <v>172</v>
       </c>
       <c r="W16" s="69" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="X16" s="69" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Y16" s="69" t="s">
         <v>175</v>
@@ -17870,7 +18089,7 @@
         <v>177</v>
       </c>
       <c r="AC16" s="69" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AD16" s="69" t="s">
         <v>91</v>
@@ -17879,22 +18098,22 @@
         <v>91</v>
       </c>
       <c r="AF16" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AG16" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AH16" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AI16" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AJ16" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AK16" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AL16" s="69">
         <v>2</v>
@@ -17914,16 +18133,16 @@
         <v>11</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>177</v>
@@ -17950,22 +18169,22 @@
         <v>177</v>
       </c>
       <c r="P17" s="69" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="Q17" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="R17" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="S17" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="T17" s="69" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="U17" s="69" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="V17" s="69" t="s">
         <v>172</v>
@@ -17974,22 +18193,22 @@
         <v>172</v>
       </c>
       <c r="X17" s="69" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Y17" s="69" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Z17" s="69" t="s">
         <v>175</v>
       </c>
       <c r="AA17" s="69" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AB17" s="69" t="s">
         <v>177</v>
       </c>
       <c r="AC17" s="69" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AD17" s="69" t="s">
         <v>91</v>
@@ -18016,13 +18235,13 @@
         <v>177</v>
       </c>
       <c r="AL17" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AM17" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AN17" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="2:40">
@@ -18033,16 +18252,16 @@
         <v>12</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>177</v>
@@ -18054,34 +18273,34 @@
         <v>177</v>
       </c>
       <c r="K18" s="69" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L18" s="69" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="M18" s="69" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="N18" s="69" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="O18" s="69" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="P18" s="69" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="Q18" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="R18" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="S18" s="69" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="T18" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="U18" s="69" t="s">
         <v>33</v>
@@ -18093,22 +18312,22 @@
         <v>172</v>
       </c>
       <c r="X18" s="69" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Y18" s="69" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Z18" s="69" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AA18" s="69" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AB18" s="69" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AC18" s="69" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AD18" s="69" t="s">
         <v>91</v>
@@ -18117,22 +18336,22 @@
         <v>91</v>
       </c>
       <c r="AF18" s="69" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AG18" s="69" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AH18" s="69" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AI18" s="69" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AJ18" s="69" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AK18" s="69" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AL18" s="69">
         <v>2</v>
@@ -18152,16 +18371,16 @@
         <v>13</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="H19" s="39" t="s">
         <v>177</v>
@@ -18173,61 +18392,61 @@
         <v>177</v>
       </c>
       <c r="K19" s="69" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L19" s="69" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M19" s="69" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="N19" s="69" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="O19" s="69" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="P19" s="69" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="Q19" s="69" t="s">
         <v>177</v>
       </c>
       <c r="R19" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="S19" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="T19" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="U19" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="V19" s="69" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="W19" s="69" t="s">
         <v>172</v>
       </c>
       <c r="X19" s="69" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Y19" s="69" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Z19" s="69" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AA19" s="69" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AB19" s="69" t="s">
         <v>175</v>
       </c>
       <c r="AC19" s="69" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AD19" s="69" t="s">
         <v>91</v>
@@ -18236,22 +18455,22 @@
         <v>91</v>
       </c>
       <c r="AF19" s="69" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AG19" s="69" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AH19" s="69" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AI19" s="69" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AJ19" s="69" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AK19" s="69" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AL19" s="69">
         <v>2</v>
@@ -18271,16 +18490,16 @@
         <v>14</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H20" s="39" t="s">
         <v>177</v>
@@ -18292,7 +18511,7 @@
         <v>177</v>
       </c>
       <c r="K20" s="69" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L20" s="69" t="s">
         <v>177</v>
@@ -18304,7 +18523,7 @@
         <v>177</v>
       </c>
       <c r="O20" s="69" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="P20" s="69" t="s">
         <v>177</v>
@@ -18313,40 +18532,40 @@
         <v>177</v>
       </c>
       <c r="R20" s="69" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="S20" s="69" t="s">
         <v>177</v>
       </c>
       <c r="T20" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="U20" s="69" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="V20" s="69" t="s">
         <v>176</v>
       </c>
       <c r="W20" s="69" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="X20" s="69" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="Y20" s="69" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Z20" s="69" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AA20" s="69" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AB20" s="69" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AC20" s="69" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AD20" s="69" t="s">
         <v>91</v>
@@ -18355,22 +18574,22 @@
         <v>91</v>
       </c>
       <c r="AF20" s="69" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AG20" s="69" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AH20" s="69" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AI20" s="69" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AJ20" s="69" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AK20" s="69" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AL20" s="69">
         <v>3</v>
@@ -18390,16 +18609,16 @@
         <v>15</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H21" s="39" t="s">
         <v>177</v>
@@ -18411,7 +18630,7 @@
         <v>177</v>
       </c>
       <c r="K21" s="69" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="L21" s="69" t="s">
         <v>177</v>
@@ -18423,7 +18642,7 @@
         <v>177</v>
       </c>
       <c r="O21" s="69" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="P21" s="69" t="s">
         <v>177</v>
@@ -18432,16 +18651,16 @@
         <v>177</v>
       </c>
       <c r="R21" s="69" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="S21" s="69" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="T21" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="U21" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="V21" s="69" t="s">
         <v>176</v>
@@ -18450,22 +18669,22 @@
         <v>176</v>
       </c>
       <c r="X21" s="69" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="Y21" s="69" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Z21" s="69" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AA21" s="69" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AB21" s="69" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AC21" s="69" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AD21" s="69" t="s">
         <v>91</v>
@@ -18474,22 +18693,22 @@
         <v>91</v>
       </c>
       <c r="AF21" s="69" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AG21" s="69" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AH21" s="69" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AI21" s="69" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AJ21" s="69" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AK21" s="69" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AL21" s="69">
         <v>3</v>
@@ -18509,19 +18728,19 @@
         <v>16</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I22" s="69" t="s">
         <v>92</v>
@@ -18545,7 +18764,7 @@
         <v>92</v>
       </c>
       <c r="P22" s="69" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="Q22" s="69" t="s">
         <v>177</v>
@@ -18560,10 +18779,10 @@
         <v>177</v>
       </c>
       <c r="U22" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="V22" s="69" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="W22" s="69" t="s">
         <v>176</v>
@@ -18575,16 +18794,16 @@
         <v>172</v>
       </c>
       <c r="Z22" s="69" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AA22" s="69" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AB22" s="69" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AC22" s="69" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AD22" s="69" t="s">
         <v>91</v>
@@ -18628,16 +18847,16 @@
         <v>17</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="H23" s="39">
         <v>4</v>
@@ -18667,10 +18886,10 @@
         <v>175</v>
       </c>
       <c r="Q23" s="69" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="R23" s="69" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="S23" s="69" t="s">
         <v>177</v>
@@ -18682,10 +18901,10 @@
         <v>177</v>
       </c>
       <c r="V23" s="69" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="W23" s="69" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="X23" s="69" t="s">
         <v>172</v>
@@ -18697,13 +18916,13 @@
         <v>172</v>
       </c>
       <c r="AA23" s="69" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AB23" s="69" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AC23" s="69" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AD23" s="69" t="s">
         <v>91</v>
@@ -18741,22 +18960,22 @@
     </row>
     <row r="24" spans="2:40">
       <c r="B24" s="39" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C24" s="39">
         <v>18</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H24" s="39">
         <v>4</v>
@@ -18792,7 +19011,7 @@
         <v>177</v>
       </c>
       <c r="S24" s="69" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="T24" s="69" t="s">
         <v>177</v>
@@ -18801,13 +19020,13 @@
         <v>177</v>
       </c>
       <c r="V24" s="69" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="W24" s="69" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="X24" s="69" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="Y24" s="69" t="s">
         <v>172</v>
@@ -18822,7 +19041,7 @@
         <v>172</v>
       </c>
       <c r="AC24" s="69" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AD24" s="69" t="s">
         <v>91</v>
@@ -18860,22 +19079,22 @@
     </row>
     <row r="25" spans="2:40">
       <c r="B25" s="39" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C25" s="39">
         <v>19</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H25" s="39">
         <v>4</v>
@@ -18920,10 +19139,10 @@
         <v>177</v>
       </c>
       <c r="V25" s="69" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="W25" s="69" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="X25" s="69" t="s">
         <v>176</v>
@@ -18941,7 +19160,7 @@
         <v>172</v>
       </c>
       <c r="AC25" s="69" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AD25" s="69" t="s">
         <v>91</v>
@@ -18965,7 +19184,7 @@
         <v>92</v>
       </c>
       <c r="AK25" s="69" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AL25" s="69">
         <v>3</v>
@@ -18985,16 +19204,16 @@
         <v>20</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H26" s="69" t="s">
         <v>92</v>
@@ -19024,22 +19243,22 @@
         <v>175</v>
       </c>
       <c r="Q26" s="69" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="R26" s="69" t="s">
+        <v>442</v>
+      </c>
+      <c r="S26" s="69" t="s">
         <v>446</v>
       </c>
-      <c r="S26" s="69" t="s">
-        <v>450</v>
-      </c>
       <c r="T26" s="69" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="U26" s="69" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="V26" s="69" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="W26" s="69" t="s">
         <v>176</v>
@@ -19057,7 +19276,7 @@
         <v>176</v>
       </c>
       <c r="AB26" s="69" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AC26" s="69" t="s">
         <v>91</v>
@@ -19145,13 +19364,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
       <c r="D1" s="27" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -19159,13 +19378,13 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
       <c r="D2" s="55" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -19190,19 +19409,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="19" customFormat="1" ht="35" customHeight="1">
@@ -19211,19 +19430,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="52" t="s">
+        <v>362</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>365</v>
+      </c>
+      <c r="E5" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="D5" s="52" t="s">
-        <v>369</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>370</v>
-      </c>
       <c r="F5" s="52" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" ht="24" customHeight="1">
@@ -19232,7 +19451,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D6" s="54" t="s">
         <v>6</v>
@@ -19253,19 +19472,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -19274,19 +19493,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -19295,19 +19514,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -19316,19 +19535,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -19337,19 +19556,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>381</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>385</v>
-      </c>
       <c r="E11" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -19358,19 +19577,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -19379,19 +19598,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -19400,19 +19619,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -19421,19 +19640,19 @@
         <v>9</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -19466,7 +19685,7 @@
       <pane xSplit="5" ySplit="6" topLeftCell="AF7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AK6" sqref="AK6"/>
+      <selection pane="bottomRight" activeCell="AS16" sqref="AS16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19511,26 +19730,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
       <c r="D1" s="131" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="E1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:48">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
       <c r="D2" s="131" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E2" s="1"/>
       <c r="H2" s="1"/>
@@ -19559,22 +19778,22 @@
         <v>37</v>
       </c>
       <c r="E4" s="128" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F4" s="102" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="I4" s="128" t="s">
         <v>244</v>
       </c>
       <c r="J4" s="48" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="K4" s="128" t="s">
         <v>39</v>
@@ -19607,22 +19826,22 @@
         <v>251</v>
       </c>
       <c r="U4" s="116" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="V4" s="116" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="W4" s="116" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="X4" s="80" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="Y4" s="80" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="Z4" s="80" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="AA4" s="128" t="s">
         <v>46</v>
@@ -19631,7 +19850,7 @@
         <v>47</v>
       </c>
       <c r="AC4" s="128" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="AD4" s="128" t="s">
         <v>252</v>
@@ -19658,19 +19877,19 @@
         <v>56</v>
       </c>
       <c r="AL4" s="128" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="AM4" s="128" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="AN4" s="128" t="s">
         <v>57</v>
       </c>
       <c r="AO4" s="128" t="s">
+        <v>885</v>
+      </c>
+      <c r="AP4" s="128" t="s">
         <v>889</v>
-      </c>
-      <c r="AP4" s="128" t="s">
-        <v>893</v>
       </c>
       <c r="AQ4" s="128" t="s">
         <v>58</v>
@@ -19703,22 +19922,22 @@
         <v>37</v>
       </c>
       <c r="E5" s="128" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="F5" s="102" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="I5" s="49" t="s">
         <v>256</v>
       </c>
       <c r="J5" s="50" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="K5" s="50" t="s">
         <v>67</v>
@@ -19742,7 +19961,7 @@
         <v>261</v>
       </c>
       <c r="R5" s="49" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="S5" s="132" t="s">
         <v>71</v>
@@ -19751,43 +19970,43 @@
         <v>72</v>
       </c>
       <c r="U5" s="116" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="V5" s="116" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="W5" s="116" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="X5" s="80" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y5" s="80" t="s">
+        <v>539</v>
+      </c>
+      <c r="Z5" s="80" t="s">
         <v>538</v>
-      </c>
-      <c r="Y5" s="80" t="s">
-        <v>543</v>
-      </c>
-      <c r="Z5" s="80" t="s">
-        <v>542</v>
       </c>
       <c r="AA5" s="49" t="s">
         <v>73</v>
       </c>
       <c r="AB5" s="49" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="AC5" s="49" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="AD5" s="49" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="AE5" s="49" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="AF5" s="49" t="s">
         <v>262</v>
       </c>
       <c r="AG5" s="49" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="AH5" s="49" t="s">
         <v>78</v>
@@ -19802,19 +20021,19 @@
         <v>81</v>
       </c>
       <c r="AL5" s="49" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="AM5" s="49" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="AN5" s="49" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="AO5" s="49" t="s">
+        <v>886</v>
+      </c>
+      <c r="AP5" s="49" t="s">
         <v>890</v>
-      </c>
-      <c r="AP5" s="49" t="s">
-        <v>894</v>
       </c>
       <c r="AQ5" s="49" t="s">
         <v>82</v>
@@ -19847,7 +20066,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="125" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>5</v>
@@ -19862,7 +20081,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="125" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="K6" s="125" t="s">
         <v>264</v>
@@ -19919,7 +20138,7 @@
         <v>88</v>
       </c>
       <c r="AC6" s="125" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="AD6" s="125" t="s">
         <v>264</v>
@@ -19981,29 +20200,29 @@
     </row>
     <row r="7" spans="1:48">
       <c r="A7" s="121" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B7" s="42">
         <f t="shared" ref="B7:B22" si="0">ROW()-6</f>
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D7" s="40">
         <v>100</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="F7" s="40">
         <v>1</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="I7" s="40">
         <v>20</v>
@@ -20040,13 +20259,13 @@
         <v>91</v>
       </c>
       <c r="U7" s="159" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="V7" s="159" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="W7" s="160" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="X7" s="157" t="s">
         <v>130</v>
@@ -20055,7 +20274,7 @@
         <v>130</v>
       </c>
       <c r="Z7" s="84" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AA7" s="40"/>
       <c r="AB7" s="40"/>
@@ -20089,34 +20308,34 @@
       <c r="AT7" s="40"/>
       <c r="AU7" s="40"/>
       <c r="AV7" s="40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:48">
       <c r="A8" s="121" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B8" s="42">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D8" s="40">
         <v>100</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="F8" s="40">
         <v>1</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="I8" s="40">
         <v>20</v>
@@ -20159,16 +20378,16 @@
         <v>86</v>
       </c>
       <c r="W8" s="160" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="X8" s="157" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Y8" s="157" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Z8" s="84" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AA8" s="40"/>
       <c r="AB8" s="40"/>
@@ -20202,7 +20421,7 @@
       <c r="AT8" s="40"/>
       <c r="AU8" s="40"/>
       <c r="AV8" s="40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:48">
@@ -20214,22 +20433,22 @@
         <v>3</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>268</v>
+        <v>958</v>
       </c>
       <c r="D9" s="40">
         <v>102</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="F9" s="40">
         <v>6</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="I9" s="40">
         <v>20</v>
@@ -20274,7 +20493,7 @@
         <v>44</v>
       </c>
       <c r="W9" s="160" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="X9" s="157">
         <f>90*1.5</f>
@@ -20285,7 +20504,7 @@
         <v>135</v>
       </c>
       <c r="Z9" s="84" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AA9" s="40"/>
       <c r="AB9" s="40"/>
@@ -20307,10 +20526,10 @@
       <c r="AL9" s="40"/>
       <c r="AM9" s="40"/>
       <c r="AN9" s="21" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="AO9" s="21" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="AP9" s="21"/>
       <c r="AQ9" s="40" t="s">
@@ -20323,25 +20542,25 @@
       <c r="AT9" s="40"/>
       <c r="AU9" s="40"/>
       <c r="AV9" s="40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:48">
       <c r="A10" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B10" s="40">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>271</v>
+        <v>959</v>
       </c>
       <c r="D10" s="40">
         <v>101</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F10" s="40">
         <v>6</v>
@@ -20385,7 +20604,7 @@
       <c r="U10" s="159"/>
       <c r="V10" s="159"/>
       <c r="W10" s="160" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="X10" s="157">
         <v>13</v>
@@ -20394,7 +20613,7 @@
         <v>13</v>
       </c>
       <c r="Z10" s="84" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AA10" s="40"/>
       <c r="AB10" s="40"/>
@@ -20403,7 +20622,7 @@
         <v>3</v>
       </c>
       <c r="AE10" s="40" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AF10" s="40"/>
       <c r="AG10" s="40"/>
@@ -20416,7 +20635,7 @@
       <c r="AN10" s="40"/>
       <c r="AO10" s="40"/>
       <c r="AP10" s="40" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="AQ10" s="40" t="s">
         <v>118</v>
@@ -20428,25 +20647,25 @@
       <c r="AT10" s="40"/>
       <c r="AU10" s="40"/>
       <c r="AV10" s="40" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:48">
       <c r="A11" s="122" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B11" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D11" s="40">
         <v>101</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F11" s="40">
         <v>6</v>
@@ -20494,7 +20713,7 @@
         <v>110</v>
       </c>
       <c r="W11" s="160" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="X11" s="157" t="s">
         <v>117</v>
@@ -20503,7 +20722,7 @@
         <v>117</v>
       </c>
       <c r="Z11" s="84" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AA11" s="40"/>
       <c r="AB11" s="40"/>
@@ -20527,11 +20746,11 @@
       <c r="AL11" s="40"/>
       <c r="AM11" s="40"/>
       <c r="AN11" s="43" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="AO11" s="43"/>
       <c r="AP11" s="43" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="AQ11" s="40" t="s">
         <v>93</v>
@@ -20545,34 +20764,34 @@
       <c r="AT11" s="40"/>
       <c r="AU11" s="40"/>
       <c r="AV11" s="40" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:48">
       <c r="A12" s="122" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B12" s="40">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D12" s="40">
         <v>101</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="F12" s="40">
         <v>6</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="I12" s="40" t="s">
         <v>101</v>
@@ -20615,7 +20834,7 @@
         <v>11</v>
       </c>
       <c r="W12" s="160" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="X12" s="157" t="s">
         <v>122</v>
@@ -20624,7 +20843,7 @@
         <v>122</v>
       </c>
       <c r="Z12" s="84" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="AA12" s="40"/>
       <c r="AB12" s="40" t="s">
@@ -20639,7 +20858,7 @@
       </c>
       <c r="AF12" s="40"/>
       <c r="AG12" s="40" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AH12" s="40"/>
       <c r="AI12" s="40" t="s">
@@ -20654,11 +20873,11 @@
       <c r="AL12" s="40"/>
       <c r="AM12" s="40"/>
       <c r="AN12" s="40" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="AO12" s="40"/>
       <c r="AP12" s="40" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="AQ12" s="40" t="s">
         <v>93</v>
@@ -20672,25 +20891,25 @@
       <c r="AT12" s="40"/>
       <c r="AU12" s="40"/>
       <c r="AV12" s="40" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:48">
       <c r="A13" s="122" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B13" s="40">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D13" s="40">
         <v>101</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F13" s="40">
         <v>6</v>
@@ -20738,7 +20957,7 @@
         <v>14</v>
       </c>
       <c r="W13" s="160" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="X13" s="157" t="s">
         <v>140</v>
@@ -20747,7 +20966,7 @@
         <v>140</v>
       </c>
       <c r="Z13" s="84" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AA13" s="40"/>
       <c r="AB13" s="40"/>
@@ -20773,11 +20992,11 @@
       <c r="AL13" s="40"/>
       <c r="AM13" s="40"/>
       <c r="AN13" s="43" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="AO13" s="43"/>
       <c r="AP13" s="43" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="AQ13" s="40" t="s">
         <v>118</v>
@@ -20791,34 +21010,34 @@
       <c r="AT13" s="40"/>
       <c r="AU13" s="40"/>
       <c r="AV13" s="40" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:48">
       <c r="A14" s="122" t="s">
-        <v>284</v>
+        <v>961</v>
       </c>
       <c r="B14" s="40">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>285</v>
+        <v>960</v>
       </c>
       <c r="D14" s="40">
         <v>101</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="F14" s="40">
         <v>6</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>124</v>
@@ -20863,7 +21082,7 @@
         <v>120</v>
       </c>
       <c r="W14" s="160" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="X14" s="157">
         <f>20*10</f>
@@ -20874,7 +21093,7 @@
         <v>200</v>
       </c>
       <c r="Z14" s="84" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="AA14" s="40"/>
       <c r="AB14" s="40" t="s">
@@ -20899,16 +21118,16 @@
       </c>
       <c r="AJ14" s="40"/>
       <c r="AK14" s="40"/>
-      <c r="AL14" s="40" t="s">
-        <v>131</v>
+      <c r="AL14" s="40">
+        <v>200</v>
       </c>
       <c r="AM14" s="40"/>
       <c r="AN14" s="21" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="AO14" s="21"/>
       <c r="AP14" s="21" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="AQ14" s="40" t="s">
         <v>93</v>
@@ -20920,34 +21139,34 @@
       <c r="AT14" s="40"/>
       <c r="AU14" s="40"/>
       <c r="AV14" s="40" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:48">
       <c r="A15" s="122" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B15" s="40">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D15" s="40">
         <v>101</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="F15" s="40">
         <v>6</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="I15" s="40">
         <v>240</v>
@@ -20992,7 +21211,7 @@
         <v>100</v>
       </c>
       <c r="W15" s="160" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="X15" s="157" t="s">
         <v>132</v>
@@ -21001,7 +21220,7 @@
         <v>132</v>
       </c>
       <c r="Z15" s="84" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AA15" s="40"/>
       <c r="AB15" s="40" t="s">
@@ -21033,11 +21252,11 @@
       </c>
       <c r="AM15" s="40"/>
       <c r="AN15" s="21" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="AO15" s="21"/>
       <c r="AP15" s="21" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="AQ15" s="40" t="s">
         <v>93</v>
@@ -21051,25 +21270,25 @@
       <c r="AT15" s="40"/>
       <c r="AU15" s="40"/>
       <c r="AV15" s="40" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:48">
       <c r="A16" s="122" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B16" s="40">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D16" s="40">
         <v>101</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F16" s="40">
         <v>6</v>
@@ -21117,7 +21336,7 @@
         <v>131</v>
       </c>
       <c r="W16" s="160" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="X16" s="157" t="s">
         <v>187</v>
@@ -21126,7 +21345,7 @@
         <v>187</v>
       </c>
       <c r="Z16" s="84" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="AA16" s="40"/>
       <c r="AB16" s="40"/>
@@ -21152,11 +21371,11 @@
       </c>
       <c r="AM16" s="40"/>
       <c r="AN16" s="44" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="AO16" s="44"/>
       <c r="AP16" s="44" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="AQ16" s="40" t="s">
         <v>118</v>
@@ -21170,41 +21389,41 @@
       <c r="AT16" s="40"/>
       <c r="AU16" s="40"/>
       <c r="AV16" s="40" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:48">
       <c r="A17" s="123" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B17" s="45">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="E17" s="45"/>
       <c r="F17" s="45">
         <v>1</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H17" s="35" t="s">
         <v>176</v>
       </c>
       <c r="I17" s="45" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J17" s="45" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="K17" s="45" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L17" s="45"/>
       <c r="M17" s="45"/>
@@ -21224,7 +21443,7 @@
         <v>96</v>
       </c>
       <c r="W17" s="160" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="X17" s="158" t="s">
         <v>121</v>
@@ -21233,7 +21452,7 @@
         <v>121</v>
       </c>
       <c r="Z17" s="84" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AA17" s="45"/>
       <c r="AB17" s="45"/>
@@ -21255,10 +21474,10 @@
       <c r="AL17" s="45"/>
       <c r="AM17" s="45"/>
       <c r="AN17" s="45" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="AO17" s="45" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="AP17" s="45"/>
       <c r="AQ17" s="45" t="s">
@@ -21271,41 +21490,41 @@
       <c r="AT17" s="45"/>
       <c r="AU17" s="45"/>
       <c r="AV17" s="45" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:48">
       <c r="A18" s="123" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B18" s="45">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="E18" s="45"/>
       <c r="F18" s="45">
         <v>1</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H18" s="35" t="s">
         <v>176</v>
       </c>
       <c r="I18" s="45" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="K18" s="45" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L18" s="45"/>
       <c r="M18" s="45"/>
@@ -21325,7 +21544,7 @@
         <v>132</v>
       </c>
       <c r="W18" s="160" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="X18" s="158">
         <v>100</v>
@@ -21334,7 +21553,7 @@
         <v>100</v>
       </c>
       <c r="Z18" s="84" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="AA18" s="45"/>
       <c r="AB18" s="45"/>
@@ -21356,7 +21575,7 @@
       <c r="AL18" s="45"/>
       <c r="AM18" s="45"/>
       <c r="AN18" s="45" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="AO18" s="45"/>
       <c r="AP18" s="45"/>
@@ -21370,41 +21589,41 @@
       <c r="AT18" s="45"/>
       <c r="AU18" s="45"/>
       <c r="AV18" s="45" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:48">
       <c r="A19" s="123" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B19" s="45">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="E19" s="45"/>
       <c r="F19" s="45">
         <v>1</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="I19" s="45" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="K19" s="45" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L19" s="45"/>
       <c r="M19" s="45"/>
@@ -21424,7 +21643,7 @@
         <v>123</v>
       </c>
       <c r="W19" s="160" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="X19" s="158" t="s">
         <v>144</v>
@@ -21433,7 +21652,7 @@
         <v>144</v>
       </c>
       <c r="Z19" s="84" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="AA19" s="45"/>
       <c r="AB19" s="45" t="s">
@@ -21461,7 +21680,7 @@
       <c r="AL19" s="45"/>
       <c r="AM19" s="45"/>
       <c r="AN19" s="45" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="AO19" s="45"/>
       <c r="AP19" s="45"/>
@@ -21477,41 +21696,41 @@
       <c r="AT19" s="45"/>
       <c r="AU19" s="45"/>
       <c r="AV19" s="45" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:48">
       <c r="A20" s="123" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B20" s="45">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="E20" s="45"/>
       <c r="F20" s="45">
         <v>1</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="I20" s="45" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="K20" s="45" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L20" s="45"/>
       <c r="M20" s="45"/>
@@ -21525,13 +21744,13 @@
       <c r="S20" s="45"/>
       <c r="T20" s="45"/>
       <c r="U20" s="162" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="V20" s="162" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="W20" s="160" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="X20" s="158" t="s">
         <v>113</v>
@@ -21540,7 +21759,7 @@
         <v>113</v>
       </c>
       <c r="Z20" s="84" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AA20" s="45"/>
       <c r="AB20" s="45" t="s">
@@ -21557,7 +21776,7 @@
       </c>
       <c r="AH20" s="45"/>
       <c r="AI20" s="45" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AJ20" s="45"/>
       <c r="AK20" s="42"/>
@@ -21566,7 +21785,7 @@
       </c>
       <c r="AM20" s="45"/>
       <c r="AN20" s="45" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="AO20" s="45"/>
       <c r="AP20" s="45"/>
@@ -21582,41 +21801,41 @@
       <c r="AT20" s="45"/>
       <c r="AU20" s="45"/>
       <c r="AV20" s="45" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:48">
       <c r="A21" s="123" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B21" s="45">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="E21" s="45"/>
       <c r="F21" s="45">
         <v>1</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="I21" s="45" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J21" s="45" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="K21" s="45" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L21" s="45"/>
       <c r="M21" s="45"/>
@@ -21636,16 +21855,16 @@
         <v>101</v>
       </c>
       <c r="W21" s="160" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="X21" s="158" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Y21" s="158" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Z21" s="84" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AA21" s="45"/>
       <c r="AB21" s="45" t="s">
@@ -21658,7 +21877,7 @@
       </c>
       <c r="AF21" s="45"/>
       <c r="AG21" s="45" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AH21" s="45"/>
       <c r="AI21" s="45" t="s">
@@ -21671,7 +21890,7 @@
       </c>
       <c r="AM21" s="45"/>
       <c r="AN21" s="45" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="AO21" s="45"/>
       <c r="AP21" s="45"/>
@@ -21687,41 +21906,41 @@
       <c r="AT21" s="45"/>
       <c r="AU21" s="45"/>
       <c r="AV21" s="45" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:48">
       <c r="A22" s="124" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B22" s="45">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="E22" s="45"/>
       <c r="F22" s="45">
         <v>1</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="I22" s="45" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J22" s="45" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="K22" s="45" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L22" s="45"/>
       <c r="M22" s="45"/>
@@ -21735,22 +21954,22 @@
       <c r="S22" s="45"/>
       <c r="T22" s="45"/>
       <c r="U22" s="162" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="V22" s="162" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="W22" s="160" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="X22" s="158" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Y22" s="158" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Z22" s="84" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AA22" s="45"/>
       <c r="AB22" s="45" t="s">
@@ -21763,11 +21982,11 @@
       </c>
       <c r="AF22" s="45"/>
       <c r="AG22" s="45" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AH22" s="45"/>
       <c r="AI22" s="45" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AJ22" s="45" t="s">
         <v>177</v>
@@ -21778,7 +21997,7 @@
       <c r="AL22" s="45"/>
       <c r="AM22" s="45"/>
       <c r="AN22" s="45" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="AO22" s="45"/>
       <c r="AP22" s="45"/>
@@ -21789,12 +22008,12 @@
         <v>93</v>
       </c>
       <c r="AS22" s="45" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AT22" s="45"/>
       <c r="AU22" s="45"/>
       <c r="AV22" s="46" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -21859,29 +22078,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="168" t="s">
-        <v>809</v>
-      </c>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="169" t="s">
+        <v>805</v>
+      </c>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
       <c r="G1" s="135"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="168" t="s">
-        <v>774</v>
-      </c>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="169" t="s">
+        <v>770</v>
+      </c>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
       <c r="G2" s="135"/>
     </row>
     <row r="3" spans="1:22">
@@ -21899,61 +22118,61 @@
         <v>2</v>
       </c>
       <c r="C4" s="142" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D4" s="152" t="s">
+        <v>846</v>
+      </c>
+      <c r="E4" s="153" t="s">
+        <v>847</v>
+      </c>
+      <c r="F4" s="153" t="s">
+        <v>848</v>
+      </c>
+      <c r="G4" s="153" t="s">
+        <v>883</v>
+      </c>
+      <c r="H4" s="153" t="s">
         <v>850</v>
       </c>
-      <c r="E4" s="153" t="s">
+      <c r="I4" s="153" t="s">
+        <v>921</v>
+      </c>
+      <c r="J4" s="153" t="s">
+        <v>849</v>
+      </c>
+      <c r="K4" s="153" t="s">
         <v>851</v>
       </c>
-      <c r="F4" s="153" t="s">
+      <c r="L4" s="153" t="s">
         <v>852</v>
       </c>
-      <c r="G4" s="153" t="s">
-        <v>887</v>
-      </c>
-      <c r="H4" s="153" t="s">
+      <c r="M4" s="153" t="s">
+        <v>912</v>
+      </c>
+      <c r="N4" s="153" t="s">
+        <v>853</v>
+      </c>
+      <c r="O4" s="153" t="s">
         <v>854</v>
       </c>
-      <c r="I4" s="153" t="s">
-        <v>925</v>
-      </c>
-      <c r="J4" s="153" t="s">
-        <v>853</v>
-      </c>
-      <c r="K4" s="153" t="s">
+      <c r="P4" s="153" t="s">
         <v>855</v>
       </c>
-      <c r="L4" s="153" t="s">
+      <c r="Q4" s="153" t="s">
         <v>856</v>
       </c>
-      <c r="M4" s="153" t="s">
-        <v>916</v>
-      </c>
-      <c r="N4" s="153" t="s">
+      <c r="R4" s="153" t="s">
         <v>857</v>
       </c>
-      <c r="O4" s="153" t="s">
+      <c r="S4" s="153" t="s">
         <v>858</v>
       </c>
-      <c r="P4" s="153" t="s">
+      <c r="T4" s="153" t="s">
         <v>859</v>
       </c>
-      <c r="Q4" s="153" t="s">
+      <c r="U4" s="153" t="s">
         <v>860</v>
-      </c>
-      <c r="R4" s="153" t="s">
-        <v>861</v>
-      </c>
-      <c r="S4" s="153" t="s">
-        <v>862</v>
-      </c>
-      <c r="T4" s="153" t="s">
-        <v>863</v>
-      </c>
-      <c r="U4" s="153" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="141" customFormat="1" ht="46" customHeight="1">
@@ -21962,61 +22181,61 @@
         <v>2</v>
       </c>
       <c r="C5" s="144" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="D5" s="154" t="s">
+        <v>861</v>
+      </c>
+      <c r="E5" s="154" t="s">
+        <v>862</v>
+      </c>
+      <c r="F5" s="154" t="s">
+        <v>863</v>
+      </c>
+      <c r="G5" s="154" t="s">
+        <v>771</v>
+      </c>
+      <c r="H5" s="154" t="s">
+        <v>866</v>
+      </c>
+      <c r="I5" s="154" t="s">
+        <v>864</v>
+      </c>
+      <c r="J5" s="154" t="s">
         <v>865</v>
       </c>
-      <c r="E5" s="154" t="s">
-        <v>866</v>
-      </c>
-      <c r="F5" s="154" t="s">
+      <c r="K5" s="154" t="s">
         <v>867</v>
       </c>
-      <c r="G5" s="154" t="s">
-        <v>775</v>
-      </c>
-      <c r="H5" s="154" t="s">
+      <c r="L5" s="154" t="s">
+        <v>868</v>
+      </c>
+      <c r="M5" s="154" t="s">
+        <v>916</v>
+      </c>
+      <c r="N5" s="154" t="s">
+        <v>869</v>
+      </c>
+      <c r="O5" s="154" t="s">
         <v>870</v>
       </c>
-      <c r="I5" s="154" t="s">
-        <v>868</v>
-      </c>
-      <c r="J5" s="154" t="s">
-        <v>869</v>
-      </c>
-      <c r="K5" s="154" t="s">
+      <c r="P5" s="154" t="s">
         <v>871</v>
       </c>
-      <c r="L5" s="154" t="s">
+      <c r="Q5" s="154" t="s">
         <v>872</v>
       </c>
-      <c r="M5" s="154" t="s">
-        <v>920</v>
-      </c>
-      <c r="N5" s="154" t="s">
+      <c r="R5" s="154" t="s">
         <v>873</v>
       </c>
-      <c r="O5" s="154" t="s">
+      <c r="S5" s="154" t="s">
+        <v>884</v>
+      </c>
+      <c r="T5" s="154" t="s">
         <v>874</v>
       </c>
-      <c r="P5" s="154" t="s">
+      <c r="U5" s="154" t="s">
         <v>875</v>
-      </c>
-      <c r="Q5" s="154" t="s">
-        <v>876</v>
-      </c>
-      <c r="R5" s="154" t="s">
-        <v>877</v>
-      </c>
-      <c r="S5" s="154" t="s">
-        <v>888</v>
-      </c>
-      <c r="T5" s="154" t="s">
-        <v>878</v>
-      </c>
-      <c r="U5" s="154" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="141" customFormat="1" ht="21" customHeight="1">
@@ -22055,7 +22274,7 @@
         <v>88</v>
       </c>
       <c r="M6" s="155" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="N6" s="155" t="s">
         <v>88</v>
@@ -22084,23 +22303,23 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="148" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B7" s="137">
         <v>1</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="D7" s="137" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E7" s="137" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="F7" s="151"/>
       <c r="G7" s="137" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="H7" s="151"/>
       <c r="I7" s="151"/>
@@ -22115,34 +22334,34 @@
       <c r="P7" s="151"/>
       <c r="Q7" s="151"/>
       <c r="R7" s="137" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="S7" s="138"/>
       <c r="T7" s="151"/>
       <c r="U7" s="151"/>
       <c r="V7" s="136" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="148" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B8" s="137">
         <v>2</v>
       </c>
       <c r="C8" s="137" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D8" s="137" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E8" s="137" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="F8" s="151"/>
       <c r="G8" s="137" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="H8" s="151"/>
       <c r="I8" s="151"/>
@@ -22157,20 +22376,20 @@
       <c r="P8" s="151"/>
       <c r="Q8" s="151"/>
       <c r="R8" s="137" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="S8" s="138"/>
       <c r="T8" s="156" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="U8" s="151"/>
       <c r="V8" s="136" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="148" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B9" s="137">
         <v>3</v>
@@ -22179,14 +22398,14 @@
         <v>192</v>
       </c>
       <c r="D9" s="137" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E9" s="137" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="F9" s="151"/>
       <c r="G9" s="137" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="H9" s="151"/>
       <c r="I9" s="151">
@@ -22195,7 +22414,7 @@
       <c r="J9" s="151"/>
       <c r="K9" s="151"/>
       <c r="L9" s="39" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="M9" s="39"/>
       <c r="N9" s="151"/>
@@ -22205,34 +22424,34 @@
       <c r="P9" s="151"/>
       <c r="Q9" s="151"/>
       <c r="R9" s="137" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="S9" s="138"/>
       <c r="T9" s="151"/>
       <c r="U9" s="151"/>
       <c r="V9" s="136" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="148" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B10" s="137">
         <v>4</v>
       </c>
       <c r="C10" s="137" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D10" s="137" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E10" s="137" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="F10" s="151"/>
       <c r="G10" s="137" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="H10" s="151"/>
       <c r="I10" s="151">
@@ -22241,10 +22460,10 @@
       <c r="J10" s="151"/>
       <c r="K10" s="151"/>
       <c r="L10" s="39" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="M10" s="39" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="N10" s="151"/>
       <c r="O10" s="163" t="s">
@@ -22253,71 +22472,71 @@
       <c r="P10" s="151"/>
       <c r="Q10" s="151"/>
       <c r="R10" s="137" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="S10" s="138"/>
       <c r="T10" s="151"/>
       <c r="U10" s="151"/>
       <c r="V10" s="136" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="148" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B11" s="137">
         <v>5</v>
       </c>
       <c r="C11" s="137" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E11" s="137" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="F11" s="151"/>
       <c r="G11" s="137" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="H11" s="151"/>
       <c r="I11" s="151"/>
       <c r="J11" s="151"/>
       <c r="K11" s="151"/>
       <c r="L11" s="39" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="M11" s="39"/>
       <c r="N11" s="151"/>
       <c r="O11" s="39" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="P11" s="151"/>
       <c r="Q11" s="151"/>
       <c r="R11" s="137" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="S11" s="138"/>
       <c r="T11" s="151"/>
       <c r="U11" s="151"/>
       <c r="V11" s="136" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="148" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B12" s="137">
         <v>6</v>
       </c>
       <c r="C12" s="137" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="D12" s="137" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E12" s="137"/>
       <c r="F12" s="151"/>
@@ -22327,7 +22546,7 @@
       <c r="J12" s="151"/>
       <c r="K12" s="151"/>
       <c r="L12" s="39" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="M12" s="39"/>
       <c r="N12" s="151"/>
@@ -22339,109 +22558,109 @@
       <c r="T12" s="151"/>
       <c r="U12" s="151"/>
       <c r="V12" s="136" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="148" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B13" s="137">
         <v>7</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D13" s="137" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E13" s="137" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="F13" s="151"/>
       <c r="G13" s="39" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="H13" s="151"/>
       <c r="I13" s="151"/>
       <c r="J13" s="151"/>
       <c r="K13" s="151"/>
       <c r="L13" s="39" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="M13" s="39"/>
       <c r="N13" s="151"/>
       <c r="O13" s="39" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="P13" s="151"/>
       <c r="Q13" s="151"/>
       <c r="R13" s="137" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="S13" s="138"/>
       <c r="T13" s="151"/>
       <c r="U13" s="151"/>
       <c r="V13" s="136" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="148" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B14" s="137">
         <v>8</v>
       </c>
       <c r="C14" s="137" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D14" s="137" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E14" s="137" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="F14" s="151"/>
       <c r="G14" s="137" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="H14" s="151"/>
       <c r="I14" s="151"/>
       <c r="J14" s="151"/>
       <c r="K14" s="151"/>
       <c r="L14" s="39" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="M14" s="39"/>
       <c r="N14" s="151"/>
       <c r="O14" s="39" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="P14" s="151"/>
       <c r="Q14" s="151"/>
       <c r="R14" s="137" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="S14" s="138"/>
       <c r="T14" s="151"/>
       <c r="U14" s="151"/>
       <c r="V14" s="139" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="148" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>112</v>
       </c>
       <c r="C15" s="137" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="D15" s="137" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E15" s="137"/>
       <c r="F15" s="151"/>
@@ -22464,23 +22683,23 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="149" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B16" s="137" t="s">
         <v>96</v>
       </c>
       <c r="C16" s="137" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D16" s="137" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E16" s="137" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="F16" s="151"/>
       <c r="G16" s="137" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="H16" s="151"/>
       <c r="I16" s="151"/>
@@ -22498,22 +22717,22 @@
       <c r="S16" s="138"/>
       <c r="T16" s="151"/>
       <c r="U16" s="156" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="V16" s="140"/>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="149" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B17" s="137" t="s">
         <v>134</v>
       </c>
       <c r="C17" s="137" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D17" s="137" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E17" s="137" t="s">
         <v>148</v>
@@ -22535,7 +22754,7 @@
       <c r="P17" s="151"/>
       <c r="Q17" s="151"/>
       <c r="R17" s="137" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="S17" s="138"/>
       <c r="T17" s="151"/>
@@ -22544,16 +22763,16 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="149" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B18" s="137" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C18" s="137" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D18" s="137" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E18" s="137" t="s">
         <v>148</v>
@@ -22575,7 +22794,7 @@
       <c r="P18" s="151"/>
       <c r="Q18" s="151"/>
       <c r="R18" s="137" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="S18" s="138"/>
       <c r="T18" s="151"/>
@@ -22584,23 +22803,23 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="148" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B19" s="137" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C19" s="137" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D19" s="137" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E19" s="137" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="F19" s="151"/>
       <c r="G19" s="137" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="H19" s="151"/>
       <c r="I19" s="151"/>
@@ -22615,13 +22834,13 @@
       <c r="P19" s="151"/>
       <c r="Q19" s="151"/>
       <c r="R19" s="137" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="S19" s="138"/>
       <c r="T19" s="156"/>
       <c r="U19" s="151"/>
       <c r="V19" s="136" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
   </sheetData>
@@ -22676,11 +22895,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
@@ -22698,11 +22917,11 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
       <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
@@ -22804,4 +23023,306 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" style="47" customWidth="1"/>
+    <col min="2" max="3" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="170" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="131" t="s">
+        <v>983</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="170" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="131" t="s">
+        <v>980</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="164"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" ht="150" customHeight="1">
+      <c r="A4" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="24"/>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="47" t="s">
+        <v>971</v>
+      </c>
+      <c r="B7" s="3">
+        <f>ROW()-6</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="47" t="s">
+        <v>978</v>
+      </c>
+      <c r="B8" s="3">
+        <f>ROW()-6</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="47" t="s">
+        <v>978</v>
+      </c>
+      <c r="B9" s="3">
+        <f>ROW()-6</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="47" t="s">
+        <v>978</v>
+      </c>
+      <c r="B10" s="3">
+        <f>ROW()-6</f>
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="47" t="s">
+        <v>978</v>
+      </c>
+      <c r="B11" s="3">
+        <f>ROW()-6</f>
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="47" t="s">
+        <v>978</v>
+      </c>
+      <c r="B12" s="3">
+        <f>ROW()-6</f>
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="47" t="s">
+        <v>981</v>
+      </c>
+      <c r="B13" s="3">
+        <f>ROW()-6</f>
+        <v>7</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="47" t="s">
+        <v>979</v>
+      </c>
+      <c r="B14" s="21">
+        <v>99</v>
+      </c>
+      <c r="C14" s="21">
+        <v>99</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:XFD6">
+      <formula1>"int,string,bool,long,strList1,strList2,nList1,nList2"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Assets/island/DBCfg/DataCfg.xlsx
+++ b/Assets/island/DBCfg/DataCfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26240" windowHeight="15540" tabRatio="827" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25000" windowHeight="15600" tabRatio="827" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="配置表cfg" sheetId="1" r:id="rId1"/>
@@ -715,7 +715,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="991">
   <si>
     <t>表名：</t>
   </si>
@@ -4322,123 +4322,151 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barbarian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LandCraft</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breaker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁灭者自爆炸弹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占用地块数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Port</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>据点/港口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>worldmap.mapport</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>worldmap.island1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>worldmap.island2</t>
+  </si>
+  <si>
+    <t>worldmap.island3</t>
+  </si>
+  <si>
+    <t>worldmap.island4</t>
+  </si>
+  <si>
+    <t>worldmap.island5</t>
+  </si>
+  <si>
+    <t>装饰岛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占用格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBCFMapTile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家岛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>worldmap.mapcity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBCFMapTileData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Alliance</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Barbarian</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LandCraft</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Breaker</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>毁灭者自爆炸弹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrefabName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>占用地块数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Port</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>据点/港口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>worldmap.mapport</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>worldmap.island1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>worldmap.island2</t>
-  </si>
-  <si>
-    <t>worldmap.island3</t>
-  </si>
-  <si>
-    <t>worldmap.island4</t>
-  </si>
-  <si>
-    <t>worldmap.island5</t>
-  </si>
-  <si>
-    <t>装饰岛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>占用格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DBCFMapTile</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家岛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>worldmap.mapcity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DBCFMapTileData</t>
+    <t>Beacon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯塔数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FleetsCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舰队数量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5057,7 +5085,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1496">
+  <cellStyleXfs count="1504">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -7950,8 +7978,32 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -8450,6 +8502,9 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8466,7 +8521,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1496">
+  <cellStyles count="1504">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 1 10" xfId="2"/>
     <cellStyle name="20% - 强调文字颜色 1 10 2" xfId="3"/>
@@ -9557,6 +9612,10 @@
     <cellStyle name="超链接" xfId="1490" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1492" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1494" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1496" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1498" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1500" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1502" builtinId="8" hidden="1"/>
     <cellStyle name="逗号 [0]" xfId="885" builtinId="6"/>
     <cellStyle name="访问过的超链接" xfId="1085" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1087" builtinId="9" hidden="1"/>
@@ -9764,6 +9823,10 @@
     <cellStyle name="访问过的超链接" xfId="1491" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1493" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1495" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1497" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1499" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1501" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1503" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="886" builtinId="26" customBuiltin="1"/>
     <cellStyle name="好 10" xfId="887"/>
     <cellStyle name="好 11" xfId="888"/>
@@ -10450,11 +10513,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
@@ -10473,11 +10536,11 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
@@ -10760,7 +10823,7 @@
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D43:D45"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10822,11 +10885,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
       <c r="D1" s="27" t="s">
         <v>34</v>
       </c>
@@ -10835,11 +10898,11 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:65">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
       <c r="D2" s="27" t="s">
         <v>35</v>
       </c>
@@ -11453,7 +11516,7 @@
         <v>90</v>
       </c>
       <c r="D7" s="104" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E7" s="103" t="s">
         <v>340</v>
@@ -11835,7 +11898,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>953</v>
+        <v>983</v>
       </c>
       <c r="D10" s="104" t="s">
         <v>91</v>
@@ -11920,7 +11983,7 @@
       <c r="AH10" s="98"/>
       <c r="AI10" s="99"/>
       <c r="AJ10" s="106" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AK10" s="106" t="s">
         <v>592</v>
@@ -12052,7 +12115,7 @@
       <c r="AH11" s="98"/>
       <c r="AI11" s="99"/>
       <c r="AJ11" s="106" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AK11" s="106" t="s">
         <v>592</v>
@@ -16063,7 +16126,7 @@
         <v>468</v>
       </c>
       <c r="D43" s="104" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E43" s="103" t="s">
         <v>473</v>
@@ -16187,7 +16250,7 @@
         <v>472</v>
       </c>
       <c r="D44" s="104" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E44" s="103" t="s">
         <v>335</v>
@@ -16311,7 +16374,7 @@
         <v>469</v>
       </c>
       <c r="D45" s="104" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E45" s="103" t="s">
         <v>33</v>
@@ -16447,13 +16510,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表4" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AN26"/>
+  <dimension ref="A1:AP26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="T30" sqref="T30"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -16461,35 +16524,36 @@
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.33203125" style="71" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" style="71" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="3.1640625" style="71" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.5" style="71" bestFit="1" customWidth="1"/>
-    <col min="21" max="35" width="3.1640625" style="71" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="3.1640625" style="71" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" style="71" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.83203125" style="71" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="3.1640625" style="71" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.5" style="71" bestFit="1" customWidth="1"/>
+    <col min="23" max="37" width="3.1640625" style="71" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="3.1640625" style="71" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="4" customFormat="1">
-      <c r="A1" s="166" t="s">
+    <row r="1" spans="1:42" s="4" customFormat="1">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="27" t="s">
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="166" t="s">
         <v>346</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
       <c r="M1" s="64"/>
@@ -16515,25 +16579,27 @@
       <c r="AG1" s="64"/>
       <c r="AH1" s="64"/>
       <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
       <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
       <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
     </row>
-    <row r="2" spans="1:40" s="4" customFormat="1">
-      <c r="A2" s="166" t="s">
+    <row r="2" spans="1:42" s="4" customFormat="1">
+      <c r="A2" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
       <c r="D2" s="55" t="s">
         <v>336</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="64"/>
       <c r="L2" s="64"/>
       <c r="M2" s="64"/>
@@ -16559,11 +16625,13 @@
       <c r="AG2" s="64"/>
       <c r="AH2" s="64"/>
       <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
       <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
       <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
     </row>
-    <row r="3" spans="1:40" s="4" customFormat="1">
+    <row r="3" spans="1:42" s="4" customFormat="1">
       <c r="A3" s="26"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -16572,8 +16640,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
       <c r="K3" s="64"/>
       <c r="L3" s="64"/>
       <c r="M3" s="64"/>
@@ -16599,11 +16667,13 @@
       <c r="AG3" s="64"/>
       <c r="AH3" s="64"/>
       <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
       <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
       <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
     </row>
-    <row r="4" spans="1:40" s="4" customFormat="1" ht="84">
+    <row r="4" spans="1:42" s="4" customFormat="1" ht="84">
       <c r="A4" s="23" t="s">
         <v>9</v>
       </c>
@@ -16617,115 +16687,121 @@
         <v>347</v>
       </c>
       <c r="E4" s="52" t="s">
+        <v>985</v>
+      </c>
+      <c r="F4" s="52" t="s">
         <v>342</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="G4" s="52" t="s">
         <v>324</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="H4" s="52" t="s">
         <v>686</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="I4" s="66" t="s">
+        <v>990</v>
+      </c>
+      <c r="J4" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="K4" s="65" t="s">
         <v>654</v>
       </c>
-      <c r="J4" s="65" t="s">
+      <c r="L4" s="65" t="s">
         <v>655</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="M4" s="65" t="s">
         <v>325</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="N4" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="M4" s="66" t="s">
+      <c r="O4" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="P4" s="66" t="s">
         <v>208</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="Q4" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="R4" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="S4" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="T4" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="U4" s="66" t="s">
         <v>326</v>
       </c>
-      <c r="T4" s="66" t="s">
+      <c r="V4" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="U4" s="66" t="s">
+      <c r="W4" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="X4" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="W4" s="66" t="s">
+      <c r="Y4" s="66" t="s">
         <v>191</v>
       </c>
-      <c r="X4" s="66" t="s">
+      <c r="Z4" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="Y4" s="66" t="s">
+      <c r="AA4" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="Z4" s="66" t="s">
+      <c r="AB4" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="AA4" s="66" t="s">
+      <c r="AC4" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="AB4" s="66" t="s">
+      <c r="AD4" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="AC4" s="66" t="s">
+      <c r="AE4" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="AD4" s="66" t="s">
+      <c r="AF4" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="AE4" s="66" t="s">
+      <c r="AG4" s="66" t="s">
         <v>242</v>
       </c>
-      <c r="AF4" s="66" t="s">
+      <c r="AH4" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="AG4" s="66" t="s">
+      <c r="AI4" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="AH4" s="66" t="s">
+      <c r="AJ4" s="66" t="s">
         <v>224</v>
       </c>
-      <c r="AI4" s="66" t="s">
+      <c r="AK4" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="AJ4" s="66" t="s">
+      <c r="AL4" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="AK4" s="66" t="s">
+      <c r="AM4" s="66" t="s">
         <v>233</v>
       </c>
-      <c r="AL4" s="66" t="s">
+      <c r="AN4" s="66" t="s">
         <v>327</v>
       </c>
-      <c r="AM4" s="66" t="s">
+      <c r="AO4" s="66" t="s">
         <v>328</v>
       </c>
-      <c r="AN4" s="66" t="s">
+      <c r="AP4" s="66" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="19" customFormat="1" ht="35" customHeight="1">
+    <row r="5" spans="1:42" s="19" customFormat="1" ht="35" customHeight="1">
       <c r="A5" s="23"/>
       <c r="B5" s="52" t="s">
         <v>2</v>
@@ -16737,115 +16813,121 @@
         <v>348</v>
       </c>
       <c r="E5" s="52" t="s">
+        <v>984</v>
+      </c>
+      <c r="F5" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="G5" s="52" t="s">
         <v>330</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="H5" s="52" t="s">
         <v>694</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="I5" s="66" t="s">
+        <v>989</v>
+      </c>
+      <c r="J5" s="52" t="s">
         <v>653</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="K5" s="52" t="s">
         <v>656</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="L5" s="52" t="s">
         <v>657</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="M5" s="52" t="s">
         <v>658</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="N5" s="52" t="s">
         <v>659</v>
       </c>
-      <c r="M5" s="52" t="s">
+      <c r="O5" s="52" t="s">
         <v>660</v>
       </c>
-      <c r="N5" s="52" t="s">
+      <c r="P5" s="52" t="s">
         <v>661</v>
       </c>
-      <c r="O5" s="52" t="s">
+      <c r="Q5" s="52" t="s">
         <v>662</v>
       </c>
-      <c r="P5" s="52" t="s">
+      <c r="R5" s="52" t="s">
         <v>663</v>
       </c>
-      <c r="Q5" s="52" t="s">
+      <c r="S5" s="52" t="s">
         <v>664</v>
       </c>
-      <c r="R5" s="52" t="s">
+      <c r="T5" s="52" t="s">
         <v>666</v>
       </c>
-      <c r="S5" s="52" t="s">
+      <c r="U5" s="52" t="s">
         <v>667</v>
       </c>
-      <c r="T5" s="52" t="s">
+      <c r="V5" s="52" t="s">
         <v>668</v>
       </c>
-      <c r="U5" s="52" t="s">
+      <c r="W5" s="52" t="s">
         <v>669</v>
       </c>
-      <c r="V5" s="52" t="s">
+      <c r="X5" s="52" t="s">
         <v>670</v>
       </c>
-      <c r="W5" s="52" t="s">
+      <c r="Y5" s="52" t="s">
         <v>671</v>
       </c>
-      <c r="X5" s="52" t="s">
+      <c r="Z5" s="52" t="s">
         <v>672</v>
       </c>
-      <c r="Y5" s="52" t="s">
+      <c r="AA5" s="52" t="s">
         <v>673</v>
       </c>
-      <c r="Z5" s="52" t="s">
+      <c r="AB5" s="52" t="s">
         <v>674</v>
       </c>
-      <c r="AA5" s="52" t="s">
+      <c r="AC5" s="52" t="s">
         <v>675</v>
       </c>
-      <c r="AB5" s="52" t="s">
+      <c r="AD5" s="52" t="s">
         <v>676</v>
       </c>
-      <c r="AC5" s="52" t="s">
+      <c r="AE5" s="52" t="s">
         <v>677</v>
       </c>
-      <c r="AD5" s="52" t="s">
+      <c r="AF5" s="52" t="s">
         <v>678</v>
       </c>
-      <c r="AE5" s="52" t="s">
+      <c r="AG5" s="52" t="s">
         <v>679</v>
       </c>
-      <c r="AF5" s="52" t="s">
+      <c r="AH5" s="52" t="s">
         <v>680</v>
       </c>
-      <c r="AG5" s="52" t="s">
+      <c r="AI5" s="52" t="s">
         <v>681</v>
       </c>
-      <c r="AH5" s="52" t="s">
+      <c r="AJ5" s="52" t="s">
         <v>682</v>
       </c>
-      <c r="AI5" s="52" t="s">
+      <c r="AK5" s="52" t="s">
         <v>683</v>
       </c>
-      <c r="AJ5" s="52" t="s">
+      <c r="AL5" s="52" t="s">
         <v>684</v>
       </c>
-      <c r="AK5" s="52" t="s">
+      <c r="AM5" s="52" t="s">
         <v>685</v>
       </c>
-      <c r="AL5" s="66" t="s">
+      <c r="AN5" s="66" t="s">
         <v>331</v>
       </c>
-      <c r="AM5" s="66" t="s">
+      <c r="AO5" s="66" t="s">
         <v>332</v>
       </c>
-      <c r="AN5" s="66" t="s">
+      <c r="AP5" s="66" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="4" customFormat="1" ht="24" customHeight="1">
+    <row r="6" spans="1:42" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A6" s="25"/>
       <c r="B6" s="54" t="s">
         <v>5</v>
@@ -16857,21 +16939,21 @@
         <v>349</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>5</v>
+        <v>986</v>
       </c>
       <c r="F6" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="54" t="s">
         <v>687</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="I6" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="67" t="s">
+      <c r="J6" s="54" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="67" t="s">
@@ -16880,17 +16962,17 @@
       <c r="L6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="68" t="s">
+      <c r="M6" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="68" t="s">
         <v>264</v>
       </c>
-      <c r="N6" s="68" t="s">
+      <c r="P6" s="68" t="s">
         <v>264</v>
-      </c>
-      <c r="O6" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="67" t="s">
-        <v>5</v>
       </c>
       <c r="Q6" s="67" t="s">
         <v>5</v>
@@ -16907,10 +16989,10 @@
       <c r="U6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="V6" s="68" t="s">
+      <c r="V6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="W6" s="68" t="s">
+      <c r="W6" s="67" t="s">
         <v>5</v>
       </c>
       <c r="X6" s="68" t="s">
@@ -16935,13 +17017,13 @@
         <v>5</v>
       </c>
       <c r="AE6" s="68" t="s">
-        <v>264</v>
+        <v>5</v>
       </c>
       <c r="AF6" s="68" t="s">
         <v>5</v>
       </c>
       <c r="AG6" s="68" t="s">
-        <v>5</v>
+        <v>264</v>
       </c>
       <c r="AH6" s="68" t="s">
         <v>5</v>
@@ -16964,8 +17046,14 @@
       <c r="AN6" s="68" t="s">
         <v>5</v>
       </c>
+      <c r="AO6" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP6" s="68" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:42">
       <c r="B7" s="39">
         <v>1</v>
       </c>
@@ -16976,22 +17064,22 @@
         <v>335</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>318</v>
+        <v>987</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>318</v>
       </c>
       <c r="G7" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="H7" s="39" t="s">
         <v>688</v>
       </c>
-      <c r="H7" s="39">
+      <c r="I7" s="39">
         <v>1</v>
       </c>
-      <c r="I7" s="69">
+      <c r="J7" s="39">
         <v>1</v>
-      </c>
-      <c r="J7" s="69" t="s">
-        <v>33</v>
       </c>
       <c r="K7" s="69">
         <v>1</v>
@@ -16999,20 +17087,20 @@
       <c r="L7" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="69" t="s">
-        <v>33</v>
+      <c r="M7" s="69">
+        <v>1</v>
       </c>
       <c r="N7" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="69">
+      <c r="O7" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="69">
         <v>1</v>
-      </c>
-      <c r="P7" s="69">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="69">
-        <v>0</v>
       </c>
       <c r="R7" s="69">
         <v>0</v>
@@ -17026,14 +17114,14 @@
       <c r="U7" s="69">
         <v>0</v>
       </c>
-      <c r="V7" s="69" t="s">
+      <c r="V7" s="69">
+        <v>0</v>
+      </c>
+      <c r="W7" s="69">
+        <v>0</v>
+      </c>
+      <c r="X7" s="69" t="s">
         <v>33</v>
-      </c>
-      <c r="W7" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="X7" s="69" t="s">
-        <v>148</v>
       </c>
       <c r="Y7" s="69" t="s">
         <v>148</v>
@@ -17047,16 +17135,16 @@
       <c r="AB7" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="69"/>
-      <c r="AE7" s="69" t="s">
+      <c r="AC7" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD7" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE7" s="69"/>
+      <c r="AF7" s="69"/>
+      <c r="AG7" s="69" t="s">
         <v>91</v>
-      </c>
-      <c r="AF7" s="69">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="69">
-        <v>1</v>
       </c>
       <c r="AH7" s="69">
         <v>1</v>
@@ -17070,13 +17158,19 @@
       <c r="AK7" s="69">
         <v>1</v>
       </c>
-      <c r="AL7" s="69" t="s">
+      <c r="AL7" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="69">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="AM7" s="69"/>
-      <c r="AN7" s="69"/>
+      <c r="AO7" s="69"/>
+      <c r="AP7" s="69"/>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:42">
       <c r="B8" s="39">
         <v>2</v>
       </c>
@@ -17087,22 +17181,22 @@
         <v>352</v>
       </c>
       <c r="E8" s="39" t="s">
+        <v>988</v>
+      </c>
+      <c r="F8" s="39" t="s">
         <v>397</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="G8" s="39" t="s">
         <v>483</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="H8" s="39" t="s">
         <v>688</v>
       </c>
-      <c r="H8" s="39">
+      <c r="I8" s="39">
         <v>1</v>
       </c>
-      <c r="I8" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="69" t="s">
-        <v>33</v>
+      <c r="J8" s="39">
+        <v>1</v>
       </c>
       <c r="K8" s="69" t="s">
         <v>33</v>
@@ -17119,14 +17213,14 @@
       <c r="O8" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="69">
+      <c r="P8" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="69">
         <v>1</v>
-      </c>
-      <c r="Q8" s="69">
-        <v>0</v>
-      </c>
-      <c r="R8" s="69">
-        <v>0</v>
       </c>
       <c r="S8" s="69">
         <v>0</v>
@@ -17137,37 +17231,37 @@
       <c r="U8" s="69">
         <v>0</v>
       </c>
-      <c r="V8" s="69" t="s">
+      <c r="V8" s="69">
+        <v>0</v>
+      </c>
+      <c r="W8" s="69">
+        <v>0</v>
+      </c>
+      <c r="X8" s="69" t="s">
         <v>419</v>
       </c>
-      <c r="W8" s="69" t="s">
+      <c r="Y8" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="X8" s="69" t="s">
+      <c r="Z8" s="69" t="s">
         <v>455</v>
       </c>
-      <c r="Y8" s="69" t="s">
+      <c r="AA8" s="69" t="s">
         <v>450</v>
-      </c>
-      <c r="Z8" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA8" s="69" t="s">
-        <v>148</v>
       </c>
       <c r="AB8" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="AC8" s="69"/>
-      <c r="AD8" s="69"/>
-      <c r="AE8" s="69" t="s">
+      <c r="AC8" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD8" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE8" s="69"/>
+      <c r="AF8" s="69"/>
+      <c r="AG8" s="69" t="s">
         <v>91</v>
-      </c>
-      <c r="AF8" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG8" s="69" t="s">
-        <v>33</v>
       </c>
       <c r="AH8" s="69" t="s">
         <v>33</v>
@@ -17181,13 +17275,19 @@
       <c r="AK8" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="AL8" s="69">
+      <c r="AL8" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM8" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN8" s="69">
         <v>1</v>
       </c>
-      <c r="AM8" s="69"/>
-      <c r="AN8" s="69"/>
+      <c r="AO8" s="69"/>
+      <c r="AP8" s="69"/>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:42">
       <c r="B9" s="39">
         <v>3</v>
       </c>
@@ -17198,49 +17298,49 @@
         <v>353</v>
       </c>
       <c r="E9" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="39" t="s">
         <v>398</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="G9" s="39" t="s">
         <v>481</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="H9" s="39" t="s">
         <v>688</v>
       </c>
-      <c r="H9" s="39">
+      <c r="I9" s="39">
         <v>1</v>
       </c>
-      <c r="I9" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="69" t="s">
-        <v>418</v>
+      <c r="J9" s="39">
+        <v>1</v>
       </c>
       <c r="K9" s="69" t="s">
         <v>33</v>
       </c>
       <c r="L9" s="69" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="M9" s="69" t="s">
-        <v>428</v>
+        <v>33</v>
       </c>
       <c r="N9" s="69" t="s">
         <v>428</v>
       </c>
       <c r="O9" s="69" t="s">
+        <v>428</v>
+      </c>
+      <c r="P9" s="69" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q9" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="69" t="s">
+      <c r="R9" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="69">
+      <c r="S9" s="69">
         <v>1</v>
-      </c>
-      <c r="R9" s="69">
-        <v>0</v>
-      </c>
-      <c r="S9" s="69">
-        <v>0</v>
       </c>
       <c r="T9" s="69">
         <v>0</v>
@@ -17248,20 +17348,20 @@
       <c r="U9" s="69">
         <v>0</v>
       </c>
-      <c r="V9" s="69" t="s">
+      <c r="V9" s="69">
+        <v>0</v>
+      </c>
+      <c r="W9" s="69">
+        <v>0</v>
+      </c>
+      <c r="X9" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="W9" s="69" t="s">
+      <c r="Y9" s="69" t="s">
         <v>419</v>
       </c>
-      <c r="X9" s="69" t="s">
+      <c r="Z9" s="69" t="s">
         <v>33</v>
-      </c>
-      <c r="Y9" s="69" t="s">
-        <v>450</v>
-      </c>
-      <c r="Z9" s="69" t="s">
-        <v>148</v>
       </c>
       <c r="AA9" s="69" t="s">
         <v>450</v>
@@ -17269,16 +17369,16 @@
       <c r="AB9" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="AC9" s="69"/>
-      <c r="AD9" s="69"/>
-      <c r="AE9" s="69" t="s">
+      <c r="AC9" s="69" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD9" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE9" s="69"/>
+      <c r="AF9" s="69"/>
+      <c r="AG9" s="69" t="s">
         <v>91</v>
-      </c>
-      <c r="AF9" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG9" s="69" t="s">
-        <v>33</v>
       </c>
       <c r="AH9" s="69" t="s">
         <v>33</v>
@@ -17292,15 +17392,21 @@
       <c r="AK9" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="AL9" s="69">
+      <c r="AL9" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM9" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN9" s="69">
         <v>1</v>
       </c>
-      <c r="AM9" s="69">
+      <c r="AO9" s="69">
         <v>1</v>
       </c>
-      <c r="AN9" s="69"/>
+      <c r="AP9" s="69"/>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:42">
       <c r="B10" s="39">
         <v>4</v>
       </c>
@@ -17311,87 +17417,87 @@
         <v>354</v>
       </c>
       <c r="E10" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="39" t="s">
         <v>399</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="G10" s="39" t="s">
         <v>484</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="H10" s="39" t="s">
         <v>688</v>
       </c>
-      <c r="H10" s="39">
+      <c r="I10" s="39">
         <v>1</v>
       </c>
-      <c r="I10" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="69" t="s">
-        <v>418</v>
+      <c r="J10" s="39">
+        <v>1</v>
       </c>
       <c r="K10" s="69" t="s">
         <v>33</v>
       </c>
       <c r="L10" s="69" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="M10" s="69" t="s">
-        <v>428</v>
+        <v>33</v>
       </c>
       <c r="N10" s="69" t="s">
         <v>428</v>
       </c>
       <c r="O10" s="69" t="s">
+        <v>428</v>
+      </c>
+      <c r="P10" s="69" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q10" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="69" t="s">
+      <c r="R10" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="69">
+      <c r="S10" s="69">
         <v>1</v>
       </c>
-      <c r="R10" s="69" t="s">
+      <c r="T10" s="69" t="s">
         <v>665</v>
       </c>
-      <c r="S10" s="69" t="s">
+      <c r="U10" s="69" t="s">
         <v>450</v>
       </c>
-      <c r="T10" s="69">
+      <c r="V10" s="69">
         <v>0</v>
       </c>
-      <c r="U10" s="69">
+      <c r="W10" s="69">
         <v>0</v>
       </c>
-      <c r="V10" s="69" t="s">
+      <c r="X10" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="W10" s="69" t="s">
+      <c r="Y10" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="X10" s="69" t="s">
+      <c r="Z10" s="69" t="s">
         <v>419</v>
       </c>
-      <c r="Y10" s="69" t="s">
+      <c r="AA10" s="69" t="s">
         <v>33</v>
-      </c>
-      <c r="Z10" s="69" t="s">
-        <v>450</v>
-      </c>
-      <c r="AA10" s="69" t="s">
-        <v>450</v>
       </c>
       <c r="AB10" s="69" t="s">
         <v>450</v>
       </c>
-      <c r="AC10" s="69"/>
-      <c r="AD10" s="69"/>
-      <c r="AE10" s="69" t="s">
+      <c r="AC10" s="69" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD10" s="69" t="s">
+        <v>450</v>
+      </c>
+      <c r="AE10" s="69"/>
+      <c r="AF10" s="69"/>
+      <c r="AG10" s="69" t="s">
         <v>91</v>
-      </c>
-      <c r="AF10" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG10" s="69" t="s">
-        <v>33</v>
       </c>
       <c r="AH10" s="69" t="s">
         <v>33</v>
@@ -17405,15 +17511,21 @@
       <c r="AK10" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="AL10" s="69">
+      <c r="AL10" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM10" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN10" s="69">
         <v>1</v>
       </c>
-      <c r="AM10" s="69">
+      <c r="AO10" s="69">
         <v>1</v>
       </c>
-      <c r="AN10" s="69"/>
+      <c r="AP10" s="69"/>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:42">
       <c r="B11" s="39">
         <v>5</v>
       </c>
@@ -17424,21 +17536,21 @@
         <v>355</v>
       </c>
       <c r="E11" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="39" t="s">
         <v>402</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="G11" s="39" t="s">
         <v>485</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="H11" s="39" t="s">
         <v>688</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="I11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="69" t="s">
+      <c r="J11" s="39" t="s">
         <v>33</v>
       </c>
       <c r="K11" s="69" t="s">
@@ -17459,54 +17571,54 @@
       <c r="P11" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" s="70" t="s">
+      <c r="Q11" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="R11" s="69">
+      <c r="T11" s="69">
         <v>1</v>
       </c>
-      <c r="S11" s="69">
+      <c r="U11" s="69">
         <v>1</v>
       </c>
-      <c r="T11" s="69">
+      <c r="V11" s="69">
         <v>0</v>
       </c>
-      <c r="U11" s="69">
+      <c r="W11" s="69">
         <v>0</v>
       </c>
-      <c r="V11" s="69" t="s">
+      <c r="X11" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="W11" s="69" t="s">
+      <c r="Y11" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="X11" s="69" t="s">
+      <c r="Z11" s="69" t="s">
         <v>419</v>
       </c>
-      <c r="Y11" s="69" t="s">
+      <c r="AA11" s="69" t="s">
         <v>433</v>
       </c>
-      <c r="Z11" s="69" t="s">
+      <c r="AB11" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="AA11" s="69" t="s">
+      <c r="AC11" s="69" t="s">
         <v>450</v>
       </c>
-      <c r="AB11" s="69" t="s">
+      <c r="AD11" s="69" t="s">
         <v>462</v>
       </c>
-      <c r="AC11" s="69" t="s">
+      <c r="AE11" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="AD11" s="69"/>
-      <c r="AE11" s="69" t="s">
+      <c r="AF11" s="69"/>
+      <c r="AG11" s="69" t="s">
         <v>91</v>
-      </c>
-      <c r="AF11" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG11" s="69" t="s">
-        <v>33</v>
       </c>
       <c r="AH11" s="69" t="s">
         <v>33</v>
@@ -17520,17 +17632,23 @@
       <c r="AK11" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="AL11" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM11" s="69">
-        <v>1</v>
+      <c r="AL11" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM11" s="69" t="s">
+        <v>33</v>
       </c>
       <c r="AN11" s="69">
         <v>1</v>
       </c>
+      <c r="AO11" s="69">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="69">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:42">
       <c r="B12" s="39">
         <v>6</v>
       </c>
@@ -17541,21 +17659,21 @@
         <v>355</v>
       </c>
       <c r="E12" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="39" t="s">
         <v>403</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="G12" s="39" t="s">
         <v>486</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="H12" s="39" t="s">
         <v>688</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="I12" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="I12" s="69" t="s">
-        <v>419</v>
-      </c>
-      <c r="J12" s="69" t="s">
+      <c r="J12" s="39" t="s">
         <v>419</v>
       </c>
       <c r="K12" s="69" t="s">
@@ -17574,58 +17692,58 @@
         <v>419</v>
       </c>
       <c r="P12" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q12" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="R12" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="69" t="s">
+      <c r="S12" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="R12" s="69">
+      <c r="T12" s="69">
         <v>1</v>
       </c>
-      <c r="S12" s="69" t="s">
+      <c r="U12" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="T12" s="69" t="s">
+      <c r="V12" s="69" t="s">
         <v>450</v>
       </c>
-      <c r="U12" s="69">
+      <c r="W12" s="69">
         <v>0</v>
       </c>
-      <c r="V12" s="69" t="s">
+      <c r="X12" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="W12" s="69" t="s">
+      <c r="Y12" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="X12" s="69" t="s">
+      <c r="Z12" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="Y12" s="69" t="s">
+      <c r="AA12" s="69" t="s">
         <v>459</v>
       </c>
-      <c r="Z12" s="69" t="s">
+      <c r="AB12" s="69" t="s">
         <v>419</v>
       </c>
-      <c r="AA12" s="69" t="s">
+      <c r="AC12" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="AB12" s="69" t="s">
+      <c r="AD12" s="69" t="s">
         <v>450</v>
       </c>
-      <c r="AC12" s="69" t="s">
+      <c r="AE12" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="AD12" s="69" t="s">
+      <c r="AF12" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="AE12" s="69" t="s">
+      <c r="AG12" s="69" t="s">
         <v>91</v>
-      </c>
-      <c r="AF12" s="69" t="s">
-        <v>419</v>
-      </c>
-      <c r="AG12" s="69" t="s">
-        <v>419</v>
       </c>
       <c r="AH12" s="69" t="s">
         <v>419</v>
@@ -17639,17 +17757,23 @@
       <c r="AK12" s="69" t="s">
         <v>419</v>
       </c>
-      <c r="AL12" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM12" s="69">
-        <v>1</v>
+      <c r="AL12" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="AM12" s="69" t="s">
+        <v>419</v>
       </c>
       <c r="AN12" s="69">
         <v>1</v>
       </c>
+      <c r="AO12" s="69">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="69">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:42">
       <c r="B13" s="39">
         <v>7</v>
       </c>
@@ -17660,91 +17784,91 @@
         <v>356</v>
       </c>
       <c r="E13" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="39" t="s">
         <v>400</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="G13" s="39" t="s">
         <v>482</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="H13" s="39" t="s">
         <v>691</v>
       </c>
-      <c r="H13" s="39" t="s">
+      <c r="I13" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="I13" s="69" t="s">
+      <c r="J13" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="J13" s="69" t="s">
+      <c r="K13" s="69" t="s">
         <v>419</v>
-      </c>
-      <c r="K13" s="69" t="s">
-        <v>422</v>
       </c>
       <c r="L13" s="69" t="s">
         <v>419</v>
       </c>
       <c r="M13" s="69" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="N13" s="69" t="s">
         <v>419</v>
       </c>
       <c r="O13" s="69" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="P13" s="69" t="s">
         <v>419</v>
       </c>
       <c r="Q13" s="69" t="s">
-        <v>33</v>
+        <v>422</v>
       </c>
       <c r="R13" s="69" t="s">
-        <v>33</v>
+        <v>419</v>
       </c>
       <c r="S13" s="69" t="s">
         <v>33</v>
       </c>
       <c r="T13" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="V13" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="U13" s="69" t="s">
+      <c r="W13" s="69" t="s">
         <v>451</v>
       </c>
-      <c r="V13" s="69" t="s">
+      <c r="X13" s="69" t="s">
         <v>391</v>
       </c>
-      <c r="W13" s="69" t="s">
+      <c r="Y13" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="X13" s="69" t="s">
+      <c r="Z13" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="Y13" s="69" t="s">
+      <c r="AA13" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="Z13" s="69" t="s">
+      <c r="AB13" s="69" t="s">
         <v>419</v>
       </c>
-      <c r="AA13" s="69" t="s">
+      <c r="AC13" s="69" t="s">
         <v>422</v>
       </c>
-      <c r="AB13" s="69" t="s">
+      <c r="AD13" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="AC13" s="69" t="s">
+      <c r="AE13" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="AD13" s="69" t="s">
+      <c r="AF13" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="AE13" s="69" t="s">
+      <c r="AG13" s="69" t="s">
         <v>91</v>
-      </c>
-      <c r="AF13" s="69" t="s">
-        <v>422</v>
-      </c>
-      <c r="AG13" s="69" t="s">
-        <v>422</v>
       </c>
       <c r="AH13" s="69" t="s">
         <v>422</v>
@@ -17758,17 +17882,23 @@
       <c r="AK13" s="69" t="s">
         <v>422</v>
       </c>
-      <c r="AL13" s="69">
+      <c r="AL13" s="69" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM13" s="69" t="s">
+        <v>422</v>
+      </c>
+      <c r="AN13" s="69">
         <v>2</v>
       </c>
-      <c r="AM13" s="69">
+      <c r="AO13" s="69">
         <v>1</v>
       </c>
-      <c r="AN13" s="69">
+      <c r="AP13" s="69">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:42">
       <c r="B14" s="39">
         <v>8</v>
       </c>
@@ -17779,21 +17909,21 @@
         <v>356</v>
       </c>
       <c r="E14" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="39" t="s">
         <v>404</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="G14" s="39" t="s">
         <v>487</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="H14" s="39" t="s">
         <v>689</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="I14" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="I14" s="69" t="s">
-        <v>419</v>
-      </c>
-      <c r="J14" s="69" t="s">
+      <c r="J14" s="39" t="s">
         <v>419</v>
       </c>
       <c r="K14" s="69" t="s">
@@ -17812,58 +17942,58 @@
         <v>419</v>
       </c>
       <c r="P14" s="69" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="Q14" s="69" t="s">
         <v>419</v>
       </c>
       <c r="R14" s="69" t="s">
-        <v>33</v>
+        <v>432</v>
       </c>
       <c r="S14" s="69" t="s">
-        <v>33</v>
+        <v>419</v>
       </c>
       <c r="T14" s="69" t="s">
         <v>33</v>
       </c>
       <c r="U14" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="V14" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="W14" s="69" t="s">
         <v>450</v>
       </c>
-      <c r="V14" s="69" t="s">
+      <c r="X14" s="69" t="s">
         <v>391</v>
       </c>
-      <c r="W14" s="69" t="s">
+      <c r="Y14" s="69" t="s">
         <v>391</v>
       </c>
-      <c r="X14" s="69" t="s">
+      <c r="Z14" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="Y14" s="69" t="s">
+      <c r="AA14" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="Z14" s="69" t="s">
+      <c r="AB14" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="AA14" s="69" t="s">
+      <c r="AC14" s="69" t="s">
         <v>419</v>
       </c>
-      <c r="AB14" s="69" t="s">
+      <c r="AD14" s="69" t="s">
         <v>419</v>
       </c>
-      <c r="AC14" s="69" t="s">
+      <c r="AE14" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="AD14" s="69" t="s">
+      <c r="AF14" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="AE14" s="69" t="s">
+      <c r="AG14" s="69" t="s">
         <v>91</v>
-      </c>
-      <c r="AF14" s="69" t="s">
-        <v>419</v>
-      </c>
-      <c r="AG14" s="69" t="s">
-        <v>419</v>
       </c>
       <c r="AH14" s="69" t="s">
         <v>419</v>
@@ -17877,17 +18007,23 @@
       <c r="AK14" s="69" t="s">
         <v>419</v>
       </c>
-      <c r="AL14" s="69">
+      <c r="AL14" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="AM14" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="AN14" s="69">
         <v>2</v>
       </c>
-      <c r="AM14" s="69">
+      <c r="AO14" s="69">
         <v>1</v>
       </c>
-      <c r="AN14" s="69">
+      <c r="AP14" s="69">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:42">
       <c r="B15" s="39">
         <v>9</v>
       </c>
@@ -17898,91 +18034,91 @@
         <v>357</v>
       </c>
       <c r="E15" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="G15" s="39" t="s">
         <v>488</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="H15" s="39" t="s">
         <v>689</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="I15" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="I15" s="69" t="s">
+      <c r="J15" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="J15" s="69" t="s">
+      <c r="K15" s="69" t="s">
         <v>419</v>
-      </c>
-      <c r="K15" s="69" t="s">
-        <v>423</v>
       </c>
       <c r="L15" s="69" t="s">
         <v>419</v>
       </c>
       <c r="M15" s="69" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="N15" s="69" t="s">
         <v>419</v>
       </c>
       <c r="O15" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="P15" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q15" s="69" t="s">
         <v>423</v>
       </c>
-      <c r="P15" s="69" t="s">
+      <c r="R15" s="69" t="s">
         <v>433</v>
       </c>
-      <c r="Q15" s="69" t="s">
+      <c r="S15" s="69" t="s">
         <v>436</v>
       </c>
-      <c r="R15" s="69" t="s">
+      <c r="T15" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="S15" s="69" t="s">
+      <c r="U15" s="69" t="s">
         <v>419</v>
       </c>
-      <c r="T15" s="69" t="s">
+      <c r="V15" s="69" t="s">
         <v>445</v>
       </c>
-      <c r="U15" s="69" t="s">
+      <c r="W15" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="69" t="s">
+      <c r="X15" s="69" t="s">
         <v>391</v>
       </c>
-      <c r="W15" s="69" t="s">
+      <c r="Y15" s="69" t="s">
         <v>391</v>
       </c>
-      <c r="X15" s="69" t="s">
+      <c r="Z15" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="Y15" s="69" t="s">
+      <c r="AA15" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="Z15" s="69" t="s">
+      <c r="AB15" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="AA15" s="69" t="s">
+      <c r="AC15" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="AB15" s="69" t="s">
+      <c r="AD15" s="69" t="s">
         <v>419</v>
       </c>
-      <c r="AC15" s="69" t="s">
+      <c r="AE15" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="AD15" s="69" t="s">
+      <c r="AF15" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="AE15" s="69" t="s">
+      <c r="AG15" s="69" t="s">
         <v>91</v>
-      </c>
-      <c r="AF15" s="69" t="s">
-        <v>423</v>
-      </c>
-      <c r="AG15" s="69" t="s">
-        <v>423</v>
       </c>
       <c r="AH15" s="69" t="s">
         <v>423</v>
@@ -17996,17 +18132,23 @@
       <c r="AK15" s="69" t="s">
         <v>423</v>
       </c>
-      <c r="AL15" s="69">
+      <c r="AL15" s="69" t="s">
+        <v>423</v>
+      </c>
+      <c r="AM15" s="69" t="s">
+        <v>423</v>
+      </c>
+      <c r="AN15" s="69">
         <v>2</v>
       </c>
-      <c r="AM15" s="69">
+      <c r="AO15" s="69">
         <v>2</v>
       </c>
-      <c r="AN15" s="69">
+      <c r="AP15" s="69">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:42">
       <c r="B16" s="39" t="s">
         <v>335</v>
       </c>
@@ -18017,91 +18159,91 @@
         <v>357</v>
       </c>
       <c r="E16" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="G16" s="39" t="s">
         <v>489</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="H16" s="39" t="s">
         <v>692</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="I16" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="J16" s="39" t="s">
         <v>420</v>
-      </c>
-      <c r="I16" s="69" t="s">
-        <v>419</v>
-      </c>
-      <c r="J16" s="69" t="s">
-        <v>419</v>
       </c>
       <c r="K16" s="69" t="s">
         <v>419</v>
       </c>
       <c r="L16" s="69" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="M16" s="69" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="N16" s="69" t="s">
         <v>429</v>
       </c>
       <c r="O16" s="69" t="s">
+        <v>429</v>
+      </c>
+      <c r="P16" s="69" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q16" s="69" t="s">
         <v>419</v>
-      </c>
-      <c r="P16" s="69" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q16" s="69" t="s">
-        <v>437</v>
       </c>
       <c r="R16" s="69" t="s">
         <v>419</v>
       </c>
       <c r="S16" s="69" t="s">
+        <v>437</v>
+      </c>
+      <c r="T16" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="U16" s="69" t="s">
         <v>438</v>
       </c>
-      <c r="T16" s="69" t="s">
+      <c r="V16" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="69" t="s">
+      <c r="W16" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="V16" s="69" t="s">
+      <c r="X16" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="W16" s="69" t="s">
+      <c r="Y16" s="69" t="s">
         <v>391</v>
       </c>
-      <c r="X16" s="69" t="s">
+      <c r="Z16" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="Y16" s="69" t="s">
+      <c r="AA16" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="Z16" s="69" t="s">
+      <c r="AB16" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="AA16" s="69" t="s">
+      <c r="AC16" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="AB16" s="69" t="s">
+      <c r="AD16" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="AC16" s="69" t="s">
+      <c r="AE16" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="AD16" s="69" t="s">
+      <c r="AF16" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="AE16" s="69" t="s">
+      <c r="AG16" s="69" t="s">
         <v>91</v>
-      </c>
-      <c r="AF16" s="69" t="s">
-        <v>419</v>
-      </c>
-      <c r="AG16" s="69" t="s">
-        <v>419</v>
       </c>
       <c r="AH16" s="69" t="s">
         <v>419</v>
@@ -18115,17 +18257,23 @@
       <c r="AK16" s="69" t="s">
         <v>419</v>
       </c>
-      <c r="AL16" s="69">
+      <c r="AL16" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="AM16" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="AN16" s="69">
         <v>2</v>
       </c>
-      <c r="AM16" s="69">
+      <c r="AO16" s="69">
         <v>2</v>
       </c>
-      <c r="AN16" s="69">
+      <c r="AP16" s="69">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:40">
+    <row r="17" spans="2:42">
       <c r="B17" s="39" t="s">
         <v>134</v>
       </c>
@@ -18136,21 +18284,21 @@
         <v>358</v>
       </c>
       <c r="E17" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="39" t="s">
         <v>401</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="G17" s="39" t="s">
         <v>490</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="H17" s="39" t="s">
         <v>689</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="I17" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="I17" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="J17" s="69" t="s">
+      <c r="J17" s="39" t="s">
         <v>177</v>
       </c>
       <c r="K17" s="69" t="s">
@@ -18169,58 +18317,58 @@
         <v>177</v>
       </c>
       <c r="P17" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q17" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="R17" s="69" t="s">
         <v>429</v>
-      </c>
-      <c r="Q17" s="69" t="s">
-        <v>419</v>
-      </c>
-      <c r="R17" s="69" t="s">
-        <v>419</v>
       </c>
       <c r="S17" s="69" t="s">
         <v>419</v>
       </c>
       <c r="T17" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="U17" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="V17" s="69" t="s">
         <v>429</v>
       </c>
-      <c r="U17" s="69" t="s">
+      <c r="W17" s="69" t="s">
         <v>447</v>
       </c>
-      <c r="V17" s="69" t="s">
+      <c r="X17" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="W17" s="69" t="s">
+      <c r="Y17" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="X17" s="69" t="s">
+      <c r="Z17" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="Y17" s="69" t="s">
+      <c r="AA17" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="Z17" s="69" t="s">
+      <c r="AB17" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="AA17" s="69" t="s">
+      <c r="AC17" s="69" t="s">
         <v>460</v>
       </c>
-      <c r="AB17" s="69" t="s">
+      <c r="AD17" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="AC17" s="69" t="s">
+      <c r="AE17" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="AD17" s="69" t="s">
+      <c r="AF17" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="AE17" s="69" t="s">
+      <c r="AG17" s="69" t="s">
         <v>91</v>
-      </c>
-      <c r="AF17" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG17" s="69" t="s">
-        <v>177</v>
       </c>
       <c r="AH17" s="69" t="s">
         <v>177</v>
@@ -18235,16 +18383,22 @@
         <v>177</v>
       </c>
       <c r="AL17" s="69" t="s">
-        <v>419</v>
+        <v>177</v>
       </c>
       <c r="AM17" s="69" t="s">
-        <v>419</v>
+        <v>177</v>
       </c>
       <c r="AN17" s="69" t="s">
         <v>419</v>
       </c>
+      <c r="AO17" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="AP17" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
-    <row r="18" spans="2:40">
+    <row r="18" spans="2:42">
       <c r="B18" s="39" t="s">
         <v>188</v>
       </c>
@@ -18255,91 +18409,91 @@
         <v>358</v>
       </c>
       <c r="E18" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="G18" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="H18" s="39" t="s">
         <v>689</v>
       </c>
-      <c r="H18" s="39" t="s">
+      <c r="I18" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="I18" s="69" t="s">
+      <c r="J18" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="J18" s="69" t="s">
+      <c r="K18" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="K18" s="69" t="s">
+      <c r="L18" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="M18" s="69" t="s">
         <v>424</v>
-      </c>
-      <c r="L18" s="69" t="s">
-        <v>430</v>
-      </c>
-      <c r="M18" s="69" t="s">
-        <v>430</v>
       </c>
       <c r="N18" s="69" t="s">
         <v>430</v>
       </c>
       <c r="O18" s="69" t="s">
+        <v>430</v>
+      </c>
+      <c r="P18" s="69" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q18" s="69" t="s">
         <v>424</v>
       </c>
-      <c r="P18" s="69" t="s">
+      <c r="R18" s="69" t="s">
         <v>424</v>
       </c>
-      <c r="Q18" s="69" t="s">
+      <c r="S18" s="69" t="s">
         <v>419</v>
-      </c>
-      <c r="R18" s="69" t="s">
-        <v>419</v>
-      </c>
-      <c r="S18" s="69" t="s">
-        <v>439</v>
       </c>
       <c r="T18" s="69" t="s">
         <v>419</v>
       </c>
       <c r="U18" s="69" t="s">
+        <v>439</v>
+      </c>
+      <c r="V18" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="W18" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="69" t="s">
+      <c r="X18" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="W18" s="69" t="s">
+      <c r="Y18" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="X18" s="69" t="s">
+      <c r="Z18" s="69" t="s">
         <v>391</v>
       </c>
-      <c r="Y18" s="69" t="s">
+      <c r="AA18" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="Z18" s="69" t="s">
+      <c r="AB18" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="AA18" s="69" t="s">
+      <c r="AC18" s="69" t="s">
         <v>442</v>
       </c>
-      <c r="AB18" s="69" t="s">
+      <c r="AD18" s="69" t="s">
         <v>463</v>
       </c>
-      <c r="AC18" s="69" t="s">
+      <c r="AE18" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="AD18" s="69" t="s">
+      <c r="AF18" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="AE18" s="69" t="s">
+      <c r="AG18" s="69" t="s">
         <v>91</v>
-      </c>
-      <c r="AF18" s="69" t="s">
-        <v>424</v>
-      </c>
-      <c r="AG18" s="69" t="s">
-        <v>424</v>
       </c>
       <c r="AH18" s="69" t="s">
         <v>424</v>
@@ -18353,17 +18507,23 @@
       <c r="AK18" s="69" t="s">
         <v>424</v>
       </c>
-      <c r="AL18" s="69">
-        <v>2</v>
-      </c>
-      <c r="AM18" s="69">
-        <v>2</v>
+      <c r="AL18" s="69" t="s">
+        <v>424</v>
+      </c>
+      <c r="AM18" s="69" t="s">
+        <v>424</v>
       </c>
       <c r="AN18" s="69">
         <v>2</v>
       </c>
+      <c r="AO18" s="69">
+        <v>2</v>
+      </c>
+      <c r="AP18" s="69">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="2:40">
+    <row r="19" spans="2:42">
       <c r="B19" s="39" t="s">
         <v>213</v>
       </c>
@@ -18374,49 +18534,49 @@
         <v>344</v>
       </c>
       <c r="E19" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="G19" s="39" t="s">
         <v>401</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="H19" s="39" t="s">
         <v>693</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="I19" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="I19" s="69" t="s">
+      <c r="J19" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="J19" s="69" t="s">
+      <c r="K19" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="K19" s="69" t="s">
+      <c r="L19" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="M19" s="69" t="s">
         <v>425</v>
-      </c>
-      <c r="L19" s="69" t="s">
-        <v>431</v>
-      </c>
-      <c r="M19" s="69" t="s">
-        <v>431</v>
       </c>
       <c r="N19" s="69" t="s">
         <v>431</v>
       </c>
       <c r="O19" s="69" t="s">
+        <v>431</v>
+      </c>
+      <c r="P19" s="69" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q19" s="69" t="s">
         <v>425</v>
       </c>
-      <c r="P19" s="69" t="s">
+      <c r="R19" s="69" t="s">
         <v>434</v>
       </c>
-      <c r="Q19" s="69" t="s">
+      <c r="S19" s="69" t="s">
         <v>177</v>
-      </c>
-      <c r="R19" s="69" t="s">
-        <v>419</v>
-      </c>
-      <c r="S19" s="69" t="s">
-        <v>419</v>
       </c>
       <c r="T19" s="69" t="s">
         <v>419</v>
@@ -18425,40 +18585,40 @@
         <v>419</v>
       </c>
       <c r="V19" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="W19" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="X19" s="69" t="s">
         <v>452</v>
       </c>
-      <c r="W19" s="69" t="s">
+      <c r="Y19" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="X19" s="69" t="s">
+      <c r="Z19" s="69" t="s">
         <v>391</v>
       </c>
-      <c r="Y19" s="69" t="s">
+      <c r="AA19" s="69" t="s">
         <v>391</v>
       </c>
-      <c r="Z19" s="69" t="s">
+      <c r="AB19" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="AA19" s="69" t="s">
+      <c r="AC19" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="AB19" s="69" t="s">
+      <c r="AD19" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="AC19" s="69" t="s">
+      <c r="AE19" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="AD19" s="69" t="s">
+      <c r="AF19" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="AE19" s="69" t="s">
+      <c r="AG19" s="69" t="s">
         <v>91</v>
-      </c>
-      <c r="AF19" s="69" t="s">
-        <v>425</v>
-      </c>
-      <c r="AG19" s="69" t="s">
-        <v>425</v>
       </c>
       <c r="AH19" s="69" t="s">
         <v>425</v>
@@ -18472,17 +18632,23 @@
       <c r="AK19" s="69" t="s">
         <v>425</v>
       </c>
-      <c r="AL19" s="69">
-        <v>2</v>
-      </c>
-      <c r="AM19" s="69">
-        <v>2</v>
+      <c r="AL19" s="69" t="s">
+        <v>425</v>
+      </c>
+      <c r="AM19" s="69" t="s">
+        <v>425</v>
       </c>
       <c r="AN19" s="69">
         <v>2</v>
       </c>
+      <c r="AO19" s="69">
+        <v>2</v>
+      </c>
+      <c r="AP19" s="69">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="2:40">
+    <row r="20" spans="2:42">
       <c r="B20" s="39" t="s">
         <v>167</v>
       </c>
@@ -18493,91 +18659,91 @@
         <v>344</v>
       </c>
       <c r="E20" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" s="39" t="s">
         <v>409</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="G20" s="39" t="s">
         <v>496</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="H20" s="39" t="s">
         <v>690</v>
       </c>
-      <c r="H20" s="39" t="s">
+      <c r="I20" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="I20" s="69" t="s">
+      <c r="J20" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="J20" s="69" t="s">
+      <c r="K20" s="69" t="s">
         <v>177</v>
-      </c>
-      <c r="K20" s="69" t="s">
-        <v>426</v>
       </c>
       <c r="L20" s="69" t="s">
         <v>177</v>
       </c>
       <c r="M20" s="69" t="s">
-        <v>177</v>
+        <v>426</v>
       </c>
       <c r="N20" s="69" t="s">
         <v>177</v>
       </c>
       <c r="O20" s="69" t="s">
-        <v>426</v>
+        <v>177</v>
       </c>
       <c r="P20" s="69" t="s">
         <v>177</v>
       </c>
       <c r="Q20" s="69" t="s">
+        <v>426</v>
+      </c>
+      <c r="R20" s="69" t="s">
         <v>177</v>
-      </c>
-      <c r="R20" s="69" t="s">
-        <v>429</v>
       </c>
       <c r="S20" s="69" t="s">
         <v>177</v>
       </c>
       <c r="T20" s="69" t="s">
+        <v>429</v>
+      </c>
+      <c r="U20" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="V20" s="69" t="s">
         <v>419</v>
       </c>
-      <c r="U20" s="69" t="s">
+      <c r="W20" s="69" t="s">
         <v>448</v>
       </c>
-      <c r="V20" s="69" t="s">
+      <c r="X20" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="W20" s="69" t="s">
+      <c r="Y20" s="69" t="s">
         <v>452</v>
       </c>
-      <c r="X20" s="69" t="s">
+      <c r="Z20" s="69" t="s">
         <v>457</v>
       </c>
-      <c r="Y20" s="69" t="s">
+      <c r="AA20" s="69" t="s">
         <v>391</v>
       </c>
-      <c r="Z20" s="69" t="s">
+      <c r="AB20" s="69" t="s">
         <v>391</v>
       </c>
-      <c r="AA20" s="69" t="s">
+      <c r="AC20" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="AB20" s="69" t="s">
+      <c r="AD20" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="AC20" s="69" t="s">
+      <c r="AE20" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="AD20" s="69" t="s">
+      <c r="AF20" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="AE20" s="69" t="s">
+      <c r="AG20" s="69" t="s">
         <v>91</v>
-      </c>
-      <c r="AF20" s="69" t="s">
-        <v>426</v>
-      </c>
-      <c r="AG20" s="69" t="s">
-        <v>426</v>
       </c>
       <c r="AH20" s="69" t="s">
         <v>426</v>
@@ -18591,17 +18757,23 @@
       <c r="AK20" s="69" t="s">
         <v>426</v>
       </c>
-      <c r="AL20" s="69">
+      <c r="AL20" s="69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AM20" s="69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AN20" s="69">
         <v>3</v>
       </c>
-      <c r="AM20" s="69">
+      <c r="AO20" s="69">
         <v>2</v>
       </c>
-      <c r="AN20" s="69">
+      <c r="AP20" s="69">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:40">
+    <row r="21" spans="2:42">
       <c r="B21" s="39" t="s">
         <v>120</v>
       </c>
@@ -18612,91 +18784,91 @@
         <v>467</v>
       </c>
       <c r="E21" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="39" t="s">
         <v>410</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="G21" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="H21" s="39" t="s">
         <v>690</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="I21" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="I21" s="69" t="s">
+      <c r="J21" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="J21" s="69" t="s">
+      <c r="K21" s="69" t="s">
         <v>177</v>
-      </c>
-      <c r="K21" s="69" t="s">
-        <v>427</v>
       </c>
       <c r="L21" s="69" t="s">
         <v>177</v>
       </c>
       <c r="M21" s="69" t="s">
-        <v>177</v>
+        <v>427</v>
       </c>
       <c r="N21" s="69" t="s">
         <v>177</v>
       </c>
       <c r="O21" s="69" t="s">
-        <v>427</v>
+        <v>177</v>
       </c>
       <c r="P21" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="Q21" s="70" t="s">
+      <c r="Q21" s="69" t="s">
+        <v>427</v>
+      </c>
+      <c r="R21" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="R21" s="69" t="s">
+      <c r="S21" s="70" t="s">
+        <v>177</v>
+      </c>
+      <c r="T21" s="69" t="s">
         <v>443</v>
       </c>
-      <c r="S21" s="69" t="s">
+      <c r="U21" s="69" t="s">
         <v>440</v>
       </c>
-      <c r="T21" s="69" t="s">
+      <c r="V21" s="69" t="s">
         <v>419</v>
       </c>
-      <c r="U21" s="69" t="s">
+      <c r="W21" s="69" t="s">
         <v>419</v>
       </c>
-      <c r="V21" s="69" t="s">
+      <c r="X21" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="W21" s="69" t="s">
+      <c r="Y21" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="X21" s="69" t="s">
+      <c r="Z21" s="69" t="s">
         <v>458</v>
-      </c>
-      <c r="Y21" s="69" t="s">
-        <v>391</v>
-      </c>
-      <c r="Z21" s="69" t="s">
-        <v>391</v>
       </c>
       <c r="AA21" s="69" t="s">
         <v>391</v>
       </c>
       <c r="AB21" s="69" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC21" s="69" t="s">
+        <v>391</v>
+      </c>
+      <c r="AD21" s="69" t="s">
         <v>464</v>
       </c>
-      <c r="AC21" s="69" t="s">
+      <c r="AE21" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="AD21" s="69" t="s">
+      <c r="AF21" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="AE21" s="69" t="s">
+      <c r="AG21" s="69" t="s">
         <v>91</v>
-      </c>
-      <c r="AF21" s="69" t="s">
-        <v>427</v>
-      </c>
-      <c r="AG21" s="69" t="s">
-        <v>427</v>
       </c>
       <c r="AH21" s="69" t="s">
         <v>427</v>
@@ -18710,17 +18882,23 @@
       <c r="AK21" s="69" t="s">
         <v>427</v>
       </c>
-      <c r="AL21" s="69">
+      <c r="AL21" s="69" t="s">
+        <v>427</v>
+      </c>
+      <c r="AM21" s="69" t="s">
+        <v>427</v>
+      </c>
+      <c r="AN21" s="69">
         <v>3</v>
       </c>
-      <c r="AM21" s="69">
+      <c r="AO21" s="69">
         <v>2</v>
       </c>
-      <c r="AN21" s="69">
+      <c r="AP21" s="69">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:40">
+    <row r="22" spans="2:42">
       <c r="B22" s="39" t="s">
         <v>190</v>
       </c>
@@ -18731,22 +18909,22 @@
         <v>467</v>
       </c>
       <c r="E22" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="39" t="s">
         <v>411</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="G22" s="39" t="s">
         <v>497</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="H22" s="39" t="s">
         <v>690</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="I22" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" s="39" t="s">
         <v>421</v>
-      </c>
-      <c r="I22" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="J22" s="69">
-        <v>4</v>
       </c>
       <c r="K22" s="69" t="s">
         <v>92</v>
@@ -18754,23 +18932,23 @@
       <c r="L22" s="69">
         <v>4</v>
       </c>
-      <c r="M22" s="69">
-        <v>4</v>
+      <c r="M22" s="69" t="s">
+        <v>92</v>
       </c>
       <c r="N22" s="69">
         <v>4</v>
       </c>
-      <c r="O22" s="69" t="s">
+      <c r="O22" s="69">
+        <v>4</v>
+      </c>
+      <c r="P22" s="69">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="P22" s="69" t="s">
+      <c r="R22" s="69" t="s">
         <v>435</v>
-      </c>
-      <c r="Q22" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="R22" s="69" t="s">
-        <v>177</v>
       </c>
       <c r="S22" s="69" t="s">
         <v>177</v>
@@ -18779,43 +18957,43 @@
         <v>177</v>
       </c>
       <c r="U22" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="V22" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="W22" s="69" t="s">
         <v>419</v>
       </c>
-      <c r="V22" s="69" t="s">
+      <c r="X22" s="69" t="s">
         <v>453</v>
       </c>
-      <c r="W22" s="69" t="s">
+      <c r="Y22" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="X22" s="69" t="s">
+      <c r="Z22" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="Y22" s="69" t="s">
+      <c r="AA22" s="69" t="s">
         <v>172</v>
-      </c>
-      <c r="Z22" s="69" t="s">
-        <v>391</v>
-      </c>
-      <c r="AA22" s="69" t="s">
-        <v>391</v>
       </c>
       <c r="AB22" s="69" t="s">
         <v>391</v>
       </c>
       <c r="AC22" s="69" t="s">
+        <v>391</v>
+      </c>
+      <c r="AD22" s="69" t="s">
+        <v>391</v>
+      </c>
+      <c r="AE22" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="AD22" s="69" t="s">
+      <c r="AF22" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="AE22" s="69" t="s">
+      <c r="AG22" s="69" t="s">
         <v>91</v>
-      </c>
-      <c r="AF22" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG22" s="69" t="s">
-        <v>92</v>
       </c>
       <c r="AH22" s="69" t="s">
         <v>92</v>
@@ -18829,17 +19007,23 @@
       <c r="AK22" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="AL22" s="69">
+      <c r="AL22" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM22" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN22" s="69">
         <v>3</v>
       </c>
-      <c r="AM22" s="69">
+      <c r="AO22" s="69">
         <v>3</v>
       </c>
-      <c r="AN22" s="69">
+      <c r="AP22" s="69">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:40">
+    <row r="23" spans="2:42">
       <c r="B23" s="39" t="s">
         <v>169</v>
       </c>
@@ -18850,21 +19034,21 @@
         <v>466</v>
       </c>
       <c r="E23" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="39" t="s">
         <v>412</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="G23" s="39" t="s">
         <v>498</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="H23" s="39" t="s">
         <v>693</v>
       </c>
-      <c r="H23" s="39">
+      <c r="I23" s="39">
         <v>4</v>
       </c>
-      <c r="I23" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="J23" s="69">
+      <c r="J23" s="39">
         <v>4</v>
       </c>
       <c r="K23" s="69" t="s">
@@ -18873,68 +19057,68 @@
       <c r="L23" s="69">
         <v>4</v>
       </c>
-      <c r="M23" s="69">
-        <v>4</v>
+      <c r="M23" s="69" t="s">
+        <v>92</v>
       </c>
       <c r="N23" s="69">
         <v>4</v>
       </c>
-      <c r="O23" s="69" t="s">
+      <c r="O23" s="69">
+        <v>4</v>
+      </c>
+      <c r="P23" s="69">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="P23" s="69" t="s">
+      <c r="R23" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="Q23" s="69" t="s">
+      <c r="S23" s="69" t="s">
         <v>424</v>
       </c>
-      <c r="R23" s="69" t="s">
+      <c r="T23" s="69" t="s">
         <v>425</v>
-      </c>
-      <c r="S23" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="T23" s="69" t="s">
-        <v>177</v>
       </c>
       <c r="U23" s="69" t="s">
         <v>177</v>
       </c>
       <c r="V23" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="W23" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="X23" s="69" t="s">
         <v>453</v>
       </c>
-      <c r="W23" s="69" t="s">
+      <c r="Y23" s="69" t="s">
         <v>453</v>
-      </c>
-      <c r="X23" s="69" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y23" s="69" t="s">
-        <v>172</v>
       </c>
       <c r="Z23" s="69" t="s">
         <v>172</v>
       </c>
       <c r="AA23" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB23" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC23" s="69" t="s">
         <v>461</v>
       </c>
-      <c r="AB23" s="69" t="s">
+      <c r="AD23" s="69" t="s">
         <v>391</v>
       </c>
-      <c r="AC23" s="69" t="s">
+      <c r="AE23" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="AD23" s="69" t="s">
+      <c r="AF23" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="AE23" s="69" t="s">
+      <c r="AG23" s="69" t="s">
         <v>91</v>
-      </c>
-      <c r="AF23" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG23" s="69" t="s">
-        <v>92</v>
       </c>
       <c r="AH23" s="69" t="s">
         <v>92</v>
@@ -18948,17 +19132,23 @@
       <c r="AK23" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="AL23" s="69">
+      <c r="AL23" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM23" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN23" s="69">
         <v>3</v>
       </c>
-      <c r="AM23" s="69">
+      <c r="AO23" s="69">
         <v>3</v>
       </c>
-      <c r="AN23" s="69">
+      <c r="AP23" s="69">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:40">
+    <row r="24" spans="2:42">
       <c r="B24" s="39" t="s">
         <v>350</v>
       </c>
@@ -18969,21 +19159,21 @@
         <v>466</v>
       </c>
       <c r="E24" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="F24" s="39" t="s">
         <v>413</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="G24" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="H24" s="39" t="s">
         <v>690</v>
       </c>
-      <c r="H24" s="39">
+      <c r="I24" s="39">
         <v>4</v>
       </c>
-      <c r="I24" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="J24" s="69">
+      <c r="J24" s="39">
         <v>4</v>
       </c>
       <c r="K24" s="69" t="s">
@@ -18992,47 +19182,47 @@
       <c r="L24" s="69">
         <v>4</v>
       </c>
-      <c r="M24" s="69">
-        <v>4</v>
+      <c r="M24" s="69" t="s">
+        <v>92</v>
       </c>
       <c r="N24" s="69">
         <v>4</v>
       </c>
-      <c r="O24" s="69" t="s">
+      <c r="O24" s="69">
+        <v>4</v>
+      </c>
+      <c r="P24" s="69">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="P24" s="69" t="s">
+      <c r="R24" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="Q24" s="69" t="s">
+      <c r="S24" s="69" t="s">
         <v>175</v>
-      </c>
-      <c r="R24" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="S24" s="69" t="s">
-        <v>441</v>
       </c>
       <c r="T24" s="69" t="s">
         <v>177</v>
       </c>
       <c r="U24" s="69" t="s">
+        <v>441</v>
+      </c>
+      <c r="V24" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="V24" s="69" t="s">
+      <c r="W24" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="X24" s="69" t="s">
         <v>453</v>
       </c>
-      <c r="W24" s="69" t="s">
+      <c r="Y24" s="69" t="s">
         <v>453</v>
       </c>
-      <c r="X24" s="69" t="s">
+      <c r="Z24" s="69" t="s">
         <v>456</v>
-      </c>
-      <c r="Y24" s="69" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z24" s="69" t="s">
-        <v>172</v>
       </c>
       <c r="AA24" s="69" t="s">
         <v>172</v>
@@ -19041,19 +19231,19 @@
         <v>172</v>
       </c>
       <c r="AC24" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD24" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE24" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="AD24" s="69" t="s">
+      <c r="AF24" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="AE24" s="69" t="s">
+      <c r="AG24" s="69" t="s">
         <v>91</v>
-      </c>
-      <c r="AF24" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG24" s="69" t="s">
-        <v>92</v>
       </c>
       <c r="AH24" s="69" t="s">
         <v>92</v>
@@ -19067,17 +19257,23 @@
       <c r="AK24" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="AL24" s="69">
-        <v>3</v>
-      </c>
-      <c r="AM24" s="69">
-        <v>3</v>
+      <c r="AL24" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM24" s="69" t="s">
+        <v>92</v>
       </c>
       <c r="AN24" s="69">
         <v>3</v>
       </c>
+      <c r="AO24" s="69">
+        <v>3</v>
+      </c>
+      <c r="AP24" s="69">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="2:40">
+    <row r="25" spans="2:42">
       <c r="B25" s="39" t="s">
         <v>351</v>
       </c>
@@ -19088,21 +19284,21 @@
         <v>465</v>
       </c>
       <c r="E25" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="F25" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="G25" s="39" t="s">
         <v>494</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="H25" s="39" t="s">
         <v>690</v>
       </c>
-      <c r="H25" s="39">
+      <c r="I25" s="39">
         <v>4</v>
       </c>
-      <c r="I25" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="J25" s="69">
+      <c r="J25" s="39">
         <v>4</v>
       </c>
       <c r="K25" s="69" t="s">
@@ -19111,20 +19307,20 @@
       <c r="L25" s="69">
         <v>4</v>
       </c>
-      <c r="M25" s="69">
-        <v>4</v>
+      <c r="M25" s="69" t="s">
+        <v>92</v>
       </c>
       <c r="N25" s="69">
         <v>4</v>
       </c>
-      <c r="O25" s="69" t="s">
+      <c r="O25" s="69">
+        <v>4</v>
+      </c>
+      <c r="P25" s="69">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="69" t="s">
         <v>92</v>
-      </c>
-      <c r="P25" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q25" s="69" t="s">
-        <v>175</v>
       </c>
       <c r="R25" s="69" t="s">
         <v>175</v>
@@ -19133,46 +19329,46 @@
         <v>175</v>
       </c>
       <c r="T25" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="U25" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="V25" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="U25" s="69" t="s">
+      <c r="W25" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="V25" s="69" t="s">
+      <c r="X25" s="69" t="s">
         <v>334</v>
       </c>
-      <c r="W25" s="69" t="s">
+      <c r="Y25" s="69" t="s">
         <v>454</v>
       </c>
-      <c r="X25" s="69" t="s">
+      <c r="Z25" s="69" t="s">
         <v>176</v>
-      </c>
-      <c r="Y25" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z25" s="69" t="s">
-        <v>111</v>
       </c>
       <c r="AA25" s="69" t="s">
         <v>111</v>
       </c>
       <c r="AB25" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC25" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD25" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="AC25" s="69" t="s">
+      <c r="AE25" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="AD25" s="69" t="s">
+      <c r="AF25" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="AE25" s="69" t="s">
+      <c r="AG25" s="69" t="s">
         <v>91</v>
-      </c>
-      <c r="AF25" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG25" s="69" t="s">
-        <v>92</v>
       </c>
       <c r="AH25" s="69" t="s">
         <v>92</v>
@@ -19184,19 +19380,25 @@
         <v>92</v>
       </c>
       <c r="AK25" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL25" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM25" s="69" t="s">
         <v>384</v>
-      </c>
-      <c r="AL25" s="69">
-        <v>3</v>
-      </c>
-      <c r="AM25" s="69">
-        <v>3</v>
       </c>
       <c r="AN25" s="69">
         <v>3</v>
       </c>
+      <c r="AO25" s="69">
+        <v>3</v>
+      </c>
+      <c r="AP25" s="69">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="2:40">
+    <row r="26" spans="2:42">
       <c r="B26" s="39" t="s">
         <v>117</v>
       </c>
@@ -19207,19 +19409,19 @@
         <v>465</v>
       </c>
       <c r="E26" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="39" t="s">
         <v>345</v>
       </c>
-      <c r="F26" s="39" t="s">
+      <c r="G26" s="39" t="s">
         <v>495</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="H26" s="39" t="s">
         <v>690</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="I26" s="69" t="s">
         <v>92</v>
-      </c>
-      <c r="I26" s="69">
-        <v>4</v>
       </c>
       <c r="J26" s="69" t="s">
         <v>92</v>
@@ -19227,68 +19429,68 @@
       <c r="K26" s="69">
         <v>4</v>
       </c>
-      <c r="L26" s="69">
-        <v>4</v>
+      <c r="L26" s="69" t="s">
+        <v>92</v>
       </c>
       <c r="M26" s="69">
         <v>4</v>
       </c>
-      <c r="N26" s="69" t="s">
+      <c r="N26" s="69">
+        <v>4</v>
+      </c>
+      <c r="O26" s="69">
+        <v>4</v>
+      </c>
+      <c r="P26" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="O26" s="69" t="s">
+      <c r="Q26" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="P26" s="69" t="s">
+      <c r="R26" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="Q26" s="69" t="s">
+      <c r="S26" s="69" t="s">
         <v>444</v>
       </c>
-      <c r="R26" s="69" t="s">
+      <c r="T26" s="69" t="s">
         <v>442</v>
       </c>
-      <c r="S26" s="69" t="s">
+      <c r="U26" s="69" t="s">
         <v>446</v>
       </c>
-      <c r="T26" s="69" t="s">
+      <c r="V26" s="69" t="s">
         <v>449</v>
       </c>
-      <c r="U26" s="69" t="s">
+      <c r="W26" s="69" t="s">
         <v>334</v>
       </c>
-      <c r="V26" s="69" t="s">
+      <c r="X26" s="69" t="s">
         <v>334</v>
       </c>
-      <c r="W26" s="69" t="s">
+      <c r="Y26" s="69" t="s">
         <v>176</v>
-      </c>
-      <c r="X26" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y26" s="69" t="s">
-        <v>111</v>
       </c>
       <c r="Z26" s="69" t="s">
         <v>111</v>
       </c>
       <c r="AA26" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB26" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC26" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="AB26" s="69" t="s">
+      <c r="AD26" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="AC26" s="69" t="s">
+      <c r="AE26" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="AD26" s="69" t="s">
+      <c r="AF26" s="69" t="s">
         <v>91</v>
-      </c>
-      <c r="AE26" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF26" s="69" t="s">
-        <v>92</v>
       </c>
       <c r="AG26" s="69" t="s">
         <v>92</v>
@@ -19302,16 +19504,22 @@
       <c r="AJ26" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="AK26" s="69">
-        <v>3</v>
-      </c>
-      <c r="AL26" s="69">
-        <v>3</v>
+      <c r="AK26" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL26" s="69" t="s">
+        <v>92</v>
       </c>
       <c r="AM26" s="69">
         <v>3</v>
       </c>
       <c r="AN26" s="69">
+        <v>3</v>
+      </c>
+      <c r="AO26" s="69">
+        <v>3</v>
+      </c>
+      <c r="AP26" s="69">
         <v>3</v>
       </c>
     </row>
@@ -19364,11 +19572,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
       <c r="D1" s="27" t="s">
         <v>359</v>
       </c>
@@ -19378,11 +19586,11 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
       <c r="D2" s="55" t="s">
         <v>360</v>
       </c>
@@ -19685,7 +19893,7 @@
       <pane xSplit="5" ySplit="6" topLeftCell="AF7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AS16" sqref="AS16"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19730,11 +19938,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
       <c r="D1" s="131" t="s">
         <v>739</v>
       </c>
@@ -19743,11 +19951,11 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:48">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
       <c r="D2" s="131" t="s">
         <v>740</v>
       </c>
@@ -20006,7 +20214,7 @@
         <v>262</v>
       </c>
       <c r="AG5" s="49" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AH5" s="49" t="s">
         <v>78</v>
@@ -20433,7 +20641,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D9" s="40">
         <v>102</v>
@@ -20554,7 +20762,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D10" s="40">
         <v>101</v>
@@ -21015,14 +21223,14 @@
     </row>
     <row r="14" spans="1:48">
       <c r="A14" s="122" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B14" s="40">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D14" s="40">
         <v>101</v>
@@ -22078,29 +22286,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="169" t="s">
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="170" t="s">
         <v>805</v>
       </c>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
       <c r="G1" s="135"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="169" t="s">
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="170" t="s">
         <v>770</v>
       </c>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
       <c r="G2" s="135"/>
     </row>
     <row r="3" spans="1:22">
@@ -22806,7 +23014,7 @@
         <v>777</v>
       </c>
       <c r="B19" s="137" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C19" s="137" t="s">
         <v>779</v>
@@ -22895,11 +23103,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
@@ -22917,11 +23125,11 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
       <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
@@ -23029,7 +23237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -23044,13 +23252,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
       <c r="D1" s="131" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -23064,13 +23272,13 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
       <c r="D2" s="131" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -23107,16 +23315,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>965</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>966</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1">
@@ -23125,16 +23333,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>964</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -23156,20 +23364,20 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="47" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B7" s="3">
-        <f>ROW()-6</f>
+        <f t="shared" ref="B7:B13" si="0">ROW()-6</f>
         <v>1</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -23177,10 +23385,10 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="47" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B8" s="3">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C8" s="2">
@@ -23188,7 +23396,7 @@
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -23196,10 +23404,10 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="47" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B9" s="3">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C9" s="2">
@@ -23207,7 +23415,7 @@
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -23215,10 +23423,10 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="47" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B10" s="3">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C10" s="2">
@@ -23226,7 +23434,7 @@
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F10" s="2">
         <v>2</v>
@@ -23234,10 +23442,10 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="47" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B11" s="3">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C11" s="2">
@@ -23245,7 +23453,7 @@
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
@@ -23253,10 +23461,10 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="47" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B12" s="3">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C12" s="2">
@@ -23264,7 +23472,7 @@
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F12" s="2">
         <v>4</v>
@@ -23272,10 +23480,10 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="47" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B13" s="3">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C13" s="2">
@@ -23283,7 +23491,7 @@
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -23291,7 +23499,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="47" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B14" s="21">
         <v>99</v>

--- a/Assets/island/DBCfg/DataCfg.xlsx
+++ b/Assets/island/DBCfg/DataCfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25000" windowHeight="15600" tabRatio="827" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25060" windowHeight="15600" tabRatio="827"/>
   </bookViews>
   <sheets>
     <sheet name="配置表cfg" sheetId="1" r:id="rId1"/>
@@ -715,7 +715,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="999">
   <si>
     <t>表名：</t>
   </si>
@@ -4467,6 +4467,38 @@
   </si>
   <si>
     <t>舰队数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出征一个单元消耗资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepartCostResPerCell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出征一次最长时间（分钟）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FleetTimePerOnce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出征移动一个单元用时(秒）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FleetMoveSpeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出征移动不能低于秒数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FleetAtLeastSec</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5085,7 +5117,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1504">
+  <cellStyleXfs count="1512">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -8002,6 +8034,30 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -8521,7 +8577,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1504">
+  <cellStyles count="1512">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 1 10" xfId="2"/>
     <cellStyle name="20% - 强调文字颜色 1 10 2" xfId="3"/>
@@ -9616,6 +9672,10 @@
     <cellStyle name="超链接" xfId="1498" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1500" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1502" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1504" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1506" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1508" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1510" builtinId="8" hidden="1"/>
     <cellStyle name="逗号 [0]" xfId="885" builtinId="6"/>
     <cellStyle name="访问过的超链接" xfId="1085" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1087" builtinId="9" hidden="1"/>
@@ -9827,6 +9887,10 @@
     <cellStyle name="访问过的超链接" xfId="1499" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1501" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1503" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1505" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1507" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1509" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1511" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="886" builtinId="26" customBuiltin="1"/>
     <cellStyle name="好 10" xfId="887"/>
     <cellStyle name="好 11" xfId="888"/>
@@ -10482,37 +10546,26 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="4" customWidth="1"/>
-    <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="39.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="25.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="35" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.83203125" style="4"/>
+    <col min="6" max="17" width="4.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="A1" s="167" t="s">
         <v>10</v>
       </c>
@@ -10533,9 +10586,8 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:16">
       <c r="A2" s="167" t="s">
         <v>1</v>
       </c>
@@ -10556,9 +10608,8 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:16">
       <c r="A3" s="9"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -10575,9 +10626,8 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="150" customHeight="1">
+    <row r="4" spans="1:16" ht="150" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
@@ -10602,8 +10652,20 @@
       <c r="H4" s="5" t="s">
         <v>702</v>
       </c>
+      <c r="I4" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>997</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" s="8" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:16" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="5" t="s">
         <v>2</v>
@@ -10626,8 +10688,20 @@
       <c r="H5" s="5" t="s">
         <v>704</v>
       </c>
+      <c r="I5" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>998</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:16">
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
@@ -10649,8 +10723,20 @@
       <c r="H6" s="6" t="s">
         <v>703</v>
       </c>
+      <c r="I6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:16">
       <c r="B7" s="3">
         <f>ROW()-6</f>
         <v>1</v>
@@ -10673,6 +10759,18 @@
       <c r="H7" s="2">
         <f>8*60</f>
         <v>480</v>
+      </c>
+      <c r="I7" s="2">
+        <v>50</v>
+      </c>
+      <c r="J7" s="2">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -16512,7 +16610,7 @@
   <sheetPr codeName="工作表4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AP26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>

--- a/Assets/island/DBCfg/DataCfg.xlsx
+++ b/Assets/island/DBCfg/DataCfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25060" windowHeight="15600" tabRatio="827"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25500" windowHeight="15600" tabRatio="827" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="配置表cfg" sheetId="1" r:id="rId1"/>
@@ -715,7 +715,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2824" uniqueCount="999">
   <si>
     <t>表名：</t>
   </si>
@@ -2127,10 +2127,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>主城网格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GridCity</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4499,6 +4495,10 @@
   </si>
   <si>
     <t>FleetAtLeastSec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主城网格</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10548,11 +10548,11 @@
   </sheetPr>
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10638,31 +10638,31 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>393</v>
+        <v>998</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="8" customFormat="1" ht="15" customHeight="1">
@@ -10674,31 +10674,31 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -10718,10 +10718,10 @@
         <v>5</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>5</v>
@@ -10770,7 +10770,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -10917,11 +10917,11 @@
   </sheetPr>
   <dimension ref="A1:BM45"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="6" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -11025,7 +11025,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>37</v>
@@ -11043,103 +11043,103 @@
         <v>42</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J4" s="28" t="s">
+        <v>705</v>
+      </c>
+      <c r="K4" s="28" t="s">
         <v>706</v>
       </c>
-      <c r="K4" s="28" t="s">
-        <v>707</v>
-      </c>
       <c r="L4" s="72" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M4" s="72" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N4" s="72" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="O4" s="73" t="s">
+        <v>514</v>
+      </c>
+      <c r="P4" s="73" t="s">
         <v>515</v>
       </c>
-      <c r="P4" s="73" t="s">
-        <v>516</v>
-      </c>
       <c r="Q4" s="73" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="R4" s="74" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="S4" s="74" t="s">
+        <v>521</v>
+      </c>
+      <c r="T4" s="74" t="s">
         <v>522</v>
       </c>
-      <c r="T4" s="74" t="s">
+      <c r="U4" s="75" t="s">
         <v>523</v>
       </c>
-      <c r="U4" s="75" t="s">
+      <c r="V4" s="75" t="s">
         <v>524</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="W4" s="75" t="s">
         <v>525</v>
       </c>
-      <c r="W4" s="75" t="s">
-        <v>526</v>
-      </c>
       <c r="X4" s="80" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y4" s="80" t="s">
         <v>535</v>
       </c>
-      <c r="Y4" s="80" t="s">
+      <c r="Z4" s="80" t="s">
         <v>536</v>
       </c>
-      <c r="Z4" s="80" t="s">
-        <v>537</v>
-      </c>
       <c r="AA4" s="101" t="s">
+        <v>571</v>
+      </c>
+      <c r="AB4" s="101" t="s">
         <v>572</v>
       </c>
-      <c r="AB4" s="101" t="s">
+      <c r="AC4" s="101" t="s">
         <v>573</v>
       </c>
-      <c r="AC4" s="101" t="s">
-        <v>574</v>
-      </c>
       <c r="AD4" s="112" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AE4" s="112" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AF4" s="112" t="s">
+        <v>582</v>
+      </c>
+      <c r="AG4" s="75" t="s">
         <v>583</v>
       </c>
-      <c r="AG4" s="75" t="s">
+      <c r="AH4" s="75" t="s">
         <v>584</v>
       </c>
-      <c r="AH4" s="75" t="s">
+      <c r="AI4" s="75" t="s">
         <v>585</v>
       </c>
-      <c r="AI4" s="75" t="s">
-        <v>586</v>
-      </c>
       <c r="AJ4" s="105" t="s">
+        <v>595</v>
+      </c>
+      <c r="AK4" s="105" t="s">
         <v>596</v>
       </c>
-      <c r="AK4" s="105" t="s">
+      <c r="AL4" s="105" t="s">
         <v>597</v>
       </c>
-      <c r="AL4" s="105" t="s">
-        <v>598</v>
-      </c>
       <c r="AM4" s="113" t="s">
+        <v>612</v>
+      </c>
+      <c r="AN4" s="113" t="s">
         <v>613</v>
       </c>
-      <c r="AN4" s="113" t="s">
+      <c r="AO4" s="113" t="s">
         <v>614</v>
-      </c>
-      <c r="AO4" s="113" t="s">
-        <v>615</v>
       </c>
       <c r="AP4" s="30" t="s">
         <v>53</v>
@@ -11148,19 +11148,19 @@
         <v>54</v>
       </c>
       <c r="AR4" s="116" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AS4" s="116" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AT4" s="116" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AU4" s="30" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AV4" s="102" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AW4" s="30" t="s">
         <v>46</v>
@@ -11175,7 +11175,7 @@
         <v>51</v>
       </c>
       <c r="BA4" s="109" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="BB4" s="30" t="s">
         <v>55</v>
@@ -11196,7 +11196,7 @@
         <v>57</v>
       </c>
       <c r="BH4" s="30" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="BI4" s="30" t="s">
         <v>58</v>
@@ -11225,7 +11225,7 @@
         <v>37</v>
       </c>
       <c r="E5" s="102" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>337</v>
@@ -11237,103 +11237,103 @@
         <v>69</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J5" s="28" t="s">
+        <v>707</v>
+      </c>
+      <c r="K5" s="28" t="s">
         <v>708</v>
       </c>
-      <c r="K5" s="28" t="s">
-        <v>709</v>
-      </c>
       <c r="L5" s="72" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M5" s="72" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N5" s="72" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O5" s="73" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="P5" s="73" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q5" s="73" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R5" s="74" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="S5" s="74" t="s">
+        <v>526</v>
+      </c>
+      <c r="T5" s="74" t="s">
         <v>527</v>
       </c>
-      <c r="T5" s="74" t="s">
+      <c r="U5" s="75" t="s">
         <v>528</v>
       </c>
-      <c r="U5" s="75" t="s">
+      <c r="V5" s="75" t="s">
         <v>529</v>
       </c>
-      <c r="V5" s="75" t="s">
+      <c r="W5" s="75" t="s">
         <v>530</v>
       </c>
-      <c r="W5" s="75" t="s">
-        <v>531</v>
-      </c>
       <c r="X5" s="80" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Y5" s="80" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Z5" s="80" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AA5" s="101" t="s">
+        <v>574</v>
+      </c>
+      <c r="AB5" s="101" t="s">
         <v>575</v>
       </c>
-      <c r="AB5" s="101" t="s">
+      <c r="AC5" s="101" t="s">
         <v>576</v>
       </c>
-      <c r="AC5" s="101" t="s">
-        <v>577</v>
-      </c>
       <c r="AD5" s="112" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AE5" s="112" t="s">
+        <v>580</v>
+      </c>
+      <c r="AF5" s="112" t="s">
         <v>581</v>
       </c>
-      <c r="AF5" s="112" t="s">
-        <v>582</v>
-      </c>
       <c r="AG5" s="75" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AH5" s="75" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AI5" s="75" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AJ5" s="105" t="s">
+        <v>592</v>
+      </c>
+      <c r="AK5" s="105" t="s">
         <v>593</v>
       </c>
-      <c r="AK5" s="105" t="s">
+      <c r="AL5" s="105" t="s">
         <v>594</v>
       </c>
-      <c r="AL5" s="105" t="s">
-        <v>595</v>
-      </c>
       <c r="AM5" s="113" t="s">
+        <v>615</v>
+      </c>
+      <c r="AN5" s="113" t="s">
         <v>616</v>
       </c>
-      <c r="AN5" s="113" t="s">
+      <c r="AO5" s="113" t="s">
         <v>617</v>
-      </c>
-      <c r="AO5" s="113" t="s">
-        <v>618</v>
       </c>
       <c r="AP5" s="28" t="s">
         <v>78</v>
@@ -11342,19 +11342,19 @@
         <v>79</v>
       </c>
       <c r="AR5" s="116" t="s">
+        <v>626</v>
+      </c>
+      <c r="AS5" s="116" t="s">
         <v>627</v>
       </c>
-      <c r="AS5" s="116" t="s">
+      <c r="AT5" s="116" t="s">
         <v>628</v>
       </c>
-      <c r="AT5" s="116" t="s">
-        <v>629</v>
-      </c>
       <c r="AU5" s="49" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AV5" s="165" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AW5" s="28" t="s">
         <v>73</v>
@@ -11366,7 +11366,7 @@
         <v>75</v>
       </c>
       <c r="AZ5" s="28" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="BA5" s="109" t="s">
         <v>70</v>
@@ -11375,22 +11375,22 @@
         <v>80</v>
       </c>
       <c r="BC5" s="28" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="BD5" s="28" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="BE5" s="28" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="BF5" s="28" t="s">
         <v>76</v>
       </c>
       <c r="BG5" s="28" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="BH5" s="28" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="BI5" s="28" t="s">
         <v>82</v>
@@ -11548,7 +11548,7 @@
         <v>5</v>
       </c>
       <c r="AV6" s="102" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AW6" s="30" t="s">
         <v>88</v>
@@ -11614,13 +11614,13 @@
         <v>90</v>
       </c>
       <c r="D7" s="104" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E7" s="103" t="s">
         <v>340</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>93</v>
@@ -11630,10 +11630,10 @@
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="35" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="L7" s="79">
         <v>0</v>
@@ -11643,16 +11643,16 @@
         <v>17280</v>
       </c>
       <c r="N7" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O7" s="76">
         <v>0</v>
       </c>
       <c r="P7" s="76" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q7" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R7" s="90">
         <v>0</v>
@@ -11661,7 +11661,7 @@
         <v>30000000</v>
       </c>
       <c r="T7" s="86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U7" s="88">
         <v>0</v>
@@ -11670,21 +11670,21 @@
         <v>30000000</v>
       </c>
       <c r="W7" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X7" s="81">
         <v>1500</v>
       </c>
       <c r="Y7" s="81" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="Z7" s="84" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AA7" s="92"/>
       <c r="AB7" s="92"/>
       <c r="AC7" s="93" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AD7" s="95"/>
       <c r="AE7" s="95"/>
@@ -11715,7 +11715,7 @@
       <c r="BB7" s="35"/>
       <c r="BC7" s="35"/>
       <c r="BD7" s="31" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="BE7" s="31"/>
       <c r="BF7" s="35"/>
@@ -11744,7 +11744,7 @@
         <v>91</v>
       </c>
       <c r="E8" s="103" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>109</v>
@@ -11757,10 +11757,10 @@
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="35" t="s">
+        <v>736</v>
+      </c>
+      <c r="K8" s="35" t="s">
         <v>737</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>738</v>
       </c>
       <c r="L8" s="79" t="s">
         <v>91</v>
@@ -11769,52 +11769,52 @@
         <v>5760</v>
       </c>
       <c r="N8" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O8" s="76" t="s">
         <v>116</v>
       </c>
       <c r="P8" s="76" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Q8" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R8" s="90" t="s">
         <v>116</v>
       </c>
       <c r="S8" s="90" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T8" s="86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U8" s="88" t="s">
         <v>116</v>
       </c>
       <c r="V8" s="88" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="W8" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X8" s="82">
         <v>250</v>
       </c>
       <c r="Y8" s="82" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Z8" s="84" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AA8" s="92" t="s">
+        <v>589</v>
+      </c>
+      <c r="AB8" s="92" t="s">
         <v>590</v>
       </c>
-      <c r="AB8" s="92" t="s">
-        <v>591</v>
-      </c>
       <c r="AC8" s="93" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AD8" s="95"/>
       <c r="AE8" s="95"/>
@@ -11842,12 +11842,12 @@
       </c>
       <c r="AZ8" s="35"/>
       <c r="BA8" s="111" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BB8" s="35"/>
       <c r="BC8" s="35"/>
       <c r="BD8" s="31" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="BE8" s="31"/>
       <c r="BF8" s="35"/>
@@ -11876,7 +11876,7 @@
         <v>91</v>
       </c>
       <c r="E9" s="103" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F9" s="35" t="s">
         <v>92</v>
@@ -11889,10 +11889,10 @@
       </c>
       <c r="I9" s="35"/>
       <c r="J9" s="35" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="L9" s="79">
         <v>1</v>
@@ -11901,43 +11901,43 @@
         <v>5760</v>
       </c>
       <c r="N9" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O9" s="76" t="s">
         <v>103</v>
       </c>
       <c r="P9" s="76" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Q9" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R9" s="90" t="s">
         <v>103</v>
       </c>
       <c r="S9" s="90" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T9" s="86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U9" s="88" t="s">
         <v>103</v>
       </c>
       <c r="V9" s="88" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="W9" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X9" s="81" t="s">
         <v>105</v>
       </c>
       <c r="Y9" s="81" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="Z9" s="84" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AA9" s="92"/>
       <c r="AB9" s="92"/>
@@ -11968,12 +11968,12 @@
       </c>
       <c r="AZ9" s="35"/>
       <c r="BA9" s="111" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BB9" s="35"/>
       <c r="BC9" s="35"/>
       <c r="BD9" s="36" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="BE9" s="36"/>
       <c r="BF9" s="35"/>
@@ -11996,7 +11996,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D10" s="104" t="s">
         <v>91</v>
@@ -12015,10 +12015,10 @@
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="35" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L10" s="79">
         <v>1</v>
@@ -12027,52 +12027,52 @@
         <v>5760</v>
       </c>
       <c r="N10" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O10" s="76" t="s">
         <v>107</v>
       </c>
       <c r="P10" s="76" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Q10" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R10" s="90" t="s">
         <v>107</v>
       </c>
       <c r="S10" s="90" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T10" s="86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U10" s="88" t="s">
         <v>107</v>
       </c>
       <c r="V10" s="88" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="W10" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X10" s="82">
         <v>500</v>
       </c>
       <c r="Y10" s="82" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Z10" s="84" t="s">
+        <v>539</v>
+      </c>
+      <c r="AA10" s="92" t="s">
+        <v>609</v>
+      </c>
+      <c r="AB10" s="92" t="s">
+        <v>610</v>
+      </c>
+      <c r="AC10" s="93" t="s">
         <v>540</v>
-      </c>
-      <c r="AA10" s="92" t="s">
-        <v>610</v>
-      </c>
-      <c r="AB10" s="92" t="s">
-        <v>611</v>
-      </c>
-      <c r="AC10" s="93" t="s">
-        <v>541</v>
       </c>
       <c r="AD10" s="95"/>
       <c r="AE10" s="95"/>
@@ -12081,13 +12081,13 @@
       <c r="AH10" s="98"/>
       <c r="AI10" s="99"/>
       <c r="AJ10" s="106" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AK10" s="106" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AL10" s="107" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AM10" s="114"/>
       <c r="AN10" s="114"/>
@@ -12106,12 +12106,12 @@
       </c>
       <c r="AZ10" s="35"/>
       <c r="BA10" s="111" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BB10" s="35"/>
       <c r="BC10" s="35"/>
       <c r="BD10" s="36" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="BE10" s="36"/>
       <c r="BF10" s="35"/>
@@ -12140,7 +12140,7 @@
         <v>91</v>
       </c>
       <c r="E11" s="103" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F11" s="35" t="s">
         <v>104</v>
@@ -12153,10 +12153,10 @@
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="35" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="L11" s="79">
         <v>1</v>
@@ -12165,43 +12165,43 @@
         <v>5760</v>
       </c>
       <c r="N11" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O11" s="76">
         <v>0</v>
       </c>
       <c r="P11" s="76" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Q11" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R11" s="90">
         <v>0</v>
       </c>
       <c r="S11" s="90" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T11" s="86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U11" s="88">
         <v>0</v>
       </c>
       <c r="V11" s="88" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="W11" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X11" s="82">
         <v>580</v>
       </c>
       <c r="Y11" s="82" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="Z11" s="84" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AA11" s="92"/>
       <c r="AB11" s="92"/>
@@ -12213,13 +12213,13 @@
       <c r="AH11" s="98"/>
       <c r="AI11" s="99"/>
       <c r="AJ11" s="106" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AK11" s="106" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AL11" s="107" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AM11" s="114"/>
       <c r="AN11" s="114"/>
@@ -12238,12 +12238,12 @@
       </c>
       <c r="AZ11" s="36"/>
       <c r="BA11" s="111" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BB11" s="36"/>
       <c r="BC11" s="36"/>
       <c r="BD11" s="31" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="BE11" s="36"/>
       <c r="BF11" s="36"/>
@@ -12254,19 +12254,19 @@
       <c r="BK11" s="36"/>
       <c r="BL11" s="36"/>
       <c r="BM11" s="36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:65">
       <c r="A12" s="56" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B12" s="35">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D12" s="104" t="s">
         <v>100</v>
@@ -12284,11 +12284,9 @@
         <v>93</v>
       </c>
       <c r="I12" s="35"/>
-      <c r="J12" s="35" t="s">
-        <v>711</v>
-      </c>
+      <c r="J12" s="35"/>
       <c r="K12" s="35" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="L12" s="79">
         <v>1</v>
@@ -12297,7 +12295,7 @@
         <v>10080</v>
       </c>
       <c r="N12" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O12" s="76"/>
       <c r="P12" s="76"/>
@@ -12306,37 +12304,37 @@
         <v>132</v>
       </c>
       <c r="S12" s="90" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="T12" s="86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U12" s="88" t="s">
         <v>132</v>
       </c>
       <c r="V12" s="88" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="W12" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X12" s="81">
         <v>400</v>
       </c>
       <c r="Y12" s="81" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="Z12" s="84" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AA12" s="92" t="s">
+        <v>598</v>
+      </c>
+      <c r="AB12" s="92" t="s">
         <v>599</v>
       </c>
-      <c r="AB12" s="92" t="s">
-        <v>600</v>
-      </c>
       <c r="AC12" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AD12" s="95"/>
       <c r="AE12" s="95"/>
@@ -12364,15 +12362,15 @@
       </c>
       <c r="AZ12" s="35"/>
       <c r="BA12" s="111" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BB12" s="35"/>
       <c r="BC12" s="35"/>
       <c r="BD12" s="36" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="BE12" s="37" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="BF12" s="35"/>
       <c r="BG12" s="35"/>
@@ -12382,19 +12380,19 @@
       <c r="BK12" s="35"/>
       <c r="BL12" s="35"/>
       <c r="BM12" s="36" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="13" spans="1:65">
       <c r="A13" s="56" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B13" s="35">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D13" s="104" t="s">
         <v>100</v>
@@ -12412,11 +12410,9 @@
         <v>93</v>
       </c>
       <c r="I13" s="35"/>
-      <c r="J13" s="35" t="s">
-        <v>711</v>
-      </c>
+      <c r="J13" s="35"/>
       <c r="K13" s="35" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="L13" s="79">
         <v>1</v>
@@ -12425,7 +12421,7 @@
         <v>10080</v>
       </c>
       <c r="N13" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O13" s="76"/>
       <c r="P13" s="76"/>
@@ -12434,37 +12430,37 @@
         <v>140</v>
       </c>
       <c r="S13" s="90" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="T13" s="86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U13" s="88" t="s">
         <v>140</v>
       </c>
       <c r="V13" s="88" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="W13" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X13" s="81" t="s">
         <v>113</v>
       </c>
       <c r="Y13" s="81" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="Z13" s="84" t="s">
+        <v>539</v>
+      </c>
+      <c r="AA13" s="92" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB13" s="92" t="s">
+        <v>601</v>
+      </c>
+      <c r="AC13" s="93" t="s">
         <v>540</v>
-      </c>
-      <c r="AA13" s="92" t="s">
-        <v>601</v>
-      </c>
-      <c r="AB13" s="92" t="s">
-        <v>602</v>
-      </c>
-      <c r="AC13" s="93" t="s">
-        <v>541</v>
       </c>
       <c r="AD13" s="95"/>
       <c r="AE13" s="95"/>
@@ -12495,7 +12491,7 @@
       <c r="BB13" s="35"/>
       <c r="BC13" s="35"/>
       <c r="BD13" s="31" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="BE13" s="33"/>
       <c r="BF13" s="35"/>
@@ -12506,19 +12502,19 @@
       <c r="BK13" s="35"/>
       <c r="BL13" s="35"/>
       <c r="BM13" s="36" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:65">
       <c r="A14" s="56" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B14" s="35">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D14" s="104" t="s">
         <v>100</v>
@@ -12537,10 +12533,10 @@
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="35" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="L14" s="79">
         <v>1</v>
@@ -12549,16 +12545,16 @@
         <v>10080</v>
       </c>
       <c r="N14" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O14" s="76" t="s">
         <v>132</v>
       </c>
       <c r="P14" s="76" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q14" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R14" s="90"/>
       <c r="S14" s="90"/>
@@ -12567,28 +12563,28 @@
         <v>132</v>
       </c>
       <c r="V14" s="88" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="W14" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X14" s="81">
         <v>400</v>
       </c>
       <c r="Y14" s="81" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="Z14" s="84" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AA14" s="92" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AB14" s="92" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AC14" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AD14" s="95"/>
       <c r="AE14" s="95"/>
@@ -12616,15 +12612,15 @@
       </c>
       <c r="AZ14" s="35"/>
       <c r="BA14" s="111" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BB14" s="35"/>
       <c r="BC14" s="35"/>
       <c r="BD14" s="36" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="BE14" s="37" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="BF14" s="35"/>
       <c r="BG14" s="35"/>
@@ -12665,10 +12661,10 @@
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="35" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="L15" s="79">
         <v>1</v>
@@ -12677,16 +12673,16 @@
         <v>10080</v>
       </c>
       <c r="N15" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O15" s="76" t="s">
         <v>140</v>
       </c>
       <c r="P15" s="76" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q15" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R15" s="90"/>
       <c r="S15" s="90"/>
@@ -12695,28 +12691,28 @@
         <v>140</v>
       </c>
       <c r="V15" s="88" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="W15" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X15" s="81" t="s">
         <v>113</v>
       </c>
       <c r="Y15" s="81" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="Z15" s="84" t="s">
+        <v>539</v>
+      </c>
+      <c r="AA15" s="92" t="s">
+        <v>603</v>
+      </c>
+      <c r="AB15" s="92" t="s">
+        <v>651</v>
+      </c>
+      <c r="AC15" s="93" t="s">
         <v>540</v>
-      </c>
-      <c r="AA15" s="92" t="s">
-        <v>604</v>
-      </c>
-      <c r="AB15" s="92" t="s">
-        <v>652</v>
-      </c>
-      <c r="AC15" s="93" t="s">
-        <v>541</v>
       </c>
       <c r="AD15" s="95"/>
       <c r="AE15" s="95"/>
@@ -12747,7 +12743,7 @@
       <c r="BB15" s="35"/>
       <c r="BC15" s="35"/>
       <c r="BD15" s="31" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="BE15" s="33"/>
       <c r="BF15" s="35"/>
@@ -12789,10 +12785,10 @@
       </c>
       <c r="I16" s="35"/>
       <c r="J16" s="35" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="L16" s="79">
         <v>1</v>
@@ -12801,25 +12797,25 @@
         <v>10080</v>
       </c>
       <c r="N16" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O16" s="76">
         <v>150</v>
       </c>
       <c r="P16" s="76" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q16" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R16" s="90">
         <v>150</v>
       </c>
       <c r="S16" s="90" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="T16" s="86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U16" s="88"/>
       <c r="V16" s="88"/>
@@ -12828,19 +12824,19 @@
         <v>400</v>
       </c>
       <c r="Y16" s="81" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z16" s="84" t="s">
         <v>561</v>
       </c>
-      <c r="Z16" s="84" t="s">
-        <v>562</v>
-      </c>
       <c r="AA16" s="92" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB16" s="92" t="s">
         <v>606</v>
       </c>
-      <c r="AB16" s="92" t="s">
-        <v>607</v>
-      </c>
       <c r="AC16" s="93" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AD16" s="95"/>
       <c r="AE16" s="95"/>
@@ -12868,15 +12864,15 @@
       </c>
       <c r="AZ16" s="35"/>
       <c r="BA16" s="111" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BB16" s="35"/>
       <c r="BC16" s="35"/>
       <c r="BD16" s="31" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="BE16" s="33" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="BF16" s="35"/>
       <c r="BG16" s="35"/>
@@ -12917,10 +12913,10 @@
       </c>
       <c r="I17" s="35"/>
       <c r="J17" s="35" t="s">
+        <v>717</v>
+      </c>
+      <c r="K17" s="35" t="s">
         <v>718</v>
-      </c>
-      <c r="K17" s="35" t="s">
-        <v>719</v>
       </c>
       <c r="L17" s="79">
         <v>1</v>
@@ -12929,25 +12925,25 @@
         <v>10080</v>
       </c>
       <c r="N17" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O17" s="76" t="s">
         <v>140</v>
       </c>
       <c r="P17" s="76" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q17" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R17" s="90" t="s">
         <v>140</v>
       </c>
       <c r="S17" s="90" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="T17" s="86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U17" s="88"/>
       <c r="V17" s="88"/>
@@ -12956,19 +12952,19 @@
         <v>113</v>
       </c>
       <c r="Y17" s="81" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="Z17" s="84" t="s">
+        <v>539</v>
+      </c>
+      <c r="AA17" s="92" t="s">
+        <v>603</v>
+      </c>
+      <c r="AB17" s="92" t="s">
+        <v>604</v>
+      </c>
+      <c r="AC17" s="93" t="s">
         <v>540</v>
-      </c>
-      <c r="AA17" s="92" t="s">
-        <v>604</v>
-      </c>
-      <c r="AB17" s="92" t="s">
-        <v>605</v>
-      </c>
-      <c r="AC17" s="93" t="s">
-        <v>541</v>
       </c>
       <c r="AD17" s="95"/>
       <c r="AE17" s="95"/>
@@ -12999,7 +12995,7 @@
       <c r="BB17" s="35"/>
       <c r="BC17" s="35"/>
       <c r="BD17" s="31" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="BE17" s="33"/>
       <c r="BF17" s="35"/>
@@ -13041,10 +13037,10 @@
       </c>
       <c r="I18" s="35"/>
       <c r="J18" s="35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="L18" s="79">
         <f>60/60</f>
@@ -13054,43 +13050,43 @@
         <v>10080</v>
       </c>
       <c r="N18" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O18" s="76">
         <v>250</v>
       </c>
       <c r="P18" s="76" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q18" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R18" s="90">
         <v>250</v>
       </c>
       <c r="S18" s="90" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="T18" s="86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U18" s="88">
         <v>250</v>
       </c>
       <c r="V18" s="88" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="W18" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X18" s="81">
         <v>400</v>
       </c>
       <c r="Y18" s="81" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Z18" s="84" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AA18" s="92"/>
       <c r="AB18" s="92"/>
@@ -13111,7 +13107,7 @@
         <v>141</v>
       </c>
       <c r="AO18" s="115" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AP18" s="35"/>
       <c r="AQ18" s="34" t="s">
@@ -13121,10 +13117,10 @@
         <v>7</v>
       </c>
       <c r="AS18" s="117" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AT18" s="118" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AU18" s="36"/>
       <c r="AV18" s="36"/>
@@ -13137,17 +13133,17 @@
         <v>91</v>
       </c>
       <c r="BA18" s="111" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="BB18" s="34"/>
       <c r="BC18" s="34"/>
       <c r="BD18" s="34" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="BE18" s="34"/>
       <c r="BF18" s="34"/>
       <c r="BG18" s="34" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="BH18" s="34"/>
       <c r="BI18" s="34" t="s">
@@ -13190,10 +13186,10 @@
       </c>
       <c r="I19" s="35"/>
       <c r="J19" s="35" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L19" s="79">
         <f t="shared" ref="L19:L31" si="1">60/60</f>
@@ -13203,43 +13199,43 @@
         <v>10080</v>
       </c>
       <c r="N19" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O19" s="76">
         <v>1000</v>
       </c>
       <c r="P19" s="76" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q19" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R19" s="90">
         <v>1000</v>
       </c>
       <c r="S19" s="90" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="T19" s="86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U19" s="88">
         <v>1000</v>
       </c>
       <c r="V19" s="88" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="W19" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X19" s="81">
         <v>400</v>
       </c>
       <c r="Y19" s="81" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="Z19" s="84" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AA19" s="92"/>
       <c r="AB19" s="92"/>
@@ -13260,7 +13256,7 @@
         <v>156</v>
       </c>
       <c r="AO19" s="115" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AP19" s="35"/>
       <c r="AQ19" s="32" t="s">
@@ -13270,10 +13266,10 @@
         <v>11</v>
       </c>
       <c r="AS19" s="117" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AT19" s="118" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AU19" s="36"/>
       <c r="AV19" s="36"/>
@@ -13286,17 +13282,17 @@
         <v>110</v>
       </c>
       <c r="BA19" s="111" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="BB19" s="32"/>
       <c r="BC19" s="32"/>
       <c r="BD19" s="36" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="BE19" s="36"/>
       <c r="BF19" s="32"/>
       <c r="BG19" s="36" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="BH19" s="36"/>
       <c r="BI19" s="35" t="s">
@@ -13339,10 +13335,10 @@
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="35" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L20" s="79">
         <f t="shared" si="1"/>
@@ -13352,43 +13348,43 @@
         <v>10080</v>
       </c>
       <c r="N20" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O20" s="76" t="s">
         <v>160</v>
       </c>
       <c r="P20" s="76" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q20" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R20" s="90" t="s">
         <v>160</v>
       </c>
       <c r="S20" s="90" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="T20" s="86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U20" s="88" t="s">
         <v>160</v>
       </c>
       <c r="V20" s="88" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="W20" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X20" s="81">
         <v>400</v>
       </c>
       <c r="Y20" s="81" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="Z20" s="84" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AA20" s="92"/>
       <c r="AB20" s="92"/>
@@ -13409,25 +13405,25 @@
         <v>125</v>
       </c>
       <c r="AO20" s="115" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AP20" s="35" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AQ20" s="34" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AR20" s="117">
         <v>20</v>
       </c>
       <c r="AS20" s="117" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AT20" s="118" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AU20" s="36" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AV20" s="36"/>
       <c r="AW20" s="34"/>
@@ -13439,17 +13435,17 @@
         <v>100</v>
       </c>
       <c r="BA20" s="111" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="BB20" s="34"/>
       <c r="BC20" s="34"/>
       <c r="BD20" s="34" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="BE20" s="34"/>
       <c r="BF20" s="34"/>
       <c r="BG20" s="34" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="BH20" s="34"/>
       <c r="BI20" s="34" t="s">
@@ -13492,10 +13488,10 @@
       </c>
       <c r="I21" s="35"/>
       <c r="J21" s="35" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="L21" s="79">
         <f t="shared" si="1"/>
@@ -13505,43 +13501,43 @@
         <v>10080</v>
       </c>
       <c r="N21" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O21" s="76">
         <v>22500</v>
       </c>
       <c r="P21" s="76" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q21" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R21" s="90">
         <v>22500</v>
       </c>
       <c r="S21" s="90" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="T21" s="86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U21" s="88">
         <v>22500</v>
       </c>
       <c r="V21" s="88" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="W21" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X21" s="81" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Y21" s="81" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="Z21" s="84" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AA21" s="92"/>
       <c r="AB21" s="92"/>
@@ -13556,13 +13552,13 @@
       <c r="AK21" s="106"/>
       <c r="AL21" s="107"/>
       <c r="AM21" s="114" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AN21" s="114" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AO21" s="115" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AP21" s="35"/>
       <c r="AQ21" s="32" t="s">
@@ -13572,10 +13568,10 @@
         <v>80</v>
       </c>
       <c r="AS21" s="117" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AT21" s="118" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AU21" s="36"/>
       <c r="AV21" s="36"/>
@@ -13585,20 +13581,20 @@
         <v>93</v>
       </c>
       <c r="AZ21" s="32" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="BA21" s="111" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="BB21" s="32"/>
       <c r="BC21" s="32"/>
       <c r="BD21" s="36" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="BE21" s="36"/>
       <c r="BF21" s="32"/>
       <c r="BG21" s="36" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="BH21" s="36"/>
       <c r="BI21" s="32" t="s">
@@ -13622,7 +13618,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D22" s="104" t="s">
         <v>383</v>
@@ -13641,10 +13637,10 @@
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="35" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="L22" s="79">
         <f t="shared" si="1"/>
@@ -13654,43 +13650,43 @@
         <v>10080</v>
       </c>
       <c r="N22" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O22" s="77" t="s">
         <v>166</v>
       </c>
       <c r="P22" s="76" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q22" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R22" s="90" t="s">
         <v>166</v>
       </c>
       <c r="S22" s="90" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="T22" s="86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U22" s="88" t="s">
         <v>166</v>
       </c>
       <c r="V22" s="88" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="W22" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X22" s="82" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Y22" s="82" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="Z22" s="84" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AA22" s="92"/>
       <c r="AB22" s="92"/>
@@ -13705,31 +13701,31 @@
       <c r="AK22" s="106"/>
       <c r="AL22" s="107"/>
       <c r="AM22" s="114" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AN22" s="114" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AO22" s="115" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AP22" s="35" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AQ22" s="34" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AR22" s="119" t="s">
         <v>167</v>
       </c>
       <c r="AS22" s="119" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AT22" s="118" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AU22" s="36" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AV22" s="36"/>
       <c r="AW22" s="34"/>
@@ -13738,20 +13734,20 @@
         <v>93</v>
       </c>
       <c r="AZ22" s="34" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="BA22" s="111" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="BB22" s="34"/>
       <c r="BC22" s="34"/>
       <c r="BD22" s="34" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="BE22" s="34"/>
       <c r="BF22" s="34"/>
       <c r="BG22" s="36" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="BH22" s="36"/>
       <c r="BI22" s="34" t="s">
@@ -13775,7 +13771,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D23" s="104" t="s">
         <v>177</v>
@@ -13794,10 +13790,10 @@
       </c>
       <c r="I23" s="35"/>
       <c r="J23" s="35" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="L23" s="79">
         <f t="shared" si="1"/>
@@ -13807,43 +13803,43 @@
         <v>10080</v>
       </c>
       <c r="N23" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O23" s="76" t="s">
+        <v>541</v>
+      </c>
+      <c r="P23" s="76" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q23" s="87" t="s">
+        <v>650</v>
+      </c>
+      <c r="R23" s="90" t="s">
+        <v>541</v>
+      </c>
+      <c r="S23" s="90" t="s">
         <v>542</v>
       </c>
-      <c r="P23" s="76" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q23" s="87" t="s">
-        <v>651</v>
-      </c>
-      <c r="R23" s="90" t="s">
+      <c r="T23" s="86" t="s">
+        <v>650</v>
+      </c>
+      <c r="U23" s="88" t="s">
+        <v>541</v>
+      </c>
+      <c r="V23" s="88" t="s">
         <v>542</v>
       </c>
-      <c r="S23" s="90" t="s">
-        <v>543</v>
-      </c>
-      <c r="T23" s="86" t="s">
-        <v>651</v>
-      </c>
-      <c r="U23" s="88" t="s">
-        <v>542</v>
-      </c>
-      <c r="V23" s="88" t="s">
-        <v>543</v>
-      </c>
       <c r="W23" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X23" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="Y23" s="81" t="s">
+        <v>567</v>
+      </c>
+      <c r="Z23" s="84" t="s">
         <v>568</v>
-      </c>
-      <c r="Z23" s="84" t="s">
-        <v>569</v>
       </c>
       <c r="AA23" s="92"/>
       <c r="AB23" s="92"/>
@@ -13864,7 +13860,7 @@
         <v>141</v>
       </c>
       <c r="AO23" s="115" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AP23" s="35"/>
       <c r="AQ23" s="32" t="s">
@@ -13874,10 +13870,10 @@
         <v>20</v>
       </c>
       <c r="AS23" s="117" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AT23" s="118" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AU23" s="36"/>
       <c r="AV23" s="36"/>
@@ -13890,17 +13886,17 @@
         <v>109</v>
       </c>
       <c r="BA23" s="111" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="BB23" s="32"/>
       <c r="BC23" s="32"/>
       <c r="BD23" s="36" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="BE23" s="36"/>
       <c r="BF23" s="32"/>
       <c r="BG23" s="32" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="BH23" s="32"/>
       <c r="BI23" s="32" t="s">
@@ -13943,10 +13939,10 @@
       </c>
       <c r="I24" s="35"/>
       <c r="J24" s="35" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L24" s="79">
         <f t="shared" si="1"/>
@@ -13957,43 +13953,43 @@
         <v>17280</v>
       </c>
       <c r="N24" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O24" s="76">
         <v>2500000</v>
       </c>
       <c r="P24" s="76" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Q24" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R24" s="90">
         <v>2500000</v>
       </c>
       <c r="S24" s="90" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="T24" s="86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U24" s="88">
         <v>2500000</v>
       </c>
       <c r="V24" s="88" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="W24" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X24" s="81">
         <v>1500</v>
       </c>
       <c r="Y24" s="81" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="Z24" s="84" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AA24" s="92"/>
       <c r="AB24" s="92"/>
@@ -14014,22 +14010,22 @@
         <v>180</v>
       </c>
       <c r="AO24" s="115" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AP24" s="35" t="s">
         <v>181</v>
       </c>
       <c r="AQ24" s="36" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AR24" s="117" t="s">
         <v>175</v>
       </c>
       <c r="AS24" s="117" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AT24" s="118" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AU24" s="36"/>
       <c r="AV24" s="36"/>
@@ -14039,20 +14035,20 @@
         <v>179</v>
       </c>
       <c r="AZ24" s="36" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BA24" s="111" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="BB24" s="36"/>
       <c r="BC24" s="36"/>
       <c r="BD24" s="31" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="BE24" s="36"/>
       <c r="BF24" s="36"/>
       <c r="BG24" s="36" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="BH24" s="36"/>
       <c r="BI24" s="32" t="s">
@@ -14082,7 +14078,7 @@
         <v>384</v>
       </c>
       <c r="E25" s="103" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F25" s="35" t="s">
         <v>91</v>
@@ -14097,10 +14093,10 @@
         <v>93</v>
       </c>
       <c r="J25" s="35" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L25" s="79">
         <f t="shared" si="1"/>
@@ -14110,34 +14106,34 @@
         <v>10080</v>
       </c>
       <c r="N25" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O25" s="76" t="s">
         <v>186</v>
       </c>
       <c r="P25" s="76" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q25" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R25" s="90" t="s">
         <v>186</v>
       </c>
       <c r="S25" s="90" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="T25" s="86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U25" s="88" t="s">
         <v>186</v>
       </c>
       <c r="V25" s="88" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="W25" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X25" s="83"/>
       <c r="Y25" s="83"/>
@@ -14152,22 +14148,22 @@
       <c r="AH25" s="98"/>
       <c r="AI25" s="99"/>
       <c r="AJ25" s="38" t="s">
+        <v>928</v>
+      </c>
+      <c r="AK25" s="38" t="s">
         <v>929</v>
       </c>
-      <c r="AK25" s="38" t="s">
+      <c r="AL25" s="107" t="s">
+        <v>540</v>
+      </c>
+      <c r="AM25" s="114" t="s">
+        <v>622</v>
+      </c>
+      <c r="AN25" s="114" t="s">
         <v>930</v>
       </c>
-      <c r="AL25" s="107" t="s">
-        <v>541</v>
-      </c>
-      <c r="AM25" s="114" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN25" s="114" t="s">
-        <v>931</v>
-      </c>
       <c r="AO25" s="115" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AP25" s="35"/>
       <c r="AQ25" s="38" t="s">
@@ -14177,10 +14173,10 @@
         <v>188</v>
       </c>
       <c r="AS25" s="120" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AT25" s="118" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AU25" s="36" t="s">
         <v>140</v>
@@ -14198,13 +14194,13 @@
       <c r="BB25" s="38"/>
       <c r="BC25" s="38"/>
       <c r="BD25" s="31" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="BE25" s="36"/>
       <c r="BF25" s="36"/>
       <c r="BG25" s="36"/>
       <c r="BH25" s="36" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="BI25" s="38" t="s">
         <v>118</v>
@@ -14227,13 +14223,13 @@
         <v>20</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D26" s="104" t="s">
         <v>385</v>
       </c>
       <c r="E26" s="103" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F26" s="35" t="s">
         <v>91</v>
@@ -14248,10 +14244,10 @@
         <v>93</v>
       </c>
       <c r="J26" s="35" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K26" s="35" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L26" s="79">
         <f t="shared" si="1"/>
@@ -14261,34 +14257,34 @@
         <v>10080</v>
       </c>
       <c r="N26" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O26" s="76" t="s">
         <v>113</v>
       </c>
       <c r="P26" s="76" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q26" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R26" s="90" t="s">
         <v>113</v>
       </c>
       <c r="S26" s="90" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="T26" s="86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U26" s="88" t="s">
         <v>113</v>
       </c>
       <c r="V26" s="88" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="W26" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X26" s="83"/>
       <c r="Y26" s="83"/>
@@ -14303,35 +14299,35 @@
       <c r="AH26" s="98"/>
       <c r="AI26" s="99"/>
       <c r="AJ26" s="36" t="s">
+        <v>621</v>
+      </c>
+      <c r="AK26" s="36" t="s">
+        <v>931</v>
+      </c>
+      <c r="AL26" s="107" t="s">
+        <v>540</v>
+      </c>
+      <c r="AM26" s="114" t="s">
         <v>622</v>
       </c>
-      <c r="AK26" s="36" t="s">
-        <v>932</v>
-      </c>
-      <c r="AL26" s="107" t="s">
-        <v>541</v>
-      </c>
-      <c r="AM26" s="114" t="s">
-        <v>623</v>
-      </c>
       <c r="AN26" s="114" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AO26" s="115" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AP26" s="35"/>
       <c r="AQ26" s="36" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="AR26" s="120" t="s">
         <v>123</v>
       </c>
       <c r="AS26" s="120" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AT26" s="118" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AU26" s="36" t="s">
         <v>140</v>
@@ -14349,13 +14345,13 @@
       <c r="BB26" s="36"/>
       <c r="BC26" s="36"/>
       <c r="BD26" s="31" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="BE26" s="36"/>
       <c r="BF26" s="36"/>
       <c r="BG26" s="36"/>
       <c r="BH26" s="36" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="BI26" s="32" t="s">
         <v>93</v>
@@ -14384,7 +14380,7 @@
         <v>175</v>
       </c>
       <c r="E27" s="103" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F27" s="35" t="s">
         <v>91</v>
@@ -14399,10 +14395,10 @@
         <v>93</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L27" s="79">
         <f t="shared" si="1"/>
@@ -14412,34 +14408,34 @@
         <v>10080</v>
       </c>
       <c r="N27" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O27" s="76" t="s">
         <v>186</v>
       </c>
       <c r="P27" s="76" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q27" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R27" s="90" t="s">
         <v>186</v>
       </c>
       <c r="S27" s="90" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="T27" s="86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U27" s="88" t="s">
         <v>186</v>
       </c>
       <c r="V27" s="88" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="W27" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X27" s="83"/>
       <c r="Y27" s="83"/>
@@ -14454,22 +14450,22 @@
       <c r="AH27" s="98"/>
       <c r="AI27" s="99"/>
       <c r="AJ27" s="36" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AK27" s="36" t="s">
         <v>116</v>
       </c>
       <c r="AL27" s="107" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AM27" s="114" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AN27" s="114" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AO27" s="115" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AP27" s="35"/>
       <c r="AQ27" s="38" t="s">
@@ -14479,10 +14475,10 @@
         <v>188</v>
       </c>
       <c r="AS27" s="120" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AT27" s="118" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AU27" s="36" t="s">
         <v>140</v>
@@ -14500,13 +14496,13 @@
       <c r="BB27" s="36"/>
       <c r="BC27" s="36"/>
       <c r="BD27" s="31" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="BE27" s="36"/>
       <c r="BF27" s="36"/>
       <c r="BG27" s="36"/>
       <c r="BH27" s="36" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="BI27" s="36" t="s">
         <v>118</v>
@@ -14529,13 +14525,13 @@
         <v>22</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D28" s="104" t="s">
         <v>386</v>
       </c>
       <c r="E28" s="103" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F28" s="35" t="s">
         <v>91</v>
@@ -14550,10 +14546,10 @@
         <v>93</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K28" s="35" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L28" s="79">
         <f t="shared" si="1"/>
@@ -14563,34 +14559,34 @@
         <v>10080</v>
       </c>
       <c r="N28" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O28" s="76" t="s">
         <v>144</v>
       </c>
       <c r="P28" s="76" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q28" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R28" s="90" t="s">
         <v>144</v>
       </c>
       <c r="S28" s="90" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="T28" s="86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U28" s="88" t="s">
         <v>144</v>
       </c>
       <c r="V28" s="88" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="W28" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X28" s="83"/>
       <c r="Y28" s="83"/>
@@ -14599,10 +14595,10 @@
         <v>121</v>
       </c>
       <c r="AB28" s="92" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AC28" s="93" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AD28" s="95"/>
       <c r="AE28" s="95"/>
@@ -14617,33 +14613,33 @@
         <v>116</v>
       </c>
       <c r="AL28" s="107" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AM28" s="114" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AN28" s="114" t="s">
         <v>187</v>
       </c>
       <c r="AO28" s="115" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AP28" s="35"/>
       <c r="AQ28" s="38" t="s">
         <v>187</v>
       </c>
       <c r="AR28" s="120" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="AS28" s="120" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AT28" s="118" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AU28" s="36"/>
       <c r="AV28" s="36" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AW28" s="35" t="s">
         <v>93</v>
@@ -14657,7 +14653,7 @@
       <c r="BB28" s="36"/>
       <c r="BC28" s="36"/>
       <c r="BD28" s="31" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="BE28" s="36"/>
       <c r="BF28" s="36"/>
@@ -14690,7 +14686,7 @@
         <v>387</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F29" s="35" t="s">
         <v>91</v>
@@ -14705,10 +14701,10 @@
         <v>93</v>
       </c>
       <c r="J29" s="35" t="s">
+        <v>722</v>
+      </c>
+      <c r="K29" s="35" t="s">
         <v>723</v>
-      </c>
-      <c r="K29" s="35" t="s">
-        <v>724</v>
       </c>
       <c r="L29" s="79">
         <f t="shared" si="1"/>
@@ -14718,34 +14714,34 @@
         <v>10080</v>
       </c>
       <c r="N29" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O29" s="76" t="s">
         <v>201</v>
       </c>
       <c r="P29" s="76" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q29" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R29" s="90" t="s">
         <v>201</v>
       </c>
       <c r="S29" s="90" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="T29" s="86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U29" s="88" t="s">
         <v>201</v>
       </c>
       <c r="V29" s="88" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="W29" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X29" s="83"/>
       <c r="Y29" s="83"/>
@@ -14754,10 +14750,10 @@
         <v>156</v>
       </c>
       <c r="AB29" s="92" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AC29" s="93" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AD29" s="95"/>
       <c r="AE29" s="95"/>
@@ -14766,39 +14762,39 @@
       <c r="AH29" s="98"/>
       <c r="AI29" s="99"/>
       <c r="AJ29" s="36" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AK29" s="36" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AL29" s="107" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AM29" s="114" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AN29" s="114" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AO29" s="115" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AP29" s="35"/>
       <c r="AQ29" s="38" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AR29" s="120" t="s">
         <v>91</v>
       </c>
       <c r="AS29" s="120" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="AT29" s="118" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AU29" s="36"/>
       <c r="AV29" s="36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="AW29" s="35" t="s">
         <v>93</v>
@@ -14812,13 +14808,13 @@
       <c r="BB29" s="36"/>
       <c r="BC29" s="36"/>
       <c r="BD29" s="31" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="BE29" s="36"/>
       <c r="BF29" s="36"/>
       <c r="BG29" s="36"/>
       <c r="BH29" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="BI29" s="32" t="s">
         <v>93</v>
@@ -14841,13 +14837,13 @@
         <v>24</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D30" s="104" t="s">
         <v>175</v>
       </c>
       <c r="E30" s="103" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F30" s="35" t="s">
         <v>91</v>
@@ -14871,34 +14867,34 @@
         <v>10080</v>
       </c>
       <c r="N30" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O30" s="76" t="s">
         <v>127</v>
       </c>
       <c r="P30" s="76" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q30" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R30" s="90" t="s">
         <v>127</v>
       </c>
       <c r="S30" s="90" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="T30" s="86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U30" s="88" t="s">
         <v>127</v>
       </c>
       <c r="V30" s="88" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="W30" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X30" s="83"/>
       <c r="Y30" s="83"/>
@@ -14916,32 +14912,32 @@
         <v>123</v>
       </c>
       <c r="AK30" s="36" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="AL30" s="107" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AM30" s="114" t="s">
         <v>123</v>
       </c>
       <c r="AN30" s="114" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AO30" s="115" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AP30" s="35"/>
       <c r="AQ30" s="38" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="AR30" s="120" t="s">
         <v>95</v>
       </c>
       <c r="AS30" s="120" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AT30" s="118" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AU30" s="36"/>
       <c r="AV30" s="36"/>
@@ -14957,13 +14953,13 @@
       <c r="BB30" s="36"/>
       <c r="BC30" s="36"/>
       <c r="BD30" s="31" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="BE30" s="36"/>
       <c r="BF30" s="36"/>
       <c r="BG30" s="36"/>
       <c r="BH30" s="36" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="BI30" s="32" t="s">
         <v>118</v>
@@ -14992,7 +14988,7 @@
         <v>175</v>
       </c>
       <c r="E31" s="103" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F31" s="35" t="s">
         <v>91</v>
@@ -15007,10 +15003,10 @@
         <v>93</v>
       </c>
       <c r="J31" s="35" t="s">
+        <v>722</v>
+      </c>
+      <c r="K31" s="35" t="s">
         <v>723</v>
-      </c>
-      <c r="K31" s="35" t="s">
-        <v>724</v>
       </c>
       <c r="L31" s="79">
         <f t="shared" si="1"/>
@@ -15020,34 +15016,34 @@
         <v>10080</v>
       </c>
       <c r="N31" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O31" s="76" t="s">
         <v>129</v>
       </c>
       <c r="P31" s="76" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q31" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R31" s="90" t="s">
         <v>129</v>
       </c>
       <c r="S31" s="90" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="T31" s="86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U31" s="88" t="s">
         <v>129</v>
       </c>
       <c r="V31" s="88" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="W31" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X31" s="83"/>
       <c r="Y31" s="83"/>
@@ -15056,10 +15052,10 @@
         <v>156</v>
       </c>
       <c r="AB31" s="92" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AC31" s="93" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AD31" s="95"/>
       <c r="AE31" s="95"/>
@@ -15068,26 +15064,26 @@
       <c r="AH31" s="98"/>
       <c r="AI31" s="99"/>
       <c r="AJ31" s="36" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AK31" s="36" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AL31" s="107" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AM31" s="114" t="s">
         <v>116</v>
       </c>
       <c r="AN31" s="114" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AO31" s="115" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AP31" s="35"/>
       <c r="AQ31" s="38" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AR31" s="120" t="s">
         <v>95</v>
@@ -15096,11 +15092,11 @@
         <v>95</v>
       </c>
       <c r="AT31" s="118" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AU31" s="36"/>
       <c r="AV31" s="36" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AW31" s="35" t="s">
         <v>93</v>
@@ -15114,13 +15110,13 @@
       <c r="BB31" s="36"/>
       <c r="BC31" s="36"/>
       <c r="BD31" s="31" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="BE31" s="36"/>
       <c r="BF31" s="36"/>
       <c r="BG31" s="36"/>
       <c r="BH31" s="36" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="BI31" s="36" t="s">
         <v>93</v>
@@ -15152,7 +15148,7 @@
         <v>91</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>118</v>
@@ -15173,7 +15169,7 @@
         <v>100000</v>
       </c>
       <c r="Q32" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R32" s="90"/>
       <c r="S32" s="90"/>
@@ -15185,7 +15181,7 @@
         <v>100000</v>
       </c>
       <c r="W32" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X32" s="82"/>
       <c r="Y32" s="82"/>
@@ -15220,7 +15216,7 @@
       <c r="BB32" s="36"/>
       <c r="BC32" s="36"/>
       <c r="BD32" s="36" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="BE32" s="36"/>
       <c r="BF32" s="36"/>
@@ -15252,7 +15248,7 @@
         <v>91</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>118</v>
@@ -15273,7 +15269,7 @@
         <v>100000</v>
       </c>
       <c r="Q33" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R33" s="90"/>
       <c r="S33" s="90"/>
@@ -15285,7 +15281,7 @@
         <v>100000</v>
       </c>
       <c r="W33" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X33" s="82"/>
       <c r="Y33" s="82"/>
@@ -15320,7 +15316,7 @@
       <c r="BB33" s="36"/>
       <c r="BC33" s="36"/>
       <c r="BD33" s="36" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="BE33" s="36"/>
       <c r="BF33" s="36"/>
@@ -15352,7 +15348,7 @@
         <v>91</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>118</v>
@@ -15373,7 +15369,7 @@
         <v>100000</v>
       </c>
       <c r="Q34" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R34" s="90"/>
       <c r="S34" s="90"/>
@@ -15385,7 +15381,7 @@
         <v>100000</v>
       </c>
       <c r="W34" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X34" s="82"/>
       <c r="Y34" s="82"/>
@@ -15420,7 +15416,7 @@
       <c r="BB34" s="36"/>
       <c r="BC34" s="36"/>
       <c r="BD34" s="36" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="BE34" s="36"/>
       <c r="BF34" s="36"/>
@@ -15452,7 +15448,7 @@
         <v>91</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>118</v>
@@ -15473,7 +15469,7 @@
         <v>100000</v>
       </c>
       <c r="Q35" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R35" s="90"/>
       <c r="S35" s="90"/>
@@ -15485,7 +15481,7 @@
         <v>100000</v>
       </c>
       <c r="W35" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X35" s="82"/>
       <c r="Y35" s="82"/>
@@ -15520,7 +15516,7 @@
       <c r="BB35" s="36"/>
       <c r="BC35" s="36"/>
       <c r="BD35" s="36" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="BE35" s="36"/>
       <c r="BF35" s="36"/>
@@ -15552,7 +15548,7 @@
         <v>91</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>118</v>
@@ -15573,7 +15569,7 @@
         <v>100000</v>
       </c>
       <c r="Q36" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R36" s="90"/>
       <c r="S36" s="90"/>
@@ -15585,7 +15581,7 @@
         <v>100000</v>
       </c>
       <c r="W36" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X36" s="82"/>
       <c r="Y36" s="82"/>
@@ -15620,7 +15616,7 @@
       <c r="BB36" s="36"/>
       <c r="BC36" s="36"/>
       <c r="BD36" s="36" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="BE36" s="36"/>
       <c r="BF36" s="36"/>
@@ -15662,10 +15658,10 @@
       </c>
       <c r="I37" s="35"/>
       <c r="J37" s="35" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K37" s="35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L37" s="79"/>
       <c r="M37" s="79"/>
@@ -15677,7 +15673,7 @@
         <v>200000</v>
       </c>
       <c r="Q37" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R37" s="90">
         <v>200000</v>
@@ -15686,7 +15682,7 @@
         <v>200000</v>
       </c>
       <c r="T37" s="86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U37" s="88">
         <v>200000</v>
@@ -15695,7 +15691,7 @@
         <v>200000</v>
       </c>
       <c r="W37" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X37" s="82"/>
       <c r="Y37" s="82"/>
@@ -15730,7 +15726,7 @@
       <c r="BB37" s="36"/>
       <c r="BC37" s="36"/>
       <c r="BD37" s="36" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="BE37" s="36"/>
       <c r="BF37" s="36"/>
@@ -15774,10 +15770,10 @@
         <v>93</v>
       </c>
       <c r="J38" s="35" t="s">
+        <v>722</v>
+      </c>
+      <c r="K38" s="35" t="s">
         <v>723</v>
-      </c>
-      <c r="K38" s="35" t="s">
-        <v>724</v>
       </c>
       <c r="L38" s="79"/>
       <c r="M38" s="79"/>
@@ -15824,7 +15820,7 @@
       <c r="BB38" s="36"/>
       <c r="BC38" s="36"/>
       <c r="BD38" s="36" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="BE38" s="36"/>
       <c r="BF38" s="36"/>
@@ -15866,10 +15862,10 @@
         <v>93</v>
       </c>
       <c r="J39" s="35" t="s">
+        <v>722</v>
+      </c>
+      <c r="K39" s="35" t="s">
         <v>723</v>
-      </c>
-      <c r="K39" s="35" t="s">
-        <v>724</v>
       </c>
       <c r="L39" s="79"/>
       <c r="M39" s="79"/>
@@ -15916,7 +15912,7 @@
       <c r="BB39" s="36"/>
       <c r="BC39" s="36"/>
       <c r="BD39" s="36" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="BE39" s="36"/>
       <c r="BF39" s="36"/>
@@ -15960,10 +15956,10 @@
         <v>93</v>
       </c>
       <c r="J40" s="35" t="s">
+        <v>722</v>
+      </c>
+      <c r="K40" s="35" t="s">
         <v>723</v>
-      </c>
-      <c r="K40" s="35" t="s">
-        <v>724</v>
       </c>
       <c r="L40" s="79"/>
       <c r="M40" s="79"/>
@@ -16010,7 +16006,7 @@
       <c r="BB40" s="36"/>
       <c r="BC40" s="36"/>
       <c r="BD40" s="36" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="BE40" s="36"/>
       <c r="BF40" s="36"/>
@@ -16054,10 +16050,10 @@
         <v>93</v>
       </c>
       <c r="J41" s="35" t="s">
+        <v>722</v>
+      </c>
+      <c r="K41" s="35" t="s">
         <v>723</v>
-      </c>
-      <c r="K41" s="35" t="s">
-        <v>724</v>
       </c>
       <c r="L41" s="79"/>
       <c r="M41" s="79"/>
@@ -16104,7 +16100,7 @@
       <c r="BB41" s="36"/>
       <c r="BC41" s="36"/>
       <c r="BD41" s="36" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="BE41" s="36"/>
       <c r="BF41" s="36"/>
@@ -16148,10 +16144,10 @@
         <v>93</v>
       </c>
       <c r="J42" s="35" t="s">
+        <v>722</v>
+      </c>
+      <c r="K42" s="35" t="s">
         <v>723</v>
-      </c>
-      <c r="K42" s="35" t="s">
-        <v>724</v>
       </c>
       <c r="L42" s="79"/>
       <c r="M42" s="79"/>
@@ -16198,7 +16194,7 @@
       <c r="BB42" s="36"/>
       <c r="BC42" s="36"/>
       <c r="BD42" s="36" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="BE42" s="36"/>
       <c r="BF42" s="36"/>
@@ -16214,23 +16210,23 @@
     </row>
     <row r="43" spans="1:65">
       <c r="A43" s="60" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B43" s="62">
         <f>ROW()-6</f>
         <v>37</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D43" s="104" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E43" s="103" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>93</v>
@@ -16240,10 +16236,10 @@
       </c>
       <c r="I43" s="35"/>
       <c r="J43" s="35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K43" s="35" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L43" s="79">
         <v>0</v>
@@ -16252,43 +16248,43 @@
         <v>5760</v>
       </c>
       <c r="N43" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O43" s="76" t="s">
         <v>116</v>
       </c>
       <c r="P43" s="76" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Q43" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R43" s="91" t="s">
         <v>116</v>
       </c>
       <c r="S43" s="91" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T43" s="86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U43" s="89" t="s">
         <v>116</v>
       </c>
       <c r="V43" s="89" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="W43" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X43" s="81" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Y43" s="81" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Z43" s="84" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AA43" s="92"/>
       <c r="AB43" s="92"/>
@@ -16322,7 +16318,7 @@
       <c r="BB43" s="35"/>
       <c r="BC43" s="35"/>
       <c r="BD43" s="31" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="BE43" s="36"/>
       <c r="BF43" s="35"/>
@@ -16333,28 +16329,28 @@
       <c r="BK43" s="35"/>
       <c r="BL43" s="35"/>
       <c r="BM43" s="31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="1:65">
       <c r="A44" s="61" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B44" s="62">
         <f>ROW()-6</f>
         <v>38</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D44" s="104" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E44" s="103" t="s">
         <v>335</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>93</v>
@@ -16364,10 +16360,10 @@
       </c>
       <c r="I44" s="35"/>
       <c r="J44" s="35" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K44" s="35" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L44" s="79">
         <v>0</v>
@@ -16376,43 +16372,43 @@
         <v>5760</v>
       </c>
       <c r="N44" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O44" s="76" t="s">
         <v>116</v>
       </c>
       <c r="P44" s="76" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Q44" s="87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R44" s="91" t="s">
         <v>116</v>
       </c>
       <c r="S44" s="91" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T44" s="86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U44" s="89" t="s">
         <v>116</v>
       </c>
       <c r="V44" s="89" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="W44" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X44" s="81" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Y44" s="81" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Z44" s="84" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AA44" s="92"/>
       <c r="AB44" s="92"/>
@@ -16446,7 +16442,7 @@
       <c r="BB44" s="35"/>
       <c r="BC44" s="35"/>
       <c r="BD44" s="31" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="BE44" s="36"/>
       <c r="BF44" s="35"/>
@@ -16457,22 +16453,22 @@
       <c r="BK44" s="35"/>
       <c r="BL44" s="35"/>
       <c r="BM44" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="45" spans="1:65">
       <c r="A45" s="61" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B45" s="62">
         <f>ROW()-6</f>
         <v>39</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D45" s="104" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E45" s="103" t="s">
         <v>33</v>
@@ -16488,10 +16484,10 @@
       </c>
       <c r="I45" s="35"/>
       <c r="J45" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="K45" s="35" t="s">
         <v>723</v>
-      </c>
-      <c r="K45" s="35" t="s">
-        <v>724</v>
       </c>
       <c r="L45" s="79"/>
       <c r="M45" s="79"/>
@@ -16506,13 +16502,13 @@
       <c r="V45" s="89"/>
       <c r="W45" s="85"/>
       <c r="X45" s="81" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Y45" s="81" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Z45" s="84" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AA45" s="92"/>
       <c r="AB45" s="92"/>
@@ -16546,7 +16542,7 @@
       <c r="BB45" s="35"/>
       <c r="BC45" s="35"/>
       <c r="BD45" s="31" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="BE45" s="36"/>
       <c r="BF45" s="35"/>
@@ -16557,7 +16553,7 @@
       <c r="BK45" s="35"/>
       <c r="BL45" s="35"/>
       <c r="BM45" s="31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -16614,7 +16610,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -16785,7 +16781,7 @@
         <v>347</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F4" s="52" t="s">
         <v>342</v>
@@ -16794,19 +16790,19 @@
         <v>324</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I4" s="66" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>114</v>
       </c>
       <c r="K4" s="65" t="s">
+        <v>653</v>
+      </c>
+      <c r="L4" s="65" t="s">
         <v>654</v>
-      </c>
-      <c r="L4" s="65" t="s">
-        <v>655</v>
       </c>
       <c r="M4" s="65" t="s">
         <v>325</v>
@@ -16911,7 +16907,7 @@
         <v>348</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F5" s="52" t="s">
         <v>343</v>
@@ -16920,100 +16916,100 @@
         <v>330</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I5" s="66" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="J5" s="52" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K5" s="52" t="s">
+        <v>655</v>
+      </c>
+      <c r="L5" s="52" t="s">
         <v>656</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="M5" s="52" t="s">
         <v>657</v>
       </c>
-      <c r="M5" s="52" t="s">
+      <c r="N5" s="52" t="s">
         <v>658</v>
       </c>
-      <c r="N5" s="52" t="s">
+      <c r="O5" s="52" t="s">
         <v>659</v>
       </c>
-      <c r="O5" s="52" t="s">
+      <c r="P5" s="52" t="s">
         <v>660</v>
       </c>
-      <c r="P5" s="52" t="s">
+      <c r="Q5" s="52" t="s">
         <v>661</v>
       </c>
-      <c r="Q5" s="52" t="s">
+      <c r="R5" s="52" t="s">
         <v>662</v>
       </c>
-      <c r="R5" s="52" t="s">
+      <c r="S5" s="52" t="s">
         <v>663</v>
       </c>
-      <c r="S5" s="52" t="s">
-        <v>664</v>
-      </c>
       <c r="T5" s="52" t="s">
+        <v>665</v>
+      </c>
+      <c r="U5" s="52" t="s">
         <v>666</v>
       </c>
-      <c r="U5" s="52" t="s">
+      <c r="V5" s="52" t="s">
         <v>667</v>
       </c>
-      <c r="V5" s="52" t="s">
+      <c r="W5" s="52" t="s">
         <v>668</v>
       </c>
-      <c r="W5" s="52" t="s">
+      <c r="X5" s="52" t="s">
         <v>669</v>
       </c>
-      <c r="X5" s="52" t="s">
+      <c r="Y5" s="52" t="s">
         <v>670</v>
       </c>
-      <c r="Y5" s="52" t="s">
+      <c r="Z5" s="52" t="s">
         <v>671</v>
       </c>
-      <c r="Z5" s="52" t="s">
+      <c r="AA5" s="52" t="s">
         <v>672</v>
       </c>
-      <c r="AA5" s="52" t="s">
+      <c r="AB5" s="52" t="s">
         <v>673</v>
       </c>
-      <c r="AB5" s="52" t="s">
+      <c r="AC5" s="52" t="s">
         <v>674</v>
       </c>
-      <c r="AC5" s="52" t="s">
+      <c r="AD5" s="52" t="s">
         <v>675</v>
       </c>
-      <c r="AD5" s="52" t="s">
+      <c r="AE5" s="52" t="s">
         <v>676</v>
       </c>
-      <c r="AE5" s="52" t="s">
+      <c r="AF5" s="52" t="s">
         <v>677</v>
       </c>
-      <c r="AF5" s="52" t="s">
+      <c r="AG5" s="52" t="s">
         <v>678</v>
       </c>
-      <c r="AG5" s="52" t="s">
+      <c r="AH5" s="52" t="s">
         <v>679</v>
       </c>
-      <c r="AH5" s="52" t="s">
+      <c r="AI5" s="52" t="s">
         <v>680</v>
       </c>
-      <c r="AI5" s="52" t="s">
+      <c r="AJ5" s="52" t="s">
         <v>681</v>
       </c>
-      <c r="AJ5" s="52" t="s">
+      <c r="AK5" s="52" t="s">
         <v>682</v>
       </c>
-      <c r="AK5" s="52" t="s">
+      <c r="AL5" s="52" t="s">
         <v>683</v>
       </c>
-      <c r="AL5" s="52" t="s">
+      <c r="AM5" s="52" t="s">
         <v>684</v>
-      </c>
-      <c r="AM5" s="52" t="s">
-        <v>685</v>
       </c>
       <c r="AN5" s="66" t="s">
         <v>331</v>
@@ -17037,7 +17033,7 @@
         <v>349</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F6" s="54" t="s">
         <v>5</v>
@@ -17046,7 +17042,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I6" s="68" t="s">
         <v>5</v>
@@ -17162,7 +17158,7 @@
         <v>335</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>318</v>
@@ -17171,7 +17167,7 @@
         <v>318</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I7" s="39">
         <v>1</v>
@@ -17263,7 +17259,7 @@
         <v>1</v>
       </c>
       <c r="AN7" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AO7" s="69"/>
       <c r="AP7" s="69"/>
@@ -17279,16 +17275,16 @@
         <v>352</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I8" s="39">
         <v>1</v>
@@ -17336,16 +17332,16 @@
         <v>0</v>
       </c>
       <c r="X8" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Y8" s="69" t="s">
         <v>33</v>
       </c>
       <c r="Z8" s="69" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AA8" s="69" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AB8" s="69" t="s">
         <v>148</v>
@@ -17399,13 +17395,13 @@
         <v>104</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I9" s="39">
         <v>1</v>
@@ -17417,19 +17413,19 @@
         <v>33</v>
       </c>
       <c r="L9" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M9" s="69" t="s">
         <v>33</v>
       </c>
       <c r="N9" s="69" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O9" s="69" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P9" s="69" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Q9" s="69" t="s">
         <v>33</v>
@@ -17456,19 +17452,19 @@
         <v>177</v>
       </c>
       <c r="Y9" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Z9" s="69" t="s">
         <v>33</v>
       </c>
       <c r="AA9" s="69" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AB9" s="69" t="s">
         <v>148</v>
       </c>
       <c r="AC9" s="69" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AD9" s="69" t="s">
         <v>148</v>
@@ -17518,13 +17514,13 @@
         <v>92</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I10" s="39">
         <v>1</v>
@@ -17536,19 +17532,19 @@
         <v>33</v>
       </c>
       <c r="L10" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M10" s="69" t="s">
         <v>33</v>
       </c>
       <c r="N10" s="69" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O10" s="69" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P10" s="69" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Q10" s="69" t="s">
         <v>33</v>
@@ -17560,10 +17556,10 @@
         <v>1</v>
       </c>
       <c r="T10" s="69" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U10" s="69" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="V10" s="69">
         <v>0</v>
@@ -17578,19 +17574,19 @@
         <v>177</v>
       </c>
       <c r="Z10" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AA10" s="69" t="s">
         <v>33</v>
       </c>
       <c r="AB10" s="69" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AC10" s="69" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AD10" s="69" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AE10" s="69"/>
       <c r="AF10" s="69"/>
@@ -17637,13 +17633,13 @@
         <v>108</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I11" s="39" t="s">
         <v>33</v>
@@ -17697,22 +17693,22 @@
         <v>175</v>
       </c>
       <c r="Z11" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AA11" s="69" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AB11" s="69" t="s">
         <v>33</v>
       </c>
       <c r="AC11" s="69" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AD11" s="69" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AE11" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF11" s="69"/>
       <c r="AG11" s="69" t="s">
@@ -17760,46 +17756,46 @@
         <v>109</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J12" s="39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K12" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L12" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M12" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N12" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O12" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P12" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q12" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="R12" s="69" t="s">
         <v>33</v>
       </c>
       <c r="S12" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="T12" s="69">
         <v>1</v>
@@ -17808,7 +17804,7 @@
         <v>91</v>
       </c>
       <c r="V12" s="69" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="W12" s="69">
         <v>0</v>
@@ -17823,19 +17819,19 @@
         <v>177</v>
       </c>
       <c r="AA12" s="69" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB12" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC12" s="69" t="s">
         <v>33</v>
       </c>
       <c r="AD12" s="69" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AE12" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF12" s="69" t="s">
         <v>91</v>
@@ -17844,22 +17840,22 @@
         <v>91</v>
       </c>
       <c r="AH12" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AI12" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AJ12" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AK12" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL12" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AM12" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN12" s="69">
         <v>1</v>
@@ -17885,43 +17881,43 @@
         <v>110</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J13" s="39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K13" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L13" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M13" s="69" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N13" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O13" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P13" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q13" s="69" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="R13" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="S13" s="69" t="s">
         <v>33</v>
@@ -17936,7 +17932,7 @@
         <v>91</v>
       </c>
       <c r="W13" s="69" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="X13" s="69" t="s">
         <v>391</v>
@@ -17951,16 +17947,16 @@
         <v>177</v>
       </c>
       <c r="AB13" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC13" s="69" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AD13" s="69" t="s">
         <v>33</v>
       </c>
       <c r="AE13" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF13" s="69" t="s">
         <v>91</v>
@@ -17969,22 +17965,22 @@
         <v>91</v>
       </c>
       <c r="AH13" s="69" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AI13" s="69" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AJ13" s="69" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AK13" s="69" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AL13" s="69" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM13" s="69" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AN13" s="69">
         <v>2</v>
@@ -18010,46 +18006,46 @@
         <v>111</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J14" s="39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K14" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L14" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M14" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N14" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O14" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P14" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q14" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="R14" s="69" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="S14" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="T14" s="69" t="s">
         <v>33</v>
@@ -18061,7 +18057,7 @@
         <v>33</v>
       </c>
       <c r="W14" s="69" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="X14" s="69" t="s">
         <v>391</v>
@@ -18079,13 +18075,13 @@
         <v>177</v>
       </c>
       <c r="AC14" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AD14" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AE14" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF14" s="69" t="s">
         <v>91</v>
@@ -18094,22 +18090,22 @@
         <v>91</v>
       </c>
       <c r="AH14" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AI14" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AJ14" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AK14" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL14" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AM14" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN14" s="69">
         <v>2</v>
@@ -18135,55 +18131,55 @@
         <v>112</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J15" s="39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K15" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L15" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M15" s="69" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N15" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O15" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P15" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q15" s="69" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="R15" s="69" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="S15" s="69" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="T15" s="69" t="s">
         <v>33</v>
       </c>
       <c r="U15" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="V15" s="69" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="W15" s="69" t="s">
         <v>33</v>
@@ -18207,10 +18203,10 @@
         <v>177</v>
       </c>
       <c r="AD15" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AE15" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF15" s="69" t="s">
         <v>91</v>
@@ -18219,22 +18215,22 @@
         <v>91</v>
       </c>
       <c r="AH15" s="69" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AI15" s="69" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AJ15" s="69" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AK15" s="69" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AL15" s="69" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AM15" s="69" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AN15" s="69">
         <v>2</v>
@@ -18260,52 +18256,52 @@
         <v>96</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I16" s="39" t="s">
+        <v>418</v>
+      </c>
+      <c r="J16" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="J16" s="39" t="s">
-        <v>420</v>
-      </c>
       <c r="K16" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L16" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M16" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N16" s="69" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O16" s="69" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P16" s="69" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Q16" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="R16" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="S16" s="69" t="s">
+        <v>436</v>
+      </c>
+      <c r="T16" s="69" t="s">
+        <v>418</v>
+      </c>
+      <c r="U16" s="69" t="s">
         <v>437</v>
-      </c>
-      <c r="T16" s="69" t="s">
-        <v>419</v>
-      </c>
-      <c r="U16" s="69" t="s">
-        <v>438</v>
       </c>
       <c r="V16" s="69" t="s">
         <v>33</v>
@@ -18335,7 +18331,7 @@
         <v>177</v>
       </c>
       <c r="AE16" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF16" s="69" t="s">
         <v>91</v>
@@ -18344,22 +18340,22 @@
         <v>91</v>
       </c>
       <c r="AH16" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AI16" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AJ16" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AK16" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL16" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AM16" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN16" s="69">
         <v>2</v>
@@ -18385,13 +18381,13 @@
         <v>134</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I17" s="39" t="s">
         <v>177</v>
@@ -18421,22 +18417,22 @@
         <v>177</v>
       </c>
       <c r="R17" s="69" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="S17" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="T17" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="U17" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="V17" s="69" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="W17" s="69" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="X17" s="69" t="s">
         <v>172</v>
@@ -18454,13 +18450,13 @@
         <v>175</v>
       </c>
       <c r="AC17" s="69" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AD17" s="69" t="s">
         <v>177</v>
       </c>
       <c r="AE17" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF17" s="69" t="s">
         <v>91</v>
@@ -18487,13 +18483,13 @@
         <v>177</v>
       </c>
       <c r="AN17" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AO17" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP17" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="2:42">
@@ -18510,13 +18506,13 @@
         <v>188</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I18" s="39" t="s">
         <v>177</v>
@@ -18531,34 +18527,34 @@
         <v>177</v>
       </c>
       <c r="M18" s="69" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N18" s="69" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O18" s="69" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P18" s="69" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q18" s="69" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="R18" s="69" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S18" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="T18" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="U18" s="69" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="V18" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="W18" s="69" t="s">
         <v>33</v>
@@ -18579,13 +18575,13 @@
         <v>388</v>
       </c>
       <c r="AC18" s="69" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AD18" s="69" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AE18" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF18" s="69" t="s">
         <v>91</v>
@@ -18594,22 +18590,22 @@
         <v>91</v>
       </c>
       <c r="AH18" s="69" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AI18" s="69" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AJ18" s="69" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AK18" s="69" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AL18" s="69" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AM18" s="69" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN18" s="69">
         <v>2</v>
@@ -18635,13 +18631,13 @@
         <v>213</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I19" s="39" t="s">
         <v>177</v>
@@ -18656,40 +18652,40 @@
         <v>177</v>
       </c>
       <c r="M19" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N19" s="69" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O19" s="69" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P19" s="69" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q19" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="R19" s="69" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="S19" s="69" t="s">
         <v>177</v>
       </c>
       <c r="T19" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="U19" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="V19" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="W19" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="X19" s="69" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y19" s="69" t="s">
         <v>172</v>
@@ -18710,7 +18706,7 @@
         <v>175</v>
       </c>
       <c r="AE19" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF19" s="69" t="s">
         <v>91</v>
@@ -18719,22 +18715,22 @@
         <v>91</v>
       </c>
       <c r="AH19" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AI19" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AJ19" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AK19" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AL19" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AM19" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AN19" s="69">
         <v>2</v>
@@ -18760,13 +18756,13 @@
         <v>167</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I20" s="39" t="s">
         <v>177</v>
@@ -18781,7 +18777,7 @@
         <v>177</v>
       </c>
       <c r="M20" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N20" s="69" t="s">
         <v>177</v>
@@ -18793,7 +18789,7 @@
         <v>177</v>
       </c>
       <c r="Q20" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R20" s="69" t="s">
         <v>177</v>
@@ -18802,25 +18798,25 @@
         <v>177</v>
       </c>
       <c r="T20" s="69" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="U20" s="69" t="s">
         <v>177</v>
       </c>
       <c r="V20" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="W20" s="69" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="X20" s="69" t="s">
         <v>176</v>
       </c>
       <c r="Y20" s="69" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Z20" s="69" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AA20" s="69" t="s">
         <v>391</v>
@@ -18835,7 +18831,7 @@
         <v>388</v>
       </c>
       <c r="AE20" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF20" s="69" t="s">
         <v>91</v>
@@ -18844,22 +18840,22 @@
         <v>91</v>
       </c>
       <c r="AH20" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AI20" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AJ20" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AK20" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AL20" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AM20" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AN20" s="69">
         <v>3</v>
@@ -18879,19 +18875,19 @@
         <v>15</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E21" s="39" t="s">
         <v>120</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I21" s="39" t="s">
         <v>177</v>
@@ -18906,7 +18902,7 @@
         <v>177</v>
       </c>
       <c r="M21" s="69" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N21" s="69" t="s">
         <v>177</v>
@@ -18918,7 +18914,7 @@
         <v>177</v>
       </c>
       <c r="Q21" s="69" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R21" s="69" t="s">
         <v>177</v>
@@ -18927,16 +18923,16 @@
         <v>177</v>
       </c>
       <c r="T21" s="69" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U21" s="69" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="V21" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="W21" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="X21" s="69" t="s">
         <v>176</v>
@@ -18945,7 +18941,7 @@
         <v>176</v>
       </c>
       <c r="Z21" s="69" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AA21" s="69" t="s">
         <v>391</v>
@@ -18957,10 +18953,10 @@
         <v>391</v>
       </c>
       <c r="AD21" s="69" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AE21" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF21" s="69" t="s">
         <v>91</v>
@@ -18969,22 +18965,22 @@
         <v>91</v>
       </c>
       <c r="AH21" s="69" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AI21" s="69" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AJ21" s="69" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AK21" s="69" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AL21" s="69" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM21" s="69" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AN21" s="69">
         <v>3</v>
@@ -19004,25 +19000,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E22" s="39" t="s">
         <v>190</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I22" s="39" t="s">
         <v>175</v>
       </c>
       <c r="J22" s="39" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K22" s="69" t="s">
         <v>92</v>
@@ -19046,7 +19042,7 @@
         <v>92</v>
       </c>
       <c r="R22" s="69" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S22" s="69" t="s">
         <v>177</v>
@@ -19061,10 +19057,10 @@
         <v>177</v>
       </c>
       <c r="W22" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="X22" s="69" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Y22" s="69" t="s">
         <v>176</v>
@@ -19085,7 +19081,7 @@
         <v>391</v>
       </c>
       <c r="AE22" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF22" s="69" t="s">
         <v>91</v>
@@ -19129,19 +19125,19 @@
         <v>17</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E23" s="39" t="s">
         <v>169</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I23" s="39">
         <v>4</v>
@@ -19174,10 +19170,10 @@
         <v>175</v>
       </c>
       <c r="S23" s="69" t="s">
+        <v>423</v>
+      </c>
+      <c r="T23" s="69" t="s">
         <v>424</v>
-      </c>
-      <c r="T23" s="69" t="s">
-        <v>425</v>
       </c>
       <c r="U23" s="69" t="s">
         <v>177</v>
@@ -19189,10 +19185,10 @@
         <v>177</v>
       </c>
       <c r="X23" s="69" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Y23" s="69" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Z23" s="69" t="s">
         <v>172</v>
@@ -19204,13 +19200,13 @@
         <v>172</v>
       </c>
       <c r="AC23" s="69" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AD23" s="69" t="s">
         <v>391</v>
       </c>
       <c r="AE23" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF23" s="69" t="s">
         <v>91</v>
@@ -19254,19 +19250,19 @@
         <v>18</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E24" s="39" t="s">
         <v>350</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H24" s="39" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I24" s="39">
         <v>4</v>
@@ -19305,7 +19301,7 @@
         <v>177</v>
       </c>
       <c r="U24" s="69" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="V24" s="69" t="s">
         <v>177</v>
@@ -19314,13 +19310,13 @@
         <v>177</v>
       </c>
       <c r="X24" s="69" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Y24" s="69" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Z24" s="69" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AA24" s="69" t="s">
         <v>172</v>
@@ -19335,7 +19331,7 @@
         <v>172</v>
       </c>
       <c r="AE24" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF24" s="69" t="s">
         <v>91</v>
@@ -19379,19 +19375,19 @@
         <v>19</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E25" s="39" t="s">
         <v>351</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I25" s="39">
         <v>4</v>
@@ -19442,7 +19438,7 @@
         <v>334</v>
       </c>
       <c r="Y25" s="69" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Z25" s="69" t="s">
         <v>176</v>
@@ -19460,7 +19456,7 @@
         <v>172</v>
       </c>
       <c r="AE25" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF25" s="69" t="s">
         <v>91</v>
@@ -19504,7 +19500,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E26" s="39" t="s">
         <v>117</v>
@@ -19513,10 +19509,10 @@
         <v>345</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H26" s="39" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I26" s="69" t="s">
         <v>92</v>
@@ -19549,16 +19545,16 @@
         <v>175</v>
       </c>
       <c r="S26" s="69" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="T26" s="69" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U26" s="69" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V26" s="69" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="W26" s="69" t="s">
         <v>334</v>
@@ -19582,7 +19578,7 @@
         <v>176</v>
       </c>
       <c r="AD26" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AE26" s="69" t="s">
         <v>91</v>
@@ -20042,7 +20038,7 @@
       <c r="B1" s="167"/>
       <c r="C1" s="167"/>
       <c r="D1" s="131" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E1" s="1"/>
       <c r="H1" s="1"/>
@@ -20055,7 +20051,7 @@
       <c r="B2" s="167"/>
       <c r="C2" s="167"/>
       <c r="D2" s="131" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E2" s="1"/>
       <c r="H2" s="1"/>
@@ -20084,22 +20080,22 @@
         <v>37</v>
       </c>
       <c r="E4" s="128" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F4" s="102" t="s">
         <v>338</v>
       </c>
       <c r="G4" s="28" t="s">
+        <v>705</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>706</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>707</v>
       </c>
       <c r="I4" s="128" t="s">
         <v>244</v>
       </c>
       <c r="J4" s="48" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="K4" s="128" t="s">
         <v>39</v>
@@ -20132,22 +20128,22 @@
         <v>251</v>
       </c>
       <c r="U4" s="116" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="V4" s="116" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="W4" s="116" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="X4" s="80" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y4" s="80" t="s">
         <v>535</v>
       </c>
-      <c r="Y4" s="80" t="s">
+      <c r="Z4" s="80" t="s">
         <v>536</v>
-      </c>
-      <c r="Z4" s="80" t="s">
-        <v>537</v>
       </c>
       <c r="AA4" s="128" t="s">
         <v>46</v>
@@ -20156,7 +20152,7 @@
         <v>47</v>
       </c>
       <c r="AC4" s="128" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AD4" s="128" t="s">
         <v>252</v>
@@ -20183,19 +20179,19 @@
         <v>56</v>
       </c>
       <c r="AL4" s="128" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AM4" s="128" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AN4" s="128" t="s">
         <v>57</v>
       </c>
       <c r="AO4" s="128" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AP4" s="128" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AQ4" s="128" t="s">
         <v>58</v>
@@ -20228,22 +20224,22 @@
         <v>37</v>
       </c>
       <c r="E5" s="128" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F5" s="102" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G5" s="28" t="s">
+        <v>707</v>
+      </c>
+      <c r="H5" s="28" t="s">
         <v>708</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>709</v>
       </c>
       <c r="I5" s="49" t="s">
         <v>256</v>
       </c>
       <c r="J5" s="50" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K5" s="50" t="s">
         <v>67</v>
@@ -20267,7 +20263,7 @@
         <v>261</v>
       </c>
       <c r="R5" s="49" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="S5" s="132" t="s">
         <v>71</v>
@@ -20276,43 +20272,43 @@
         <v>72</v>
       </c>
       <c r="U5" s="116" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="V5" s="116" t="s">
+        <v>627</v>
+      </c>
+      <c r="W5" s="116" t="s">
         <v>628</v>
       </c>
-      <c r="W5" s="116" t="s">
-        <v>629</v>
-      </c>
       <c r="X5" s="80" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Y5" s="80" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Z5" s="80" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AA5" s="49" t="s">
         <v>73</v>
       </c>
       <c r="AB5" s="49" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AC5" s="49" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AD5" s="49" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AE5" s="49" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AF5" s="49" t="s">
         <v>262</v>
       </c>
       <c r="AG5" s="49" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AH5" s="49" t="s">
         <v>78</v>
@@ -20327,19 +20323,19 @@
         <v>81</v>
       </c>
       <c r="AL5" s="49" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="AM5" s="49" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AN5" s="49" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AO5" s="49" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AP5" s="49" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AQ5" s="49" t="s">
         <v>82</v>
@@ -20372,7 +20368,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="125" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>5</v>
@@ -20387,7 +20383,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="125" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K6" s="125" t="s">
         <v>264</v>
@@ -20444,7 +20440,7 @@
         <v>88</v>
       </c>
       <c r="AC6" s="125" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AD6" s="125" t="s">
         <v>264</v>
@@ -20513,22 +20509,22 @@
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D7" s="40">
         <v>100</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F7" s="40">
         <v>1</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I7" s="40">
         <v>20</v>
@@ -20571,7 +20567,7 @@
         <v>290</v>
       </c>
       <c r="W7" s="160" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X7" s="157" t="s">
         <v>130</v>
@@ -20580,7 +20576,7 @@
         <v>130</v>
       </c>
       <c r="Z7" s="84" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AA7" s="40"/>
       <c r="AB7" s="40"/>
@@ -20626,22 +20622,22 @@
         <v>2</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D8" s="40">
         <v>100</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F8" s="40">
         <v>1</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I8" s="40">
         <v>20</v>
@@ -20684,7 +20680,7 @@
         <v>86</v>
       </c>
       <c r="W8" s="160" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X8" s="157" t="s">
         <v>292</v>
@@ -20693,7 +20689,7 @@
         <v>292</v>
       </c>
       <c r="Z8" s="84" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AA8" s="40"/>
       <c r="AB8" s="40"/>
@@ -20739,22 +20735,22 @@
         <v>3</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D9" s="40">
         <v>102</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F9" s="40">
         <v>6</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I9" s="40">
         <v>20</v>
@@ -20799,7 +20795,7 @@
         <v>44</v>
       </c>
       <c r="W9" s="160" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X9" s="157">
         <f>90*1.5</f>
@@ -20810,7 +20806,7 @@
         <v>135</v>
       </c>
       <c r="Z9" s="84" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AA9" s="40"/>
       <c r="AB9" s="40"/>
@@ -20832,10 +20828,10 @@
       <c r="AL9" s="40"/>
       <c r="AM9" s="40"/>
       <c r="AN9" s="21" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AO9" s="21" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AP9" s="21"/>
       <c r="AQ9" s="40" t="s">
@@ -20860,13 +20856,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D10" s="40">
         <v>101</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F10" s="40">
         <v>6</v>
@@ -20910,7 +20906,7 @@
       <c r="U10" s="159"/>
       <c r="V10" s="159"/>
       <c r="W10" s="160" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X10" s="157">
         <v>13</v>
@@ -20919,7 +20915,7 @@
         <v>13</v>
       </c>
       <c r="Z10" s="84" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AA10" s="40"/>
       <c r="AB10" s="40"/>
@@ -20941,7 +20937,7 @@
       <c r="AN10" s="40"/>
       <c r="AO10" s="40"/>
       <c r="AP10" s="40" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AQ10" s="40" t="s">
         <v>118</v>
@@ -20971,7 +20967,7 @@
         <v>101</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F11" s="40">
         <v>6</v>
@@ -21019,7 +21015,7 @@
         <v>110</v>
       </c>
       <c r="W11" s="160" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X11" s="157" t="s">
         <v>117</v>
@@ -21028,7 +21024,7 @@
         <v>117</v>
       </c>
       <c r="Z11" s="84" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AA11" s="40"/>
       <c r="AB11" s="40"/>
@@ -21052,11 +21048,11 @@
       <c r="AL11" s="40"/>
       <c r="AM11" s="40"/>
       <c r="AN11" s="43" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AO11" s="43"/>
       <c r="AP11" s="43" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AQ11" s="40" t="s">
         <v>93</v>
@@ -21088,16 +21084,16 @@
         <v>101</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F12" s="40">
         <v>6</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I12" s="40" t="s">
         <v>101</v>
@@ -21140,7 +21136,7 @@
         <v>11</v>
       </c>
       <c r="W12" s="160" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X12" s="157" t="s">
         <v>122</v>
@@ -21149,7 +21145,7 @@
         <v>122</v>
       </c>
       <c r="Z12" s="84" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AA12" s="40"/>
       <c r="AB12" s="40" t="s">
@@ -21179,11 +21175,11 @@
       <c r="AL12" s="40"/>
       <c r="AM12" s="40"/>
       <c r="AN12" s="40" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AO12" s="40"/>
       <c r="AP12" s="40" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AQ12" s="40" t="s">
         <v>93</v>
@@ -21215,7 +21211,7 @@
         <v>101</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F13" s="40">
         <v>6</v>
@@ -21263,7 +21259,7 @@
         <v>14</v>
       </c>
       <c r="W13" s="160" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X13" s="157" t="s">
         <v>140</v>
@@ -21272,7 +21268,7 @@
         <v>140</v>
       </c>
       <c r="Z13" s="84" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AA13" s="40"/>
       <c r="AB13" s="40"/>
@@ -21298,11 +21294,11 @@
       <c r="AL13" s="40"/>
       <c r="AM13" s="40"/>
       <c r="AN13" s="43" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AO13" s="43"/>
       <c r="AP13" s="43" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AQ13" s="40" t="s">
         <v>118</v>
@@ -21321,29 +21317,29 @@
     </row>
     <row r="14" spans="1:48">
       <c r="A14" s="122" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B14" s="40">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D14" s="40">
         <v>101</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F14" s="40">
         <v>6</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>124</v>
@@ -21388,7 +21384,7 @@
         <v>120</v>
       </c>
       <c r="W14" s="160" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X14" s="157">
         <f>20*10</f>
@@ -21399,7 +21395,7 @@
         <v>200</v>
       </c>
       <c r="Z14" s="84" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AA14" s="40"/>
       <c r="AB14" s="40" t="s">
@@ -21429,11 +21425,11 @@
       </c>
       <c r="AM14" s="40"/>
       <c r="AN14" s="21" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AO14" s="21"/>
       <c r="AP14" s="21" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AQ14" s="40" t="s">
         <v>93</v>
@@ -21463,16 +21459,16 @@
         <v>101</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F15" s="40">
         <v>6</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I15" s="40">
         <v>240</v>
@@ -21517,7 +21513,7 @@
         <v>100</v>
       </c>
       <c r="W15" s="160" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X15" s="157" t="s">
         <v>132</v>
@@ -21526,7 +21522,7 @@
         <v>132</v>
       </c>
       <c r="Z15" s="84" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AA15" s="40"/>
       <c r="AB15" s="40" t="s">
@@ -21558,11 +21554,11 @@
       </c>
       <c r="AM15" s="40"/>
       <c r="AN15" s="21" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AO15" s="21"/>
       <c r="AP15" s="21" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AQ15" s="40" t="s">
         <v>93</v>
@@ -21594,7 +21590,7 @@
         <v>101</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F16" s="40">
         <v>6</v>
@@ -21642,7 +21638,7 @@
         <v>131</v>
       </c>
       <c r="W16" s="160" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X16" s="157" t="s">
         <v>187</v>
@@ -21651,7 +21647,7 @@
         <v>187</v>
       </c>
       <c r="Z16" s="84" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AA16" s="40"/>
       <c r="AB16" s="40"/>
@@ -21677,11 +21673,11 @@
       </c>
       <c r="AM16" s="40"/>
       <c r="AN16" s="44" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AO16" s="44"/>
       <c r="AP16" s="44" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AQ16" s="40" t="s">
         <v>118</v>
@@ -21710,14 +21706,14 @@
         <v>294</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E17" s="45"/>
       <c r="F17" s="45">
         <v>1</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H17" s="35" t="s">
         <v>176</v>
@@ -21726,7 +21722,7 @@
         <v>295</v>
       </c>
       <c r="J17" s="45" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K17" s="45" t="s">
         <v>296</v>
@@ -21749,7 +21745,7 @@
         <v>96</v>
       </c>
       <c r="W17" s="160" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X17" s="158" t="s">
         <v>121</v>
@@ -21758,7 +21754,7 @@
         <v>121</v>
       </c>
       <c r="Z17" s="84" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AA17" s="45"/>
       <c r="AB17" s="45"/>
@@ -21780,10 +21776,10 @@
       <c r="AL17" s="45"/>
       <c r="AM17" s="45"/>
       <c r="AN17" s="45" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AO17" s="45" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AP17" s="45"/>
       <c r="AQ17" s="45" t="s">
@@ -21811,14 +21807,14 @@
         <v>299</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E18" s="45"/>
       <c r="F18" s="45">
         <v>1</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H18" s="35" t="s">
         <v>176</v>
@@ -21827,7 +21823,7 @@
         <v>295</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K18" s="45" t="s">
         <v>300</v>
@@ -21850,7 +21846,7 @@
         <v>132</v>
       </c>
       <c r="W18" s="160" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X18" s="158">
         <v>100</v>
@@ -21859,7 +21855,7 @@
         <v>100</v>
       </c>
       <c r="Z18" s="84" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AA18" s="45"/>
       <c r="AB18" s="45"/>
@@ -21881,7 +21877,7 @@
       <c r="AL18" s="45"/>
       <c r="AM18" s="45"/>
       <c r="AN18" s="45" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AO18" s="45"/>
       <c r="AP18" s="45"/>
@@ -21910,23 +21906,23 @@
         <v>303</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E19" s="45"/>
       <c r="F19" s="45">
         <v>1</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I19" s="45" t="s">
         <v>295</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K19" s="45" t="s">
         <v>304</v>
@@ -21949,7 +21945,7 @@
         <v>123</v>
       </c>
       <c r="W19" s="160" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X19" s="158" t="s">
         <v>144</v>
@@ -21958,7 +21954,7 @@
         <v>144</v>
       </c>
       <c r="Z19" s="84" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AA19" s="45"/>
       <c r="AB19" s="45" t="s">
@@ -21986,7 +21982,7 @@
       <c r="AL19" s="45"/>
       <c r="AM19" s="45"/>
       <c r="AN19" s="45" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AO19" s="45"/>
       <c r="AP19" s="45"/>
@@ -22017,23 +22013,23 @@
         <v>307</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E20" s="45"/>
       <c r="F20" s="45">
         <v>1</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I20" s="45" t="s">
         <v>295</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K20" s="45" t="s">
         <v>308</v>
@@ -22056,7 +22052,7 @@
         <v>309</v>
       </c>
       <c r="W20" s="160" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X20" s="158" t="s">
         <v>113</v>
@@ -22065,7 +22061,7 @@
         <v>113</v>
       </c>
       <c r="Z20" s="84" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AA20" s="45"/>
       <c r="AB20" s="45" t="s">
@@ -22091,7 +22087,7 @@
       </c>
       <c r="AM20" s="45"/>
       <c r="AN20" s="45" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AO20" s="45"/>
       <c r="AP20" s="45"/>
@@ -22122,23 +22118,23 @@
         <v>313</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E21" s="45"/>
       <c r="F21" s="45">
         <v>1</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I21" s="45" t="s">
         <v>295</v>
       </c>
       <c r="J21" s="45" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K21" s="45" t="s">
         <v>314</v>
@@ -22161,7 +22157,7 @@
         <v>101</v>
       </c>
       <c r="W21" s="160" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X21" s="158" t="s">
         <v>277</v>
@@ -22170,7 +22166,7 @@
         <v>277</v>
       </c>
       <c r="Z21" s="84" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AA21" s="45"/>
       <c r="AB21" s="45" t="s">
@@ -22196,7 +22192,7 @@
       </c>
       <c r="AM21" s="45"/>
       <c r="AN21" s="45" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AO21" s="45"/>
       <c r="AP21" s="45"/>
@@ -22224,26 +22220,26 @@
         <v>16</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E22" s="45"/>
       <c r="F22" s="45">
         <v>1</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I22" s="45" t="s">
         <v>295</v>
       </c>
       <c r="J22" s="45" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K22" s="45" t="s">
         <v>317</v>
@@ -22266,7 +22262,7 @@
         <v>318</v>
       </c>
       <c r="W22" s="160" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X22" s="158" t="s">
         <v>319</v>
@@ -22275,7 +22271,7 @@
         <v>319</v>
       </c>
       <c r="Z22" s="84" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AA22" s="45"/>
       <c r="AB22" s="45" t="s">
@@ -22303,7 +22299,7 @@
       <c r="AL22" s="45"/>
       <c r="AM22" s="45"/>
       <c r="AN22" s="45" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AO22" s="45"/>
       <c r="AP22" s="45"/>
@@ -22390,7 +22386,7 @@
       <c r="B1" s="168"/>
       <c r="C1" s="168"/>
       <c r="D1" s="170" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E1" s="170"/>
       <c r="F1" s="170"/>
@@ -22403,7 +22399,7 @@
       <c r="B2" s="168"/>
       <c r="C2" s="168"/>
       <c r="D2" s="170" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E2" s="170"/>
       <c r="F2" s="170"/>
@@ -22424,61 +22420,61 @@
         <v>2</v>
       </c>
       <c r="C4" s="142" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D4" s="152" t="s">
+        <v>845</v>
+      </c>
+      <c r="E4" s="153" t="s">
         <v>846</v>
       </c>
-      <c r="E4" s="153" t="s">
+      <c r="F4" s="153" t="s">
         <v>847</v>
       </c>
-      <c r="F4" s="153" t="s">
+      <c r="G4" s="153" t="s">
+        <v>882</v>
+      </c>
+      <c r="H4" s="153" t="s">
+        <v>849</v>
+      </c>
+      <c r="I4" s="153" t="s">
+        <v>920</v>
+      </c>
+      <c r="J4" s="153" t="s">
         <v>848</v>
       </c>
-      <c r="G4" s="153" t="s">
-        <v>883</v>
-      </c>
-      <c r="H4" s="153" t="s">
+      <c r="K4" s="153" t="s">
         <v>850</v>
       </c>
-      <c r="I4" s="153" t="s">
-        <v>921</v>
-      </c>
-      <c r="J4" s="153" t="s">
-        <v>849</v>
-      </c>
-      <c r="K4" s="153" t="s">
+      <c r="L4" s="153" t="s">
         <v>851</v>
       </c>
-      <c r="L4" s="153" t="s">
+      <c r="M4" s="153" t="s">
+        <v>911</v>
+      </c>
+      <c r="N4" s="153" t="s">
         <v>852</v>
       </c>
-      <c r="M4" s="153" t="s">
-        <v>912</v>
-      </c>
-      <c r="N4" s="153" t="s">
+      <c r="O4" s="153" t="s">
         <v>853</v>
       </c>
-      <c r="O4" s="153" t="s">
+      <c r="P4" s="153" t="s">
         <v>854</v>
       </c>
-      <c r="P4" s="153" t="s">
+      <c r="Q4" s="153" t="s">
         <v>855</v>
       </c>
-      <c r="Q4" s="153" t="s">
+      <c r="R4" s="153" t="s">
         <v>856</v>
       </c>
-      <c r="R4" s="153" t="s">
+      <c r="S4" s="153" t="s">
         <v>857</v>
       </c>
-      <c r="S4" s="153" t="s">
+      <c r="T4" s="153" t="s">
         <v>858</v>
       </c>
-      <c r="T4" s="153" t="s">
+      <c r="U4" s="153" t="s">
         <v>859</v>
-      </c>
-      <c r="U4" s="153" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="141" customFormat="1" ht="46" customHeight="1">
@@ -22487,61 +22483,61 @@
         <v>2</v>
       </c>
       <c r="C5" s="144" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D5" s="154" t="s">
+        <v>860</v>
+      </c>
+      <c r="E5" s="154" t="s">
         <v>861</v>
       </c>
-      <c r="E5" s="154" t="s">
+      <c r="F5" s="154" t="s">
         <v>862</v>
       </c>
-      <c r="F5" s="154" t="s">
+      <c r="G5" s="154" t="s">
+        <v>770</v>
+      </c>
+      <c r="H5" s="154" t="s">
+        <v>865</v>
+      </c>
+      <c r="I5" s="154" t="s">
         <v>863</v>
       </c>
-      <c r="G5" s="154" t="s">
-        <v>771</v>
-      </c>
-      <c r="H5" s="154" t="s">
+      <c r="J5" s="154" t="s">
+        <v>864</v>
+      </c>
+      <c r="K5" s="154" t="s">
         <v>866</v>
       </c>
-      <c r="I5" s="154" t="s">
-        <v>864</v>
-      </c>
-      <c r="J5" s="154" t="s">
-        <v>865</v>
-      </c>
-      <c r="K5" s="154" t="s">
+      <c r="L5" s="154" t="s">
         <v>867</v>
       </c>
-      <c r="L5" s="154" t="s">
+      <c r="M5" s="154" t="s">
+        <v>915</v>
+      </c>
+      <c r="N5" s="154" t="s">
         <v>868</v>
       </c>
-      <c r="M5" s="154" t="s">
-        <v>916</v>
-      </c>
-      <c r="N5" s="154" t="s">
+      <c r="O5" s="154" t="s">
         <v>869</v>
       </c>
-      <c r="O5" s="154" t="s">
+      <c r="P5" s="154" t="s">
         <v>870</v>
       </c>
-      <c r="P5" s="154" t="s">
+      <c r="Q5" s="154" t="s">
         <v>871</v>
       </c>
-      <c r="Q5" s="154" t="s">
+      <c r="R5" s="154" t="s">
         <v>872</v>
       </c>
-      <c r="R5" s="154" t="s">
+      <c r="S5" s="154" t="s">
+        <v>883</v>
+      </c>
+      <c r="T5" s="154" t="s">
         <v>873</v>
       </c>
-      <c r="S5" s="154" t="s">
-        <v>884</v>
-      </c>
-      <c r="T5" s="154" t="s">
+      <c r="U5" s="154" t="s">
         <v>874</v>
-      </c>
-      <c r="U5" s="154" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="141" customFormat="1" ht="21" customHeight="1">
@@ -22580,7 +22576,7 @@
         <v>88</v>
       </c>
       <c r="M6" s="155" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="N6" s="155" t="s">
         <v>88</v>
@@ -22609,23 +22605,23 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="148" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B7" s="137">
         <v>1</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D7" s="137" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E7" s="137" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F7" s="151"/>
       <c r="G7" s="137" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H7" s="151"/>
       <c r="I7" s="151"/>
@@ -22640,34 +22636,34 @@
       <c r="P7" s="151"/>
       <c r="Q7" s="151"/>
       <c r="R7" s="137" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="S7" s="138"/>
       <c r="T7" s="151"/>
       <c r="U7" s="151"/>
       <c r="V7" s="136" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="148" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B8" s="137">
         <v>2</v>
       </c>
       <c r="C8" s="137" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D8" s="137" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E8" s="137" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F8" s="151"/>
       <c r="G8" s="137" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H8" s="151"/>
       <c r="I8" s="151"/>
@@ -22682,20 +22678,20 @@
       <c r="P8" s="151"/>
       <c r="Q8" s="151"/>
       <c r="R8" s="137" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="S8" s="138"/>
       <c r="T8" s="156" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="U8" s="151"/>
       <c r="V8" s="136" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="148" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B9" s="137">
         <v>3</v>
@@ -22704,14 +22700,14 @@
         <v>192</v>
       </c>
       <c r="D9" s="137" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E9" s="137" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F9" s="151"/>
       <c r="G9" s="137" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H9" s="151"/>
       <c r="I9" s="151">
@@ -22720,7 +22716,7 @@
       <c r="J9" s="151"/>
       <c r="K9" s="151"/>
       <c r="L9" s="39" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M9" s="39"/>
       <c r="N9" s="151"/>
@@ -22730,34 +22726,34 @@
       <c r="P9" s="151"/>
       <c r="Q9" s="151"/>
       <c r="R9" s="137" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="S9" s="138"/>
       <c r="T9" s="151"/>
       <c r="U9" s="151"/>
       <c r="V9" s="136" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="148" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B10" s="137">
         <v>4</v>
       </c>
       <c r="C10" s="137" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D10" s="137" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E10" s="137" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F10" s="151"/>
       <c r="G10" s="137" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H10" s="151"/>
       <c r="I10" s="151">
@@ -22766,10 +22762,10 @@
       <c r="J10" s="151"/>
       <c r="K10" s="151"/>
       <c r="L10" s="39" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M10" s="39" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N10" s="151"/>
       <c r="O10" s="163" t="s">
@@ -22778,71 +22774,71 @@
       <c r="P10" s="151"/>
       <c r="Q10" s="151"/>
       <c r="R10" s="137" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="S10" s="138"/>
       <c r="T10" s="151"/>
       <c r="U10" s="151"/>
       <c r="V10" s="136" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="148" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B11" s="137">
         <v>5</v>
       </c>
       <c r="C11" s="137" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E11" s="137" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F11" s="151"/>
       <c r="G11" s="137" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H11" s="151"/>
       <c r="I11" s="151"/>
       <c r="J11" s="151"/>
       <c r="K11" s="151"/>
       <c r="L11" s="39" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="M11" s="39"/>
       <c r="N11" s="151"/>
       <c r="O11" s="39" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="P11" s="151"/>
       <c r="Q11" s="151"/>
       <c r="R11" s="137" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="S11" s="138"/>
       <c r="T11" s="151"/>
       <c r="U11" s="151"/>
       <c r="V11" s="136" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="148" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B12" s="137">
         <v>6</v>
       </c>
       <c r="C12" s="137" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D12" s="137" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E12" s="137"/>
       <c r="F12" s="151"/>
@@ -22852,7 +22848,7 @@
       <c r="J12" s="151"/>
       <c r="K12" s="151"/>
       <c r="L12" s="39" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M12" s="39"/>
       <c r="N12" s="151"/>
@@ -22864,109 +22860,109 @@
       <c r="T12" s="151"/>
       <c r="U12" s="151"/>
       <c r="V12" s="136" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="148" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B13" s="137">
         <v>7</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D13" s="137" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E13" s="137" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F13" s="151"/>
       <c r="G13" s="39" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H13" s="151"/>
       <c r="I13" s="151"/>
       <c r="J13" s="151"/>
       <c r="K13" s="151"/>
       <c r="L13" s="39" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="M13" s="39"/>
       <c r="N13" s="151"/>
       <c r="O13" s="39" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="P13" s="151"/>
       <c r="Q13" s="151"/>
       <c r="R13" s="137" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="S13" s="138"/>
       <c r="T13" s="151"/>
       <c r="U13" s="151"/>
       <c r="V13" s="136" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="148" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B14" s="137">
         <v>8</v>
       </c>
       <c r="C14" s="137" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D14" s="137" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E14" s="137" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F14" s="151"/>
       <c r="G14" s="137" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H14" s="151"/>
       <c r="I14" s="151"/>
       <c r="J14" s="151"/>
       <c r="K14" s="151"/>
       <c r="L14" s="39" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="M14" s="39"/>
       <c r="N14" s="151"/>
       <c r="O14" s="39" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="P14" s="151"/>
       <c r="Q14" s="151"/>
       <c r="R14" s="137" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="S14" s="138"/>
       <c r="T14" s="151"/>
       <c r="U14" s="151"/>
       <c r="V14" s="139" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="148" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>112</v>
       </c>
       <c r="C15" s="137" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D15" s="137" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E15" s="137"/>
       <c r="F15" s="151"/>
@@ -22995,17 +22991,17 @@
         <v>96</v>
       </c>
       <c r="C16" s="137" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D16" s="137" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E16" s="137" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F16" s="151"/>
       <c r="G16" s="137" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H16" s="151"/>
       <c r="I16" s="151"/>
@@ -23023,22 +23019,22 @@
       <c r="S16" s="138"/>
       <c r="T16" s="151"/>
       <c r="U16" s="156" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="V16" s="140"/>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="149" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B17" s="137" t="s">
         <v>134</v>
       </c>
       <c r="C17" s="137" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D17" s="137" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E17" s="137" t="s">
         <v>148</v>
@@ -23060,7 +23056,7 @@
       <c r="P17" s="151"/>
       <c r="Q17" s="151"/>
       <c r="R17" s="137" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="S17" s="138"/>
       <c r="T17" s="151"/>
@@ -23069,16 +23065,16 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="149" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B18" s="137" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C18" s="137" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D18" s="137" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E18" s="137" t="s">
         <v>148</v>
@@ -23100,7 +23096,7 @@
       <c r="P18" s="151"/>
       <c r="Q18" s="151"/>
       <c r="R18" s="137" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="S18" s="138"/>
       <c r="T18" s="151"/>
@@ -23109,23 +23105,23 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="148" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B19" s="137" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C19" s="137" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D19" s="137" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E19" s="137" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F19" s="151"/>
       <c r="G19" s="137" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H19" s="151"/>
       <c r="I19" s="151"/>
@@ -23140,13 +23136,13 @@
       <c r="P19" s="151"/>
       <c r="Q19" s="151"/>
       <c r="R19" s="137" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="S19" s="138"/>
       <c r="T19" s="156"/>
       <c r="U19" s="151"/>
       <c r="V19" s="136" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -23356,7 +23352,7 @@
       <c r="B1" s="171"/>
       <c r="C1" s="171"/>
       <c r="D1" s="131" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -23376,7 +23372,7 @@
       <c r="B2" s="171"/>
       <c r="C2" s="171"/>
       <c r="D2" s="131" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -23413,16 +23409,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>964</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>965</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1">
@@ -23431,16 +23427,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>962</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>963</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -23462,7 +23458,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="47" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" ref="B7:B13" si="0">ROW()-6</f>
@@ -23472,10 +23468,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -23483,7 +23479,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="47" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
@@ -23494,7 +23490,7 @@
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -23502,7 +23498,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="47" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
@@ -23513,7 +23509,7 @@
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -23521,7 +23517,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="47" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
@@ -23532,7 +23528,7 @@
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F10" s="2">
         <v>2</v>
@@ -23540,7 +23536,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="47" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
@@ -23551,7 +23547,7 @@
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
@@ -23559,7 +23555,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="47" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
@@ -23570,7 +23566,7 @@
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F12" s="2">
         <v>4</v>
@@ -23578,7 +23574,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="47" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
@@ -23589,7 +23585,7 @@
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -23597,7 +23593,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="47" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B14" s="21">
         <v>99</v>
